--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.175298</v>
+        <v>0.106242</v>
       </c>
       <c r="C2" t="n">
-        <v>0.187337</v>
+        <v>0.110296</v>
       </c>
       <c r="D2" t="n">
-        <v>0.196804</v>
+        <v>0.111464</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.175703</v>
+        <v>0.107514</v>
       </c>
       <c r="C3" t="n">
-        <v>0.188288</v>
+        <v>0.111034</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197402</v>
+        <v>0.11326</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.176412</v>
+        <v>0.1088</v>
       </c>
       <c r="C4" t="n">
-        <v>0.188737</v>
+        <v>0.112257</v>
       </c>
       <c r="D4" t="n">
-        <v>0.198717</v>
+        <v>0.114114</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.177157</v>
+        <v>0.110493</v>
       </c>
       <c r="C5" t="n">
-        <v>0.190187</v>
+        <v>0.113655</v>
       </c>
       <c r="D5" t="n">
-        <v>0.20037</v>
+        <v>0.115273</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.178123</v>
+        <v>0.112375</v>
       </c>
       <c r="C6" t="n">
-        <v>0.19207</v>
+        <v>0.116074</v>
       </c>
       <c r="D6" t="n">
-        <v>0.202495</v>
+        <v>0.118706</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.180093</v>
+        <v>0.115809</v>
       </c>
       <c r="C7" t="n">
-        <v>0.194056</v>
+        <v>0.11745</v>
       </c>
       <c r="D7" t="n">
-        <v>0.205318</v>
+        <v>0.11931</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.181916</v>
+        <v>0.118266</v>
       </c>
       <c r="C8" t="n">
-        <v>0.196929</v>
+        <v>0.120214</v>
       </c>
       <c r="D8" t="n">
-        <v>0.209823</v>
+        <v>0.122281</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.185664</v>
+        <v>0.123048</v>
       </c>
       <c r="C9" t="n">
-        <v>0.200656</v>
+        <v>0.123562</v>
       </c>
       <c r="D9" t="n">
-        <v>0.193551</v>
+        <v>0.109834</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.181323</v>
+        <v>0.106339</v>
       </c>
       <c r="C10" t="n">
-        <v>0.187637</v>
+        <v>0.107715</v>
       </c>
       <c r="D10" t="n">
-        <v>0.194396</v>
+        <v>0.110605</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.181323</v>
+        <v>0.106894</v>
       </c>
       <c r="C11" t="n">
-        <v>0.187937</v>
+        <v>0.107908</v>
       </c>
       <c r="D11" t="n">
-        <v>0.195082</v>
+        <v>0.110734</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.181438</v>
+        <v>0.107145</v>
       </c>
       <c r="C12" t="n">
-        <v>0.187586</v>
+        <v>0.107865</v>
       </c>
       <c r="D12" t="n">
-        <v>0.19482</v>
+        <v>0.110909</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.182484</v>
+        <v>0.107293</v>
       </c>
       <c r="C13" t="n">
-        <v>0.187954</v>
+        <v>0.109258</v>
       </c>
       <c r="D13" t="n">
-        <v>0.195085</v>
+        <v>0.112357</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.181925</v>
+        <v>0.107999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.189178</v>
+        <v>0.109735</v>
       </c>
       <c r="D14" t="n">
-        <v>0.196341</v>
+        <v>0.112535</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.181933</v>
+        <v>0.108817</v>
       </c>
       <c r="C15" t="n">
-        <v>0.188281</v>
+        <v>0.110416</v>
       </c>
       <c r="D15" t="n">
-        <v>0.195594</v>
+        <v>0.113613</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.183213</v>
+        <v>0.110068</v>
       </c>
       <c r="C16" t="n">
-        <v>0.189765</v>
+        <v>0.111313</v>
       </c>
       <c r="D16" t="n">
-        <v>0.196274</v>
+        <v>0.114379</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.182593</v>
+        <v>0.110692</v>
       </c>
       <c r="C17" t="n">
-        <v>0.189893</v>
+        <v>0.113135</v>
       </c>
       <c r="D17" t="n">
-        <v>0.197133</v>
+        <v>0.115742</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.183875</v>
+        <v>0.111421</v>
       </c>
       <c r="C18" t="n">
-        <v>0.191975</v>
+        <v>0.113915</v>
       </c>
       <c r="D18" t="n">
-        <v>0.199577</v>
+        <v>0.117267</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.184966</v>
+        <v>0.114124</v>
       </c>
       <c r="C19" t="n">
-        <v>0.193306</v>
+        <v>0.115521</v>
       </c>
       <c r="D19" t="n">
-        <v>0.200171</v>
+        <v>0.119257</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.185813</v>
+        <v>0.114667</v>
       </c>
       <c r="C20" t="n">
-        <v>0.19509</v>
+        <v>0.117238</v>
       </c>
       <c r="D20" t="n">
-        <v>0.203299</v>
+        <v>0.12112</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.186791</v>
+        <v>0.118547</v>
       </c>
       <c r="C21" t="n">
-        <v>0.195521</v>
+        <v>0.119475</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204468</v>
+        <v>0.123258</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.189585</v>
+        <v>0.121129</v>
       </c>
       <c r="C22" t="n">
-        <v>0.197885</v>
+        <v>0.122511</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208472</v>
+        <v>0.126851</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.192938</v>
+        <v>0.128679</v>
       </c>
       <c r="C23" t="n">
-        <v>0.202468</v>
+        <v>0.125905</v>
       </c>
       <c r="D23" t="n">
-        <v>0.197718</v>
+        <v>0.112731</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.202284</v>
+        <v>0.110033</v>
       </c>
       <c r="C24" t="n">
-        <v>0.188044</v>
+        <v>0.108454</v>
       </c>
       <c r="D24" t="n">
-        <v>0.200666</v>
+        <v>0.112975</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.202181</v>
+        <v>0.11025</v>
       </c>
       <c r="C25" t="n">
-        <v>0.189162</v>
+        <v>0.109306</v>
       </c>
       <c r="D25" t="n">
-        <v>0.200419</v>
+        <v>0.114075</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.203639</v>
+        <v>0.110525</v>
       </c>
       <c r="C26" t="n">
-        <v>0.19083</v>
+        <v>0.109712</v>
       </c>
       <c r="D26" t="n">
-        <v>0.200618</v>
+        <v>0.114325</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.202907</v>
+        <v>0.111381</v>
       </c>
       <c r="C27" t="n">
-        <v>0.191383</v>
+        <v>0.11084</v>
       </c>
       <c r="D27" t="n">
-        <v>0.202408</v>
+        <v>0.11496</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.202734</v>
+        <v>0.111413</v>
       </c>
       <c r="C28" t="n">
-        <v>0.192166</v>
+        <v>0.111496</v>
       </c>
       <c r="D28" t="n">
-        <v>0.203849</v>
+        <v>0.11515</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.202538</v>
+        <v>0.112704</v>
       </c>
       <c r="C29" t="n">
-        <v>0.192697</v>
+        <v>0.112484</v>
       </c>
       <c r="D29" t="n">
-        <v>0.204068</v>
+        <v>0.116378</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.203216</v>
+        <v>0.113683</v>
       </c>
       <c r="C30" t="n">
-        <v>0.193141</v>
+        <v>0.113325</v>
       </c>
       <c r="D30" t="n">
-        <v>0.205527</v>
+        <v>0.117677</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.203358</v>
+        <v>0.115265</v>
       </c>
       <c r="C31" t="n">
-        <v>0.193713</v>
+        <v>0.114659</v>
       </c>
       <c r="D31" t="n">
-        <v>0.205553</v>
+        <v>0.118528</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.204059</v>
+        <v>0.115827</v>
       </c>
       <c r="C32" t="n">
-        <v>0.194664</v>
+        <v>0.115404</v>
       </c>
       <c r="D32" t="n">
-        <v>0.205865</v>
+        <v>0.11902</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.205607</v>
+        <v>0.117002</v>
       </c>
       <c r="C33" t="n">
-        <v>0.196338</v>
+        <v>0.116716</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208129</v>
+        <v>0.120977</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.206367</v>
+        <v>0.119249</v>
       </c>
       <c r="C34" t="n">
-        <v>0.197595</v>
+        <v>0.118725</v>
       </c>
       <c r="D34" t="n">
-        <v>0.209108</v>
+        <v>0.123112</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.207296</v>
+        <v>0.121915</v>
       </c>
       <c r="C35" t="n">
-        <v>0.199726</v>
+        <v>0.120912</v>
       </c>
       <c r="D35" t="n">
-        <v>0.212224</v>
+        <v>0.125946</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.20845</v>
+        <v>0.127108</v>
       </c>
       <c r="C36" t="n">
-        <v>0.202905</v>
+        <v>0.124097</v>
       </c>
       <c r="D36" t="n">
-        <v>0.216874</v>
+        <v>0.130844</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.21239</v>
+        <v>0.132447</v>
       </c>
       <c r="C37" t="n">
-        <v>0.207352</v>
+        <v>0.129143</v>
       </c>
       <c r="D37" t="n">
-        <v>0.220019</v>
+        <v>0.114082</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.232306</v>
+        <v>0.114349</v>
       </c>
       <c r="C38" t="n">
-        <v>0.208057</v>
+        <v>0.109602</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220486</v>
+        <v>0.114608</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.232521</v>
+        <v>0.114599</v>
       </c>
       <c r="C39" t="n">
-        <v>0.208592</v>
+        <v>0.110265</v>
       </c>
       <c r="D39" t="n">
-        <v>0.220602</v>
+        <v>0.114845</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232654</v>
+        <v>0.114319</v>
       </c>
       <c r="C40" t="n">
-        <v>0.209626</v>
+        <v>0.110835</v>
       </c>
       <c r="D40" t="n">
-        <v>0.220329</v>
+        <v>0.115552</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.232469</v>
+        <v>0.114795</v>
       </c>
       <c r="C41" t="n">
-        <v>0.211151</v>
+        <v>0.111611</v>
       </c>
       <c r="D41" t="n">
-        <v>0.221816</v>
+        <v>0.115867</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.232893</v>
+        <v>0.115571</v>
       </c>
       <c r="C42" t="n">
-        <v>0.211603</v>
+        <v>0.112568</v>
       </c>
       <c r="D42" t="n">
-        <v>0.222196</v>
+        <v>0.116512</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.231849</v>
+        <v>0.116205</v>
       </c>
       <c r="C43" t="n">
-        <v>0.212892</v>
+        <v>0.113212</v>
       </c>
       <c r="D43" t="n">
-        <v>0.222552</v>
+        <v>0.11726</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.233912</v>
+        <v>0.116782</v>
       </c>
       <c r="C44" t="n">
-        <v>0.214326</v>
+        <v>0.114233</v>
       </c>
       <c r="D44" t="n">
-        <v>0.223997</v>
+        <v>0.118105</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.234475</v>
+        <v>0.118055</v>
       </c>
       <c r="C45" t="n">
-        <v>0.21544</v>
+        <v>0.115275</v>
       </c>
       <c r="D45" t="n">
-        <v>0.224726</v>
+        <v>0.119552</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.234991</v>
+        <v>0.119192</v>
       </c>
       <c r="C46" t="n">
-        <v>0.216835</v>
+        <v>0.116663</v>
       </c>
       <c r="D46" t="n">
-        <v>0.226971</v>
+        <v>0.120454</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.233174</v>
+        <v>0.120489</v>
       </c>
       <c r="C47" t="n">
-        <v>0.217908</v>
+        <v>0.11812</v>
       </c>
       <c r="D47" t="n">
-        <v>0.228141</v>
+        <v>0.122254</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.233013</v>
+        <v>0.123411</v>
       </c>
       <c r="C48" t="n">
-        <v>0.220493</v>
+        <v>0.120189</v>
       </c>
       <c r="D48" t="n">
-        <v>0.231372</v>
+        <v>0.125077</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.23446</v>
+        <v>0.126767</v>
       </c>
       <c r="C49" t="n">
-        <v>0.222014</v>
+        <v>0.123014</v>
       </c>
       <c r="D49" t="n">
-        <v>0.232548</v>
+        <v>0.128348</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.23571</v>
+        <v>0.131135</v>
       </c>
       <c r="C50" t="n">
-        <v>0.225018</v>
+        <v>0.126615</v>
       </c>
       <c r="D50" t="n">
-        <v>0.236764</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.239321</v>
+        <v>0.137249</v>
       </c>
       <c r="C51" t="n">
-        <v>0.229475</v>
+        <v>0.131979</v>
       </c>
       <c r="D51" t="n">
-        <v>0.233975</v>
+        <v>0.115603</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.245753</v>
+        <v>0.145018</v>
       </c>
       <c r="C52" t="n">
-        <v>0.236439</v>
+        <v>0.140364</v>
       </c>
       <c r="D52" t="n">
-        <v>0.232816</v>
+        <v>0.115755</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.25693</v>
+        <v>0.116782</v>
       </c>
       <c r="C53" t="n">
-        <v>0.22502</v>
+        <v>0.111894</v>
       </c>
       <c r="D53" t="n">
-        <v>0.234493</v>
+        <v>0.116639</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.259931</v>
+        <v>0.11692</v>
       </c>
       <c r="C54" t="n">
-        <v>0.226069</v>
+        <v>0.112705</v>
       </c>
       <c r="D54" t="n">
-        <v>0.233728</v>
+        <v>0.116589</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.257339</v>
+        <v>0.117442</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226778</v>
+        <v>0.113128</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234251</v>
+        <v>0.117041</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.258137</v>
+        <v>0.118615</v>
       </c>
       <c r="C56" t="n">
-        <v>0.226571</v>
+        <v>0.113916</v>
       </c>
       <c r="D56" t="n">
-        <v>0.234132</v>
+        <v>0.117559</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.257792</v>
+        <v>0.118669</v>
       </c>
       <c r="C57" t="n">
-        <v>0.228217</v>
+        <v>0.114581</v>
       </c>
       <c r="D57" t="n">
-        <v>0.235107</v>
+        <v>0.118685</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.259426</v>
+        <v>0.119342</v>
       </c>
       <c r="C58" t="n">
-        <v>0.229758</v>
+        <v>0.115691</v>
       </c>
       <c r="D58" t="n">
-        <v>0.236907</v>
+        <v>0.119247</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.26101</v>
+        <v>0.120398</v>
       </c>
       <c r="C59" t="n">
-        <v>0.229659</v>
+        <v>0.11664</v>
       </c>
       <c r="D59" t="n">
-        <v>0.237965</v>
+        <v>0.120608</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.261617</v>
+        <v>0.121699</v>
       </c>
       <c r="C60" t="n">
-        <v>0.233027</v>
+        <v>0.117862</v>
       </c>
       <c r="D60" t="n">
-        <v>0.241099</v>
+        <v>0.121703</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.262319</v>
+        <v>0.123596</v>
       </c>
       <c r="C61" t="n">
-        <v>0.234273</v>
+        <v>0.119459</v>
       </c>
       <c r="D61" t="n">
-        <v>0.239993</v>
+        <v>0.123547</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.263333</v>
+        <v>0.126073</v>
       </c>
       <c r="C62" t="n">
-        <v>0.233964</v>
+        <v>0.121659</v>
       </c>
       <c r="D62" t="n">
-        <v>0.242266</v>
+        <v>0.126222</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.26328</v>
+        <v>0.129422</v>
       </c>
       <c r="C63" t="n">
-        <v>0.238408</v>
+        <v>0.124706</v>
       </c>
       <c r="D63" t="n">
-        <v>0.247403</v>
+        <v>0.130003</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.264542</v>
+        <v>0.133695</v>
       </c>
       <c r="C64" t="n">
-        <v>0.240102</v>
+        <v>0.128144</v>
       </c>
       <c r="D64" t="n">
-        <v>0.252934</v>
+        <v>0.135463</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.267586</v>
+        <v>0.139487</v>
       </c>
       <c r="C65" t="n">
-        <v>0.243719</v>
+        <v>0.133376</v>
       </c>
       <c r="D65" t="n">
-        <v>0.257042</v>
+        <v>0.143701</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.27217</v>
+        <v>0.147441</v>
       </c>
       <c r="C66" t="n">
-        <v>0.24977</v>
+        <v>0.141179</v>
       </c>
       <c r="D66" t="n">
-        <v>0.242465</v>
+        <v>0.116001</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.277557</v>
+        <v>0.120988</v>
       </c>
       <c r="C67" t="n">
-        <v>0.23774</v>
+        <v>0.112504</v>
       </c>
       <c r="D67" t="n">
-        <v>0.242074</v>
+        <v>0.116505</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.277844</v>
+        <v>0.120456</v>
       </c>
       <c r="C68" t="n">
-        <v>0.238233</v>
+        <v>0.112923</v>
       </c>
       <c r="D68" t="n">
-        <v>0.242305</v>
+        <v>0.117027</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.278111</v>
+        <v>0.121422</v>
       </c>
       <c r="C69" t="n">
-        <v>0.239566</v>
+        <v>0.113768</v>
       </c>
       <c r="D69" t="n">
-        <v>0.243759</v>
+        <v>0.117775</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.274207</v>
+        <v>0.12159</v>
       </c>
       <c r="C70" t="n">
-        <v>0.240858</v>
+        <v>0.114639</v>
       </c>
       <c r="D70" t="n">
-        <v>0.243807</v>
+        <v>0.118254</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.278795</v>
+        <v>0.122111</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2418</v>
+        <v>0.115138</v>
       </c>
       <c r="D71" t="n">
-        <v>0.244548</v>
+        <v>0.119208</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.278616</v>
+        <v>0.123826</v>
       </c>
       <c r="C72" t="n">
-        <v>0.242121</v>
+        <v>0.116115</v>
       </c>
       <c r="D72" t="n">
-        <v>0.245395</v>
+        <v>0.119916</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.27888</v>
+        <v>0.123808</v>
       </c>
       <c r="C73" t="n">
-        <v>0.243735</v>
+        <v>0.117678</v>
       </c>
       <c r="D73" t="n">
-        <v>0.247139</v>
+        <v>0.121012</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.278802</v>
+        <v>0.125393</v>
       </c>
       <c r="C74" t="n">
-        <v>0.245602</v>
+        <v>0.118678</v>
       </c>
       <c r="D74" t="n">
-        <v>0.24898</v>
+        <v>0.122236</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.279819</v>
+        <v>0.126838</v>
       </c>
       <c r="C75" t="n">
-        <v>0.247972</v>
+        <v>0.120331</v>
       </c>
       <c r="D75" t="n">
-        <v>0.250812</v>
+        <v>0.124202</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.280482</v>
+        <v>0.129404</v>
       </c>
       <c r="C76" t="n">
-        <v>0.24766</v>
+        <v>0.122264</v>
       </c>
       <c r="D76" t="n">
-        <v>0.252242</v>
+        <v>0.126569</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.281512</v>
+        <v>0.132455</v>
       </c>
       <c r="C77" t="n">
-        <v>0.252072</v>
+        <v>0.125111</v>
       </c>
       <c r="D77" t="n">
-        <v>0.256296</v>
+        <v>0.130585</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.283331</v>
+        <v>0.136506</v>
       </c>
       <c r="C78" t="n">
-        <v>0.254514</v>
+        <v>0.128866</v>
       </c>
       <c r="D78" t="n">
-        <v>0.260404</v>
+        <v>0.136077</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.285966</v>
+        <v>0.142382</v>
       </c>
       <c r="C79" t="n">
-        <v>0.259509</v>
+        <v>0.133757</v>
       </c>
       <c r="D79" t="n">
-        <v>0.269328</v>
+        <v>0.143701</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.286297</v>
+        <v>0.149916</v>
       </c>
       <c r="C80" t="n">
-        <v>0.265582</v>
+        <v>0.141201</v>
       </c>
       <c r="D80" t="n">
-        <v>0.252506</v>
+        <v>0.119864</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.298767</v>
+        <v>0.129762</v>
       </c>
       <c r="C81" t="n">
-        <v>0.240679</v>
+        <v>0.119571</v>
       </c>
       <c r="D81" t="n">
-        <v>0.251998</v>
+        <v>0.12217</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.30194</v>
+        <v>0.129584</v>
       </c>
       <c r="C82" t="n">
-        <v>0.234991</v>
+        <v>0.120644</v>
       </c>
       <c r="D82" t="n">
-        <v>0.247962</v>
+        <v>0.122647</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.287764</v>
+        <v>0.130109</v>
       </c>
       <c r="C83" t="n">
-        <v>0.238041</v>
+        <v>0.118269</v>
       </c>
       <c r="D83" t="n">
-        <v>0.251109</v>
+        <v>0.122134</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.289185</v>
+        <v>0.13039</v>
       </c>
       <c r="C84" t="n">
-        <v>0.235552</v>
+        <v>0.121991</v>
       </c>
       <c r="D84" t="n">
-        <v>0.249706</v>
+        <v>0.123773</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.291457</v>
+        <v>0.130947</v>
       </c>
       <c r="C85" t="n">
-        <v>0.238168</v>
+        <v>0.11916</v>
       </c>
       <c r="D85" t="n">
-        <v>0.25038</v>
+        <v>0.124531</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.288385</v>
+        <v>0.131791</v>
       </c>
       <c r="C86" t="n">
-        <v>0.245662</v>
+        <v>0.120867</v>
       </c>
       <c r="D86" t="n">
-        <v>0.259883</v>
+        <v>0.122842</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.302049</v>
+        <v>0.132595</v>
       </c>
       <c r="C87" t="n">
-        <v>0.249283</v>
+        <v>0.121867</v>
       </c>
       <c r="D87" t="n">
-        <v>0.258117</v>
+        <v>0.126388</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.301181</v>
+        <v>0.13363</v>
       </c>
       <c r="C88" t="n">
-        <v>0.248931</v>
+        <v>0.126337</v>
       </c>
       <c r="D88" t="n">
-        <v>0.262254</v>
+        <v>0.12494</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.300976</v>
+        <v>0.13526</v>
       </c>
       <c r="C89" t="n">
-        <v>0.246849</v>
+        <v>0.127162</v>
       </c>
       <c r="D89" t="n">
-        <v>0.261929</v>
+        <v>0.127035</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.30297</v>
+        <v>0.137104</v>
       </c>
       <c r="C90" t="n">
-        <v>0.252441</v>
+        <v>0.126624</v>
       </c>
       <c r="D90" t="n">
-        <v>0.263913</v>
+        <v>0.133166</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.302696</v>
+        <v>0.139834</v>
       </c>
       <c r="C91" t="n">
-        <v>0.253418</v>
+        <v>0.129196</v>
       </c>
       <c r="D91" t="n">
-        <v>0.264945</v>
+        <v>0.135075</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.305228</v>
+        <v>0.143829</v>
       </c>
       <c r="C92" t="n">
-        <v>0.259636</v>
+        <v>0.132348</v>
       </c>
       <c r="D92" t="n">
-        <v>0.277588</v>
+        <v>0.139964</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.305778</v>
+        <v>0.148603</v>
       </c>
       <c r="C93" t="n">
-        <v>0.259062</v>
+        <v>0.136692</v>
       </c>
       <c r="D93" t="n">
-        <v>0.278086</v>
+        <v>0.147326</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.31345</v>
+        <v>0.156251</v>
       </c>
       <c r="C94" t="n">
-        <v>0.256353</v>
+        <v>0.143541</v>
       </c>
       <c r="D94" t="n">
-        <v>0.389531</v>
+        <v>0.173484</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.477362</v>
+        <v>0.206451</v>
       </c>
       <c r="C95" t="n">
-        <v>0.411825</v>
+        <v>0.173035</v>
       </c>
       <c r="D95" t="n">
-        <v>0.39913</v>
+        <v>0.171919</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.4909</v>
+        <v>0.19814</v>
       </c>
       <c r="C96" t="n">
-        <v>0.409681</v>
+        <v>0.173406</v>
       </c>
       <c r="D96" t="n">
-        <v>0.398387</v>
+        <v>0.173129</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.483464</v>
+        <v>0.197711</v>
       </c>
       <c r="C97" t="n">
-        <v>0.411075</v>
+        <v>0.175551</v>
       </c>
       <c r="D97" t="n">
-        <v>0.404143</v>
+        <v>0.17624</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.486845</v>
+        <v>0.201207</v>
       </c>
       <c r="C98" t="n">
-        <v>0.410157</v>
+        <v>0.174774</v>
       </c>
       <c r="D98" t="n">
-        <v>0.400627</v>
+        <v>0.177321</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.488918</v>
+        <v>0.198311</v>
       </c>
       <c r="C99" t="n">
-        <v>0.384048</v>
+        <v>0.177309</v>
       </c>
       <c r="D99" t="n">
-        <v>0.367215</v>
+        <v>0.176123</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.448644</v>
+        <v>0.198118</v>
       </c>
       <c r="C100" t="n">
-        <v>0.409732</v>
+        <v>0.176738</v>
       </c>
       <c r="D100" t="n">
-        <v>0.399305</v>
+        <v>0.176505</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.486712</v>
+        <v>0.199337</v>
       </c>
       <c r="C101" t="n">
-        <v>0.420201</v>
+        <v>0.177487</v>
       </c>
       <c r="D101" t="n">
-        <v>0.405399</v>
+        <v>0.177646</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.483754</v>
+        <v>0.200481</v>
       </c>
       <c r="C102" t="n">
-        <v>0.412917</v>
+        <v>0.179577</v>
       </c>
       <c r="D102" t="n">
-        <v>0.405767</v>
+        <v>0.179249</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.49535</v>
+        <v>0.200992</v>
       </c>
       <c r="C103" t="n">
-        <v>0.420793</v>
+        <v>0.180519</v>
       </c>
       <c r="D103" t="n">
-        <v>0.405042</v>
+        <v>0.179327</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.491456</v>
+        <v>0.202427</v>
       </c>
       <c r="C104" t="n">
-        <v>0.421769</v>
+        <v>0.182012</v>
       </c>
       <c r="D104" t="n">
-        <v>0.414494</v>
+        <v>0.182971</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.482743</v>
+        <v>0.204282</v>
       </c>
       <c r="C105" t="n">
-        <v>0.422497</v>
+        <v>0.184644</v>
       </c>
       <c r="D105" t="n">
-        <v>0.410885</v>
+        <v>0.185142</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.485396</v>
+        <v>0.206592</v>
       </c>
       <c r="C106" t="n">
-        <v>0.434418</v>
+        <v>0.186787</v>
       </c>
       <c r="D106" t="n">
-        <v>0.42752</v>
+        <v>0.190366</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.494318</v>
+        <v>0.210004</v>
       </c>
       <c r="C107" t="n">
-        <v>0.393216</v>
+        <v>0.190982</v>
       </c>
       <c r="D107" t="n">
-        <v>0.386986</v>
+        <v>0.195151</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.451449</v>
+        <v>0.215231</v>
       </c>
       <c r="C108" t="n">
-        <v>0.442708</v>
+        <v>0.197863</v>
       </c>
       <c r="D108" t="n">
-        <v>0.645227</v>
+        <v>0.308721</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.492273</v>
+        <v>0.222989</v>
       </c>
       <c r="C109" t="n">
-        <v>0.450334</v>
+        <v>0.204661</v>
       </c>
       <c r="D109" t="n">
-        <v>0.666015</v>
+        <v>0.309871</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.763711</v>
+        <v>0.346248</v>
       </c>
       <c r="C110" t="n">
-        <v>0.662471</v>
+        <v>0.297721</v>
       </c>
       <c r="D110" t="n">
-        <v>0.666567</v>
+        <v>0.311071</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.7786380000000001</v>
+        <v>0.346417</v>
       </c>
       <c r="C111" t="n">
-        <v>0.664083</v>
+        <v>0.298135</v>
       </c>
       <c r="D111" t="n">
-        <v>0.667166</v>
+        <v>0.312068</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.778447</v>
+        <v>0.346436</v>
       </c>
       <c r="C112" t="n">
-        <v>0.664467</v>
+        <v>0.299093</v>
       </c>
       <c r="D112" t="n">
-        <v>0.667749</v>
+        <v>0.312797</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.779825</v>
+        <v>0.346339</v>
       </c>
       <c r="C113" t="n">
-        <v>0.665237</v>
+        <v>0.299545</v>
       </c>
       <c r="D113" t="n">
-        <v>0.671037</v>
+        <v>0.314611</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.775671</v>
+        <v>0.34622</v>
       </c>
       <c r="C114" t="n">
-        <v>0.667562</v>
+        <v>0.301157</v>
       </c>
       <c r="D114" t="n">
-        <v>0.672281</v>
+        <v>0.316044</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.778826</v>
+        <v>0.346939</v>
       </c>
       <c r="C115" t="n">
-        <v>0.66797</v>
+        <v>0.302216</v>
       </c>
       <c r="D115" t="n">
-        <v>0.672454</v>
+        <v>0.3181</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.77583</v>
+        <v>0.347728</v>
       </c>
       <c r="C116" t="n">
-        <v>0.669258</v>
+        <v>0.303473</v>
       </c>
       <c r="D116" t="n">
-        <v>0.66117</v>
+        <v>0.319307</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.7822249999999999</v>
+        <v>0.348015</v>
       </c>
       <c r="C117" t="n">
-        <v>0.655123</v>
+        <v>0.305064</v>
       </c>
       <c r="D117" t="n">
-        <v>0.677579</v>
+        <v>0.320989</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.778799</v>
+        <v>0.349186</v>
       </c>
       <c r="C118" t="n">
-        <v>0.657571</v>
+        <v>0.306283</v>
       </c>
       <c r="D118" t="n">
-        <v>0.668396</v>
+        <v>0.32337</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.782286</v>
+        <v>0.350297</v>
       </c>
       <c r="C119" t="n">
-        <v>0.677508</v>
+        <v>0.308694</v>
       </c>
       <c r="D119" t="n">
-        <v>0.683128</v>
+        <v>0.326055</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.782372</v>
+        <v>0.351521</v>
       </c>
       <c r="C120" t="n">
-        <v>0.665524</v>
+        <v>0.311163</v>
       </c>
       <c r="D120" t="n">
-        <v>0.688875</v>
+        <v>0.330248</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.782516</v>
+        <v>0.35387</v>
       </c>
       <c r="C121" t="n">
-        <v>0.687025</v>
+        <v>0.315048</v>
       </c>
       <c r="D121" t="n">
-        <v>0.686264</v>
+        <v>0.335061</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.7849390000000001</v>
+        <v>0.357027</v>
       </c>
       <c r="C122" t="n">
-        <v>0.67824</v>
+        <v>0.319591</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7048990000000001</v>
+        <v>0.342657</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.782756</v>
+        <v>0.362071</v>
       </c>
       <c r="C123" t="n">
-        <v>0.70356</v>
+        <v>0.327239</v>
       </c>
       <c r="D123" t="n">
-        <v>0.77908</v>
+        <v>0.37832</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.01522</v>
+        <v>0.457133</v>
       </c>
       <c r="C124" t="n">
-        <v>0.768876</v>
+        <v>0.343327</v>
       </c>
       <c r="D124" t="n">
-        <v>0.772008</v>
+        <v>0.380052</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.03749</v>
+        <v>0.457727</v>
       </c>
       <c r="C125" t="n">
-        <v>0.76359</v>
+        <v>0.344043</v>
       </c>
       <c r="D125" t="n">
-        <v>0.773916</v>
+        <v>0.382108</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.03319</v>
+        <v>0.507177</v>
       </c>
       <c r="C126" t="n">
-        <v>0.764896</v>
+        <v>0.345063</v>
       </c>
       <c r="D126" t="n">
-        <v>0.784029</v>
+        <v>0.384417</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.04036</v>
+        <v>0.457566</v>
       </c>
       <c r="C127" t="n">
-        <v>0.766551</v>
+        <v>0.345775</v>
       </c>
       <c r="D127" t="n">
-        <v>0.785362</v>
+        <v>0.387364</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.03935</v>
+        <v>0.464713</v>
       </c>
       <c r="C128" t="n">
-        <v>0.775508</v>
+        <v>0.347146</v>
       </c>
       <c r="D128" t="n">
-        <v>0.779494</v>
+        <v>0.389909</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.0336</v>
+        <v>0.458212</v>
       </c>
       <c r="C129" t="n">
-        <v>0.777483</v>
+        <v>0.348393</v>
       </c>
       <c r="D129" t="n">
-        <v>0.788531</v>
+        <v>0.392311</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.03645</v>
+        <v>0.458923</v>
       </c>
       <c r="C130" t="n">
-        <v>0.778688</v>
+        <v>0.349578</v>
       </c>
       <c r="D130" t="n">
-        <v>0.783478</v>
+        <v>0.395631</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.02927</v>
+        <v>0.458968</v>
       </c>
       <c r="C131" t="n">
-        <v>0.78245</v>
+        <v>0.351592</v>
       </c>
       <c r="D131" t="n">
-        <v>0.787735</v>
+        <v>0.398383</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.01955</v>
+        <v>0.460037</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7851630000000001</v>
+        <v>0.353269</v>
       </c>
       <c r="D132" t="n">
-        <v>0.798917</v>
+        <v>0.402102</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.0436</v>
+        <v>0.46095</v>
       </c>
       <c r="C133" t="n">
-        <v>0.790038</v>
+        <v>0.355598</v>
       </c>
       <c r="D133" t="n">
-        <v>0.804683</v>
+        <v>0.406601</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.03608</v>
+        <v>0.462592</v>
       </c>
       <c r="C134" t="n">
-        <v>0.795058</v>
+        <v>0.358756</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8110619999999999</v>
+        <v>0.411553</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.03706</v>
+        <v>0.464176</v>
       </c>
       <c r="C135" t="n">
-        <v>0.802376</v>
+        <v>0.363004</v>
       </c>
       <c r="D135" t="n">
-        <v>0.820624</v>
+        <v>0.418387</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.02459</v>
+        <v>0.467684</v>
       </c>
       <c r="C136" t="n">
-        <v>0.810526</v>
+        <v>0.368816</v>
       </c>
       <c r="D136" t="n">
-        <v>0.827763</v>
+        <v>0.428526</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.04959</v>
+        <v>0.471671</v>
       </c>
       <c r="C137" t="n">
-        <v>0.823124</v>
+        <v>0.376638</v>
       </c>
       <c r="D137" t="n">
-        <v>0.829943</v>
+        <v>0.425251</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.26329</v>
+        <v>0.790644</v>
       </c>
       <c r="C138" t="n">
-        <v>0.814066</v>
+        <v>0.367413</v>
       </c>
       <c r="D138" t="n">
-        <v>0.831179</v>
+        <v>0.427982</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.26229</v>
+        <v>0.7909040000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>0.817577</v>
+        <v>0.368304</v>
       </c>
       <c r="D139" t="n">
-        <v>0.829862</v>
+        <v>0.430733</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.25001</v>
+        <v>0.79152</v>
       </c>
       <c r="C140" t="n">
-        <v>0.820042</v>
+        <v>0.369183</v>
       </c>
       <c r="D140" t="n">
-        <v>0.835647</v>
+        <v>0.435723</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.24897</v>
+        <v>0.791295</v>
       </c>
       <c r="C141" t="n">
-        <v>0.821541</v>
+        <v>0.370655</v>
       </c>
       <c r="D141" t="n">
-        <v>0.833739</v>
+        <v>0.437148</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.24913</v>
+        <v>0.791835</v>
       </c>
       <c r="C142" t="n">
-        <v>0.8209419999999999</v>
+        <v>0.37585</v>
       </c>
       <c r="D142" t="n">
-        <v>0.838699</v>
+        <v>0.444668</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.24985</v>
+        <v>0.79148</v>
       </c>
       <c r="C143" t="n">
-        <v>0.825895</v>
+        <v>0.373321</v>
       </c>
       <c r="D143" t="n">
-        <v>0.841244</v>
+        <v>0.444411</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.106242</v>
+        <v>0.10567</v>
       </c>
       <c r="C2" t="n">
-        <v>0.110296</v>
+        <v>0.110207</v>
       </c>
       <c r="D2" t="n">
-        <v>0.111464</v>
+        <v>0.111504</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.107514</v>
+        <v>0.106815</v>
       </c>
       <c r="C3" t="n">
-        <v>0.111034</v>
+        <v>0.111193</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11326</v>
+        <v>0.112702</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1088</v>
+        <v>0.107957</v>
       </c>
       <c r="C4" t="n">
-        <v>0.112257</v>
+        <v>0.112138</v>
       </c>
       <c r="D4" t="n">
-        <v>0.114114</v>
+        <v>0.11422</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.110493</v>
+        <v>0.109668</v>
       </c>
       <c r="C5" t="n">
-        <v>0.113655</v>
+        <v>0.113661</v>
       </c>
       <c r="D5" t="n">
-        <v>0.115273</v>
+        <v>0.115482</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.112375</v>
+        <v>0.111167</v>
       </c>
       <c r="C6" t="n">
-        <v>0.116074</v>
+        <v>0.115208</v>
       </c>
       <c r="D6" t="n">
-        <v>0.118706</v>
+        <v>0.117737</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.115809</v>
+        <v>0.114752</v>
       </c>
       <c r="C7" t="n">
-        <v>0.11745</v>
+        <v>0.118455</v>
       </c>
       <c r="D7" t="n">
-        <v>0.11931</v>
+        <v>0.119167</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.118266</v>
+        <v>0.117013</v>
       </c>
       <c r="C8" t="n">
-        <v>0.120214</v>
+        <v>0.120206</v>
       </c>
       <c r="D8" t="n">
-        <v>0.122281</v>
+        <v>0.12263</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.123048</v>
+        <v>0.121393</v>
       </c>
       <c r="C9" t="n">
-        <v>0.123562</v>
+        <v>0.123537</v>
       </c>
       <c r="D9" t="n">
-        <v>0.109834</v>
+        <v>0.110208</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.106339</v>
+        <v>0.105937</v>
       </c>
       <c r="C10" t="n">
-        <v>0.107715</v>
+        <v>0.106969</v>
       </c>
       <c r="D10" t="n">
-        <v>0.110605</v>
+        <v>0.110417</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.106894</v>
+        <v>0.106593</v>
       </c>
       <c r="C11" t="n">
-        <v>0.107908</v>
+        <v>0.10807</v>
       </c>
       <c r="D11" t="n">
-        <v>0.110734</v>
+        <v>0.110757</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.107145</v>
+        <v>0.107126</v>
       </c>
       <c r="C12" t="n">
-        <v>0.107865</v>
+        <v>0.108108</v>
       </c>
       <c r="D12" t="n">
-        <v>0.110909</v>
+        <v>0.111321</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.107293</v>
+        <v>0.106863</v>
       </c>
       <c r="C13" t="n">
-        <v>0.109258</v>
+        <v>0.1089</v>
       </c>
       <c r="D13" t="n">
-        <v>0.112357</v>
+        <v>0.111511</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.107999</v>
+        <v>0.107711</v>
       </c>
       <c r="C14" t="n">
-        <v>0.109735</v>
+        <v>0.109794</v>
       </c>
       <c r="D14" t="n">
-        <v>0.112535</v>
+        <v>0.112758</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.108817</v>
+        <v>0.108629</v>
       </c>
       <c r="C15" t="n">
-        <v>0.110416</v>
+        <v>0.110541</v>
       </c>
       <c r="D15" t="n">
-        <v>0.113613</v>
+        <v>0.113508</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.110068</v>
+        <v>0.109665</v>
       </c>
       <c r="C16" t="n">
-        <v>0.111313</v>
+        <v>0.111982</v>
       </c>
       <c r="D16" t="n">
-        <v>0.114379</v>
+        <v>0.114442</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.110692</v>
+        <v>0.111096</v>
       </c>
       <c r="C17" t="n">
-        <v>0.113135</v>
+        <v>0.112601</v>
       </c>
       <c r="D17" t="n">
-        <v>0.115742</v>
+        <v>0.115929</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.111421</v>
+        <v>0.112734</v>
       </c>
       <c r="C18" t="n">
-        <v>0.113915</v>
+        <v>0.113886</v>
       </c>
       <c r="D18" t="n">
-        <v>0.117267</v>
+        <v>0.11742</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.114124</v>
+        <v>0.113679</v>
       </c>
       <c r="C19" t="n">
-        <v>0.115521</v>
+        <v>0.115653</v>
       </c>
       <c r="D19" t="n">
-        <v>0.119257</v>
+        <v>0.119434</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.114667</v>
+        <v>0.116378</v>
       </c>
       <c r="C20" t="n">
-        <v>0.117238</v>
+        <v>0.117351</v>
       </c>
       <c r="D20" t="n">
-        <v>0.12112</v>
+        <v>0.121193</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.118547</v>
+        <v>0.118806</v>
       </c>
       <c r="C21" t="n">
-        <v>0.119475</v>
+        <v>0.119863</v>
       </c>
       <c r="D21" t="n">
-        <v>0.123258</v>
+        <v>0.123651</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.121129</v>
+        <v>0.123474</v>
       </c>
       <c r="C22" t="n">
-        <v>0.122511</v>
+        <v>0.121862</v>
       </c>
       <c r="D22" t="n">
-        <v>0.126851</v>
+        <v>0.127063</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.128679</v>
+        <v>0.128707</v>
       </c>
       <c r="C23" t="n">
-        <v>0.125905</v>
+        <v>0.126118</v>
       </c>
       <c r="D23" t="n">
-        <v>0.112731</v>
+        <v>0.112739</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.110033</v>
+        <v>0.110035</v>
       </c>
       <c r="C24" t="n">
-        <v>0.108454</v>
+        <v>0.108791</v>
       </c>
       <c r="D24" t="n">
-        <v>0.112975</v>
+        <v>0.113335</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.11025</v>
+        <v>0.110068</v>
       </c>
       <c r="C25" t="n">
-        <v>0.109306</v>
+        <v>0.109278</v>
       </c>
       <c r="D25" t="n">
-        <v>0.114075</v>
+        <v>0.113598</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.110525</v>
+        <v>0.111006</v>
       </c>
       <c r="C26" t="n">
-        <v>0.109712</v>
+        <v>0.109588</v>
       </c>
       <c r="D26" t="n">
-        <v>0.114325</v>
+        <v>0.114069</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.111381</v>
+        <v>0.110794</v>
       </c>
       <c r="C27" t="n">
-        <v>0.11084</v>
+        <v>0.110902</v>
       </c>
       <c r="D27" t="n">
-        <v>0.11496</v>
+        <v>0.114912</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.111413</v>
+        <v>0.111755</v>
       </c>
       <c r="C28" t="n">
-        <v>0.111496</v>
+        <v>0.111229</v>
       </c>
       <c r="D28" t="n">
-        <v>0.11515</v>
+        <v>0.115394</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.112704</v>
+        <v>0.111776</v>
       </c>
       <c r="C29" t="n">
-        <v>0.112484</v>
+        <v>0.112121</v>
       </c>
       <c r="D29" t="n">
-        <v>0.116378</v>
+        <v>0.11657</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.113683</v>
+        <v>0.112951</v>
       </c>
       <c r="C30" t="n">
-        <v>0.113325</v>
+        <v>0.113576</v>
       </c>
       <c r="D30" t="n">
-        <v>0.117677</v>
+        <v>0.116835</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.115265</v>
+        <v>0.11405</v>
       </c>
       <c r="C31" t="n">
-        <v>0.114659</v>
+        <v>0.114679</v>
       </c>
       <c r="D31" t="n">
-        <v>0.118528</v>
+        <v>0.118116</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.115827</v>
+        <v>0.115955</v>
       </c>
       <c r="C32" t="n">
-        <v>0.115404</v>
+        <v>0.115423</v>
       </c>
       <c r="D32" t="n">
-        <v>0.11902</v>
+        <v>0.119108</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.117002</v>
+        <v>0.116451</v>
       </c>
       <c r="C33" t="n">
-        <v>0.116716</v>
+        <v>0.116679</v>
       </c>
       <c r="D33" t="n">
-        <v>0.120977</v>
+        <v>0.120669</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.119249</v>
+        <v>0.118609</v>
       </c>
       <c r="C34" t="n">
-        <v>0.118725</v>
+        <v>0.118458</v>
       </c>
       <c r="D34" t="n">
-        <v>0.123112</v>
+        <v>0.122804</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.121915</v>
+        <v>0.121766</v>
       </c>
       <c r="C35" t="n">
-        <v>0.120912</v>
+        <v>0.120862</v>
       </c>
       <c r="D35" t="n">
-        <v>0.125946</v>
+        <v>0.126162</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.127108</v>
+        <v>0.126069</v>
       </c>
       <c r="C36" t="n">
-        <v>0.124097</v>
+        <v>0.124036</v>
       </c>
       <c r="D36" t="n">
-        <v>0.130844</v>
+        <v>0.130985</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.132447</v>
+        <v>0.131981</v>
       </c>
       <c r="C37" t="n">
-        <v>0.129143</v>
+        <v>0.128991</v>
       </c>
       <c r="D37" t="n">
-        <v>0.114082</v>
+        <v>0.11404</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.114349</v>
+        <v>0.114034</v>
       </c>
       <c r="C38" t="n">
-        <v>0.109602</v>
+        <v>0.109784</v>
       </c>
       <c r="D38" t="n">
-        <v>0.114608</v>
+        <v>0.114478</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.114599</v>
+        <v>0.114033</v>
       </c>
       <c r="C39" t="n">
-        <v>0.110265</v>
+        <v>0.110307</v>
       </c>
       <c r="D39" t="n">
-        <v>0.114845</v>
+        <v>0.114935</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.114319</v>
+        <v>0.114221</v>
       </c>
       <c r="C40" t="n">
-        <v>0.110835</v>
+        <v>0.110832</v>
       </c>
       <c r="D40" t="n">
-        <v>0.115552</v>
+        <v>0.115819</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.114795</v>
+        <v>0.114858</v>
       </c>
       <c r="C41" t="n">
-        <v>0.111611</v>
+        <v>0.111552</v>
       </c>
       <c r="D41" t="n">
-        <v>0.115867</v>
+        <v>0.115812</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.115571</v>
+        <v>0.115376</v>
       </c>
       <c r="C42" t="n">
-        <v>0.112568</v>
+        <v>0.112381</v>
       </c>
       <c r="D42" t="n">
-        <v>0.116512</v>
+        <v>0.116504</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116205</v>
+        <v>0.116269</v>
       </c>
       <c r="C43" t="n">
         <v>0.113212</v>
       </c>
       <c r="D43" t="n">
-        <v>0.11726</v>
+        <v>0.117211</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.116782</v>
+        <v>0.116808</v>
       </c>
       <c r="C44" t="n">
-        <v>0.114233</v>
+        <v>0.114296</v>
       </c>
       <c r="D44" t="n">
-        <v>0.118105</v>
+        <v>0.118077</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.118055</v>
+        <v>0.118357</v>
       </c>
       <c r="C45" t="n">
-        <v>0.115275</v>
+        <v>0.115347</v>
       </c>
       <c r="D45" t="n">
-        <v>0.119552</v>
+        <v>0.119051</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.119192</v>
+        <v>0.119087</v>
       </c>
       <c r="C46" t="n">
-        <v>0.116663</v>
+        <v>0.116664</v>
       </c>
       <c r="D46" t="n">
-        <v>0.120454</v>
+        <v>0.120572</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.120489</v>
+        <v>0.12066</v>
       </c>
       <c r="C47" t="n">
-        <v>0.11812</v>
+        <v>0.118127</v>
       </c>
       <c r="D47" t="n">
-        <v>0.122254</v>
+        <v>0.122303</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.123411</v>
+        <v>0.123842</v>
       </c>
       <c r="C48" t="n">
-        <v>0.120189</v>
+        <v>0.120111</v>
       </c>
       <c r="D48" t="n">
-        <v>0.125077</v>
+        <v>0.12478</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.126767</v>
+        <v>0.12597</v>
       </c>
       <c r="C49" t="n">
-        <v>0.123014</v>
+        <v>0.122843</v>
       </c>
       <c r="D49" t="n">
-        <v>0.128348</v>
+        <v>0.12816</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.131135</v>
+        <v>0.130717</v>
       </c>
       <c r="C50" t="n">
-        <v>0.126615</v>
+        <v>0.126685</v>
       </c>
       <c r="D50" t="n">
-        <v>0.134</v>
+        <v>0.133998</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.137249</v>
+        <v>0.136923</v>
       </c>
       <c r="C51" t="n">
-        <v>0.131979</v>
+        <v>0.131841</v>
       </c>
       <c r="D51" t="n">
-        <v>0.115603</v>
+        <v>0.115713</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.145018</v>
+        <v>0.144913</v>
       </c>
       <c r="C52" t="n">
-        <v>0.140364</v>
+        <v>0.140498</v>
       </c>
       <c r="D52" t="n">
-        <v>0.115755</v>
+        <v>0.116105</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.116782</v>
+        <v>0.116965</v>
       </c>
       <c r="C53" t="n">
-        <v>0.111894</v>
+        <v>0.111981</v>
       </c>
       <c r="D53" t="n">
-        <v>0.116639</v>
+        <v>0.116059</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.11692</v>
+        <v>0.116884</v>
       </c>
       <c r="C54" t="n">
-        <v>0.112705</v>
+        <v>0.112483</v>
       </c>
       <c r="D54" t="n">
-        <v>0.116589</v>
+        <v>0.116878</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.117442</v>
+        <v>0.117181</v>
       </c>
       <c r="C55" t="n">
-        <v>0.113128</v>
+        <v>0.113287</v>
       </c>
       <c r="D55" t="n">
-        <v>0.117041</v>
+        <v>0.117039</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.118615</v>
+        <v>0.117727</v>
       </c>
       <c r="C56" t="n">
-        <v>0.113916</v>
+        <v>0.113777</v>
       </c>
       <c r="D56" t="n">
-        <v>0.117559</v>
+        <v>0.117588</v>
       </c>
     </row>
     <row r="57">
@@ -4018,10 +4018,10 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.118669</v>
+        <v>0.118258</v>
       </c>
       <c r="C57" t="n">
-        <v>0.114581</v>
+        <v>0.114994</v>
       </c>
       <c r="D57" t="n">
         <v>0.118685</v>
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.119342</v>
+        <v>0.119032</v>
       </c>
       <c r="C58" t="n">
-        <v>0.115691</v>
+        <v>0.115748</v>
       </c>
       <c r="D58" t="n">
-        <v>0.119247</v>
+        <v>0.119596</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.120398</v>
+        <v>0.120819</v>
       </c>
       <c r="C59" t="n">
-        <v>0.11664</v>
+        <v>0.116982</v>
       </c>
       <c r="D59" t="n">
-        <v>0.120608</v>
+        <v>0.120354</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.121699</v>
+        <v>0.12169</v>
       </c>
       <c r="C60" t="n">
-        <v>0.117862</v>
+        <v>0.117885</v>
       </c>
       <c r="D60" t="n">
-        <v>0.121703</v>
+        <v>0.121731</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.123596</v>
+        <v>0.123727</v>
       </c>
       <c r="C61" t="n">
-        <v>0.119459</v>
+        <v>0.119811</v>
       </c>
       <c r="D61" t="n">
-        <v>0.123547</v>
+        <v>0.123565</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.126073</v>
+        <v>0.126049</v>
       </c>
       <c r="C62" t="n">
-        <v>0.121659</v>
+        <v>0.121622</v>
       </c>
       <c r="D62" t="n">
-        <v>0.126222</v>
+        <v>0.126127</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.129422</v>
+        <v>0.128777</v>
       </c>
       <c r="C63" t="n">
-        <v>0.124706</v>
+        <v>0.124388</v>
       </c>
       <c r="D63" t="n">
-        <v>0.130003</v>
+        <v>0.129892</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.133695</v>
+        <v>0.133021</v>
       </c>
       <c r="C64" t="n">
-        <v>0.128144</v>
+        <v>0.12819</v>
       </c>
       <c r="D64" t="n">
-        <v>0.135463</v>
+        <v>0.135271</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.139487</v>
+        <v>0.13924</v>
       </c>
       <c r="C65" t="n">
-        <v>0.133376</v>
+        <v>0.133668</v>
       </c>
       <c r="D65" t="n">
-        <v>0.143701</v>
+        <v>0.143603</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.147441</v>
+        <v>0.147126</v>
       </c>
       <c r="C66" t="n">
-        <v>0.141179</v>
+        <v>0.141079</v>
       </c>
       <c r="D66" t="n">
-        <v>0.116001</v>
+        <v>0.116119</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.120988</v>
+        <v>0.120798</v>
       </c>
       <c r="C67" t="n">
-        <v>0.112504</v>
+        <v>0.11225</v>
       </c>
       <c r="D67" t="n">
-        <v>0.116505</v>
+        <v>0.116493</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.120456</v>
+        <v>0.120685</v>
       </c>
       <c r="C68" t="n">
-        <v>0.112923</v>
+        <v>0.113075</v>
       </c>
       <c r="D68" t="n">
-        <v>0.117027</v>
+        <v>0.116987</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.121422</v>
+        <v>0.120997</v>
       </c>
       <c r="C69" t="n">
-        <v>0.113768</v>
+        <v>0.113842</v>
       </c>
       <c r="D69" t="n">
-        <v>0.117775</v>
+        <v>0.117497</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.12159</v>
+        <v>0.121496</v>
       </c>
       <c r="C70" t="n">
-        <v>0.114639</v>
+        <v>0.114674</v>
       </c>
       <c r="D70" t="n">
-        <v>0.118254</v>
+        <v>0.118286</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.122111</v>
+        <v>0.122389</v>
       </c>
       <c r="C71" t="n">
-        <v>0.115138</v>
+        <v>0.115146</v>
       </c>
       <c r="D71" t="n">
-        <v>0.119208</v>
+        <v>0.119087</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.123826</v>
+        <v>0.122984</v>
       </c>
       <c r="C72" t="n">
-        <v>0.116115</v>
+        <v>0.116125</v>
       </c>
       <c r="D72" t="n">
-        <v>0.119916</v>
+        <v>0.119659</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.123808</v>
+        <v>0.123722</v>
       </c>
       <c r="C73" t="n">
-        <v>0.117678</v>
+        <v>0.117493</v>
       </c>
       <c r="D73" t="n">
-        <v>0.121012</v>
+        <v>0.120916</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.125393</v>
+        <v>0.124973</v>
       </c>
       <c r="C74" t="n">
-        <v>0.118678</v>
+        <v>0.118628</v>
       </c>
       <c r="D74" t="n">
-        <v>0.122236</v>
+        <v>0.12249</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.126838</v>
+        <v>0.126976</v>
       </c>
       <c r="C75" t="n">
-        <v>0.120331</v>
+        <v>0.120216</v>
       </c>
       <c r="D75" t="n">
-        <v>0.124202</v>
+        <v>0.123974</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.129404</v>
+        <v>0.12902</v>
       </c>
       <c r="C76" t="n">
-        <v>0.122264</v>
+        <v>0.122318</v>
       </c>
       <c r="D76" t="n">
-        <v>0.126569</v>
+        <v>0.126757</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.132455</v>
+        <v>0.132357</v>
       </c>
       <c r="C77" t="n">
-        <v>0.125111</v>
+        <v>0.124959</v>
       </c>
       <c r="D77" t="n">
-        <v>0.130585</v>
+        <v>0.130315</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.136506</v>
+        <v>0.136249</v>
       </c>
       <c r="C78" t="n">
-        <v>0.128866</v>
+        <v>0.128667</v>
       </c>
       <c r="D78" t="n">
-        <v>0.136077</v>
+        <v>0.135523</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.142382</v>
+        <v>0.141765</v>
       </c>
       <c r="C79" t="n">
-        <v>0.133757</v>
+        <v>0.13383</v>
       </c>
       <c r="D79" t="n">
-        <v>0.143701</v>
+        <v>0.143653</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.149916</v>
+        <v>0.149758</v>
       </c>
       <c r="C80" t="n">
-        <v>0.141201</v>
+        <v>0.14111</v>
       </c>
       <c r="D80" t="n">
-        <v>0.119864</v>
+        <v>0.118113</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.129762</v>
+        <v>0.12807</v>
       </c>
       <c r="C81" t="n">
-        <v>0.119571</v>
+        <v>0.116889</v>
       </c>
       <c r="D81" t="n">
-        <v>0.12217</v>
+        <v>0.121411</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.129584</v>
+        <v>0.128262</v>
       </c>
       <c r="C82" t="n">
-        <v>0.120644</v>
+        <v>0.118972</v>
       </c>
       <c r="D82" t="n">
-        <v>0.122647</v>
+        <v>0.124349</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.130109</v>
+        <v>0.128357</v>
       </c>
       <c r="C83" t="n">
-        <v>0.118269</v>
+        <v>0.119329</v>
       </c>
       <c r="D83" t="n">
-        <v>0.122134</v>
+        <v>0.123366</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.13039</v>
+        <v>0.129054</v>
       </c>
       <c r="C84" t="n">
-        <v>0.121991</v>
+        <v>0.119723</v>
       </c>
       <c r="D84" t="n">
-        <v>0.123773</v>
+        <v>0.122757</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.130947</v>
+        <v>0.129419</v>
       </c>
       <c r="C85" t="n">
-        <v>0.11916</v>
+        <v>0.121548</v>
       </c>
       <c r="D85" t="n">
-        <v>0.124531</v>
+        <v>0.124778</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.131791</v>
+        <v>0.130039</v>
       </c>
       <c r="C86" t="n">
-        <v>0.120867</v>
+        <v>0.120898</v>
       </c>
       <c r="D86" t="n">
-        <v>0.122842</v>
+        <v>0.125734</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.132595</v>
+        <v>0.131176</v>
       </c>
       <c r="C87" t="n">
-        <v>0.121867</v>
+        <v>0.122758</v>
       </c>
       <c r="D87" t="n">
-        <v>0.126388</v>
+        <v>0.126494</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.13363</v>
+        <v>0.132092</v>
       </c>
       <c r="C88" t="n">
-        <v>0.126337</v>
+        <v>0.124419</v>
       </c>
       <c r="D88" t="n">
-        <v>0.12494</v>
+        <v>0.127825</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.13526</v>
+        <v>0.13357</v>
       </c>
       <c r="C89" t="n">
-        <v>0.127162</v>
+        <v>0.125542</v>
       </c>
       <c r="D89" t="n">
-        <v>0.127035</v>
+        <v>0.128322</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.137104</v>
+        <v>0.135881</v>
       </c>
       <c r="C90" t="n">
-        <v>0.126624</v>
+        <v>0.127856</v>
       </c>
       <c r="D90" t="n">
-        <v>0.133166</v>
+        <v>0.131104</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.139834</v>
+        <v>0.138329</v>
       </c>
       <c r="C91" t="n">
-        <v>0.129196</v>
+        <v>0.130044</v>
       </c>
       <c r="D91" t="n">
-        <v>0.135075</v>
+        <v>0.13494</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.143829</v>
+        <v>0.14201</v>
       </c>
       <c r="C92" t="n">
-        <v>0.132348</v>
+        <v>0.133074</v>
       </c>
       <c r="D92" t="n">
-        <v>0.139964</v>
+        <v>0.14087</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.148603</v>
+        <v>0.147061</v>
       </c>
       <c r="C93" t="n">
-        <v>0.136692</v>
+        <v>0.137595</v>
       </c>
       <c r="D93" t="n">
-        <v>0.147326</v>
+        <v>0.147238</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.156251</v>
+        <v>0.154641</v>
       </c>
       <c r="C94" t="n">
-        <v>0.143541</v>
+        <v>0.144065</v>
       </c>
       <c r="D94" t="n">
-        <v>0.173484</v>
+        <v>0.174173</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.206451</v>
+        <v>0.207731</v>
       </c>
       <c r="C95" t="n">
-        <v>0.173035</v>
+        <v>0.172704</v>
       </c>
       <c r="D95" t="n">
-        <v>0.171919</v>
+        <v>0.17344</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.19814</v>
+        <v>0.196633</v>
       </c>
       <c r="C96" t="n">
-        <v>0.173406</v>
+        <v>0.173715</v>
       </c>
       <c r="D96" t="n">
-        <v>0.173129</v>
+        <v>0.175571</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.197711</v>
+        <v>0.197041</v>
       </c>
       <c r="C97" t="n">
-        <v>0.175551</v>
+        <v>0.174014</v>
       </c>
       <c r="D97" t="n">
-        <v>0.17624</v>
+        <v>0.174667</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.201207</v>
+        <v>0.207512</v>
       </c>
       <c r="C98" t="n">
-        <v>0.174774</v>
+        <v>0.175244</v>
       </c>
       <c r="D98" t="n">
-        <v>0.177321</v>
+        <v>0.176773</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.198311</v>
+        <v>0.197584</v>
       </c>
       <c r="C99" t="n">
-        <v>0.177309</v>
+        <v>0.175588</v>
       </c>
       <c r="D99" t="n">
-        <v>0.176123</v>
+        <v>0.176559</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.198118</v>
+        <v>0.207734</v>
       </c>
       <c r="C100" t="n">
-        <v>0.176738</v>
+        <v>0.176784</v>
       </c>
       <c r="D100" t="n">
-        <v>0.176505</v>
+        <v>0.177482</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.199337</v>
+        <v>0.208058</v>
       </c>
       <c r="C101" t="n">
-        <v>0.177487</v>
+        <v>0.176938</v>
       </c>
       <c r="D101" t="n">
-        <v>0.177646</v>
+        <v>0.177717</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.200481</v>
+        <v>0.202777</v>
       </c>
       <c r="C102" t="n">
-        <v>0.179577</v>
+        <v>0.177797</v>
       </c>
       <c r="D102" t="n">
-        <v>0.179249</v>
+        <v>0.181461</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.200992</v>
+        <v>0.206231</v>
       </c>
       <c r="C103" t="n">
-        <v>0.180519</v>
+        <v>0.179831</v>
       </c>
       <c r="D103" t="n">
-        <v>0.179327</v>
+        <v>0.183634</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.202427</v>
+        <v>0.211887</v>
       </c>
       <c r="C104" t="n">
-        <v>0.182012</v>
+        <v>0.181167</v>
       </c>
       <c r="D104" t="n">
-        <v>0.182971</v>
+        <v>0.183636</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.204282</v>
+        <v>0.212256</v>
       </c>
       <c r="C105" t="n">
-        <v>0.184644</v>
+        <v>0.183427</v>
       </c>
       <c r="D105" t="n">
-        <v>0.185142</v>
+        <v>0.18684</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.206592</v>
+        <v>0.205262</v>
       </c>
       <c r="C106" t="n">
-        <v>0.186787</v>
+        <v>0.187133</v>
       </c>
       <c r="D106" t="n">
-        <v>0.190366</v>
+        <v>0.192522</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.210004</v>
+        <v>0.21059</v>
       </c>
       <c r="C107" t="n">
-        <v>0.190982</v>
+        <v>0.193311</v>
       </c>
       <c r="D107" t="n">
-        <v>0.195151</v>
+        <v>0.199348</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.215231</v>
+        <v>0.215202</v>
       </c>
       <c r="C108" t="n">
-        <v>0.197863</v>
+        <v>0.196476</v>
       </c>
       <c r="D108" t="n">
-        <v>0.308721</v>
+        <v>0.309399</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.222989</v>
+        <v>0.22229</v>
       </c>
       <c r="C109" t="n">
-        <v>0.204661</v>
+        <v>0.205207</v>
       </c>
       <c r="D109" t="n">
-        <v>0.309871</v>
+        <v>0.311138</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.346248</v>
+        <v>0.352308</v>
       </c>
       <c r="C110" t="n">
-        <v>0.297721</v>
+        <v>0.297505</v>
       </c>
       <c r="D110" t="n">
-        <v>0.311071</v>
+        <v>0.311155</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.346417</v>
+        <v>0.347578</v>
       </c>
       <c r="C111" t="n">
-        <v>0.298135</v>
+        <v>0.298294</v>
       </c>
       <c r="D111" t="n">
-        <v>0.312068</v>
+        <v>0.312228</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.346436</v>
+        <v>0.347538</v>
       </c>
       <c r="C112" t="n">
-        <v>0.299093</v>
+        <v>0.299152</v>
       </c>
       <c r="D112" t="n">
-        <v>0.312797</v>
+        <v>0.313659</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.346339</v>
+        <v>0.347231</v>
       </c>
       <c r="C113" t="n">
-        <v>0.299545</v>
+        <v>0.300506</v>
       </c>
       <c r="D113" t="n">
-        <v>0.314611</v>
+        <v>0.314941</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.34622</v>
+        <v>0.347959</v>
       </c>
       <c r="C114" t="n">
-        <v>0.301157</v>
+        <v>0.301133</v>
       </c>
       <c r="D114" t="n">
-        <v>0.316044</v>
+        <v>0.316176</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.346939</v>
+        <v>0.34813</v>
       </c>
       <c r="C115" t="n">
-        <v>0.302216</v>
+        <v>0.30217</v>
       </c>
       <c r="D115" t="n">
-        <v>0.3181</v>
+        <v>0.317818</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.347728</v>
+        <v>0.348715</v>
       </c>
       <c r="C116" t="n">
-        <v>0.303473</v>
+        <v>0.305282</v>
       </c>
       <c r="D116" t="n">
-        <v>0.319307</v>
+        <v>0.318807</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.348015</v>
+        <v>0.348962</v>
       </c>
       <c r="C117" t="n">
-        <v>0.305064</v>
+        <v>0.305603</v>
       </c>
       <c r="D117" t="n">
-        <v>0.320989</v>
+        <v>0.321066</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.349186</v>
+        <v>0.34972</v>
       </c>
       <c r="C118" t="n">
-        <v>0.306283</v>
+        <v>0.306912</v>
       </c>
       <c r="D118" t="n">
-        <v>0.32337</v>
+        <v>0.325848</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.350297</v>
+        <v>0.351258</v>
       </c>
       <c r="C119" t="n">
-        <v>0.308694</v>
+        <v>0.308808</v>
       </c>
       <c r="D119" t="n">
-        <v>0.326055</v>
+        <v>0.326461</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.351521</v>
+        <v>0.352554</v>
       </c>
       <c r="C120" t="n">
-        <v>0.311163</v>
+        <v>0.311988</v>
       </c>
       <c r="D120" t="n">
-        <v>0.330248</v>
+        <v>0.330574</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.35387</v>
+        <v>0.354864</v>
       </c>
       <c r="C121" t="n">
-        <v>0.315048</v>
+        <v>0.314709</v>
       </c>
       <c r="D121" t="n">
-        <v>0.335061</v>
+        <v>0.334803</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.357027</v>
+        <v>0.358079</v>
       </c>
       <c r="C122" t="n">
-        <v>0.319591</v>
+        <v>0.319477</v>
       </c>
       <c r="D122" t="n">
-        <v>0.342657</v>
+        <v>0.342051</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.362071</v>
+        <v>0.363006</v>
       </c>
       <c r="C123" t="n">
-        <v>0.327239</v>
+        <v>0.327081</v>
       </c>
       <c r="D123" t="n">
-        <v>0.37832</v>
+        <v>0.378242</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.457133</v>
+        <v>0.456385</v>
       </c>
       <c r="C124" t="n">
-        <v>0.343327</v>
+        <v>0.342896</v>
       </c>
       <c r="D124" t="n">
-        <v>0.380052</v>
+        <v>0.379738</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.457727</v>
+        <v>0.458132</v>
       </c>
       <c r="C125" t="n">
-        <v>0.344043</v>
+        <v>0.343922</v>
       </c>
       <c r="D125" t="n">
-        <v>0.382108</v>
+        <v>0.382197</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.507177</v>
+        <v>0.456817</v>
       </c>
       <c r="C126" t="n">
-        <v>0.345063</v>
+        <v>0.344968</v>
       </c>
       <c r="D126" t="n">
-        <v>0.384417</v>
+        <v>0.38421</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.457566</v>
+        <v>0.457383</v>
       </c>
       <c r="C127" t="n">
-        <v>0.345775</v>
+        <v>0.34627</v>
       </c>
       <c r="D127" t="n">
-        <v>0.387364</v>
+        <v>0.389564</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.464713</v>
+        <v>0.457308</v>
       </c>
       <c r="C128" t="n">
-        <v>0.347146</v>
+        <v>0.346837</v>
       </c>
       <c r="D128" t="n">
-        <v>0.389909</v>
+        <v>0.389897</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.458212</v>
+        <v>0.457835</v>
       </c>
       <c r="C129" t="n">
-        <v>0.348393</v>
+        <v>0.348445</v>
       </c>
       <c r="D129" t="n">
-        <v>0.392311</v>
+        <v>0.392139</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.458923</v>
+        <v>0.458002</v>
       </c>
       <c r="C130" t="n">
-        <v>0.349578</v>
+        <v>0.349801</v>
       </c>
       <c r="D130" t="n">
-        <v>0.395631</v>
+        <v>0.395111</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.458968</v>
+        <v>0.458554</v>
       </c>
       <c r="C131" t="n">
-        <v>0.351592</v>
+        <v>0.351269</v>
       </c>
       <c r="D131" t="n">
-        <v>0.398383</v>
+        <v>0.398551</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.460037</v>
+        <v>0.459545</v>
       </c>
       <c r="C132" t="n">
-        <v>0.353269</v>
+        <v>0.353768</v>
       </c>
       <c r="D132" t="n">
-        <v>0.402102</v>
+        <v>0.402075</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.46095</v>
+        <v>0.460718</v>
       </c>
       <c r="C133" t="n">
-        <v>0.355598</v>
+        <v>0.355961</v>
       </c>
       <c r="D133" t="n">
-        <v>0.406601</v>
+        <v>0.406821</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.462592</v>
+        <v>0.46196</v>
       </c>
       <c r="C134" t="n">
-        <v>0.358756</v>
+        <v>0.359048</v>
       </c>
       <c r="D134" t="n">
-        <v>0.411553</v>
+        <v>0.411821</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.464176</v>
+        <v>0.463562</v>
       </c>
       <c r="C135" t="n">
-        <v>0.363004</v>
+        <v>0.363268</v>
       </c>
       <c r="D135" t="n">
-        <v>0.418387</v>
+        <v>0.418399</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.467684</v>
+        <v>0.466897</v>
       </c>
       <c r="C136" t="n">
-        <v>0.368816</v>
+        <v>0.368812</v>
       </c>
       <c r="D136" t="n">
-        <v>0.428526</v>
+        <v>0.426126</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.471671</v>
+        <v>0.470798</v>
       </c>
       <c r="C137" t="n">
-        <v>0.376638</v>
+        <v>0.377154</v>
       </c>
       <c r="D137" t="n">
-        <v>0.425251</v>
+        <v>0.425382</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.790644</v>
+        <v>0.789913</v>
       </c>
       <c r="C138" t="n">
-        <v>0.367413</v>
+        <v>0.367212</v>
       </c>
       <c r="D138" t="n">
-        <v>0.427982</v>
+        <v>0.427967</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.7909040000000001</v>
+        <v>0.789851</v>
       </c>
       <c r="C139" t="n">
-        <v>0.368304</v>
+        <v>0.367828</v>
       </c>
       <c r="D139" t="n">
-        <v>0.430733</v>
+        <v>0.431034</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.79152</v>
+        <v>0.790215</v>
       </c>
       <c r="C140" t="n">
-        <v>0.369183</v>
+        <v>0.36906</v>
       </c>
       <c r="D140" t="n">
-        <v>0.435723</v>
+        <v>0.433832</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.791295</v>
+        <v>0.7905180000000001</v>
       </c>
       <c r="C141" t="n">
-        <v>0.370655</v>
+        <v>0.370159</v>
       </c>
       <c r="D141" t="n">
-        <v>0.437148</v>
+        <v>0.436498</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.791835</v>
+        <v>0.791384</v>
       </c>
       <c r="C142" t="n">
-        <v>0.37585</v>
+        <v>0.376243</v>
       </c>
       <c r="D142" t="n">
-        <v>0.444668</v>
+        <v>0.446866</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.79148</v>
+        <v>0.786851</v>
       </c>
       <c r="C143" t="n">
-        <v>0.373321</v>
+        <v>0.3774</v>
       </c>
       <c r="D143" t="n">
-        <v>0.444411</v>
+        <v>0.447306</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.10567</v>
+        <v>0.105112</v>
       </c>
       <c r="C2" t="n">
-        <v>0.110207</v>
+        <v>0.109892</v>
       </c>
       <c r="D2" t="n">
-        <v>0.111504</v>
+        <v>0.111643</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.106815</v>
+        <v>0.105821</v>
       </c>
       <c r="C3" t="n">
-        <v>0.111193</v>
+        <v>0.111366</v>
       </c>
       <c r="D3" t="n">
-        <v>0.112702</v>
+        <v>0.112356</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.107957</v>
+        <v>0.107954</v>
       </c>
       <c r="C4" t="n">
-        <v>0.112138</v>
+        <v>0.112307</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11422</v>
+        <v>0.114153</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.109668</v>
+        <v>0.108745</v>
       </c>
       <c r="C5" t="n">
-        <v>0.113661</v>
+        <v>0.114012</v>
       </c>
       <c r="D5" t="n">
-        <v>0.115482</v>
+        <v>0.115718</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.111167</v>
+        <v>0.110534</v>
       </c>
       <c r="C6" t="n">
-        <v>0.115208</v>
+        <v>0.115572</v>
       </c>
       <c r="D6" t="n">
-        <v>0.117737</v>
+        <v>0.117932</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.114752</v>
+        <v>0.114327</v>
       </c>
       <c r="C7" t="n">
-        <v>0.118455</v>
+        <v>0.118437</v>
       </c>
       <c r="D7" t="n">
-        <v>0.119167</v>
+        <v>0.118957</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.117013</v>
+        <v>0.115956</v>
       </c>
       <c r="C8" t="n">
-        <v>0.120206</v>
+        <v>0.120642</v>
       </c>
       <c r="D8" t="n">
-        <v>0.12263</v>
+        <v>0.121974</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.121393</v>
+        <v>0.120534</v>
       </c>
       <c r="C9" t="n">
-        <v>0.123537</v>
+        <v>0.123252</v>
       </c>
       <c r="D9" t="n">
-        <v>0.110208</v>
+        <v>0.111428</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.105937</v>
+        <v>0.105891</v>
       </c>
       <c r="C10" t="n">
-        <v>0.106969</v>
+        <v>0.106954</v>
       </c>
       <c r="D10" t="n">
-        <v>0.110417</v>
+        <v>0.110176</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.106593</v>
+        <v>0.106677</v>
       </c>
       <c r="C11" t="n">
-        <v>0.10807</v>
+        <v>0.107915</v>
       </c>
       <c r="D11" t="n">
-        <v>0.110757</v>
+        <v>0.110939</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.107126</v>
+        <v>0.106698</v>
       </c>
       <c r="C12" t="n">
-        <v>0.108108</v>
+        <v>0.108186</v>
       </c>
       <c r="D12" t="n">
-        <v>0.111321</v>
+        <v>0.111025</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.106863</v>
+        <v>0.107182</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1089</v>
+        <v>0.108692</v>
       </c>
       <c r="D13" t="n">
-        <v>0.111511</v>
+        <v>0.111462</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.107711</v>
+        <v>0.107498</v>
       </c>
       <c r="C14" t="n">
-        <v>0.109794</v>
+        <v>0.109489</v>
       </c>
       <c r="D14" t="n">
-        <v>0.112758</v>
+        <v>0.112945</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.108629</v>
+        <v>0.108578</v>
       </c>
       <c r="C15" t="n">
-        <v>0.110541</v>
+        <v>0.110615</v>
       </c>
       <c r="D15" t="n">
-        <v>0.113508</v>
+        <v>0.113145</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.109665</v>
+        <v>0.109645</v>
       </c>
       <c r="C16" t="n">
-        <v>0.111982</v>
+        <v>0.111283</v>
       </c>
       <c r="D16" t="n">
-        <v>0.114442</v>
+        <v>0.114306</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.111096</v>
+        <v>0.110791</v>
       </c>
       <c r="C17" t="n">
-        <v>0.112601</v>
+        <v>0.112852</v>
       </c>
       <c r="D17" t="n">
-        <v>0.115929</v>
+        <v>0.115507</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.112734</v>
+        <v>0.112283</v>
       </c>
       <c r="C18" t="n">
-        <v>0.113886</v>
+        <v>0.113892</v>
       </c>
       <c r="D18" t="n">
-        <v>0.11742</v>
+        <v>0.11727</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.113679</v>
+        <v>0.113807</v>
       </c>
       <c r="C19" t="n">
-        <v>0.115653</v>
+        <v>0.115221</v>
       </c>
       <c r="D19" t="n">
-        <v>0.119434</v>
+        <v>0.119486</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.116378</v>
+        <v>0.116241</v>
       </c>
       <c r="C20" t="n">
-        <v>0.117351</v>
+        <v>0.118628</v>
       </c>
       <c r="D20" t="n">
-        <v>0.121193</v>
+        <v>0.121154</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.118806</v>
+        <v>0.11845</v>
       </c>
       <c r="C21" t="n">
-        <v>0.119863</v>
+        <v>0.119293</v>
       </c>
       <c r="D21" t="n">
-        <v>0.123651</v>
+        <v>0.123039</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.123474</v>
+        <v>0.122818</v>
       </c>
       <c r="C22" t="n">
-        <v>0.121862</v>
+        <v>0.122177</v>
       </c>
       <c r="D22" t="n">
-        <v>0.127063</v>
+        <v>0.126785</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.128707</v>
+        <v>0.12878</v>
       </c>
       <c r="C23" t="n">
-        <v>0.126118</v>
+        <v>0.126321</v>
       </c>
       <c r="D23" t="n">
-        <v>0.112739</v>
+        <v>0.112793</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.110035</v>
+        <v>0.110502</v>
       </c>
       <c r="C24" t="n">
-        <v>0.108791</v>
+        <v>0.108456</v>
       </c>
       <c r="D24" t="n">
-        <v>0.113335</v>
+        <v>0.112949</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.110068</v>
+        <v>0.110835</v>
       </c>
       <c r="C25" t="n">
-        <v>0.109278</v>
+        <v>0.109182</v>
       </c>
       <c r="D25" t="n">
-        <v>0.113598</v>
+        <v>0.113262</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.111006</v>
+        <v>0.110774</v>
       </c>
       <c r="C26" t="n">
-        <v>0.109588</v>
+        <v>0.110129</v>
       </c>
       <c r="D26" t="n">
-        <v>0.114069</v>
+        <v>0.114669</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.110794</v>
+        <v>0.110739</v>
       </c>
       <c r="C27" t="n">
-        <v>0.110902</v>
+        <v>0.110796</v>
       </c>
       <c r="D27" t="n">
-        <v>0.114912</v>
+        <v>0.115202</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.111755</v>
+        <v>0.11171</v>
       </c>
       <c r="C28" t="n">
-        <v>0.111229</v>
+        <v>0.111333</v>
       </c>
       <c r="D28" t="n">
-        <v>0.115394</v>
+        <v>0.115811</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.111776</v>
+        <v>0.112588</v>
       </c>
       <c r="C29" t="n">
-        <v>0.112121</v>
+        <v>0.112226</v>
       </c>
       <c r="D29" t="n">
-        <v>0.11657</v>
+        <v>0.116037</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.112951</v>
+        <v>0.113758</v>
       </c>
       <c r="C30" t="n">
-        <v>0.113576</v>
+        <v>0.113215</v>
       </c>
       <c r="D30" t="n">
-        <v>0.116835</v>
+        <v>0.117425</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.11405</v>
+        <v>0.114834</v>
       </c>
       <c r="C31" t="n">
-        <v>0.114679</v>
+        <v>0.114318</v>
       </c>
       <c r="D31" t="n">
-        <v>0.118116</v>
+        <v>0.118165</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.115955</v>
+        <v>0.116378</v>
       </c>
       <c r="C32" t="n">
-        <v>0.115423</v>
+        <v>0.115468</v>
       </c>
       <c r="D32" t="n">
-        <v>0.119108</v>
+        <v>0.119805</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.116451</v>
+        <v>0.117953</v>
       </c>
       <c r="C33" t="n">
-        <v>0.116679</v>
+        <v>0.116661</v>
       </c>
       <c r="D33" t="n">
-        <v>0.120669</v>
+        <v>0.120664</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.118609</v>
+        <v>0.119743</v>
       </c>
       <c r="C34" t="n">
-        <v>0.118458</v>
+        <v>0.118482</v>
       </c>
       <c r="D34" t="n">
-        <v>0.122804</v>
+        <v>0.122825</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.121766</v>
+        <v>0.122862</v>
       </c>
       <c r="C35" t="n">
-        <v>0.120862</v>
+        <v>0.120899</v>
       </c>
       <c r="D35" t="n">
-        <v>0.126162</v>
+        <v>0.125971</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.126069</v>
+        <v>0.12786</v>
       </c>
       <c r="C36" t="n">
-        <v>0.124036</v>
+        <v>0.12408</v>
       </c>
       <c r="D36" t="n">
-        <v>0.130985</v>
+        <v>0.130865</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.131981</v>
+        <v>0.134376</v>
       </c>
       <c r="C37" t="n">
-        <v>0.128991</v>
+        <v>0.12919</v>
       </c>
       <c r="D37" t="n">
-        <v>0.11404</v>
+        <v>0.114044</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.114034</v>
+        <v>0.113918</v>
       </c>
       <c r="C38" t="n">
-        <v>0.109784</v>
+        <v>0.109653</v>
       </c>
       <c r="D38" t="n">
-        <v>0.114478</v>
+        <v>0.114367</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.114033</v>
+        <v>0.114453</v>
       </c>
       <c r="C39" t="n">
-        <v>0.110307</v>
+        <v>0.110415</v>
       </c>
       <c r="D39" t="n">
-        <v>0.114935</v>
+        <v>0.114822</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.114221</v>
+        <v>0.11479</v>
       </c>
       <c r="C40" t="n">
-        <v>0.110832</v>
+        <v>0.11107</v>
       </c>
       <c r="D40" t="n">
-        <v>0.115819</v>
+        <v>0.115359</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.114858</v>
+        <v>0.114901</v>
       </c>
       <c r="C41" t="n">
-        <v>0.111552</v>
+        <v>0.11156</v>
       </c>
       <c r="D41" t="n">
-        <v>0.115812</v>
+        <v>0.115805</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.115376</v>
+        <v>0.11532</v>
       </c>
       <c r="C42" t="n">
-        <v>0.112381</v>
+        <v>0.112331</v>
       </c>
       <c r="D42" t="n">
-        <v>0.116504</v>
+        <v>0.116535</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116269</v>
+        <v>0.11632</v>
       </c>
       <c r="C43" t="n">
-        <v>0.113212</v>
+        <v>0.113226</v>
       </c>
       <c r="D43" t="n">
-        <v>0.117211</v>
+        <v>0.117498</v>
       </c>
     </row>
     <row r="44">
@@ -3839,10 +3839,10 @@
         <v>0.116808</v>
       </c>
       <c r="C44" t="n">
-        <v>0.114296</v>
+        <v>0.114213</v>
       </c>
       <c r="D44" t="n">
-        <v>0.118077</v>
+        <v>0.117956</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.118357</v>
+        <v>0.118231</v>
       </c>
       <c r="C45" t="n">
-        <v>0.115347</v>
+        <v>0.115272</v>
       </c>
       <c r="D45" t="n">
-        <v>0.119051</v>
+        <v>0.119046</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.119087</v>
+        <v>0.119388</v>
       </c>
       <c r="C46" t="n">
-        <v>0.116664</v>
+        <v>0.117032</v>
       </c>
       <c r="D46" t="n">
-        <v>0.120572</v>
+        <v>0.120559</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.12066</v>
+        <v>0.121091</v>
       </c>
       <c r="C47" t="n">
-        <v>0.118127</v>
+        <v>0.118159</v>
       </c>
       <c r="D47" t="n">
-        <v>0.122303</v>
+        <v>0.122289</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.123842</v>
+        <v>0.123979</v>
       </c>
       <c r="C48" t="n">
-        <v>0.120111</v>
+        <v>0.120716</v>
       </c>
       <c r="D48" t="n">
-        <v>0.12478</v>
+        <v>0.124863</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.12597</v>
+        <v>0.127041</v>
       </c>
       <c r="C49" t="n">
-        <v>0.122843</v>
+        <v>0.12297</v>
       </c>
       <c r="D49" t="n">
-        <v>0.12816</v>
+        <v>0.128836</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.130717</v>
+        <v>0.131582</v>
       </c>
       <c r="C50" t="n">
-        <v>0.126685</v>
+        <v>0.126597</v>
       </c>
       <c r="D50" t="n">
-        <v>0.133998</v>
+        <v>0.133737</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.136923</v>
+        <v>0.13711</v>
       </c>
       <c r="C51" t="n">
-        <v>0.131841</v>
+        <v>0.131984</v>
       </c>
       <c r="D51" t="n">
-        <v>0.115713</v>
+        <v>0.115584</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.144913</v>
+        <v>0.14635</v>
       </c>
       <c r="C52" t="n">
-        <v>0.140498</v>
+        <v>0.140525</v>
       </c>
       <c r="D52" t="n">
-        <v>0.116105</v>
+        <v>0.116112</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.116965</v>
+        <v>0.116706</v>
       </c>
       <c r="C53" t="n">
-        <v>0.111981</v>
+        <v>0.112035</v>
       </c>
       <c r="D53" t="n">
-        <v>0.116059</v>
+        <v>0.116076</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.116884</v>
+        <v>0.11709</v>
       </c>
       <c r="C54" t="n">
-        <v>0.112483</v>
+        <v>0.112279</v>
       </c>
       <c r="D54" t="n">
-        <v>0.116878</v>
+        <v>0.116393</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.117181</v>
+        <v>0.117756</v>
       </c>
       <c r="C55" t="n">
-        <v>0.113287</v>
+        <v>0.11291</v>
       </c>
       <c r="D55" t="n">
-        <v>0.117039</v>
+        <v>0.11692</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.117727</v>
+        <v>0.118</v>
       </c>
       <c r="C56" t="n">
-        <v>0.113777</v>
+        <v>0.113661</v>
       </c>
       <c r="D56" t="n">
-        <v>0.117588</v>
+        <v>0.117446</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.118258</v>
+        <v>0.118428</v>
       </c>
       <c r="C57" t="n">
-        <v>0.114994</v>
+        <v>0.114469</v>
       </c>
       <c r="D57" t="n">
-        <v>0.118685</v>
+        <v>0.118257</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.119032</v>
+        <v>0.119401</v>
       </c>
       <c r="C58" t="n">
-        <v>0.115748</v>
+        <v>0.116194</v>
       </c>
       <c r="D58" t="n">
-        <v>0.119596</v>
+        <v>0.119237</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.120819</v>
+        <v>0.120403</v>
       </c>
       <c r="C59" t="n">
-        <v>0.116982</v>
+        <v>0.116884</v>
       </c>
       <c r="D59" t="n">
-        <v>0.120354</v>
+        <v>0.12034</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.12169</v>
+        <v>0.122083</v>
       </c>
       <c r="C60" t="n">
-        <v>0.117885</v>
+        <v>0.117914</v>
       </c>
       <c r="D60" t="n">
-        <v>0.121731</v>
+        <v>0.121807</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.123727</v>
+        <v>0.123659</v>
       </c>
       <c r="C61" t="n">
-        <v>0.119811</v>
+        <v>0.119716</v>
       </c>
       <c r="D61" t="n">
-        <v>0.123565</v>
+        <v>0.123625</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.126049</v>
+        <v>0.125961</v>
       </c>
       <c r="C62" t="n">
-        <v>0.121622</v>
+        <v>0.12156</v>
       </c>
       <c r="D62" t="n">
-        <v>0.126127</v>
+        <v>0.126149</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.128777</v>
+        <v>0.129584</v>
       </c>
       <c r="C63" t="n">
-        <v>0.124388</v>
+        <v>0.124559</v>
       </c>
       <c r="D63" t="n">
-        <v>0.129892</v>
+        <v>0.130085</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.133021</v>
+        <v>0.133679</v>
       </c>
       <c r="C64" t="n">
         <v>0.12819</v>
       </c>
       <c r="D64" t="n">
-        <v>0.135271</v>
+        <v>0.135373</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.13924</v>
+        <v>0.139161</v>
       </c>
       <c r="C65" t="n">
-        <v>0.133668</v>
+        <v>0.133628</v>
       </c>
       <c r="D65" t="n">
-        <v>0.143603</v>
+        <v>0.143518</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.147126</v>
+        <v>0.147237</v>
       </c>
       <c r="C66" t="n">
-        <v>0.141079</v>
+        <v>0.141222</v>
       </c>
       <c r="D66" t="n">
-        <v>0.116119</v>
+        <v>0.116159</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.120798</v>
+        <v>0.120299</v>
       </c>
       <c r="C67" t="n">
-        <v>0.11225</v>
+        <v>0.112284</v>
       </c>
       <c r="D67" t="n">
-        <v>0.116493</v>
+        <v>0.11648</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.120685</v>
+        <v>0.120682</v>
       </c>
       <c r="C68" t="n">
-        <v>0.113075</v>
+        <v>0.112866</v>
       </c>
       <c r="D68" t="n">
-        <v>0.116987</v>
+        <v>0.117134</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.120997</v>
+        <v>0.121182</v>
       </c>
       <c r="C69" t="n">
-        <v>0.113842</v>
+        <v>0.113811</v>
       </c>
       <c r="D69" t="n">
-        <v>0.117497</v>
+        <v>0.117767</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.121496</v>
+        <v>0.121787</v>
       </c>
       <c r="C70" t="n">
-        <v>0.114674</v>
+        <v>0.114399</v>
       </c>
       <c r="D70" t="n">
-        <v>0.118286</v>
+        <v>0.118089</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.122389</v>
+        <v>0.122422</v>
       </c>
       <c r="C71" t="n">
-        <v>0.115146</v>
+        <v>0.115199</v>
       </c>
       <c r="D71" t="n">
-        <v>0.119087</v>
+        <v>0.118842</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.122984</v>
+        <v>0.122994</v>
       </c>
       <c r="C72" t="n">
-        <v>0.116125</v>
+        <v>0.116528</v>
       </c>
       <c r="D72" t="n">
-        <v>0.119659</v>
+        <v>0.119647</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.123722</v>
+        <v>0.124153</v>
       </c>
       <c r="C73" t="n">
-        <v>0.117493</v>
+        <v>0.117544</v>
       </c>
       <c r="D73" t="n">
-        <v>0.120916</v>
+        <v>0.120676</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.124973</v>
+        <v>0.125717</v>
       </c>
       <c r="C74" t="n">
-        <v>0.118628</v>
+        <v>0.118614</v>
       </c>
       <c r="D74" t="n">
-        <v>0.12249</v>
+        <v>0.122214</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.126976</v>
+        <v>0.127365</v>
       </c>
       <c r="C75" t="n">
-        <v>0.120216</v>
+        <v>0.12023</v>
       </c>
       <c r="D75" t="n">
-        <v>0.123974</v>
+        <v>0.124071</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.12902</v>
+        <v>0.129209</v>
       </c>
       <c r="C76" t="n">
-        <v>0.122318</v>
+        <v>0.122296</v>
       </c>
       <c r="D76" t="n">
-        <v>0.126757</v>
+        <v>0.126795</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.132357</v>
+        <v>0.13267</v>
       </c>
       <c r="C77" t="n">
-        <v>0.124959</v>
+        <v>0.124972</v>
       </c>
       <c r="D77" t="n">
-        <v>0.130315</v>
+        <v>0.130484</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.136249</v>
+        <v>0.136145</v>
       </c>
       <c r="C78" t="n">
-        <v>0.128667</v>
+        <v>0.128953</v>
       </c>
       <c r="D78" t="n">
-        <v>0.135523</v>
+        <v>0.136044</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.141765</v>
+        <v>0.14197</v>
       </c>
       <c r="C79" t="n">
-        <v>0.13383</v>
+        <v>0.13372</v>
       </c>
       <c r="D79" t="n">
-        <v>0.143653</v>
+        <v>0.143741</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.149758</v>
+        <v>0.149647</v>
       </c>
       <c r="C80" t="n">
-        <v>0.14111</v>
+        <v>0.141001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.118113</v>
+        <v>0.122346</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.12807</v>
+        <v>0.131145</v>
       </c>
       <c r="C81" t="n">
-        <v>0.116889</v>
+        <v>0.117216</v>
       </c>
       <c r="D81" t="n">
-        <v>0.121411</v>
+        <v>0.120541</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.128262</v>
+        <v>0.13146</v>
       </c>
       <c r="C82" t="n">
-        <v>0.118972</v>
+        <v>0.119854</v>
       </c>
       <c r="D82" t="n">
-        <v>0.124349</v>
+        <v>0.122621</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.128357</v>
+        <v>0.131732</v>
       </c>
       <c r="C83" t="n">
-        <v>0.119329</v>
+        <v>0.117969</v>
       </c>
       <c r="D83" t="n">
-        <v>0.123366</v>
+        <v>0.121816</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.129054</v>
+        <v>0.13217</v>
       </c>
       <c r="C84" t="n">
-        <v>0.119723</v>
+        <v>0.120816</v>
       </c>
       <c r="D84" t="n">
-        <v>0.122757</v>
+        <v>0.1228</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.129419</v>
+        <v>0.132728</v>
       </c>
       <c r="C85" t="n">
-        <v>0.121548</v>
+        <v>0.121651</v>
       </c>
       <c r="D85" t="n">
-        <v>0.124778</v>
+        <v>0.123572</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.130039</v>
+        <v>0.133444</v>
       </c>
       <c r="C86" t="n">
-        <v>0.120898</v>
+        <v>0.122432</v>
       </c>
       <c r="D86" t="n">
-        <v>0.125734</v>
+        <v>0.125177</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.131176</v>
+        <v>0.134761</v>
       </c>
       <c r="C87" t="n">
-        <v>0.122758</v>
+        <v>0.12151</v>
       </c>
       <c r="D87" t="n">
-        <v>0.126494</v>
+        <v>0.124763</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.132092</v>
+        <v>0.135272</v>
       </c>
       <c r="C88" t="n">
-        <v>0.124419</v>
+        <v>0.12481</v>
       </c>
       <c r="D88" t="n">
-        <v>0.127825</v>
+        <v>0.127355</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.13357</v>
+        <v>0.136977</v>
       </c>
       <c r="C89" t="n">
-        <v>0.125542</v>
+        <v>0.124214</v>
       </c>
       <c r="D89" t="n">
-        <v>0.128322</v>
+        <v>0.128372</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.135881</v>
+        <v>0.139282</v>
       </c>
       <c r="C90" t="n">
-        <v>0.127856</v>
+        <v>0.127945</v>
       </c>
       <c r="D90" t="n">
-        <v>0.131104</v>
+        <v>0.131758</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.138329</v>
+        <v>0.141982</v>
       </c>
       <c r="C91" t="n">
-        <v>0.130044</v>
+        <v>0.128468</v>
       </c>
       <c r="D91" t="n">
-        <v>0.13494</v>
+        <v>0.134103</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.14201</v>
+        <v>0.145224</v>
       </c>
       <c r="C92" t="n">
-        <v>0.133074</v>
+        <v>0.13379</v>
       </c>
       <c r="D92" t="n">
-        <v>0.14087</v>
+        <v>0.140065</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.147061</v>
+        <v>0.150287</v>
       </c>
       <c r="C93" t="n">
-        <v>0.137595</v>
+        <v>0.136544</v>
       </c>
       <c r="D93" t="n">
-        <v>0.147238</v>
+        <v>0.149034</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.154641</v>
+        <v>0.157353</v>
       </c>
       <c r="C94" t="n">
-        <v>0.144065</v>
+        <v>0.144807</v>
       </c>
       <c r="D94" t="n">
-        <v>0.174173</v>
+        <v>0.1702</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.207731</v>
+        <v>0.205782</v>
       </c>
       <c r="C95" t="n">
-        <v>0.172704</v>
+        <v>0.173372</v>
       </c>
       <c r="D95" t="n">
-        <v>0.17344</v>
+        <v>0.17191</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.196633</v>
+        <v>0.195341</v>
       </c>
       <c r="C96" t="n">
-        <v>0.173715</v>
+        <v>0.173882</v>
       </c>
       <c r="D96" t="n">
-        <v>0.175571</v>
+        <v>0.172536</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.197041</v>
+        <v>0.195291</v>
       </c>
       <c r="C97" t="n">
-        <v>0.174014</v>
+        <v>0.174106</v>
       </c>
       <c r="D97" t="n">
-        <v>0.174667</v>
+        <v>0.172556</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.207512</v>
+        <v>0.196129</v>
       </c>
       <c r="C98" t="n">
-        <v>0.175244</v>
+        <v>0.175573</v>
       </c>
       <c r="D98" t="n">
-        <v>0.176773</v>
+        <v>0.173402</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.197584</v>
+        <v>0.196031</v>
       </c>
       <c r="C99" t="n">
-        <v>0.175588</v>
+        <v>0.175913</v>
       </c>
       <c r="D99" t="n">
-        <v>0.176559</v>
+        <v>0.17467</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.207734</v>
+        <v>0.208366</v>
       </c>
       <c r="C100" t="n">
-        <v>0.176784</v>
+        <v>0.176861</v>
       </c>
       <c r="D100" t="n">
-        <v>0.177482</v>
+        <v>0.175376</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.208058</v>
+        <v>0.196845</v>
       </c>
       <c r="C101" t="n">
-        <v>0.176938</v>
+        <v>0.177865</v>
       </c>
       <c r="D101" t="n">
-        <v>0.177717</v>
+        <v>0.176376</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.202777</v>
+        <v>0.197619</v>
       </c>
       <c r="C102" t="n">
-        <v>0.177797</v>
+        <v>0.182497</v>
       </c>
       <c r="D102" t="n">
-        <v>0.181461</v>
+        <v>0.178124</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.206231</v>
+        <v>0.199041</v>
       </c>
       <c r="C103" t="n">
-        <v>0.179831</v>
+        <v>0.180777</v>
       </c>
       <c r="D103" t="n">
-        <v>0.183634</v>
+        <v>0.17928</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.211887</v>
+        <v>0.199933</v>
       </c>
       <c r="C104" t="n">
-        <v>0.181167</v>
+        <v>0.184417</v>
       </c>
       <c r="D104" t="n">
-        <v>0.183636</v>
+        <v>0.182345</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.212256</v>
+        <v>0.20173</v>
       </c>
       <c r="C105" t="n">
-        <v>0.183427</v>
+        <v>0.184775</v>
       </c>
       <c r="D105" t="n">
-        <v>0.18684</v>
+        <v>0.183849</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.205262</v>
+        <v>0.204692</v>
       </c>
       <c r="C106" t="n">
-        <v>0.187133</v>
+        <v>0.189413</v>
       </c>
       <c r="D106" t="n">
-        <v>0.192522</v>
+        <v>0.188178</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.21059</v>
+        <v>0.207732</v>
       </c>
       <c r="C107" t="n">
-        <v>0.193311</v>
+        <v>0.191225</v>
       </c>
       <c r="D107" t="n">
-        <v>0.199348</v>
+        <v>0.194177</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.215202</v>
+        <v>0.213096</v>
       </c>
       <c r="C108" t="n">
-        <v>0.196476</v>
+        <v>0.198513</v>
       </c>
       <c r="D108" t="n">
-        <v>0.309399</v>
+        <v>0.30874</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.22229</v>
+        <v>0.220967</v>
       </c>
       <c r="C109" t="n">
-        <v>0.205207</v>
+        <v>0.204423</v>
       </c>
       <c r="D109" t="n">
-        <v>0.311138</v>
+        <v>0.309509</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.352308</v>
+        <v>0.350614</v>
       </c>
       <c r="C110" t="n">
-        <v>0.297505</v>
+        <v>0.297335</v>
       </c>
       <c r="D110" t="n">
-        <v>0.311155</v>
+        <v>0.313947</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.347578</v>
+        <v>0.350999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.298294</v>
+        <v>0.298458</v>
       </c>
       <c r="D111" t="n">
-        <v>0.312228</v>
+        <v>0.312348</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.347538</v>
+        <v>0.35115</v>
       </c>
       <c r="C112" t="n">
-        <v>0.299152</v>
+        <v>0.298936</v>
       </c>
       <c r="D112" t="n">
-        <v>0.313659</v>
+        <v>0.31309</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.347231</v>
+        <v>0.351499</v>
       </c>
       <c r="C113" t="n">
-        <v>0.300506</v>
+        <v>0.300198</v>
       </c>
       <c r="D113" t="n">
-        <v>0.314941</v>
+        <v>0.314832</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.347959</v>
+        <v>0.351737</v>
       </c>
       <c r="C114" t="n">
-        <v>0.301133</v>
+        <v>0.301163</v>
       </c>
       <c r="D114" t="n">
-        <v>0.316176</v>
+        <v>0.315229</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.34813</v>
+        <v>0.351976</v>
       </c>
       <c r="C115" t="n">
-        <v>0.30217</v>
+        <v>0.302239</v>
       </c>
       <c r="D115" t="n">
-        <v>0.317818</v>
+        <v>0.317093</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.348715</v>
+        <v>0.352466</v>
       </c>
       <c r="C116" t="n">
-        <v>0.305282</v>
+        <v>0.303547</v>
       </c>
       <c r="D116" t="n">
-        <v>0.318807</v>
+        <v>0.319516</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.348962</v>
+        <v>0.352903</v>
       </c>
       <c r="C117" t="n">
-        <v>0.305603</v>
+        <v>0.305891</v>
       </c>
       <c r="D117" t="n">
-        <v>0.321066</v>
+        <v>0.324401</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.34972</v>
+        <v>0.353717</v>
       </c>
       <c r="C118" t="n">
-        <v>0.306912</v>
+        <v>0.306657</v>
       </c>
       <c r="D118" t="n">
-        <v>0.325848</v>
+        <v>0.322758</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.351258</v>
+        <v>0.355042</v>
       </c>
       <c r="C119" t="n">
-        <v>0.308808</v>
+        <v>0.308943</v>
       </c>
       <c r="D119" t="n">
-        <v>0.326461</v>
+        <v>0.326485</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.352554</v>
+        <v>0.356379</v>
       </c>
       <c r="C120" t="n">
-        <v>0.311988</v>
+        <v>0.311542</v>
       </c>
       <c r="D120" t="n">
-        <v>0.330574</v>
+        <v>0.330419</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.354864</v>
+        <v>0.35873</v>
       </c>
       <c r="C121" t="n">
-        <v>0.314709</v>
+        <v>0.314815</v>
       </c>
       <c r="D121" t="n">
-        <v>0.334803</v>
+        <v>0.33529</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.358079</v>
+        <v>0.362121</v>
       </c>
       <c r="C122" t="n">
-        <v>0.319477</v>
+        <v>0.327043</v>
       </c>
       <c r="D122" t="n">
-        <v>0.342051</v>
+        <v>0.341698</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.363006</v>
+        <v>0.366829</v>
       </c>
       <c r="C123" t="n">
-        <v>0.327081</v>
+        <v>0.326615</v>
       </c>
       <c r="D123" t="n">
-        <v>0.378242</v>
+        <v>0.377977</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.456385</v>
+        <v>0.45697</v>
       </c>
       <c r="C124" t="n">
-        <v>0.342896</v>
+        <v>0.342818</v>
       </c>
       <c r="D124" t="n">
-        <v>0.379738</v>
+        <v>0.379883</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.458132</v>
+        <v>0.457458</v>
       </c>
       <c r="C125" t="n">
-        <v>0.343922</v>
+        <v>0.344167</v>
       </c>
       <c r="D125" t="n">
-        <v>0.382197</v>
+        <v>0.381838</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.456817</v>
+        <v>0.644359</v>
       </c>
       <c r="C126" t="n">
-        <v>0.344968</v>
+        <v>0.344994</v>
       </c>
       <c r="D126" t="n">
-        <v>0.38421</v>
+        <v>0.384672</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.457383</v>
+        <v>0.45783</v>
       </c>
       <c r="C127" t="n">
-        <v>0.34627</v>
+        <v>0.34609</v>
       </c>
       <c r="D127" t="n">
-        <v>0.389564</v>
+        <v>0.386905</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.457308</v>
+        <v>0.457972</v>
       </c>
       <c r="C128" t="n">
-        <v>0.346837</v>
+        <v>0.34698</v>
       </c>
       <c r="D128" t="n">
-        <v>0.389897</v>
+        <v>0.389727</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.457835</v>
+        <v>0.459171</v>
       </c>
       <c r="C129" t="n">
-        <v>0.348445</v>
+        <v>0.348265</v>
       </c>
       <c r="D129" t="n">
-        <v>0.392139</v>
+        <v>0.392324</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.458002</v>
+        <v>0.458194</v>
       </c>
       <c r="C130" t="n">
-        <v>0.349801</v>
+        <v>0.349722</v>
       </c>
       <c r="D130" t="n">
-        <v>0.395111</v>
+        <v>0.395381</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.458554</v>
+        <v>0.459539</v>
       </c>
       <c r="C131" t="n">
-        <v>0.351269</v>
+        <v>0.351497</v>
       </c>
       <c r="D131" t="n">
-        <v>0.398551</v>
+        <v>0.398946</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.459545</v>
+        <v>0.459929</v>
       </c>
       <c r="C132" t="n">
-        <v>0.353768</v>
+        <v>0.35358</v>
       </c>
       <c r="D132" t="n">
-        <v>0.402075</v>
+        <v>0.402173</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.460718</v>
+        <v>0.460906</v>
       </c>
       <c r="C133" t="n">
-        <v>0.355961</v>
+        <v>0.355834</v>
       </c>
       <c r="D133" t="n">
-        <v>0.406821</v>
+        <v>0.406855</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.46196</v>
+        <v>0.462534</v>
       </c>
       <c r="C134" t="n">
-        <v>0.359048</v>
+        <v>0.359098</v>
       </c>
       <c r="D134" t="n">
-        <v>0.411821</v>
+        <v>0.411656</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.463562</v>
+        <v>0.464554</v>
       </c>
       <c r="C135" t="n">
-        <v>0.363268</v>
+        <v>0.363096</v>
       </c>
       <c r="D135" t="n">
-        <v>0.418399</v>
+        <v>0.41762</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.466897</v>
+        <v>0.467311</v>
       </c>
       <c r="C136" t="n">
-        <v>0.368812</v>
+        <v>0.368788</v>
       </c>
       <c r="D136" t="n">
-        <v>0.426126</v>
+        <v>0.426172</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.470798</v>
+        <v>0.471806</v>
       </c>
       <c r="C137" t="n">
-        <v>0.377154</v>
+        <v>0.37646</v>
       </c>
       <c r="D137" t="n">
-        <v>0.425382</v>
+        <v>0.425232</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.789913</v>
+        <v>0.780621</v>
       </c>
       <c r="C138" t="n">
-        <v>0.367212</v>
+        <v>0.366642</v>
       </c>
       <c r="D138" t="n">
-        <v>0.427967</v>
+        <v>0.427997</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.789851</v>
+        <v>0.792537</v>
       </c>
       <c r="C139" t="n">
-        <v>0.367828</v>
+        <v>0.370049</v>
       </c>
       <c r="D139" t="n">
-        <v>0.431034</v>
+        <v>0.431604</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.790215</v>
+        <v>0.791899</v>
       </c>
       <c r="C140" t="n">
-        <v>0.36906</v>
+        <v>0.371207</v>
       </c>
       <c r="D140" t="n">
-        <v>0.433832</v>
+        <v>0.433379</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.7905180000000001</v>
+        <v>0.791377</v>
       </c>
       <c r="C141" t="n">
-        <v>0.370159</v>
+        <v>0.370298</v>
       </c>
       <c r="D141" t="n">
-        <v>0.436498</v>
+        <v>0.436947</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.791384</v>
+        <v>0.791596</v>
       </c>
       <c r="C142" t="n">
-        <v>0.376243</v>
+        <v>0.371617</v>
       </c>
       <c r="D142" t="n">
-        <v>0.446866</v>
+        <v>0.439577</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.786851</v>
+        <v>0.791323</v>
       </c>
       <c r="C143" t="n">
-        <v>0.3774</v>
+        <v>0.37261</v>
       </c>
       <c r="D143" t="n">
-        <v>0.447306</v>
+        <v>0.4431</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.105112</v>
+        <v>0.106514</v>
       </c>
       <c r="C2" t="n">
-        <v>0.109892</v>
+        <v>0.110142</v>
       </c>
       <c r="D2" t="n">
-        <v>0.111643</v>
+        <v>0.111511</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.105821</v>
+        <v>0.107354</v>
       </c>
       <c r="C3" t="n">
-        <v>0.111366</v>
+        <v>0.111314</v>
       </c>
       <c r="D3" t="n">
-        <v>0.112356</v>
+        <v>0.112517</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.107954</v>
+        <v>0.109506</v>
       </c>
       <c r="C4" t="n">
-        <v>0.112307</v>
+        <v>0.112049</v>
       </c>
       <c r="D4" t="n">
-        <v>0.114153</v>
+        <v>0.114095</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.108745</v>
+        <v>0.11029</v>
       </c>
       <c r="C5" t="n">
-        <v>0.114012</v>
+        <v>0.113851</v>
       </c>
       <c r="D5" t="n">
-        <v>0.115718</v>
+        <v>0.115686</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.110534</v>
+        <v>0.112613</v>
       </c>
       <c r="C6" t="n">
-        <v>0.115572</v>
+        <v>0.116646</v>
       </c>
       <c r="D6" t="n">
-        <v>0.117932</v>
+        <v>0.117506</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.114327</v>
+        <v>0.114862</v>
       </c>
       <c r="C7" t="n">
-        <v>0.118437</v>
+        <v>0.118423</v>
       </c>
       <c r="D7" t="n">
-        <v>0.118957</v>
+        <v>0.120515</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.115956</v>
+        <v>0.118137</v>
       </c>
       <c r="C8" t="n">
-        <v>0.120642</v>
+        <v>0.120363</v>
       </c>
       <c r="D8" t="n">
-        <v>0.121974</v>
+        <v>0.122844</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.120534</v>
+        <v>0.122884</v>
       </c>
       <c r="C9" t="n">
-        <v>0.123252</v>
+        <v>0.123292</v>
       </c>
       <c r="D9" t="n">
-        <v>0.111428</v>
+        <v>0.109958</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.105891</v>
+        <v>0.106504</v>
       </c>
       <c r="C10" t="n">
-        <v>0.106954</v>
+        <v>0.10728</v>
       </c>
       <c r="D10" t="n">
-        <v>0.110176</v>
+        <v>0.110396</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.106677</v>
+        <v>0.106801</v>
       </c>
       <c r="C11" t="n">
-        <v>0.107915</v>
+        <v>0.107967</v>
       </c>
       <c r="D11" t="n">
-        <v>0.110939</v>
+        <v>0.111017</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.106698</v>
+        <v>0.10704</v>
       </c>
       <c r="C12" t="n">
-        <v>0.108186</v>
+        <v>0.108232</v>
       </c>
       <c r="D12" t="n">
-        <v>0.111025</v>
+        <v>0.111382</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.107182</v>
+        <v>0.107157</v>
       </c>
       <c r="C13" t="n">
-        <v>0.108692</v>
+        <v>0.108981</v>
       </c>
       <c r="D13" t="n">
-        <v>0.111462</v>
+        <v>0.111733</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.107498</v>
+        <v>0.107784</v>
       </c>
       <c r="C14" t="n">
-        <v>0.109489</v>
+        <v>0.110007</v>
       </c>
       <c r="D14" t="n">
-        <v>0.112945</v>
+        <v>0.112794</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.108578</v>
+        <v>0.108972</v>
       </c>
       <c r="C15" t="n">
-        <v>0.110615</v>
+        <v>0.110368</v>
       </c>
       <c r="D15" t="n">
-        <v>0.113145</v>
+        <v>0.113992</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.109645</v>
+        <v>0.109494</v>
       </c>
       <c r="C16" t="n">
-        <v>0.111283</v>
+        <v>0.111669</v>
       </c>
       <c r="D16" t="n">
-        <v>0.114306</v>
+        <v>0.114321</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.110791</v>
+        <v>0.110747</v>
       </c>
       <c r="C17" t="n">
-        <v>0.112852</v>
+        <v>0.112815</v>
       </c>
       <c r="D17" t="n">
-        <v>0.115507</v>
+        <v>0.115949</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.112283</v>
+        <v>0.112381</v>
       </c>
       <c r="C18" t="n">
-        <v>0.113892</v>
+        <v>0.113643</v>
       </c>
       <c r="D18" t="n">
-        <v>0.11727</v>
+        <v>0.117412</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.113807</v>
+        <v>0.113691</v>
       </c>
       <c r="C19" t="n">
-        <v>0.115221</v>
+        <v>0.116431</v>
       </c>
       <c r="D19" t="n">
-        <v>0.119486</v>
+        <v>0.118794</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.116241</v>
+        <v>0.115909</v>
       </c>
       <c r="C20" t="n">
-        <v>0.118628</v>
+        <v>0.117349</v>
       </c>
       <c r="D20" t="n">
-        <v>0.121154</v>
+        <v>0.120944</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.11845</v>
+        <v>0.119083</v>
       </c>
       <c r="C21" t="n">
-        <v>0.119293</v>
+        <v>0.119648</v>
       </c>
       <c r="D21" t="n">
-        <v>0.123039</v>
+        <v>0.123537</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.122818</v>
+        <v>0.12305</v>
       </c>
       <c r="C22" t="n">
-        <v>0.122177</v>
+        <v>0.122223</v>
       </c>
       <c r="D22" t="n">
-        <v>0.126785</v>
+        <v>0.127119</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.12878</v>
+        <v>0.129426</v>
       </c>
       <c r="C23" t="n">
-        <v>0.126321</v>
+        <v>0.126518</v>
       </c>
       <c r="D23" t="n">
-        <v>0.112793</v>
+        <v>0.112824</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.110502</v>
+        <v>0.110122</v>
       </c>
       <c r="C24" t="n">
-        <v>0.108456</v>
+        <v>0.108705</v>
       </c>
       <c r="D24" t="n">
-        <v>0.112949</v>
+        <v>0.113347</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.110835</v>
+        <v>0.110324</v>
       </c>
       <c r="C25" t="n">
-        <v>0.109182</v>
+        <v>0.109487</v>
       </c>
       <c r="D25" t="n">
-        <v>0.113262</v>
+        <v>0.113639</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.110774</v>
+        <v>0.111193</v>
       </c>
       <c r="C26" t="n">
-        <v>0.110129</v>
+        <v>0.110057</v>
       </c>
       <c r="D26" t="n">
-        <v>0.114669</v>
+        <v>0.114086</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.110739</v>
+        <v>0.111863</v>
       </c>
       <c r="C27" t="n">
-        <v>0.110796</v>
+        <v>0.11074</v>
       </c>
       <c r="D27" t="n">
-        <v>0.115202</v>
+        <v>0.114898</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.11171</v>
+        <v>0.11175</v>
       </c>
       <c r="C28" t="n">
-        <v>0.111333</v>
+        <v>0.111259</v>
       </c>
       <c r="D28" t="n">
-        <v>0.115811</v>
+        <v>0.115346</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.112588</v>
+        <v>0.112464</v>
       </c>
       <c r="C29" t="n">
-        <v>0.112226</v>
+        <v>0.111998</v>
       </c>
       <c r="D29" t="n">
-        <v>0.116037</v>
+        <v>0.116376</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.113758</v>
+        <v>0.113614</v>
       </c>
       <c r="C30" t="n">
-        <v>0.113215</v>
+        <v>0.113629</v>
       </c>
       <c r="D30" t="n">
-        <v>0.117425</v>
+        <v>0.117172</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.114834</v>
+        <v>0.114759</v>
       </c>
       <c r="C31" t="n">
-        <v>0.114318</v>
+        <v>0.114678</v>
       </c>
       <c r="D31" t="n">
-        <v>0.118165</v>
+        <v>0.11839</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.116378</v>
+        <v>0.116284</v>
       </c>
       <c r="C32" t="n">
-        <v>0.115468</v>
+        <v>0.115433</v>
       </c>
       <c r="D32" t="n">
-        <v>0.119805</v>
+        <v>0.119146</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.117953</v>
+        <v>0.11699</v>
       </c>
       <c r="C33" t="n">
-        <v>0.116661</v>
+        <v>0.116625</v>
       </c>
       <c r="D33" t="n">
-        <v>0.120664</v>
+        <v>0.120725</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.119743</v>
+        <v>0.119752</v>
       </c>
       <c r="C34" t="n">
-        <v>0.118482</v>
+        <v>0.118597</v>
       </c>
       <c r="D34" t="n">
-        <v>0.122825</v>
+        <v>0.122932</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.122862</v>
+        <v>0.122559</v>
       </c>
       <c r="C35" t="n">
-        <v>0.120899</v>
+        <v>0.120906</v>
       </c>
       <c r="D35" t="n">
-        <v>0.125971</v>
+        <v>0.125898</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.12786</v>
+        <v>0.127073</v>
       </c>
       <c r="C36" t="n">
-        <v>0.12408</v>
+        <v>0.124097</v>
       </c>
       <c r="D36" t="n">
-        <v>0.130865</v>
+        <v>0.131117</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.134376</v>
+        <v>0.134273</v>
       </c>
       <c r="C37" t="n">
-        <v>0.12919</v>
+        <v>0.129068</v>
       </c>
       <c r="D37" t="n">
-        <v>0.114044</v>
+        <v>0.114042</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.113918</v>
+        <v>0.114055</v>
       </c>
       <c r="C38" t="n">
-        <v>0.109653</v>
+        <v>0.109594</v>
       </c>
       <c r="D38" t="n">
-        <v>0.114367</v>
+        <v>0.114381</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.114453</v>
+        <v>0.114428</v>
       </c>
       <c r="C39" t="n">
-        <v>0.110415</v>
+        <v>0.110221</v>
       </c>
       <c r="D39" t="n">
-        <v>0.114822</v>
+        <v>0.114812</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.11479</v>
+        <v>0.1147</v>
       </c>
       <c r="C40" t="n">
-        <v>0.11107</v>
+        <v>0.111065</v>
       </c>
       <c r="D40" t="n">
-        <v>0.115359</v>
+        <v>0.115349</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.114901</v>
+        <v>0.115192</v>
       </c>
       <c r="C41" t="n">
-        <v>0.11156</v>
+        <v>0.111604</v>
       </c>
       <c r="D41" t="n">
-        <v>0.115805</v>
+        <v>0.115944</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.11532</v>
+        <v>0.115494</v>
       </c>
       <c r="C42" t="n">
-        <v>0.112331</v>
+        <v>0.112372</v>
       </c>
       <c r="D42" t="n">
-        <v>0.116535</v>
+        <v>0.116225</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.11632</v>
+        <v>0.116123</v>
       </c>
       <c r="C43" t="n">
-        <v>0.113226</v>
+        <v>0.1132</v>
       </c>
       <c r="D43" t="n">
-        <v>0.117498</v>
+        <v>0.117482</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.116808</v>
+        <v>0.116972</v>
       </c>
       <c r="C44" t="n">
-        <v>0.114213</v>
+        <v>0.114107</v>
       </c>
       <c r="D44" t="n">
-        <v>0.117956</v>
+        <v>0.117911</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.118231</v>
+        <v>0.118078</v>
       </c>
       <c r="C45" t="n">
-        <v>0.115272</v>
+        <v>0.115267</v>
       </c>
       <c r="D45" t="n">
-        <v>0.119046</v>
+        <v>0.119058</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.119388</v>
+        <v>0.119398</v>
       </c>
       <c r="C46" t="n">
-        <v>0.117032</v>
+        <v>0.116589</v>
       </c>
       <c r="D46" t="n">
-        <v>0.120559</v>
+        <v>0.12066</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.121091</v>
+        <v>0.121527</v>
       </c>
       <c r="C47" t="n">
-        <v>0.118159</v>
+        <v>0.118277</v>
       </c>
       <c r="D47" t="n">
-        <v>0.122289</v>
+        <v>0.122243</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.123979</v>
+        <v>0.123734</v>
       </c>
       <c r="C48" t="n">
-        <v>0.120716</v>
+        <v>0.120304</v>
       </c>
       <c r="D48" t="n">
-        <v>0.124863</v>
+        <v>0.124894</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.127041</v>
+        <v>0.127369</v>
       </c>
       <c r="C49" t="n">
-        <v>0.12297</v>
+        <v>0.122829</v>
       </c>
       <c r="D49" t="n">
-        <v>0.128836</v>
+        <v>0.128274</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.131582</v>
+        <v>0.131668</v>
       </c>
       <c r="C50" t="n">
-        <v>0.126597</v>
+        <v>0.12659</v>
       </c>
       <c r="D50" t="n">
-        <v>0.133737</v>
+        <v>0.133679</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.13711</v>
+        <v>0.137007</v>
       </c>
       <c r="C51" t="n">
-        <v>0.131984</v>
+        <v>0.131856</v>
       </c>
       <c r="D51" t="n">
-        <v>0.115584</v>
+        <v>0.116059</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.14635</v>
+        <v>0.145615</v>
       </c>
       <c r="C52" t="n">
-        <v>0.140525</v>
+        <v>0.140373</v>
       </c>
       <c r="D52" t="n">
-        <v>0.116112</v>
+        <v>0.116079</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.116706</v>
+        <v>0.117286</v>
       </c>
       <c r="C53" t="n">
-        <v>0.112035</v>
+        <v>0.111906</v>
       </c>
       <c r="D53" t="n">
-        <v>0.116076</v>
+        <v>0.116249</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.11709</v>
+        <v>0.116868</v>
       </c>
       <c r="C54" t="n">
-        <v>0.112279</v>
+        <v>0.112674</v>
       </c>
       <c r="D54" t="n">
-        <v>0.116393</v>
+        <v>0.116939</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.117756</v>
+        <v>0.11751</v>
       </c>
       <c r="C55" t="n">
-        <v>0.11291</v>
+        <v>0.113165</v>
       </c>
       <c r="D55" t="n">
-        <v>0.11692</v>
+        <v>0.11746</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.118</v>
+        <v>0.11773</v>
       </c>
       <c r="C56" t="n">
-        <v>0.113661</v>
+        <v>0.113987</v>
       </c>
       <c r="D56" t="n">
-        <v>0.117446</v>
+        <v>0.117981</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.118428</v>
+        <v>0.118809</v>
       </c>
       <c r="C57" t="n">
-        <v>0.114469</v>
+        <v>0.114466</v>
       </c>
       <c r="D57" t="n">
-        <v>0.118257</v>
+        <v>0.118123</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.119401</v>
+        <v>0.119247</v>
       </c>
       <c r="C58" t="n">
-        <v>0.116194</v>
+        <v>0.115472</v>
       </c>
       <c r="D58" t="n">
-        <v>0.119237</v>
+        <v>0.119097</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.120403</v>
+        <v>0.120321</v>
       </c>
       <c r="C59" t="n">
-        <v>0.116884</v>
+        <v>0.116816</v>
       </c>
       <c r="D59" t="n">
-        <v>0.12034</v>
+        <v>0.120363</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.122083</v>
+        <v>0.121759</v>
       </c>
       <c r="C60" t="n">
-        <v>0.117914</v>
+        <v>0.117724</v>
       </c>
       <c r="D60" t="n">
-        <v>0.121807</v>
+        <v>0.121652</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.123659</v>
+        <v>0.124</v>
       </c>
       <c r="C61" t="n">
-        <v>0.119716</v>
+        <v>0.119408</v>
       </c>
       <c r="D61" t="n">
-        <v>0.123625</v>
+        <v>0.123841</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.125961</v>
+        <v>0.125554</v>
       </c>
       <c r="C62" t="n">
-        <v>0.12156</v>
+        <v>0.121415</v>
       </c>
       <c r="D62" t="n">
-        <v>0.126149</v>
+        <v>0.12597</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.129584</v>
+        <v>0.129028</v>
       </c>
       <c r="C63" t="n">
-        <v>0.124559</v>
+        <v>0.124298</v>
       </c>
       <c r="D63" t="n">
-        <v>0.130085</v>
+        <v>0.129762</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.133679</v>
+        <v>0.133532</v>
       </c>
       <c r="C64" t="n">
-        <v>0.12819</v>
+        <v>0.128183</v>
       </c>
       <c r="D64" t="n">
-        <v>0.135373</v>
+        <v>0.135364</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.139161</v>
+        <v>0.139916</v>
       </c>
       <c r="C65" t="n">
-        <v>0.133628</v>
+        <v>0.133631</v>
       </c>
       <c r="D65" t="n">
-        <v>0.143518</v>
+        <v>0.143652</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.147237</v>
+        <v>0.14764</v>
       </c>
       <c r="C66" t="n">
-        <v>0.141222</v>
+        <v>0.141318</v>
       </c>
       <c r="D66" t="n">
-        <v>0.116159</v>
+        <v>0.116098</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.120299</v>
+        <v>0.120527</v>
       </c>
       <c r="C67" t="n">
-        <v>0.112284</v>
+        <v>0.112529</v>
       </c>
       <c r="D67" t="n">
-        <v>0.11648</v>
+        <v>0.116523</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.120682</v>
+        <v>0.120585</v>
       </c>
       <c r="C68" t="n">
-        <v>0.112866</v>
+        <v>0.112931</v>
       </c>
       <c r="D68" t="n">
-        <v>0.117134</v>
+        <v>0.117093</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.121182</v>
+        <v>0.120865</v>
       </c>
       <c r="C69" t="n">
-        <v>0.113811</v>
+        <v>0.113657</v>
       </c>
       <c r="D69" t="n">
-        <v>0.117767</v>
+        <v>0.117673</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.121787</v>
+        <v>0.12138</v>
       </c>
       <c r="C70" t="n">
-        <v>0.114399</v>
+        <v>0.114356</v>
       </c>
       <c r="D70" t="n">
-        <v>0.118089</v>
+        <v>0.118075</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.122422</v>
+        <v>0.122278</v>
       </c>
       <c r="C71" t="n">
-        <v>0.115199</v>
+        <v>0.115178</v>
       </c>
       <c r="D71" t="n">
-        <v>0.118842</v>
+        <v>0.118787</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.122994</v>
+        <v>0.122963</v>
       </c>
       <c r="C72" t="n">
-        <v>0.116528</v>
+        <v>0.116148</v>
       </c>
       <c r="D72" t="n">
-        <v>0.119647</v>
+        <v>0.11971</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.124153</v>
+        <v>0.12442</v>
       </c>
       <c r="C73" t="n">
-        <v>0.117544</v>
+        <v>0.117408</v>
       </c>
       <c r="D73" t="n">
-        <v>0.120676</v>
+        <v>0.120998</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.125717</v>
+        <v>0.125596</v>
       </c>
       <c r="C74" t="n">
-        <v>0.118614</v>
+        <v>0.118743</v>
       </c>
       <c r="D74" t="n">
-        <v>0.122214</v>
+        <v>0.122174</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.127365</v>
+        <v>0.126759</v>
       </c>
       <c r="C75" t="n">
-        <v>0.12023</v>
+        <v>0.120258</v>
       </c>
       <c r="D75" t="n">
-        <v>0.124071</v>
+        <v>0.124098</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.129209</v>
+        <v>0.129346</v>
       </c>
       <c r="C76" t="n">
-        <v>0.122296</v>
+        <v>0.122322</v>
       </c>
       <c r="D76" t="n">
-        <v>0.126795</v>
+        <v>0.126722</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.13267</v>
+        <v>0.132417</v>
       </c>
       <c r="C77" t="n">
-        <v>0.124972</v>
+        <v>0.124962</v>
       </c>
       <c r="D77" t="n">
-        <v>0.130484</v>
+        <v>0.130308</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.136145</v>
+        <v>0.136704</v>
       </c>
       <c r="C78" t="n">
-        <v>0.128953</v>
+        <v>0.128717</v>
       </c>
       <c r="D78" t="n">
-        <v>0.136044</v>
+        <v>0.135934</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.14197</v>
+        <v>0.14228</v>
       </c>
       <c r="C79" t="n">
-        <v>0.13372</v>
+        <v>0.134039</v>
       </c>
       <c r="D79" t="n">
-        <v>0.143741</v>
+        <v>0.143824</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.149647</v>
+        <v>0.149719</v>
       </c>
       <c r="C80" t="n">
-        <v>0.141001</v>
+        <v>0.141046</v>
       </c>
       <c r="D80" t="n">
-        <v>0.122346</v>
+        <v>0.119485</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.131145</v>
+        <v>0.133085</v>
       </c>
       <c r="C81" t="n">
-        <v>0.117216</v>
+        <v>0.119354</v>
       </c>
       <c r="D81" t="n">
-        <v>0.120541</v>
+        <v>0.122068</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.13146</v>
+        <v>0.132588</v>
       </c>
       <c r="C82" t="n">
-        <v>0.119854</v>
+        <v>0.118114</v>
       </c>
       <c r="D82" t="n">
-        <v>0.122621</v>
+        <v>0.121707</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.131732</v>
+        <v>0.133092</v>
       </c>
       <c r="C83" t="n">
-        <v>0.117969</v>
+        <v>0.119913</v>
       </c>
       <c r="D83" t="n">
-        <v>0.121816</v>
+        <v>0.121339</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.13217</v>
+        <v>0.13353</v>
       </c>
       <c r="C84" t="n">
-        <v>0.120816</v>
+        <v>0.119933</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1228</v>
+        <v>0.122602</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.132728</v>
+        <v>0.134071</v>
       </c>
       <c r="C85" t="n">
-        <v>0.121651</v>
+        <v>0.12078</v>
       </c>
       <c r="D85" t="n">
-        <v>0.123572</v>
+        <v>0.123786</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.133444</v>
+        <v>0.134467</v>
       </c>
       <c r="C86" t="n">
-        <v>0.122432</v>
+        <v>0.121121</v>
       </c>
       <c r="D86" t="n">
-        <v>0.125177</v>
+        <v>0.12459</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134761</v>
+        <v>0.135212</v>
       </c>
       <c r="C87" t="n">
-        <v>0.12151</v>
+        <v>0.122183</v>
       </c>
       <c r="D87" t="n">
-        <v>0.124763</v>
+        <v>0.123293</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.135272</v>
+        <v>0.136692</v>
       </c>
       <c r="C88" t="n">
-        <v>0.12481</v>
+        <v>0.124235</v>
       </c>
       <c r="D88" t="n">
-        <v>0.127355</v>
+        <v>0.128536</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.136977</v>
+        <v>0.138043</v>
       </c>
       <c r="C89" t="n">
-        <v>0.124214</v>
+        <v>0.123366</v>
       </c>
       <c r="D89" t="n">
-        <v>0.128372</v>
+        <v>0.127479</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.139282</v>
+        <v>0.140224</v>
       </c>
       <c r="C90" t="n">
-        <v>0.127945</v>
+        <v>0.126926</v>
       </c>
       <c r="D90" t="n">
-        <v>0.131758</v>
+        <v>0.130761</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.141982</v>
+        <v>0.142412</v>
       </c>
       <c r="C91" t="n">
-        <v>0.128468</v>
+        <v>0.129322</v>
       </c>
       <c r="D91" t="n">
-        <v>0.134103</v>
+        <v>0.133504</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.145224</v>
+        <v>0.146551</v>
       </c>
       <c r="C92" t="n">
-        <v>0.13379</v>
+        <v>0.132732</v>
       </c>
       <c r="D92" t="n">
-        <v>0.140065</v>
+        <v>0.139529</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.150287</v>
+        <v>0.15137</v>
       </c>
       <c r="C93" t="n">
-        <v>0.136544</v>
+        <v>0.135804</v>
       </c>
       <c r="D93" t="n">
-        <v>0.149034</v>
+        <v>0.145069</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.157353</v>
+        <v>0.157831</v>
       </c>
       <c r="C94" t="n">
-        <v>0.144807</v>
+        <v>0.144086</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1702</v>
+        <v>0.16489</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.205782</v>
+        <v>0.210912</v>
       </c>
       <c r="C95" t="n">
-        <v>0.173372</v>
+        <v>0.174461</v>
       </c>
       <c r="D95" t="n">
-        <v>0.17191</v>
+        <v>0.167684</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.195341</v>
+        <v>0.211198</v>
       </c>
       <c r="C96" t="n">
-        <v>0.173882</v>
+        <v>0.17529</v>
       </c>
       <c r="D96" t="n">
-        <v>0.172536</v>
+        <v>0.167781</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.195291</v>
+        <v>0.200507</v>
       </c>
       <c r="C97" t="n">
-        <v>0.174106</v>
+        <v>0.177663</v>
       </c>
       <c r="D97" t="n">
-        <v>0.172556</v>
+        <v>0.16941</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.196129</v>
+        <v>0.201243</v>
       </c>
       <c r="C98" t="n">
-        <v>0.175573</v>
+        <v>0.178901</v>
       </c>
       <c r="D98" t="n">
-        <v>0.173402</v>
+        <v>0.170286</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.196031</v>
+        <v>0.201227</v>
       </c>
       <c r="C99" t="n">
-        <v>0.175913</v>
+        <v>0.179648</v>
       </c>
       <c r="D99" t="n">
-        <v>0.17467</v>
+        <v>0.171591</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.208366</v>
+        <v>0.201604</v>
       </c>
       <c r="C100" t="n">
-        <v>0.176861</v>
+        <v>0.179599</v>
       </c>
       <c r="D100" t="n">
-        <v>0.175376</v>
+        <v>0.171894</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.196845</v>
+        <v>0.212279</v>
       </c>
       <c r="C101" t="n">
-        <v>0.177865</v>
+        <v>0.181111</v>
       </c>
       <c r="D101" t="n">
-        <v>0.176376</v>
+        <v>0.175225</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.197619</v>
+        <v>0.203033</v>
       </c>
       <c r="C102" t="n">
-        <v>0.182497</v>
+        <v>0.182144</v>
       </c>
       <c r="D102" t="n">
-        <v>0.178124</v>
+        <v>0.17549</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.199041</v>
+        <v>0.203935</v>
       </c>
       <c r="C103" t="n">
-        <v>0.180777</v>
+        <v>0.184231</v>
       </c>
       <c r="D103" t="n">
-        <v>0.17928</v>
+        <v>0.176717</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.199933</v>
+        <v>0.214759</v>
       </c>
       <c r="C104" t="n">
-        <v>0.184417</v>
+        <v>0.184242</v>
       </c>
       <c r="D104" t="n">
-        <v>0.182345</v>
+        <v>0.178862</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.20173</v>
+        <v>0.212872</v>
       </c>
       <c r="C105" t="n">
-        <v>0.184775</v>
+        <v>0.186393</v>
       </c>
       <c r="D105" t="n">
-        <v>0.183849</v>
+        <v>0.183481</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.204692</v>
+        <v>0.219729</v>
       </c>
       <c r="C106" t="n">
-        <v>0.189413</v>
+        <v>0.190941</v>
       </c>
       <c r="D106" t="n">
-        <v>0.188178</v>
+        <v>0.186562</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.207732</v>
+        <v>0.212704</v>
       </c>
       <c r="C107" t="n">
-        <v>0.191225</v>
+        <v>0.194552</v>
       </c>
       <c r="D107" t="n">
-        <v>0.194177</v>
+        <v>0.192675</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.213096</v>
+        <v>0.218087</v>
       </c>
       <c r="C108" t="n">
-        <v>0.198513</v>
+        <v>0.20031</v>
       </c>
       <c r="D108" t="n">
-        <v>0.30874</v>
+        <v>0.308872</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.220967</v>
+        <v>0.225677</v>
       </c>
       <c r="C109" t="n">
-        <v>0.204423</v>
+        <v>0.208575</v>
       </c>
       <c r="D109" t="n">
-        <v>0.309509</v>
+        <v>0.309653</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.350614</v>
+        <v>0.353723</v>
       </c>
       <c r="C110" t="n">
-        <v>0.297335</v>
+        <v>0.297848</v>
       </c>
       <c r="D110" t="n">
-        <v>0.313947</v>
+        <v>0.310787</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.350999</v>
+        <v>0.354471</v>
       </c>
       <c r="C111" t="n">
-        <v>0.298458</v>
+        <v>0.298501</v>
       </c>
       <c r="D111" t="n">
-        <v>0.312348</v>
+        <v>0.312092</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.35115</v>
+        <v>0.354534</v>
       </c>
       <c r="C112" t="n">
-        <v>0.298936</v>
+        <v>0.299035</v>
       </c>
       <c r="D112" t="n">
-        <v>0.31309</v>
+        <v>0.313376</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.351499</v>
+        <v>0.354569</v>
       </c>
       <c r="C113" t="n">
-        <v>0.300198</v>
+        <v>0.299993</v>
       </c>
       <c r="D113" t="n">
-        <v>0.314832</v>
+        <v>0.314046</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.351737</v>
+        <v>0.354782</v>
       </c>
       <c r="C114" t="n">
-        <v>0.301163</v>
+        <v>0.301369</v>
       </c>
       <c r="D114" t="n">
-        <v>0.315229</v>
+        <v>0.315905</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.351976</v>
+        <v>0.357787</v>
       </c>
       <c r="C115" t="n">
-        <v>0.302239</v>
+        <v>0.302501</v>
       </c>
       <c r="D115" t="n">
-        <v>0.317093</v>
+        <v>0.317387</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.352466</v>
+        <v>0.35571</v>
       </c>
       <c r="C116" t="n">
-        <v>0.303547</v>
+        <v>0.303705</v>
       </c>
       <c r="D116" t="n">
-        <v>0.319516</v>
+        <v>0.319251</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.352903</v>
+        <v>0.356174</v>
       </c>
       <c r="C117" t="n">
-        <v>0.305891</v>
+        <v>0.304531</v>
       </c>
       <c r="D117" t="n">
-        <v>0.324401</v>
+        <v>0.321512</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.353717</v>
+        <v>0.357303</v>
       </c>
       <c r="C118" t="n">
-        <v>0.306657</v>
+        <v>0.306791</v>
       </c>
       <c r="D118" t="n">
-        <v>0.322758</v>
+        <v>0.323684</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.355042</v>
+        <v>0.357994</v>
       </c>
       <c r="C119" t="n">
-        <v>0.308943</v>
+        <v>0.308974</v>
       </c>
       <c r="D119" t="n">
-        <v>0.326485</v>
+        <v>0.326497</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.356379</v>
+        <v>0.360003</v>
       </c>
       <c r="C120" t="n">
-        <v>0.311542</v>
+        <v>0.317157</v>
       </c>
       <c r="D120" t="n">
-        <v>0.330419</v>
+        <v>0.32944</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.35873</v>
+        <v>0.362141</v>
       </c>
       <c r="C121" t="n">
-        <v>0.314815</v>
+        <v>0.314764</v>
       </c>
       <c r="D121" t="n">
-        <v>0.33529</v>
+        <v>0.335304</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.362121</v>
+        <v>0.365463</v>
       </c>
       <c r="C122" t="n">
-        <v>0.327043</v>
+        <v>0.319337</v>
       </c>
       <c r="D122" t="n">
-        <v>0.341698</v>
+        <v>0.342504</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.366829</v>
+        <v>0.370414</v>
       </c>
       <c r="C123" t="n">
-        <v>0.326615</v>
+        <v>0.327202</v>
       </c>
       <c r="D123" t="n">
-        <v>0.377977</v>
+        <v>0.378357</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.45697</v>
+        <v>0.457676</v>
       </c>
       <c r="C124" t="n">
-        <v>0.342818</v>
+        <v>0.343365</v>
       </c>
       <c r="D124" t="n">
-        <v>0.379883</v>
+        <v>0.380407</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.457458</v>
+        <v>0.457744</v>
       </c>
       <c r="C125" t="n">
-        <v>0.344167</v>
+        <v>0.344328</v>
       </c>
       <c r="D125" t="n">
-        <v>0.381838</v>
+        <v>0.382501</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.644359</v>
+        <v>0.457565</v>
       </c>
       <c r="C126" t="n">
-        <v>0.344994</v>
+        <v>0.345081</v>
       </c>
       <c r="D126" t="n">
-        <v>0.384672</v>
+        <v>0.384411</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.45783</v>
+        <v>0.457809</v>
       </c>
       <c r="C127" t="n">
-        <v>0.34609</v>
+        <v>0.346112</v>
       </c>
       <c r="D127" t="n">
-        <v>0.386905</v>
+        <v>0.386883</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.457972</v>
+        <v>0.458495</v>
       </c>
       <c r="C128" t="n">
-        <v>0.34698</v>
+        <v>0.34722</v>
       </c>
       <c r="D128" t="n">
-        <v>0.389727</v>
+        <v>0.392799</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.459171</v>
+        <v>0.458148</v>
       </c>
       <c r="C129" t="n">
-        <v>0.348265</v>
+        <v>0.348428</v>
       </c>
       <c r="D129" t="n">
-        <v>0.392324</v>
+        <v>0.392169</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.458194</v>
+        <v>0.458536</v>
       </c>
       <c r="C130" t="n">
-        <v>0.349722</v>
+        <v>0.349397</v>
       </c>
       <c r="D130" t="n">
-        <v>0.395381</v>
+        <v>0.395225</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.459539</v>
+        <v>0.458802</v>
       </c>
       <c r="C131" t="n">
-        <v>0.351497</v>
+        <v>0.351168</v>
       </c>
       <c r="D131" t="n">
-        <v>0.398946</v>
+        <v>0.398503</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.459929</v>
+        <v>0.459766</v>
       </c>
       <c r="C132" t="n">
-        <v>0.35358</v>
+        <v>0.353091</v>
       </c>
       <c r="D132" t="n">
-        <v>0.402173</v>
+        <v>0.401903</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.460906</v>
+        <v>0.461404</v>
       </c>
       <c r="C133" t="n">
-        <v>0.355834</v>
+        <v>0.355842</v>
       </c>
       <c r="D133" t="n">
-        <v>0.406855</v>
+        <v>0.407134</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.462534</v>
+        <v>0.462177</v>
       </c>
       <c r="C134" t="n">
-        <v>0.359098</v>
+        <v>0.358831</v>
       </c>
       <c r="D134" t="n">
-        <v>0.411656</v>
+        <v>0.411033</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.464554</v>
+        <v>0.468414</v>
       </c>
       <c r="C135" t="n">
-        <v>0.363096</v>
+        <v>0.362756</v>
       </c>
       <c r="D135" t="n">
-        <v>0.41762</v>
+        <v>0.418461</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.467311</v>
+        <v>0.46942</v>
       </c>
       <c r="C136" t="n">
-        <v>0.368788</v>
+        <v>0.368478</v>
       </c>
       <c r="D136" t="n">
-        <v>0.426172</v>
+        <v>0.427209</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.471806</v>
+        <v>0.470801</v>
       </c>
       <c r="C137" t="n">
-        <v>0.37646</v>
+        <v>0.377148</v>
       </c>
       <c r="D137" t="n">
-        <v>0.425232</v>
+        <v>0.425202</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.780621</v>
+        <v>0.790641</v>
       </c>
       <c r="C138" t="n">
-        <v>0.366642</v>
+        <v>0.366968</v>
       </c>
       <c r="D138" t="n">
-        <v>0.427997</v>
+        <v>0.428011</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.792537</v>
+        <v>0.7913019999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>0.370049</v>
+        <v>0.36826</v>
       </c>
       <c r="D139" t="n">
-        <v>0.431604</v>
+        <v>0.430997</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.791899</v>
+        <v>0.791094</v>
       </c>
       <c r="C140" t="n">
-        <v>0.371207</v>
+        <v>0.370161</v>
       </c>
       <c r="D140" t="n">
-        <v>0.433379</v>
+        <v>0.434775</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.791377</v>
+        <v>0.790319</v>
       </c>
       <c r="C141" t="n">
-        <v>0.370298</v>
+        <v>0.370237</v>
       </c>
       <c r="D141" t="n">
-        <v>0.436947</v>
+        <v>0.436933</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.791596</v>
+        <v>0.79198</v>
       </c>
       <c r="C142" t="n">
-        <v>0.371617</v>
+        <v>0.375168</v>
       </c>
       <c r="D142" t="n">
-        <v>0.439577</v>
+        <v>0.440253</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.791323</v>
+        <v>0.792202</v>
       </c>
       <c r="C143" t="n">
-        <v>0.37261</v>
+        <v>0.372617</v>
       </c>
       <c r="D143" t="n">
-        <v>0.4431</v>
+        <v>0.443147</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.106514</v>
+        <v>0.106328</v>
       </c>
       <c r="C2" t="n">
-        <v>0.110142</v>
+        <v>0.112335</v>
       </c>
       <c r="D2" t="n">
-        <v>0.111511</v>
+        <v>0.110543</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.107354</v>
+        <v>0.107328</v>
       </c>
       <c r="C3" t="n">
-        <v>0.111314</v>
+        <v>0.113032</v>
       </c>
       <c r="D3" t="n">
-        <v>0.112517</v>
+        <v>0.111949</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.109506</v>
+        <v>0.108827</v>
       </c>
       <c r="C4" t="n">
-        <v>0.112049</v>
+        <v>0.114104</v>
       </c>
       <c r="D4" t="n">
-        <v>0.114095</v>
+        <v>0.113406</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.11029</v>
+        <v>0.110237</v>
       </c>
       <c r="C5" t="n">
-        <v>0.113851</v>
+        <v>0.115474</v>
       </c>
       <c r="D5" t="n">
-        <v>0.115686</v>
+        <v>0.114698</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.112613</v>
+        <v>0.112301</v>
       </c>
       <c r="C6" t="n">
-        <v>0.116646</v>
+        <v>0.116761</v>
       </c>
       <c r="D6" t="n">
-        <v>0.117506</v>
+        <v>0.118041</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.114862</v>
+        <v>0.11631</v>
       </c>
       <c r="C7" t="n">
-        <v>0.118423</v>
+        <v>0.117518</v>
       </c>
       <c r="D7" t="n">
-        <v>0.120515</v>
+        <v>0.119337</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.118137</v>
+        <v>0.119075</v>
       </c>
       <c r="C8" t="n">
-        <v>0.120363</v>
+        <v>0.119956</v>
       </c>
       <c r="D8" t="n">
-        <v>0.122844</v>
+        <v>0.121727</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.122884</v>
+        <v>0.12471</v>
       </c>
       <c r="C9" t="n">
-        <v>0.123292</v>
+        <v>0.121449</v>
       </c>
       <c r="D9" t="n">
-        <v>0.109958</v>
+        <v>0.108648</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.106504</v>
+        <v>0.106059</v>
       </c>
       <c r="C10" t="n">
-        <v>0.10728</v>
+        <v>0.109535</v>
       </c>
       <c r="D10" t="n">
-        <v>0.110396</v>
+        <v>0.109498</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.106801</v>
+        <v>0.106802</v>
       </c>
       <c r="C11" t="n">
-        <v>0.107967</v>
+        <v>0.110258</v>
       </c>
       <c r="D11" t="n">
-        <v>0.111017</v>
+        <v>0.109932</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.10704</v>
+        <v>0.106847</v>
       </c>
       <c r="C12" t="n">
-        <v>0.108232</v>
+        <v>0.110447</v>
       </c>
       <c r="D12" t="n">
-        <v>0.111382</v>
+        <v>0.109934</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.107157</v>
+        <v>0.106981</v>
       </c>
       <c r="C13" t="n">
-        <v>0.108981</v>
+        <v>0.111542</v>
       </c>
       <c r="D13" t="n">
-        <v>0.111733</v>
+        <v>0.111096</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.107784</v>
+        <v>0.108555</v>
       </c>
       <c r="C14" t="n">
-        <v>0.110007</v>
+        <v>0.112177</v>
       </c>
       <c r="D14" t="n">
-        <v>0.112794</v>
+        <v>0.111517</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.108972</v>
+        <v>0.10925</v>
       </c>
       <c r="C15" t="n">
-        <v>0.110368</v>
+        <v>0.112788</v>
       </c>
       <c r="D15" t="n">
-        <v>0.113992</v>
+        <v>0.112794</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.109494</v>
+        <v>0.110241</v>
       </c>
       <c r="C16" t="n">
-        <v>0.111669</v>
+        <v>0.113792</v>
       </c>
       <c r="D16" t="n">
-        <v>0.114321</v>
+        <v>0.11334</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.110747</v>
+        <v>0.111121</v>
       </c>
       <c r="C17" t="n">
-        <v>0.112815</v>
+        <v>0.115303</v>
       </c>
       <c r="D17" t="n">
-        <v>0.115949</v>
+        <v>0.114886</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.112381</v>
+        <v>0.112694</v>
       </c>
       <c r="C18" t="n">
-        <v>0.113643</v>
+        <v>0.116291</v>
       </c>
       <c r="D18" t="n">
-        <v>0.117412</v>
+        <v>0.116011</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.113691</v>
+        <v>0.115278</v>
       </c>
       <c r="C19" t="n">
-        <v>0.116431</v>
+        <v>0.117727</v>
       </c>
       <c r="D19" t="n">
-        <v>0.118794</v>
+        <v>0.118184</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.115909</v>
+        <v>0.116455</v>
       </c>
       <c r="C20" t="n">
-        <v>0.117349</v>
+        <v>0.119046</v>
       </c>
       <c r="D20" t="n">
-        <v>0.120944</v>
+        <v>0.120413</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.119083</v>
+        <v>0.119496</v>
       </c>
       <c r="C21" t="n">
-        <v>0.119648</v>
+        <v>0.121094</v>
       </c>
       <c r="D21" t="n">
-        <v>0.123537</v>
+        <v>0.123204</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.12305</v>
+        <v>0.123412</v>
       </c>
       <c r="C22" t="n">
-        <v>0.122223</v>
+        <v>0.123135</v>
       </c>
       <c r="D22" t="n">
-        <v>0.127119</v>
+        <v>0.12641</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.129426</v>
+        <v>0.129312</v>
       </c>
       <c r="C23" t="n">
-        <v>0.126518</v>
+        <v>0.125394</v>
       </c>
       <c r="D23" t="n">
-        <v>0.112824</v>
+        <v>0.111471</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.110122</v>
+        <v>0.110458</v>
       </c>
       <c r="C24" t="n">
-        <v>0.108705</v>
+        <v>0.111259</v>
       </c>
       <c r="D24" t="n">
-        <v>0.113347</v>
+        <v>0.111968</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.110324</v>
+        <v>0.111182</v>
       </c>
       <c r="C25" t="n">
-        <v>0.109487</v>
+        <v>0.112007</v>
       </c>
       <c r="D25" t="n">
-        <v>0.113639</v>
+        <v>0.113105</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.111193</v>
+        <v>0.110949</v>
       </c>
       <c r="C26" t="n">
-        <v>0.110057</v>
+        <v>0.112294</v>
       </c>
       <c r="D26" t="n">
-        <v>0.114086</v>
+        <v>0.113316</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.111863</v>
+        <v>0.111809</v>
       </c>
       <c r="C27" t="n">
-        <v>0.11074</v>
+        <v>0.113542</v>
       </c>
       <c r="D27" t="n">
-        <v>0.114898</v>
+        <v>0.113862</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.11175</v>
+        <v>0.11212</v>
       </c>
       <c r="C28" t="n">
-        <v>0.111259</v>
+        <v>0.114058</v>
       </c>
       <c r="D28" t="n">
-        <v>0.115346</v>
+        <v>0.114244</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.112464</v>
+        <v>0.113148</v>
       </c>
       <c r="C29" t="n">
-        <v>0.111998</v>
+        <v>0.114888</v>
       </c>
       <c r="D29" t="n">
-        <v>0.116376</v>
+        <v>0.115233</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.113614</v>
+        <v>0.113526</v>
       </c>
       <c r="C30" t="n">
-        <v>0.113629</v>
+        <v>0.115778</v>
       </c>
       <c r="D30" t="n">
-        <v>0.117172</v>
+        <v>0.116188</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.114759</v>
+        <v>0.115366</v>
       </c>
       <c r="C31" t="n">
-        <v>0.114678</v>
+        <v>0.116251</v>
       </c>
       <c r="D31" t="n">
-        <v>0.11839</v>
+        <v>0.117135</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.116284</v>
+        <v>0.116076</v>
       </c>
       <c r="C32" t="n">
-        <v>0.115433</v>
+        <v>0.1178</v>
       </c>
       <c r="D32" t="n">
-        <v>0.119146</v>
+        <v>0.117947</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.11699</v>
+        <v>0.118004</v>
       </c>
       <c r="C33" t="n">
-        <v>0.116625</v>
+        <v>0.118723</v>
       </c>
       <c r="D33" t="n">
-        <v>0.120725</v>
+        <v>0.119936</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.119752</v>
+        <v>0.120235</v>
       </c>
       <c r="C34" t="n">
-        <v>0.118597</v>
+        <v>0.120556</v>
       </c>
       <c r="D34" t="n">
-        <v>0.122932</v>
+        <v>0.122045</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.122559</v>
+        <v>0.123497</v>
       </c>
       <c r="C35" t="n">
-        <v>0.120906</v>
+        <v>0.122459</v>
       </c>
       <c r="D35" t="n">
-        <v>0.125898</v>
+        <v>0.12494</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.127073</v>
+        <v>0.127569</v>
       </c>
       <c r="C36" t="n">
-        <v>0.124097</v>
+        <v>0.125323</v>
       </c>
       <c r="D36" t="n">
-        <v>0.131117</v>
+        <v>0.129696</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.134273</v>
+        <v>0.133511</v>
       </c>
       <c r="C37" t="n">
-        <v>0.129068</v>
+        <v>0.12966</v>
       </c>
       <c r="D37" t="n">
-        <v>0.114042</v>
+        <v>0.113138</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.114055</v>
+        <v>0.113829</v>
       </c>
       <c r="C38" t="n">
-        <v>0.109594</v>
+        <v>0.112416</v>
       </c>
       <c r="D38" t="n">
-        <v>0.114381</v>
+        <v>0.113463</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.114428</v>
+        <v>0.114125</v>
       </c>
       <c r="C39" t="n">
-        <v>0.110221</v>
+        <v>0.113139</v>
       </c>
       <c r="D39" t="n">
-        <v>0.114812</v>
+        <v>0.114018</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1147</v>
+        <v>0.114503</v>
       </c>
       <c r="C40" t="n">
-        <v>0.111065</v>
+        <v>0.113651</v>
       </c>
       <c r="D40" t="n">
-        <v>0.115349</v>
+        <v>0.114141</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.115192</v>
+        <v>0.114772</v>
       </c>
       <c r="C41" t="n">
-        <v>0.111604</v>
+        <v>0.114348</v>
       </c>
       <c r="D41" t="n">
-        <v>0.115944</v>
+        <v>0.114611</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.115494</v>
+        <v>0.115864</v>
       </c>
       <c r="C42" t="n">
-        <v>0.112372</v>
+        <v>0.115462</v>
       </c>
       <c r="D42" t="n">
-        <v>0.116225</v>
+        <v>0.115308</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116123</v>
+        <v>0.116483</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1132</v>
+        <v>0.116023</v>
       </c>
       <c r="D43" t="n">
-        <v>0.117482</v>
+        <v>0.115973</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.116972</v>
+        <v>0.117573</v>
       </c>
       <c r="C44" t="n">
-        <v>0.114107</v>
+        <v>0.117173</v>
       </c>
       <c r="D44" t="n">
-        <v>0.117911</v>
+        <v>0.11677</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.118078</v>
+        <v>0.118149</v>
       </c>
       <c r="C45" t="n">
-        <v>0.115267</v>
+        <v>0.118083</v>
       </c>
       <c r="D45" t="n">
-        <v>0.119058</v>
+        <v>0.117996</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.119398</v>
+        <v>0.119464</v>
       </c>
       <c r="C46" t="n">
-        <v>0.116589</v>
+        <v>0.119367</v>
       </c>
       <c r="D46" t="n">
-        <v>0.12066</v>
+        <v>0.119374</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.121527</v>
+        <v>0.121628</v>
       </c>
       <c r="C47" t="n">
-        <v>0.118277</v>
+        <v>0.120948</v>
       </c>
       <c r="D47" t="n">
-        <v>0.122243</v>
+        <v>0.121307</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.123734</v>
+        <v>0.123943</v>
       </c>
       <c r="C48" t="n">
-        <v>0.120304</v>
+        <v>0.122571</v>
       </c>
       <c r="D48" t="n">
-        <v>0.124894</v>
+        <v>0.124058</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.127369</v>
+        <v>0.127282</v>
       </c>
       <c r="C49" t="n">
-        <v>0.122829</v>
+        <v>0.124968</v>
       </c>
       <c r="D49" t="n">
-        <v>0.128274</v>
+        <v>0.127116</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.131668</v>
+        <v>0.131384</v>
       </c>
       <c r="C50" t="n">
-        <v>0.12659</v>
+        <v>0.128625</v>
       </c>
       <c r="D50" t="n">
-        <v>0.133679</v>
+        <v>0.13285</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.137007</v>
+        <v>0.137658</v>
       </c>
       <c r="C51" t="n">
-        <v>0.131856</v>
+        <v>0.13334</v>
       </c>
       <c r="D51" t="n">
-        <v>0.116059</v>
+        <v>0.114578</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.145615</v>
+        <v>0.145454</v>
       </c>
       <c r="C52" t="n">
-        <v>0.140373</v>
+        <v>0.140513</v>
       </c>
       <c r="D52" t="n">
-        <v>0.116079</v>
+        <v>0.114567</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.117286</v>
+        <v>0.116641</v>
       </c>
       <c r="C53" t="n">
-        <v>0.111906</v>
+        <v>0.115086</v>
       </c>
       <c r="D53" t="n">
-        <v>0.116249</v>
+        <v>0.115168</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.116868</v>
+        <v>0.116987</v>
       </c>
       <c r="C54" t="n">
-        <v>0.112674</v>
+        <v>0.115654</v>
       </c>
       <c r="D54" t="n">
-        <v>0.116939</v>
+        <v>0.115248</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.11751</v>
+        <v>0.118343</v>
       </c>
       <c r="C55" t="n">
-        <v>0.113165</v>
+        <v>0.116145</v>
       </c>
       <c r="D55" t="n">
-        <v>0.11746</v>
+        <v>0.115971</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.11773</v>
+        <v>0.117843</v>
       </c>
       <c r="C56" t="n">
-        <v>0.113987</v>
+        <v>0.116804</v>
       </c>
       <c r="D56" t="n">
-        <v>0.117981</v>
+        <v>0.11647</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.118809</v>
+        <v>0.118555</v>
       </c>
       <c r="C57" t="n">
-        <v>0.114466</v>
+        <v>0.117774</v>
       </c>
       <c r="D57" t="n">
-        <v>0.118123</v>
+        <v>0.11707</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.119247</v>
+        <v>0.11996</v>
       </c>
       <c r="C58" t="n">
-        <v>0.115472</v>
+        <v>0.118701</v>
       </c>
       <c r="D58" t="n">
-        <v>0.119097</v>
+        <v>0.117995</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.120321</v>
+        <v>0.120549</v>
       </c>
       <c r="C59" t="n">
-        <v>0.116816</v>
+        <v>0.11975</v>
       </c>
       <c r="D59" t="n">
-        <v>0.120363</v>
+        <v>0.119167</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.121759</v>
+        <v>0.121855</v>
       </c>
       <c r="C60" t="n">
-        <v>0.117724</v>
+        <v>0.120877</v>
       </c>
       <c r="D60" t="n">
-        <v>0.121652</v>
+        <v>0.120501</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.124</v>
+        <v>0.123662</v>
       </c>
       <c r="C61" t="n">
-        <v>0.119408</v>
+        <v>0.122258</v>
       </c>
       <c r="D61" t="n">
-        <v>0.123841</v>
+        <v>0.122359</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.125554</v>
+        <v>0.125972</v>
       </c>
       <c r="C62" t="n">
-        <v>0.121415</v>
+        <v>0.124243</v>
       </c>
       <c r="D62" t="n">
-        <v>0.12597</v>
+        <v>0.125462</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.129028</v>
+        <v>0.12929</v>
       </c>
       <c r="C63" t="n">
-        <v>0.124298</v>
+        <v>0.126974</v>
       </c>
       <c r="D63" t="n">
-        <v>0.129762</v>
+        <v>0.12916</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.133532</v>
+        <v>0.133727</v>
       </c>
       <c r="C64" t="n">
-        <v>0.128183</v>
+        <v>0.130332</v>
       </c>
       <c r="D64" t="n">
-        <v>0.135364</v>
+        <v>0.134585</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.139916</v>
+        <v>0.14027</v>
       </c>
       <c r="C65" t="n">
-        <v>0.133631</v>
+        <v>0.135238</v>
       </c>
       <c r="D65" t="n">
-        <v>0.143652</v>
+        <v>0.143065</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.14764</v>
+        <v>0.148036</v>
       </c>
       <c r="C66" t="n">
-        <v>0.141318</v>
+        <v>0.141928</v>
       </c>
       <c r="D66" t="n">
-        <v>0.116098</v>
+        <v>0.115196</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.120527</v>
+        <v>0.120723</v>
       </c>
       <c r="C67" t="n">
-        <v>0.112529</v>
+        <v>0.116151</v>
       </c>
       <c r="D67" t="n">
-        <v>0.116523</v>
+        <v>0.115168</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.120585</v>
+        <v>0.120644</v>
       </c>
       <c r="C68" t="n">
-        <v>0.112931</v>
+        <v>0.116357</v>
       </c>
       <c r="D68" t="n">
-        <v>0.117093</v>
+        <v>0.115544</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.120865</v>
+        <v>0.121111</v>
       </c>
       <c r="C69" t="n">
-        <v>0.113657</v>
+        <v>0.116774</v>
       </c>
       <c r="D69" t="n">
-        <v>0.117673</v>
+        <v>0.116206</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.12138</v>
+        <v>0.122519</v>
       </c>
       <c r="C70" t="n">
-        <v>0.114356</v>
+        <v>0.117703</v>
       </c>
       <c r="D70" t="n">
-        <v>0.118075</v>
+        <v>0.117021</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.122278</v>
+        <v>0.122174</v>
       </c>
       <c r="C71" t="n">
-        <v>0.115178</v>
+        <v>0.118327</v>
       </c>
       <c r="D71" t="n">
-        <v>0.118787</v>
+        <v>0.117409</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.122963</v>
+        <v>0.123791</v>
       </c>
       <c r="C72" t="n">
-        <v>0.116148</v>
+        <v>0.119497</v>
       </c>
       <c r="D72" t="n">
-        <v>0.11971</v>
+        <v>0.118334</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.12442</v>
+        <v>0.123895</v>
       </c>
       <c r="C73" t="n">
-        <v>0.117408</v>
+        <v>0.120467</v>
       </c>
       <c r="D73" t="n">
-        <v>0.120998</v>
+        <v>0.119556</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.125596</v>
+        <v>0.12531</v>
       </c>
       <c r="C74" t="n">
-        <v>0.118743</v>
+        <v>0.121645</v>
       </c>
       <c r="D74" t="n">
-        <v>0.122174</v>
+        <v>0.121367</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.126759</v>
+        <v>0.127689</v>
       </c>
       <c r="C75" t="n">
-        <v>0.120258</v>
+        <v>0.123296</v>
       </c>
       <c r="D75" t="n">
-        <v>0.124098</v>
+        <v>0.122847</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.129346</v>
+        <v>0.129084</v>
       </c>
       <c r="C76" t="n">
-        <v>0.122322</v>
+        <v>0.12514</v>
       </c>
       <c r="D76" t="n">
-        <v>0.126722</v>
+        <v>0.125666</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.132417</v>
+        <v>0.132331</v>
       </c>
       <c r="C77" t="n">
-        <v>0.124962</v>
+        <v>0.12783</v>
       </c>
       <c r="D77" t="n">
-        <v>0.130308</v>
+        <v>0.129042</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.136704</v>
+        <v>0.136892</v>
       </c>
       <c r="C78" t="n">
-        <v>0.128717</v>
+        <v>0.131352</v>
       </c>
       <c r="D78" t="n">
-        <v>0.135934</v>
+        <v>0.134687</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.14228</v>
+        <v>0.1423</v>
       </c>
       <c r="C79" t="n">
-        <v>0.134039</v>
+        <v>0.136005</v>
       </c>
       <c r="D79" t="n">
-        <v>0.143824</v>
+        <v>0.142401</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.149719</v>
+        <v>0.150581</v>
       </c>
       <c r="C80" t="n">
-        <v>0.141046</v>
+        <v>0.142798</v>
       </c>
       <c r="D80" t="n">
-        <v>0.119485</v>
+        <v>0.11859</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.133085</v>
+        <v>0.130394</v>
       </c>
       <c r="C81" t="n">
-        <v>0.119354</v>
+        <v>0.12103</v>
       </c>
       <c r="D81" t="n">
-        <v>0.122068</v>
+        <v>0.119376</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.132588</v>
+        <v>0.131064</v>
       </c>
       <c r="C82" t="n">
-        <v>0.118114</v>
+        <v>0.122806</v>
       </c>
       <c r="D82" t="n">
-        <v>0.121707</v>
+        <v>0.123057</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.133092</v>
+        <v>0.131017</v>
       </c>
       <c r="C83" t="n">
-        <v>0.119913</v>
+        <v>0.123864</v>
       </c>
       <c r="D83" t="n">
-        <v>0.121339</v>
+        <v>0.123876</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.13353</v>
+        <v>0.13187</v>
       </c>
       <c r="C84" t="n">
-        <v>0.119933</v>
+        <v>0.124605</v>
       </c>
       <c r="D84" t="n">
-        <v>0.122602</v>
+        <v>0.122282</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.134071</v>
+        <v>0.132492</v>
       </c>
       <c r="C85" t="n">
-        <v>0.12078</v>
+        <v>0.123719</v>
       </c>
       <c r="D85" t="n">
-        <v>0.123786</v>
+        <v>0.120908</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.134467</v>
+        <v>0.133064</v>
       </c>
       <c r="C86" t="n">
-        <v>0.121121</v>
+        <v>0.126613</v>
       </c>
       <c r="D86" t="n">
-        <v>0.12459</v>
+        <v>0.12585</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.135212</v>
+        <v>0.133667</v>
       </c>
       <c r="C87" t="n">
-        <v>0.122183</v>
+        <v>0.123499</v>
       </c>
       <c r="D87" t="n">
-        <v>0.123293</v>
+        <v>0.125039</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.136692</v>
+        <v>0.134964</v>
       </c>
       <c r="C88" t="n">
-        <v>0.124235</v>
+        <v>0.128781</v>
       </c>
       <c r="D88" t="n">
-        <v>0.128536</v>
+        <v>0.124971</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.138043</v>
+        <v>0.136188</v>
       </c>
       <c r="C89" t="n">
-        <v>0.123366</v>
+        <v>0.129264</v>
       </c>
       <c r="D89" t="n">
-        <v>0.127479</v>
+        <v>0.130287</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.140224</v>
+        <v>0.138183</v>
       </c>
       <c r="C90" t="n">
-        <v>0.126926</v>
+        <v>0.12998</v>
       </c>
       <c r="D90" t="n">
-        <v>0.130761</v>
+        <v>0.128257</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.142412</v>
+        <v>0.141143</v>
       </c>
       <c r="C91" t="n">
-        <v>0.129322</v>
+        <v>0.134282</v>
       </c>
       <c r="D91" t="n">
-        <v>0.133504</v>
+        <v>0.135626</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.146551</v>
+        <v>0.145087</v>
       </c>
       <c r="C92" t="n">
-        <v>0.132732</v>
+        <v>0.133658</v>
       </c>
       <c r="D92" t="n">
-        <v>0.139529</v>
+        <v>0.140389</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.15137</v>
+        <v>0.14941</v>
       </c>
       <c r="C93" t="n">
-        <v>0.135804</v>
+        <v>0.141364</v>
       </c>
       <c r="D93" t="n">
-        <v>0.145069</v>
+        <v>0.148294</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.157831</v>
+        <v>0.156912</v>
       </c>
       <c r="C94" t="n">
-        <v>0.144086</v>
+        <v>0.146609</v>
       </c>
       <c r="D94" t="n">
-        <v>0.16489</v>
+        <v>0.171211</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.210912</v>
+        <v>0.206817</v>
       </c>
       <c r="C95" t="n">
-        <v>0.174461</v>
+        <v>0.176338</v>
       </c>
       <c r="D95" t="n">
-        <v>0.167684</v>
+        <v>0.172852</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.211198</v>
+        <v>0.197407</v>
       </c>
       <c r="C96" t="n">
-        <v>0.17529</v>
+        <v>0.176425</v>
       </c>
       <c r="D96" t="n">
-        <v>0.167781</v>
+        <v>0.170711</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.200507</v>
+        <v>0.196601</v>
       </c>
       <c r="C97" t="n">
-        <v>0.177663</v>
+        <v>0.178159</v>
       </c>
       <c r="D97" t="n">
-        <v>0.16941</v>
+        <v>0.173964</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.201243</v>
+        <v>0.197484</v>
       </c>
       <c r="C98" t="n">
-        <v>0.178901</v>
+        <v>0.182539</v>
       </c>
       <c r="D98" t="n">
-        <v>0.170286</v>
+        <v>0.174839</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.201227</v>
+        <v>0.197406</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179648</v>
+        <v>0.17892</v>
       </c>
       <c r="D99" t="n">
-        <v>0.171591</v>
+        <v>0.173117</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.201604</v>
+        <v>0.19747</v>
       </c>
       <c r="C100" t="n">
-        <v>0.179599</v>
+        <v>0.179857</v>
       </c>
       <c r="D100" t="n">
-        <v>0.171894</v>
+        <v>0.174107</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.212279</v>
+        <v>0.197937</v>
       </c>
       <c r="C101" t="n">
-        <v>0.181111</v>
+        <v>0.180911</v>
       </c>
       <c r="D101" t="n">
-        <v>0.175225</v>
+        <v>0.176506</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.203033</v>
+        <v>0.198731</v>
       </c>
       <c r="C102" t="n">
-        <v>0.182144</v>
+        <v>0.183178</v>
       </c>
       <c r="D102" t="n">
-        <v>0.17549</v>
+        <v>0.179458</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.203935</v>
+        <v>0.200549</v>
       </c>
       <c r="C103" t="n">
-        <v>0.184231</v>
+        <v>0.186647</v>
       </c>
       <c r="D103" t="n">
-        <v>0.176717</v>
+        <v>0.181008</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.214759</v>
+        <v>0.204379</v>
       </c>
       <c r="C104" t="n">
-        <v>0.184242</v>
+        <v>0.185366</v>
       </c>
       <c r="D104" t="n">
-        <v>0.178862</v>
+        <v>0.180406</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.212872</v>
+        <v>0.203247</v>
       </c>
       <c r="C105" t="n">
-        <v>0.186393</v>
+        <v>0.188403</v>
       </c>
       <c r="D105" t="n">
-        <v>0.183481</v>
+        <v>0.184293</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.219729</v>
+        <v>0.205707</v>
       </c>
       <c r="C106" t="n">
-        <v>0.190941</v>
+        <v>0.190917</v>
       </c>
       <c r="D106" t="n">
-        <v>0.186562</v>
+        <v>0.189026</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.212704</v>
+        <v>0.209208</v>
       </c>
       <c r="C107" t="n">
-        <v>0.194552</v>
+        <v>0.193521</v>
       </c>
       <c r="D107" t="n">
-        <v>0.192675</v>
+        <v>0.195078</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.218087</v>
+        <v>0.2146</v>
       </c>
       <c r="C108" t="n">
-        <v>0.20031</v>
+        <v>0.199414</v>
       </c>
       <c r="D108" t="n">
-        <v>0.308872</v>
+        <v>0.307221</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.225677</v>
+        <v>0.22155</v>
       </c>
       <c r="C109" t="n">
-        <v>0.208575</v>
+        <v>0.207032</v>
       </c>
       <c r="D109" t="n">
-        <v>0.309653</v>
+        <v>0.308183</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.353723</v>
+        <v>0.352603</v>
       </c>
       <c r="C110" t="n">
-        <v>0.297848</v>
+        <v>0.301642</v>
       </c>
       <c r="D110" t="n">
-        <v>0.310787</v>
+        <v>0.309195</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.354471</v>
+        <v>0.352503</v>
       </c>
       <c r="C111" t="n">
-        <v>0.298501</v>
+        <v>0.302597</v>
       </c>
       <c r="D111" t="n">
-        <v>0.312092</v>
+        <v>0.310539</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.354534</v>
+        <v>0.352645</v>
       </c>
       <c r="C112" t="n">
-        <v>0.299035</v>
+        <v>0.303756</v>
       </c>
       <c r="D112" t="n">
-        <v>0.313376</v>
+        <v>0.310888</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.354569</v>
+        <v>0.353608</v>
       </c>
       <c r="C113" t="n">
-        <v>0.299993</v>
+        <v>0.304598</v>
       </c>
       <c r="D113" t="n">
-        <v>0.314046</v>
+        <v>0.312934</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.354782</v>
+        <v>0.35301</v>
       </c>
       <c r="C114" t="n">
-        <v>0.301369</v>
+        <v>0.305391</v>
       </c>
       <c r="D114" t="n">
-        <v>0.315905</v>
+        <v>0.314292</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.357787</v>
+        <v>0.353653</v>
       </c>
       <c r="C115" t="n">
-        <v>0.302501</v>
+        <v>0.306715</v>
       </c>
       <c r="D115" t="n">
-        <v>0.317387</v>
+        <v>0.318586</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.35571</v>
+        <v>0.353883</v>
       </c>
       <c r="C116" t="n">
-        <v>0.303705</v>
+        <v>0.307808</v>
       </c>
       <c r="D116" t="n">
-        <v>0.319251</v>
+        <v>0.317581</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.356174</v>
+        <v>0.354387</v>
       </c>
       <c r="C117" t="n">
-        <v>0.304531</v>
+        <v>0.309269</v>
       </c>
       <c r="D117" t="n">
-        <v>0.321512</v>
+        <v>0.318944</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.357303</v>
+        <v>0.355415</v>
       </c>
       <c r="C118" t="n">
-        <v>0.306791</v>
+        <v>0.311203</v>
       </c>
       <c r="D118" t="n">
-        <v>0.323684</v>
+        <v>0.321088</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.357994</v>
+        <v>0.355801</v>
       </c>
       <c r="C119" t="n">
-        <v>0.308974</v>
+        <v>0.313334</v>
       </c>
       <c r="D119" t="n">
-        <v>0.326497</v>
+        <v>0.325284</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.360003</v>
+        <v>0.358056</v>
       </c>
       <c r="C120" t="n">
-        <v>0.317157</v>
+        <v>0.315676</v>
       </c>
       <c r="D120" t="n">
-        <v>0.32944</v>
+        <v>0.328565</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.362141</v>
+        <v>0.360285</v>
       </c>
       <c r="C121" t="n">
-        <v>0.314764</v>
+        <v>0.319361</v>
       </c>
       <c r="D121" t="n">
-        <v>0.335304</v>
+        <v>0.333421</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.365463</v>
+        <v>0.363421</v>
       </c>
       <c r="C122" t="n">
-        <v>0.319337</v>
+        <v>0.32376</v>
       </c>
       <c r="D122" t="n">
-        <v>0.342504</v>
+        <v>0.34067</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.370414</v>
+        <v>0.368205</v>
       </c>
       <c r="C123" t="n">
-        <v>0.327202</v>
+        <v>0.330847</v>
       </c>
       <c r="D123" t="n">
-        <v>0.378357</v>
+        <v>0.376024</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.457676</v>
+        <v>0.454131</v>
       </c>
       <c r="C124" t="n">
-        <v>0.343365</v>
+        <v>0.348041</v>
       </c>
       <c r="D124" t="n">
-        <v>0.380407</v>
+        <v>0.377437</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.457744</v>
+        <v>0.454118</v>
       </c>
       <c r="C125" t="n">
-        <v>0.344328</v>
+        <v>0.349054</v>
       </c>
       <c r="D125" t="n">
-        <v>0.382501</v>
+        <v>0.380259</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.457565</v>
+        <v>0.45448</v>
       </c>
       <c r="C126" t="n">
-        <v>0.345081</v>
+        <v>0.349842</v>
       </c>
       <c r="D126" t="n">
-        <v>0.384411</v>
+        <v>0.382419</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.457809</v>
+        <v>0.454469</v>
       </c>
       <c r="C127" t="n">
-        <v>0.346112</v>
+        <v>0.350459</v>
       </c>
       <c r="D127" t="n">
-        <v>0.386883</v>
+        <v>0.384907</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.458495</v>
+        <v>0.454596</v>
       </c>
       <c r="C128" t="n">
-        <v>0.34722</v>
+        <v>0.351829</v>
       </c>
       <c r="D128" t="n">
-        <v>0.392799</v>
+        <v>0.388059</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.458148</v>
+        <v>0.456242</v>
       </c>
       <c r="C129" t="n">
-        <v>0.348428</v>
+        <v>0.35336</v>
       </c>
       <c r="D129" t="n">
-        <v>0.392169</v>
+        <v>0.39024</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.458536</v>
+        <v>0.455351</v>
       </c>
       <c r="C130" t="n">
-        <v>0.349397</v>
+        <v>0.354731</v>
       </c>
       <c r="D130" t="n">
-        <v>0.395225</v>
+        <v>0.393275</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.458802</v>
+        <v>0.45573</v>
       </c>
       <c r="C131" t="n">
-        <v>0.351168</v>
+        <v>0.356295</v>
       </c>
       <c r="D131" t="n">
-        <v>0.398503</v>
+        <v>0.39642</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.459766</v>
+        <v>0.456376</v>
       </c>
       <c r="C132" t="n">
-        <v>0.353091</v>
+        <v>0.359039</v>
       </c>
       <c r="D132" t="n">
-        <v>0.401903</v>
+        <v>0.400336</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.461404</v>
+        <v>0.457756</v>
       </c>
       <c r="C133" t="n">
-        <v>0.355842</v>
+        <v>0.360796</v>
       </c>
       <c r="D133" t="n">
-        <v>0.407134</v>
+        <v>0.40487</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.462177</v>
+        <v>0.458912</v>
       </c>
       <c r="C134" t="n">
-        <v>0.358831</v>
+        <v>0.363571</v>
       </c>
       <c r="D134" t="n">
-        <v>0.411033</v>
+        <v>0.409105</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.468414</v>
+        <v>0.460721</v>
       </c>
       <c r="C135" t="n">
-        <v>0.362756</v>
+        <v>0.367612</v>
       </c>
       <c r="D135" t="n">
-        <v>0.418461</v>
+        <v>0.415786</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.46942</v>
+        <v>0.463864</v>
       </c>
       <c r="C136" t="n">
-        <v>0.368478</v>
+        <v>0.373227</v>
       </c>
       <c r="D136" t="n">
-        <v>0.427209</v>
+        <v>0.423912</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.470801</v>
+        <v>0.467568</v>
       </c>
       <c r="C137" t="n">
-        <v>0.377148</v>
+        <v>0.384815</v>
       </c>
       <c r="D137" t="n">
-        <v>0.425202</v>
+        <v>0.423552</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.790641</v>
+        <v>0.790611</v>
       </c>
       <c r="C138" t="n">
-        <v>0.366968</v>
+        <v>0.371757</v>
       </c>
       <c r="D138" t="n">
-        <v>0.428011</v>
+        <v>0.426032</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.7913019999999999</v>
+        <v>0.789708</v>
       </c>
       <c r="C139" t="n">
-        <v>0.36826</v>
+        <v>0.372821</v>
       </c>
       <c r="D139" t="n">
-        <v>0.430997</v>
+        <v>0.428938</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.791094</v>
+        <v>0.790988</v>
       </c>
       <c r="C140" t="n">
-        <v>0.370161</v>
+        <v>0.373981</v>
       </c>
       <c r="D140" t="n">
-        <v>0.434775</v>
+        <v>0.432189</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.790319</v>
+        <v>0.791403</v>
       </c>
       <c r="C141" t="n">
-        <v>0.370237</v>
+        <v>0.374933</v>
       </c>
       <c r="D141" t="n">
-        <v>0.436933</v>
+        <v>0.434997</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.79198</v>
+        <v>0.791714</v>
       </c>
       <c r="C142" t="n">
-        <v>0.375168</v>
+        <v>0.376249</v>
       </c>
       <c r="D142" t="n">
-        <v>0.440253</v>
+        <v>0.438109</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.792202</v>
+        <v>0.792037</v>
       </c>
       <c r="C143" t="n">
-        <v>0.372617</v>
+        <v>0.377541</v>
       </c>
       <c r="D143" t="n">
-        <v>0.443147</v>
+        <v>0.441683</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.106328</v>
+        <v>0.106199</v>
       </c>
       <c r="C2" t="n">
-        <v>0.112335</v>
+        <v>0.111993</v>
       </c>
       <c r="D2" t="n">
-        <v>0.110543</v>
+        <v>0.110315</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.107328</v>
+        <v>0.107917</v>
       </c>
       <c r="C3" t="n">
-        <v>0.113032</v>
+        <v>0.113141</v>
       </c>
       <c r="D3" t="n">
-        <v>0.111949</v>
+        <v>0.112074</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.108827</v>
+        <v>0.108332</v>
       </c>
       <c r="C4" t="n">
-        <v>0.114104</v>
+        <v>0.114524</v>
       </c>
       <c r="D4" t="n">
-        <v>0.113406</v>
+        <v>0.113127</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.110237</v>
+        <v>0.110956</v>
       </c>
       <c r="C5" t="n">
-        <v>0.115474</v>
+        <v>0.115608</v>
       </c>
       <c r="D5" t="n">
-        <v>0.114698</v>
+        <v>0.114576</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.112301</v>
+        <v>0.113353</v>
       </c>
       <c r="C6" t="n">
-        <v>0.116761</v>
+        <v>0.116458</v>
       </c>
       <c r="D6" t="n">
-        <v>0.118041</v>
+        <v>0.116075</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.11631</v>
+        <v>0.115254</v>
       </c>
       <c r="C7" t="n">
-        <v>0.117518</v>
+        <v>0.118979</v>
       </c>
       <c r="D7" t="n">
-        <v>0.119337</v>
+        <v>0.119149</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.119075</v>
+        <v>0.120625</v>
       </c>
       <c r="C8" t="n">
-        <v>0.119956</v>
+        <v>0.120189</v>
       </c>
       <c r="D8" t="n">
-        <v>0.121727</v>
+        <v>0.121359</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.12471</v>
+        <v>0.126169</v>
       </c>
       <c r="C9" t="n">
-        <v>0.121449</v>
+        <v>0.122791</v>
       </c>
       <c r="D9" t="n">
-        <v>0.108648</v>
+        <v>0.108918</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.106059</v>
+        <v>0.105832</v>
       </c>
       <c r="C10" t="n">
-        <v>0.109535</v>
+        <v>0.109742</v>
       </c>
       <c r="D10" t="n">
-        <v>0.109498</v>
+        <v>0.109104</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.106802</v>
+        <v>0.10595</v>
       </c>
       <c r="C11" t="n">
-        <v>0.110258</v>
+        <v>0.110237</v>
       </c>
       <c r="D11" t="n">
-        <v>0.109932</v>
+        <v>0.110094</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.106847</v>
+        <v>0.106916</v>
       </c>
       <c r="C12" t="n">
-        <v>0.110447</v>
+        <v>0.110883</v>
       </c>
       <c r="D12" t="n">
-        <v>0.109934</v>
+        <v>0.110368</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.106981</v>
+        <v>0.107176</v>
       </c>
       <c r="C13" t="n">
-        <v>0.111542</v>
+        <v>0.111312</v>
       </c>
       <c r="D13" t="n">
-        <v>0.111096</v>
+        <v>0.110485</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.108555</v>
+        <v>0.107423</v>
       </c>
       <c r="C14" t="n">
-        <v>0.112177</v>
+        <v>0.112083</v>
       </c>
       <c r="D14" t="n">
-        <v>0.111517</v>
+        <v>0.111691</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.10925</v>
+        <v>0.109076</v>
       </c>
       <c r="C15" t="n">
-        <v>0.112788</v>
+        <v>0.112877</v>
       </c>
       <c r="D15" t="n">
-        <v>0.112794</v>
+        <v>0.112621</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.110241</v>
+        <v>0.109928</v>
       </c>
       <c r="C16" t="n">
-        <v>0.113792</v>
+        <v>0.113769</v>
       </c>
       <c r="D16" t="n">
-        <v>0.11334</v>
+        <v>0.113545</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.111121</v>
+        <v>0.110876</v>
       </c>
       <c r="C17" t="n">
-        <v>0.115303</v>
+        <v>0.115336</v>
       </c>
       <c r="D17" t="n">
-        <v>0.114886</v>
+        <v>0.114847</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.112694</v>
+        <v>0.112378</v>
       </c>
       <c r="C18" t="n">
-        <v>0.116291</v>
+        <v>0.116707</v>
       </c>
       <c r="D18" t="n">
-        <v>0.116011</v>
+        <v>0.11635</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.115278</v>
+        <v>0.113803</v>
       </c>
       <c r="C19" t="n">
-        <v>0.117727</v>
+        <v>0.117774</v>
       </c>
       <c r="D19" t="n">
-        <v>0.118184</v>
+        <v>0.118065</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.116455</v>
+        <v>0.116192</v>
       </c>
       <c r="C20" t="n">
-        <v>0.119046</v>
+        <v>0.119216</v>
       </c>
       <c r="D20" t="n">
-        <v>0.120413</v>
+        <v>0.119759</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.119496</v>
+        <v>0.120108</v>
       </c>
       <c r="C21" t="n">
-        <v>0.121094</v>
+        <v>0.121024</v>
       </c>
       <c r="D21" t="n">
-        <v>0.123204</v>
+        <v>0.12223</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.123412</v>
+        <v>0.123324</v>
       </c>
       <c r="C22" t="n">
-        <v>0.123135</v>
+        <v>0.123826</v>
       </c>
       <c r="D22" t="n">
-        <v>0.12641</v>
+        <v>0.12601</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.129312</v>
+        <v>0.128553</v>
       </c>
       <c r="C23" t="n">
-        <v>0.125394</v>
+        <v>0.126062</v>
       </c>
       <c r="D23" t="n">
-        <v>0.111471</v>
+        <v>0.111793</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.110458</v>
+        <v>0.110298</v>
       </c>
       <c r="C24" t="n">
-        <v>0.111259</v>
+        <v>0.110876</v>
       </c>
       <c r="D24" t="n">
-        <v>0.111968</v>
+        <v>0.111891</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.111182</v>
+        <v>0.11089</v>
       </c>
       <c r="C25" t="n">
-        <v>0.112007</v>
+        <v>0.111951</v>
       </c>
       <c r="D25" t="n">
-        <v>0.113105</v>
+        <v>0.112218</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.110949</v>
+        <v>0.110954</v>
       </c>
       <c r="C26" t="n">
-        <v>0.112294</v>
+        <v>0.112627</v>
       </c>
       <c r="D26" t="n">
-        <v>0.113316</v>
+        <v>0.112883</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.111809</v>
+        <v>0.111773</v>
       </c>
       <c r="C27" t="n">
-        <v>0.113542</v>
+        <v>0.113127</v>
       </c>
       <c r="D27" t="n">
-        <v>0.113862</v>
+        <v>0.113039</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.11212</v>
+        <v>0.112012</v>
       </c>
       <c r="C28" t="n">
-        <v>0.114058</v>
+        <v>0.11443</v>
       </c>
       <c r="D28" t="n">
-        <v>0.114244</v>
+        <v>0.114184</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.113148</v>
+        <v>0.112541</v>
       </c>
       <c r="C29" t="n">
-        <v>0.114888</v>
+        <v>0.114669</v>
       </c>
       <c r="D29" t="n">
-        <v>0.115233</v>
+        <v>0.115196</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.113526</v>
+        <v>0.113258</v>
       </c>
       <c r="C30" t="n">
-        <v>0.115778</v>
+        <v>0.115587</v>
       </c>
       <c r="D30" t="n">
-        <v>0.116188</v>
+        <v>0.115565</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.115366</v>
+        <v>0.114845</v>
       </c>
       <c r="C31" t="n">
-        <v>0.116251</v>
+        <v>0.116934</v>
       </c>
       <c r="D31" t="n">
-        <v>0.117135</v>
+        <v>0.117472</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.116076</v>
+        <v>0.11579</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1178</v>
+        <v>0.118301</v>
       </c>
       <c r="D32" t="n">
-        <v>0.117947</v>
+        <v>0.118618</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.118004</v>
+        <v>0.117547</v>
       </c>
       <c r="C33" t="n">
-        <v>0.118723</v>
+        <v>0.119513</v>
       </c>
       <c r="D33" t="n">
-        <v>0.119936</v>
+        <v>0.120177</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.120235</v>
+        <v>0.119588</v>
       </c>
       <c r="C34" t="n">
-        <v>0.120556</v>
+        <v>0.12063</v>
       </c>
       <c r="D34" t="n">
-        <v>0.122045</v>
+        <v>0.121696</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.123497</v>
+        <v>0.122067</v>
       </c>
       <c r="C35" t="n">
-        <v>0.122459</v>
+        <v>0.122701</v>
       </c>
       <c r="D35" t="n">
-        <v>0.12494</v>
+        <v>0.124987</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.127569</v>
+        <v>0.126415</v>
       </c>
       <c r="C36" t="n">
-        <v>0.125323</v>
+        <v>0.125805</v>
       </c>
       <c r="D36" t="n">
-        <v>0.129696</v>
+        <v>0.129777</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.133511</v>
+        <v>0.13256</v>
       </c>
       <c r="C37" t="n">
-        <v>0.12966</v>
+        <v>0.129668</v>
       </c>
       <c r="D37" t="n">
-        <v>0.113138</v>
+        <v>0.112749</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.113829</v>
+        <v>0.113779</v>
       </c>
       <c r="C38" t="n">
-        <v>0.112416</v>
+        <v>0.112437</v>
       </c>
       <c r="D38" t="n">
-        <v>0.113463</v>
+        <v>0.113169</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.114125</v>
+        <v>0.114148</v>
       </c>
       <c r="C39" t="n">
-        <v>0.113139</v>
+        <v>0.113077</v>
       </c>
       <c r="D39" t="n">
-        <v>0.114018</v>
+        <v>0.11355</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.114503</v>
+        <v>0.114304</v>
       </c>
       <c r="C40" t="n">
-        <v>0.113651</v>
+        <v>0.113768</v>
       </c>
       <c r="D40" t="n">
-        <v>0.114141</v>
+        <v>0.113909</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.114772</v>
+        <v>0.114822</v>
       </c>
       <c r="C41" t="n">
-        <v>0.114348</v>
+        <v>0.11453</v>
       </c>
       <c r="D41" t="n">
-        <v>0.114611</v>
+        <v>0.114756</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.115864</v>
+        <v>0.115869</v>
       </c>
       <c r="C42" t="n">
-        <v>0.115462</v>
+        <v>0.115199</v>
       </c>
       <c r="D42" t="n">
-        <v>0.115308</v>
+        <v>0.115149</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116483</v>
+        <v>0.116128</v>
       </c>
       <c r="C43" t="n">
-        <v>0.116023</v>
+        <v>0.1161</v>
       </c>
       <c r="D43" t="n">
-        <v>0.115973</v>
+        <v>0.115863</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.117573</v>
+        <v>0.117114</v>
       </c>
       <c r="C44" t="n">
-        <v>0.117173</v>
+        <v>0.116706</v>
       </c>
       <c r="D44" t="n">
-        <v>0.11677</v>
+        <v>0.117016</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.118149</v>
+        <v>0.118299</v>
       </c>
       <c r="C45" t="n">
-        <v>0.118083</v>
+        <v>0.118157</v>
       </c>
       <c r="D45" t="n">
-        <v>0.117996</v>
+        <v>0.11784</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.119464</v>
+        <v>0.119267</v>
       </c>
       <c r="C46" t="n">
-        <v>0.119367</v>
+        <v>0.119248</v>
       </c>
       <c r="D46" t="n">
-        <v>0.119374</v>
+        <v>0.119295</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.121628</v>
+        <v>0.121422</v>
       </c>
       <c r="C47" t="n">
-        <v>0.120948</v>
+        <v>0.120696</v>
       </c>
       <c r="D47" t="n">
-        <v>0.121307</v>
+        <v>0.121011</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.123943</v>
+        <v>0.123269</v>
       </c>
       <c r="C48" t="n">
-        <v>0.122571</v>
+        <v>0.122588</v>
       </c>
       <c r="D48" t="n">
-        <v>0.124058</v>
+        <v>0.123572</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.127282</v>
+        <v>0.126586</v>
       </c>
       <c r="C49" t="n">
-        <v>0.124968</v>
+        <v>0.125155</v>
       </c>
       <c r="D49" t="n">
-        <v>0.127116</v>
+        <v>0.127079</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.131384</v>
+        <v>0.130587</v>
       </c>
       <c r="C50" t="n">
-        <v>0.128625</v>
+        <v>0.128583</v>
       </c>
       <c r="D50" t="n">
-        <v>0.13285</v>
+        <v>0.132784</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.137658</v>
+        <v>0.137023</v>
       </c>
       <c r="C51" t="n">
-        <v>0.13334</v>
+        <v>0.13296</v>
       </c>
       <c r="D51" t="n">
-        <v>0.114578</v>
+        <v>0.114333</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.145454</v>
+        <v>0.145288</v>
       </c>
       <c r="C52" t="n">
-        <v>0.140513</v>
+        <v>0.140701</v>
       </c>
       <c r="D52" t="n">
-        <v>0.114567</v>
+        <v>0.114414</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.116641</v>
+        <v>0.116539</v>
       </c>
       <c r="C53" t="n">
-        <v>0.115086</v>
+        <v>0.114895</v>
       </c>
       <c r="D53" t="n">
-        <v>0.115168</v>
+        <v>0.115161</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.116987</v>
+        <v>0.117163</v>
       </c>
       <c r="C54" t="n">
-        <v>0.115654</v>
+        <v>0.115512</v>
       </c>
       <c r="D54" t="n">
-        <v>0.115248</v>
+        <v>0.115543</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.118343</v>
+        <v>0.118193</v>
       </c>
       <c r="C55" t="n">
-        <v>0.116145</v>
+        <v>0.116183</v>
       </c>
       <c r="D55" t="n">
-        <v>0.115971</v>
+        <v>0.115731</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.117843</v>
+        <v>0.118333</v>
       </c>
       <c r="C56" t="n">
-        <v>0.116804</v>
+        <v>0.117065</v>
       </c>
       <c r="D56" t="n">
-        <v>0.11647</v>
+        <v>0.116372</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.118555</v>
+        <v>0.11881</v>
       </c>
       <c r="C57" t="n">
-        <v>0.117774</v>
+        <v>0.117664</v>
       </c>
       <c r="D57" t="n">
-        <v>0.11707</v>
+        <v>0.116973</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.11996</v>
+        <v>0.119387</v>
       </c>
       <c r="C58" t="n">
-        <v>0.118701</v>
+        <v>0.118708</v>
       </c>
       <c r="D58" t="n">
-        <v>0.117995</v>
+        <v>0.117922</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.120549</v>
+        <v>0.120132</v>
       </c>
       <c r="C59" t="n">
-        <v>0.11975</v>
+        <v>0.119671</v>
       </c>
       <c r="D59" t="n">
-        <v>0.119167</v>
+        <v>0.119055</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.121855</v>
+        <v>0.12216</v>
       </c>
       <c r="C60" t="n">
-        <v>0.120877</v>
+        <v>0.121244</v>
       </c>
       <c r="D60" t="n">
-        <v>0.120501</v>
+        <v>0.120535</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.123662</v>
+        <v>0.123207</v>
       </c>
       <c r="C61" t="n">
-        <v>0.122258</v>
+        <v>0.12268</v>
       </c>
       <c r="D61" t="n">
-        <v>0.122359</v>
+        <v>0.122707</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.125972</v>
+        <v>0.125663</v>
       </c>
       <c r="C62" t="n">
-        <v>0.124243</v>
+        <v>0.1243</v>
       </c>
       <c r="D62" t="n">
-        <v>0.125462</v>
+        <v>0.125042</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.12929</v>
+        <v>0.128609</v>
       </c>
       <c r="C63" t="n">
-        <v>0.126974</v>
+        <v>0.126811</v>
       </c>
       <c r="D63" t="n">
-        <v>0.12916</v>
+        <v>0.12905</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.133727</v>
+        <v>0.133044</v>
       </c>
       <c r="C64" t="n">
-        <v>0.130332</v>
+        <v>0.130353</v>
       </c>
       <c r="D64" t="n">
-        <v>0.134585</v>
+        <v>0.134201</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.14027</v>
+        <v>0.13896</v>
       </c>
       <c r="C65" t="n">
-        <v>0.135238</v>
+        <v>0.13516</v>
       </c>
       <c r="D65" t="n">
-        <v>0.143065</v>
+        <v>0.142699</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.148036</v>
+        <v>0.147796</v>
       </c>
       <c r="C66" t="n">
-        <v>0.141928</v>
+        <v>0.141871</v>
       </c>
       <c r="D66" t="n">
-        <v>0.115196</v>
+        <v>0.114848</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.120723</v>
+        <v>0.120495</v>
       </c>
       <c r="C67" t="n">
-        <v>0.116151</v>
+        <v>0.115613</v>
       </c>
       <c r="D67" t="n">
-        <v>0.115168</v>
+        <v>0.115768</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.120644</v>
+        <v>0.120985</v>
       </c>
       <c r="C68" t="n">
-        <v>0.116357</v>
+        <v>0.117304</v>
       </c>
       <c r="D68" t="n">
-        <v>0.115544</v>
+        <v>0.115847</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.121111</v>
+        <v>0.12112</v>
       </c>
       <c r="C69" t="n">
-        <v>0.116774</v>
+        <v>0.116831</v>
       </c>
       <c r="D69" t="n">
-        <v>0.116206</v>
+        <v>0.116432</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.122519</v>
+        <v>0.121322</v>
       </c>
       <c r="C70" t="n">
-        <v>0.117703</v>
+        <v>0.11898</v>
       </c>
       <c r="D70" t="n">
-        <v>0.117021</v>
+        <v>0.116717</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.122174</v>
+        <v>0.121983</v>
       </c>
       <c r="C71" t="n">
-        <v>0.118327</v>
+        <v>0.118485</v>
       </c>
       <c r="D71" t="n">
-        <v>0.117409</v>
+        <v>0.117385</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.123791</v>
+        <v>0.122728</v>
       </c>
       <c r="C72" t="n">
-        <v>0.119497</v>
+        <v>0.120439</v>
       </c>
       <c r="D72" t="n">
-        <v>0.118334</v>
+        <v>0.118303</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.123895</v>
+        <v>0.124577</v>
       </c>
       <c r="C73" t="n">
-        <v>0.120467</v>
+        <v>0.120387</v>
       </c>
       <c r="D73" t="n">
-        <v>0.119556</v>
+        <v>0.119462</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.12531</v>
+        <v>0.124913</v>
       </c>
       <c r="C74" t="n">
-        <v>0.121645</v>
+        <v>0.12163</v>
       </c>
       <c r="D74" t="n">
-        <v>0.121367</v>
+        <v>0.120849</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.127689</v>
+        <v>0.127142</v>
       </c>
       <c r="C75" t="n">
-        <v>0.123296</v>
+        <v>0.123786</v>
       </c>
       <c r="D75" t="n">
-        <v>0.122847</v>
+        <v>0.122981</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.129084</v>
+        <v>0.128698</v>
       </c>
       <c r="C76" t="n">
-        <v>0.12514</v>
+        <v>0.126459</v>
       </c>
       <c r="D76" t="n">
-        <v>0.125666</v>
+        <v>0.125484</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.132331</v>
+        <v>0.132466</v>
       </c>
       <c r="C77" t="n">
-        <v>0.12783</v>
+        <v>0.127669</v>
       </c>
       <c r="D77" t="n">
-        <v>0.129042</v>
+        <v>0.129048</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.136892</v>
+        <v>0.136558</v>
       </c>
       <c r="C78" t="n">
-        <v>0.131352</v>
+        <v>0.131046</v>
       </c>
       <c r="D78" t="n">
-        <v>0.134687</v>
+        <v>0.134471</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1423</v>
+        <v>0.142327</v>
       </c>
       <c r="C79" t="n">
-        <v>0.136005</v>
+        <v>0.135924</v>
       </c>
       <c r="D79" t="n">
-        <v>0.142401</v>
+        <v>0.142557</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.150581</v>
+        <v>0.150083</v>
       </c>
       <c r="C80" t="n">
-        <v>0.142798</v>
+        <v>0.142894</v>
       </c>
       <c r="D80" t="n">
-        <v>0.11859</v>
+        <v>0.119795</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.130394</v>
+        <v>0.129252</v>
       </c>
       <c r="C81" t="n">
-        <v>0.12103</v>
+        <v>0.123262</v>
       </c>
       <c r="D81" t="n">
-        <v>0.119376</v>
+        <v>0.11844</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.131064</v>
+        <v>0.129482</v>
       </c>
       <c r="C82" t="n">
-        <v>0.122806</v>
+        <v>0.122982</v>
       </c>
       <c r="D82" t="n">
-        <v>0.123057</v>
+        <v>0.121965</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.131017</v>
+        <v>0.129988</v>
       </c>
       <c r="C83" t="n">
-        <v>0.123864</v>
+        <v>0.123715</v>
       </c>
       <c r="D83" t="n">
-        <v>0.123876</v>
+        <v>0.122476</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.13187</v>
+        <v>0.130329</v>
       </c>
       <c r="C84" t="n">
-        <v>0.124605</v>
+        <v>0.121226</v>
       </c>
       <c r="D84" t="n">
-        <v>0.122282</v>
+        <v>0.122947</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.132492</v>
+        <v>0.131145</v>
       </c>
       <c r="C85" t="n">
-        <v>0.123719</v>
+        <v>0.124943</v>
       </c>
       <c r="D85" t="n">
-        <v>0.120908</v>
+        <v>0.12127</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.133064</v>
+        <v>0.131602</v>
       </c>
       <c r="C86" t="n">
-        <v>0.126613</v>
+        <v>0.126245</v>
       </c>
       <c r="D86" t="n">
-        <v>0.12585</v>
+        <v>0.12463</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.133667</v>
+        <v>0.132674</v>
       </c>
       <c r="C87" t="n">
-        <v>0.123499</v>
+        <v>0.124427</v>
       </c>
       <c r="D87" t="n">
-        <v>0.125039</v>
+        <v>0.125754</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.134964</v>
+        <v>0.133591</v>
       </c>
       <c r="C88" t="n">
-        <v>0.128781</v>
+        <v>0.128256</v>
       </c>
       <c r="D88" t="n">
-        <v>0.124971</v>
+        <v>0.12686</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.136188</v>
+        <v>0.135151</v>
       </c>
       <c r="C89" t="n">
-        <v>0.129264</v>
+        <v>0.129576</v>
       </c>
       <c r="D89" t="n">
-        <v>0.130287</v>
+        <v>0.124163</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.138183</v>
+        <v>0.137357</v>
       </c>
       <c r="C90" t="n">
-        <v>0.12998</v>
+        <v>0.131488</v>
       </c>
       <c r="D90" t="n">
-        <v>0.128257</v>
+        <v>0.13106</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.141143</v>
+        <v>0.139877</v>
       </c>
       <c r="C91" t="n">
-        <v>0.134282</v>
+        <v>0.133437</v>
       </c>
       <c r="D91" t="n">
-        <v>0.135626</v>
+        <v>0.134332</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.145087</v>
+        <v>0.143619</v>
       </c>
       <c r="C92" t="n">
-        <v>0.133658</v>
+        <v>0.136452</v>
       </c>
       <c r="D92" t="n">
-        <v>0.140389</v>
+        <v>0.1409</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.14941</v>
+        <v>0.148905</v>
       </c>
       <c r="C93" t="n">
-        <v>0.141364</v>
+        <v>0.141636</v>
       </c>
       <c r="D93" t="n">
-        <v>0.148294</v>
+        <v>0.144248</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.156912</v>
+        <v>0.155525</v>
       </c>
       <c r="C94" t="n">
-        <v>0.146609</v>
+        <v>0.147054</v>
       </c>
       <c r="D94" t="n">
-        <v>0.171211</v>
+        <v>0.171733</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.206817</v>
+        <v>0.20742</v>
       </c>
       <c r="C95" t="n">
-        <v>0.176338</v>
+        <v>0.176848</v>
       </c>
       <c r="D95" t="n">
-        <v>0.172852</v>
+        <v>0.172381</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.197407</v>
+        <v>0.19775</v>
       </c>
       <c r="C96" t="n">
-        <v>0.176425</v>
+        <v>0.179152</v>
       </c>
       <c r="D96" t="n">
-        <v>0.170711</v>
+        <v>0.174799</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.196601</v>
+        <v>0.209042</v>
       </c>
       <c r="C97" t="n">
-        <v>0.178159</v>
+        <v>0.186617</v>
       </c>
       <c r="D97" t="n">
-        <v>0.173964</v>
+        <v>0.175496</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.197484</v>
+        <v>0.203198</v>
       </c>
       <c r="C98" t="n">
-        <v>0.182539</v>
+        <v>0.180435</v>
       </c>
       <c r="D98" t="n">
-        <v>0.174839</v>
+        <v>0.175867</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.197406</v>
+        <v>0.202895</v>
       </c>
       <c r="C99" t="n">
-        <v>0.17892</v>
+        <v>0.179823</v>
       </c>
       <c r="D99" t="n">
-        <v>0.173117</v>
+        <v>0.176401</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.19747</v>
+        <v>0.200487</v>
       </c>
       <c r="C100" t="n">
-        <v>0.179857</v>
+        <v>0.18198</v>
       </c>
       <c r="D100" t="n">
-        <v>0.174107</v>
+        <v>0.177153</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.197937</v>
+        <v>0.202238</v>
       </c>
       <c r="C101" t="n">
-        <v>0.180911</v>
+        <v>0.18369</v>
       </c>
       <c r="D101" t="n">
-        <v>0.176506</v>
+        <v>0.181224</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.198731</v>
+        <v>0.212296</v>
       </c>
       <c r="C102" t="n">
-        <v>0.183178</v>
+        <v>0.189556</v>
       </c>
       <c r="D102" t="n">
-        <v>0.179458</v>
+        <v>0.179051</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.200549</v>
+        <v>0.201325</v>
       </c>
       <c r="C103" t="n">
-        <v>0.186647</v>
+        <v>0.185098</v>
       </c>
       <c r="D103" t="n">
-        <v>0.181008</v>
+        <v>0.180307</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.204379</v>
+        <v>0.202406</v>
       </c>
       <c r="C104" t="n">
-        <v>0.185366</v>
+        <v>0.186752</v>
       </c>
       <c r="D104" t="n">
-        <v>0.180406</v>
+        <v>0.182921</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.203247</v>
+        <v>0.204146</v>
       </c>
       <c r="C105" t="n">
-        <v>0.188403</v>
+        <v>0.188952</v>
       </c>
       <c r="D105" t="n">
-        <v>0.184293</v>
+        <v>0.186222</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.205707</v>
+        <v>0.206893</v>
       </c>
       <c r="C106" t="n">
-        <v>0.190917</v>
+        <v>0.190885</v>
       </c>
       <c r="D106" t="n">
-        <v>0.189026</v>
+        <v>0.189712</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.209208</v>
+        <v>0.21022</v>
       </c>
       <c r="C107" t="n">
-        <v>0.193521</v>
+        <v>0.19492</v>
       </c>
       <c r="D107" t="n">
-        <v>0.195078</v>
+        <v>0.195955</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.2146</v>
+        <v>0.215257</v>
       </c>
       <c r="C108" t="n">
-        <v>0.199414</v>
+        <v>0.198738</v>
       </c>
       <c r="D108" t="n">
-        <v>0.307221</v>
+        <v>0.307202</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.22155</v>
+        <v>0.222856</v>
       </c>
       <c r="C109" t="n">
-        <v>0.207032</v>
+        <v>0.208464</v>
       </c>
       <c r="D109" t="n">
-        <v>0.308183</v>
+        <v>0.307577</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.352603</v>
+        <v>0.345965</v>
       </c>
       <c r="C110" t="n">
-        <v>0.301642</v>
+        <v>0.30266</v>
       </c>
       <c r="D110" t="n">
-        <v>0.309195</v>
+        <v>0.309156</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.352503</v>
+        <v>0.346011</v>
       </c>
       <c r="C111" t="n">
-        <v>0.302597</v>
+        <v>0.302783</v>
       </c>
       <c r="D111" t="n">
-        <v>0.310539</v>
+        <v>0.309648</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.352645</v>
+        <v>0.346273</v>
       </c>
       <c r="C112" t="n">
-        <v>0.303756</v>
+        <v>0.303983</v>
       </c>
       <c r="D112" t="n">
-        <v>0.310888</v>
+        <v>0.311186</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.353608</v>
+        <v>0.346131</v>
       </c>
       <c r="C113" t="n">
-        <v>0.304598</v>
+        <v>0.304643</v>
       </c>
       <c r="D113" t="n">
-        <v>0.312934</v>
+        <v>0.312814</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.35301</v>
+        <v>0.346559</v>
       </c>
       <c r="C114" t="n">
-        <v>0.305391</v>
+        <v>0.305633</v>
       </c>
       <c r="D114" t="n">
-        <v>0.314292</v>
+        <v>0.313715</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.353653</v>
+        <v>0.346273</v>
       </c>
       <c r="C115" t="n">
-        <v>0.306715</v>
+        <v>0.306913</v>
       </c>
       <c r="D115" t="n">
-        <v>0.318586</v>
+        <v>0.315452</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.353883</v>
+        <v>0.346966</v>
       </c>
       <c r="C116" t="n">
-        <v>0.307808</v>
+        <v>0.308169</v>
       </c>
       <c r="D116" t="n">
-        <v>0.317581</v>
+        <v>0.317163</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.354387</v>
+        <v>0.347822</v>
       </c>
       <c r="C117" t="n">
-        <v>0.309269</v>
+        <v>0.309662</v>
       </c>
       <c r="D117" t="n">
-        <v>0.318944</v>
+        <v>0.319467</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.355415</v>
+        <v>0.34848</v>
       </c>
       <c r="C118" t="n">
-        <v>0.311203</v>
+        <v>0.311637</v>
       </c>
       <c r="D118" t="n">
-        <v>0.321088</v>
+        <v>0.321842</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.355801</v>
+        <v>0.349325</v>
       </c>
       <c r="C119" t="n">
-        <v>0.313334</v>
+        <v>0.313169</v>
       </c>
       <c r="D119" t="n">
-        <v>0.325284</v>
+        <v>0.32417</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.358056</v>
+        <v>0.351356</v>
       </c>
       <c r="C120" t="n">
-        <v>0.315676</v>
+        <v>0.315867</v>
       </c>
       <c r="D120" t="n">
-        <v>0.328565</v>
+        <v>0.32807</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.360285</v>
+        <v>0.355333</v>
       </c>
       <c r="C121" t="n">
-        <v>0.319361</v>
+        <v>0.319737</v>
       </c>
       <c r="D121" t="n">
-        <v>0.333421</v>
+        <v>0.333561</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.363421</v>
+        <v>0.356472</v>
       </c>
       <c r="C122" t="n">
-        <v>0.32376</v>
+        <v>0.323752</v>
       </c>
       <c r="D122" t="n">
-        <v>0.34067</v>
+        <v>0.340289</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.368205</v>
+        <v>0.361558</v>
       </c>
       <c r="C123" t="n">
-        <v>0.330847</v>
+        <v>0.331243</v>
       </c>
       <c r="D123" t="n">
-        <v>0.376024</v>
+        <v>0.375971</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.454131</v>
+        <v>0.457475</v>
       </c>
       <c r="C124" t="n">
-        <v>0.348041</v>
+        <v>0.347647</v>
       </c>
       <c r="D124" t="n">
-        <v>0.377437</v>
+        <v>0.377837</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.454118</v>
+        <v>0.457243</v>
       </c>
       <c r="C125" t="n">
-        <v>0.349054</v>
+        <v>0.348708</v>
       </c>
       <c r="D125" t="n">
-        <v>0.380259</v>
+        <v>0.380126</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.45448</v>
+        <v>0.457138</v>
       </c>
       <c r="C126" t="n">
-        <v>0.349842</v>
+        <v>0.3499</v>
       </c>
       <c r="D126" t="n">
-        <v>0.382419</v>
+        <v>0.382913</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.454469</v>
+        <v>0.458122</v>
       </c>
       <c r="C127" t="n">
-        <v>0.350459</v>
+        <v>0.350931</v>
       </c>
       <c r="D127" t="n">
-        <v>0.384907</v>
+        <v>0.385142</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.454596</v>
+        <v>0.457515</v>
       </c>
       <c r="C128" t="n">
-        <v>0.351829</v>
+        <v>0.352059</v>
       </c>
       <c r="D128" t="n">
-        <v>0.388059</v>
+        <v>0.387658</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.456242</v>
+        <v>0.458275</v>
       </c>
       <c r="C129" t="n">
-        <v>0.35336</v>
+        <v>0.35322</v>
       </c>
       <c r="D129" t="n">
-        <v>0.39024</v>
+        <v>0.390683</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.455351</v>
+        <v>0.458323</v>
       </c>
       <c r="C130" t="n">
-        <v>0.354731</v>
+        <v>0.354651</v>
       </c>
       <c r="D130" t="n">
-        <v>0.393275</v>
+        <v>0.397317</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.45573</v>
+        <v>0.458996</v>
       </c>
       <c r="C131" t="n">
-        <v>0.356295</v>
+        <v>0.358664</v>
       </c>
       <c r="D131" t="n">
-        <v>0.39642</v>
+        <v>0.397117</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.456376</v>
+        <v>0.459567</v>
       </c>
       <c r="C132" t="n">
-        <v>0.359039</v>
+        <v>0.358257</v>
       </c>
       <c r="D132" t="n">
-        <v>0.400336</v>
+        <v>0.400662</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.457756</v>
+        <v>0.589968</v>
       </c>
       <c r="C133" t="n">
-        <v>0.360796</v>
+        <v>0.360509</v>
       </c>
       <c r="D133" t="n">
-        <v>0.40487</v>
+        <v>0.404484</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.458912</v>
+        <v>0.461828</v>
       </c>
       <c r="C134" t="n">
-        <v>0.363571</v>
+        <v>0.363777</v>
       </c>
       <c r="D134" t="n">
-        <v>0.409105</v>
+        <v>0.409511</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.460721</v>
+        <v>0.463749</v>
       </c>
       <c r="C135" t="n">
-        <v>0.367612</v>
+        <v>0.367885</v>
       </c>
       <c r="D135" t="n">
-        <v>0.415786</v>
+        <v>0.416045</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.463864</v>
+        <v>0.466858</v>
       </c>
       <c r="C136" t="n">
-        <v>0.373227</v>
+        <v>0.373403</v>
       </c>
       <c r="D136" t="n">
-        <v>0.423912</v>
+        <v>0.424504</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.467568</v>
+        <v>0.471359</v>
       </c>
       <c r="C137" t="n">
-        <v>0.384815</v>
+        <v>0.381626</v>
       </c>
       <c r="D137" t="n">
-        <v>0.423552</v>
+        <v>0.423639</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.790611</v>
+        <v>0.790107</v>
       </c>
       <c r="C138" t="n">
-        <v>0.371757</v>
+        <v>0.372173</v>
       </c>
       <c r="D138" t="n">
-        <v>0.426032</v>
+        <v>0.42677</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.789708</v>
+        <v>0.7912360000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>0.372821</v>
+        <v>0.372984</v>
       </c>
       <c r="D139" t="n">
-        <v>0.428938</v>
+        <v>0.429065</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.790988</v>
+        <v>0.790863</v>
       </c>
       <c r="C140" t="n">
-        <v>0.373981</v>
+        <v>0.37406</v>
       </c>
       <c r="D140" t="n">
-        <v>0.432189</v>
+        <v>0.432236</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.791403</v>
+        <v>0.7911049999999999</v>
       </c>
       <c r="C141" t="n">
-        <v>0.374933</v>
+        <v>0.37522</v>
       </c>
       <c r="D141" t="n">
-        <v>0.434997</v>
+        <v>0.440659</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.791714</v>
+        <v>0.7921240000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>0.376249</v>
+        <v>0.376065</v>
       </c>
       <c r="D142" t="n">
-        <v>0.438109</v>
+        <v>0.438342</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.792037</v>
+        <v>0.792049</v>
       </c>
       <c r="C143" t="n">
-        <v>0.377541</v>
+        <v>0.377565</v>
       </c>
       <c r="D143" t="n">
-        <v>0.441683</v>
+        <v>0.441711</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.106199</v>
+        <v>0.105914</v>
       </c>
       <c r="C2" t="n">
-        <v>0.111993</v>
+        <v>0.111919</v>
       </c>
       <c r="D2" t="n">
-        <v>0.110315</v>
+        <v>0.111728</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.107917</v>
+        <v>0.106917</v>
       </c>
       <c r="C3" t="n">
-        <v>0.113141</v>
+        <v>0.113117</v>
       </c>
       <c r="D3" t="n">
-        <v>0.112074</v>
+        <v>0.111971</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.108332</v>
+        <v>0.108243</v>
       </c>
       <c r="C4" t="n">
-        <v>0.114524</v>
+        <v>0.114222</v>
       </c>
       <c r="D4" t="n">
-        <v>0.113127</v>
+        <v>0.11321</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.110956</v>
+        <v>0.110205</v>
       </c>
       <c r="C5" t="n">
-        <v>0.115608</v>
+        <v>0.115788</v>
       </c>
       <c r="D5" t="n">
-        <v>0.114576</v>
+        <v>0.114848</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.113353</v>
+        <v>0.111961</v>
       </c>
       <c r="C6" t="n">
-        <v>0.116458</v>
+        <v>0.116786</v>
       </c>
       <c r="D6" t="n">
-        <v>0.116075</v>
+        <v>0.117268</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.115254</v>
+        <v>0.115652</v>
       </c>
       <c r="C7" t="n">
-        <v>0.118979</v>
+        <v>0.121444</v>
       </c>
       <c r="D7" t="n">
-        <v>0.119149</v>
+        <v>0.120314</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.120625</v>
+        <v>0.117876</v>
       </c>
       <c r="C8" t="n">
-        <v>0.120189</v>
+        <v>0.12085</v>
       </c>
       <c r="D8" t="n">
-        <v>0.121359</v>
+        <v>0.123337</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.126169</v>
+        <v>0.122776</v>
       </c>
       <c r="C9" t="n">
-        <v>0.122791</v>
+        <v>0.124391</v>
       </c>
       <c r="D9" t="n">
-        <v>0.108918</v>
+        <v>0.108971</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.105832</v>
+        <v>0.106053</v>
       </c>
       <c r="C10" t="n">
-        <v>0.109742</v>
+        <v>0.109437</v>
       </c>
       <c r="D10" t="n">
-        <v>0.109104</v>
+        <v>0.109288</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.10595</v>
+        <v>0.106651</v>
       </c>
       <c r="C11" t="n">
-        <v>0.110237</v>
+        <v>0.110432</v>
       </c>
       <c r="D11" t="n">
-        <v>0.110094</v>
+        <v>0.109919</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.106916</v>
+        <v>0.107115</v>
       </c>
       <c r="C12" t="n">
-        <v>0.110883</v>
+        <v>0.11069</v>
       </c>
       <c r="D12" t="n">
-        <v>0.110368</v>
+        <v>0.109964</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.107176</v>
+        <v>0.107608</v>
       </c>
       <c r="C13" t="n">
-        <v>0.111312</v>
+        <v>0.111316</v>
       </c>
       <c r="D13" t="n">
-        <v>0.110485</v>
+        <v>0.110858</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.107423</v>
+        <v>0.108432</v>
       </c>
       <c r="C14" t="n">
-        <v>0.112083</v>
+        <v>0.112272</v>
       </c>
       <c r="D14" t="n">
-        <v>0.111691</v>
+        <v>0.111675</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.109076</v>
+        <v>0.108762</v>
       </c>
       <c r="C15" t="n">
-        <v>0.112877</v>
+        <v>0.112905</v>
       </c>
       <c r="D15" t="n">
-        <v>0.112621</v>
+        <v>0.112444</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.109928</v>
+        <v>0.110355</v>
       </c>
       <c r="C16" t="n">
-        <v>0.113769</v>
+        <v>0.113506</v>
       </c>
       <c r="D16" t="n">
-        <v>0.113545</v>
+        <v>0.113205</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.110876</v>
+        <v>0.111244</v>
       </c>
       <c r="C17" t="n">
-        <v>0.115336</v>
+        <v>0.115045</v>
       </c>
       <c r="D17" t="n">
-        <v>0.114847</v>
+        <v>0.115176</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.112378</v>
+        <v>0.112804</v>
       </c>
       <c r="C18" t="n">
-        <v>0.116707</v>
+        <v>0.116261</v>
       </c>
       <c r="D18" t="n">
-        <v>0.11635</v>
+        <v>0.116385</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.113803</v>
+        <v>0.114241</v>
       </c>
       <c r="C19" t="n">
-        <v>0.117774</v>
+        <v>0.118472</v>
       </c>
       <c r="D19" t="n">
-        <v>0.118065</v>
+        <v>0.118132</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.116192</v>
+        <v>0.117148</v>
       </c>
       <c r="C20" t="n">
-        <v>0.119216</v>
+        <v>0.119131</v>
       </c>
       <c r="D20" t="n">
-        <v>0.119759</v>
+        <v>0.12031</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.120108</v>
+        <v>0.119457</v>
       </c>
       <c r="C21" t="n">
-        <v>0.121024</v>
+        <v>0.121445</v>
       </c>
       <c r="D21" t="n">
-        <v>0.12223</v>
+        <v>0.123171</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.123324</v>
+        <v>0.122725</v>
       </c>
       <c r="C22" t="n">
-        <v>0.123826</v>
+        <v>0.123201</v>
       </c>
       <c r="D22" t="n">
-        <v>0.12601</v>
+        <v>0.127542</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.128553</v>
+        <v>0.128597</v>
       </c>
       <c r="C23" t="n">
-        <v>0.126062</v>
+        <v>0.125788</v>
       </c>
       <c r="D23" t="n">
-        <v>0.111793</v>
+        <v>0.11155</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.110298</v>
+        <v>0.110173</v>
       </c>
       <c r="C24" t="n">
-        <v>0.110876</v>
+        <v>0.111318</v>
       </c>
       <c r="D24" t="n">
-        <v>0.111891</v>
+        <v>0.11217</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.11089</v>
+        <v>0.10992</v>
       </c>
       <c r="C25" t="n">
-        <v>0.111951</v>
+        <v>0.111768</v>
       </c>
       <c r="D25" t="n">
-        <v>0.112218</v>
+        <v>0.112497</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.110954</v>
+        <v>0.110632</v>
       </c>
       <c r="C26" t="n">
-        <v>0.112627</v>
+        <v>0.113019</v>
       </c>
       <c r="D26" t="n">
-        <v>0.112883</v>
+        <v>0.112851</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.111773</v>
+        <v>0.110792</v>
       </c>
       <c r="C27" t="n">
-        <v>0.113127</v>
+        <v>0.113446</v>
       </c>
       <c r="D27" t="n">
-        <v>0.113039</v>
+        <v>0.113781</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.112012</v>
+        <v>0.112028</v>
       </c>
       <c r="C28" t="n">
-        <v>0.11443</v>
+        <v>0.114187</v>
       </c>
       <c r="D28" t="n">
-        <v>0.114184</v>
+        <v>0.113859</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.112541</v>
+        <v>0.112869</v>
       </c>
       <c r="C29" t="n">
-        <v>0.114669</v>
+        <v>0.114414</v>
       </c>
       <c r="D29" t="n">
-        <v>0.115196</v>
+        <v>0.114558</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.113258</v>
+        <v>0.113429</v>
       </c>
       <c r="C30" t="n">
-        <v>0.115587</v>
+        <v>0.115908</v>
       </c>
       <c r="D30" t="n">
-        <v>0.115565</v>
+        <v>0.116328</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.114845</v>
+        <v>0.114531</v>
       </c>
       <c r="C31" t="n">
-        <v>0.116934</v>
+        <v>0.116821</v>
       </c>
       <c r="D31" t="n">
-        <v>0.117472</v>
+        <v>0.117231</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.11579</v>
+        <v>0.116187</v>
       </c>
       <c r="C32" t="n">
-        <v>0.118301</v>
+        <v>0.118011</v>
       </c>
       <c r="D32" t="n">
-        <v>0.118618</v>
+        <v>0.118896</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.117547</v>
+        <v>0.117428</v>
       </c>
       <c r="C33" t="n">
-        <v>0.119513</v>
+        <v>0.119106</v>
       </c>
       <c r="D33" t="n">
-        <v>0.120177</v>
+        <v>0.119677</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.119588</v>
+        <v>0.119181</v>
       </c>
       <c r="C34" t="n">
-        <v>0.12063</v>
+        <v>0.120436</v>
       </c>
       <c r="D34" t="n">
-        <v>0.121696</v>
+        <v>0.122005</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.122067</v>
+        <v>0.121791</v>
       </c>
       <c r="C35" t="n">
-        <v>0.122701</v>
+        <v>0.122524</v>
       </c>
       <c r="D35" t="n">
-        <v>0.124987</v>
+        <v>0.125237</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.126415</v>
+        <v>0.125866</v>
       </c>
       <c r="C36" t="n">
-        <v>0.125805</v>
+        <v>0.125326</v>
       </c>
       <c r="D36" t="n">
-        <v>0.129777</v>
+        <v>0.130982</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.13256</v>
+        <v>0.132116</v>
       </c>
       <c r="C37" t="n">
-        <v>0.129668</v>
+        <v>0.129582</v>
       </c>
       <c r="D37" t="n">
-        <v>0.112749</v>
+        <v>0.112878</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.113779</v>
+        <v>0.113962</v>
       </c>
       <c r="C38" t="n">
-        <v>0.112437</v>
+        <v>0.112436</v>
       </c>
       <c r="D38" t="n">
-        <v>0.113169</v>
+        <v>0.11315</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.114148</v>
+        <v>0.114263</v>
       </c>
       <c r="C39" t="n">
         <v>0.113077</v>
       </c>
       <c r="D39" t="n">
-        <v>0.11355</v>
+        <v>0.113577</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.114304</v>
+        <v>0.114465</v>
       </c>
       <c r="C40" t="n">
-        <v>0.113768</v>
+        <v>0.113706</v>
       </c>
       <c r="D40" t="n">
-        <v>0.113909</v>
+        <v>0.114151</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.114822</v>
+        <v>0.115016</v>
       </c>
       <c r="C41" t="n">
-        <v>0.11453</v>
+        <v>0.114575</v>
       </c>
       <c r="D41" t="n">
-        <v>0.114756</v>
+        <v>0.114994</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.115869</v>
+        <v>0.115516</v>
       </c>
       <c r="C42" t="n">
-        <v>0.115199</v>
+        <v>0.11541</v>
       </c>
       <c r="D42" t="n">
-        <v>0.115149</v>
+        <v>0.115418</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116128</v>
+        <v>0.115858</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1161</v>
+        <v>0.11599</v>
       </c>
       <c r="D43" t="n">
-        <v>0.115863</v>
+        <v>0.116094</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.117114</v>
+        <v>0.116599</v>
       </c>
       <c r="C44" t="n">
-        <v>0.116706</v>
+        <v>0.116726</v>
       </c>
       <c r="D44" t="n">
-        <v>0.117016</v>
+        <v>0.117056</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.118299</v>
+        <v>0.118482</v>
       </c>
       <c r="C45" t="n">
-        <v>0.118157</v>
+        <v>0.118184</v>
       </c>
       <c r="D45" t="n">
-        <v>0.11784</v>
+        <v>0.11835</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.119267</v>
+        <v>0.119448</v>
       </c>
       <c r="C46" t="n">
-        <v>0.119248</v>
+        <v>0.119399</v>
       </c>
       <c r="D46" t="n">
-        <v>0.119295</v>
+        <v>0.119676</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.121422</v>
+        <v>0.121151</v>
       </c>
       <c r="C47" t="n">
-        <v>0.120696</v>
+        <v>0.120756</v>
       </c>
       <c r="D47" t="n">
-        <v>0.121011</v>
+        <v>0.121296</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.123269</v>
+        <v>0.1235</v>
       </c>
       <c r="C48" t="n">
-        <v>0.122588</v>
+        <v>0.122585</v>
       </c>
       <c r="D48" t="n">
-        <v>0.123572</v>
+        <v>0.124044</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.126586</v>
+        <v>0.126479</v>
       </c>
       <c r="C49" t="n">
-        <v>0.125155</v>
+        <v>0.125196</v>
       </c>
       <c r="D49" t="n">
-        <v>0.127079</v>
+        <v>0.127866</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.130587</v>
+        <v>0.131395</v>
       </c>
       <c r="C50" t="n">
-        <v>0.128583</v>
+        <v>0.12852</v>
       </c>
       <c r="D50" t="n">
-        <v>0.132784</v>
+        <v>0.133683</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.137023</v>
+        <v>0.136608</v>
       </c>
       <c r="C51" t="n">
-        <v>0.13296</v>
+        <v>0.132901</v>
       </c>
       <c r="D51" t="n">
-        <v>0.114333</v>
+        <v>0.114029</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.145288</v>
+        <v>0.14492</v>
       </c>
       <c r="C52" t="n">
-        <v>0.140701</v>
+        <v>0.14051</v>
       </c>
       <c r="D52" t="n">
-        <v>0.114414</v>
+        <v>0.114367</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.116539</v>
+        <v>0.117504</v>
       </c>
       <c r="C53" t="n">
-        <v>0.114895</v>
+        <v>0.115158</v>
       </c>
       <c r="D53" t="n">
-        <v>0.115161</v>
+        <v>0.114761</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.117163</v>
+        <v>0.116987</v>
       </c>
       <c r="C54" t="n">
-        <v>0.115512</v>
+        <v>0.115711</v>
       </c>
       <c r="D54" t="n">
-        <v>0.115543</v>
+        <v>0.115255</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.118193</v>
+        <v>0.117345</v>
       </c>
       <c r="C55" t="n">
-        <v>0.116183</v>
+        <v>0.116121</v>
       </c>
       <c r="D55" t="n">
-        <v>0.115731</v>
+        <v>0.116173</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.118333</v>
+        <v>0.118114</v>
       </c>
       <c r="C56" t="n">
-        <v>0.117065</v>
+        <v>0.117017</v>
       </c>
       <c r="D56" t="n">
-        <v>0.116372</v>
+        <v>0.116323</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.11881</v>
+        <v>0.118598</v>
       </c>
       <c r="C57" t="n">
-        <v>0.117664</v>
+        <v>0.117814</v>
       </c>
       <c r="D57" t="n">
-        <v>0.116973</v>
+        <v>0.117276</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.119387</v>
+        <v>0.120132</v>
       </c>
       <c r="C58" t="n">
-        <v>0.118708</v>
+        <v>0.119074</v>
       </c>
       <c r="D58" t="n">
-        <v>0.117922</v>
+        <v>0.118015</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.120132</v>
+        <v>0.120526</v>
       </c>
       <c r="C59" t="n">
-        <v>0.119671</v>
+        <v>0.119951</v>
       </c>
       <c r="D59" t="n">
-        <v>0.119055</v>
+        <v>0.119613</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.12216</v>
+        <v>0.122539</v>
       </c>
       <c r="C60" t="n">
-        <v>0.121244</v>
+        <v>0.121091</v>
       </c>
       <c r="D60" t="n">
-        <v>0.120535</v>
+        <v>0.120513</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.123207</v>
+        <v>0.123665</v>
       </c>
       <c r="C61" t="n">
-        <v>0.12268</v>
+        <v>0.122688</v>
       </c>
       <c r="D61" t="n">
-        <v>0.122707</v>
+        <v>0.122841</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.125663</v>
+        <v>0.126116</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1243</v>
+        <v>0.124635</v>
       </c>
       <c r="D62" t="n">
-        <v>0.125042</v>
+        <v>0.12522</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.128609</v>
+        <v>0.128948</v>
       </c>
       <c r="C63" t="n">
-        <v>0.126811</v>
+        <v>0.127113</v>
       </c>
       <c r="D63" t="n">
-        <v>0.12905</v>
+        <v>0.129522</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.133044</v>
+        <v>0.132985</v>
       </c>
       <c r="C64" t="n">
-        <v>0.130353</v>
+        <v>0.130366</v>
       </c>
       <c r="D64" t="n">
-        <v>0.134201</v>
+        <v>0.135012</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.13896</v>
+        <v>0.139161</v>
       </c>
       <c r="C65" t="n">
-        <v>0.13516</v>
+        <v>0.135357</v>
       </c>
       <c r="D65" t="n">
-        <v>0.142699</v>
+        <v>0.143732</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.147796</v>
+        <v>0.14788</v>
       </c>
       <c r="C66" t="n">
-        <v>0.141871</v>
+        <v>0.142034</v>
       </c>
       <c r="D66" t="n">
-        <v>0.114848</v>
+        <v>0.114871</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.120495</v>
+        <v>0.120931</v>
       </c>
       <c r="C67" t="n">
-        <v>0.115613</v>
+        <v>0.115623</v>
       </c>
       <c r="D67" t="n">
-        <v>0.115768</v>
+        <v>0.115104</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.120985</v>
+        <v>0.121565</v>
       </c>
       <c r="C68" t="n">
-        <v>0.117304</v>
+        <v>0.116416</v>
       </c>
       <c r="D68" t="n">
-        <v>0.115847</v>
+        <v>0.115869</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.12112</v>
+        <v>0.121139</v>
       </c>
       <c r="C69" t="n">
-        <v>0.116831</v>
+        <v>0.116766</v>
       </c>
       <c r="D69" t="n">
-        <v>0.116432</v>
+        <v>0.116097</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.121322</v>
+        <v>0.12199</v>
       </c>
       <c r="C70" t="n">
-        <v>0.11898</v>
+        <v>0.117839</v>
       </c>
       <c r="D70" t="n">
-        <v>0.116717</v>
+        <v>0.116886</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.121983</v>
+        <v>0.122056</v>
       </c>
       <c r="C71" t="n">
-        <v>0.118485</v>
+        <v>0.118356</v>
       </c>
       <c r="D71" t="n">
-        <v>0.117385</v>
+        <v>0.117669</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.122728</v>
+        <v>0.122912</v>
       </c>
       <c r="C72" t="n">
-        <v>0.120439</v>
+        <v>0.11932</v>
       </c>
       <c r="D72" t="n">
-        <v>0.118303</v>
+        <v>0.118477</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.124577</v>
+        <v>0.124413</v>
       </c>
       <c r="C73" t="n">
-        <v>0.120387</v>
+        <v>0.120389</v>
       </c>
       <c r="D73" t="n">
-        <v>0.119462</v>
+        <v>0.119741</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.124913</v>
+        <v>0.125023</v>
       </c>
       <c r="C74" t="n">
-        <v>0.12163</v>
+        <v>0.121833</v>
       </c>
       <c r="D74" t="n">
-        <v>0.120849</v>
+        <v>0.121085</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.127142</v>
+        <v>0.126591</v>
       </c>
       <c r="C75" t="n">
-        <v>0.123786</v>
+        <v>0.123299</v>
       </c>
       <c r="D75" t="n">
-        <v>0.122981</v>
+        <v>0.122826</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.128698</v>
+        <v>0.128712</v>
       </c>
       <c r="C76" t="n">
-        <v>0.126459</v>
+        <v>0.125108</v>
       </c>
       <c r="D76" t="n">
-        <v>0.125484</v>
+        <v>0.125882</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.132466</v>
+        <v>0.131681</v>
       </c>
       <c r="C77" t="n">
-        <v>0.127669</v>
+        <v>0.127606</v>
       </c>
       <c r="D77" t="n">
-        <v>0.129048</v>
+        <v>0.129317</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.136558</v>
+        <v>0.135992</v>
       </c>
       <c r="C78" t="n">
-        <v>0.131046</v>
+        <v>0.131144</v>
       </c>
       <c r="D78" t="n">
-        <v>0.134471</v>
+        <v>0.134824</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.142327</v>
+        <v>0.141995</v>
       </c>
       <c r="C79" t="n">
-        <v>0.135924</v>
+        <v>0.136001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.142557</v>
+        <v>0.142822</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.150083</v>
+        <v>0.148959</v>
       </c>
       <c r="C80" t="n">
-        <v>0.142894</v>
+        <v>0.142772</v>
       </c>
       <c r="D80" t="n">
-        <v>0.119795</v>
+        <v>0.118592</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.129252</v>
+        <v>0.1281</v>
       </c>
       <c r="C81" t="n">
-        <v>0.123262</v>
+        <v>0.1201</v>
       </c>
       <c r="D81" t="n">
-        <v>0.11844</v>
+        <v>0.118479</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.129482</v>
+        <v>0.128382</v>
       </c>
       <c r="C82" t="n">
-        <v>0.122982</v>
+        <v>0.121859</v>
       </c>
       <c r="D82" t="n">
-        <v>0.121965</v>
+        <v>0.122847</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.129988</v>
+        <v>0.128698</v>
       </c>
       <c r="C83" t="n">
-        <v>0.123715</v>
+        <v>0.121462</v>
       </c>
       <c r="D83" t="n">
-        <v>0.122476</v>
+        <v>0.119566</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.130329</v>
+        <v>0.129567</v>
       </c>
       <c r="C84" t="n">
-        <v>0.121226</v>
+        <v>0.125828</v>
       </c>
       <c r="D84" t="n">
-        <v>0.122947</v>
+        <v>0.118436</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.131145</v>
+        <v>0.129806</v>
       </c>
       <c r="C85" t="n">
-        <v>0.124943</v>
+        <v>0.124333</v>
       </c>
       <c r="D85" t="n">
-        <v>0.12127</v>
+        <v>0.121777</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.131602</v>
+        <v>0.130508</v>
       </c>
       <c r="C86" t="n">
-        <v>0.126245</v>
+        <v>0.123815</v>
       </c>
       <c r="D86" t="n">
-        <v>0.12463</v>
+        <v>0.12185</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.132674</v>
+        <v>0.131542</v>
       </c>
       <c r="C87" t="n">
-        <v>0.124427</v>
+        <v>0.125026</v>
       </c>
       <c r="D87" t="n">
-        <v>0.125754</v>
+        <v>0.122695</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.133591</v>
+        <v>0.132891</v>
       </c>
       <c r="C88" t="n">
-        <v>0.128256</v>
+        <v>0.12652</v>
       </c>
       <c r="D88" t="n">
-        <v>0.12686</v>
+        <v>0.124244</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.135151</v>
+        <v>0.134267</v>
       </c>
       <c r="C89" t="n">
-        <v>0.129576</v>
+        <v>0.127406</v>
       </c>
       <c r="D89" t="n">
-        <v>0.124163</v>
+        <v>0.126754</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.137357</v>
+        <v>0.13609</v>
       </c>
       <c r="C90" t="n">
-        <v>0.131488</v>
+        <v>0.129592</v>
       </c>
       <c r="D90" t="n">
-        <v>0.13106</v>
+        <v>0.132914</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.139877</v>
+        <v>0.139347</v>
       </c>
       <c r="C91" t="n">
-        <v>0.133437</v>
+        <v>0.134759</v>
       </c>
       <c r="D91" t="n">
-        <v>0.134332</v>
+        <v>0.131823</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.143619</v>
+        <v>0.142777</v>
       </c>
       <c r="C92" t="n">
-        <v>0.136452</v>
+        <v>0.13499</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1409</v>
+        <v>0.141192</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.148905</v>
+        <v>0.14769</v>
       </c>
       <c r="C93" t="n">
-        <v>0.141636</v>
+        <v>0.138908</v>
       </c>
       <c r="D93" t="n">
-        <v>0.144248</v>
+        <v>0.144723</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.155525</v>
+        <v>0.155042</v>
       </c>
       <c r="C94" t="n">
-        <v>0.147054</v>
+        <v>0.148098</v>
       </c>
       <c r="D94" t="n">
-        <v>0.171733</v>
+        <v>0.169279</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.20742</v>
+        <v>0.207877</v>
       </c>
       <c r="C95" t="n">
-        <v>0.176848</v>
+        <v>0.17888</v>
       </c>
       <c r="D95" t="n">
-        <v>0.172381</v>
+        <v>0.166281</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.19775</v>
+        <v>0.198695</v>
       </c>
       <c r="C96" t="n">
-        <v>0.179152</v>
+        <v>0.180741</v>
       </c>
       <c r="D96" t="n">
-        <v>0.174799</v>
+        <v>0.171052</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.209042</v>
+        <v>0.198581</v>
       </c>
       <c r="C97" t="n">
-        <v>0.186617</v>
+        <v>0.181283</v>
       </c>
       <c r="D97" t="n">
-        <v>0.175496</v>
+        <v>0.171513</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.203198</v>
+        <v>0.205686</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180435</v>
+        <v>0.182044</v>
       </c>
       <c r="D98" t="n">
-        <v>0.175867</v>
+        <v>0.172308</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.202895</v>
+        <v>0.199153</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179823</v>
+        <v>0.18195</v>
       </c>
       <c r="D99" t="n">
-        <v>0.176401</v>
+        <v>0.173143</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.200487</v>
+        <v>0.208789</v>
       </c>
       <c r="C100" t="n">
-        <v>0.18198</v>
+        <v>0.182099</v>
       </c>
       <c r="D100" t="n">
-        <v>0.177153</v>
+        <v>0.170602</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.202238</v>
+        <v>0.200137</v>
       </c>
       <c r="C101" t="n">
-        <v>0.18369</v>
+        <v>0.183148</v>
       </c>
       <c r="D101" t="n">
-        <v>0.181224</v>
+        <v>0.176563</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.212296</v>
+        <v>0.200669</v>
       </c>
       <c r="C102" t="n">
-        <v>0.189556</v>
+        <v>0.18427</v>
       </c>
       <c r="D102" t="n">
-        <v>0.179051</v>
+        <v>0.1767</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.201325</v>
+        <v>0.202261</v>
       </c>
       <c r="C103" t="n">
-        <v>0.185098</v>
+        <v>0.185904</v>
       </c>
       <c r="D103" t="n">
-        <v>0.180307</v>
+        <v>0.179472</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.202406</v>
+        <v>0.202902</v>
       </c>
       <c r="C104" t="n">
-        <v>0.186752</v>
+        <v>0.188043</v>
       </c>
       <c r="D104" t="n">
-        <v>0.182921</v>
+        <v>0.181642</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.204146</v>
+        <v>0.204999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.188952</v>
+        <v>0.189582</v>
       </c>
       <c r="D105" t="n">
-        <v>0.186222</v>
+        <v>0.183601</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.206893</v>
+        <v>0.207478</v>
       </c>
       <c r="C106" t="n">
-        <v>0.190885</v>
+        <v>0.193304</v>
       </c>
       <c r="D106" t="n">
-        <v>0.189712</v>
+        <v>0.188424</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.21022</v>
+        <v>0.210776</v>
       </c>
       <c r="C107" t="n">
-        <v>0.19492</v>
+        <v>0.196507</v>
       </c>
       <c r="D107" t="n">
-        <v>0.195955</v>
+        <v>0.193232</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.215257</v>
+        <v>0.215529</v>
       </c>
       <c r="C108" t="n">
-        <v>0.198738</v>
+        <v>0.202586</v>
       </c>
       <c r="D108" t="n">
-        <v>0.307202</v>
+        <v>0.306626</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.222856</v>
+        <v>0.222927</v>
       </c>
       <c r="C109" t="n">
-        <v>0.208464</v>
+        <v>0.208577</v>
       </c>
       <c r="D109" t="n">
-        <v>0.307577</v>
+        <v>0.307964</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.345965</v>
+        <v>0.345138</v>
       </c>
       <c r="C110" t="n">
-        <v>0.30266</v>
+        <v>0.302169</v>
       </c>
       <c r="D110" t="n">
-        <v>0.309156</v>
+        <v>0.309141</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.346011</v>
+        <v>0.345543</v>
       </c>
       <c r="C111" t="n">
-        <v>0.302783</v>
+        <v>0.303185</v>
       </c>
       <c r="D111" t="n">
-        <v>0.309648</v>
+        <v>0.310221</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.346273</v>
+        <v>0.345767</v>
       </c>
       <c r="C112" t="n">
-        <v>0.303983</v>
+        <v>0.303923</v>
       </c>
       <c r="D112" t="n">
-        <v>0.311186</v>
+        <v>0.31185</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.346131</v>
+        <v>0.345991</v>
       </c>
       <c r="C113" t="n">
-        <v>0.304643</v>
+        <v>0.304533</v>
       </c>
       <c r="D113" t="n">
-        <v>0.312814</v>
+        <v>0.312978</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.346559</v>
+        <v>0.345912</v>
       </c>
       <c r="C114" t="n">
-        <v>0.305633</v>
+        <v>0.305841</v>
       </c>
       <c r="D114" t="n">
-        <v>0.313715</v>
+        <v>0.313977</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.346273</v>
+        <v>0.346719</v>
       </c>
       <c r="C115" t="n">
-        <v>0.306913</v>
+        <v>0.306825</v>
       </c>
       <c r="D115" t="n">
-        <v>0.315452</v>
+        <v>0.315679</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.346966</v>
+        <v>0.346783</v>
       </c>
       <c r="C116" t="n">
-        <v>0.308169</v>
+        <v>0.307694</v>
       </c>
       <c r="D116" t="n">
-        <v>0.317163</v>
+        <v>0.317528</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.347822</v>
+        <v>0.347438</v>
       </c>
       <c r="C117" t="n">
-        <v>0.309662</v>
+        <v>0.310606</v>
       </c>
       <c r="D117" t="n">
-        <v>0.319467</v>
+        <v>0.320658</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.34848</v>
+        <v>0.352616</v>
       </c>
       <c r="C118" t="n">
-        <v>0.311637</v>
+        <v>0.312952</v>
       </c>
       <c r="D118" t="n">
-        <v>0.321842</v>
+        <v>0.323995</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.349325</v>
+        <v>0.350111</v>
       </c>
       <c r="C119" t="n">
-        <v>0.313169</v>
+        <v>0.313761</v>
       </c>
       <c r="D119" t="n">
-        <v>0.32417</v>
+        <v>0.324545</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.351356</v>
+        <v>0.354988</v>
       </c>
       <c r="C120" t="n">
-        <v>0.315867</v>
+        <v>0.322071</v>
       </c>
       <c r="D120" t="n">
-        <v>0.32807</v>
+        <v>0.328503</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.355333</v>
+        <v>0.353343</v>
       </c>
       <c r="C121" t="n">
-        <v>0.319737</v>
+        <v>0.319386</v>
       </c>
       <c r="D121" t="n">
-        <v>0.333561</v>
+        <v>0.333844</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.356472</v>
+        <v>0.356329</v>
       </c>
       <c r="C122" t="n">
-        <v>0.323752</v>
+        <v>0.324054</v>
       </c>
       <c r="D122" t="n">
-        <v>0.340289</v>
+        <v>0.34103</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.361558</v>
+        <v>0.361649</v>
       </c>
       <c r="C123" t="n">
-        <v>0.331243</v>
+        <v>0.331133</v>
       </c>
       <c r="D123" t="n">
-        <v>0.375971</v>
+        <v>0.37899</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.457475</v>
+        <v>0.45696</v>
       </c>
       <c r="C124" t="n">
-        <v>0.347647</v>
+        <v>0.346307</v>
       </c>
       <c r="D124" t="n">
-        <v>0.377837</v>
+        <v>0.37817</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.457243</v>
+        <v>0.457059</v>
       </c>
       <c r="C125" t="n">
-        <v>0.348708</v>
+        <v>0.347813</v>
       </c>
       <c r="D125" t="n">
-        <v>0.380126</v>
+        <v>0.379817</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.457138</v>
+        <v>0.456867</v>
       </c>
       <c r="C126" t="n">
-        <v>0.3499</v>
+        <v>0.349768</v>
       </c>
       <c r="D126" t="n">
-        <v>0.382913</v>
+        <v>0.38217</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.458122</v>
+        <v>0.457815</v>
       </c>
       <c r="C127" t="n">
-        <v>0.350931</v>
+        <v>0.35009</v>
       </c>
       <c r="D127" t="n">
-        <v>0.385142</v>
+        <v>0.384672</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.457515</v>
+        <v>0.457749</v>
       </c>
       <c r="C128" t="n">
-        <v>0.352059</v>
+        <v>0.352517</v>
       </c>
       <c r="D128" t="n">
-        <v>0.387658</v>
+        <v>0.38836</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.458275</v>
+        <v>0.458863</v>
       </c>
       <c r="C129" t="n">
-        <v>0.35322</v>
+        <v>0.353302</v>
       </c>
       <c r="D129" t="n">
-        <v>0.390683</v>
+        <v>0.393366</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.458323</v>
+        <v>0.45849</v>
       </c>
       <c r="C130" t="n">
-        <v>0.354651</v>
+        <v>0.353384</v>
       </c>
       <c r="D130" t="n">
-        <v>0.397317</v>
+        <v>0.393243</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.458996</v>
+        <v>0.458941</v>
       </c>
       <c r="C131" t="n">
-        <v>0.358664</v>
+        <v>0.355317</v>
       </c>
       <c r="D131" t="n">
-        <v>0.397117</v>
+        <v>0.396738</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.459567</v>
+        <v>0.459571</v>
       </c>
       <c r="C132" t="n">
-        <v>0.358257</v>
+        <v>0.358307</v>
       </c>
       <c r="D132" t="n">
-        <v>0.400662</v>
+        <v>0.40027</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.589968</v>
+        <v>0.460984</v>
       </c>
       <c r="C133" t="n">
-        <v>0.360509</v>
+        <v>0.360799</v>
       </c>
       <c r="D133" t="n">
-        <v>0.404484</v>
+        <v>0.404575</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.461828</v>
+        <v>0.461952</v>
       </c>
       <c r="C134" t="n">
-        <v>0.363777</v>
+        <v>0.362924</v>
       </c>
       <c r="D134" t="n">
-        <v>0.409511</v>
+        <v>0.409379</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.463749</v>
+        <v>0.463661</v>
       </c>
       <c r="C135" t="n">
-        <v>0.367885</v>
+        <v>0.366917</v>
       </c>
       <c r="D135" t="n">
-        <v>0.416045</v>
+        <v>0.416063</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.466858</v>
+        <v>0.466835</v>
       </c>
       <c r="C136" t="n">
-        <v>0.373403</v>
+        <v>0.381563</v>
       </c>
       <c r="D136" t="n">
-        <v>0.424504</v>
+        <v>0.424229</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.471359</v>
+        <v>0.47132</v>
       </c>
       <c r="C137" t="n">
-        <v>0.381626</v>
+        <v>0.381266</v>
       </c>
       <c r="D137" t="n">
-        <v>0.423639</v>
+        <v>0.423709</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.790107</v>
+        <v>0.790766</v>
       </c>
       <c r="C138" t="n">
-        <v>0.372173</v>
+        <v>0.372331</v>
       </c>
       <c r="D138" t="n">
-        <v>0.42677</v>
+        <v>0.426153</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.7912360000000001</v>
+        <v>0.79066</v>
       </c>
       <c r="C139" t="n">
-        <v>0.372984</v>
+        <v>0.37257</v>
       </c>
       <c r="D139" t="n">
-        <v>0.429065</v>
+        <v>0.428943</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.790863</v>
+        <v>0.790927</v>
       </c>
       <c r="C140" t="n">
-        <v>0.37406</v>
+        <v>0.374029</v>
       </c>
       <c r="D140" t="n">
-        <v>0.432236</v>
+        <v>0.432337</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.7911049999999999</v>
+        <v>0.790889</v>
       </c>
       <c r="C141" t="n">
-        <v>0.37522</v>
+        <v>0.375105</v>
       </c>
       <c r="D141" t="n">
-        <v>0.440659</v>
+        <v>0.434759</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.7921240000000001</v>
+        <v>0.791639</v>
       </c>
       <c r="C142" t="n">
-        <v>0.376065</v>
+        <v>0.383321</v>
       </c>
       <c r="D142" t="n">
-        <v>0.438342</v>
+        <v>0.447445</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.792049</v>
+        <v>0.793504</v>
       </c>
       <c r="C143" t="n">
-        <v>0.377565</v>
+        <v>0.377648</v>
       </c>
       <c r="D143" t="n">
-        <v>0.441711</v>
+        <v>0.441249</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.105914</v>
+        <v>0.105948</v>
       </c>
       <c r="C2" t="n">
-        <v>0.111919</v>
+        <v>0.111948</v>
       </c>
       <c r="D2" t="n">
-        <v>0.111728</v>
+        <v>0.110448</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.106917</v>
+        <v>0.107442</v>
       </c>
       <c r="C3" t="n">
-        <v>0.113117</v>
+        <v>0.113274</v>
       </c>
       <c r="D3" t="n">
-        <v>0.111971</v>
+        <v>0.111358</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.108243</v>
+        <v>0.108322</v>
       </c>
       <c r="C4" t="n">
-        <v>0.114222</v>
+        <v>0.114164</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11321</v>
+        <v>0.113241</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.110205</v>
+        <v>0.11009</v>
       </c>
       <c r="C5" t="n">
-        <v>0.115788</v>
+        <v>0.115701</v>
       </c>
       <c r="D5" t="n">
-        <v>0.114848</v>
+        <v>0.11483</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.111961</v>
+        <v>0.112409</v>
       </c>
       <c r="C6" t="n">
-        <v>0.116786</v>
+        <v>0.116962</v>
       </c>
       <c r="D6" t="n">
-        <v>0.117268</v>
+        <v>0.117086</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.115652</v>
+        <v>0.115097</v>
       </c>
       <c r="C7" t="n">
-        <v>0.121444</v>
+        <v>0.119645</v>
       </c>
       <c r="D7" t="n">
-        <v>0.120314</v>
+        <v>0.119033</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.117876</v>
+        <v>0.118225</v>
       </c>
       <c r="C8" t="n">
-        <v>0.12085</v>
+        <v>0.120967</v>
       </c>
       <c r="D8" t="n">
-        <v>0.123337</v>
+        <v>0.123331</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.122776</v>
+        <v>0.121322</v>
       </c>
       <c r="C9" t="n">
-        <v>0.124391</v>
+        <v>0.122499</v>
       </c>
       <c r="D9" t="n">
-        <v>0.108971</v>
+        <v>0.1096</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.106053</v>
+        <v>0.106092</v>
       </c>
       <c r="C10" t="n">
-        <v>0.109437</v>
+        <v>0.109272</v>
       </c>
       <c r="D10" t="n">
-        <v>0.109288</v>
+        <v>0.109602</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.106651</v>
+        <v>0.106584</v>
       </c>
       <c r="C11" t="n">
-        <v>0.110432</v>
+        <v>0.110178</v>
       </c>
       <c r="D11" t="n">
-        <v>0.109919</v>
+        <v>0.110024</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.107115</v>
+        <v>0.106827</v>
       </c>
       <c r="C12" t="n">
-        <v>0.11069</v>
+        <v>0.110668</v>
       </c>
       <c r="D12" t="n">
-        <v>0.109964</v>
+        <v>0.109872</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.107608</v>
+        <v>0.107414</v>
       </c>
       <c r="C13" t="n">
-        <v>0.111316</v>
+        <v>0.111393</v>
       </c>
       <c r="D13" t="n">
-        <v>0.110858</v>
+        <v>0.110909</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.108432</v>
+        <v>0.108707</v>
       </c>
       <c r="C14" t="n">
-        <v>0.112272</v>
+        <v>0.112029</v>
       </c>
       <c r="D14" t="n">
-        <v>0.111675</v>
+        <v>0.11145</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.108762</v>
+        <v>0.109467</v>
       </c>
       <c r="C15" t="n">
-        <v>0.112905</v>
+        <v>0.113069</v>
       </c>
       <c r="D15" t="n">
-        <v>0.112444</v>
+        <v>0.112216</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.110355</v>
+        <v>0.110544</v>
       </c>
       <c r="C16" t="n">
-        <v>0.113506</v>
+        <v>0.113925</v>
       </c>
       <c r="D16" t="n">
-        <v>0.113205</v>
+        <v>0.113188</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.111244</v>
+        <v>0.110975</v>
       </c>
       <c r="C17" t="n">
-        <v>0.115045</v>
+        <v>0.115197</v>
       </c>
       <c r="D17" t="n">
-        <v>0.115176</v>
+        <v>0.115108</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.112804</v>
+        <v>0.112793</v>
       </c>
       <c r="C18" t="n">
-        <v>0.116261</v>
+        <v>0.116597</v>
       </c>
       <c r="D18" t="n">
-        <v>0.116385</v>
+        <v>0.116027</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.114241</v>
+        <v>0.115515</v>
       </c>
       <c r="C19" t="n">
-        <v>0.118472</v>
+        <v>0.118128</v>
       </c>
       <c r="D19" t="n">
-        <v>0.118132</v>
+        <v>0.117943</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.117148</v>
+        <v>0.116945</v>
       </c>
       <c r="C20" t="n">
-        <v>0.119131</v>
+        <v>0.119044</v>
       </c>
       <c r="D20" t="n">
-        <v>0.12031</v>
+        <v>0.120343</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.119457</v>
+        <v>0.119203</v>
       </c>
       <c r="C21" t="n">
-        <v>0.121445</v>
+        <v>0.121356</v>
       </c>
       <c r="D21" t="n">
-        <v>0.123171</v>
+        <v>0.122984</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.122725</v>
+        <v>0.123114</v>
       </c>
       <c r="C22" t="n">
-        <v>0.123201</v>
+        <v>0.122936</v>
       </c>
       <c r="D22" t="n">
-        <v>0.127542</v>
+        <v>0.128024</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.128597</v>
+        <v>0.128808</v>
       </c>
       <c r="C23" t="n">
-        <v>0.125788</v>
+        <v>0.125958</v>
       </c>
       <c r="D23" t="n">
-        <v>0.11155</v>
+        <v>0.111509</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.110173</v>
+        <v>0.110453</v>
       </c>
       <c r="C24" t="n">
-        <v>0.111318</v>
+        <v>0.111386</v>
       </c>
       <c r="D24" t="n">
-        <v>0.11217</v>
+        <v>0.111912</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.10992</v>
+        <v>0.11073</v>
       </c>
       <c r="C25" t="n">
-        <v>0.111768</v>
+        <v>0.111928</v>
       </c>
       <c r="D25" t="n">
-        <v>0.112497</v>
+        <v>0.112478</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.110632</v>
+        <v>0.111176</v>
       </c>
       <c r="C26" t="n">
-        <v>0.113019</v>
+        <v>0.112843</v>
       </c>
       <c r="D26" t="n">
-        <v>0.112851</v>
+        <v>0.112976</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.110792</v>
+        <v>0.111624</v>
       </c>
       <c r="C27" t="n">
-        <v>0.113446</v>
+        <v>0.113359</v>
       </c>
       <c r="D27" t="n">
-        <v>0.113781</v>
+        <v>0.114012</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.112028</v>
+        <v>0.111724</v>
       </c>
       <c r="C28" t="n">
-        <v>0.114187</v>
+        <v>0.114163</v>
       </c>
       <c r="D28" t="n">
-        <v>0.113859</v>
+        <v>0.114215</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.112869</v>
+        <v>0.113255</v>
       </c>
       <c r="C29" t="n">
-        <v>0.114414</v>
+        <v>0.114979</v>
       </c>
       <c r="D29" t="n">
-        <v>0.114558</v>
+        <v>0.115612</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.113429</v>
+        <v>0.113463</v>
       </c>
       <c r="C30" t="n">
-        <v>0.115908</v>
+        <v>0.115485</v>
       </c>
       <c r="D30" t="n">
-        <v>0.116328</v>
+        <v>0.116105</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.114531</v>
+        <v>0.114982</v>
       </c>
       <c r="C31" t="n">
-        <v>0.116821</v>
+        <v>0.116734</v>
       </c>
       <c r="D31" t="n">
-        <v>0.117231</v>
+        <v>0.117259</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.116187</v>
+        <v>0.115725</v>
       </c>
       <c r="C32" t="n">
-        <v>0.118011</v>
+        <v>0.117753</v>
       </c>
       <c r="D32" t="n">
-        <v>0.118896</v>
+        <v>0.117815</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.117428</v>
+        <v>0.116899</v>
       </c>
       <c r="C33" t="n">
-        <v>0.119106</v>
+        <v>0.119195</v>
       </c>
       <c r="D33" t="n">
-        <v>0.119677</v>
+        <v>0.119894</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.119181</v>
+        <v>0.118957</v>
       </c>
       <c r="C34" t="n">
-        <v>0.120436</v>
+        <v>0.120687</v>
       </c>
       <c r="D34" t="n">
-        <v>0.122005</v>
+        <v>0.122343</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.121791</v>
+        <v>0.121953</v>
       </c>
       <c r="C35" t="n">
-        <v>0.122524</v>
+        <v>0.122877</v>
       </c>
       <c r="D35" t="n">
-        <v>0.125237</v>
+        <v>0.125563</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.125866</v>
+        <v>0.126023</v>
       </c>
       <c r="C36" t="n">
-        <v>0.125326</v>
+        <v>0.125621</v>
       </c>
       <c r="D36" t="n">
-        <v>0.130982</v>
+        <v>0.131327</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.132116</v>
+        <v>0.132437</v>
       </c>
       <c r="C37" t="n">
-        <v>0.129582</v>
+        <v>0.12988</v>
       </c>
       <c r="D37" t="n">
-        <v>0.112878</v>
+        <v>0.112946</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.113962</v>
+        <v>0.113791</v>
       </c>
       <c r="C38" t="n">
-        <v>0.112436</v>
+        <v>0.112475</v>
       </c>
       <c r="D38" t="n">
-        <v>0.11315</v>
+        <v>0.113494</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.114263</v>
+        <v>0.114006</v>
       </c>
       <c r="C39" t="n">
-        <v>0.113077</v>
+        <v>0.113051</v>
       </c>
       <c r="D39" t="n">
-        <v>0.113577</v>
+        <v>0.113711</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.114465</v>
+        <v>0.114945</v>
       </c>
       <c r="C40" t="n">
-        <v>0.113706</v>
+        <v>0.1137</v>
       </c>
       <c r="D40" t="n">
-        <v>0.114151</v>
+        <v>0.114118</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.115016</v>
+        <v>0.114764</v>
       </c>
       <c r="C41" t="n">
-        <v>0.114575</v>
+        <v>0.114301</v>
       </c>
       <c r="D41" t="n">
-        <v>0.114994</v>
+        <v>0.114546</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.115516</v>
+        <v>0.115225</v>
       </c>
       <c r="C42" t="n">
-        <v>0.11541</v>
+        <v>0.115309</v>
       </c>
       <c r="D42" t="n">
-        <v>0.115418</v>
+        <v>0.115179</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.115858</v>
+        <v>0.115921</v>
       </c>
       <c r="C43" t="n">
-        <v>0.11599</v>
+        <v>0.115995</v>
       </c>
       <c r="D43" t="n">
-        <v>0.116094</v>
+        <v>0.115911</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.116599</v>
+        <v>0.116735</v>
       </c>
       <c r="C44" t="n">
-        <v>0.116726</v>
+        <v>0.116732</v>
       </c>
       <c r="D44" t="n">
-        <v>0.117056</v>
+        <v>0.116568</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.118482</v>
+        <v>0.11769</v>
       </c>
       <c r="C45" t="n">
-        <v>0.118184</v>
+        <v>0.117898</v>
       </c>
       <c r="D45" t="n">
-        <v>0.11835</v>
+        <v>0.117758</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.119448</v>
+        <v>0.118998</v>
       </c>
       <c r="C46" t="n">
-        <v>0.119399</v>
+        <v>0.119581</v>
       </c>
       <c r="D46" t="n">
-        <v>0.119676</v>
+        <v>0.119266</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.121151</v>
+        <v>0.120898</v>
       </c>
       <c r="C47" t="n">
-        <v>0.120756</v>
+        <v>0.12114</v>
       </c>
       <c r="D47" t="n">
-        <v>0.121296</v>
+        <v>0.121509</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1235</v>
+        <v>0.123051</v>
       </c>
       <c r="C48" t="n">
-        <v>0.122585</v>
+        <v>0.122498</v>
       </c>
       <c r="D48" t="n">
-        <v>0.124044</v>
+        <v>0.123935</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.126479</v>
+        <v>0.126507</v>
       </c>
       <c r="C49" t="n">
-        <v>0.125196</v>
+        <v>0.124963</v>
       </c>
       <c r="D49" t="n">
-        <v>0.127866</v>
+        <v>0.127888</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.131395</v>
+        <v>0.130247</v>
       </c>
       <c r="C50" t="n">
-        <v>0.12852</v>
+        <v>0.128371</v>
       </c>
       <c r="D50" t="n">
-        <v>0.133683</v>
+        <v>0.133434</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.136608</v>
+        <v>0.136376</v>
       </c>
       <c r="C51" t="n">
-        <v>0.132901</v>
+        <v>0.132844</v>
       </c>
       <c r="D51" t="n">
-        <v>0.114029</v>
+        <v>0.114189</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.14492</v>
+        <v>0.144564</v>
       </c>
       <c r="C52" t="n">
-        <v>0.14051</v>
+        <v>0.140326</v>
       </c>
       <c r="D52" t="n">
-        <v>0.114367</v>
+        <v>0.114741</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.117504</v>
+        <v>0.117109</v>
       </c>
       <c r="C53" t="n">
-        <v>0.115158</v>
+        <v>0.115138</v>
       </c>
       <c r="D53" t="n">
-        <v>0.114761</v>
+        <v>0.11533</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.116987</v>
+        <v>0.116998</v>
       </c>
       <c r="C54" t="n">
-        <v>0.115711</v>
+        <v>0.115474</v>
       </c>
       <c r="D54" t="n">
-        <v>0.115255</v>
+        <v>0.115295</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.117345</v>
+        <v>0.117371</v>
       </c>
       <c r="C55" t="n">
-        <v>0.116121</v>
+        <v>0.116098</v>
       </c>
       <c r="D55" t="n">
-        <v>0.116173</v>
+        <v>0.115733</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.118114</v>
+        <v>0.117968</v>
       </c>
       <c r="C56" t="n">
-        <v>0.117017</v>
+        <v>0.116799</v>
       </c>
       <c r="D56" t="n">
-        <v>0.116323</v>
+        <v>0.116602</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.118598</v>
+        <v>0.118507</v>
       </c>
       <c r="C57" t="n">
-        <v>0.117814</v>
+        <v>0.117968</v>
       </c>
       <c r="D57" t="n">
-        <v>0.117276</v>
+        <v>0.117157</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.120132</v>
+        <v>0.119492</v>
       </c>
       <c r="C58" t="n">
-        <v>0.119074</v>
+        <v>0.118717</v>
       </c>
       <c r="D58" t="n">
-        <v>0.118015</v>
+        <v>0.118002</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.120526</v>
+        <v>0.120241</v>
       </c>
       <c r="C59" t="n">
-        <v>0.119951</v>
+        <v>0.119635</v>
       </c>
       <c r="D59" t="n">
-        <v>0.119613</v>
+        <v>0.11923</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.122539</v>
+        <v>0.121583</v>
       </c>
       <c r="C60" t="n">
-        <v>0.121091</v>
+        <v>0.121175</v>
       </c>
       <c r="D60" t="n">
-        <v>0.120513</v>
+        <v>0.120539</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.123665</v>
+        <v>0.123794</v>
       </c>
       <c r="C61" t="n">
-        <v>0.122688</v>
+        <v>0.122354</v>
       </c>
       <c r="D61" t="n">
-        <v>0.122841</v>
+        <v>0.122672</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.126116</v>
+        <v>0.126019</v>
       </c>
       <c r="C62" t="n">
-        <v>0.124635</v>
+        <v>0.124311</v>
       </c>
       <c r="D62" t="n">
-        <v>0.12522</v>
+        <v>0.125203</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.128948</v>
+        <v>0.128752</v>
       </c>
       <c r="C63" t="n">
-        <v>0.127113</v>
+        <v>0.127058</v>
       </c>
       <c r="D63" t="n">
-        <v>0.129522</v>
+        <v>0.129083</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.132985</v>
+        <v>0.132801</v>
       </c>
       <c r="C64" t="n">
-        <v>0.130366</v>
+        <v>0.130261</v>
       </c>
       <c r="D64" t="n">
-        <v>0.135012</v>
+        <v>0.135142</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.139161</v>
+        <v>0.138454</v>
       </c>
       <c r="C65" t="n">
-        <v>0.135357</v>
+        <v>0.135099</v>
       </c>
       <c r="D65" t="n">
-        <v>0.143732</v>
+        <v>0.143826</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.14788</v>
+        <v>0.147285</v>
       </c>
       <c r="C66" t="n">
-        <v>0.142034</v>
+        <v>0.142033</v>
       </c>
       <c r="D66" t="n">
-        <v>0.114871</v>
+        <v>0.115149</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.120931</v>
+        <v>0.120493</v>
       </c>
       <c r="C67" t="n">
-        <v>0.115623</v>
+        <v>0.11545</v>
       </c>
       <c r="D67" t="n">
-        <v>0.115104</v>
+        <v>0.115171</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.121565</v>
+        <v>0.12063</v>
       </c>
       <c r="C68" t="n">
-        <v>0.116416</v>
+        <v>0.116144</v>
       </c>
       <c r="D68" t="n">
-        <v>0.115869</v>
+        <v>0.115598</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.121139</v>
+        <v>0.12083</v>
       </c>
       <c r="C69" t="n">
-        <v>0.116766</v>
+        <v>0.116938</v>
       </c>
       <c r="D69" t="n">
-        <v>0.116097</v>
+        <v>0.116178</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.12199</v>
+        <v>0.122233</v>
       </c>
       <c r="C70" t="n">
-        <v>0.117839</v>
+        <v>0.117754</v>
       </c>
       <c r="D70" t="n">
-        <v>0.116886</v>
+        <v>0.116868</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.122056</v>
+        <v>0.122012</v>
       </c>
       <c r="C71" t="n">
-        <v>0.118356</v>
+        <v>0.118286</v>
       </c>
       <c r="D71" t="n">
-        <v>0.117669</v>
+        <v>0.117519</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.122912</v>
+        <v>0.123515</v>
       </c>
       <c r="C72" t="n">
-        <v>0.11932</v>
+        <v>0.119641</v>
       </c>
       <c r="D72" t="n">
-        <v>0.118477</v>
+        <v>0.118735</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.124413</v>
+        <v>0.123739</v>
       </c>
       <c r="C73" t="n">
-        <v>0.120389</v>
+        <v>0.120374</v>
       </c>
       <c r="D73" t="n">
-        <v>0.119741</v>
+        <v>0.119575</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.125023</v>
+        <v>0.125491</v>
       </c>
       <c r="C74" t="n">
-        <v>0.121833</v>
+        <v>0.121686</v>
       </c>
       <c r="D74" t="n">
-        <v>0.121085</v>
+        <v>0.121088</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.126591</v>
+        <v>0.127395</v>
       </c>
       <c r="C75" t="n">
-        <v>0.123299</v>
+        <v>0.123293</v>
       </c>
       <c r="D75" t="n">
-        <v>0.122826</v>
+        <v>0.122913</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.128712</v>
+        <v>0.128954</v>
       </c>
       <c r="C76" t="n">
-        <v>0.125108</v>
+        <v>0.125314</v>
       </c>
       <c r="D76" t="n">
-        <v>0.125882</v>
+        <v>0.125892</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.131681</v>
+        <v>0.131913</v>
       </c>
       <c r="C77" t="n">
-        <v>0.127606</v>
+        <v>0.127564</v>
       </c>
       <c r="D77" t="n">
-        <v>0.129317</v>
+        <v>0.129406</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.135992</v>
+        <v>0.135752</v>
       </c>
       <c r="C78" t="n">
-        <v>0.131144</v>
+        <v>0.131179</v>
       </c>
       <c r="D78" t="n">
-        <v>0.134824</v>
+        <v>0.134669</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.141995</v>
+        <v>0.141329</v>
       </c>
       <c r="C79" t="n">
-        <v>0.136001</v>
+        <v>0.136037</v>
       </c>
       <c r="D79" t="n">
-        <v>0.142822</v>
+        <v>0.142906</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.148959</v>
+        <v>0.148884</v>
       </c>
       <c r="C80" t="n">
-        <v>0.142772</v>
+        <v>0.142847</v>
       </c>
       <c r="D80" t="n">
-        <v>0.118592</v>
+        <v>0.120336</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1281</v>
+        <v>0.127356</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1201</v>
+        <v>0.122841</v>
       </c>
       <c r="D81" t="n">
-        <v>0.118479</v>
+        <v>0.120371</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.128382</v>
+        <v>0.127692</v>
       </c>
       <c r="C82" t="n">
-        <v>0.121859</v>
+        <v>0.124275</v>
       </c>
       <c r="D82" t="n">
-        <v>0.122847</v>
+        <v>0.119326</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.128698</v>
+        <v>0.128058</v>
       </c>
       <c r="C83" t="n">
-        <v>0.121462</v>
+        <v>0.123961</v>
       </c>
       <c r="D83" t="n">
-        <v>0.119566</v>
+        <v>0.119981</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.129567</v>
+        <v>0.128728</v>
       </c>
       <c r="C84" t="n">
-        <v>0.125828</v>
+        <v>0.121561</v>
       </c>
       <c r="D84" t="n">
-        <v>0.118436</v>
+        <v>0.122632</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.129806</v>
+        <v>0.128936</v>
       </c>
       <c r="C85" t="n">
-        <v>0.124333</v>
+        <v>0.123365</v>
       </c>
       <c r="D85" t="n">
-        <v>0.121777</v>
+        <v>0.121352</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.130508</v>
+        <v>0.129547</v>
       </c>
       <c r="C86" t="n">
-        <v>0.123815</v>
+        <v>0.124094</v>
       </c>
       <c r="D86" t="n">
-        <v>0.12185</v>
+        <v>0.122165</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.131542</v>
+        <v>0.130421</v>
       </c>
       <c r="C87" t="n">
-        <v>0.125026</v>
+        <v>0.127591</v>
       </c>
       <c r="D87" t="n">
-        <v>0.122695</v>
+        <v>0.124291</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.132891</v>
+        <v>0.132457</v>
       </c>
       <c r="C88" t="n">
-        <v>0.12652</v>
+        <v>0.126804</v>
       </c>
       <c r="D88" t="n">
-        <v>0.124244</v>
+        <v>0.125683</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.134267</v>
+        <v>0.133268</v>
       </c>
       <c r="C89" t="n">
-        <v>0.127406</v>
+        <v>0.129849</v>
       </c>
       <c r="D89" t="n">
-        <v>0.126754</v>
+        <v>0.128271</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.13609</v>
+        <v>0.136024</v>
       </c>
       <c r="C90" t="n">
-        <v>0.129592</v>
+        <v>0.129483</v>
       </c>
       <c r="D90" t="n">
-        <v>0.132914</v>
+        <v>0.129968</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.139347</v>
+        <v>0.138032</v>
       </c>
       <c r="C91" t="n">
-        <v>0.134759</v>
+        <v>0.131878</v>
       </c>
       <c r="D91" t="n">
-        <v>0.131823</v>
+        <v>0.13205</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.142777</v>
+        <v>0.141455</v>
       </c>
       <c r="C92" t="n">
-        <v>0.13499</v>
+        <v>0.134908</v>
       </c>
       <c r="D92" t="n">
-        <v>0.141192</v>
+        <v>0.136877</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.14769</v>
+        <v>0.14653</v>
       </c>
       <c r="C93" t="n">
-        <v>0.138908</v>
+        <v>0.141265</v>
       </c>
       <c r="D93" t="n">
-        <v>0.144723</v>
+        <v>0.146023</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.155042</v>
+        <v>0.153697</v>
       </c>
       <c r="C94" t="n">
-        <v>0.148098</v>
+        <v>0.147479</v>
       </c>
       <c r="D94" t="n">
-        <v>0.169279</v>
+        <v>0.173694</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.207877</v>
+        <v>0.207386</v>
       </c>
       <c r="C95" t="n">
-        <v>0.17888</v>
+        <v>0.17688</v>
       </c>
       <c r="D95" t="n">
-        <v>0.166281</v>
+        <v>0.173564</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.198695</v>
+        <v>0.197233</v>
       </c>
       <c r="C96" t="n">
-        <v>0.180741</v>
+        <v>0.178053</v>
       </c>
       <c r="D96" t="n">
-        <v>0.171052</v>
+        <v>0.174096</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.198581</v>
+        <v>0.198255</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181283</v>
+        <v>0.178453</v>
       </c>
       <c r="D97" t="n">
-        <v>0.171513</v>
+        <v>0.175434</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.205686</v>
+        <v>0.197886</v>
       </c>
       <c r="C98" t="n">
-        <v>0.182044</v>
+        <v>0.17859</v>
       </c>
       <c r="D98" t="n">
-        <v>0.172308</v>
+        <v>0.174355</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.199153</v>
+        <v>0.201497</v>
       </c>
       <c r="C99" t="n">
-        <v>0.18195</v>
+        <v>0.177626</v>
       </c>
       <c r="D99" t="n">
-        <v>0.173143</v>
+        <v>0.175674</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.208789</v>
+        <v>0.198616</v>
       </c>
       <c r="C100" t="n">
-        <v>0.182099</v>
+        <v>0.180445</v>
       </c>
       <c r="D100" t="n">
-        <v>0.170602</v>
+        <v>0.178434</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.200137</v>
+        <v>0.199394</v>
       </c>
       <c r="C101" t="n">
-        <v>0.183148</v>
+        <v>0.181848</v>
       </c>
       <c r="D101" t="n">
-        <v>0.176563</v>
+        <v>0.17871</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.200669</v>
+        <v>0.199739</v>
       </c>
       <c r="C102" t="n">
-        <v>0.18427</v>
+        <v>0.180685</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1767</v>
+        <v>0.180914</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.202261</v>
+        <v>0.20072</v>
       </c>
       <c r="C103" t="n">
-        <v>0.185904</v>
+        <v>0.187038</v>
       </c>
       <c r="D103" t="n">
-        <v>0.179472</v>
+        <v>0.181077</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.202902</v>
+        <v>0.212844</v>
       </c>
       <c r="C104" t="n">
-        <v>0.188043</v>
+        <v>0.186007</v>
       </c>
       <c r="D104" t="n">
-        <v>0.181642</v>
+        <v>0.183107</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.204999</v>
+        <v>0.203515</v>
       </c>
       <c r="C105" t="n">
-        <v>0.189582</v>
+        <v>0.188696</v>
       </c>
       <c r="D105" t="n">
-        <v>0.183601</v>
+        <v>0.185454</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.207478</v>
+        <v>0.206174</v>
       </c>
       <c r="C106" t="n">
-        <v>0.193304</v>
+        <v>0.190621</v>
       </c>
       <c r="D106" t="n">
-        <v>0.188424</v>
+        <v>0.189233</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.210776</v>
+        <v>0.210018</v>
       </c>
       <c r="C107" t="n">
-        <v>0.196507</v>
+        <v>0.19478</v>
       </c>
       <c r="D107" t="n">
-        <v>0.193232</v>
+        <v>0.196777</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.215529</v>
+        <v>0.21495</v>
       </c>
       <c r="C108" t="n">
-        <v>0.202586</v>
+        <v>0.19722</v>
       </c>
       <c r="D108" t="n">
-        <v>0.306626</v>
+        <v>0.307402</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.222927</v>
+        <v>0.221898</v>
       </c>
       <c r="C109" t="n">
-        <v>0.208577</v>
+        <v>0.207449</v>
       </c>
       <c r="D109" t="n">
-        <v>0.307964</v>
+        <v>0.308028</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.345138</v>
+        <v>0.346155</v>
       </c>
       <c r="C110" t="n">
-        <v>0.302169</v>
+        <v>0.302089</v>
       </c>
       <c r="D110" t="n">
-        <v>0.309141</v>
+        <v>0.313773</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.345543</v>
+        <v>0.346578</v>
       </c>
       <c r="C111" t="n">
-        <v>0.303185</v>
+        <v>0.306381</v>
       </c>
       <c r="D111" t="n">
-        <v>0.310221</v>
+        <v>0.309884</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.345767</v>
+        <v>0.34663</v>
       </c>
       <c r="C112" t="n">
-        <v>0.303923</v>
+        <v>0.30397</v>
       </c>
       <c r="D112" t="n">
-        <v>0.31185</v>
+        <v>0.311294</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.345991</v>
+        <v>0.34717</v>
       </c>
       <c r="C113" t="n">
-        <v>0.304533</v>
+        <v>0.304945</v>
       </c>
       <c r="D113" t="n">
-        <v>0.312978</v>
+        <v>0.312341</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.345912</v>
+        <v>0.347277</v>
       </c>
       <c r="C114" t="n">
-        <v>0.305841</v>
+        <v>0.305926</v>
       </c>
       <c r="D114" t="n">
-        <v>0.313977</v>
+        <v>0.313865</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.346719</v>
+        <v>0.347392</v>
       </c>
       <c r="C115" t="n">
-        <v>0.306825</v>
+        <v>0.306986</v>
       </c>
       <c r="D115" t="n">
-        <v>0.315679</v>
+        <v>0.316153</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.346783</v>
+        <v>0.348107</v>
       </c>
       <c r="C116" t="n">
-        <v>0.307694</v>
+        <v>0.308134</v>
       </c>
       <c r="D116" t="n">
-        <v>0.317528</v>
+        <v>0.317446</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.347438</v>
+        <v>0.348437</v>
       </c>
       <c r="C117" t="n">
-        <v>0.310606</v>
+        <v>0.30973</v>
       </c>
       <c r="D117" t="n">
-        <v>0.320658</v>
+        <v>0.31951</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.352616</v>
+        <v>0.349481</v>
       </c>
       <c r="C118" t="n">
-        <v>0.312952</v>
+        <v>0.311284</v>
       </c>
       <c r="D118" t="n">
-        <v>0.323995</v>
+        <v>0.321688</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.350111</v>
+        <v>0.350625</v>
       </c>
       <c r="C119" t="n">
-        <v>0.313761</v>
+        <v>0.313161</v>
       </c>
       <c r="D119" t="n">
-        <v>0.324545</v>
+        <v>0.324622</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.354988</v>
+        <v>0.351985</v>
       </c>
       <c r="C120" t="n">
-        <v>0.322071</v>
+        <v>0.315703</v>
       </c>
       <c r="D120" t="n">
-        <v>0.328503</v>
+        <v>0.327901</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.353343</v>
+        <v>0.354349</v>
       </c>
       <c r="C121" t="n">
-        <v>0.319386</v>
+        <v>0.319087</v>
       </c>
       <c r="D121" t="n">
-        <v>0.333844</v>
+        <v>0.332751</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.356329</v>
+        <v>0.358147</v>
       </c>
       <c r="C122" t="n">
-        <v>0.324054</v>
+        <v>0.324102</v>
       </c>
       <c r="D122" t="n">
-        <v>0.34103</v>
+        <v>0.340106</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.361649</v>
+        <v>0.363642</v>
       </c>
       <c r="C123" t="n">
-        <v>0.331133</v>
+        <v>0.331227</v>
       </c>
       <c r="D123" t="n">
-        <v>0.37899</v>
+        <v>0.376266</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.45696</v>
+        <v>0.456688</v>
       </c>
       <c r="C124" t="n">
-        <v>0.346307</v>
+        <v>0.348463</v>
       </c>
       <c r="D124" t="n">
-        <v>0.37817</v>
+        <v>0.377884</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.457059</v>
+        <v>0.457147</v>
       </c>
       <c r="C125" t="n">
-        <v>0.347813</v>
+        <v>0.348983</v>
       </c>
       <c r="D125" t="n">
-        <v>0.379817</v>
+        <v>0.380233</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.456867</v>
+        <v>0.466698</v>
       </c>
       <c r="C126" t="n">
-        <v>0.349768</v>
+        <v>0.349723</v>
       </c>
       <c r="D126" t="n">
-        <v>0.38217</v>
+        <v>0.382147</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.457815</v>
+        <v>0.456877</v>
       </c>
       <c r="C127" t="n">
-        <v>0.35009</v>
+        <v>0.350555</v>
       </c>
       <c r="D127" t="n">
-        <v>0.384672</v>
+        <v>0.385134</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.457749</v>
+        <v>0.457185</v>
       </c>
       <c r="C128" t="n">
-        <v>0.352517</v>
+        <v>0.352011</v>
       </c>
       <c r="D128" t="n">
-        <v>0.38836</v>
+        <v>0.387921</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.458863</v>
+        <v>0.457931</v>
       </c>
       <c r="C129" t="n">
-        <v>0.353302</v>
+        <v>0.362745</v>
       </c>
       <c r="D129" t="n">
-        <v>0.393366</v>
+        <v>0.390326</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.45849</v>
+        <v>0.457977</v>
       </c>
       <c r="C130" t="n">
-        <v>0.353384</v>
+        <v>0.354426</v>
       </c>
       <c r="D130" t="n">
-        <v>0.393243</v>
+        <v>0.393714</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.458941</v>
+        <v>0.458771</v>
       </c>
       <c r="C131" t="n">
-        <v>0.355317</v>
+        <v>0.35608</v>
       </c>
       <c r="D131" t="n">
-        <v>0.396738</v>
+        <v>0.396824</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.459571</v>
+        <v>0.459212</v>
       </c>
       <c r="C132" t="n">
-        <v>0.358307</v>
+        <v>0.358451</v>
       </c>
       <c r="D132" t="n">
-        <v>0.40027</v>
+        <v>0.401221</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.460984</v>
+        <v>0.461907</v>
       </c>
       <c r="C133" t="n">
-        <v>0.360799</v>
+        <v>0.360711</v>
       </c>
       <c r="D133" t="n">
-        <v>0.404575</v>
+        <v>0.408958</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.461952</v>
+        <v>0.46519</v>
       </c>
       <c r="C134" t="n">
-        <v>0.362924</v>
+        <v>0.364266</v>
       </c>
       <c r="D134" t="n">
-        <v>0.409379</v>
+        <v>0.409841</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.463661</v>
+        <v>0.464149</v>
       </c>
       <c r="C135" t="n">
-        <v>0.366917</v>
+        <v>0.36965</v>
       </c>
       <c r="D135" t="n">
-        <v>0.416063</v>
+        <v>0.420116</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.466835</v>
+        <v>0.466272</v>
       </c>
       <c r="C136" t="n">
-        <v>0.381563</v>
+        <v>0.37339</v>
       </c>
       <c r="D136" t="n">
-        <v>0.424229</v>
+        <v>0.424556</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.47132</v>
+        <v>0.470861</v>
       </c>
       <c r="C137" t="n">
-        <v>0.381266</v>
+        <v>0.381401</v>
       </c>
       <c r="D137" t="n">
-        <v>0.423709</v>
+        <v>0.425053</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.790766</v>
+        <v>0.790639</v>
       </c>
       <c r="C138" t="n">
-        <v>0.372331</v>
+        <v>0.372879</v>
       </c>
       <c r="D138" t="n">
-        <v>0.426153</v>
+        <v>0.426275</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.79066</v>
+        <v>0.792065</v>
       </c>
       <c r="C139" t="n">
-        <v>0.37257</v>
+        <v>0.372957</v>
       </c>
       <c r="D139" t="n">
-        <v>0.428943</v>
+        <v>0.436718</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.790927</v>
+        <v>0.791373</v>
       </c>
       <c r="C140" t="n">
-        <v>0.374029</v>
+        <v>0.37555</v>
       </c>
       <c r="D140" t="n">
-        <v>0.432337</v>
+        <v>0.432101</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.790889</v>
+        <v>0.790713</v>
       </c>
       <c r="C141" t="n">
-        <v>0.375105</v>
+        <v>0.374669</v>
       </c>
       <c r="D141" t="n">
-        <v>0.434759</v>
+        <v>0.435318</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.791639</v>
+        <v>0.792685</v>
       </c>
       <c r="C142" t="n">
-        <v>0.383321</v>
+        <v>0.375856</v>
       </c>
       <c r="D142" t="n">
-        <v>0.447445</v>
+        <v>0.437866</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.793504</v>
+        <v>0.791563</v>
       </c>
       <c r="C143" t="n">
-        <v>0.377648</v>
+        <v>0.377608</v>
       </c>
       <c r="D143" t="n">
-        <v>0.441249</v>
+        <v>0.441546</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.105948</v>
+        <v>0.0629941</v>
       </c>
       <c r="C2" t="n">
-        <v>0.111948</v>
+        <v>0.067011</v>
       </c>
       <c r="D2" t="n">
-        <v>0.110448</v>
+        <v>0.0670105</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.107442</v>
+        <v>0.0636635</v>
       </c>
       <c r="C3" t="n">
-        <v>0.113274</v>
+        <v>0.06774529999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.111358</v>
+        <v>0.0675714</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.108322</v>
+        <v>0.0647022</v>
       </c>
       <c r="C4" t="n">
-        <v>0.114164</v>
+        <v>0.0681215</v>
       </c>
       <c r="D4" t="n">
-        <v>0.113241</v>
+        <v>0.0679458</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.11009</v>
+        <v>0.06512370000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.115701</v>
+        <v>0.0682682</v>
       </c>
       <c r="D5" t="n">
-        <v>0.11483</v>
+        <v>0.0683903</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.112409</v>
+        <v>0.0658411</v>
       </c>
       <c r="C6" t="n">
-        <v>0.116962</v>
+        <v>0.0691534</v>
       </c>
       <c r="D6" t="n">
-        <v>0.117086</v>
+        <v>0.06874420000000001</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.115097</v>
+        <v>0.0666919</v>
       </c>
       <c r="C7" t="n">
-        <v>0.119645</v>
+        <v>0.06989380000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.119033</v>
+        <v>0.0689765</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.118225</v>
+        <v>0.0688781</v>
       </c>
       <c r="C8" t="n">
-        <v>0.120967</v>
+        <v>0.0702236</v>
       </c>
       <c r="D8" t="n">
-        <v>0.123331</v>
+        <v>0.07057629999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.121322</v>
+        <v>0.07164760000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.122499</v>
+        <v>0.07182860000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1096</v>
+        <v>0.0659265</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.106092</v>
+        <v>0.06253160000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.109272</v>
+        <v>0.06571490000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.109602</v>
+        <v>0.0661181</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.106584</v>
+        <v>0.0629136</v>
       </c>
       <c r="C11" t="n">
-        <v>0.110178</v>
+        <v>0.066097</v>
       </c>
       <c r="D11" t="n">
-        <v>0.110024</v>
+        <v>0.06666710000000001</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.106827</v>
+        <v>0.0634435</v>
       </c>
       <c r="C12" t="n">
-        <v>0.110668</v>
+        <v>0.0664462</v>
       </c>
       <c r="D12" t="n">
-        <v>0.109872</v>
+        <v>0.0666361</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.107414</v>
+        <v>0.0636861</v>
       </c>
       <c r="C13" t="n">
-        <v>0.111393</v>
+        <v>0.066313</v>
       </c>
       <c r="D13" t="n">
-        <v>0.110909</v>
+        <v>0.0668224</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.108707</v>
+        <v>0.0641906</v>
       </c>
       <c r="C14" t="n">
-        <v>0.112029</v>
+        <v>0.06692149999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.11145</v>
+        <v>0.0676489</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.109467</v>
+        <v>0.0650598</v>
       </c>
       <c r="C15" t="n">
-        <v>0.113069</v>
+        <v>0.06776020000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.112216</v>
+        <v>0.0681872</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.110544</v>
+        <v>0.0658165</v>
       </c>
       <c r="C16" t="n">
-        <v>0.113925</v>
+        <v>0.06811109999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.113188</v>
+        <v>0.0685873</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.110975</v>
+        <v>0.0664966</v>
       </c>
       <c r="C17" t="n">
-        <v>0.115197</v>
+        <v>0.0688135</v>
       </c>
       <c r="D17" t="n">
-        <v>0.115108</v>
+        <v>0.0693347</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.112793</v>
+        <v>0.0675118</v>
       </c>
       <c r="C18" t="n">
-        <v>0.116597</v>
+        <v>0.0694829</v>
       </c>
       <c r="D18" t="n">
-        <v>0.116027</v>
+        <v>0.06965010000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.115515</v>
+        <v>0.0682861</v>
       </c>
       <c r="C19" t="n">
-        <v>0.118128</v>
+        <v>0.07019</v>
       </c>
       <c r="D19" t="n">
-        <v>0.117943</v>
+        <v>0.0710832</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.116945</v>
+        <v>0.06985959999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.119044</v>
+        <v>0.0713102</v>
       </c>
       <c r="D20" t="n">
-        <v>0.120343</v>
+        <v>0.07151399999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.119203</v>
+        <v>0.0714371</v>
       </c>
       <c r="C21" t="n">
-        <v>0.121356</v>
+        <v>0.0724756</v>
       </c>
       <c r="D21" t="n">
-        <v>0.122984</v>
+        <v>0.0730817</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.123114</v>
+        <v>0.0746346</v>
       </c>
       <c r="C22" t="n">
-        <v>0.122936</v>
+        <v>0.07471360000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.128024</v>
+        <v>0.075863</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.128808</v>
+        <v>0.08052429999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.125958</v>
+        <v>0.07903060000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.111509</v>
+        <v>0.067789</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.110453</v>
+        <v>0.0653439</v>
       </c>
       <c r="C24" t="n">
-        <v>0.111386</v>
+        <v>0.06659900000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.111912</v>
+        <v>0.06812120000000001</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.11073</v>
+        <v>0.0658299</v>
       </c>
       <c r="C25" t="n">
-        <v>0.111928</v>
+        <v>0.0671002</v>
       </c>
       <c r="D25" t="n">
-        <v>0.112478</v>
+        <v>0.0683984</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.111176</v>
+        <v>0.0657809</v>
       </c>
       <c r="C26" t="n">
-        <v>0.112843</v>
+        <v>0.0676906</v>
       </c>
       <c r="D26" t="n">
-        <v>0.112976</v>
+        <v>0.06894790000000001</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.111624</v>
+        <v>0.0661711</v>
       </c>
       <c r="C27" t="n">
-        <v>0.113359</v>
+        <v>0.0682266</v>
       </c>
       <c r="D27" t="n">
-        <v>0.114012</v>
+        <v>0.0693843</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.111724</v>
+        <v>0.0663789</v>
       </c>
       <c r="C28" t="n">
-        <v>0.114163</v>
+        <v>0.068977</v>
       </c>
       <c r="D28" t="n">
-        <v>0.114215</v>
+        <v>0.069922</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.113255</v>
+        <v>0.06702329999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.114979</v>
+        <v>0.0697609</v>
       </c>
       <c r="D29" t="n">
-        <v>0.115612</v>
+        <v>0.07027659999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.113463</v>
+        <v>0.0677156</v>
       </c>
       <c r="C30" t="n">
-        <v>0.115485</v>
+        <v>0.070494</v>
       </c>
       <c r="D30" t="n">
-        <v>0.116105</v>
+        <v>0.0711866</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.114982</v>
+        <v>0.0686616</v>
       </c>
       <c r="C31" t="n">
-        <v>0.116734</v>
+        <v>0.07106560000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.117259</v>
+        <v>0.0717397</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.115725</v>
+        <v>0.0697929</v>
       </c>
       <c r="C32" t="n">
-        <v>0.117753</v>
+        <v>0.07188600000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.117815</v>
+        <v>0.0727642</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.116899</v>
+        <v>0.07060139999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.119195</v>
+        <v>0.0726902</v>
       </c>
       <c r="D33" t="n">
-        <v>0.119894</v>
+        <v>0.0732941</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.118957</v>
+        <v>0.072242</v>
       </c>
       <c r="C34" t="n">
-        <v>0.120687</v>
+        <v>0.0741578</v>
       </c>
       <c r="D34" t="n">
-        <v>0.122343</v>
+        <v>0.07478319999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.121953</v>
+        <v>0.0742077</v>
       </c>
       <c r="C35" t="n">
-        <v>0.122877</v>
+        <v>0.0757283</v>
       </c>
       <c r="D35" t="n">
-        <v>0.125563</v>
+        <v>0.0775671</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.126023</v>
+        <v>0.0780892</v>
       </c>
       <c r="C36" t="n">
-        <v>0.125621</v>
+        <v>0.0788377</v>
       </c>
       <c r="D36" t="n">
-        <v>0.131327</v>
+        <v>0.0836561</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.132437</v>
+        <v>0.08332059999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.12988</v>
+        <v>0.08351989999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.112946</v>
+        <v>0.0687118</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.113791</v>
+        <v>0.0678624</v>
       </c>
       <c r="C38" t="n">
-        <v>0.112475</v>
+        <v>0.06782539999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.113494</v>
+        <v>0.0690706</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.114006</v>
+        <v>0.0682353</v>
       </c>
       <c r="C39" t="n">
-        <v>0.113051</v>
+        <v>0.0682907</v>
       </c>
       <c r="D39" t="n">
-        <v>0.113711</v>
+        <v>0.0694487</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.114945</v>
+        <v>0.0686242</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1137</v>
+        <v>0.0688208</v>
       </c>
       <c r="D40" t="n">
-        <v>0.114118</v>
+        <v>0.0698399</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.114764</v>
+        <v>0.06887500000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.114301</v>
+        <v>0.0692199</v>
       </c>
       <c r="D41" t="n">
-        <v>0.114546</v>
+        <v>0.07021570000000001</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.115225</v>
+        <v>0.069207</v>
       </c>
       <c r="C42" t="n">
-        <v>0.115309</v>
+        <v>0.069896</v>
       </c>
       <c r="D42" t="n">
-        <v>0.115179</v>
+        <v>0.0709798</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.115921</v>
+        <v>0.0695832</v>
       </c>
       <c r="C43" t="n">
-        <v>0.115995</v>
+        <v>0.0704704</v>
       </c>
       <c r="D43" t="n">
-        <v>0.115911</v>
+        <v>0.0712531</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.116735</v>
+        <v>0.07025729999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.116732</v>
+        <v>0.0712072</v>
       </c>
       <c r="D44" t="n">
-        <v>0.116568</v>
+        <v>0.0719268</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.11769</v>
+        <v>0.0709984</v>
       </c>
       <c r="C45" t="n">
-        <v>0.117898</v>
+        <v>0.0721053</v>
       </c>
       <c r="D45" t="n">
-        <v>0.117758</v>
+        <v>0.0729027</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.118998</v>
+        <v>0.072147</v>
       </c>
       <c r="C46" t="n">
-        <v>0.119581</v>
+        <v>0.0733138</v>
       </c>
       <c r="D46" t="n">
-        <v>0.119266</v>
+        <v>0.0740407</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.120898</v>
+        <v>0.0736069</v>
       </c>
       <c r="C47" t="n">
-        <v>0.12114</v>
+        <v>0.07465810000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.121509</v>
+        <v>0.07536080000000001</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.123051</v>
+        <v>0.0757159</v>
       </c>
       <c r="C48" t="n">
-        <v>0.122498</v>
+        <v>0.0760567</v>
       </c>
       <c r="D48" t="n">
-        <v>0.123935</v>
+        <v>0.0776708</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.126507</v>
+        <v>0.07862570000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.124963</v>
+        <v>0.0784069</v>
       </c>
       <c r="D49" t="n">
-        <v>0.127888</v>
+        <v>0.0804986</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.130247</v>
+        <v>0.08171340000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.128371</v>
+        <v>0.08140749999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.133434</v>
+        <v>0.0866358</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.136376</v>
+        <v>0.0875775</v>
       </c>
       <c r="C51" t="n">
-        <v>0.132844</v>
+        <v>0.0865142</v>
       </c>
       <c r="D51" t="n">
-        <v>0.114189</v>
+        <v>0.06950870000000001</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.144564</v>
+        <v>0.0957089</v>
       </c>
       <c r="C52" t="n">
-        <v>0.140326</v>
+        <v>0.0936298</v>
       </c>
       <c r="D52" t="n">
-        <v>0.114741</v>
+        <v>0.06977750000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.117109</v>
+        <v>0.06976110000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.115138</v>
+        <v>0.06901740000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.11533</v>
+        <v>0.0699485</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.116998</v>
+        <v>0.07010619999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.115474</v>
+        <v>0.0696172</v>
       </c>
       <c r="D54" t="n">
-        <v>0.115295</v>
+        <v>0.0704335</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.117371</v>
+        <v>0.0705235</v>
       </c>
       <c r="C55" t="n">
-        <v>0.116098</v>
+        <v>0.0701388</v>
       </c>
       <c r="D55" t="n">
-        <v>0.115733</v>
+        <v>0.0707694</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.117968</v>
+        <v>0.0706027</v>
       </c>
       <c r="C56" t="n">
-        <v>0.116799</v>
+        <v>0.0708408</v>
       </c>
       <c r="D56" t="n">
-        <v>0.116602</v>
+        <v>0.0716493</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.118507</v>
+        <v>0.0717496</v>
       </c>
       <c r="C57" t="n">
-        <v>0.117968</v>
+        <v>0.07155400000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.117157</v>
+        <v>0.0719755</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.119492</v>
+        <v>0.0719432</v>
       </c>
       <c r="C58" t="n">
-        <v>0.118717</v>
+        <v>0.0722319</v>
       </c>
       <c r="D58" t="n">
-        <v>0.118002</v>
+        <v>0.072615</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.120241</v>
+        <v>0.0727155</v>
       </c>
       <c r="C59" t="n">
-        <v>0.119635</v>
+        <v>0.0730724</v>
       </c>
       <c r="D59" t="n">
-        <v>0.11923</v>
+        <v>0.0735412</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.121583</v>
+        <v>0.074207</v>
       </c>
       <c r="C60" t="n">
-        <v>0.121175</v>
+        <v>0.0743817</v>
       </c>
       <c r="D60" t="n">
-        <v>0.120539</v>
+        <v>0.0745648</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.123794</v>
+        <v>0.07531599999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.122354</v>
+        <v>0.07564650000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.122672</v>
+        <v>0.0763141</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.126019</v>
+        <v>0.07728989999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.124311</v>
+        <v>0.07730670000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.125203</v>
+        <v>0.0787672</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.128752</v>
+        <v>0.0802171</v>
       </c>
       <c r="C63" t="n">
-        <v>0.127058</v>
+        <v>0.0796055</v>
       </c>
       <c r="D63" t="n">
-        <v>0.129083</v>
+        <v>0.0823285</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.132801</v>
+        <v>0.0839674</v>
       </c>
       <c r="C64" t="n">
-        <v>0.130261</v>
+        <v>0.0830688</v>
       </c>
       <c r="D64" t="n">
-        <v>0.135142</v>
+        <v>0.0871881</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.138454</v>
+        <v>0.0890082</v>
       </c>
       <c r="C65" t="n">
-        <v>0.135099</v>
+        <v>0.0878559</v>
       </c>
       <c r="D65" t="n">
-        <v>0.143826</v>
+        <v>0.0953909</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.147285</v>
+        <v>0.0966863</v>
       </c>
       <c r="C66" t="n">
-        <v>0.142033</v>
+        <v>0.0949648</v>
       </c>
       <c r="D66" t="n">
-        <v>0.115149</v>
+        <v>0.0706889</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.120493</v>
+        <v>0.0726706</v>
       </c>
       <c r="C67" t="n">
-        <v>0.11545</v>
+        <v>0.06979680000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.115171</v>
+        <v>0.0704777</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.12063</v>
+        <v>0.07305689999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.116144</v>
+        <v>0.07022</v>
       </c>
       <c r="D68" t="n">
-        <v>0.115598</v>
+        <v>0.0707407</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.12083</v>
+        <v>0.07288310000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.116938</v>
+        <v>0.0706765</v>
       </c>
       <c r="D69" t="n">
-        <v>0.116178</v>
+        <v>0.0710211</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.122233</v>
+        <v>0.0730425</v>
       </c>
       <c r="C70" t="n">
-        <v>0.117754</v>
+        <v>0.0712293</v>
       </c>
       <c r="D70" t="n">
-        <v>0.116868</v>
+        <v>0.0714627</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.122012</v>
+        <v>0.0739932</v>
       </c>
       <c r="C71" t="n">
-        <v>0.118286</v>
+        <v>0.07213079999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.117519</v>
+        <v>0.0720401</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.123515</v>
+        <v>0.0744541</v>
       </c>
       <c r="C72" t="n">
-        <v>0.119641</v>
+        <v>0.07273979999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.118735</v>
+        <v>0.0729741</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.123739</v>
+        <v>0.0755099</v>
       </c>
       <c r="C73" t="n">
-        <v>0.120374</v>
+        <v>0.0737457</v>
       </c>
       <c r="D73" t="n">
-        <v>0.119575</v>
+        <v>0.0736018</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.125491</v>
+        <v>0.0763482</v>
       </c>
       <c r="C74" t="n">
-        <v>0.121686</v>
+        <v>0.074696</v>
       </c>
       <c r="D74" t="n">
-        <v>0.121088</v>
+        <v>0.07485070000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.127395</v>
+        <v>0.0779199</v>
       </c>
       <c r="C75" t="n">
-        <v>0.123293</v>
+        <v>0.07593850000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.122913</v>
+        <v>0.07648430000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.128954</v>
+        <v>0.08006000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.125314</v>
+        <v>0.0778548</v>
       </c>
       <c r="D76" t="n">
-        <v>0.125892</v>
+        <v>0.07867730000000001</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.131913</v>
+        <v>0.08263230000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.127564</v>
+        <v>0.07997750000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.129406</v>
+        <v>0.0819708</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.135752</v>
+        <v>0.08616269999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.131179</v>
+        <v>0.0831157</v>
       </c>
       <c r="D78" t="n">
-        <v>0.134669</v>
+        <v>0.0869471</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.141329</v>
+        <v>0.0909824</v>
       </c>
       <c r="C79" t="n">
-        <v>0.136037</v>
+        <v>0.0877887</v>
       </c>
       <c r="D79" t="n">
-        <v>0.142906</v>
+        <v>0.09430139999999999</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.148884</v>
+        <v>0.098094</v>
       </c>
       <c r="C80" t="n">
-        <v>0.142847</v>
+        <v>0.0938007</v>
       </c>
       <c r="D80" t="n">
-        <v>0.120336</v>
+        <v>0.0744131</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.127356</v>
+        <v>0.0776792</v>
       </c>
       <c r="C81" t="n">
-        <v>0.122841</v>
+        <v>0.0747717</v>
       </c>
       <c r="D81" t="n">
-        <v>0.120371</v>
+        <v>0.0720698</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.127692</v>
+        <v>0.0780286</v>
       </c>
       <c r="C82" t="n">
-        <v>0.124275</v>
+        <v>0.0752299</v>
       </c>
       <c r="D82" t="n">
-        <v>0.119326</v>
+        <v>0.0753954</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.128058</v>
+        <v>0.07810300000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>0.123961</v>
+        <v>0.0737387</v>
       </c>
       <c r="D83" t="n">
-        <v>0.119981</v>
+        <v>0.0728019</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.128728</v>
+        <v>0.07865320000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.121561</v>
+        <v>0.0766366</v>
       </c>
       <c r="D84" t="n">
-        <v>0.122632</v>
+        <v>0.0736974</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.128936</v>
+        <v>0.07892929999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.123365</v>
+        <v>0.0777728</v>
       </c>
       <c r="D85" t="n">
-        <v>0.121352</v>
+        <v>0.0739799</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.129547</v>
+        <v>0.0800864</v>
       </c>
       <c r="C86" t="n">
-        <v>0.124094</v>
+        <v>0.07811510000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.122165</v>
+        <v>0.0745309</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.130421</v>
+        <v>0.0803222</v>
       </c>
       <c r="C87" t="n">
-        <v>0.127591</v>
+        <v>0.0763411</v>
       </c>
       <c r="D87" t="n">
-        <v>0.124291</v>
+        <v>0.0768765</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.132457</v>
+        <v>0.0813444</v>
       </c>
       <c r="C88" t="n">
-        <v>0.126804</v>
+        <v>0.0804945</v>
       </c>
       <c r="D88" t="n">
-        <v>0.125683</v>
+        <v>0.0781188</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.133268</v>
+        <v>0.0828187</v>
       </c>
       <c r="C89" t="n">
-        <v>0.129849</v>
+        <v>0.0815903</v>
       </c>
       <c r="D89" t="n">
-        <v>0.128271</v>
+        <v>0.07818650000000001</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.136024</v>
+        <v>0.08450539999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.129483</v>
+        <v>0.0805367</v>
       </c>
       <c r="D90" t="n">
-        <v>0.129968</v>
+        <v>0.0804353</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.138032</v>
+        <v>0.0870607</v>
       </c>
       <c r="C91" t="n">
-        <v>0.131878</v>
+        <v>0.0853207</v>
       </c>
       <c r="D91" t="n">
-        <v>0.13205</v>
+        <v>0.08395900000000001</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.141455</v>
+        <v>0.0906865</v>
       </c>
       <c r="C92" t="n">
-        <v>0.134908</v>
+        <v>0.0863351</v>
       </c>
       <c r="D92" t="n">
-        <v>0.136877</v>
+        <v>0.08813459999999999</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.14653</v>
+        <v>0.0951293</v>
       </c>
       <c r="C93" t="n">
-        <v>0.141265</v>
+        <v>0.0898375</v>
       </c>
       <c r="D93" t="n">
-        <v>0.146023</v>
+        <v>0.096344</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.153697</v>
+        <v>0.101795</v>
       </c>
       <c r="C94" t="n">
-        <v>0.147479</v>
+        <v>0.0972206</v>
       </c>
       <c r="D94" t="n">
-        <v>0.173694</v>
+        <v>0.114437</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.207386</v>
+        <v>0.140467</v>
       </c>
       <c r="C95" t="n">
-        <v>0.17688</v>
+        <v>0.117707</v>
       </c>
       <c r="D95" t="n">
-        <v>0.173564</v>
+        <v>0.115112</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.197233</v>
+        <v>0.132591</v>
       </c>
       <c r="C96" t="n">
-        <v>0.178053</v>
+        <v>0.118217</v>
       </c>
       <c r="D96" t="n">
-        <v>0.174096</v>
+        <v>0.115452</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.198255</v>
+        <v>0.132744</v>
       </c>
       <c r="C97" t="n">
-        <v>0.178453</v>
+        <v>0.118634</v>
       </c>
       <c r="D97" t="n">
-        <v>0.175434</v>
+        <v>0.116041</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.197886</v>
+        <v>0.133354</v>
       </c>
       <c r="C98" t="n">
-        <v>0.17859</v>
+        <v>0.119087</v>
       </c>
       <c r="D98" t="n">
-        <v>0.174355</v>
+        <v>0.116772</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.201497</v>
+        <v>0.132941</v>
       </c>
       <c r="C99" t="n">
-        <v>0.177626</v>
+        <v>0.121942</v>
       </c>
       <c r="D99" t="n">
-        <v>0.175674</v>
+        <v>0.116976</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.198616</v>
+        <v>0.133336</v>
       </c>
       <c r="C100" t="n">
-        <v>0.180445</v>
+        <v>0.121375</v>
       </c>
       <c r="D100" t="n">
-        <v>0.178434</v>
+        <v>0.118334</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.199394</v>
+        <v>0.134006</v>
       </c>
       <c r="C101" t="n">
-        <v>0.181848</v>
+        <v>0.120976</v>
       </c>
       <c r="D101" t="n">
-        <v>0.17871</v>
+        <v>0.119094</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.199739</v>
+        <v>0.134616</v>
       </c>
       <c r="C102" t="n">
-        <v>0.180685</v>
+        <v>0.122294</v>
       </c>
       <c r="D102" t="n">
-        <v>0.180914</v>
+        <v>0.120123</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.20072</v>
+        <v>0.135313</v>
       </c>
       <c r="C103" t="n">
-        <v>0.187038</v>
+        <v>0.123535</v>
       </c>
       <c r="D103" t="n">
-        <v>0.181077</v>
+        <v>0.12318</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.212844</v>
+        <v>0.13627</v>
       </c>
       <c r="C104" t="n">
-        <v>0.186007</v>
+        <v>0.126714</v>
       </c>
       <c r="D104" t="n">
-        <v>0.183107</v>
+        <v>0.123694</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.203515</v>
+        <v>0.138253</v>
       </c>
       <c r="C105" t="n">
-        <v>0.188696</v>
+        <v>0.126664</v>
       </c>
       <c r="D105" t="n">
-        <v>0.185454</v>
+        <v>0.126883</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.206174</v>
+        <v>0.140111</v>
       </c>
       <c r="C106" t="n">
-        <v>0.190621</v>
+        <v>0.129952</v>
       </c>
       <c r="D106" t="n">
-        <v>0.189233</v>
+        <v>0.131069</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.210018</v>
+        <v>0.143595</v>
       </c>
       <c r="C107" t="n">
-        <v>0.19478</v>
+        <v>0.132047</v>
       </c>
       <c r="D107" t="n">
-        <v>0.196777</v>
+        <v>0.134661</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.21495</v>
+        <v>0.148563</v>
       </c>
       <c r="C108" t="n">
-        <v>0.19722</v>
+        <v>0.136707</v>
       </c>
       <c r="D108" t="n">
-        <v>0.307402</v>
+        <v>0.211562</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.221898</v>
+        <v>0.154776</v>
       </c>
       <c r="C109" t="n">
-        <v>0.207449</v>
+        <v>0.143296</v>
       </c>
       <c r="D109" t="n">
-        <v>0.308028</v>
+        <v>0.212314</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.346155</v>
+        <v>0.241484</v>
       </c>
       <c r="C110" t="n">
-        <v>0.302089</v>
+        <v>0.204892</v>
       </c>
       <c r="D110" t="n">
-        <v>0.313773</v>
+        <v>0.213066</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.346578</v>
+        <v>0.240265</v>
       </c>
       <c r="C111" t="n">
-        <v>0.306381</v>
+        <v>0.205211</v>
       </c>
       <c r="D111" t="n">
-        <v>0.309884</v>
+        <v>0.21385</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.34663</v>
+        <v>0.240398</v>
       </c>
       <c r="C112" t="n">
-        <v>0.30397</v>
+        <v>0.205985</v>
       </c>
       <c r="D112" t="n">
-        <v>0.311294</v>
+        <v>0.214602</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.34717</v>
+        <v>0.240624</v>
       </c>
       <c r="C113" t="n">
-        <v>0.304945</v>
+        <v>0.20657</v>
       </c>
       <c r="D113" t="n">
-        <v>0.312341</v>
+        <v>0.215615</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.347277</v>
+        <v>0.244236</v>
       </c>
       <c r="C114" t="n">
-        <v>0.305926</v>
+        <v>0.207408</v>
       </c>
       <c r="D114" t="n">
-        <v>0.313865</v>
+        <v>0.21703</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.347392</v>
+        <v>0.241077</v>
       </c>
       <c r="C115" t="n">
-        <v>0.306986</v>
+        <v>0.208418</v>
       </c>
       <c r="D115" t="n">
-        <v>0.316153</v>
+        <v>0.218025</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.348107</v>
+        <v>0.241218</v>
       </c>
       <c r="C116" t="n">
-        <v>0.308134</v>
+        <v>0.209294</v>
       </c>
       <c r="D116" t="n">
-        <v>0.317446</v>
+        <v>0.219467</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.348437</v>
+        <v>0.242123</v>
       </c>
       <c r="C117" t="n">
-        <v>0.30973</v>
+        <v>0.210381</v>
       </c>
       <c r="D117" t="n">
-        <v>0.31951</v>
+        <v>0.221086</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.349481</v>
+        <v>0.242413</v>
       </c>
       <c r="C118" t="n">
-        <v>0.311284</v>
+        <v>0.211534</v>
       </c>
       <c r="D118" t="n">
-        <v>0.321688</v>
+        <v>0.222905</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.350625</v>
+        <v>0.244794</v>
       </c>
       <c r="C119" t="n">
-        <v>0.313161</v>
+        <v>0.213364</v>
       </c>
       <c r="D119" t="n">
-        <v>0.324622</v>
+        <v>0.225325</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.351985</v>
+        <v>0.244896</v>
       </c>
       <c r="C120" t="n">
-        <v>0.315703</v>
+        <v>0.215693</v>
       </c>
       <c r="D120" t="n">
-        <v>0.327901</v>
+        <v>0.228518</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.354349</v>
+        <v>0.247157</v>
       </c>
       <c r="C121" t="n">
-        <v>0.319087</v>
+        <v>0.218255</v>
       </c>
       <c r="D121" t="n">
-        <v>0.332751</v>
+        <v>0.233182</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.358147</v>
+        <v>0.249845</v>
       </c>
       <c r="C122" t="n">
-        <v>0.324102</v>
+        <v>0.22253</v>
       </c>
       <c r="D122" t="n">
-        <v>0.340106</v>
+        <v>0.23951</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.363642</v>
+        <v>0.254771</v>
       </c>
       <c r="C123" t="n">
-        <v>0.331227</v>
+        <v>0.228902</v>
       </c>
       <c r="D123" t="n">
-        <v>0.376266</v>
+        <v>0.287612</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.456688</v>
+        <v>0.459233</v>
       </c>
       <c r="C124" t="n">
-        <v>0.348463</v>
+        <v>0.236148</v>
       </c>
       <c r="D124" t="n">
-        <v>0.377884</v>
+        <v>0.263873</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.457147</v>
+        <v>0.459024</v>
       </c>
       <c r="C125" t="n">
-        <v>0.348983</v>
+        <v>0.236912</v>
       </c>
       <c r="D125" t="n">
-        <v>0.380233</v>
+        <v>0.265433</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.466698</v>
+        <v>0.459315</v>
       </c>
       <c r="C126" t="n">
-        <v>0.349723</v>
+        <v>0.237612</v>
       </c>
       <c r="D126" t="n">
-        <v>0.382147</v>
+        <v>0.267656</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.456877</v>
+        <v>0.459342</v>
       </c>
       <c r="C127" t="n">
-        <v>0.350555</v>
+        <v>0.237296</v>
       </c>
       <c r="D127" t="n">
-        <v>0.385134</v>
+        <v>0.269552</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.457185</v>
+        <v>0.459441</v>
       </c>
       <c r="C128" t="n">
-        <v>0.352011</v>
+        <v>0.239298</v>
       </c>
       <c r="D128" t="n">
-        <v>0.387921</v>
+        <v>0.271373</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.457931</v>
+        <v>0.459889</v>
       </c>
       <c r="C129" t="n">
-        <v>0.362745</v>
+        <v>0.240139</v>
       </c>
       <c r="D129" t="n">
-        <v>0.390326</v>
+        <v>0.27441</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.457977</v>
+        <v>0.460823</v>
       </c>
       <c r="C130" t="n">
-        <v>0.354426</v>
+        <v>0.241295</v>
       </c>
       <c r="D130" t="n">
-        <v>0.393714</v>
+        <v>0.276308</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.458771</v>
+        <v>0.460762</v>
       </c>
       <c r="C131" t="n">
-        <v>0.35608</v>
+        <v>0.242434</v>
       </c>
       <c r="D131" t="n">
-        <v>0.396824</v>
+        <v>0.278252</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.459212</v>
+        <v>0.460962</v>
       </c>
       <c r="C132" t="n">
-        <v>0.358451</v>
+        <v>0.244359</v>
       </c>
       <c r="D132" t="n">
-        <v>0.401221</v>
+        <v>0.281148</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.461907</v>
+        <v>0.460582</v>
       </c>
       <c r="C133" t="n">
-        <v>0.360711</v>
+        <v>0.246402</v>
       </c>
       <c r="D133" t="n">
-        <v>0.408958</v>
+        <v>0.284666</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.46519</v>
+        <v>0.410418</v>
       </c>
       <c r="C134" t="n">
-        <v>0.364266</v>
+        <v>0.248889</v>
       </c>
       <c r="D134" t="n">
-        <v>0.409841</v>
+        <v>0.289033</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.464149</v>
+        <v>0.389672</v>
       </c>
       <c r="C135" t="n">
-        <v>0.36965</v>
+        <v>0.252163</v>
       </c>
       <c r="D135" t="n">
-        <v>0.420116</v>
+        <v>0.294881</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.466272</v>
+        <v>0.383734</v>
       </c>
       <c r="C136" t="n">
-        <v>0.37339</v>
+        <v>0.257213</v>
       </c>
       <c r="D136" t="n">
-        <v>0.424556</v>
+        <v>0.301048</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.470861</v>
+        <v>0.388631</v>
       </c>
       <c r="C137" t="n">
-        <v>0.381401</v>
+        <v>0.269234</v>
       </c>
       <c r="D137" t="n">
-        <v>0.425053</v>
+        <v>0.298576</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.790639</v>
+        <v>0.560382</v>
       </c>
       <c r="C138" t="n">
-        <v>0.372879</v>
+        <v>0.255277</v>
       </c>
       <c r="D138" t="n">
-        <v>0.426275</v>
+        <v>0.301096</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.792065</v>
+        <v>0.547776</v>
       </c>
       <c r="C139" t="n">
-        <v>0.372957</v>
+        <v>0.256806</v>
       </c>
       <c r="D139" t="n">
-        <v>0.436718</v>
+        <v>0.303113</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.791373</v>
+        <v>0.547461</v>
       </c>
       <c r="C140" t="n">
-        <v>0.37555</v>
+        <v>0.2561</v>
       </c>
       <c r="D140" t="n">
-        <v>0.432101</v>
+        <v>0.304861</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.790713</v>
+        <v>0.547167</v>
       </c>
       <c r="C141" t="n">
-        <v>0.374669</v>
+        <v>0.256866</v>
       </c>
       <c r="D141" t="n">
-        <v>0.435318</v>
+        <v>0.307032</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.792685</v>
+        <v>0.547547</v>
       </c>
       <c r="C142" t="n">
-        <v>0.375856</v>
+        <v>0.257648</v>
       </c>
       <c r="D142" t="n">
-        <v>0.437866</v>
+        <v>0.309313</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.791563</v>
+        <v>0.547798</v>
       </c>
       <c r="C143" t="n">
-        <v>0.377608</v>
+        <v>0.258794</v>
       </c>
       <c r="D143" t="n">
-        <v>0.441546</v>
+        <v>0.311806</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0629941</v>
+        <v>0.0628358</v>
       </c>
       <c r="C2" t="n">
-        <v>0.067011</v>
+        <v>0.0685982</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0670105</v>
+        <v>0.0682878</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0636635</v>
+        <v>0.0639101</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06774529999999999</v>
+        <v>0.06906420000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0675714</v>
+        <v>0.0686991</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0647022</v>
+        <v>0.0645519</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0681215</v>
+        <v>0.0694105</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0679458</v>
+        <v>0.0693699</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06512370000000001</v>
+        <v>0.06541660000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0682682</v>
+        <v>0.0695069</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0683903</v>
+        <v>0.0695269</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0658411</v>
+        <v>0.06615310000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0691534</v>
+        <v>0.06983010000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06874420000000001</v>
+        <v>0.07049270000000001</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0666919</v>
+        <v>0.068158</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06989380000000001</v>
+        <v>0.07037400000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0689765</v>
+        <v>0.07088120000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0688781</v>
+        <v>0.0701315</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0702236</v>
+        <v>0.0701721</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07057629999999999</v>
+        <v>0.07230250000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07164760000000001</v>
+        <v>0.074713</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07182860000000001</v>
+        <v>0.07029580000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0659265</v>
+        <v>0.0681498</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.06253160000000001</v>
+        <v>0.0623197</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06571490000000001</v>
+        <v>0.06979539999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0661181</v>
+        <v>0.06852519999999999</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0629136</v>
+        <v>0.0626857</v>
       </c>
       <c r="C11" t="n">
-        <v>0.066097</v>
+        <v>0.07031179999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06666710000000001</v>
+        <v>0.06881420000000001</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0634435</v>
+        <v>0.0627805</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0664462</v>
+        <v>0.0702961</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0666361</v>
+        <v>0.0688641</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0636861</v>
+        <v>0.0632404</v>
       </c>
       <c r="C13" t="n">
-        <v>0.066313</v>
+        <v>0.07031560000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0668224</v>
+        <v>0.06901110000000001</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0641906</v>
+        <v>0.06388919999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06692149999999999</v>
+        <v>0.0711258</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0676489</v>
+        <v>0.0696426</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0650598</v>
+        <v>0.0644733</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06776020000000001</v>
+        <v>0.0713704</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0681872</v>
+        <v>0.070149</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0658165</v>
+        <v>0.0651224</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06811109999999999</v>
+        <v>0.0718897</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0685873</v>
+        <v>0.0705306</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0664966</v>
+        <v>0.0659901</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0688135</v>
+        <v>0.07233299999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0693347</v>
+        <v>0.071238</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0675118</v>
+        <v>0.0669522</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0694829</v>
+        <v>0.0727406</v>
       </c>
       <c r="D18" t="n">
-        <v>0.06965010000000001</v>
+        <v>0.0720773</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0682861</v>
+        <v>0.0681731</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07019</v>
+        <v>0.0733748</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0710832</v>
+        <v>0.07278610000000001</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06985959999999999</v>
+        <v>0.0692065</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0713102</v>
+        <v>0.0739099</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07151399999999999</v>
+        <v>0.0741144</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0714371</v>
+        <v>0.0712846</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0724756</v>
+        <v>0.07445599999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0730817</v>
+        <v>0.075889</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0746346</v>
+        <v>0.0743712</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07471360000000001</v>
+        <v>0.0750952</v>
       </c>
       <c r="D22" t="n">
-        <v>0.075863</v>
+        <v>0.0803751</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.08052429999999999</v>
+        <v>0.0799086</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07903060000000001</v>
+        <v>0.0766862</v>
       </c>
       <c r="D23" t="n">
-        <v>0.067789</v>
+        <v>0.0710672</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0653439</v>
+        <v>0.06512859999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.06659900000000001</v>
+        <v>0.0719045</v>
       </c>
       <c r="D24" t="n">
-        <v>0.06812120000000001</v>
+        <v>0.0711711</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0658299</v>
+        <v>0.0654739</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0671002</v>
+        <v>0.07204969999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0683984</v>
+        <v>0.0711697</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0657809</v>
+        <v>0.06589159999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0676906</v>
+        <v>0.0726639</v>
       </c>
       <c r="D26" t="n">
-        <v>0.06894790000000001</v>
+        <v>0.0716912</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0661711</v>
+        <v>0.066085</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0682266</v>
+        <v>0.07297149999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0693843</v>
+        <v>0.0720563</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0663789</v>
+        <v>0.0666839</v>
       </c>
       <c r="C28" t="n">
-        <v>0.068977</v>
+        <v>0.07381890000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.069922</v>
+        <v>0.0724673</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.06702329999999999</v>
+        <v>0.0670111</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0697609</v>
+        <v>0.07448390000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07027659999999999</v>
+        <v>0.0730277</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0677156</v>
+        <v>0.0679387</v>
       </c>
       <c r="C30" t="n">
-        <v>0.070494</v>
+        <v>0.0751064</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0711866</v>
+        <v>0.07359159999999999</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0686616</v>
+        <v>0.0689684</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07106560000000001</v>
+        <v>0.0755516</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0717397</v>
+        <v>0.07435079999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0697929</v>
+        <v>0.06995759999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07188600000000001</v>
+        <v>0.0761655</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0727642</v>
+        <v>0.0752983</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.07060139999999999</v>
+        <v>0.0711229</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0726902</v>
+        <v>0.07687769999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0732941</v>
+        <v>0.0759037</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.072242</v>
+        <v>0.0727192</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0741578</v>
+        <v>0.0773162</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07478319999999999</v>
+        <v>0.0779856</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0742077</v>
+        <v>0.07533090000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0757283</v>
+        <v>0.0786891</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0775671</v>
+        <v>0.0805766</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0780892</v>
+        <v>0.0795868</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0788377</v>
+        <v>0.08030859999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0836561</v>
+        <v>0.0868481</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08332059999999999</v>
+        <v>0.0853409</v>
       </c>
       <c r="C37" t="n">
-        <v>0.08351989999999999</v>
+        <v>0.0832169</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0687118</v>
+        <v>0.07226390000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0678624</v>
+        <v>0.0677644</v>
       </c>
       <c r="C38" t="n">
-        <v>0.06782539999999999</v>
+        <v>0.0735899</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0690706</v>
+        <v>0.07262739999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0682353</v>
+        <v>0.0683035</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0682907</v>
+        <v>0.0739754</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0694487</v>
+        <v>0.07294059999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0686242</v>
+        <v>0.0683387</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0688208</v>
+        <v>0.0744742</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0698399</v>
+        <v>0.0732423</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.06887500000000001</v>
+        <v>0.0686512</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0692199</v>
+        <v>0.0749483</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07021570000000001</v>
+        <v>0.07355440000000001</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.069207</v>
+        <v>0.0691589</v>
       </c>
       <c r="C42" t="n">
-        <v>0.069896</v>
+        <v>0.07559879999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0709798</v>
+        <v>0.0743133</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0695832</v>
+        <v>0.07007670000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0704704</v>
+        <v>0.0764329</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0712531</v>
+        <v>0.0748798</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07025729999999999</v>
+        <v>0.07045360000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0712072</v>
+        <v>0.0766792</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0719268</v>
+        <v>0.0750622</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0709984</v>
+        <v>0.07143149999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0721053</v>
+        <v>0.0774376</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0729027</v>
+        <v>0.0762046</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.072147</v>
+        <v>0.0726638</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0733138</v>
+        <v>0.07821599999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0740407</v>
+        <v>0.0769475</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0736069</v>
+        <v>0.0738502</v>
       </c>
       <c r="C47" t="n">
-        <v>0.07465810000000001</v>
+        <v>0.07905379999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.07536080000000001</v>
+        <v>0.07865</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0757159</v>
+        <v>0.0762692</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0760567</v>
+        <v>0.080415</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0776708</v>
+        <v>0.0807066</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07862570000000001</v>
+        <v>0.0791219</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0784069</v>
+        <v>0.08196539999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0804986</v>
+        <v>0.08450340000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.08171340000000001</v>
+        <v>0.0835606</v>
       </c>
       <c r="C50" t="n">
-        <v>0.08140749999999999</v>
+        <v>0.08500149999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0866358</v>
+        <v>0.0899599</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0875775</v>
+        <v>0.0893057</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0865142</v>
+        <v>0.0894416</v>
       </c>
       <c r="D51" t="n">
-        <v>0.06950870000000001</v>
+        <v>0.07373109999999999</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0957089</v>
+        <v>0.0971934</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0936298</v>
+        <v>0.0968355</v>
       </c>
       <c r="D52" t="n">
-        <v>0.06977750000000001</v>
+        <v>0.0736689</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06976110000000001</v>
+        <v>0.0696812</v>
       </c>
       <c r="C53" t="n">
-        <v>0.06901740000000001</v>
+        <v>0.0751872</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0699485</v>
+        <v>0.07426530000000001</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.07010619999999999</v>
+        <v>0.0699545</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0696172</v>
+        <v>0.0755258</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0704335</v>
+        <v>0.0739448</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0705235</v>
+        <v>0.0703661</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0701388</v>
+        <v>0.07599889999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0707694</v>
+        <v>0.0742308</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0706027</v>
+        <v>0.0706193</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0708408</v>
+        <v>0.07655960000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0716493</v>
+        <v>0.0746844</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0717496</v>
+        <v>0.0713776</v>
       </c>
       <c r="C57" t="n">
-        <v>0.07155400000000001</v>
+        <v>0.0775787</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0719755</v>
+        <v>0.07569670000000001</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0719432</v>
+        <v>0.0719713</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0722319</v>
+        <v>0.0783715</v>
       </c>
       <c r="D58" t="n">
-        <v>0.072615</v>
+        <v>0.0758354</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0727155</v>
+        <v>0.0729358</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0730724</v>
+        <v>0.0784714</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0735412</v>
+        <v>0.0766308</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.074207</v>
+        <v>0.0737859</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0743817</v>
+        <v>0.0794961</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0745648</v>
+        <v>0.0779368</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.07531599999999999</v>
+        <v>0.0752575</v>
       </c>
       <c r="C61" t="n">
-        <v>0.07564650000000001</v>
+        <v>0.08064499999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0763141</v>
+        <v>0.079956</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.07728989999999999</v>
+        <v>0.07753930000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.07730670000000001</v>
+        <v>0.082012</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0787672</v>
+        <v>0.0819705</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0802171</v>
+        <v>0.0805737</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0796055</v>
+        <v>0.0840287</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0823285</v>
+        <v>0.0853999</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0839674</v>
+        <v>0.0847287</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0830688</v>
+        <v>0.08681079999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0871881</v>
+        <v>0.0905019</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0890082</v>
+        <v>0.0904288</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0878559</v>
+        <v>0.0912671</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0953909</v>
+        <v>0.0983738</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0966863</v>
+        <v>0.09828820000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0949648</v>
+        <v>0.0980809</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0706889</v>
+        <v>0.07518610000000001</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0726706</v>
+        <v>0.0724365</v>
       </c>
       <c r="C67" t="n">
-        <v>0.06979680000000001</v>
+        <v>0.0779765</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0704777</v>
+        <v>0.075598</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.07305689999999999</v>
+        <v>0.0722638</v>
       </c>
       <c r="C68" t="n">
-        <v>0.07022</v>
+        <v>0.07785110000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0707407</v>
+        <v>0.07617409999999999</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.07288310000000001</v>
+        <v>0.0730716</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0706765</v>
+        <v>0.07879899999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0710211</v>
+        <v>0.07643899999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0730425</v>
+        <v>0.073159</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0712293</v>
+        <v>0.0791285</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0714627</v>
+        <v>0.0768355</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0739932</v>
+        <v>0.07363649999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.07213079999999999</v>
+        <v>0.0796828</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0720401</v>
+        <v>0.0769826</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0744541</v>
+        <v>0.074283</v>
       </c>
       <c r="C72" t="n">
-        <v>0.07273979999999999</v>
+        <v>0.08010929999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0729741</v>
+        <v>0.07770539999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0755099</v>
+        <v>0.0752266</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0737457</v>
+        <v>0.0808966</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0736018</v>
+        <v>0.0784788</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0763482</v>
+        <v>0.076114</v>
       </c>
       <c r="C74" t="n">
-        <v>0.074696</v>
+        <v>0.0821926</v>
       </c>
       <c r="D74" t="n">
-        <v>0.07485070000000001</v>
+        <v>0.0795597</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0779199</v>
+        <v>0.07771790000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.07593850000000001</v>
+        <v>0.0833631</v>
       </c>
       <c r="D75" t="n">
-        <v>0.07648430000000001</v>
+        <v>0.08121059999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.08006000000000001</v>
+        <v>0.079875</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0778548</v>
+        <v>0.0844573</v>
       </c>
       <c r="D76" t="n">
-        <v>0.07867730000000001</v>
+        <v>0.083485</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.08263230000000001</v>
+        <v>0.08278290000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.07997750000000001</v>
+        <v>0.086918</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0819708</v>
+        <v>0.08722630000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08616269999999999</v>
+        <v>0.0862246</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0831157</v>
+        <v>0.08963309999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0869471</v>
+        <v>0.0917309</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0909824</v>
+        <v>0.0916907</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0877887</v>
+        <v>0.0939276</v>
       </c>
       <c r="D79" t="n">
-        <v>0.09430139999999999</v>
+        <v>0.0987019</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.098094</v>
+        <v>0.099366</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0938007</v>
+        <v>0.1005</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0744131</v>
+        <v>0.0809798</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0776792</v>
+        <v>0.0806298</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0747717</v>
+        <v>0.08552510000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0720698</v>
+        <v>0.0804494</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0780286</v>
+        <v>0.0803214</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0752299</v>
+        <v>0.0852851</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0753954</v>
+        <v>0.0814139</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.07810300000000001</v>
+        <v>0.0807041</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0737387</v>
+        <v>0.0834589</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0728019</v>
+        <v>0.0791359</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.07865320000000001</v>
+        <v>0.0810481</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0766366</v>
+        <v>0.08340889999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0736974</v>
+        <v>0.0805902</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.07892929999999999</v>
+        <v>0.0816984</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0777728</v>
+        <v>0.08687830000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0739799</v>
+        <v>0.0812648</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0800864</v>
+        <v>0.0820683</v>
       </c>
       <c r="C86" t="n">
-        <v>0.07811510000000001</v>
+        <v>0.08523550000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0745309</v>
+        <v>0.0827058</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0803222</v>
+        <v>0.0827976</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0763411</v>
+        <v>0.08583780000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0768765</v>
+        <v>0.0823451</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0813444</v>
+        <v>0.08372889999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0804945</v>
+        <v>0.08925859999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0781188</v>
+        <v>0.08336399999999999</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0828187</v>
+        <v>0.08510189999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0815903</v>
+        <v>0.0906776</v>
       </c>
       <c r="D89" t="n">
-        <v>0.07818650000000001</v>
+        <v>0.09020350000000001</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.08450539999999999</v>
+        <v>0.0868767</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0805367</v>
+        <v>0.08942029999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0804353</v>
+        <v>0.08615399999999999</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0870607</v>
+        <v>0.0894098</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0853207</v>
+        <v>0.0937904</v>
       </c>
       <c r="D91" t="n">
-        <v>0.08395900000000001</v>
+        <v>0.09240719999999999</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0906865</v>
+        <v>0.0927221</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0863351</v>
+        <v>0.09661</v>
       </c>
       <c r="D92" t="n">
-        <v>0.08813459999999999</v>
+        <v>0.0941806</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0951293</v>
+        <v>0.0973412</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0898375</v>
+        <v>0.100337</v>
       </c>
       <c r="D93" t="n">
-        <v>0.096344</v>
+        <v>0.100693</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.101795</v>
+        <v>0.104054</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0972206</v>
+        <v>0.103645</v>
       </c>
       <c r="D94" t="n">
-        <v>0.114437</v>
+        <v>0.137448</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.140467</v>
+        <v>0.14204</v>
       </c>
       <c r="C95" t="n">
-        <v>0.117707</v>
+        <v>0.147573</v>
       </c>
       <c r="D95" t="n">
-        <v>0.115112</v>
+        <v>0.135092</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.132591</v>
+        <v>0.1395</v>
       </c>
       <c r="C96" t="n">
-        <v>0.118217</v>
+        <v>0.147895</v>
       </c>
       <c r="D96" t="n">
-        <v>0.115452</v>
+        <v>0.134965</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.132744</v>
+        <v>0.134039</v>
       </c>
       <c r="C97" t="n">
-        <v>0.118634</v>
+        <v>0.148416</v>
       </c>
       <c r="D97" t="n">
-        <v>0.116041</v>
+        <v>0.133829</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.133354</v>
+        <v>0.13434</v>
       </c>
       <c r="C98" t="n">
-        <v>0.119087</v>
+        <v>0.148249</v>
       </c>
       <c r="D98" t="n">
-        <v>0.116772</v>
+        <v>0.13752</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.132941</v>
+        <v>0.142603</v>
       </c>
       <c r="C99" t="n">
-        <v>0.121942</v>
+        <v>0.14795</v>
       </c>
       <c r="D99" t="n">
-        <v>0.116976</v>
+        <v>0.135293</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.133336</v>
+        <v>0.135763</v>
       </c>
       <c r="C100" t="n">
-        <v>0.121375</v>
+        <v>0.149707</v>
       </c>
       <c r="D100" t="n">
-        <v>0.118334</v>
+        <v>0.137636</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.134006</v>
+        <v>0.1352</v>
       </c>
       <c r="C101" t="n">
-        <v>0.120976</v>
+        <v>0.146656</v>
       </c>
       <c r="D101" t="n">
-        <v>0.119094</v>
+        <v>0.13759</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.134616</v>
+        <v>0.135871</v>
       </c>
       <c r="C102" t="n">
-        <v>0.122294</v>
+        <v>0.147295</v>
       </c>
       <c r="D102" t="n">
-        <v>0.120123</v>
+        <v>0.136601</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.135313</v>
+        <v>0.13965</v>
       </c>
       <c r="C103" t="n">
-        <v>0.123535</v>
+        <v>0.147978</v>
       </c>
       <c r="D103" t="n">
-        <v>0.12318</v>
+        <v>0.138435</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.13627</v>
+        <v>0.137844</v>
       </c>
       <c r="C104" t="n">
-        <v>0.126714</v>
+        <v>0.149369</v>
       </c>
       <c r="D104" t="n">
-        <v>0.123694</v>
+        <v>0.137975</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.138253</v>
+        <v>0.139583</v>
       </c>
       <c r="C105" t="n">
-        <v>0.126664</v>
+        <v>0.152703</v>
       </c>
       <c r="D105" t="n">
-        <v>0.126883</v>
+        <v>0.140462</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.140111</v>
+        <v>0.141667</v>
       </c>
       <c r="C106" t="n">
-        <v>0.129952</v>
+        <v>0.152686</v>
       </c>
       <c r="D106" t="n">
-        <v>0.131069</v>
+        <v>0.14307</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.143595</v>
+        <v>0.144891</v>
       </c>
       <c r="C107" t="n">
-        <v>0.132047</v>
+        <v>0.157797</v>
       </c>
       <c r="D107" t="n">
-        <v>0.134661</v>
+        <v>0.150352</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.148563</v>
+        <v>0.149593</v>
       </c>
       <c r="C108" t="n">
-        <v>0.136707</v>
+        <v>0.161622</v>
       </c>
       <c r="D108" t="n">
-        <v>0.211562</v>
+        <v>0.244434</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.154776</v>
+        <v>0.156718</v>
       </c>
       <c r="C109" t="n">
-        <v>0.143296</v>
+        <v>0.166084</v>
       </c>
       <c r="D109" t="n">
-        <v>0.212314</v>
+        <v>0.244411</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.241484</v>
+        <v>0.24084</v>
       </c>
       <c r="C110" t="n">
-        <v>0.204892</v>
+        <v>0.246444</v>
       </c>
       <c r="D110" t="n">
-        <v>0.213066</v>
+        <v>0.244203</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.240265</v>
+        <v>0.241238</v>
       </c>
       <c r="C111" t="n">
-        <v>0.205211</v>
+        <v>0.246147</v>
       </c>
       <c r="D111" t="n">
-        <v>0.21385</v>
+        <v>0.2446</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.240398</v>
+        <v>0.240764</v>
       </c>
       <c r="C112" t="n">
-        <v>0.205985</v>
+        <v>0.245779</v>
       </c>
       <c r="D112" t="n">
-        <v>0.214602</v>
+        <v>0.244834</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.240624</v>
+        <v>0.24114</v>
       </c>
       <c r="C113" t="n">
-        <v>0.20657</v>
+        <v>0.247604</v>
       </c>
       <c r="D113" t="n">
-        <v>0.215615</v>
+        <v>0.244732</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.244236</v>
+        <v>0.250677</v>
       </c>
       <c r="C114" t="n">
-        <v>0.207408</v>
+        <v>0.24781</v>
       </c>
       <c r="D114" t="n">
-        <v>0.21703</v>
+        <v>0.245458</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.241077</v>
+        <v>0.241528</v>
       </c>
       <c r="C115" t="n">
-        <v>0.208418</v>
+        <v>0.247267</v>
       </c>
       <c r="D115" t="n">
-        <v>0.218025</v>
+        <v>0.24537</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.241218</v>
+        <v>0.241972</v>
       </c>
       <c r="C116" t="n">
-        <v>0.209294</v>
+        <v>0.248818</v>
       </c>
       <c r="D116" t="n">
-        <v>0.219467</v>
+        <v>0.245931</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.242123</v>
+        <v>0.242388</v>
       </c>
       <c r="C117" t="n">
-        <v>0.210381</v>
+        <v>0.249252</v>
       </c>
       <c r="D117" t="n">
-        <v>0.221086</v>
+        <v>0.247418</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.242413</v>
+        <v>0.244039</v>
       </c>
       <c r="C118" t="n">
-        <v>0.211534</v>
+        <v>0.250716</v>
       </c>
       <c r="D118" t="n">
-        <v>0.222905</v>
+        <v>0.250328</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.244794</v>
+        <v>0.245233</v>
       </c>
       <c r="C119" t="n">
-        <v>0.213364</v>
+        <v>0.253426</v>
       </c>
       <c r="D119" t="n">
-        <v>0.225325</v>
+        <v>0.249375</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.244896</v>
+        <v>0.245758</v>
       </c>
       <c r="C120" t="n">
-        <v>0.215693</v>
+        <v>0.252824</v>
       </c>
       <c r="D120" t="n">
-        <v>0.228518</v>
+        <v>0.251277</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.247157</v>
+        <v>0.249235</v>
       </c>
       <c r="C121" t="n">
-        <v>0.218255</v>
+        <v>0.257135</v>
       </c>
       <c r="D121" t="n">
-        <v>0.233182</v>
+        <v>0.255683</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.249845</v>
+        <v>0.250551</v>
       </c>
       <c r="C122" t="n">
-        <v>0.22253</v>
+        <v>0.257691</v>
       </c>
       <c r="D122" t="n">
-        <v>0.23951</v>
+        <v>0.259187</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.254771</v>
+        <v>0.255297</v>
       </c>
       <c r="C123" t="n">
-        <v>0.228902</v>
+        <v>0.262975</v>
       </c>
       <c r="D123" t="n">
-        <v>0.287612</v>
+        <v>0.478276</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.459233</v>
+        <v>0.45849</v>
       </c>
       <c r="C124" t="n">
-        <v>0.236148</v>
+        <v>0.472218</v>
       </c>
       <c r="D124" t="n">
-        <v>0.263873</v>
+        <v>0.482786</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.459024</v>
+        <v>0.458268</v>
       </c>
       <c r="C125" t="n">
-        <v>0.236912</v>
+        <v>0.471136</v>
       </c>
       <c r="D125" t="n">
-        <v>0.265433</v>
+        <v>0.482545</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.459315</v>
+        <v>0.458379</v>
       </c>
       <c r="C126" t="n">
-        <v>0.237612</v>
+        <v>0.474669</v>
       </c>
       <c r="D126" t="n">
-        <v>0.267656</v>
+        <v>0.478559</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.459342</v>
+        <v>0.45835</v>
       </c>
       <c r="C127" t="n">
-        <v>0.237296</v>
+        <v>0.474335</v>
       </c>
       <c r="D127" t="n">
-        <v>0.269552</v>
+        <v>0.478097</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.459441</v>
+        <v>0.458502</v>
       </c>
       <c r="C128" t="n">
-        <v>0.239298</v>
+        <v>0.475371</v>
       </c>
       <c r="D128" t="n">
-        <v>0.271373</v>
+        <v>0.483318</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.459889</v>
+        <v>0.459108</v>
       </c>
       <c r="C129" t="n">
-        <v>0.240139</v>
+        <v>0.472238</v>
       </c>
       <c r="D129" t="n">
-        <v>0.27441</v>
+        <v>0.4789</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.460823</v>
+        <v>0.459335</v>
       </c>
       <c r="C130" t="n">
-        <v>0.241295</v>
+        <v>0.473212</v>
       </c>
       <c r="D130" t="n">
-        <v>0.276308</v>
+        <v>0.48405</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.460762</v>
+        <v>0.458056</v>
       </c>
       <c r="C131" t="n">
-        <v>0.242434</v>
+        <v>0.474097</v>
       </c>
       <c r="D131" t="n">
-        <v>0.278252</v>
+        <v>0.485164</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.460962</v>
+        <v>0.473765</v>
       </c>
       <c r="C132" t="n">
-        <v>0.244359</v>
+        <v>0.474048</v>
       </c>
       <c r="D132" t="n">
-        <v>0.281148</v>
+        <v>0.481205</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.460582</v>
+        <v>0.461217</v>
       </c>
       <c r="C133" t="n">
-        <v>0.246402</v>
+        <v>0.464852</v>
       </c>
       <c r="D133" t="n">
-        <v>0.284666</v>
+        <v>0.482691</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.410418</v>
+        <v>0.44922</v>
       </c>
       <c r="C134" t="n">
-        <v>0.248889</v>
+        <v>0.453931</v>
       </c>
       <c r="D134" t="n">
-        <v>0.289033</v>
+        <v>0.422813</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.389672</v>
+        <v>0.382885</v>
       </c>
       <c r="C135" t="n">
-        <v>0.252163</v>
+        <v>0.391533</v>
       </c>
       <c r="D135" t="n">
-        <v>0.294881</v>
+        <v>0.40729</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.383734</v>
+        <v>0.388456</v>
       </c>
       <c r="C136" t="n">
-        <v>0.257213</v>
+        <v>0.405945</v>
       </c>
       <c r="D136" t="n">
-        <v>0.301048</v>
+        <v>0.406397</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.388631</v>
+        <v>0.392316</v>
       </c>
       <c r="C137" t="n">
-        <v>0.269234</v>
+        <v>0.395395</v>
       </c>
       <c r="D137" t="n">
-        <v>0.298576</v>
+        <v>0.573902</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.560382</v>
+        <v>0.546203</v>
       </c>
       <c r="C138" t="n">
-        <v>0.255277</v>
+        <v>0.558079</v>
       </c>
       <c r="D138" t="n">
-        <v>0.301096</v>
+        <v>0.574528</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.547776</v>
+        <v>0.54588</v>
       </c>
       <c r="C139" t="n">
-        <v>0.256806</v>
+        <v>0.558544</v>
       </c>
       <c r="D139" t="n">
-        <v>0.303113</v>
+        <v>0.574655</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.547461</v>
+        <v>0.5459349999999999</v>
       </c>
       <c r="C140" t="n">
-        <v>0.2561</v>
+        <v>0.558704</v>
       </c>
       <c r="D140" t="n">
-        <v>0.304861</v>
+        <v>0.574805</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.547167</v>
+        <v>0.543676</v>
       </c>
       <c r="C141" t="n">
-        <v>0.256866</v>
+        <v>0.558872</v>
       </c>
       <c r="D141" t="n">
-        <v>0.307032</v>
+        <v>0.575399</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.547547</v>
+        <v>0.546849</v>
       </c>
       <c r="C142" t="n">
-        <v>0.257648</v>
+        <v>0.559334</v>
       </c>
       <c r="D142" t="n">
-        <v>0.309313</v>
+        <v>0.575471</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.547798</v>
+        <v>0.546654</v>
       </c>
       <c r="C143" t="n">
-        <v>0.258794</v>
+        <v>0.559932</v>
       </c>
       <c r="D143" t="n">
-        <v>0.311806</v>
+        <v>0.57595</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0628358</v>
+        <v>0.018916</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0685982</v>
+        <v>0.019348</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0682878</v>
+        <v>0.0217006</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0639101</v>
+        <v>0.0189902</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06906420000000001</v>
+        <v>0.0192734</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0686991</v>
+        <v>0.0216765</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0645519</v>
+        <v>0.0190213</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0694105</v>
+        <v>0.0191808</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0693699</v>
+        <v>0.0216141</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06541660000000001</v>
+        <v>0.0191715</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0695069</v>
+        <v>0.0190818</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0695269</v>
+        <v>0.0215983</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06615310000000001</v>
+        <v>0.0192188</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06983010000000001</v>
+        <v>0.0188933</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07049270000000001</v>
+        <v>0.0216898</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.068158</v>
+        <v>0.0196714</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07037400000000001</v>
+        <v>0.0191382</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07088120000000001</v>
+        <v>0.0218081</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0701315</v>
+        <v>0.0198724</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0701721</v>
+        <v>0.0191368</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07230250000000001</v>
+        <v>0.0220874</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.074713</v>
+        <v>0.0211246</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07029580000000001</v>
+        <v>0.0192193</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0681498</v>
+        <v>0.0214185</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0623197</v>
+        <v>0.0184958</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06979539999999999</v>
+        <v>0.0195826</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06852519999999999</v>
+        <v>0.0216257</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0626857</v>
+        <v>0.0185598</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07031179999999999</v>
+        <v>0.0198616</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06881420000000001</v>
+        <v>0.0217431</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0627805</v>
+        <v>0.0186998</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0702961</v>
+        <v>0.0197781</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0688641</v>
+        <v>0.0219368</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0632404</v>
+        <v>0.0187849</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07031560000000001</v>
+        <v>0.0198296</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06901110000000001</v>
+        <v>0.0220222</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.06388919999999999</v>
+        <v>0.0189336</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0711258</v>
+        <v>0.0199346</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0696426</v>
+        <v>0.0222496</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0644733</v>
+        <v>0.0193105</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0713704</v>
+        <v>0.0200632</v>
       </c>
       <c r="D15" t="n">
-        <v>0.070149</v>
+        <v>0.0223025</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0651224</v>
+        <v>0.0194719</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0718897</v>
+        <v>0.0202219</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0705306</v>
+        <v>0.0222198</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0659901</v>
+        <v>0.0196097</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07233299999999999</v>
+        <v>0.0201725</v>
       </c>
       <c r="D17" t="n">
-        <v>0.071238</v>
+        <v>0.0222677</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0669522</v>
+        <v>0.0199048</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0727406</v>
+        <v>0.0202313</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0720773</v>
+        <v>0.0221789</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0681731</v>
+        <v>0.0199753</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0733748</v>
+        <v>0.0201347</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07278610000000001</v>
+        <v>0.0223603</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0692065</v>
+        <v>0.0203051</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0739099</v>
+        <v>0.0202458</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0741144</v>
+        <v>0.0223136</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0712846</v>
+        <v>0.020876</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07445599999999999</v>
+        <v>0.0203838</v>
       </c>
       <c r="D21" t="n">
-        <v>0.075889</v>
+        <v>0.0225373</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0743712</v>
+        <v>0.0225822</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0750952</v>
+        <v>0.0204552</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0803751</v>
+        <v>0.0232054</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0799086</v>
+        <v>0.0271434</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0766862</v>
+        <v>0.0206377</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0710672</v>
+        <v>0.0219464</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06512859999999999</v>
+        <v>0.0189729</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0719045</v>
+        <v>0.0200264</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0711711</v>
+        <v>0.0221413</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0654739</v>
+        <v>0.0191074</v>
       </c>
       <c r="C25" t="n">
-        <v>0.07204969999999999</v>
+        <v>0.0202499</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0711697</v>
+        <v>0.0223379</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.06589159999999999</v>
+        <v>0.0192099</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0726639</v>
+        <v>0.0204519</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0716912</v>
+        <v>0.0225945</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.066085</v>
+        <v>0.0195026</v>
       </c>
       <c r="C27" t="n">
-        <v>0.07297149999999999</v>
+        <v>0.0206159</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0720563</v>
+        <v>0.0227399</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0666839</v>
+        <v>0.0196587</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07381890000000001</v>
+        <v>0.020874</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0724673</v>
+        <v>0.0228861</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0670111</v>
+        <v>0.0199338</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07448390000000001</v>
+        <v>0.020995</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0730277</v>
+        <v>0.0229698</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0679387</v>
+        <v>0.0202132</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0751064</v>
+        <v>0.0212673</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07359159999999999</v>
+        <v>0.0231567</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0689684</v>
+        <v>0.0204582</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0755516</v>
+        <v>0.0213871</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07435079999999999</v>
+        <v>0.0232721</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.06995759999999999</v>
+        <v>0.020766</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0761655</v>
+        <v>0.0215656</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0752983</v>
+        <v>0.0233732</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0711229</v>
+        <v>0.0212756</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07687769999999999</v>
+        <v>0.021592</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0759037</v>
+        <v>0.0235091</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0727192</v>
+        <v>0.0226091</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0773162</v>
+        <v>0.0226719</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0779856</v>
+        <v>0.0242307</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07533090000000001</v>
+        <v>0.0245053</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0786891</v>
+        <v>0.0228492</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0805766</v>
+        <v>0.0255335</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0795868</v>
+        <v>0.0275625</v>
       </c>
       <c r="C36" t="n">
-        <v>0.08030859999999999</v>
+        <v>0.0244706</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0868481</v>
+        <v>0.0304782</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0853409</v>
+        <v>0.031887</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0832169</v>
+        <v>0.0287338</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07226390000000001</v>
+        <v>0.0224746</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0677644</v>
+        <v>0.0197621</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0735899</v>
+        <v>0.0208676</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07262739999999999</v>
+        <v>0.0226539</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0683035</v>
+        <v>0.0198672</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0739754</v>
+        <v>0.0211205</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07294059999999999</v>
+        <v>0.0228184</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0683387</v>
+        <v>0.0201083</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0744742</v>
+        <v>0.0214036</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0732423</v>
+        <v>0.0230373</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0686512</v>
+        <v>0.0203609</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0749483</v>
+        <v>0.0217226</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07355440000000001</v>
+        <v>0.0232748</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0691589</v>
+        <v>0.0204975</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07559879999999999</v>
+        <v>0.0219896</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0743133</v>
+        <v>0.0235328</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.07007670000000001</v>
+        <v>0.020935</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0764329</v>
+        <v>0.0223434</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0748798</v>
+        <v>0.0237623</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07045360000000001</v>
+        <v>0.021408</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0766792</v>
+        <v>0.0226788</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0750622</v>
+        <v>0.0240092</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.07143149999999999</v>
+        <v>0.0217029</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0774376</v>
+        <v>0.0230671</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0762046</v>
+        <v>0.0243283</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0726638</v>
+        <v>0.0224266</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07821599999999999</v>
+        <v>0.0235728</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0769475</v>
+        <v>0.024658</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0738502</v>
+        <v>0.0233151</v>
       </c>
       <c r="C47" t="n">
-        <v>0.07905379999999999</v>
+        <v>0.0241675</v>
       </c>
       <c r="D47" t="n">
-        <v>0.07865</v>
+        <v>0.0254009</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0762692</v>
+        <v>0.0246945</v>
       </c>
       <c r="C48" t="n">
-        <v>0.080415</v>
+        <v>0.0248457</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0807066</v>
+        <v>0.026767</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0791219</v>
+        <v>0.0271429</v>
       </c>
       <c r="C49" t="n">
-        <v>0.08196539999999999</v>
+        <v>0.0262067</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08450340000000001</v>
+        <v>0.0292442</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0835606</v>
+        <v>0.0299387</v>
       </c>
       <c r="C50" t="n">
-        <v>0.08500149999999999</v>
+        <v>0.0278516</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0899599</v>
+        <v>0.0340321</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0893057</v>
+        <v>0.0343266</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0894416</v>
+        <v>0.0313213</v>
       </c>
       <c r="D51" t="n">
-        <v>0.07373109999999999</v>
+        <v>0.0228941</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0971934</v>
+        <v>0.0398978</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0968355</v>
+        <v>0.0374871</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0736689</v>
+        <v>0.0230579</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0696812</v>
+        <v>0.0206267</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0751872</v>
+        <v>0.0220315</v>
       </c>
       <c r="D53" t="n">
-        <v>0.07426530000000001</v>
+        <v>0.0231918</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0699545</v>
+        <v>0.0207529</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0755258</v>
+        <v>0.0223362</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0739448</v>
+        <v>0.0234188</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0703661</v>
+        <v>0.0210394</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07599889999999999</v>
+        <v>0.022702</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0742308</v>
+        <v>0.0236561</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0706193</v>
+        <v>0.021286</v>
       </c>
       <c r="C56" t="n">
-        <v>0.07655960000000001</v>
+        <v>0.0229806</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0746844</v>
+        <v>0.0239281</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0713776</v>
+        <v>0.0215764</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0775787</v>
+        <v>0.0233038</v>
       </c>
       <c r="D57" t="n">
-        <v>0.07569670000000001</v>
+        <v>0.0242046</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0719713</v>
+        <v>0.0221162</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0783715</v>
+        <v>0.02369</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0758354</v>
+        <v>0.0245191</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0729358</v>
+        <v>0.0227106</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0784714</v>
+        <v>0.0241176</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0766308</v>
+        <v>0.0249139</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0737859</v>
+        <v>0.0234524</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0794961</v>
+        <v>0.0247697</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0779368</v>
+        <v>0.0255061</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0752575</v>
+        <v>0.0244489</v>
       </c>
       <c r="C61" t="n">
-        <v>0.08064499999999999</v>
+        <v>0.025463</v>
       </c>
       <c r="D61" t="n">
-        <v>0.079956</v>
+        <v>0.0264719</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.07753930000000001</v>
+        <v>0.0259807</v>
       </c>
       <c r="C62" t="n">
-        <v>0.082012</v>
+        <v>0.0266887</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0819705</v>
+        <v>0.0280642</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0805737</v>
+        <v>0.0281876</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0840287</v>
+        <v>0.0285213</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0853999</v>
+        <v>0.0309546</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0847287</v>
+        <v>0.0311619</v>
       </c>
       <c r="C64" t="n">
-        <v>0.08681079999999999</v>
+        <v>0.0309113</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0905019</v>
+        <v>0.0350786</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0904288</v>
+        <v>0.0346769</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0912671</v>
+        <v>0.0345237</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0983738</v>
+        <v>0.0416373</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.09828820000000001</v>
+        <v>0.0400516</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0980809</v>
+        <v>0.0398139</v>
       </c>
       <c r="D66" t="n">
-        <v>0.07518610000000001</v>
+        <v>0.0233997</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0724365</v>
+        <v>0.0216411</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0779765</v>
+        <v>0.0227014</v>
       </c>
       <c r="D67" t="n">
-        <v>0.075598</v>
+        <v>0.0235559</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0722638</v>
+        <v>0.0218328</v>
       </c>
       <c r="C68" t="n">
-        <v>0.07785110000000001</v>
+        <v>0.0229891</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07617409999999999</v>
+        <v>0.023748</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0730716</v>
+        <v>0.0219414</v>
       </c>
       <c r="C69" t="n">
-        <v>0.07879899999999999</v>
+        <v>0.0232712</v>
       </c>
       <c r="D69" t="n">
-        <v>0.07643899999999999</v>
+        <v>0.0239955</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.073159</v>
+        <v>0.0222211</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0791285</v>
+        <v>0.0236391</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0768355</v>
+        <v>0.0242916</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.07363649999999999</v>
+        <v>0.0225777</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0796828</v>
+        <v>0.0240196</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0769826</v>
+        <v>0.0246059</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.074283</v>
+        <v>0.0229998</v>
       </c>
       <c r="C72" t="n">
-        <v>0.08010929999999999</v>
+        <v>0.0245058</v>
       </c>
       <c r="D72" t="n">
-        <v>0.07770539999999999</v>
+        <v>0.0250478</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0752266</v>
+        <v>0.0234714</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0808966</v>
+        <v>0.0250404</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0784788</v>
+        <v>0.0256026</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.076114</v>
+        <v>0.0243623</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0821926</v>
+        <v>0.025599</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0795597</v>
+        <v>0.0262891</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.07771790000000001</v>
+        <v>0.0255568</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0833631</v>
+        <v>0.0264805</v>
       </c>
       <c r="D75" t="n">
-        <v>0.08121059999999999</v>
+        <v>0.0275364</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.079875</v>
+        <v>0.0268673</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0844573</v>
+        <v>0.0276592</v>
       </c>
       <c r="D76" t="n">
-        <v>0.083485</v>
+        <v>0.0293995</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.08278290000000001</v>
+        <v>0.0289689</v>
       </c>
       <c r="C77" t="n">
-        <v>0.086918</v>
+        <v>0.0293417</v>
       </c>
       <c r="D77" t="n">
-        <v>0.08722630000000001</v>
+        <v>0.0322571</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0862246</v>
+        <v>0.0313303</v>
       </c>
       <c r="C78" t="n">
-        <v>0.08963309999999999</v>
+        <v>0.0316675</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0917309</v>
+        <v>0.0358418</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0916907</v>
+        <v>0.034917</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0939276</v>
+        <v>0.0349458</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0987019</v>
+        <v>0.0413305</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.099366</v>
+        <v>0.0400728</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1005</v>
+        <v>0.0394648</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0809798</v>
+        <v>0.0268852</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0806298</v>
+        <v>0.0275415</v>
       </c>
       <c r="C81" t="n">
-        <v>0.08552510000000001</v>
+        <v>0.0250108</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0804494</v>
+        <v>0.0264541</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0803214</v>
+        <v>0.0277096</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0852851</v>
+        <v>0.0253961</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0814139</v>
+        <v>0.0285072</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0807041</v>
+        <v>0.0278248</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0834589</v>
+        <v>0.0258115</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0791359</v>
+        <v>0.027657</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0810481</v>
+        <v>0.0280296</v>
       </c>
       <c r="C84" t="n">
-        <v>0.08340889999999999</v>
+        <v>0.0261516</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0805902</v>
+        <v>0.0271551</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0816984</v>
+        <v>0.0283971</v>
       </c>
       <c r="C85" t="n">
-        <v>0.08687830000000001</v>
+        <v>0.0269868</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0812648</v>
+        <v>0.0274412</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0820683</v>
+        <v>0.0288844</v>
       </c>
       <c r="C86" t="n">
-        <v>0.08523550000000001</v>
+        <v>0.0272377</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0827058</v>
+        <v>0.0281572</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0827976</v>
+        <v>0.0292177</v>
       </c>
       <c r="C87" t="n">
-        <v>0.08583780000000001</v>
+        <v>0.0277067</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0823451</v>
+        <v>0.028437</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.08372889999999999</v>
+        <v>0.0300133</v>
       </c>
       <c r="C88" t="n">
-        <v>0.08925859999999999</v>
+        <v>0.0284891</v>
       </c>
       <c r="D88" t="n">
-        <v>0.08336399999999999</v>
+        <v>0.0304273</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.08510189999999999</v>
+        <v>0.030845</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0906776</v>
+        <v>0.0289599</v>
       </c>
       <c r="D89" t="n">
-        <v>0.09020350000000001</v>
+        <v>0.0311473</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0868767</v>
+        <v>0.0321299</v>
       </c>
       <c r="C90" t="n">
-        <v>0.08942029999999999</v>
+        <v>0.030392</v>
       </c>
       <c r="D90" t="n">
-        <v>0.08615399999999999</v>
+        <v>0.0320945</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0894098</v>
+        <v>0.0338785</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0937904</v>
+        <v>0.0319508</v>
       </c>
       <c r="D91" t="n">
-        <v>0.09240719999999999</v>
+        <v>0.0351068</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0927221</v>
+        <v>0.0362241</v>
       </c>
       <c r="C92" t="n">
-        <v>0.09661</v>
+        <v>0.0338405</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0941806</v>
+        <v>0.037773</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0973412</v>
+        <v>0.0394468</v>
       </c>
       <c r="C93" t="n">
-        <v>0.100337</v>
+        <v>0.0370315</v>
       </c>
       <c r="D93" t="n">
-        <v>0.100693</v>
+        <v>0.043984</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.104054</v>
+        <v>0.0438628</v>
       </c>
       <c r="C94" t="n">
-        <v>0.103645</v>
+        <v>0.0413634</v>
       </c>
       <c r="D94" t="n">
-        <v>0.137448</v>
+        <v>0.053146</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.14204</v>
+        <v>0.057561</v>
       </c>
       <c r="C95" t="n">
-        <v>0.147573</v>
+        <v>0.0472273</v>
       </c>
       <c r="D95" t="n">
-        <v>0.135092</v>
+        <v>0.053064</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1395</v>
+        <v>0.0577691</v>
       </c>
       <c r="C96" t="n">
-        <v>0.147895</v>
+        <v>0.0473954</v>
       </c>
       <c r="D96" t="n">
-        <v>0.134965</v>
+        <v>0.053399</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.134039</v>
+        <v>0.0579069</v>
       </c>
       <c r="C97" t="n">
-        <v>0.148416</v>
+        <v>0.0476279</v>
       </c>
       <c r="D97" t="n">
-        <v>0.133829</v>
+        <v>0.0540015</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.13434</v>
+        <v>0.05789</v>
       </c>
       <c r="C98" t="n">
-        <v>0.148249</v>
+        <v>0.0479549</v>
       </c>
       <c r="D98" t="n">
-        <v>0.13752</v>
+        <v>0.0538437</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.142603</v>
+        <v>0.0581355</v>
       </c>
       <c r="C99" t="n">
-        <v>0.14795</v>
+        <v>0.04842</v>
       </c>
       <c r="D99" t="n">
-        <v>0.135293</v>
+        <v>0.0543516</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.135763</v>
+        <v>0.0582454</v>
       </c>
       <c r="C100" t="n">
-        <v>0.149707</v>
+        <v>0.0485752</v>
       </c>
       <c r="D100" t="n">
-        <v>0.137636</v>
+        <v>0.0538512</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1352</v>
+        <v>0.0583556</v>
       </c>
       <c r="C101" t="n">
-        <v>0.146656</v>
+        <v>0.0487954</v>
       </c>
       <c r="D101" t="n">
-        <v>0.13759</v>
+        <v>0.0549808</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.135871</v>
+        <v>0.0588233</v>
       </c>
       <c r="C102" t="n">
-        <v>0.147295</v>
+        <v>0.0493429</v>
       </c>
       <c r="D102" t="n">
-        <v>0.136601</v>
+        <v>0.0551382</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.13965</v>
+        <v>0.0593864</v>
       </c>
       <c r="C103" t="n">
-        <v>0.147978</v>
+        <v>0.0499051</v>
       </c>
       <c r="D103" t="n">
-        <v>0.138435</v>
+        <v>0.0562308</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.137844</v>
+        <v>0.0596807</v>
       </c>
       <c r="C104" t="n">
-        <v>0.149369</v>
+        <v>0.050789</v>
       </c>
       <c r="D104" t="n">
-        <v>0.137975</v>
+        <v>0.0572149</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.139583</v>
+        <v>0.0605927</v>
       </c>
       <c r="C105" t="n">
-        <v>0.152703</v>
+        <v>0.0517655</v>
       </c>
       <c r="D105" t="n">
-        <v>0.140462</v>
+        <v>0.058407</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.141667</v>
+        <v>0.0619567</v>
       </c>
       <c r="C106" t="n">
-        <v>0.152686</v>
+        <v>0.0532197</v>
       </c>
       <c r="D106" t="n">
-        <v>0.14307</v>
+        <v>0.060956</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.144891</v>
+        <v>0.06454360000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.157797</v>
+        <v>0.0557151</v>
       </c>
       <c r="D107" t="n">
-        <v>0.150352</v>
+        <v>0.0651037</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.149593</v>
+        <v>0.06825349999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.161622</v>
+        <v>0.0593648</v>
       </c>
       <c r="D108" t="n">
-        <v>0.244434</v>
+        <v>0.0845557</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.156718</v>
+        <v>0.0735301</v>
       </c>
       <c r="C109" t="n">
-        <v>0.166084</v>
+        <v>0.06525069999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>0.244411</v>
+        <v>0.0850838</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.24084</v>
+        <v>0.08822199999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.246444</v>
+        <v>0.06700209999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.244203</v>
+        <v>0.0854345</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.241238</v>
+        <v>0.0883172</v>
       </c>
       <c r="C111" t="n">
-        <v>0.246147</v>
+        <v>0.06719890000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.2446</v>
+        <v>0.08579870000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.240764</v>
+        <v>0.08839519999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.245779</v>
+        <v>0.0675632</v>
       </c>
       <c r="D112" t="n">
-        <v>0.244834</v>
+        <v>0.0866031</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.24114</v>
+        <v>0.0884302</v>
       </c>
       <c r="C113" t="n">
-        <v>0.247604</v>
+        <v>0.0677196</v>
       </c>
       <c r="D113" t="n">
-        <v>0.244732</v>
+        <v>0.0877032</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.250677</v>
+        <v>0.0885719</v>
       </c>
       <c r="C114" t="n">
-        <v>0.24781</v>
+        <v>0.0680862</v>
       </c>
       <c r="D114" t="n">
-        <v>0.245458</v>
+        <v>0.0876063</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.241528</v>
+        <v>0.08874</v>
       </c>
       <c r="C115" t="n">
-        <v>0.247267</v>
+        <v>0.0684767</v>
       </c>
       <c r="D115" t="n">
-        <v>0.24537</v>
+        <v>0.0881503</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.241972</v>
+        <v>0.08890199999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>0.248818</v>
+        <v>0.0690326</v>
       </c>
       <c r="D116" t="n">
-        <v>0.245931</v>
+        <v>0.0889474</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.242388</v>
+        <v>0.0893159</v>
       </c>
       <c r="C117" t="n">
-        <v>0.249252</v>
+        <v>0.06966899999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.247418</v>
+        <v>0.0898868</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.244039</v>
+        <v>0.0910514</v>
       </c>
       <c r="C118" t="n">
-        <v>0.250716</v>
+        <v>0.0705832</v>
       </c>
       <c r="D118" t="n">
-        <v>0.250328</v>
+        <v>0.0911291</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.245233</v>
+        <v>0.09073440000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.253426</v>
+        <v>0.07169739999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.249375</v>
+        <v>0.0927051</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.245758</v>
+        <v>0.0919975</v>
       </c>
       <c r="C120" t="n">
-        <v>0.252824</v>
+        <v>0.07323830000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.251277</v>
+        <v>0.0950275</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.249235</v>
+        <v>0.0940845</v>
       </c>
       <c r="C121" t="n">
-        <v>0.257135</v>
+        <v>0.07552010000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.255683</v>
+        <v>0.09844799999999999</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.250551</v>
+        <v>0.0971197</v>
       </c>
       <c r="C122" t="n">
-        <v>0.257691</v>
+        <v>0.078981</v>
       </c>
       <c r="D122" t="n">
-        <v>0.259187</v>
+        <v>0.104259</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.255297</v>
+        <v>0.101991</v>
       </c>
       <c r="C123" t="n">
-        <v>0.262975</v>
+        <v>0.0849448</v>
       </c>
       <c r="D123" t="n">
-        <v>0.478276</v>
+        <v>0.10947</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.45849</v>
+        <v>0.117706</v>
       </c>
       <c r="C124" t="n">
-        <v>0.472218</v>
+        <v>0.07863059999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>0.482786</v>
+        <v>0.120148</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.458268</v>
+        <v>0.11772</v>
       </c>
       <c r="C125" t="n">
-        <v>0.471136</v>
+        <v>0.078821</v>
       </c>
       <c r="D125" t="n">
-        <v>0.482545</v>
+        <v>0.109936</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.458379</v>
+        <v>0.117704</v>
       </c>
       <c r="C126" t="n">
-        <v>0.474669</v>
+        <v>0.0793686</v>
       </c>
       <c r="D126" t="n">
-        <v>0.478559</v>
+        <v>0.111783</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.45835</v>
+        <v>0.117952</v>
       </c>
       <c r="C127" t="n">
-        <v>0.474335</v>
+        <v>0.0797417</v>
       </c>
       <c r="D127" t="n">
-        <v>0.478097</v>
+        <v>0.111562</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.458502</v>
+        <v>0.117766</v>
       </c>
       <c r="C128" t="n">
-        <v>0.475371</v>
+        <v>0.0802151</v>
       </c>
       <c r="D128" t="n">
-        <v>0.483318</v>
+        <v>0.113351</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.459108</v>
+        <v>0.117975</v>
       </c>
       <c r="C129" t="n">
-        <v>0.472238</v>
+        <v>0.08104740000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4789</v>
+        <v>0.113547</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.459335</v>
+        <v>0.118257</v>
       </c>
       <c r="C130" t="n">
-        <v>0.473212</v>
+        <v>0.0810348</v>
       </c>
       <c r="D130" t="n">
-        <v>0.48405</v>
+        <v>0.114695</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.458056</v>
+        <v>0.118624</v>
       </c>
       <c r="C131" t="n">
-        <v>0.474097</v>
+        <v>0.081302</v>
       </c>
       <c r="D131" t="n">
-        <v>0.485164</v>
+        <v>0.116869</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.473765</v>
+        <v>0.119206</v>
       </c>
       <c r="C132" t="n">
-        <v>0.474048</v>
+        <v>0.0822209</v>
       </c>
       <c r="D132" t="n">
-        <v>0.481205</v>
+        <v>0.118305</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.461217</v>
+        <v>0.119973</v>
       </c>
       <c r="C133" t="n">
-        <v>0.464852</v>
+        <v>0.08390010000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>0.482691</v>
+        <v>0.120062</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.44922</v>
+        <v>0.121866</v>
       </c>
       <c r="C134" t="n">
-        <v>0.453931</v>
+        <v>0.0855973</v>
       </c>
       <c r="D134" t="n">
-        <v>0.422813</v>
+        <v>0.122743</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.382885</v>
+        <v>0.125364</v>
       </c>
       <c r="C135" t="n">
-        <v>0.391533</v>
+        <v>0.0880413</v>
       </c>
       <c r="D135" t="n">
-        <v>0.40729</v>
+        <v>0.126217</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.388456</v>
+        <v>0.139276</v>
       </c>
       <c r="C136" t="n">
-        <v>0.405945</v>
+        <v>0.0917318</v>
       </c>
       <c r="D136" t="n">
-        <v>0.406397</v>
+        <v>0.134153</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.392316</v>
+        <v>0.130409</v>
       </c>
       <c r="C137" t="n">
-        <v>0.395395</v>
+        <v>0.0973453</v>
       </c>
       <c r="D137" t="n">
-        <v>0.573902</v>
+        <v>0.126101</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.546203</v>
+        <v>0.142017</v>
       </c>
       <c r="C138" t="n">
-        <v>0.558079</v>
+        <v>0.087548</v>
       </c>
       <c r="D138" t="n">
-        <v>0.574528</v>
+        <v>0.126719</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.54588</v>
+        <v>0.140003</v>
       </c>
       <c r="C139" t="n">
-        <v>0.558544</v>
+        <v>0.0875486</v>
       </c>
       <c r="D139" t="n">
-        <v>0.574655</v>
+        <v>0.127295</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.5459349999999999</v>
+        <v>0.138726</v>
       </c>
       <c r="C140" t="n">
-        <v>0.558704</v>
+        <v>0.08920019999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.574805</v>
+        <v>0.128196</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.543676</v>
+        <v>0.138626</v>
       </c>
       <c r="C141" t="n">
-        <v>0.558872</v>
+        <v>0.0880956</v>
       </c>
       <c r="D141" t="n">
-        <v>0.575399</v>
+        <v>0.128825</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.546849</v>
+        <v>0.138899</v>
       </c>
       <c r="C142" t="n">
-        <v>0.559334</v>
+        <v>0.09052060000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.575471</v>
+        <v>0.130068</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.546654</v>
+        <v>0.138972</v>
       </c>
       <c r="C143" t="n">
-        <v>0.559932</v>
+        <v>0.08916060000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>0.57595</v>
+        <v>0.131037</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.018916</v>
+        <v>0.0198274</v>
       </c>
       <c r="C2" t="n">
-        <v>0.019348</v>
+        <v>0.01963</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0217006</v>
+        <v>0.0210661</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0189902</v>
+        <v>0.0198243</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0192734</v>
+        <v>0.0195504</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0216765</v>
+        <v>0.0210821</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0190213</v>
+        <v>0.0198059</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0191808</v>
+        <v>0.0196026</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0216141</v>
+        <v>0.0210432</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0191715</v>
+        <v>0.0199393</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0190818</v>
+        <v>0.0196237</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0215983</v>
+        <v>0.0210228</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0192188</v>
+        <v>0.0198465</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0188933</v>
+        <v>0.0194434</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0216898</v>
+        <v>0.0211017</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0196714</v>
+        <v>0.0200695</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0191382</v>
+        <v>0.0196089</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0218081</v>
+        <v>0.021451</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0198724</v>
+        <v>0.0203167</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0191368</v>
+        <v>0.0196438</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0220874</v>
+        <v>0.0215967</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0211246</v>
+        <v>0.0207984</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0192193</v>
+        <v>0.019683</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0214185</v>
+        <v>0.021032</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0184958</v>
+        <v>0.019398</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0195826</v>
+        <v>0.0206908</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0216257</v>
+        <v>0.021237</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0185598</v>
+        <v>0.0196474</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0198616</v>
+        <v>0.0208145</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0217431</v>
+        <v>0.0214398</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0186998</v>
+        <v>0.0198002</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0197781</v>
+        <v>0.0208233</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0219368</v>
+        <v>0.0216389</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0187849</v>
+        <v>0.0198351</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0198296</v>
+        <v>0.0208079</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0220222</v>
+        <v>0.0217625</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0189336</v>
+        <v>0.020005</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0199346</v>
+        <v>0.0210678</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0222496</v>
+        <v>0.0220811</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0193105</v>
+        <v>0.0201547</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0200632</v>
+        <v>0.0211339</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0223025</v>
+        <v>0.0221537</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0194719</v>
+        <v>0.0202387</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0202219</v>
+        <v>0.021293</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0222198</v>
+        <v>0.0222621</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0196097</v>
+        <v>0.0202416</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0201725</v>
+        <v>0.0213755</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0222677</v>
+        <v>0.022351</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0199048</v>
+        <v>0.0205515</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0202313</v>
+        <v>0.0214194</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0221789</v>
+        <v>0.0223659</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0199753</v>
+        <v>0.020734</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0201347</v>
+        <v>0.0216061</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0223603</v>
+        <v>0.0223994</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0203051</v>
+        <v>0.0208632</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0202458</v>
+        <v>0.0216834</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0223136</v>
+        <v>0.0224787</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.020876</v>
+        <v>0.0212432</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0203838</v>
+        <v>0.0216891</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0225373</v>
+        <v>0.0225969</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0225822</v>
+        <v>0.0218651</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0204552</v>
+        <v>0.021814</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0232054</v>
+        <v>0.0229866</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0271434</v>
+        <v>0.0253637</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0206377</v>
+        <v>0.02224</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0219464</v>
+        <v>0.0222081</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0189729</v>
+        <v>0.0203899</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0200264</v>
+        <v>0.0218223</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0221413</v>
+        <v>0.0224424</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0191074</v>
+        <v>0.0204771</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0202499</v>
+        <v>0.021951</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0223379</v>
+        <v>0.0227148</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0192099</v>
+        <v>0.0206748</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0204519</v>
+        <v>0.0222832</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0225945</v>
+        <v>0.0228976</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0195026</v>
+        <v>0.0207843</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0206159</v>
+        <v>0.0225478</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0227399</v>
+        <v>0.0231426</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0196587</v>
+        <v>0.0210829</v>
       </c>
       <c r="C28" t="n">
-        <v>0.020874</v>
+        <v>0.0226653</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0228861</v>
+        <v>0.0233641</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0199338</v>
+        <v>0.0211716</v>
       </c>
       <c r="C29" t="n">
-        <v>0.020995</v>
+        <v>0.0228678</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0229698</v>
+        <v>0.0236678</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0202132</v>
+        <v>0.0214289</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0212673</v>
+        <v>0.0232795</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0231567</v>
+        <v>0.0238622</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0204582</v>
+        <v>0.0215001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0213871</v>
+        <v>0.0234118</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0232721</v>
+        <v>0.0240883</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.020766</v>
+        <v>0.0218002</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0215656</v>
+        <v>0.0236239</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0233732</v>
+        <v>0.0241209</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0212756</v>
+        <v>0.0221683</v>
       </c>
       <c r="C33" t="n">
-        <v>0.021592</v>
+        <v>0.0237577</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0235091</v>
+        <v>0.0243341</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0226091</v>
+        <v>0.0231472</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0226719</v>
+        <v>0.0245297</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0242307</v>
+        <v>0.0249996</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0245053</v>
+        <v>0.0257742</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0228492</v>
+        <v>0.0248515</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0255335</v>
+        <v>0.0258005</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0275625</v>
+        <v>0.0289348</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0244706</v>
+        <v>0.0259781</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0304782</v>
+        <v>0.0317443</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.031887</v>
+        <v>0.0322824</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0287338</v>
+        <v>0.028096</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0224746</v>
+        <v>0.0233782</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0197621</v>
+        <v>0.0214691</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0208676</v>
+        <v>0.0231379</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0226539</v>
+        <v>0.0235387</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0198672</v>
+        <v>0.0217903</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0211205</v>
+        <v>0.0235392</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0228184</v>
+        <v>0.0237574</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0201083</v>
+        <v>0.0219112</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0214036</v>
+        <v>0.0237383</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0230373</v>
+        <v>0.0240607</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0203609</v>
+        <v>0.0219809</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0217226</v>
+        <v>0.0240298</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0232748</v>
+        <v>0.0243991</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0204975</v>
+        <v>0.0221479</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0219896</v>
+        <v>0.0242845</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0235328</v>
+        <v>0.0246515</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.020935</v>
+        <v>0.0224448</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0223434</v>
+        <v>0.0248099</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0237623</v>
+        <v>0.0249339</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.021408</v>
+        <v>0.02262</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0226788</v>
+        <v>0.0251381</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0240092</v>
+        <v>0.0252916</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0217029</v>
+        <v>0.0231701</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0230671</v>
+        <v>0.0255035</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0243283</v>
+        <v>0.0255331</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0224266</v>
+        <v>0.0235929</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0235728</v>
+        <v>0.026017</v>
       </c>
       <c r="D46" t="n">
-        <v>0.024658</v>
+        <v>0.0260222</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0233151</v>
+        <v>0.024466</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0241675</v>
+        <v>0.0265204</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0254009</v>
+        <v>0.0266838</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0246945</v>
+        <v>0.0257139</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0248457</v>
+        <v>0.0273233</v>
       </c>
       <c r="D48" t="n">
-        <v>0.026767</v>
+        <v>0.0278203</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0271429</v>
+        <v>0.0282271</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0262067</v>
+        <v>0.0288886</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0292442</v>
+        <v>0.0305126</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0299387</v>
+        <v>0.0303257</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0278516</v>
+        <v>0.0309086</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0340321</v>
+        <v>0.0344632</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0343266</v>
+        <v>0.0351291</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0313213</v>
+        <v>0.035125</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0228941</v>
+        <v>0.0242031</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0398978</v>
+        <v>0.0408898</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0374871</v>
+        <v>0.0395813</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0230579</v>
+        <v>0.0243873</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0206267</v>
+        <v>0.0231879</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0220315</v>
+        <v>0.0250602</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0231918</v>
+        <v>0.0246308</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0207529</v>
+        <v>0.0233257</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0223362</v>
+        <v>0.0252618</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0234188</v>
+        <v>0.0248962</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0210394</v>
+        <v>0.0235135</v>
       </c>
       <c r="C55" t="n">
-        <v>0.022702</v>
+        <v>0.0256001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0236561</v>
+        <v>0.0251551</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.021286</v>
+        <v>0.0237414</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0229806</v>
+        <v>0.0259637</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0239281</v>
+        <v>0.0255061</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0215764</v>
+        <v>0.0239179</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0233038</v>
+        <v>0.0263006</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0242046</v>
+        <v>0.025758</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0221162</v>
+        <v>0.0244805</v>
       </c>
       <c r="C58" t="n">
-        <v>0.02369</v>
+        <v>0.0266533</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0245191</v>
+        <v>0.0261621</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0227106</v>
+        <v>0.0248999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0241176</v>
+        <v>0.027142</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0249139</v>
+        <v>0.0266822</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0234524</v>
+        <v>0.0254771</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0247697</v>
+        <v>0.0277574</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0255061</v>
+        <v>0.027176</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0244489</v>
+        <v>0.0265139</v>
       </c>
       <c r="C61" t="n">
-        <v>0.025463</v>
+        <v>0.0284471</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0264719</v>
+        <v>0.0279736</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0259807</v>
+        <v>0.0280363</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0266887</v>
+        <v>0.0293755</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0280642</v>
+        <v>0.0294383</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0281876</v>
+        <v>0.0300505</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0285213</v>
+        <v>0.0310293</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0309546</v>
+        <v>0.0324535</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0311619</v>
+        <v>0.0328613</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0309113</v>
+        <v>0.0333401</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0350786</v>
+        <v>0.0364486</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0346769</v>
+        <v>0.036562</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0345237</v>
+        <v>0.0369138</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0416373</v>
+        <v>0.042747</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0400516</v>
+        <v>0.0420912</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0398139</v>
+        <v>0.0422301</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0233997</v>
+        <v>0.0261578</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0216411</v>
+        <v>0.0291857</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0227014</v>
+        <v>0.027755</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0235559</v>
+        <v>0.0266345</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0218328</v>
+        <v>0.0293683</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0229891</v>
+        <v>0.028318</v>
       </c>
       <c r="D68" t="n">
-        <v>0.023748</v>
+        <v>0.0270048</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0219414</v>
+        <v>0.0294951</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0232712</v>
+        <v>0.0282048</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0239955</v>
+        <v>0.0274462</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0222211</v>
+        <v>0.029813</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0236391</v>
+        <v>0.0288949</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0242916</v>
+        <v>0.0276478</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0225777</v>
+        <v>0.0300128</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0240196</v>
+        <v>0.0291466</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0246059</v>
+        <v>0.0280925</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0229998</v>
+        <v>0.0302796</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0245058</v>
+        <v>0.0296631</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0250478</v>
+        <v>0.0295698</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0234714</v>
+        <v>0.030801</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0250404</v>
+        <v>0.0302154</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0256026</v>
+        <v>0.0301268</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0243623</v>
+        <v>0.031446</v>
       </c>
       <c r="C74" t="n">
-        <v>0.025599</v>
+        <v>0.0308858</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0262891</v>
+        <v>0.0308125</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0255568</v>
+        <v>0.0324341</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0264805</v>
+        <v>0.0317299</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0275364</v>
+        <v>0.0310039</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0268673</v>
+        <v>0.0335695</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0276592</v>
+        <v>0.0327248</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0293995</v>
+        <v>0.0325978</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0289689</v>
+        <v>0.0353551</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0293417</v>
+        <v>0.0344036</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0322571</v>
+        <v>0.0358014</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0313303</v>
+        <v>0.0378182</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0316675</v>
+        <v>0.0365419</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0358418</v>
+        <v>0.0390005</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.034917</v>
+        <v>0.0410501</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0349458</v>
+        <v>0.0395077</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0413305</v>
+        <v>0.0449875</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0400728</v>
+        <v>0.0456478</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0394648</v>
+        <v>0.0440142</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0268852</v>
+        <v>0.0407134</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0275415</v>
+        <v>0.0552817</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0250108</v>
+        <v>0.0384812</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0264541</v>
+        <v>0.0414223</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0277096</v>
+        <v>0.0555326</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0253961</v>
+        <v>0.0393181</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0285072</v>
+        <v>0.0420164</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0278248</v>
+        <v>0.0556777</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0258115</v>
+        <v>0.0400471</v>
       </c>
       <c r="D83" t="n">
-        <v>0.027657</v>
+        <v>0.0428758</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0280296</v>
+        <v>0.0557553</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0261516</v>
+        <v>0.0410283</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0271551</v>
+        <v>0.0435859</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0283971</v>
+        <v>0.0559421</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0269868</v>
+        <v>0.0422285</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0274412</v>
+        <v>0.0441158</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0288844</v>
+        <v>0.0562511</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0272377</v>
+        <v>0.0436636</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0281572</v>
+        <v>0.0451214</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0292177</v>
+        <v>0.056543</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0277067</v>
+        <v>0.0450427</v>
       </c>
       <c r="D87" t="n">
-        <v>0.028437</v>
+        <v>0.045933</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0300133</v>
+        <v>0.056954</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0284891</v>
+        <v>0.0465122</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0304273</v>
+        <v>0.0468684</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.030845</v>
+        <v>0.0573628</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0289599</v>
+        <v>0.048317</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0311473</v>
+        <v>0.0477272</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0321299</v>
+        <v>0.0581532</v>
       </c>
       <c r="C90" t="n">
-        <v>0.030392</v>
+        <v>0.0499665</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0320945</v>
+        <v>0.0490508</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0338785</v>
+        <v>0.0593444</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0319508</v>
+        <v>0.0516792</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0351068</v>
+        <v>0.0513003</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0362241</v>
+        <v>0.0607396</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0338405</v>
+        <v>0.0540677</v>
       </c>
       <c r="D92" t="n">
-        <v>0.037773</v>
+        <v>0.0542639</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0394468</v>
+        <v>0.06325</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0370315</v>
+        <v>0.0567184</v>
       </c>
       <c r="D93" t="n">
-        <v>0.043984</v>
+        <v>0.0587909</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0438628</v>
+        <v>0.0670234</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0413634</v>
+        <v>0.0613213</v>
       </c>
       <c r="D94" t="n">
-        <v>0.053146</v>
+        <v>0.08060109999999999</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.057561</v>
+        <v>0.086252</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0472273</v>
+        <v>0.07599069999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.053064</v>
+        <v>0.08116420000000001</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0577691</v>
+        <v>0.0863121</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0473954</v>
+        <v>0.0765213</v>
       </c>
       <c r="D96" t="n">
-        <v>0.053399</v>
+        <v>0.0815678</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0579069</v>
+        <v>0.08631</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0476279</v>
+        <v>0.0769676</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0540015</v>
+        <v>0.08204690000000001</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.05789</v>
+        <v>0.08640920000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0479549</v>
+        <v>0.07758429999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0538437</v>
+        <v>0.08264589999999999</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0581355</v>
+        <v>0.0864456</v>
       </c>
       <c r="C99" t="n">
-        <v>0.04842</v>
+        <v>0.0782827</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0543516</v>
+        <v>0.0832561</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0582454</v>
+        <v>0.08653959999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0485752</v>
+        <v>0.0789179</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0538512</v>
+        <v>0.0837205</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0583556</v>
+        <v>0.0867363</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0487954</v>
+        <v>0.07968980000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0549808</v>
+        <v>0.0845051</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0588233</v>
+        <v>0.0870079</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0493429</v>
+        <v>0.0805656</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0551382</v>
+        <v>0.08527559999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0593864</v>
+        <v>0.0874346</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0499051</v>
+        <v>0.0816693</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0562308</v>
+        <v>0.0864844</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0596807</v>
+        <v>0.0880908</v>
       </c>
       <c r="C104" t="n">
-        <v>0.050789</v>
+        <v>0.0863792</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0572149</v>
+        <v>0.0876881</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0605927</v>
+        <v>0.08892</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0517655</v>
+        <v>0.08411639999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.058407</v>
+        <v>0.08924799999999999</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0619567</v>
+        <v>0.0899819</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0532197</v>
+        <v>0.0859486</v>
       </c>
       <c r="D106" t="n">
-        <v>0.060956</v>
+        <v>0.096528</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.06454360000000001</v>
+        <v>0.0920994</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0557151</v>
+        <v>0.08840779999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0651037</v>
+        <v>0.0955449</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.06825349999999999</v>
+        <v>0.0950337</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0593648</v>
+        <v>0.0922501</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0845557</v>
+        <v>0.0975452</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0735301</v>
+        <v>0.100164</v>
       </c>
       <c r="C109" t="n">
-        <v>0.06525069999999999</v>
+        <v>0.0984163</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0850838</v>
+        <v>0.0983436</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.08822199999999999</v>
+        <v>0.113889</v>
       </c>
       <c r="C110" t="n">
-        <v>0.06700209999999999</v>
+        <v>0.0907982</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0854345</v>
+        <v>0.0990383</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0883172</v>
+        <v>0.114021</v>
       </c>
       <c r="C111" t="n">
-        <v>0.06719890000000001</v>
+        <v>0.0916492</v>
       </c>
       <c r="D111" t="n">
-        <v>0.08579870000000001</v>
+        <v>0.09986689999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.08839519999999999</v>
+        <v>0.114114</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0675632</v>
+        <v>0.092555</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0866031</v>
+        <v>0.100985</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0884302</v>
+        <v>0.114157</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0677196</v>
+        <v>0.0937095</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0877032</v>
+        <v>0.101987</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0885719</v>
+        <v>0.114198</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0680862</v>
+        <v>0.09565650000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0876063</v>
+        <v>0.102746</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.08874</v>
+        <v>0.114387</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0684767</v>
+        <v>0.103513</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0881503</v>
+        <v>0.10438</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.08890199999999999</v>
+        <v>0.114667</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0690326</v>
+        <v>0.0973205</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0889474</v>
+        <v>0.105384</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0893159</v>
+        <v>0.115047</v>
       </c>
       <c r="C117" t="n">
-        <v>0.06966899999999999</v>
+        <v>0.0988463</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0898868</v>
+        <v>0.106778</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0910514</v>
+        <v>0.115835</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0705832</v>
+        <v>0.100303</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0911291</v>
+        <v>0.108591</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.09073440000000001</v>
+        <v>0.116215</v>
       </c>
       <c r="C119" t="n">
-        <v>0.07169739999999999</v>
+        <v>0.102148</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0927051</v>
+        <v>0.110691</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0919975</v>
+        <v>0.117455</v>
       </c>
       <c r="C120" t="n">
-        <v>0.07323830000000001</v>
+        <v>0.104312</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0950275</v>
+        <v>0.113494</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.0940845</v>
+        <v>0.119136</v>
       </c>
       <c r="C121" t="n">
-        <v>0.07552010000000001</v>
+        <v>0.107029</v>
       </c>
       <c r="D121" t="n">
-        <v>0.09844799999999999</v>
+        <v>0.117535</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.0971197</v>
+        <v>0.122216</v>
       </c>
       <c r="C122" t="n">
-        <v>0.078981</v>
+        <v>0.111037</v>
       </c>
       <c r="D122" t="n">
-        <v>0.104259</v>
+        <v>0.123795</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.101991</v>
+        <v>0.130657</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0849448</v>
+        <v>0.116985</v>
       </c>
       <c r="D123" t="n">
-        <v>0.10947</v>
+        <v>0.115482</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.117706</v>
+        <v>0.140904</v>
       </c>
       <c r="C124" t="n">
-        <v>0.07863059999999999</v>
+        <v>0.102804</v>
       </c>
       <c r="D124" t="n">
-        <v>0.120148</v>
+        <v>0.116645</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.11772</v>
+        <v>0.140713</v>
       </c>
       <c r="C125" t="n">
-        <v>0.078821</v>
+        <v>0.108721</v>
       </c>
       <c r="D125" t="n">
-        <v>0.109936</v>
+        <v>0.1179</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.117704</v>
+        <v>0.140603</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0793686</v>
+        <v>0.105795</v>
       </c>
       <c r="D126" t="n">
-        <v>0.111783</v>
+        <v>0.119136</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.117952</v>
+        <v>0.140544</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0797417</v>
+        <v>0.107499</v>
       </c>
       <c r="D127" t="n">
-        <v>0.111562</v>
+        <v>0.12028</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.117766</v>
+        <v>0.140461</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0802151</v>
+        <v>0.109135</v>
       </c>
       <c r="D128" t="n">
-        <v>0.113351</v>
+        <v>0.121788</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.117975</v>
+        <v>0.140955</v>
       </c>
       <c r="C129" t="n">
-        <v>0.08104740000000001</v>
+        <v>0.111421</v>
       </c>
       <c r="D129" t="n">
-        <v>0.113547</v>
+        <v>0.123885</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.118257</v>
+        <v>0.142695</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0810348</v>
+        <v>0.113514</v>
       </c>
       <c r="D130" t="n">
-        <v>0.114695</v>
+        <v>0.125833</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.118624</v>
+        <v>0.141111</v>
       </c>
       <c r="C131" t="n">
-        <v>0.081302</v>
+        <v>0.114964</v>
       </c>
       <c r="D131" t="n">
-        <v>0.116869</v>
+        <v>0.1268</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.119206</v>
+        <v>0.141474</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0822209</v>
+        <v>0.116895</v>
       </c>
       <c r="D132" t="n">
-        <v>0.118305</v>
+        <v>0.129052</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.119973</v>
+        <v>0.141584</v>
       </c>
       <c r="C133" t="n">
-        <v>0.08390010000000001</v>
+        <v>0.119313</v>
       </c>
       <c r="D133" t="n">
-        <v>0.120062</v>
+        <v>0.132444</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.121866</v>
+        <v>0.144383</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0855973</v>
+        <v>0.121782</v>
       </c>
       <c r="D134" t="n">
-        <v>0.122743</v>
+        <v>0.134565</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.125364</v>
+        <v>0.144338</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0880413</v>
+        <v>0.124925</v>
       </c>
       <c r="D135" t="n">
-        <v>0.126217</v>
+        <v>0.138824</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.139276</v>
+        <v>0.146809</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0917318</v>
+        <v>0.12911</v>
       </c>
       <c r="D136" t="n">
-        <v>0.134153</v>
+        <v>0.145371</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.130409</v>
+        <v>0.150574</v>
       </c>
       <c r="C137" t="n">
-        <v>0.0973453</v>
+        <v>0.135094</v>
       </c>
       <c r="D137" t="n">
-        <v>0.126101</v>
+        <v>0.129339</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.142017</v>
+        <v>0.157534</v>
       </c>
       <c r="C138" t="n">
-        <v>0.087548</v>
+        <v>0.116615</v>
       </c>
       <c r="D138" t="n">
-        <v>0.126719</v>
+        <v>0.130682</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.140003</v>
+        <v>0.15768</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0875486</v>
+        <v>0.118091</v>
       </c>
       <c r="D139" t="n">
-        <v>0.127295</v>
+        <v>0.131871</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.138726</v>
+        <v>0.157841</v>
       </c>
       <c r="C140" t="n">
-        <v>0.08920019999999999</v>
+        <v>0.119623</v>
       </c>
       <c r="D140" t="n">
-        <v>0.128196</v>
+        <v>0.133153</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.138626</v>
+        <v>0.170985</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0880956</v>
+        <v>0.121247</v>
       </c>
       <c r="D141" t="n">
-        <v>0.128825</v>
+        <v>0.134562</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.138899</v>
+        <v>0.158043</v>
       </c>
       <c r="C142" t="n">
-        <v>0.09052060000000001</v>
+        <v>0.122801</v>
       </c>
       <c r="D142" t="n">
-        <v>0.130068</v>
+        <v>0.135784</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.138972</v>
+        <v>0.158496</v>
       </c>
       <c r="C143" t="n">
-        <v>0.08916060000000001</v>
+        <v>0.12453</v>
       </c>
       <c r="D143" t="n">
-        <v>0.131037</v>
+        <v>0.137311</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -93,7 +93,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_set</v>
+            <v>absl::flat_hash_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185383</v>
+                  <v>0.0198274</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.185607</v>
+                  <v>0.0198243</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.186605</v>
+                  <v>0.0198059</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.187124</v>
+                  <v>0.0199393</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.188247</v>
+                  <v>0.0198465</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.189644</v>
+                  <v>0.0200695</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.191261</v>
+                  <v>0.0203167</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.193866</v>
+                  <v>0.0207984</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.189625</v>
+                  <v>0.019398</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.189347</v>
+                  <v>0.0196474</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.18967</v>
+                  <v>0.0198002</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.189651</v>
+                  <v>0.0198351</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.189799</v>
+                  <v>0.020005</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.190668</v>
+                  <v>0.0201547</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.190507</v>
+                  <v>0.0202387</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.190882</v>
+                  <v>0.0202416</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.191645</v>
+                  <v>0.0205515</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.192909</v>
+                  <v>0.020734</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.194129</v>
+                  <v>0.0208632</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.196017</v>
+                  <v>0.0212432</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.198191</v>
+                  <v>0.0218651</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.201494</v>
+                  <v>0.0253637</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.19585</v>
+                  <v>0.0203899</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.195797</v>
+                  <v>0.0204771</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.195992</v>
+                  <v>0.0206748</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.195994</v>
+                  <v>0.0207843</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.196362</v>
+                  <v>0.0210829</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.196625</v>
+                  <v>0.0211716</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196864</v>
+                  <v>0.0214289</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.197264</v>
+                  <v>0.0215001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.198098</v>
+                  <v>0.0218002</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.199083</v>
+                  <v>0.0221683</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.200285</v>
+                  <v>0.0231472</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.202461</v>
+                  <v>0.0257742</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.20494</v>
+                  <v>0.0289348</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.208708</v>
+                  <v>0.0322824</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.204984</v>
+                  <v>0.0214691</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.20572</v>
+                  <v>0.0217903</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.20395</v>
+                  <v>0.0219112</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.206755</v>
+                  <v>0.0219809</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.206874</v>
+                  <v>0.0221479</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.206643</v>
+                  <v>0.0224448</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.207752</v>
+                  <v>0.02262</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.206632</v>
+                  <v>0.0231701</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.208039</v>
+                  <v>0.0235929</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.208508</v>
+                  <v>0.024466</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.21314</v>
+                  <v>0.0257139</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.214405</v>
+                  <v>0.0282271</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.216212</v>
+                  <v>0.0303257</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.220277</v>
+                  <v>0.0351291</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.225836</v>
+                  <v>0.0408898</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239701</v>
+                  <v>0.0231879</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239374</v>
+                  <v>0.0233257</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.239406</v>
+                  <v>0.0235135</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.239685</v>
+                  <v>0.0237414</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.240074</v>
+                  <v>0.0239179</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.239923</v>
+                  <v>0.0244805</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.240387</v>
+                  <v>0.0248999</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.240948</v>
+                  <v>0.0254771</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.241596</v>
+                  <v>0.0265139</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.242725</v>
+                  <v>0.0280363</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.2443</v>
+                  <v>0.0300505</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.246192</v>
+                  <v>0.0328613</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.249543</v>
+                  <v>0.036562</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.254656</v>
+                  <v>0.0420912</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.255606</v>
+                  <v>0.0291857</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.25724</v>
+                  <v>0.0293683</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.258741</v>
+                  <v>0.0294951</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.256833</v>
+                  <v>0.029813</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.257274</v>
+                  <v>0.0300128</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.262396</v>
+                  <v>0.0302796</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.25894</v>
+                  <v>0.030801</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.261004</v>
+                  <v>0.031446</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.260554</v>
+                  <v>0.0324341</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.260622</v>
+                  <v>0.0335695</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.265311</v>
+                  <v>0.0353551</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.27449</v>
+                  <v>0.0378182</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.282328</v>
+                  <v>0.0410501</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.283954</v>
+                  <v>0.0456478</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.434666</v>
+                  <v>0.0552817</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.448057</v>
+                  <v>0.0555326</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.385917</v>
+                  <v>0.0556777</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.399879</v>
+                  <v>0.0557553</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.455774</v>
+                  <v>0.0559421</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.443092</v>
+                  <v>0.0562511</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.39204</v>
+                  <v>0.056543</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.360522</v>
+                  <v>0.056954</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.359055</v>
+                  <v>0.0573628</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.395665</v>
+                  <v>0.0581532</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.376249</v>
+                  <v>0.0593444</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.379278</v>
+                  <v>0.0607396</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.403744</v>
+                  <v>0.06325</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.437741</v>
+                  <v>0.0670234</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.550984</v>
+                  <v>0.086252</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56246</v>
+                  <v>0.0863121</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.528468</v>
+                  <v>0.08631</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.522787</v>
+                  <v>0.08640920000000001</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.522766</v>
+                  <v>0.0864456</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.541872</v>
+                  <v>0.08653959999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.485955</v>
+                  <v>0.0867363</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.504454</v>
+                  <v>0.0870079</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.513336</v>
+                  <v>0.0874346</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.443294</v>
+                  <v>0.0880908</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.449806</v>
+                  <v>0.08892</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.508251</v>
+                  <v>0.0899819</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.455857</v>
+                  <v>0.0920994</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.506961</v>
+                  <v>0.0950337</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.497047</v>
+                  <v>0.100164</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.5698029999999999</v>
+                  <v>0.113889</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.62543</v>
+                  <v>0.114021</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.578956</v>
+                  <v>0.114114</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.64242</v>
+                  <v>0.114157</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.590384</v>
+                  <v>0.114198</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.5832270000000001</v>
+                  <v>0.114387</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.55203</v>
+                  <v>0.114667</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.551107</v>
+                  <v>0.115047</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.5461549999999999</v>
+                  <v>0.115835</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.558638</v>
+                  <v>0.116215</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.546427</v>
+                  <v>0.117455</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.541991</v>
+                  <v>0.119136</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.530105</v>
+                  <v>0.122216</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.574083</v>
+                  <v>0.130657</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.678766</v>
+                  <v>0.140904</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.691848</v>
+                  <v>0.140713</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.627237</v>
+                  <v>0.140603</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.6081220000000001</v>
+                  <v>0.140544</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.639138</v>
+                  <v>0.140461</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.632568</v>
+                  <v>0.140955</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.64813</v>
+                  <v>0.142695</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6033500000000001</v>
+                  <v>0.141111</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.6096279999999999</v>
+                  <v>0.141474</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.666418</v>
+                  <v>0.141584</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.722901</v>
+                  <v>0.144383</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.6843399999999999</v>
+                  <v>0.144338</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.691974</v>
+                  <v>0.146809</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.7238830000000001</v>
+                  <v>0.150574</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.767194</v>
+                  <v>0.157534</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.7875</v>
+                  <v>0.15768</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.791062</v>
+                  <v>0.157841</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.758329</v>
+                  <v>0.170985</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.770876</v>
+                  <v>0.158043</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.737333</v>
+                  <v>0.158496</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +987,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_set</v>
+            <v>foa_unordered_rc16_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.207513</v>
+                  <v>0.01963</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.207817</v>
+                  <v>0.0195504</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.208593</v>
+                  <v>0.0196026</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.209369</v>
+                  <v>0.0196237</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.211344</v>
+                  <v>0.0194434</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.212097</v>
+                  <v>0.0196089</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.213952</v>
+                  <v>0.0196438</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.217604</v>
+                  <v>0.019683</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.207746</v>
+                  <v>0.0206908</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.209665</v>
+                  <v>0.0208145</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20981</v>
+                  <v>0.0208233</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210476</v>
+                  <v>0.0208079</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.210732</v>
+                  <v>0.0210678</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.211696</v>
+                  <v>0.0211339</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.212256</v>
+                  <v>0.021293</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.212852</v>
+                  <v>0.0213755</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.213634</v>
+                  <v>0.0214194</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.215167</v>
+                  <v>0.0216061</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.215972</v>
+                  <v>0.0216834</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.21763</v>
+                  <v>0.0216891</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.220112</v>
+                  <v>0.021814</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.223056</v>
+                  <v>0.02224</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209433</v>
+                  <v>0.0218223</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.209564</v>
+                  <v>0.021951</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.210185</v>
+                  <v>0.0222832</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.210438</v>
+                  <v>0.0225478</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211247</v>
+                  <v>0.0226653</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.211254</v>
+                  <v>0.0228678</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.212385</v>
+                  <v>0.0232795</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.213096</v>
+                  <v>0.0234118</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.214233</v>
+                  <v>0.0236239</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.215302</v>
+                  <v>0.0237577</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.21649</v>
+                  <v>0.0245297</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.21861</v>
+                  <v>0.0248515</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.221448</v>
+                  <v>0.0259781</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.22576</v>
+                  <v>0.028096</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.213927</v>
+                  <v>0.0231379</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.214925</v>
+                  <v>0.0235392</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.215476</v>
+                  <v>0.0237383</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.215189</v>
+                  <v>0.0240298</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.216189</v>
+                  <v>0.0242845</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.21693</v>
+                  <v>0.0248099</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.218236</v>
+                  <v>0.0251381</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.219015</v>
+                  <v>0.0255035</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.221901</v>
+                  <v>0.026017</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.219659</v>
+                  <v>0.0265204</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.222921</v>
+                  <v>0.0273233</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.224707</v>
+                  <v>0.0288886</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.229186</v>
+                  <v>0.0309086</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.233644</v>
+                  <v>0.035125</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.241295</v>
+                  <v>0.0395813</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239069</v>
+                  <v>0.0250602</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239541</v>
+                  <v>0.0252618</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.240295</v>
+                  <v>0.0256001</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.242151</v>
+                  <v>0.0259637</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.243641</v>
+                  <v>0.0263006</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.243783</v>
+                  <v>0.0266533</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.244885</v>
+                  <v>0.027142</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.246437</v>
+                  <v>0.0277574</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.247802</v>
+                  <v>0.0284471</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.249783</v>
+                  <v>0.0293755</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.252535</v>
+                  <v>0.0310293</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.256059</v>
+                  <v>0.0333401</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.260138</v>
+                  <v>0.0369138</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.268357</v>
+                  <v>0.0422301</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.275224</v>
+                  <v>0.027755</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.276503</v>
+                  <v>0.028318</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.277776</v>
+                  <v>0.0282048</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.278297</v>
+                  <v>0.0288949</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.280737</v>
+                  <v>0.0291466</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.28054</v>
+                  <v>0.0296631</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.281726</v>
+                  <v>0.0302154</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.282924</v>
+                  <v>0.0308858</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285336</v>
+                  <v>0.0317299</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.287671</v>
+                  <v>0.0327248</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.291509</v>
+                  <v>0.0344036</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.2952</v>
+                  <v>0.0365419</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307095</v>
+                  <v>0.0395077</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.312665</v>
+                  <v>0.0440142</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.287846</v>
+                  <v>0.0384812</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.302136</v>
+                  <v>0.0393181</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.27906</v>
+                  <v>0.0400471</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.304678</v>
+                  <v>0.0410283</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.356345</v>
+                  <v>0.0422285</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.288947</v>
+                  <v>0.0436636</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.290747</v>
+                  <v>0.0450427</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.28432</v>
+                  <v>0.0465122</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.296649</v>
+                  <v>0.048317</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.295213</v>
+                  <v>0.0499665</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.314524</v>
+                  <v>0.0516792</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.322241</v>
+                  <v>0.0540677</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.336039</v>
+                  <v>0.0567184</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.321098</v>
+                  <v>0.0613213</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.484726</v>
+                  <v>0.07599069999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.498166</v>
+                  <v>0.0765213</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.517987</v>
+                  <v>0.0769676</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.532666</v>
+                  <v>0.07758429999999999</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.495137</v>
+                  <v>0.0782827</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.449602</v>
+                  <v>0.0789179</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.413912</v>
+                  <v>0.07968980000000001</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.546197</v>
+                  <v>0.0805656</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.382799</v>
+                  <v>0.0816693</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.377815</v>
+                  <v>0.0863792</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.521379</v>
+                  <v>0.08411639999999999</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.421292</v>
+                  <v>0.0859486</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438736</v>
+                  <v>0.08840779999999999</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.521957</v>
+                  <v>0.0922501</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.475413</v>
+                  <v>0.0984163</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.617764</v>
+                  <v>0.0907982</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.654273</v>
+                  <v>0.0916492</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.6944939999999999</v>
+                  <v>0.092555</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.656334</v>
+                  <v>0.0937095</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.649984</v>
+                  <v>0.09565650000000001</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.531063</v>
+                  <v>0.103513</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.550509</v>
+                  <v>0.0973205</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.5761579999999999</v>
+                  <v>0.0988463</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.578</v>
+                  <v>0.100303</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.647649</v>
+                  <v>0.102148</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.63648</v>
+                  <v>0.104312</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.628615</v>
+                  <v>0.107029</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.59633</v>
+                  <v>0.111037</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.625355</v>
+                  <v>0.116985</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.659179</v>
+                  <v>0.102804</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.666982</v>
+                  <v>0.108721</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.656903</v>
+                  <v>0.105795</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.657123</v>
+                  <v>0.107499</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.711487</v>
+                  <v>0.109135</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.689036</v>
+                  <v>0.111421</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.707103</v>
+                  <v>0.113514</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6603290000000001</v>
+                  <v>0.114964</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.687039</v>
+                  <v>0.116895</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.737206</v>
+                  <v>0.119313</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.720435</v>
+                  <v>0.121782</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.759125</v>
+                  <v>0.124925</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.798233</v>
+                  <v>0.12911</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.809383</v>
+                  <v>0.135094</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.738269</v>
+                  <v>0.116615</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.739426</v>
+                  <v>0.118091</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.752214</v>
+                  <v>0.119623</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.772877</v>
+                  <v>0.121247</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.746614</v>
+                  <v>0.122801</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.761084</v>
+                  <v>0.12453</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1881,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_set</v>
+            <v>foa_unordered_rc15_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.216837</v>
+                  <v>0.0210661</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.218104</v>
+                  <v>0.0210821</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.219175</v>
+                  <v>0.0210432</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.220505</v>
+                  <v>0.0210228</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.221362</v>
+                  <v>0.0211017</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.224182</v>
+                  <v>0.021451</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.228887</v>
+                  <v>0.0215967</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.21728</v>
+                  <v>0.021032</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.217315</v>
+                  <v>0.021237</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.21793</v>
+                  <v>0.0214398</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217787</v>
+                  <v>0.0216389</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.217923</v>
+                  <v>0.0217625</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.218541</v>
+                  <v>0.0220811</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.21938</v>
+                  <v>0.0221537</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.220115</v>
+                  <v>0.0222621</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.22137</v>
+                  <v>0.022351</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.222222</v>
+                  <v>0.0223659</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.223529</v>
+                  <v>0.0223994</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.22549</v>
+                  <v>0.0224787</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.228447</v>
+                  <v>0.0225969</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.232987</v>
+                  <v>0.0229866</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.219102</v>
+                  <v>0.0222081</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.219541</v>
+                  <v>0.0224424</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.219748</v>
+                  <v>0.0227148</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.219959</v>
+                  <v>0.0228976</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.220642</v>
+                  <v>0.0231426</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.221022</v>
+                  <v>0.0233641</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.221462</v>
+                  <v>0.0236678</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.222167</v>
+                  <v>0.0238622</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.223124</v>
+                  <v>0.0240883</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.224288</v>
+                  <v>0.0241209</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.225905</v>
+                  <v>0.0243341</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.227744</v>
+                  <v>0.0249996</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.230598</v>
+                  <v>0.0258005</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.236023</v>
+                  <v>0.0317443</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.223464</v>
+                  <v>0.0233782</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.224531</v>
+                  <v>0.0235387</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.224587</v>
+                  <v>0.0237574</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.224483</v>
+                  <v>0.0240607</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.224507</v>
+                  <v>0.0243991</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224405</v>
+                  <v>0.0246515</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.226664</v>
+                  <v>0.0249339</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.22932</v>
+                  <v>0.0252916</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.227395</v>
+                  <v>0.0255331</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.229934</v>
+                  <v>0.0260222</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.230548</v>
+                  <v>0.0266838</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.233495</v>
+                  <v>0.0278203</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.236796</v>
+                  <v>0.0305126</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.241887</v>
+                  <v>0.0344632</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.249886</v>
+                  <v>0.0242031</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.250123</v>
+                  <v>0.0243873</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.250994</v>
+                  <v>0.0246308</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.250755</v>
+                  <v>0.0248962</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.252193</v>
+                  <v>0.0251551</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.253215</v>
+                  <v>0.0255061</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.254239</v>
+                  <v>0.025758</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.254333</v>
+                  <v>0.0261621</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.254855</v>
+                  <v>0.0266822</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.25697</v>
+                  <v>0.027176</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.258883</v>
+                  <v>0.0279736</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.260853</v>
+                  <v>0.0294383</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.264751</v>
+                  <v>0.0324535</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.269732</v>
+                  <v>0.0364486</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.276114</v>
+                  <v>0.042747</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.273031</v>
+                  <v>0.0261578</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.273085</v>
+                  <v>0.0266345</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.274781</v>
+                  <v>0.0270048</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.276111</v>
+                  <v>0.0274462</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.276388</v>
+                  <v>0.0276478</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.279423</v>
+                  <v>0.0280925</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.279404</v>
+                  <v>0.0295698</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.283286</v>
+                  <v>0.0301268</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.283068</v>
+                  <v>0.0308125</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285769</v>
+                  <v>0.0310039</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.290016</v>
+                  <v>0.0325978</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.294341</v>
+                  <v>0.0358014</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.299975</v>
+                  <v>0.0390005</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307466</v>
+                  <v>0.0449875</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.35631</v>
+                  <v>0.0407134</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.346467</v>
+                  <v>0.0414223</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.341993</v>
+                  <v>0.0420164</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.343153</v>
+                  <v>0.0428758</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.401885</v>
+                  <v>0.0435859</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.397565</v>
+                  <v>0.0441158</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.332944</v>
+                  <v>0.0451214</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.344294</v>
+                  <v>0.045933</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.325342</v>
+                  <v>0.0468684</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.352167</v>
+                  <v>0.0477272</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.337268</v>
+                  <v>0.0490508</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.36583</v>
+                  <v>0.0513003</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.380756</v>
+                  <v>0.0542639</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.421928</v>
+                  <v>0.0587909</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.501549</v>
+                  <v>0.08060109999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.537262</v>
+                  <v>0.08116420000000001</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56011</v>
+                  <v>0.0815678</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.5275609999999999</v>
+                  <v>0.08204690000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.495897</v>
+                  <v>0.08264589999999999</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.572755</v>
+                  <v>0.0832561</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.498945</v>
+                  <v>0.0837205</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.449178</v>
+                  <v>0.0845051</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.547782</v>
+                  <v>0.08527559999999999</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.415949</v>
+                  <v>0.0864844</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.390068</v>
+                  <v>0.0876881</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.52965</v>
+                  <v>0.08924799999999999</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.403388</v>
+                  <v>0.096528</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438826</v>
+                  <v>0.0955449</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.602194</v>
+                  <v>0.0975452</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.620428</v>
+                  <v>0.0983436</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.725276</v>
+                  <v>0.0990383</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.702693</v>
+                  <v>0.09986689999999999</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.73215</v>
+                  <v>0.100985</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.661095</v>
+                  <v>0.101987</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.606508</v>
+                  <v>0.102746</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.582412</v>
+                  <v>0.10438</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.6140600000000001</v>
+                  <v>0.105384</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.607225</v>
+                  <v>0.106778</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.58941</v>
+                  <v>0.108591</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.744695</v>
+                  <v>0.110691</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.644252</v>
+                  <v>0.113494</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.5756869999999999</v>
+                  <v>0.117535</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.654726</v>
+                  <v>0.123795</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.742186</v>
+                  <v>0.115482</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.727647</v>
+                  <v>0.116645</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.695211</v>
+                  <v>0.1179</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.797323</v>
+                  <v>0.119136</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.741178</v>
+                  <v>0.12028</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.736914</v>
+                  <v>0.121788</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.781694</v>
+                  <v>0.123885</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.746709</v>
+                  <v>0.125833</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.689246</v>
+                  <v>0.1268</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.72965</v>
+                  <v>0.129052</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.8171620000000001</v>
+                  <v>0.132444</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.776553</v>
+                  <v>0.134565</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.784866</v>
+                  <v>0.138824</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.837244</v>
+                  <v>0.145371</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.8127220000000001</v>
+                  <v>0.129339</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.830338</v>
+                  <v>0.130682</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.815751</v>
+                  <v>0.131871</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.825283</v>
+                  <v>0.133153</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.822431</v>
+                  <v>0.134562</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.828008</v>
+                  <v>0.135784</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.854793</v>
+                  <v>0.137311</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3210,36 +3210,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Hoja1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="3" style="1" width="11.42578125"/>
+    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>absl::flat_hash_set</t>
+          <t>absl::flat_hash_map</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_set</t>
+          <t>foa_unordered_rc16_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_set</t>
+          <t>foa_unordered_rc15_map</t>
         </is>
       </c>
     </row>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0198274</v>
+        <v>0.0195112</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01963</v>
+        <v>0.0196421</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0210661</v>
+        <v>0.0211246</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0198243</v>
+        <v>0.0196414</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0195504</v>
+        <v>0.0195901</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0210821</v>
+        <v>0.0211676</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0198059</v>
+        <v>0.0196938</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0196026</v>
+        <v>0.0196182</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0210432</v>
+        <v>0.0210976</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0199393</v>
+        <v>0.0196395</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0196237</v>
+        <v>0.0195382</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0210228</v>
+        <v>0.0210296</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0198465</v>
+        <v>0.0199268</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0194434</v>
+        <v>0.0195608</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0211017</v>
+        <v>0.0212909</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0200695</v>
+        <v>0.0201257</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0196089</v>
+        <v>0.0194184</v>
       </c>
       <c r="D7" t="n">
-        <v>0.021451</v>
+        <v>0.0212402</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0203167</v>
+        <v>0.0200494</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0196438</v>
+        <v>0.0196001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0215967</v>
+        <v>0.021526</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0207984</v>
+        <v>0.0201919</v>
       </c>
       <c r="C9" t="n">
-        <v>0.019683</v>
+        <v>0.0198248</v>
       </c>
       <c r="D9" t="n">
-        <v>0.021032</v>
+        <v>0.02098</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.019398</v>
+        <v>0.0195043</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0206908</v>
+        <v>0.0208134</v>
       </c>
       <c r="D10" t="n">
-        <v>0.021237</v>
+        <v>0.0212598</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0196474</v>
+        <v>0.019442</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0208145</v>
+        <v>0.0207343</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0214398</v>
+        <v>0.0213183</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0198002</v>
+        <v>0.0197053</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0208233</v>
+        <v>0.0207608</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0216389</v>
+        <v>0.0218103</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0198351</v>
+        <v>0.0196092</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0208079</v>
+        <v>0.0210735</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0217625</v>
+        <v>0.0217323</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.020005</v>
+        <v>0.0198771</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0210678</v>
+        <v>0.0209507</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0220811</v>
+        <v>0.0218807</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0201547</v>
+        <v>0.0201646</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0211339</v>
+        <v>0.0212802</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0221537</v>
+        <v>0.0224629</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0202387</v>
+        <v>0.0201825</v>
       </c>
       <c r="C16" t="n">
-        <v>0.021293</v>
+        <v>0.0212926</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0222621</v>
+        <v>0.02251</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0202416</v>
+        <v>0.0203518</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0213755</v>
+        <v>0.0215246</v>
       </c>
       <c r="D17" t="n">
-        <v>0.022351</v>
+        <v>0.0221977</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0205515</v>
+        <v>0.0204334</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0214194</v>
+        <v>0.0216133</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0223659</v>
+        <v>0.0225291</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.020734</v>
+        <v>0.0206195</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0216061</v>
+        <v>0.0218148</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0223994</v>
+        <v>0.0223179</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0208632</v>
+        <v>0.0206024</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0216834</v>
+        <v>0.0215995</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0224787</v>
+        <v>0.022793</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0212432</v>
+        <v>0.0208696</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0216891</v>
+        <v>0.0217365</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0225969</v>
+        <v>0.0229569</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0218651</v>
+        <v>0.0217313</v>
       </c>
       <c r="C22" t="n">
-        <v>0.021814</v>
+        <v>0.0221735</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0229866</v>
+        <v>0.0234059</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0253637</v>
+        <v>0.0252799</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02224</v>
+        <v>0.0225253</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0222081</v>
+        <v>0.0222474</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0203899</v>
+        <v>0.0205313</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0218223</v>
+        <v>0.021826</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0224424</v>
+        <v>0.0224685</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0204771</v>
+        <v>0.0205949</v>
       </c>
       <c r="C25" t="n">
-        <v>0.021951</v>
+        <v>0.0219623</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0227148</v>
+        <v>0.0226844</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0206748</v>
+        <v>0.0208393</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0222832</v>
+        <v>0.0223501</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0228976</v>
+        <v>0.0229215</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0207843</v>
+        <v>0.0208589</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0225478</v>
+        <v>0.0225124</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0231426</v>
+        <v>0.0231298</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0210829</v>
+        <v>0.0210839</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0226653</v>
+        <v>0.0227735</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0233641</v>
+        <v>0.0233502</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0211716</v>
+        <v>0.0212466</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0228678</v>
+        <v>0.0229334</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0236678</v>
+        <v>0.0236216</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0214289</v>
+        <v>0.0215468</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0232795</v>
+        <v>0.0232223</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0238622</v>
+        <v>0.0238836</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0215001</v>
+        <v>0.0215269</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0234118</v>
+        <v>0.0233397</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0240883</v>
+        <v>0.0240515</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0218002</v>
+        <v>0.021782</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0236239</v>
+        <v>0.0236366</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0241209</v>
+        <v>0.0241292</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0221683</v>
+        <v>0.0222399</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0237577</v>
+        <v>0.0238222</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0243341</v>
+        <v>0.0244586</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0231472</v>
+        <v>0.0240209</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0245297</v>
+        <v>0.0246591</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0249996</v>
+        <v>0.0249229</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0257742</v>
+        <v>0.0250599</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0248515</v>
+        <v>0.0252288</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0258005</v>
+        <v>0.0267321</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0289348</v>
+        <v>0.0285726</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0259781</v>
+        <v>0.0264666</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0317443</v>
+        <v>0.0335728</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0322824</v>
+        <v>0.0322933</v>
       </c>
       <c r="C37" t="n">
-        <v>0.028096</v>
+        <v>0.0335886</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0233782</v>
+        <v>0.0235257</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0214691</v>
+        <v>0.0214577</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0231379</v>
+        <v>0.0232032</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0235387</v>
+        <v>0.0236257</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0217903</v>
+        <v>0.0215847</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0235392</v>
+        <v>0.0235326</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0237574</v>
+        <v>0.0238102</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0219112</v>
+        <v>0.0217258</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0237383</v>
+        <v>0.0236755</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0240607</v>
+        <v>0.0240833</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0219809</v>
+        <v>0.0219178</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0240298</v>
+        <v>0.0240259</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0243991</v>
+        <v>0.0243425</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0221479</v>
+        <v>0.022075</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0242845</v>
+        <v>0.0244126</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0246515</v>
+        <v>0.0246537</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0224448</v>
+        <v>0.0223053</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0248099</v>
+        <v>0.024726</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0249339</v>
+        <v>0.0249313</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02262</v>
+        <v>0.0226001</v>
       </c>
       <c r="C44" t="n">
         <v>0.0251381</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0252916</v>
+        <v>0.0253694</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0231701</v>
+        <v>0.0229969</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0255035</v>
+        <v>0.0255049</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0255331</v>
+        <v>0.0255373</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0235929</v>
+        <v>0.0236792</v>
       </c>
       <c r="C46" t="n">
-        <v>0.026017</v>
+        <v>0.0261012</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0260222</v>
+        <v>0.0259387</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.024466</v>
+        <v>0.0242918</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0265204</v>
+        <v>0.0264684</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0266838</v>
+        <v>0.0266454</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0257139</v>
+        <v>0.0259622</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0273233</v>
+        <v>0.0271377</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0278203</v>
+        <v>0.0278312</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0282271</v>
+        <v>0.0278494</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0288886</v>
+        <v>0.0291065</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0305126</v>
+        <v>0.0303477</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0303257</v>
+        <v>0.0307947</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0309086</v>
+        <v>0.0305661</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0344632</v>
+        <v>0.0347275</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0351291</v>
+        <v>0.0353079</v>
       </c>
       <c r="C51" t="n">
-        <v>0.035125</v>
+        <v>0.0339897</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0242031</v>
+        <v>0.0241584</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0408898</v>
+        <v>0.0407843</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0395813</v>
+        <v>0.0398105</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0243873</v>
+        <v>0.0243846</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0231879</v>
+        <v>0.023175</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0250602</v>
+        <v>0.0250275</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0246308</v>
+        <v>0.0246061</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0233257</v>
+        <v>0.0232542</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0252618</v>
+        <v>0.0253028</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0248962</v>
+        <v>0.0248129</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0235135</v>
+        <v>0.0233925</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0256001</v>
+        <v>0.0256387</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0251551</v>
+        <v>0.0252236</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0237414</v>
+        <v>0.0236593</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0259637</v>
+        <v>0.0260031</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0255061</v>
+        <v>0.0254663</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0239179</v>
+        <v>0.0239547</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0263006</v>
+        <v>0.0262821</v>
       </c>
       <c r="D57" t="n">
-        <v>0.025758</v>
+        <v>0.0257615</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0244805</v>
+        <v>0.0243906</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0266533</v>
+        <v>0.0266579</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0261621</v>
+        <v>0.0261853</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0248999</v>
+        <v>0.024898</v>
       </c>
       <c r="C59" t="n">
-        <v>0.027142</v>
+        <v>0.0271288</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0266822</v>
+        <v>0.0268554</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0254771</v>
+        <v>0.0256191</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0277574</v>
+        <v>0.0278001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.027176</v>
+        <v>0.0272862</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0265139</v>
+        <v>0.0267368</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0284471</v>
+        <v>0.0284952</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0279736</v>
+        <v>0.0281605</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0280363</v>
+        <v>0.0280685</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0293755</v>
+        <v>0.0293783</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0294383</v>
+        <v>0.0294257</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0300505</v>
+        <v>0.0301924</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0310293</v>
+        <v>0.0309191</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0324535</v>
+        <v>0.0321095</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0328613</v>
+        <v>0.0329836</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0333401</v>
+        <v>0.0331086</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0364486</v>
+        <v>0.0365849</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.036562</v>
+        <v>0.0366288</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0369138</v>
+        <v>0.0367918</v>
       </c>
       <c r="D65" t="n">
-        <v>0.042747</v>
+        <v>0.0427978</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0420912</v>
+        <v>0.0418544</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0422301</v>
+        <v>0.0422345</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0261578</v>
+        <v>0.0263865</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0291857</v>
+        <v>0.0296603</v>
       </c>
       <c r="C67" t="n">
-        <v>0.027755</v>
+        <v>0.0276254</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0266345</v>
+        <v>0.0266384</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0293683</v>
+        <v>0.0298366</v>
       </c>
       <c r="C68" t="n">
-        <v>0.028318</v>
+        <v>0.0278066</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0270048</v>
+        <v>0.0271368</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0294951</v>
+        <v>0.0300664</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0282048</v>
+        <v>0.0280762</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0274462</v>
+        <v>0.0290095</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.029813</v>
+        <v>0.0303103</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0288949</v>
+        <v>0.0284092</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0276478</v>
+        <v>0.0277961</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0300128</v>
+        <v>0.0306332</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0291466</v>
+        <v>0.0287534</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0280925</v>
+        <v>0.0282625</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0302796</v>
+        <v>0.030806</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0296631</v>
+        <v>0.0295142</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0295698</v>
+        <v>0.0286726</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.030801</v>
+        <v>0.0314205</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0302154</v>
+        <v>0.0296786</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0301268</v>
+        <v>0.0292943</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.031446</v>
+        <v>0.031945</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0308858</v>
+        <v>0.0310886</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0308125</v>
+        <v>0.0303278</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0324341</v>
+        <v>0.0328913</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0317299</v>
+        <v>0.0312308</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0310039</v>
+        <v>0.031009</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0335695</v>
+        <v>0.0339977</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0327248</v>
+        <v>0.0321711</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0325978</v>
+        <v>0.0325221</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0353551</v>
+        <v>0.0357263</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0344036</v>
+        <v>0.0338619</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0358014</v>
+        <v>0.035268</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0378182</v>
+        <v>0.0379903</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0365419</v>
+        <v>0.0361699</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0390005</v>
+        <v>0.0395202</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0410501</v>
+        <v>0.0414277</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0395077</v>
+        <v>0.0392205</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0449875</v>
+        <v>0.0444946</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0456478</v>
+        <v>0.0460054</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0440142</v>
+        <v>0.0436614</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0407134</v>
+        <v>0.0411833</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0552817</v>
+        <v>0.0555916</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0384812</v>
+        <v>0.0386902</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0414223</v>
+        <v>0.0419128</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0555326</v>
+        <v>0.0556813</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0393181</v>
+        <v>0.0392805</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0420164</v>
+        <v>0.0424235</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0556777</v>
+        <v>0.055808</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0400471</v>
+        <v>0.0404729</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0428758</v>
+        <v>0.0438318</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0557553</v>
+        <v>0.0559917</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0410283</v>
+        <v>0.0419726</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0435859</v>
+        <v>0.0446546</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0559421</v>
+        <v>0.0561451</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0422285</v>
+        <v>0.0429749</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0441158</v>
+        <v>0.0449006</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0562511</v>
+        <v>0.0563514</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0436636</v>
+        <v>0.0442679</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0451214</v>
+        <v>0.0460982</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.056543</v>
+        <v>0.056715</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0450427</v>
+        <v>0.0459254</v>
       </c>
       <c r="D87" t="n">
-        <v>0.045933</v>
+        <v>0.046596</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.056954</v>
+        <v>0.0571151</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0465122</v>
+        <v>0.0476528</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0468684</v>
+        <v>0.0478949</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0573628</v>
+        <v>0.0575209</v>
       </c>
       <c r="C89" t="n">
-        <v>0.048317</v>
+        <v>0.0490127</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0477272</v>
+        <v>0.0486991</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0581532</v>
+        <v>0.0584294</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0499665</v>
+        <v>0.0508084</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0490508</v>
+        <v>0.0504689</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0593444</v>
+        <v>0.0593346</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0516792</v>
+        <v>0.0527774</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0513003</v>
+        <v>0.0523998</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0607396</v>
+        <v>0.060754</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0540677</v>
+        <v>0.0549393</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0542639</v>
+        <v>0.0547689</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.06325</v>
+        <v>0.0633533</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0567184</v>
+        <v>0.0579544</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0587909</v>
+        <v>0.0594515</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0670234</v>
+        <v>0.0671547</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0613213</v>
+        <v>0.0619436</v>
       </c>
       <c r="D94" t="n">
-        <v>0.08060109999999999</v>
+        <v>0.0805207</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.086252</v>
+        <v>0.085732</v>
       </c>
       <c r="C95" t="n">
-        <v>0.07599069999999999</v>
+        <v>0.076153</v>
       </c>
       <c r="D95" t="n">
-        <v>0.08116420000000001</v>
+        <v>0.08108509999999999</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0863121</v>
+        <v>0.0857865</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0765213</v>
+        <v>0.07659199999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0815678</v>
+        <v>0.08169510000000001</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.08631</v>
+        <v>0.08595709999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0769676</v>
+        <v>0.07690710000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.08204690000000001</v>
+        <v>0.0821076</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.08640920000000001</v>
+        <v>0.0859626</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07758429999999999</v>
+        <v>0.0775213</v>
       </c>
       <c r="D98" t="n">
-        <v>0.08264589999999999</v>
+        <v>0.08258169999999999</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0864456</v>
+        <v>0.0860847</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0782827</v>
+        <v>0.078294</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0832561</v>
+        <v>0.08347549999999999</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08653959999999999</v>
+        <v>0.086226</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0789179</v>
+        <v>0.0789793</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0837205</v>
+        <v>0.08404789999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0867363</v>
+        <v>0.08636489999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.07968980000000001</v>
+        <v>0.07974390000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0845051</v>
+        <v>0.0847285</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0870079</v>
+        <v>0.0864974</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0805656</v>
+        <v>0.080593</v>
       </c>
       <c r="D102" t="n">
-        <v>0.08527559999999999</v>
+        <v>0.0858169</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0874346</v>
+        <v>0.08705739999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0816693</v>
+        <v>0.0816407</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0864844</v>
+        <v>0.08629969999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0880908</v>
+        <v>0.08751249999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0863792</v>
+        <v>0.0828875</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0876881</v>
+        <v>0.0883471</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.08892</v>
+        <v>0.08828709999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.08411639999999999</v>
+        <v>0.0842745</v>
       </c>
       <c r="D105" t="n">
-        <v>0.08924799999999999</v>
+        <v>0.0893781</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0899819</v>
+        <v>0.0896555</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0859486</v>
+        <v>0.0858577</v>
       </c>
       <c r="D106" t="n">
-        <v>0.096528</v>
+        <v>0.0915758</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0920994</v>
+        <v>0.09163499999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.08840779999999999</v>
+        <v>0.0884708</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0955449</v>
+        <v>0.0964111</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0950337</v>
+        <v>0.0949281</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0922501</v>
+        <v>0.0922096</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0975452</v>
+        <v>0.0988202</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100164</v>
+        <v>0.0999251</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0984163</v>
+        <v>0.0984696</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0983436</v>
+        <v>0.100292</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.113889</v>
+        <v>0.107448</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0907982</v>
+        <v>0.0916508</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0990383</v>
+        <v>0.101114</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.114021</v>
+        <v>0.108577</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0916492</v>
+        <v>0.0922974</v>
       </c>
       <c r="D111" t="n">
-        <v>0.09986689999999999</v>
+        <v>0.101812</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.114114</v>
+        <v>0.107444</v>
       </c>
       <c r="C112" t="n">
-        <v>0.092555</v>
+        <v>0.09367590000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.100985</v>
+        <v>0.103593</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.114157</v>
+        <v>0.108136</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0937095</v>
+        <v>0.0959444</v>
       </c>
       <c r="D113" t="n">
-        <v>0.101987</v>
+        <v>0.104499</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.114198</v>
+        <v>0.108363</v>
       </c>
       <c r="C114" t="n">
-        <v>0.09565650000000001</v>
+        <v>0.09565079999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.102746</v>
+        <v>0.105025</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.114387</v>
+        <v>0.107933</v>
       </c>
       <c r="C115" t="n">
-        <v>0.103513</v>
+        <v>0.09630909999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.10438</v>
+        <v>0.106287</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.114667</v>
+        <v>0.108972</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0973205</v>
+        <v>0.0989632</v>
       </c>
       <c r="D116" t="n">
-        <v>0.105384</v>
+        <v>0.109352</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.115047</v>
+        <v>0.108588</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0988463</v>
+        <v>0.09944119999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.106778</v>
+        <v>0.109131</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.115835</v>
+        <v>0.109137</v>
       </c>
       <c r="C118" t="n">
-        <v>0.100303</v>
+        <v>0.101212</v>
       </c>
       <c r="D118" t="n">
-        <v>0.108591</v>
+        <v>0.110878</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116215</v>
+        <v>0.109975</v>
       </c>
       <c r="C119" t="n">
-        <v>0.102148</v>
+        <v>0.103116</v>
       </c>
       <c r="D119" t="n">
-        <v>0.110691</v>
+        <v>0.1111</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.117455</v>
+        <v>0.111087</v>
       </c>
       <c r="C120" t="n">
-        <v>0.104312</v>
+        <v>0.105168</v>
       </c>
       <c r="D120" t="n">
-        <v>0.113494</v>
+        <v>0.113758</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.119136</v>
+        <v>0.113077</v>
       </c>
       <c r="C121" t="n">
-        <v>0.107029</v>
+        <v>0.107551</v>
       </c>
       <c r="D121" t="n">
-        <v>0.117535</v>
+        <v>0.117745</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.122216</v>
+        <v>0.116099</v>
       </c>
       <c r="C122" t="n">
-        <v>0.111037</v>
+        <v>0.110972</v>
       </c>
       <c r="D122" t="n">
-        <v>0.123795</v>
+        <v>0.12625</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.130657</v>
+        <v>0.120833</v>
       </c>
       <c r="C123" t="n">
-        <v>0.116985</v>
+        <v>0.116949</v>
       </c>
       <c r="D123" t="n">
-        <v>0.115482</v>
+        <v>0.115891</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.140904</v>
+        <v>0.141031</v>
       </c>
       <c r="C124" t="n">
-        <v>0.102804</v>
+        <v>0.10896</v>
       </c>
       <c r="D124" t="n">
-        <v>0.116645</v>
+        <v>0.116921</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.140713</v>
+        <v>0.1388</v>
       </c>
       <c r="C125" t="n">
-        <v>0.108721</v>
+        <v>0.106336</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1179</v>
+        <v>0.118018</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.140603</v>
+        <v>0.139108</v>
       </c>
       <c r="C126" t="n">
-        <v>0.105795</v>
+        <v>0.10788</v>
       </c>
       <c r="D126" t="n">
-        <v>0.119136</v>
+        <v>0.119049</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.140544</v>
+        <v>0.139029</v>
       </c>
       <c r="C127" t="n">
-        <v>0.107499</v>
+        <v>0.109331</v>
       </c>
       <c r="D127" t="n">
-        <v>0.12028</v>
+        <v>0.120712</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.140461</v>
+        <v>0.139518</v>
       </c>
       <c r="C128" t="n">
-        <v>0.109135</v>
+        <v>0.110831</v>
       </c>
       <c r="D128" t="n">
-        <v>0.121788</v>
+        <v>0.122003</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.140955</v>
+        <v>0.144477</v>
       </c>
       <c r="C129" t="n">
-        <v>0.111421</v>
+        <v>0.112506</v>
       </c>
       <c r="D129" t="n">
-        <v>0.123885</v>
+        <v>0.123277</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.142695</v>
+        <v>0.140075</v>
       </c>
       <c r="C130" t="n">
-        <v>0.113514</v>
+        <v>0.11442</v>
       </c>
       <c r="D130" t="n">
-        <v>0.125833</v>
+        <v>0.125261</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.141111</v>
+        <v>0.140487</v>
       </c>
       <c r="C131" t="n">
-        <v>0.114964</v>
+        <v>0.116314</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1268</v>
+        <v>0.12671</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.141474</v>
+        <v>0.14079</v>
       </c>
       <c r="C132" t="n">
-        <v>0.116895</v>
+        <v>0.118153</v>
       </c>
       <c r="D132" t="n">
-        <v>0.129052</v>
+        <v>0.129081</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.141584</v>
+        <v>0.142156</v>
       </c>
       <c r="C133" t="n">
-        <v>0.119313</v>
+        <v>0.120442</v>
       </c>
       <c r="D133" t="n">
-        <v>0.132444</v>
+        <v>0.131705</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.144383</v>
+        <v>0.142777</v>
       </c>
       <c r="C134" t="n">
-        <v>0.121782</v>
+        <v>0.12308</v>
       </c>
       <c r="D134" t="n">
-        <v>0.134565</v>
+        <v>0.134671</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.144338</v>
+        <v>0.144978</v>
       </c>
       <c r="C135" t="n">
-        <v>0.124925</v>
+        <v>0.126129</v>
       </c>
       <c r="D135" t="n">
-        <v>0.138824</v>
+        <v>0.138855</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.146809</v>
+        <v>0.147081</v>
       </c>
       <c r="C136" t="n">
-        <v>0.12911</v>
+        <v>0.130431</v>
       </c>
       <c r="D136" t="n">
-        <v>0.145371</v>
+        <v>0.145417</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.150574</v>
+        <v>0.151013</v>
       </c>
       <c r="C137" t="n">
-        <v>0.135094</v>
+        <v>0.136443</v>
       </c>
       <c r="D137" t="n">
-        <v>0.129339</v>
+        <v>0.127906</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.157534</v>
+        <v>0.157863</v>
       </c>
       <c r="C138" t="n">
-        <v>0.116615</v>
+        <v>0.115898</v>
       </c>
       <c r="D138" t="n">
-        <v>0.130682</v>
+        <v>0.129003</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.15768</v>
+        <v>0.157896</v>
       </c>
       <c r="C139" t="n">
-        <v>0.118091</v>
+        <v>0.117214</v>
       </c>
       <c r="D139" t="n">
-        <v>0.131871</v>
+        <v>0.130407</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.157841</v>
+        <v>0.15801</v>
       </c>
       <c r="C140" t="n">
-        <v>0.119623</v>
+        <v>0.118756</v>
       </c>
       <c r="D140" t="n">
-        <v>0.133153</v>
+        <v>0.131733</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.170985</v>
+        <v>0.158084</v>
       </c>
       <c r="C141" t="n">
-        <v>0.121247</v>
+        <v>0.120451</v>
       </c>
       <c r="D141" t="n">
-        <v>0.134562</v>
+        <v>0.136329</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158043</v>
+        <v>0.158279</v>
       </c>
       <c r="C142" t="n">
-        <v>0.122801</v>
+        <v>0.122137</v>
       </c>
       <c r="D142" t="n">
-        <v>0.135784</v>
+        <v>0.134651</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158496</v>
+        <v>0.158211</v>
       </c>
       <c r="C143" t="n">
-        <v>0.12453</v>
+        <v>0.123779</v>
       </c>
       <c r="D143" t="n">
-        <v>0.137311</v>
+        <v>0.136131</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0195112</v>
+        <v>0.0195912</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0196421</v>
+        <v>0.0197729</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0211246</v>
+        <v>0.0211241</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0196414</v>
+        <v>0.0196225</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0195901</v>
+        <v>0.0196753</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0211676</v>
+        <v>0.0211413</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0196938</v>
+        <v>0.0196229</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0196182</v>
+        <v>0.0195513</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0210976</v>
+        <v>0.0211258</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0196395</v>
+        <v>0.0196025</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0195382</v>
+        <v>0.0195286</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0210296</v>
+        <v>0.0210667</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0199268</v>
+        <v>0.0198231</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0195608</v>
+        <v>0.0195816</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0212909</v>
+        <v>0.0212529</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0201257</v>
+        <v>0.0200711</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0194184</v>
+        <v>0.0197534</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0212402</v>
+        <v>0.021203</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0200494</v>
+        <v>0.020045</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0196001</v>
+        <v>0.0196331</v>
       </c>
       <c r="D8" t="n">
-        <v>0.021526</v>
+        <v>0.0215789</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0201919</v>
+        <v>0.0205286</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0198248</v>
+        <v>0.0198323</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02098</v>
+        <v>0.0209665</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0195043</v>
+        <v>0.0194755</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0208134</v>
+        <v>0.0205822</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0212598</v>
+        <v>0.0213058</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.019442</v>
+        <v>0.019514</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0207343</v>
+        <v>0.0207364</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0213183</v>
+        <v>0.0214234</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0197053</v>
+        <v>0.019569</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0207608</v>
+        <v>0.0208842</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0218103</v>
+        <v>0.0214899</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0196092</v>
+        <v>0.0198197</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0210735</v>
+        <v>0.0209189</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0217323</v>
+        <v>0.021792</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0198771</v>
+        <v>0.0199901</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0209507</v>
+        <v>0.0210439</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0218807</v>
+        <v>0.0220356</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0201646</v>
+        <v>0.0201907</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0212802</v>
+        <v>0.0211037</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0224629</v>
+        <v>0.0220206</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0201825</v>
+        <v>0.0203472</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0212926</v>
+        <v>0.0212511</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02251</v>
+        <v>0.0222774</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0203518</v>
+        <v>0.0203551</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0215246</v>
+        <v>0.0213441</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0221977</v>
+        <v>0.0223467</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0204334</v>
+        <v>0.0202366</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0216133</v>
+        <v>0.0213815</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0225291</v>
+        <v>0.0221835</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0206195</v>
+        <v>0.0208006</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0218148</v>
+        <v>0.021552</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0223179</v>
+        <v>0.0224958</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0206024</v>
+        <v>0.0207331</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0215995</v>
+        <v>0.0217076</v>
       </c>
       <c r="D20" t="n">
-        <v>0.022793</v>
+        <v>0.0226691</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0208696</v>
+        <v>0.0209668</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0217365</v>
+        <v>0.0217345</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0229569</v>
+        <v>0.0227038</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0217313</v>
+        <v>0.0224206</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0221735</v>
+        <v>0.0218619</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0234059</v>
+        <v>0.0230008</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0252799</v>
+        <v>0.0255041</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0225253</v>
+        <v>0.0224545</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0222474</v>
+        <v>0.0223644</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0205313</v>
+        <v>0.0204526</v>
       </c>
       <c r="C24" t="n">
-        <v>0.021826</v>
+        <v>0.0217304</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0224685</v>
+        <v>0.0224534</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0205949</v>
+        <v>0.0205403</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0219623</v>
+        <v>0.021997</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0226844</v>
+        <v>0.0226136</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0208393</v>
+        <v>0.0207275</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0223501</v>
+        <v>0.0222513</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0229215</v>
+        <v>0.0229191</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0208589</v>
+        <v>0.0208881</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0225124</v>
+        <v>0.0224543</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0231298</v>
+        <v>0.0231062</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0210839</v>
+        <v>0.0210799</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0227735</v>
+        <v>0.0227843</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0233502</v>
+        <v>0.0234419</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0212466</v>
+        <v>0.0213885</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0229334</v>
+        <v>0.0229162</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0236216</v>
+        <v>0.0236228</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0215468</v>
+        <v>0.0213045</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0232223</v>
+        <v>0.0231112</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0238836</v>
+        <v>0.0239148</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0215269</v>
+        <v>0.0217215</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0233397</v>
+        <v>0.0233685</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0240515</v>
+        <v>0.023997</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.021782</v>
+        <v>0.0219888</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0236366</v>
+        <v>0.0236543</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0241292</v>
+        <v>0.0241635</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0222399</v>
+        <v>0.0223469</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0238222</v>
+        <v>0.0238966</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0244586</v>
+        <v>0.0242361</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0240209</v>
+        <v>0.0228801</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0246591</v>
+        <v>0.0244514</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0249229</v>
+        <v>0.0249426</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0250599</v>
+        <v>0.0245742</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0252288</v>
+        <v>0.0250714</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0267321</v>
+        <v>0.0269601</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0285726</v>
+        <v>0.0282271</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0264666</v>
+        <v>0.0262977</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0335728</v>
+        <v>0.0299008</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0322933</v>
+        <v>0.0322658</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0335886</v>
+        <v>0.0282517</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0235257</v>
+        <v>0.0234572</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0214577</v>
+        <v>0.0214012</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0232032</v>
+        <v>0.0232462</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0236257</v>
+        <v>0.0235966</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0215847</v>
+        <v>0.0214906</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0235326</v>
+        <v>0.0234555</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0238102</v>
+        <v>0.0239844</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0217258</v>
+        <v>0.0215608</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0236755</v>
+        <v>0.0237484</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0240833</v>
+        <v>0.0240463</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0219178</v>
+        <v>0.0218024</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0240259</v>
+        <v>0.0240884</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0243425</v>
+        <v>0.0243718</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.022075</v>
+        <v>0.0219737</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0244126</v>
+        <v>0.0244574</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0246537</v>
+        <v>0.0246444</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0223053</v>
+        <v>0.0221538</v>
       </c>
       <c r="C43" t="n">
-        <v>0.024726</v>
+        <v>0.0247722</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0249313</v>
+        <v>0.0249401</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0226001</v>
+        <v>0.0227171</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0251381</v>
+        <v>0.0249739</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0253694</v>
+        <v>0.0252105</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0229969</v>
+        <v>0.0228824</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0255049</v>
+        <v>0.025586</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0255373</v>
+        <v>0.0255385</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0236792</v>
+        <v>0.0233139</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0261012</v>
+        <v>0.0259741</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0259387</v>
+        <v>0.0259754</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0242918</v>
+        <v>0.0241812</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0264684</v>
+        <v>0.0265698</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0266454</v>
+        <v>0.0266198</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0259622</v>
+        <v>0.0255619</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0271377</v>
+        <v>0.0273711</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0278312</v>
+        <v>0.0278319</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0278494</v>
+        <v>0.0277305</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0291065</v>
+        <v>0.0286472</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0303477</v>
+        <v>0.0300125</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0307947</v>
+        <v>0.030999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0305661</v>
+        <v>0.0318108</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0347275</v>
+        <v>0.0348045</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0353079</v>
+        <v>0.034973</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0339897</v>
+        <v>0.0348161</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0241584</v>
+        <v>0.0241244</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0407843</v>
+        <v>0.0408644</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0398105</v>
+        <v>0.041341</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0243846</v>
+        <v>0.0243687</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.023175</v>
+        <v>0.0231229</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0250275</v>
+        <v>0.0250119</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0246061</v>
+        <v>0.0247024</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0232542</v>
+        <v>0.0232546</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0253028</v>
+        <v>0.0253438</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0248129</v>
+        <v>0.0248967</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0233925</v>
+        <v>0.0234314</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0256387</v>
+        <v>0.0256526</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0252236</v>
+        <v>0.0251431</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0236593</v>
+        <v>0.0238168</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0260031</v>
+        <v>0.0259884</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0254663</v>
+        <v>0.0254704</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0239547</v>
+        <v>0.0238991</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0262821</v>
+        <v>0.0262776</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0257615</v>
+        <v>0.0258707</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0243906</v>
+        <v>0.0242267</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0266579</v>
+        <v>0.0266763</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0261853</v>
+        <v>0.0263198</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.024898</v>
+        <v>0.0246358</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0271288</v>
+        <v>0.0271933</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0268554</v>
+        <v>0.0266328</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0256191</v>
+        <v>0.0252428</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0278001</v>
+        <v>0.0277898</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0272862</v>
+        <v>0.0272543</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0267368</v>
+        <v>0.0264613</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0284952</v>
+        <v>0.0285184</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0281605</v>
+        <v>0.0280128</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0280685</v>
+        <v>0.0280044</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0293783</v>
+        <v>0.0296404</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0294257</v>
+        <v>0.0296492</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0301924</v>
+        <v>0.0299839</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0309191</v>
+        <v>0.0308957</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0321095</v>
+        <v>0.0322605</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0329836</v>
+        <v>0.0329367</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0331086</v>
+        <v>0.0334025</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0365849</v>
+        <v>0.0363882</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0366288</v>
+        <v>0.0365872</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0367918</v>
+        <v>0.0366493</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0427978</v>
+        <v>0.0427632</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0418544</v>
+        <v>0.0414359</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0422345</v>
+        <v>0.0423573</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0263865</v>
+        <v>0.0258879</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0296603</v>
+        <v>0.0294738</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0276254</v>
+        <v>0.0270398</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0266384</v>
+        <v>0.0260871</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0298366</v>
+        <v>0.0296727</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0278066</v>
+        <v>0.0278197</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0271368</v>
+        <v>0.0263842</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0300664</v>
+        <v>0.029921</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0280762</v>
+        <v>0.0284338</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0290095</v>
+        <v>0.0277081</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0303103</v>
+        <v>0.030168</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0284092</v>
+        <v>0.0280412</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0277961</v>
+        <v>0.0276032</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0306332</v>
+        <v>0.0303069</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0287534</v>
+        <v>0.028741</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0282625</v>
+        <v>0.0275001</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.030806</v>
+        <v>0.0305607</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0295142</v>
+        <v>0.0292378</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0286726</v>
+        <v>0.0284126</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0314205</v>
+        <v>0.031228</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0296786</v>
+        <v>0.0298766</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0292943</v>
+        <v>0.0290158</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.031945</v>
+        <v>0.0318809</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0310886</v>
+        <v>0.0304754</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0303278</v>
+        <v>0.0301808</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0328913</v>
+        <v>0.0325549</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0312308</v>
+        <v>0.0312911</v>
       </c>
       <c r="D75" t="n">
-        <v>0.031009</v>
+        <v>0.0304964</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0339977</v>
+        <v>0.0337851</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0321711</v>
+        <v>0.0324939</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0325221</v>
+        <v>0.0325064</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0357263</v>
+        <v>0.0353973</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0338619</v>
+        <v>0.0334253</v>
       </c>
       <c r="D77" t="n">
-        <v>0.035268</v>
+        <v>0.034845</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0379903</v>
+        <v>0.0376207</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0361699</v>
+        <v>0.0355789</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0395202</v>
+        <v>0.0385377</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0414277</v>
+        <v>0.0411003</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0392205</v>
+        <v>0.0391631</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0444946</v>
+        <v>0.0445881</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0460054</v>
+        <v>0.0458046</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0436614</v>
+        <v>0.0437006</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0411833</v>
+        <v>0.0401664</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0555916</v>
+        <v>0.0550909</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0386902</v>
+        <v>0.0383163</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0419128</v>
+        <v>0.0411279</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0556813</v>
+        <v>0.055181</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0392805</v>
+        <v>0.0389366</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0424235</v>
+        <v>0.0419329</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.055808</v>
+        <v>0.0555263</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0404729</v>
+        <v>0.0399724</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0438318</v>
+        <v>0.0427037</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0559917</v>
+        <v>0.0557194</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0419726</v>
+        <v>0.0409209</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0446546</v>
+        <v>0.0432912</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0561451</v>
+        <v>0.0556571</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0429749</v>
+        <v>0.0421267</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0449006</v>
+        <v>0.0441075</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0563514</v>
+        <v>0.0560952</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0442679</v>
+        <v>0.0436719</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0460982</v>
+        <v>0.0449589</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.056715</v>
+        <v>0.0562528</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0459254</v>
+        <v>0.0452297</v>
       </c>
       <c r="D87" t="n">
-        <v>0.046596</v>
+        <v>0.0457748</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0571151</v>
+        <v>0.0567485</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0476528</v>
+        <v>0.0466539</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0478949</v>
+        <v>0.0464107</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0575209</v>
+        <v>0.0571143</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0490127</v>
+        <v>0.0484909</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0486991</v>
+        <v>0.0475634</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0584294</v>
+        <v>0.0579627</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0508084</v>
+        <v>0.0502041</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0504689</v>
+        <v>0.0489327</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0593346</v>
+        <v>0.0588033</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0527774</v>
+        <v>0.0518681</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0523998</v>
+        <v>0.0510716</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.060754</v>
+        <v>0.0605235</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0549393</v>
+        <v>0.0540261</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0547689</v>
+        <v>0.0537366</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0633533</v>
+        <v>0.0629736</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0579544</v>
+        <v>0.0569203</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0594515</v>
+        <v>0.0585957</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0671547</v>
+        <v>0.06686789999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0619436</v>
+        <v>0.0613596</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0805207</v>
+        <v>0.0805915</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.085732</v>
+        <v>0.085864</v>
       </c>
       <c r="C95" t="n">
-        <v>0.076153</v>
+        <v>0.0760417</v>
       </c>
       <c r="D95" t="n">
-        <v>0.08108509999999999</v>
+        <v>0.0810739</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0857865</v>
+        <v>0.0858372</v>
       </c>
       <c r="C96" t="n">
-        <v>0.07659199999999999</v>
+        <v>0.07651139999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.08169510000000001</v>
+        <v>0.081564</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.08595709999999999</v>
+        <v>0.0858515</v>
       </c>
       <c r="C97" t="n">
-        <v>0.07690710000000001</v>
+        <v>0.07698679999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0821076</v>
+        <v>0.0821016</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0859626</v>
+        <v>0.08592039999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0775213</v>
+        <v>0.0775516</v>
       </c>
       <c r="D98" t="n">
-        <v>0.08258169999999999</v>
+        <v>0.0826191</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0860847</v>
+        <v>0.08608250000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.078294</v>
+        <v>0.0782144</v>
       </c>
       <c r="D99" t="n">
-        <v>0.08347549999999999</v>
+        <v>0.0833438</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.086226</v>
+        <v>0.0861861</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0789793</v>
+        <v>0.0789078</v>
       </c>
       <c r="D100" t="n">
-        <v>0.08404789999999999</v>
+        <v>0.083883</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08636489999999999</v>
+        <v>0.0863844</v>
       </c>
       <c r="C101" t="n">
-        <v>0.07974390000000001</v>
+        <v>0.0795563</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0847285</v>
+        <v>0.0845177</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0864974</v>
+        <v>0.086718</v>
       </c>
       <c r="C102" t="n">
-        <v>0.080593</v>
+        <v>0.0805028</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0858169</v>
+        <v>0.0906725</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.08705739999999999</v>
+        <v>0.0871615</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0816407</v>
+        <v>0.0816161</v>
       </c>
       <c r="D103" t="n">
-        <v>0.08629969999999999</v>
+        <v>0.08643670000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.08751249999999999</v>
+        <v>0.08771619999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0828875</v>
+        <v>0.0826721</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0883471</v>
+        <v>0.0877831</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.08828709999999999</v>
+        <v>0.0884591</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0842745</v>
+        <v>0.0840453</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0893781</v>
+        <v>0.08934839999999999</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0896555</v>
+        <v>0.0897362</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0858577</v>
+        <v>0.0859077</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0915758</v>
+        <v>0.0919319</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.09163499999999999</v>
+        <v>0.091783</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0884708</v>
+        <v>0.08850959999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0964111</v>
+        <v>0.0957406</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0949281</v>
+        <v>0.0950409</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0922096</v>
+        <v>0.09226520000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0988202</v>
+        <v>0.09912840000000001</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0999251</v>
+        <v>0.0999814</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0984696</v>
+        <v>0.09853480000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.100292</v>
+        <v>0.0996843</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.107448</v>
+        <v>0.116374</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0916508</v>
+        <v>0.0920149</v>
       </c>
       <c r="D110" t="n">
-        <v>0.101114</v>
+        <v>0.102173</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.108577</v>
+        <v>0.117201</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0922974</v>
+        <v>0.0928445</v>
       </c>
       <c r="D111" t="n">
-        <v>0.101812</v>
+        <v>0.102622</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.107444</v>
+        <v>0.116449</v>
       </c>
       <c r="C112" t="n">
-        <v>0.09367590000000001</v>
+        <v>0.0941665</v>
       </c>
       <c r="D112" t="n">
-        <v>0.103593</v>
+        <v>0.103215</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.108136</v>
+        <v>0.116568</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0959444</v>
+        <v>0.0945815</v>
       </c>
       <c r="D113" t="n">
-        <v>0.104499</v>
+        <v>0.104041</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.108363</v>
+        <v>0.116613</v>
       </c>
       <c r="C114" t="n">
-        <v>0.09565079999999999</v>
+        <v>0.0958097</v>
       </c>
       <c r="D114" t="n">
-        <v>0.105025</v>
+        <v>0.105018</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.107933</v>
+        <v>0.116804</v>
       </c>
       <c r="C115" t="n">
-        <v>0.09630909999999999</v>
+        <v>0.09655859999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.106287</v>
+        <v>0.106787</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108972</v>
+        <v>0.117495</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0989632</v>
+        <v>0.09807680000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.109352</v>
+        <v>0.108524</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.108588</v>
+        <v>0.117915</v>
       </c>
       <c r="C117" t="n">
-        <v>0.09944119999999999</v>
+        <v>0.100331</v>
       </c>
       <c r="D117" t="n">
-        <v>0.109131</v>
+        <v>0.109377</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.109137</v>
+        <v>0.117891</v>
       </c>
       <c r="C118" t="n">
-        <v>0.101212</v>
+        <v>0.101468</v>
       </c>
       <c r="D118" t="n">
-        <v>0.110878</v>
+        <v>0.109445</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.109975</v>
+        <v>0.118545</v>
       </c>
       <c r="C119" t="n">
-        <v>0.103116</v>
+        <v>0.103351</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1111</v>
+        <v>0.112832</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111087</v>
+        <v>0.119759</v>
       </c>
       <c r="C120" t="n">
-        <v>0.105168</v>
+        <v>0.105475</v>
       </c>
       <c r="D120" t="n">
-        <v>0.113758</v>
+        <v>0.115496</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.113077</v>
+        <v>0.121319</v>
       </c>
       <c r="C121" t="n">
-        <v>0.107551</v>
+        <v>0.108958</v>
       </c>
       <c r="D121" t="n">
-        <v>0.117745</v>
+        <v>0.120555</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.116099</v>
+        <v>0.125757</v>
       </c>
       <c r="C122" t="n">
-        <v>0.110972</v>
+        <v>0.11116</v>
       </c>
       <c r="D122" t="n">
-        <v>0.12625</v>
+        <v>0.126895</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.120833</v>
+        <v>0.128169</v>
       </c>
       <c r="C123" t="n">
-        <v>0.116949</v>
+        <v>0.117067</v>
       </c>
       <c r="D123" t="n">
-        <v>0.115891</v>
+        <v>0.115641</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.141031</v>
+        <v>0.141211</v>
       </c>
       <c r="C124" t="n">
-        <v>0.10896</v>
+        <v>0.104602</v>
       </c>
       <c r="D124" t="n">
-        <v>0.116921</v>
+        <v>0.116588</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1388</v>
+        <v>0.137418</v>
       </c>
       <c r="C125" t="n">
-        <v>0.106336</v>
+        <v>0.106027</v>
       </c>
       <c r="D125" t="n">
-        <v>0.118018</v>
+        <v>0.118048</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.139108</v>
+        <v>0.137272</v>
       </c>
       <c r="C126" t="n">
-        <v>0.10788</v>
+        <v>0.107517</v>
       </c>
       <c r="D126" t="n">
-        <v>0.119049</v>
+        <v>0.119283</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.139029</v>
+        <v>0.137378</v>
       </c>
       <c r="C127" t="n">
-        <v>0.109331</v>
+        <v>0.108568</v>
       </c>
       <c r="D127" t="n">
-        <v>0.120712</v>
+        <v>0.120645</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.139518</v>
+        <v>0.137634</v>
       </c>
       <c r="C128" t="n">
-        <v>0.110831</v>
+        <v>0.110341</v>
       </c>
       <c r="D128" t="n">
-        <v>0.122003</v>
+        <v>0.1219</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.144477</v>
+        <v>0.137642</v>
       </c>
       <c r="C129" t="n">
-        <v>0.112506</v>
+        <v>0.112316</v>
       </c>
       <c r="D129" t="n">
-        <v>0.123277</v>
+        <v>0.123508</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.140075</v>
+        <v>0.137669</v>
       </c>
       <c r="C130" t="n">
-        <v>0.11442</v>
+        <v>0.114856</v>
       </c>
       <c r="D130" t="n">
-        <v>0.125261</v>
+        <v>0.12506</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.140487</v>
+        <v>0.137935</v>
       </c>
       <c r="C131" t="n">
-        <v>0.116314</v>
+        <v>0.115971</v>
       </c>
       <c r="D131" t="n">
-        <v>0.12671</v>
+        <v>0.126975</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.14079</v>
+        <v>0.138648</v>
       </c>
       <c r="C132" t="n">
-        <v>0.118153</v>
+        <v>0.117776</v>
       </c>
       <c r="D132" t="n">
-        <v>0.129081</v>
+        <v>0.129121</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142156</v>
+        <v>0.139674</v>
       </c>
       <c r="C133" t="n">
-        <v>0.120442</v>
+        <v>0.120258</v>
       </c>
       <c r="D133" t="n">
-        <v>0.131705</v>
+        <v>0.132605</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.142777</v>
+        <v>0.14007</v>
       </c>
       <c r="C134" t="n">
-        <v>0.12308</v>
+        <v>0.122351</v>
       </c>
       <c r="D134" t="n">
-        <v>0.134671</v>
+        <v>0.134884</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.144978</v>
+        <v>0.141423</v>
       </c>
       <c r="C135" t="n">
-        <v>0.126129</v>
+        <v>0.125593</v>
       </c>
       <c r="D135" t="n">
-        <v>0.138855</v>
+        <v>0.139157</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.147081</v>
+        <v>0.144102</v>
       </c>
       <c r="C136" t="n">
-        <v>0.130431</v>
+        <v>0.12955</v>
       </c>
       <c r="D136" t="n">
-        <v>0.145417</v>
+        <v>0.145836</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.151013</v>
+        <v>0.147949</v>
       </c>
       <c r="C137" t="n">
-        <v>0.136443</v>
+        <v>0.135704</v>
       </c>
       <c r="D137" t="n">
-        <v>0.127906</v>
+        <v>0.128035</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.157863</v>
+        <v>0.158005</v>
       </c>
       <c r="C138" t="n">
-        <v>0.115898</v>
+        <v>0.115814</v>
       </c>
       <c r="D138" t="n">
-        <v>0.129003</v>
+        <v>0.129162</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.157896</v>
+        <v>0.158051</v>
       </c>
       <c r="C139" t="n">
-        <v>0.117214</v>
+        <v>0.117328</v>
       </c>
       <c r="D139" t="n">
-        <v>0.130407</v>
+        <v>0.130501</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.15801</v>
+        <v>0.157975</v>
       </c>
       <c r="C140" t="n">
-        <v>0.118756</v>
+        <v>0.118791</v>
       </c>
       <c r="D140" t="n">
-        <v>0.131733</v>
+        <v>0.131731</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158084</v>
+        <v>0.158255</v>
       </c>
       <c r="C141" t="n">
-        <v>0.120451</v>
+        <v>0.12038</v>
       </c>
       <c r="D141" t="n">
-        <v>0.136329</v>
+        <v>0.133099</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158279</v>
+        <v>0.158285</v>
       </c>
       <c r="C142" t="n">
-        <v>0.122137</v>
+        <v>0.122113</v>
       </c>
       <c r="D142" t="n">
-        <v>0.134651</v>
+        <v>0.134481</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158211</v>
+        <v>0.158352</v>
       </c>
       <c r="C143" t="n">
-        <v>0.123779</v>
+        <v>0.123762</v>
       </c>
       <c r="D143" t="n">
-        <v>0.136131</v>
+        <v>0.136318</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0195912</v>
+        <v>0.0195727</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0197729</v>
+        <v>0.0193719</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0211241</v>
+        <v>0.021334</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0196225</v>
+        <v>0.0196455</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0196753</v>
+        <v>0.0193224</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0211413</v>
+        <v>0.0213382</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0196229</v>
+        <v>0.0197684</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0195513</v>
+        <v>0.0191942</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0211258</v>
+        <v>0.0212313</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0196025</v>
+        <v>0.019787</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0195286</v>
+        <v>0.0192394</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0210667</v>
+        <v>0.021365</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0198231</v>
+        <v>0.0199243</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0195816</v>
+        <v>0.0190534</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0212529</v>
+        <v>0.0213271</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0200711</v>
+        <v>0.0201624</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0197534</v>
+        <v>0.0193431</v>
       </c>
       <c r="D7" t="n">
-        <v>0.021203</v>
+        <v>0.021739</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.020045</v>
+        <v>0.0200587</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0196331</v>
+        <v>0.0193373</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0215789</v>
+        <v>0.0218751</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0205286</v>
+        <v>0.0204692</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0198323</v>
+        <v>0.019432</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0209665</v>
+        <v>0.0209897</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0194755</v>
+        <v>0.0192676</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0205822</v>
+        <v>0.0204944</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0213058</v>
+        <v>0.0212725</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.019514</v>
+        <v>0.0194218</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0207364</v>
+        <v>0.0207385</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0214234</v>
+        <v>0.0213578</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.019569</v>
+        <v>0.019372</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0208842</v>
+        <v>0.0207054</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0214899</v>
+        <v>0.021589</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0198197</v>
+        <v>0.0195975</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0209189</v>
+        <v>0.0206934</v>
       </c>
       <c r="D13" t="n">
-        <v>0.021792</v>
+        <v>0.0217593</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0199901</v>
+        <v>0.0197495</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0210439</v>
+        <v>0.0208047</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0220356</v>
+        <v>0.0219787</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0201907</v>
+        <v>0.0199935</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0211037</v>
+        <v>0.0209191</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0220206</v>
+        <v>0.0221838</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0203472</v>
+        <v>0.0200924</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0212511</v>
+        <v>0.0210324</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0222774</v>
+        <v>0.0222754</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0203551</v>
+        <v>0.020109</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0213441</v>
+        <v>0.0211724</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0223467</v>
+        <v>0.022489</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0202366</v>
+        <v>0.0203151</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0213815</v>
+        <v>0.0210625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0221835</v>
+        <v>0.0225256</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0208006</v>
+        <v>0.0204285</v>
       </c>
       <c r="C19" t="n">
-        <v>0.021552</v>
+        <v>0.0211771</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0224958</v>
+        <v>0.0228516</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0207331</v>
+        <v>0.0204119</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0217076</v>
+        <v>0.021192</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0226691</v>
+        <v>0.0228662</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0209668</v>
+        <v>0.0208475</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0217345</v>
+        <v>0.0213561</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0227038</v>
+        <v>0.0231182</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0224206</v>
+        <v>0.0210601</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0218619</v>
+        <v>0.0214691</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0230008</v>
+        <v>0.0242573</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0255041</v>
+        <v>0.0228106</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0224545</v>
+        <v>0.021903</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0223644</v>
+        <v>0.0222034</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0204526</v>
+        <v>0.0202471</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0217304</v>
+        <v>0.02167</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0224534</v>
+        <v>0.0224303</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0205403</v>
+        <v>0.0203008</v>
       </c>
       <c r="C25" t="n">
-        <v>0.021997</v>
+        <v>0.0218811</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0226136</v>
+        <v>0.0225672</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0207275</v>
+        <v>0.0204468</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0222513</v>
+        <v>0.0221327</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0229191</v>
+        <v>0.0228859</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0208881</v>
+        <v>0.020553</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0224543</v>
+        <v>0.0223343</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0231062</v>
+        <v>0.0231127</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0210799</v>
+        <v>0.0207446</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0227843</v>
+        <v>0.0225563</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0234419</v>
+        <v>0.0234045</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0213885</v>
+        <v>0.0209921</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0229162</v>
+        <v>0.0227704</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0236228</v>
+        <v>0.0236065</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0213045</v>
+        <v>0.0211817</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0231112</v>
+        <v>0.0229964</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0239148</v>
+        <v>0.0240869</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0217215</v>
+        <v>0.0213751</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0233685</v>
+        <v>0.0231699</v>
       </c>
       <c r="D31" t="n">
-        <v>0.023997</v>
+        <v>0.0243249</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0219888</v>
+        <v>0.0215867</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0236543</v>
+        <v>0.0233957</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0241635</v>
+        <v>0.0245852</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0223469</v>
+        <v>0.0215676</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0238966</v>
+        <v>0.023488</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0242361</v>
+        <v>0.0249805</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0228801</v>
+        <v>0.0223994</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0244514</v>
+        <v>0.0244325</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0249426</v>
+        <v>0.0261102</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0245742</v>
+        <v>0.0242152</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0250714</v>
+        <v>0.0251687</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0269601</v>
+        <v>0.0291027</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0282271</v>
+        <v>0.0271783</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0262977</v>
+        <v>0.0261311</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0299008</v>
+        <v>0.0348502</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0322658</v>
+        <v>0.0303557</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0282517</v>
+        <v>0.0291163</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0234572</v>
+        <v>0.023378</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0214012</v>
+        <v>0.0213682</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0232462</v>
+        <v>0.0231814</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0235966</v>
+        <v>0.0235977</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0214906</v>
+        <v>0.0216207</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0234555</v>
+        <v>0.0234328</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0239844</v>
+        <v>0.0238097</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0215608</v>
+        <v>0.0217923</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0237484</v>
+        <v>0.0237482</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0240463</v>
+        <v>0.0240824</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0218024</v>
+        <v>0.0219254</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0240884</v>
+        <v>0.0241294</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0243718</v>
+        <v>0.0243812</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0219737</v>
+        <v>0.0220987</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0244574</v>
+        <v>0.0243822</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0246444</v>
+        <v>0.0246847</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0221538</v>
+        <v>0.0223966</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0247722</v>
+        <v>0.0246662</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0249401</v>
+        <v>0.0250276</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0227171</v>
+        <v>0.0225846</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0249739</v>
+        <v>0.0250084</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0252105</v>
+        <v>0.0253848</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0228824</v>
+        <v>0.022922</v>
       </c>
       <c r="C45" t="n">
-        <v>0.025586</v>
+        <v>0.0254178</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0255385</v>
+        <v>0.0257777</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0233139</v>
+        <v>0.0231058</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0259741</v>
+        <v>0.0258178</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0259754</v>
+        <v>0.0263986</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0241812</v>
+        <v>0.023919</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0265698</v>
+        <v>0.0264139</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0266198</v>
+        <v>0.027311</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0255619</v>
+        <v>0.0247188</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0273711</v>
+        <v>0.0274278</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0278319</v>
+        <v>0.029007</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0277305</v>
+        <v>0.027499</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0286472</v>
+        <v>0.0285316</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0300125</v>
+        <v>0.0320908</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.030999</v>
+        <v>0.0298092</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0318108</v>
+        <v>0.0305939</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0348045</v>
+        <v>0.0360695</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.034973</v>
+        <v>0.0341551</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0348161</v>
+        <v>0.0346869</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0241244</v>
+        <v>0.0242766</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0408644</v>
+        <v>0.0388009</v>
       </c>
       <c r="C52" t="n">
-        <v>0.041341</v>
+        <v>0.0401554</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0243687</v>
+        <v>0.0244049</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0231229</v>
+        <v>0.0229978</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0250119</v>
+        <v>0.0250054</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0247024</v>
+        <v>0.0246358</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0232546</v>
+        <v>0.0232513</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0253438</v>
+        <v>0.0252648</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0248967</v>
+        <v>0.0248337</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0234314</v>
+        <v>0.0238243</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0256526</v>
+        <v>0.0256164</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0251431</v>
+        <v>0.0251654</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0238168</v>
+        <v>0.0235618</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0259884</v>
+        <v>0.025882</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0254704</v>
+        <v>0.0254795</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0238991</v>
+        <v>0.0238382</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0262776</v>
+        <v>0.026284</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0258707</v>
+        <v>0.0258733</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0242267</v>
+        <v>0.024223</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0266763</v>
+        <v>0.026617</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0263198</v>
+        <v>0.0263947</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0246358</v>
+        <v>0.0248096</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0271933</v>
+        <v>0.0271455</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0266328</v>
+        <v>0.026834</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0252428</v>
+        <v>0.0251692</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0277898</v>
+        <v>0.0276794</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0272543</v>
+        <v>0.0276455</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0264613</v>
+        <v>0.0261391</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0285184</v>
+        <v>0.0284353</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0280128</v>
+        <v>0.028812</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0280044</v>
+        <v>0.0273344</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0296404</v>
+        <v>0.0296097</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0296492</v>
+        <v>0.0306342</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0299839</v>
+        <v>0.0298299</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0308957</v>
+        <v>0.0311053</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0322605</v>
+        <v>0.0335809</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0329367</v>
+        <v>0.0325137</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0334025</v>
+        <v>0.0339866</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0363882</v>
+        <v>0.037583</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0365872</v>
+        <v>0.0361138</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0366493</v>
+        <v>0.0370442</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0427632</v>
+        <v>0.0435883</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0414359</v>
+        <v>0.0416567</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0423573</v>
+        <v>0.0426209</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0258879</v>
+        <v>0.0267874</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0294738</v>
+        <v>0.0290125</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0270398</v>
+        <v>0.0284692</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0260871</v>
+        <v>0.0277594</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0296727</v>
+        <v>0.0291083</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0278197</v>
+        <v>0.028445</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0263842</v>
+        <v>0.0269016</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.029921</v>
+        <v>0.0291218</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0284338</v>
+        <v>0.0289846</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0277081</v>
+        <v>0.0282753</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.030168</v>
+        <v>0.0294644</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0280412</v>
+        <v>0.0292147</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0276032</v>
+        <v>0.0277362</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0303069</v>
+        <v>0.0296867</v>
       </c>
       <c r="C71" t="n">
-        <v>0.028741</v>
+        <v>0.0291258</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0275001</v>
+        <v>0.028994</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0305607</v>
+        <v>0.0299655</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0292378</v>
+        <v>0.0300789</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0284126</v>
+        <v>0.0294598</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.031228</v>
+        <v>0.0302837</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0298766</v>
+        <v>0.030501</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0290158</v>
+        <v>0.030014</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0318809</v>
+        <v>0.0308723</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0304754</v>
+        <v>0.0303888</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0301808</v>
+        <v>0.0308919</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0325549</v>
+        <v>0.0315699</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0312911</v>
+        <v>0.0312452</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0304964</v>
+        <v>0.0316925</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0337851</v>
+        <v>0.0328168</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0324939</v>
+        <v>0.0324166</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0325064</v>
+        <v>0.0335401</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0353973</v>
+        <v>0.0345794</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0334253</v>
+        <v>0.0346669</v>
       </c>
       <c r="D77" t="n">
-        <v>0.034845</v>
+        <v>0.0364065</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0376207</v>
+        <v>0.037008</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0355789</v>
+        <v>0.0365986</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0385377</v>
+        <v>0.0399138</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0411003</v>
+        <v>0.0405325</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0391631</v>
+        <v>0.0399636</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0445881</v>
+        <v>0.0451866</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0458046</v>
+        <v>0.0452225</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0437006</v>
+        <v>0.0440709</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0401664</v>
+        <v>0.0409835</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0550909</v>
+        <v>0.0548423</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0383163</v>
+        <v>0.0386952</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0411279</v>
+        <v>0.0415845</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.055181</v>
+        <v>0.0548731</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0389366</v>
+        <v>0.039554</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0419329</v>
+        <v>0.0422992</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0555263</v>
+        <v>0.0549735</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0399724</v>
+        <v>0.0404071</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0427037</v>
+        <v>0.0429497</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0557194</v>
+        <v>0.0555704</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0409209</v>
+        <v>0.0413608</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0432912</v>
+        <v>0.0441268</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0556571</v>
+        <v>0.0557681</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0421267</v>
+        <v>0.0434234</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0441075</v>
+        <v>0.0447901</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0560952</v>
+        <v>0.0562106</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0436719</v>
+        <v>0.0444823</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0449589</v>
+        <v>0.0454316</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0562528</v>
+        <v>0.0560632</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0452297</v>
+        <v>0.0457055</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0457748</v>
+        <v>0.0464542</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0567485</v>
+        <v>0.0562339</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0466539</v>
+        <v>0.047519</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0464107</v>
+        <v>0.0474903</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0571143</v>
+        <v>0.0579716</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0484909</v>
+        <v>0.0485814</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0475634</v>
+        <v>0.0482192</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0579627</v>
+        <v>0.0575554</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0502041</v>
+        <v>0.0501897</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0489327</v>
+        <v>0.0496383</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0588033</v>
+        <v>0.0586541</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0518681</v>
+        <v>0.0516033</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0510716</v>
+        <v>0.0515696</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0605235</v>
+        <v>0.0603465</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0540261</v>
+        <v>0.0541861</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0537366</v>
+        <v>0.0543525</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0629736</v>
+        <v>0.0628302</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0569203</v>
+        <v>0.0573461</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0585957</v>
+        <v>0.0591176</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.06686789999999999</v>
+        <v>0.06655899999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0613596</v>
+        <v>0.0615895</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0805915</v>
+        <v>0.08062469999999999</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.085864</v>
+        <v>0.0901179</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0760417</v>
+        <v>0.0760841</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0810739</v>
+        <v>0.0810862</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0858372</v>
+        <v>0.08601010000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.07651139999999999</v>
+        <v>0.0764703</v>
       </c>
       <c r="D96" t="n">
-        <v>0.081564</v>
+        <v>0.081498</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0858515</v>
+        <v>0.0860976</v>
       </c>
       <c r="C97" t="n">
-        <v>0.07698679999999999</v>
+        <v>0.076964</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0821016</v>
+        <v>0.0821156</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.08592039999999999</v>
+        <v>0.0860785</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0775516</v>
+        <v>0.0775491</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0826191</v>
+        <v>0.08258840000000001</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.08608250000000001</v>
+        <v>0.0894573</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0782144</v>
+        <v>0.078289</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0833438</v>
+        <v>0.0831504</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0861861</v>
+        <v>0.0864234</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0789078</v>
+        <v>0.0789241</v>
       </c>
       <c r="D100" t="n">
-        <v>0.083883</v>
+        <v>0.0839066</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0863844</v>
+        <v>0.0865517</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0795563</v>
+        <v>0.08093</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0845177</v>
+        <v>0.0847209</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.086718</v>
+        <v>0.0868227</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0805028</v>
+        <v>0.08047940000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0906725</v>
+        <v>0.0854732</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0871615</v>
+        <v>0.0872665</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0816161</v>
+        <v>0.0816081</v>
       </c>
       <c r="D103" t="n">
-        <v>0.08643670000000001</v>
+        <v>0.0864051</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.08771619999999999</v>
+        <v>0.08783290000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0826721</v>
+        <v>0.08287990000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0877831</v>
+        <v>0.0875981</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0884591</v>
+        <v>0.0887019</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0840453</v>
+        <v>0.0840924</v>
       </c>
       <c r="D105" t="n">
-        <v>0.08934839999999999</v>
+        <v>0.0893634</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0897362</v>
+        <v>0.089925</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0859077</v>
+        <v>0.0859693</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0919319</v>
+        <v>0.0916232</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.091783</v>
+        <v>0.0919883</v>
       </c>
       <c r="C107" t="n">
-        <v>0.08850959999999999</v>
+        <v>0.0883806</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0957406</v>
+        <v>0.0954416</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0950409</v>
+        <v>0.0952093</v>
       </c>
       <c r="C108" t="n">
-        <v>0.09226520000000001</v>
+        <v>0.0923597</v>
       </c>
       <c r="D108" t="n">
-        <v>0.09912840000000001</v>
+        <v>0.097388</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0999814</v>
+        <v>0.100213</v>
       </c>
       <c r="C109" t="n">
-        <v>0.09853480000000001</v>
+        <v>0.0990968</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0996843</v>
+        <v>0.09837269999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.116374</v>
+        <v>0.107332</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0920149</v>
+        <v>0.090794</v>
       </c>
       <c r="D110" t="n">
-        <v>0.102173</v>
+        <v>0.0988801</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.117201</v>
+        <v>0.107194</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0928445</v>
+        <v>0.0915662</v>
       </c>
       <c r="D111" t="n">
-        <v>0.102622</v>
+        <v>0.09975870000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.116449</v>
+        <v>0.107477</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0941665</v>
+        <v>0.0925363</v>
       </c>
       <c r="D112" t="n">
-        <v>0.103215</v>
+        <v>0.100654</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.116568</v>
+        <v>0.108207</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0945815</v>
+        <v>0.0941244</v>
       </c>
       <c r="D113" t="n">
-        <v>0.104041</v>
+        <v>0.102007</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.116613</v>
+        <v>0.107666</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0958097</v>
+        <v>0.0946327</v>
       </c>
       <c r="D114" t="n">
-        <v>0.105018</v>
+        <v>0.102731</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.116804</v>
+        <v>0.107779</v>
       </c>
       <c r="C115" t="n">
-        <v>0.09655859999999999</v>
+        <v>0.0958595</v>
       </c>
       <c r="D115" t="n">
-        <v>0.106787</v>
+        <v>0.103861</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.117495</v>
+        <v>0.107918</v>
       </c>
       <c r="C116" t="n">
-        <v>0.09807680000000001</v>
+        <v>0.0970872</v>
       </c>
       <c r="D116" t="n">
-        <v>0.108524</v>
+        <v>0.105037</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.117915</v>
+        <v>0.108415</v>
       </c>
       <c r="C117" t="n">
-        <v>0.100331</v>
+        <v>0.09853140000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.109377</v>
+        <v>0.106646</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.117891</v>
+        <v>0.108959</v>
       </c>
       <c r="C118" t="n">
-        <v>0.101468</v>
+        <v>0.100184</v>
       </c>
       <c r="D118" t="n">
-        <v>0.109445</v>
+        <v>0.108379</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.118545</v>
+        <v>0.109751</v>
       </c>
       <c r="C119" t="n">
-        <v>0.103351</v>
+        <v>0.102052</v>
       </c>
       <c r="D119" t="n">
-        <v>0.112832</v>
+        <v>0.110349</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.119759</v>
+        <v>0.110917</v>
       </c>
       <c r="C120" t="n">
-        <v>0.105475</v>
+        <v>0.104089</v>
       </c>
       <c r="D120" t="n">
-        <v>0.115496</v>
+        <v>0.11321</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.121319</v>
+        <v>0.112834</v>
       </c>
       <c r="C121" t="n">
-        <v>0.108958</v>
+        <v>0.106992</v>
       </c>
       <c r="D121" t="n">
-        <v>0.120555</v>
+        <v>0.117112</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.125757</v>
+        <v>0.115674</v>
       </c>
       <c r="C122" t="n">
-        <v>0.11116</v>
+        <v>0.110829</v>
       </c>
       <c r="D122" t="n">
-        <v>0.126895</v>
+        <v>0.123308</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.128169</v>
+        <v>0.120471</v>
       </c>
       <c r="C123" t="n">
-        <v>0.117067</v>
+        <v>0.116897</v>
       </c>
       <c r="D123" t="n">
-        <v>0.115641</v>
+        <v>0.115767</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.141211</v>
+        <v>0.140289</v>
       </c>
       <c r="C124" t="n">
-        <v>0.104602</v>
+        <v>0.104191</v>
       </c>
       <c r="D124" t="n">
-        <v>0.116588</v>
+        <v>0.116851</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.137418</v>
+        <v>0.134751</v>
       </c>
       <c r="C125" t="n">
-        <v>0.106027</v>
+        <v>0.105702</v>
       </c>
       <c r="D125" t="n">
-        <v>0.118048</v>
+        <v>0.118117</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.137272</v>
+        <v>0.135095</v>
       </c>
       <c r="C126" t="n">
-        <v>0.107517</v>
+        <v>0.106918</v>
       </c>
       <c r="D126" t="n">
-        <v>0.119283</v>
+        <v>0.119654</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.137378</v>
+        <v>0.135712</v>
       </c>
       <c r="C127" t="n">
-        <v>0.108568</v>
+        <v>0.108323</v>
       </c>
       <c r="D127" t="n">
-        <v>0.120645</v>
+        <v>0.121232</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.137634</v>
+        <v>0.139582</v>
       </c>
       <c r="C128" t="n">
-        <v>0.110341</v>
+        <v>0.109932</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1219</v>
+        <v>0.122579</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.137642</v>
+        <v>0.136618</v>
       </c>
       <c r="C129" t="n">
-        <v>0.112316</v>
+        <v>0.111611</v>
       </c>
       <c r="D129" t="n">
-        <v>0.123508</v>
+        <v>0.124397</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.137669</v>
+        <v>0.136854</v>
       </c>
       <c r="C130" t="n">
-        <v>0.114856</v>
+        <v>0.113321</v>
       </c>
       <c r="D130" t="n">
-        <v>0.12506</v>
+        <v>0.126149</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.137935</v>
+        <v>0.137923</v>
       </c>
       <c r="C131" t="n">
-        <v>0.115971</v>
+        <v>0.115006</v>
       </c>
       <c r="D131" t="n">
-        <v>0.126975</v>
+        <v>0.127867</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.138648</v>
+        <v>0.138205</v>
       </c>
       <c r="C132" t="n">
-        <v>0.117776</v>
+        <v>0.117581</v>
       </c>
       <c r="D132" t="n">
-        <v>0.129121</v>
+        <v>0.129928</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.139674</v>
+        <v>0.138964</v>
       </c>
       <c r="C133" t="n">
-        <v>0.120258</v>
+        <v>0.119096</v>
       </c>
       <c r="D133" t="n">
-        <v>0.132605</v>
+        <v>0.132413</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.14007</v>
+        <v>0.140914</v>
       </c>
       <c r="C134" t="n">
-        <v>0.122351</v>
+        <v>0.121863</v>
       </c>
       <c r="D134" t="n">
-        <v>0.134884</v>
+        <v>0.135586</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.141423</v>
+        <v>0.142327</v>
       </c>
       <c r="C135" t="n">
-        <v>0.125593</v>
+        <v>0.124925</v>
       </c>
       <c r="D135" t="n">
-        <v>0.139157</v>
+        <v>0.145158</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.144102</v>
+        <v>0.144741</v>
       </c>
       <c r="C136" t="n">
-        <v>0.12955</v>
+        <v>0.129054</v>
       </c>
       <c r="D136" t="n">
-        <v>0.145836</v>
+        <v>0.146477</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.147949</v>
+        <v>0.148905</v>
       </c>
       <c r="C137" t="n">
-        <v>0.135704</v>
+        <v>0.135042</v>
       </c>
       <c r="D137" t="n">
-        <v>0.128035</v>
+        <v>0.129085</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.158005</v>
+        <v>0.15776</v>
       </c>
       <c r="C138" t="n">
-        <v>0.115814</v>
+        <v>0.116657</v>
       </c>
       <c r="D138" t="n">
-        <v>0.129162</v>
+        <v>0.130399</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.158051</v>
+        <v>0.157787</v>
       </c>
       <c r="C139" t="n">
-        <v>0.117328</v>
+        <v>0.118115</v>
       </c>
       <c r="D139" t="n">
-        <v>0.130501</v>
+        <v>0.131784</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.157975</v>
+        <v>0.157848</v>
       </c>
       <c r="C140" t="n">
-        <v>0.118791</v>
+        <v>0.119496</v>
       </c>
       <c r="D140" t="n">
-        <v>0.131731</v>
+        <v>0.133077</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158255</v>
+        <v>0.158431</v>
       </c>
       <c r="C141" t="n">
-        <v>0.12038</v>
+        <v>0.121222</v>
       </c>
       <c r="D141" t="n">
-        <v>0.133099</v>
+        <v>0.134243</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158285</v>
+        <v>0.158071</v>
       </c>
       <c r="C142" t="n">
-        <v>0.122113</v>
+        <v>0.12287</v>
       </c>
       <c r="D142" t="n">
-        <v>0.134481</v>
+        <v>0.137383</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158352</v>
+        <v>0.158144</v>
       </c>
       <c r="C143" t="n">
-        <v>0.123762</v>
+        <v>0.124482</v>
       </c>
       <c r="D143" t="n">
-        <v>0.136318</v>
+        <v>0.137295</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0195727</v>
+        <v>0.0194896</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0193719</v>
+        <v>0.0192012</v>
       </c>
       <c r="D2" t="n">
-        <v>0.021334</v>
+        <v>0.0210444</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0196455</v>
+        <v>0.0194584</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0193224</v>
+        <v>0.0191761</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0213382</v>
+        <v>0.0209108</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0197684</v>
+        <v>0.0196039</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0191942</v>
+        <v>0.0190803</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0212313</v>
+        <v>0.0209424</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.019787</v>
+        <v>0.0196348</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0192394</v>
+        <v>0.0190448</v>
       </c>
       <c r="D5" t="n">
-        <v>0.021365</v>
+        <v>0.021005</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0199243</v>
+        <v>0.0196</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0190534</v>
+        <v>0.0189897</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0213271</v>
+        <v>0.021184</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0201624</v>
+        <v>0.0199894</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0193431</v>
+        <v>0.019193</v>
       </c>
       <c r="D7" t="n">
-        <v>0.021739</v>
+        <v>0.021316</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0200587</v>
+        <v>0.0200769</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0193373</v>
+        <v>0.0191604</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0218751</v>
+        <v>0.0216883</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0204692</v>
+        <v>0.0205654</v>
       </c>
       <c r="C9" t="n">
-        <v>0.019432</v>
+        <v>0.0193658</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0209897</v>
+        <v>0.0210223</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0192676</v>
+        <v>0.0194482</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0204944</v>
+        <v>0.0205411</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0212725</v>
+        <v>0.0209089</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0194218</v>
+        <v>0.0196528</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0207385</v>
+        <v>0.0206318</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0213578</v>
+        <v>0.0213997</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.019372</v>
+        <v>0.0198193</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0207054</v>
+        <v>0.0208014</v>
       </c>
       <c r="D12" t="n">
-        <v>0.021589</v>
+        <v>0.0215949</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0195975</v>
+        <v>0.0196737</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0206934</v>
+        <v>0.0205613</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0217593</v>
+        <v>0.0217546</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0197495</v>
+        <v>0.0199358</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0208047</v>
+        <v>0.0207534</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0219787</v>
+        <v>0.0218288</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0199935</v>
+        <v>0.0201846</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0209191</v>
+        <v>0.0209764</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0221838</v>
+        <v>0.0222523</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0200924</v>
+        <v>0.0201058</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0210324</v>
+        <v>0.0210716</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0222754</v>
+        <v>0.0223532</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.020109</v>
+        <v>0.0202141</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0211724</v>
+        <v>0.0211391</v>
       </c>
       <c r="D17" t="n">
-        <v>0.022489</v>
+        <v>0.0220952</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0203151</v>
+        <v>0.020491</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0210625</v>
+        <v>0.0209448</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0225256</v>
+        <v>0.0226045</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0204285</v>
+        <v>0.02034</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0211771</v>
+        <v>0.0210546</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0228516</v>
+        <v>0.0227915</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0204119</v>
+        <v>0.020424</v>
       </c>
       <c r="C20" t="n">
-        <v>0.021192</v>
+        <v>0.0213353</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0228662</v>
+        <v>0.02287</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0208475</v>
+        <v>0.0205383</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0213561</v>
+        <v>0.0213034</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0231182</v>
+        <v>0.0233188</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0210601</v>
+        <v>0.0211012</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0214691</v>
+        <v>0.0214881</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0242573</v>
+        <v>0.0243431</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0228106</v>
+        <v>0.0228778</v>
       </c>
       <c r="C23" t="n">
-        <v>0.021903</v>
+        <v>0.0217052</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0222034</v>
+        <v>0.0223032</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0202471</v>
+        <v>0.0203624</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02167</v>
+        <v>0.0215939</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0224303</v>
+        <v>0.02246</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0203008</v>
+        <v>0.0204612</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0218811</v>
+        <v>0.0218171</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0225672</v>
+        <v>0.0227893</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0204468</v>
+        <v>0.02072</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0221327</v>
+        <v>0.0220989</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0228859</v>
+        <v>0.0228536</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.020553</v>
+        <v>0.0208074</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0223343</v>
+        <v>0.0222172</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0231127</v>
+        <v>0.0230868</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0207446</v>
+        <v>0.0208906</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0225563</v>
+        <v>0.0223756</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0234045</v>
+        <v>0.0232967</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0209921</v>
+        <v>0.0210665</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0227704</v>
+        <v>0.0224244</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0236065</v>
+        <v>0.0235543</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0211817</v>
+        <v>0.0212189</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0229964</v>
+        <v>0.0226163</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0240869</v>
+        <v>0.0238068</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0213751</v>
+        <v>0.021264</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0231699</v>
+        <v>0.0228692</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0243249</v>
+        <v>0.0241032</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0215867</v>
+        <v>0.0215405</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0233957</v>
+        <v>0.0230747</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0245852</v>
+        <v>0.024254</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0215676</v>
+        <v>0.0216114</v>
       </c>
       <c r="C33" t="n">
-        <v>0.023488</v>
+        <v>0.0232212</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0249805</v>
+        <v>0.0250527</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0223994</v>
+        <v>0.0234895</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0244325</v>
+        <v>0.0236501</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0261102</v>
+        <v>0.0259947</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0242152</v>
+        <v>0.0234597</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0251687</v>
+        <v>0.0248736</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0291027</v>
+        <v>0.0283157</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0271783</v>
+        <v>0.0267527</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0261311</v>
+        <v>0.0257446</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0348502</v>
+        <v>0.0348319</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0303557</v>
+        <v>0.031041</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0291163</v>
+        <v>0.0269739</v>
       </c>
       <c r="D37" t="n">
-        <v>0.023378</v>
+        <v>0.0234676</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0213682</v>
+        <v>0.0215299</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0231814</v>
+        <v>0.0231185</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0235977</v>
+        <v>0.0235078</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0216207</v>
+        <v>0.0215195</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0234328</v>
+        <v>0.02323</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0238097</v>
+        <v>0.0239164</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0217923</v>
+        <v>0.02174</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0237482</v>
+        <v>0.0235752</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0240824</v>
+        <v>0.0240107</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0219254</v>
+        <v>0.0217746</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0241294</v>
+        <v>0.0238713</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0243812</v>
+        <v>0.0244123</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0220987</v>
+        <v>0.0220034</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0243822</v>
+        <v>0.0242013</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0246847</v>
+        <v>0.0245923</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0223966</v>
+        <v>0.0224716</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0246662</v>
+        <v>0.0245082</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0250276</v>
+        <v>0.0249556</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0225846</v>
+        <v>0.022533</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0250084</v>
+        <v>0.0248816</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0253848</v>
+        <v>0.0253345</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.022922</v>
+        <v>0.0227963</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0254178</v>
+        <v>0.0252343</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0257777</v>
+        <v>0.0259267</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0231058</v>
+        <v>0.0232777</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0258178</v>
+        <v>0.0257049</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0263986</v>
+        <v>0.0264289</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.023919</v>
+        <v>0.0242771</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0264139</v>
+        <v>0.0264083</v>
       </c>
       <c r="D47" t="n">
-        <v>0.027311</v>
+        <v>0.0275168</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0247188</v>
+        <v>0.0253462</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0274278</v>
+        <v>0.0272443</v>
       </c>
       <c r="D48" t="n">
-        <v>0.029007</v>
+        <v>0.0294959</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.027499</v>
+        <v>0.0270124</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0285316</v>
+        <v>0.0282998</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0320908</v>
+        <v>0.0325817</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0298092</v>
+        <v>0.0304565</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0305939</v>
+        <v>0.030741</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0360695</v>
+        <v>0.0375682</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0341551</v>
+        <v>0.0339715</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0346869</v>
+        <v>0.0341523</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0242766</v>
+        <v>0.024146</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0388009</v>
+        <v>0.0402173</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0401554</v>
+        <v>0.0407092</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0244049</v>
+        <v>0.0243425</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0229978</v>
+        <v>0.0230825</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0250054</v>
+        <v>0.0249669</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0246358</v>
+        <v>0.0246194</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0232513</v>
+        <v>0.0232807</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0252648</v>
+        <v>0.0252515</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0248337</v>
+        <v>0.0248115</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0238243</v>
+        <v>0.0234261</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0256164</v>
+        <v>0.0256096</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0251654</v>
+        <v>0.0251262</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0235618</v>
+        <v>0.0236351</v>
       </c>
       <c r="C56" t="n">
-        <v>0.025882</v>
+        <v>0.0258919</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0254795</v>
+        <v>0.0254785</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0238382</v>
+        <v>0.023867</v>
       </c>
       <c r="C57" t="n">
-        <v>0.026284</v>
+        <v>0.0262195</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0258733</v>
+        <v>0.0257472</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.024223</v>
+        <v>0.0241769</v>
       </c>
       <c r="C58" t="n">
-        <v>0.026617</v>
+        <v>0.0266693</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0263947</v>
+        <v>0.0262294</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0248096</v>
+        <v>0.0245477</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0271455</v>
+        <v>0.0270449</v>
       </c>
       <c r="D59" t="n">
-        <v>0.026834</v>
+        <v>0.0267778</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0251692</v>
+        <v>0.025443</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0276794</v>
+        <v>0.0276425</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0276455</v>
+        <v>0.0276797</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0261391</v>
+        <v>0.0263691</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0284353</v>
+        <v>0.0283796</v>
       </c>
       <c r="D61" t="n">
-        <v>0.028812</v>
+        <v>0.0289254</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0273344</v>
+        <v>0.0274027</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0296097</v>
+        <v>0.0294829</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0306342</v>
+        <v>0.0307892</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0298299</v>
+        <v>0.0300944</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0311053</v>
+        <v>0.030955</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0335809</v>
+        <v>0.0338047</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0325137</v>
+        <v>0.032784</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0339866</v>
+        <v>0.0334699</v>
       </c>
       <c r="D64" t="n">
-        <v>0.037583</v>
+        <v>0.037826</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0361138</v>
+        <v>0.0362272</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0370442</v>
+        <v>0.0370464</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0435883</v>
+        <v>0.0439067</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0416567</v>
+        <v>0.0413542</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0426209</v>
+        <v>0.0424884</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0267874</v>
+        <v>0.0266169</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0290125</v>
+        <v>0.0285175</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0284692</v>
+        <v>0.0275203</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0277594</v>
+        <v>0.0267261</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0291083</v>
+        <v>0.0287041</v>
       </c>
       <c r="C68" t="n">
-        <v>0.028445</v>
+        <v>0.0272827</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0269016</v>
+        <v>0.0269029</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0291218</v>
+        <v>0.0289403</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0289846</v>
+        <v>0.0280863</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0282753</v>
+        <v>0.0273175</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0294644</v>
+        <v>0.0291344</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0292147</v>
+        <v>0.0286981</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0277362</v>
+        <v>0.0280149</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0296867</v>
+        <v>0.0292541</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0291258</v>
+        <v>0.0282578</v>
       </c>
       <c r="D71" t="n">
-        <v>0.028994</v>
+        <v>0.0281038</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0299655</v>
+        <v>0.029619</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0300789</v>
+        <v>0.0294759</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0294598</v>
+        <v>0.0286366</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0302837</v>
+        <v>0.0300355</v>
       </c>
       <c r="C73" t="n">
-        <v>0.030501</v>
+        <v>0.0300855</v>
       </c>
       <c r="D73" t="n">
-        <v>0.030014</v>
+        <v>0.0289758</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0308723</v>
+        <v>0.0306147</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0303888</v>
+        <v>0.0307472</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0308919</v>
+        <v>0.0301952</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0315699</v>
+        <v>0.0314709</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0312452</v>
+        <v>0.0315295</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0316925</v>
+        <v>0.0314214</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0328168</v>
+        <v>0.0327627</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0324166</v>
+        <v>0.0326928</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0335401</v>
+        <v>0.0329174</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0345794</v>
+        <v>0.0343339</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0346669</v>
+        <v>0.0341887</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0364065</v>
+        <v>0.0355417</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.037008</v>
+        <v>0.0369444</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0365986</v>
+        <v>0.0365194</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0399138</v>
+        <v>0.039263</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0405325</v>
+        <v>0.040231</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0399636</v>
+        <v>0.0391253</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0451866</v>
+        <v>0.0444588</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0452225</v>
+        <v>0.0449585</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0440709</v>
+        <v>0.0433037</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0409835</v>
+        <v>0.0406909</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0548423</v>
+        <v>0.0564123</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0386952</v>
+        <v>0.0385041</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0415845</v>
+        <v>0.0415256</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0548731</v>
+        <v>0.0564736</v>
       </c>
       <c r="C82" t="n">
-        <v>0.039554</v>
+        <v>0.039132</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0422992</v>
+        <v>0.0419422</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0549735</v>
+        <v>0.0566144</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0404071</v>
+        <v>0.0401799</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0429497</v>
+        <v>0.0428795</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0555704</v>
+        <v>0.0567355</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0413608</v>
+        <v>0.0411613</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0441268</v>
+        <v>0.0438702</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0557681</v>
+        <v>0.0568172</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0434234</v>
+        <v>0.0424965</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0447901</v>
+        <v>0.0442338</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0562106</v>
+        <v>0.0572128</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0444823</v>
+        <v>0.0439974</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0454316</v>
+        <v>0.0451378</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0560632</v>
+        <v>0.0573772</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0457055</v>
+        <v>0.0454618</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0464542</v>
+        <v>0.0463953</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0562339</v>
+        <v>0.0579057</v>
       </c>
       <c r="C88" t="n">
-        <v>0.047519</v>
+        <v>0.0469244</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0474903</v>
+        <v>0.0468824</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0579716</v>
+        <v>0.0583707</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0485814</v>
+        <v>0.0484992</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0482192</v>
+        <v>0.0480072</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0575554</v>
+        <v>0.0591054</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0501897</v>
+        <v>0.050114</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0496383</v>
+        <v>0.0494663</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0586541</v>
+        <v>0.0603678</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0516033</v>
+        <v>0.0520299</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0515696</v>
+        <v>0.0514804</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0603465</v>
+        <v>0.0620279</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0541861</v>
+        <v>0.0541375</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0543525</v>
+        <v>0.0541283</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0628302</v>
+        <v>0.0644791</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0573461</v>
+        <v>0.0570726</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0591176</v>
+        <v>0.0591711</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.06655899999999999</v>
+        <v>0.0682919</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0615895</v>
+        <v>0.0615306</v>
       </c>
       <c r="D94" t="n">
-        <v>0.08062469999999999</v>
+        <v>0.0806964</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0901179</v>
+        <v>0.08564919999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0760841</v>
+        <v>0.0761416</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0810862</v>
+        <v>0.0811279</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.08601010000000001</v>
+        <v>0.085795</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0764703</v>
+        <v>0.0766039</v>
       </c>
       <c r="D96" t="n">
-        <v>0.081498</v>
+        <v>0.0815921</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0860976</v>
+        <v>0.0859342</v>
       </c>
       <c r="C97" t="n">
-        <v>0.076964</v>
+        <v>0.0771694</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0821156</v>
+        <v>0.0820118</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0860785</v>
+        <v>0.0859023</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0775491</v>
+        <v>0.07764600000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.08258840000000001</v>
+        <v>0.08268200000000001</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0894573</v>
+        <v>0.0860351</v>
       </c>
       <c r="C99" t="n">
-        <v>0.078289</v>
+        <v>0.07815179999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0831504</v>
+        <v>0.0831369</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0864234</v>
+        <v>0.0862303</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0789241</v>
+        <v>0.0790607</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0839066</v>
+        <v>0.0838334</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0865517</v>
+        <v>0.08650480000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.08093</v>
+        <v>0.0795608</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0847209</v>
+        <v>0.0847434</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0868227</v>
+        <v>0.0866909</v>
       </c>
       <c r="C102" t="n">
-        <v>0.08047940000000001</v>
+        <v>0.0805625</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0854732</v>
+        <v>0.0858097</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0872665</v>
+        <v>0.0873124</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0816081</v>
+        <v>0.0815143</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0864051</v>
+        <v>0.08650960000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.08783290000000001</v>
+        <v>0.0876584</v>
       </c>
       <c r="C104" t="n">
-        <v>0.08287990000000001</v>
+        <v>0.0827079</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0875981</v>
+        <v>0.0877725</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0887019</v>
+        <v>0.0884485</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0840924</v>
+        <v>0.0840466</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0893634</v>
+        <v>0.0892207</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.089925</v>
+        <v>0.0898009</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0859693</v>
+        <v>0.0860944</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0916232</v>
+        <v>0.0918827</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0919883</v>
+        <v>0.09178649999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0883806</v>
+        <v>0.0884089</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0954416</v>
+        <v>0.09562809999999999</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0952093</v>
+        <v>0.0951135</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0923597</v>
+        <v>0.0921381</v>
       </c>
       <c r="D108" t="n">
-        <v>0.097388</v>
+        <v>0.0988517</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100213</v>
+        <v>0.100123</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0990968</v>
+        <v>0.09858790000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.09837269999999999</v>
+        <v>0.0995769</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.107332</v>
+        <v>0.107522</v>
       </c>
       <c r="C110" t="n">
-        <v>0.090794</v>
+        <v>0.0918268</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0988801</v>
+        <v>0.100222</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.107194</v>
+        <v>0.107691</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0915662</v>
+        <v>0.0925763</v>
       </c>
       <c r="D111" t="n">
-        <v>0.09975870000000001</v>
+        <v>0.101034</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.107477</v>
+        <v>0.107785</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0925363</v>
+        <v>0.0934204</v>
       </c>
       <c r="D112" t="n">
-        <v>0.100654</v>
+        <v>0.102058</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.108207</v>
+        <v>0.107652</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0941244</v>
+        <v>0.0945236</v>
       </c>
       <c r="D113" t="n">
-        <v>0.102007</v>
+        <v>0.102966</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.107666</v>
+        <v>0.107925</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0946327</v>
+        <v>0.0956917</v>
       </c>
       <c r="D114" t="n">
-        <v>0.102731</v>
+        <v>0.104025</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.107779</v>
+        <v>0.108273</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0958595</v>
+        <v>0.09686740000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.103861</v>
+        <v>0.105126</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.107918</v>
+        <v>0.108426</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0970872</v>
+        <v>0.0983131</v>
       </c>
       <c r="D116" t="n">
-        <v>0.105037</v>
+        <v>0.106308</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.108415</v>
+        <v>0.108798</v>
       </c>
       <c r="C117" t="n">
-        <v>0.09853140000000001</v>
+        <v>0.0996605</v>
       </c>
       <c r="D117" t="n">
-        <v>0.106646</v>
+        <v>0.108246</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.108959</v>
+        <v>0.109154</v>
       </c>
       <c r="C118" t="n">
-        <v>0.100184</v>
+        <v>0.101357</v>
       </c>
       <c r="D118" t="n">
-        <v>0.108379</v>
+        <v>0.109842</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.109751</v>
+        <v>0.110039</v>
       </c>
       <c r="C119" t="n">
-        <v>0.102052</v>
+        <v>0.10289</v>
       </c>
       <c r="D119" t="n">
-        <v>0.110349</v>
+        <v>0.112093</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.110917</v>
+        <v>0.111281</v>
       </c>
       <c r="C120" t="n">
-        <v>0.104089</v>
+        <v>0.10482</v>
       </c>
       <c r="D120" t="n">
-        <v>0.11321</v>
+        <v>0.11484</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.112834</v>
+        <v>0.11297</v>
       </c>
       <c r="C121" t="n">
-        <v>0.106992</v>
+        <v>0.108176</v>
       </c>
       <c r="D121" t="n">
-        <v>0.117112</v>
+        <v>0.118843</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.115674</v>
+        <v>0.115985</v>
       </c>
       <c r="C122" t="n">
-        <v>0.110829</v>
+        <v>0.113779</v>
       </c>
       <c r="D122" t="n">
-        <v>0.123308</v>
+        <v>0.124191</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.120471</v>
+        <v>0.120816</v>
       </c>
       <c r="C123" t="n">
-        <v>0.116897</v>
+        <v>0.11802</v>
       </c>
       <c r="D123" t="n">
-        <v>0.115767</v>
+        <v>0.116148</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.140289</v>
+        <v>0.138737</v>
       </c>
       <c r="C124" t="n">
-        <v>0.104191</v>
+        <v>0.105196</v>
       </c>
       <c r="D124" t="n">
-        <v>0.116851</v>
+        <v>0.117311</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.134751</v>
+        <v>0.136634</v>
       </c>
       <c r="C125" t="n">
-        <v>0.105702</v>
+        <v>0.106246</v>
       </c>
       <c r="D125" t="n">
-        <v>0.118117</v>
+        <v>0.118452</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.135095</v>
+        <v>0.13669</v>
       </c>
       <c r="C126" t="n">
-        <v>0.106918</v>
+        <v>0.107922</v>
       </c>
       <c r="D126" t="n">
-        <v>0.119654</v>
+        <v>0.119643</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.135712</v>
+        <v>0.136804</v>
       </c>
       <c r="C127" t="n">
-        <v>0.108323</v>
+        <v>0.10973</v>
       </c>
       <c r="D127" t="n">
-        <v>0.121232</v>
+        <v>0.121002</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.139582</v>
+        <v>0.137212</v>
       </c>
       <c r="C128" t="n">
-        <v>0.109932</v>
+        <v>0.111032</v>
       </c>
       <c r="D128" t="n">
-        <v>0.122579</v>
+        <v>0.122472</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.136618</v>
+        <v>0.136706</v>
       </c>
       <c r="C129" t="n">
-        <v>0.111611</v>
+        <v>0.112865</v>
       </c>
       <c r="D129" t="n">
-        <v>0.124397</v>
+        <v>0.123856</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.136854</v>
+        <v>0.136952</v>
       </c>
       <c r="C130" t="n">
-        <v>0.113321</v>
+        <v>0.114712</v>
       </c>
       <c r="D130" t="n">
-        <v>0.126149</v>
+        <v>0.126262</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.137923</v>
+        <v>0.137765</v>
       </c>
       <c r="C131" t="n">
-        <v>0.115006</v>
+        <v>0.117337</v>
       </c>
       <c r="D131" t="n">
-        <v>0.127867</v>
+        <v>0.128215</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.138205</v>
+        <v>0.138851</v>
       </c>
       <c r="C132" t="n">
-        <v>0.117581</v>
+        <v>0.119144</v>
       </c>
       <c r="D132" t="n">
-        <v>0.129928</v>
+        <v>0.129628</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.138964</v>
+        <v>0.138497</v>
       </c>
       <c r="C133" t="n">
-        <v>0.119096</v>
+        <v>0.120745</v>
       </c>
       <c r="D133" t="n">
-        <v>0.132413</v>
+        <v>0.131989</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.140914</v>
+        <v>0.139423</v>
       </c>
       <c r="C134" t="n">
-        <v>0.121863</v>
+        <v>0.123251</v>
       </c>
       <c r="D134" t="n">
-        <v>0.135586</v>
+        <v>0.135168</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.142327</v>
+        <v>0.141247</v>
       </c>
       <c r="C135" t="n">
-        <v>0.124925</v>
+        <v>0.126149</v>
       </c>
       <c r="D135" t="n">
-        <v>0.145158</v>
+        <v>0.139373</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.144741</v>
+        <v>0.144051</v>
       </c>
       <c r="C136" t="n">
-        <v>0.129054</v>
+        <v>0.130592</v>
       </c>
       <c r="D136" t="n">
-        <v>0.146477</v>
+        <v>0.145778</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.148905</v>
+        <v>0.147831</v>
       </c>
       <c r="C137" t="n">
-        <v>0.135042</v>
+        <v>0.13668</v>
       </c>
       <c r="D137" t="n">
-        <v>0.129085</v>
+        <v>0.129037</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.15776</v>
+        <v>0.159532</v>
       </c>
       <c r="C138" t="n">
-        <v>0.116657</v>
+        <v>0.116681</v>
       </c>
       <c r="D138" t="n">
-        <v>0.130399</v>
+        <v>0.129118</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.157787</v>
+        <v>0.158006</v>
       </c>
       <c r="C139" t="n">
-        <v>0.118115</v>
+        <v>0.117202</v>
       </c>
       <c r="D139" t="n">
-        <v>0.131784</v>
+        <v>0.130457</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.157848</v>
+        <v>0.158059</v>
       </c>
       <c r="C140" t="n">
-        <v>0.119496</v>
+        <v>0.118776</v>
       </c>
       <c r="D140" t="n">
-        <v>0.133077</v>
+        <v>0.131706</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158431</v>
+        <v>0.158247</v>
       </c>
       <c r="C141" t="n">
-        <v>0.121222</v>
+        <v>0.120334</v>
       </c>
       <c r="D141" t="n">
-        <v>0.134243</v>
+        <v>0.143926</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158071</v>
+        <v>0.158537</v>
       </c>
       <c r="C142" t="n">
-        <v>0.12287</v>
+        <v>0.122212</v>
       </c>
       <c r="D142" t="n">
-        <v>0.137383</v>
+        <v>0.134705</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158144</v>
+        <v>0.158481</v>
       </c>
       <c r="C143" t="n">
-        <v>0.124482</v>
+        <v>0.144585</v>
       </c>
       <c r="D143" t="n">
-        <v>0.137295</v>
+        <v>0.136164</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0194896</v>
+        <v>0.0195665</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0192012</v>
+        <v>0.0203889</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0210444</v>
+        <v>0.0213464</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0194584</v>
+        <v>0.0195677</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0191761</v>
+        <v>0.0204586</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0209108</v>
+        <v>0.0213261</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0196039</v>
+        <v>0.0196227</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0190803</v>
+        <v>0.0205765</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0209424</v>
+        <v>0.0214345</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0196348</v>
+        <v>0.019631</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0190448</v>
+        <v>0.0204822</v>
       </c>
       <c r="D5" t="n">
-        <v>0.021005</v>
+        <v>0.0214003</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0196</v>
+        <v>0.0197342</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0189897</v>
+        <v>0.0205903</v>
       </c>
       <c r="D6" t="n">
-        <v>0.021184</v>
+        <v>0.0216774</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0199894</v>
+        <v>0.0199831</v>
       </c>
       <c r="C7" t="n">
-        <v>0.019193</v>
+        <v>0.0207199</v>
       </c>
       <c r="D7" t="n">
-        <v>0.021316</v>
+        <v>0.021635</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0200769</v>
+        <v>0.0200075</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0191604</v>
+        <v>0.0207765</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0216883</v>
+        <v>0.0220089</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0205654</v>
+        <v>0.0205736</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0193658</v>
+        <v>0.02133</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0210223</v>
+        <v>0.0209992</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0194482</v>
+        <v>0.0193829</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0205411</v>
+        <v>0.0210503</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0209089</v>
+        <v>0.0215352</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0196528</v>
+        <v>0.0195346</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0206318</v>
+        <v>0.0213462</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0213997</v>
+        <v>0.0216708</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0198193</v>
+        <v>0.0196509</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0208014</v>
+        <v>0.021439</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0215949</v>
+        <v>0.0215136</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0196737</v>
+        <v>0.0199211</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0205613</v>
+        <v>0.0214674</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0217546</v>
+        <v>0.0219741</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0199358</v>
+        <v>0.0199787</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0207534</v>
+        <v>0.0216254</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0218288</v>
+        <v>0.0221179</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0201846</v>
+        <v>0.0200422</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0209764</v>
+        <v>0.0217449</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0222523</v>
+        <v>0.0223271</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0201058</v>
+        <v>0.0201402</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0210716</v>
+        <v>0.02221</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0223532</v>
+        <v>0.0224914</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0202141</v>
+        <v>0.0201929</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0211391</v>
+        <v>0.0222104</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0220952</v>
+        <v>0.0230627</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.020491</v>
+        <v>0.0202564</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0209448</v>
+        <v>0.0224437</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0226045</v>
+        <v>0.023291</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02034</v>
+        <v>0.0204989</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0210546</v>
+        <v>0.0225874</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0227915</v>
+        <v>0.0229908</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.020424</v>
+        <v>0.0204421</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0213353</v>
+        <v>0.02319</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02287</v>
+        <v>0.0232569</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0205383</v>
+        <v>0.0206783</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0213034</v>
+        <v>0.0232453</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0233188</v>
+        <v>0.023801</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0211012</v>
+        <v>0.02133</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0214881</v>
+        <v>0.0239735</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0243431</v>
+        <v>0.0245249</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0228778</v>
+        <v>0.0232286</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0217052</v>
+        <v>0.0258981</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0223032</v>
+        <v>0.0222399</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0203624</v>
+        <v>0.0204834</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0215939</v>
+        <v>0.0220328</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02246</v>
+        <v>0.0224919</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0204612</v>
+        <v>0.0206218</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0218171</v>
+        <v>0.0224008</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0227893</v>
+        <v>0.0227737</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02072</v>
+        <v>0.0207856</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0220989</v>
+        <v>0.0224564</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0228536</v>
+        <v>0.0229642</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0208074</v>
+        <v>0.0208902</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0222172</v>
+        <v>0.0227941</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0230868</v>
+        <v>0.0232325</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0208906</v>
+        <v>0.0210167</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0223756</v>
+        <v>0.0231453</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0232967</v>
+        <v>0.0234563</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0210665</v>
+        <v>0.0212687</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0224244</v>
+        <v>0.0235388</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0235543</v>
+        <v>0.0239363</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0212189</v>
+        <v>0.0214019</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0226163</v>
+        <v>0.023776</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0238068</v>
+        <v>0.0241604</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.021264</v>
+        <v>0.0214357</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0228692</v>
+        <v>0.0241602</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0241032</v>
+        <v>0.0245043</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0215405</v>
+        <v>0.021452</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0230747</v>
+        <v>0.024496</v>
       </c>
       <c r="D32" t="n">
-        <v>0.024254</v>
+        <v>0.0246631</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0216114</v>
+        <v>0.0220671</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0232212</v>
+        <v>0.0252838</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0250527</v>
+        <v>0.0252961</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0234895</v>
+        <v>0.0226973</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0236501</v>
+        <v>0.0261458</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0259947</v>
+        <v>0.025981</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0234597</v>
+        <v>0.0239186</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0248736</v>
+        <v>0.027614</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0283157</v>
+        <v>0.027366</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0267527</v>
+        <v>0.0279443</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0257446</v>
+        <v>0.0294467</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0348319</v>
+        <v>0.0306258</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.031041</v>
+        <v>0.0300402</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0269739</v>
+        <v>0.0339013</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0234676</v>
+        <v>0.023347</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0215299</v>
+        <v>0.0215972</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0231185</v>
+        <v>0.0233847</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0235078</v>
+        <v>0.0236276</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0215195</v>
+        <v>0.021667</v>
       </c>
       <c r="C39" t="n">
-        <v>0.02323</v>
+        <v>0.0235977</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0239164</v>
+        <v>0.0238486</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02174</v>
+        <v>0.0218076</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0235752</v>
+        <v>0.0239384</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0240107</v>
+        <v>0.024104</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0217746</v>
+        <v>0.0220006</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0238713</v>
+        <v>0.0242532</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0244123</v>
+        <v>0.0243768</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0220034</v>
+        <v>0.0221763</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0242013</v>
+        <v>0.0246896</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0245923</v>
+        <v>0.0247559</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0224716</v>
+        <v>0.0224611</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0245082</v>
+        <v>0.0250954</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0249556</v>
+        <v>0.025254</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.022533</v>
+        <v>0.0227219</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0248816</v>
+        <v>0.0254847</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0253345</v>
+        <v>0.0254706</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0227963</v>
+        <v>0.0227632</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0252343</v>
+        <v>0.0260173</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0259267</v>
+        <v>0.0259901</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0232777</v>
+        <v>0.0231255</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0257049</v>
+        <v>0.0265444</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0264289</v>
+        <v>0.0265218</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0242771</v>
+        <v>0.0242216</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0264083</v>
+        <v>0.0272928</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0275168</v>
+        <v>0.0272136</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0253462</v>
+        <v>0.0250469</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0272443</v>
+        <v>0.0284729</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0294959</v>
+        <v>0.0283207</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0270124</v>
+        <v>0.0269386</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0282998</v>
+        <v>0.0300033</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0325817</v>
+        <v>0.0318155</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0304565</v>
+        <v>0.0300672</v>
       </c>
       <c r="C50" t="n">
-        <v>0.030741</v>
+        <v>0.0322753</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0375682</v>
+        <v>0.0345895</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0339715</v>
+        <v>0.0331339</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0341523</v>
+        <v>0.036001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.024146</v>
+        <v>0.0242315</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0402173</v>
+        <v>0.0386448</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0407092</v>
+        <v>0.0422239</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0243425</v>
+        <v>0.0243712</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0230825</v>
+        <v>0.0229705</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0249669</v>
+        <v>0.0251138</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0246194</v>
+        <v>0.0247015</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0232807</v>
+        <v>0.0234865</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0252515</v>
+        <v>0.0254873</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0248115</v>
+        <v>0.0248688</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0234261</v>
+        <v>0.0233012</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0256096</v>
+        <v>0.025797</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0251262</v>
+        <v>0.025149</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0236351</v>
+        <v>0.0234915</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0258919</v>
+        <v>0.0261318</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0254785</v>
+        <v>0.0255615</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.023867</v>
+        <v>0.0238504</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0262195</v>
+        <v>0.0265331</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0257472</v>
+        <v>0.0258585</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0241769</v>
+        <v>0.0241626</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0266693</v>
+        <v>0.0269146</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0262294</v>
+        <v>0.0264156</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0245477</v>
+        <v>0.024575</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0270449</v>
+        <v>0.0275791</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0267778</v>
+        <v>0.0268498</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.025443</v>
+        <v>0.0255184</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0276425</v>
+        <v>0.0282575</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0276797</v>
+        <v>0.0276366</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0263691</v>
+        <v>0.0259858</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0283796</v>
+        <v>0.0289977</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0289254</v>
+        <v>0.0284304</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0274027</v>
+        <v>0.0275627</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0294829</v>
+        <v>0.030271</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0307892</v>
+        <v>0.0296892</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0300944</v>
+        <v>0.0294403</v>
       </c>
       <c r="C63" t="n">
-        <v>0.030955</v>
+        <v>0.0319908</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0338047</v>
+        <v>0.0322187</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.032784</v>
+        <v>0.0317035</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0334699</v>
+        <v>0.0345792</v>
       </c>
       <c r="D64" t="n">
-        <v>0.037826</v>
+        <v>0.0363556</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0362272</v>
+        <v>0.0361199</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0370464</v>
+        <v>0.0379921</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0439067</v>
+        <v>0.0427193</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0413542</v>
+        <v>0.0413087</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0424884</v>
+        <v>0.0432708</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0266169</v>
+        <v>0.0266808</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0285175</v>
+        <v>0.0282354</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0275203</v>
+        <v>0.0280591</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0267261</v>
+        <v>0.0269802</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0287041</v>
+        <v>0.0282522</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0272827</v>
+        <v>0.0284149</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0269029</v>
+        <v>0.0271166</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0289403</v>
+        <v>0.0283191</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0280863</v>
+        <v>0.0285883</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0273175</v>
+        <v>0.0278895</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0291344</v>
+        <v>0.0285546</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0286981</v>
+        <v>0.0286761</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0280149</v>
+        <v>0.0280048</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0292541</v>
+        <v>0.0289942</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0282578</v>
+        <v>0.0296003</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0281038</v>
+        <v>0.0281799</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.029619</v>
+        <v>0.0292263</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0294759</v>
+        <v>0.0294933</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0286366</v>
+        <v>0.0286527</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0300355</v>
+        <v>0.0295783</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0300855</v>
+        <v>0.0303506</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0289758</v>
+        <v>0.0295356</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0306147</v>
+        <v>0.03032</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0307472</v>
+        <v>0.0306634</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0301952</v>
+        <v>0.0302033</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0314709</v>
+        <v>0.031063</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0315295</v>
+        <v>0.0321726</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0314214</v>
+        <v>0.0312881</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0327627</v>
+        <v>0.0321691</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0326928</v>
+        <v>0.0332029</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0329174</v>
+        <v>0.0326039</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0343339</v>
+        <v>0.0339485</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0341887</v>
+        <v>0.0349039</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0355417</v>
+        <v>0.0354891</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0369444</v>
+        <v>0.0366832</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0365194</v>
+        <v>0.0371456</v>
       </c>
       <c r="D78" t="n">
-        <v>0.039263</v>
+        <v>0.0390029</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.040231</v>
+        <v>0.0400637</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0391253</v>
+        <v>0.040284</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0444588</v>
+        <v>0.0446565</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0449585</v>
+        <v>0.0449246</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0433037</v>
+        <v>0.0448858</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0406909</v>
+        <v>0.0405519</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0564123</v>
+        <v>0.0558755</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0385041</v>
+        <v>0.0383392</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0415256</v>
+        <v>0.0412314</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0564736</v>
+        <v>0.0562936</v>
       </c>
       <c r="C82" t="n">
-        <v>0.039132</v>
+        <v>0.0393913</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0419422</v>
+        <v>0.0421393</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0566144</v>
+        <v>0.0564775</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0401799</v>
+        <v>0.040058</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0428795</v>
+        <v>0.0440264</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0567355</v>
+        <v>0.056908</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0411613</v>
+        <v>0.0413493</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0438702</v>
+        <v>0.043395</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0568172</v>
+        <v>0.0568101</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0424965</v>
+        <v>0.0422323</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0442338</v>
+        <v>0.0439426</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0572128</v>
+        <v>0.0568269</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0439974</v>
+        <v>0.0436344</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0451378</v>
+        <v>0.0450344</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0573772</v>
+        <v>0.0570183</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0454618</v>
+        <v>0.0450368</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0463953</v>
+        <v>0.0458601</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0579057</v>
+        <v>0.0573847</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0469244</v>
+        <v>0.0467496</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0468824</v>
+        <v>0.0464235</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0583707</v>
+        <v>0.0584644</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0484992</v>
+        <v>0.0489206</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0480072</v>
+        <v>0.0486432</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0591054</v>
+        <v>0.0599565</v>
       </c>
       <c r="C90" t="n">
-        <v>0.050114</v>
+        <v>0.0499483</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0494663</v>
+        <v>0.049116</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0603678</v>
+        <v>0.0595069</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0520299</v>
+        <v>0.0519582</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0514804</v>
+        <v>0.0506618</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0620279</v>
+        <v>0.0609703</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0541375</v>
+        <v>0.0541171</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0541283</v>
+        <v>0.0542076</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0644791</v>
+        <v>0.0635481</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0570726</v>
+        <v>0.0569726</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0591711</v>
+        <v>0.0585801</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0682919</v>
+        <v>0.0673059</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0615306</v>
+        <v>0.0612913</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0806964</v>
+        <v>0.0807332</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.08564919999999999</v>
+        <v>0.08559849999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0761416</v>
+        <v>0.07666290000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0811279</v>
+        <v>0.0811529</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.085795</v>
+        <v>0.0856809</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0766039</v>
+        <v>0.0764705</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0815921</v>
+        <v>0.0815067</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0859342</v>
+        <v>0.0855572</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0771694</v>
+        <v>0.0770281</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0820118</v>
+        <v>0.0826083</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0859023</v>
+        <v>0.0859304</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07764600000000001</v>
+        <v>0.07752729999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>0.08268200000000001</v>
+        <v>0.08281090000000001</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0860351</v>
+        <v>0.0858293</v>
       </c>
       <c r="C99" t="n">
-        <v>0.07815179999999999</v>
+        <v>0.0783254</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0831369</v>
+        <v>0.0831879</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0862303</v>
+        <v>0.09061180000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0790607</v>
+        <v>0.07894180000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0838334</v>
+        <v>0.0838827</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08650480000000001</v>
+        <v>0.0862692</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0795608</v>
+        <v>0.07949929999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0847434</v>
+        <v>0.0847344</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0866909</v>
+        <v>0.08655839999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0805625</v>
+        <v>0.0807167</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0858097</v>
+        <v>0.0855122</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0873124</v>
+        <v>0.0868762</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0815143</v>
+        <v>0.08162220000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.08650960000000001</v>
+        <v>0.0864814</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0876584</v>
+        <v>0.0875233</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0827079</v>
+        <v>0.0826394</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0877725</v>
+        <v>0.08775330000000001</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0884485</v>
+        <v>0.0883649</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0840466</v>
+        <v>0.0843081</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0892207</v>
+        <v>0.08938160000000001</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0898009</v>
+        <v>0.08959</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0860944</v>
+        <v>0.08615780000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0918827</v>
+        <v>0.0918313</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.09178649999999999</v>
+        <v>0.09353740000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0884089</v>
+        <v>0.08866830000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.09562809999999999</v>
+        <v>0.0955868</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0951135</v>
+        <v>0.09485159999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0921381</v>
+        <v>0.09222470000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0988517</v>
+        <v>0.09963329999999999</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100123</v>
+        <v>0.0998634</v>
       </c>
       <c r="C109" t="n">
-        <v>0.09858790000000001</v>
+        <v>0.0984438</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0995769</v>
+        <v>0.100431</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.107522</v>
+        <v>0.107476</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0918268</v>
+        <v>0.0917727</v>
       </c>
       <c r="D110" t="n">
-        <v>0.100222</v>
+        <v>0.101322</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.107691</v>
+        <v>0.107384</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0925763</v>
+        <v>0.0924609</v>
       </c>
       <c r="D111" t="n">
-        <v>0.101034</v>
+        <v>0.102288</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.107785</v>
+        <v>0.107516</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0934204</v>
+        <v>0.09350749999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.102058</v>
+        <v>0.106001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.107652</v>
+        <v>0.107802</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0945236</v>
+        <v>0.0945621</v>
       </c>
       <c r="D113" t="n">
-        <v>0.102966</v>
+        <v>0.104339</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.107925</v>
+        <v>0.107676</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0956917</v>
+        <v>0.0959314</v>
       </c>
       <c r="D114" t="n">
-        <v>0.104025</v>
+        <v>0.105517</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.108273</v>
+        <v>0.108012</v>
       </c>
       <c r="C115" t="n">
-        <v>0.09686740000000001</v>
+        <v>0.0970944</v>
       </c>
       <c r="D115" t="n">
-        <v>0.105126</v>
+        <v>0.106781</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108426</v>
+        <v>0.108141</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0983131</v>
+        <v>0.0984973</v>
       </c>
       <c r="D116" t="n">
-        <v>0.106308</v>
+        <v>0.108153</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.108798</v>
+        <v>0.108665</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0996605</v>
+        <v>0.100321</v>
       </c>
       <c r="D117" t="n">
-        <v>0.108246</v>
+        <v>0.109677</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.109154</v>
+        <v>0.121504</v>
       </c>
       <c r="C118" t="n">
-        <v>0.101357</v>
+        <v>0.101622</v>
       </c>
       <c r="D118" t="n">
-        <v>0.109842</v>
+        <v>0.111379</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.110039</v>
+        <v>0.109973</v>
       </c>
       <c r="C119" t="n">
-        <v>0.10289</v>
+        <v>0.103511</v>
       </c>
       <c r="D119" t="n">
-        <v>0.112093</v>
+        <v>0.113476</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111281</v>
+        <v>0.111127</v>
       </c>
       <c r="C120" t="n">
-        <v>0.10482</v>
+        <v>0.105799</v>
       </c>
       <c r="D120" t="n">
-        <v>0.11484</v>
+        <v>0.116263</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.11297</v>
+        <v>0.112923</v>
       </c>
       <c r="C121" t="n">
-        <v>0.108176</v>
+        <v>0.108403</v>
       </c>
       <c r="D121" t="n">
-        <v>0.118843</v>
+        <v>0.120226</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.115985</v>
+        <v>0.115917</v>
       </c>
       <c r="C122" t="n">
-        <v>0.113779</v>
+        <v>0.112411</v>
       </c>
       <c r="D122" t="n">
-        <v>0.124191</v>
+        <v>0.126409</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.120816</v>
+        <v>0.120761</v>
       </c>
       <c r="C123" t="n">
-        <v>0.11802</v>
+        <v>0.118524</v>
       </c>
       <c r="D123" t="n">
-        <v>0.116148</v>
+        <v>0.1214</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.138737</v>
+        <v>0.135423</v>
       </c>
       <c r="C124" t="n">
-        <v>0.105196</v>
+        <v>0.102704</v>
       </c>
       <c r="D124" t="n">
-        <v>0.117311</v>
+        <v>0.11857</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.136634</v>
+        <v>0.135613</v>
       </c>
       <c r="C125" t="n">
-        <v>0.106246</v>
+        <v>0.10407</v>
       </c>
       <c r="D125" t="n">
-        <v>0.118452</v>
+        <v>0.119681</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.13669</v>
+        <v>0.135644</v>
       </c>
       <c r="C126" t="n">
-        <v>0.107922</v>
+        <v>0.107364</v>
       </c>
       <c r="D126" t="n">
-        <v>0.119643</v>
+        <v>0.12248</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.136804</v>
+        <v>0.135816</v>
       </c>
       <c r="C127" t="n">
-        <v>0.10973</v>
+        <v>0.107005</v>
       </c>
       <c r="D127" t="n">
-        <v>0.121002</v>
+        <v>0.122568</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.137212</v>
+        <v>0.136809</v>
       </c>
       <c r="C128" t="n">
-        <v>0.111032</v>
+        <v>0.108675</v>
       </c>
       <c r="D128" t="n">
-        <v>0.122472</v>
+        <v>0.123848</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.136706</v>
+        <v>0.152115</v>
       </c>
       <c r="C129" t="n">
-        <v>0.112865</v>
+        <v>0.110489</v>
       </c>
       <c r="D129" t="n">
-        <v>0.123856</v>
+        <v>0.125299</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.136952</v>
+        <v>0.137903</v>
       </c>
       <c r="C130" t="n">
-        <v>0.114712</v>
+        <v>0.112312</v>
       </c>
       <c r="D130" t="n">
-        <v>0.126262</v>
+        <v>0.127013</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.137765</v>
+        <v>0.136784</v>
       </c>
       <c r="C131" t="n">
-        <v>0.117337</v>
+        <v>0.114003</v>
       </c>
       <c r="D131" t="n">
-        <v>0.128215</v>
+        <v>0.128839</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.138851</v>
+        <v>0.136824</v>
       </c>
       <c r="C132" t="n">
-        <v>0.119144</v>
+        <v>0.116012</v>
       </c>
       <c r="D132" t="n">
-        <v>0.129628</v>
+        <v>0.131006</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.138497</v>
+        <v>0.137968</v>
       </c>
       <c r="C133" t="n">
-        <v>0.120745</v>
+        <v>0.118235</v>
       </c>
       <c r="D133" t="n">
-        <v>0.131989</v>
+        <v>0.136461</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.139423</v>
+        <v>0.139127</v>
       </c>
       <c r="C134" t="n">
-        <v>0.123251</v>
+        <v>0.121404</v>
       </c>
       <c r="D134" t="n">
-        <v>0.135168</v>
+        <v>0.136673</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.141247</v>
+        <v>0.140493</v>
       </c>
       <c r="C135" t="n">
-        <v>0.126149</v>
+        <v>0.124733</v>
       </c>
       <c r="D135" t="n">
-        <v>0.139373</v>
+        <v>0.140903</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.144051</v>
+        <v>0.1431</v>
       </c>
       <c r="C136" t="n">
-        <v>0.130592</v>
+        <v>0.128152</v>
       </c>
       <c r="D136" t="n">
-        <v>0.145778</v>
+        <v>0.147446</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.147831</v>
+        <v>0.147237</v>
       </c>
       <c r="C137" t="n">
-        <v>0.13668</v>
+        <v>0.134241</v>
       </c>
       <c r="D137" t="n">
-        <v>0.129037</v>
+        <v>0.127578</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.159532</v>
+        <v>0.157704</v>
       </c>
       <c r="C138" t="n">
-        <v>0.116681</v>
+        <v>0.11586</v>
       </c>
       <c r="D138" t="n">
-        <v>0.129118</v>
+        <v>0.128836</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.158006</v>
+        <v>0.157879</v>
       </c>
       <c r="C139" t="n">
-        <v>0.117202</v>
+        <v>0.11724</v>
       </c>
       <c r="D139" t="n">
-        <v>0.130457</v>
+        <v>0.130233</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.158059</v>
+        <v>0.157875</v>
       </c>
       <c r="C140" t="n">
-        <v>0.118776</v>
+        <v>0.118927</v>
       </c>
       <c r="D140" t="n">
-        <v>0.131706</v>
+        <v>0.1315</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158247</v>
+        <v>0.158035</v>
       </c>
       <c r="C141" t="n">
-        <v>0.120334</v>
+        <v>0.120657</v>
       </c>
       <c r="D141" t="n">
-        <v>0.143926</v>
+        <v>0.132886</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158537</v>
+        <v>0.158137</v>
       </c>
       <c r="C142" t="n">
-        <v>0.122212</v>
+        <v>0.122067</v>
       </c>
       <c r="D142" t="n">
-        <v>0.134705</v>
+        <v>0.13432</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158481</v>
+        <v>0.158258</v>
       </c>
       <c r="C143" t="n">
-        <v>0.144585</v>
+        <v>0.123648</v>
       </c>
       <c r="D143" t="n">
-        <v>0.136164</v>
+        <v>0.136008</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0195665</v>
+        <v>0.0197178</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0203889</v>
+        <v>0.020348</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0213464</v>
+        <v>0.0212558</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0195677</v>
+        <v>0.0197636</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0204586</v>
+        <v>0.0200618</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0213261</v>
+        <v>0.0212152</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0196227</v>
+        <v>0.0197601</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0205765</v>
+        <v>0.0201359</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0214345</v>
+        <v>0.0213284</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.019631</v>
+        <v>0.0198946</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0204822</v>
+        <v>0.020143</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0214003</v>
+        <v>0.0212642</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0197342</v>
+        <v>0.0199103</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0205903</v>
+        <v>0.0200029</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0216774</v>
+        <v>0.0212343</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0199831</v>
+        <v>0.020017</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0207199</v>
+        <v>0.0201968</v>
       </c>
       <c r="D7" t="n">
-        <v>0.021635</v>
+        <v>0.0216938</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0200075</v>
+        <v>0.0203626</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0207765</v>
+        <v>0.0201264</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0220089</v>
+        <v>0.0218262</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0205736</v>
+        <v>0.0209136</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02133</v>
+        <v>0.0203667</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0209992</v>
+        <v>0.0209274</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0193829</v>
+        <v>0.0193291</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0210503</v>
+        <v>0.0208736</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0215352</v>
+        <v>0.0211749</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0195346</v>
+        <v>0.0193976</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0213462</v>
+        <v>0.0211295</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0216708</v>
+        <v>0.0213942</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0196509</v>
+        <v>0.0196229</v>
       </c>
       <c r="C12" t="n">
-        <v>0.021439</v>
+        <v>0.0212435</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0215136</v>
+        <v>0.0218363</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0199211</v>
+        <v>0.0198703</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0214674</v>
+        <v>0.0214788</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0219741</v>
+        <v>0.0217603</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0199787</v>
+        <v>0.0199371</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0216254</v>
+        <v>0.0213753</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0221179</v>
+        <v>0.0221237</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0200422</v>
+        <v>0.0201807</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0217449</v>
+        <v>0.0215876</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0223271</v>
+        <v>0.0223815</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0201402</v>
+        <v>0.0200644</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02221</v>
+        <v>0.0218431</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0224914</v>
+        <v>0.0224326</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0201929</v>
+        <v>0.0202701</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0222104</v>
+        <v>0.0217685</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0230627</v>
+        <v>0.0227701</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0202564</v>
+        <v>0.0204725</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0224437</v>
+        <v>0.0218348</v>
       </c>
       <c r="D18" t="n">
-        <v>0.023291</v>
+        <v>0.0227404</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0204989</v>
+        <v>0.0206493</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0225874</v>
+        <v>0.0221495</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0229908</v>
+        <v>0.0232496</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0204421</v>
+        <v>0.0209242</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02319</v>
+        <v>0.0221981</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0232569</v>
+        <v>0.0231</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0206783</v>
+        <v>0.0211953</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0232453</v>
+        <v>0.0223556</v>
       </c>
       <c r="D21" t="n">
-        <v>0.023801</v>
+        <v>0.0232989</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02133</v>
+        <v>0.022055</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0239735</v>
+        <v>0.022609</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0245249</v>
+        <v>0.0239237</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0232286</v>
+        <v>0.0263901</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0258981</v>
+        <v>0.0230618</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0222399</v>
+        <v>0.0222726</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0204834</v>
+        <v>0.0206947</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0220328</v>
+        <v>0.0218975</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0224919</v>
+        <v>0.0224363</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0206218</v>
+        <v>0.020733</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0224008</v>
+        <v>0.0221743</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0227737</v>
+        <v>0.022736</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0207856</v>
+        <v>0.0208332</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0224564</v>
+        <v>0.0222982</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0229642</v>
+        <v>0.0229316</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0208902</v>
+        <v>0.0210493</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0227941</v>
+        <v>0.0226583</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0232325</v>
+        <v>0.0232975</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0210167</v>
+        <v>0.0210593</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0231453</v>
+        <v>0.0229567</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0234563</v>
+        <v>0.0235969</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0212687</v>
+        <v>0.0214453</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0235388</v>
+        <v>0.0231751</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0239363</v>
+        <v>0.0239158</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0214019</v>
+        <v>0.0216168</v>
       </c>
       <c r="C30" t="n">
-        <v>0.023776</v>
+        <v>0.0233913</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0241604</v>
+        <v>0.0242201</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0214357</v>
+        <v>0.0219522</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0241602</v>
+        <v>0.0236959</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0245043</v>
+        <v>0.0243325</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.021452</v>
+        <v>0.022052</v>
       </c>
       <c r="C32" t="n">
-        <v>0.024496</v>
+        <v>0.0239263</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0246631</v>
+        <v>0.0246646</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0220671</v>
+        <v>0.0224556</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0252838</v>
+        <v>0.0243132</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0252961</v>
+        <v>0.0249221</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0226973</v>
+        <v>0.0228168</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0261458</v>
+        <v>0.0249628</v>
       </c>
       <c r="D34" t="n">
-        <v>0.025981</v>
+        <v>0.025787</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0239186</v>
+        <v>0.0265014</v>
       </c>
       <c r="C35" t="n">
-        <v>0.027614</v>
+        <v>0.0255313</v>
       </c>
       <c r="D35" t="n">
-        <v>0.027366</v>
+        <v>0.0270193</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0279443</v>
+        <v>0.027747</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0294467</v>
+        <v>0.0264392</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0306258</v>
+        <v>0.0340751</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0300402</v>
+        <v>0.0320852</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0339013</v>
+        <v>0.0319962</v>
       </c>
       <c r="D37" t="n">
-        <v>0.023347</v>
+        <v>0.023531</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0215972</v>
+        <v>0.0215508</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0233847</v>
+        <v>0.0233684</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0236276</v>
+        <v>0.0236046</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.021667</v>
+        <v>0.0217573</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0235977</v>
+        <v>0.0236507</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0238486</v>
+        <v>0.0238536</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0218076</v>
+        <v>0.0219004</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0239384</v>
+        <v>0.0238448</v>
       </c>
       <c r="D40" t="n">
-        <v>0.024104</v>
+        <v>0.0241112</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0220006</v>
+        <v>0.0221052</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0242532</v>
+        <v>0.0241789</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0243768</v>
+        <v>0.0243659</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0221763</v>
+        <v>0.0223883</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0246896</v>
+        <v>0.0244362</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0247559</v>
+        <v>0.0246695</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0224611</v>
+        <v>0.0225641</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0250954</v>
+        <v>0.0249471</v>
       </c>
       <c r="D43" t="n">
-        <v>0.025254</v>
+        <v>0.0250211</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0227219</v>
+        <v>0.0228784</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0254847</v>
+        <v>0.0252192</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0254706</v>
+        <v>0.0253666</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0227632</v>
+        <v>0.0232464</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0260173</v>
+        <v>0.0256378</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0259901</v>
+        <v>0.0258798</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0231255</v>
+        <v>0.0237197</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0265444</v>
+        <v>0.0260059</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0265218</v>
+        <v>0.0263774</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0242216</v>
+        <v>0.0246738</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0272928</v>
+        <v>0.0265743</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0272136</v>
+        <v>0.0271913</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0250469</v>
+        <v>0.0257789</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0284729</v>
+        <v>0.0274765</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0283207</v>
+        <v>0.0284064</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0269386</v>
+        <v>0.0278805</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0300033</v>
+        <v>0.0284756</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0318155</v>
+        <v>0.0305268</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0300672</v>
+        <v>0.0311247</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0322753</v>
+        <v>0.0300596</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0345895</v>
+        <v>0.0340069</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0331339</v>
+        <v>0.0353928</v>
       </c>
       <c r="C51" t="n">
-        <v>0.036001</v>
+        <v>0.0345654</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0242315</v>
+        <v>0.0243231</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0386448</v>
+        <v>0.0413931</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0422239</v>
+        <v>0.0408994</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0243712</v>
+        <v>0.0244548</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0229705</v>
+        <v>0.023117</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0251138</v>
+        <v>0.0250592</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0247015</v>
+        <v>0.024666</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0234865</v>
+        <v>0.0237019</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0254873</v>
+        <v>0.0254013</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0248688</v>
+        <v>0.0249557</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0233012</v>
+        <v>0.0235158</v>
       </c>
       <c r="C55" t="n">
-        <v>0.025797</v>
+        <v>0.0256899</v>
       </c>
       <c r="D55" t="n">
-        <v>0.025149</v>
+        <v>0.0252241</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0234915</v>
+        <v>0.0240819</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0261318</v>
+        <v>0.0260159</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0255615</v>
+        <v>0.0255649</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0238504</v>
+        <v>0.0240491</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0265331</v>
+        <v>0.0263266</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0258585</v>
+        <v>0.0258675</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0241626</v>
+        <v>0.0248264</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0269146</v>
+        <v>0.0267886</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0264156</v>
+        <v>0.0262788</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.024575</v>
+        <v>0.0252257</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0275791</v>
+        <v>0.0274655</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0268498</v>
+        <v>0.0269319</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0255184</v>
+        <v>0.0255101</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0282575</v>
+        <v>0.0280752</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0276366</v>
+        <v>0.027517</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0259858</v>
+        <v>0.026877</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0289977</v>
+        <v>0.02857</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0284304</v>
+        <v>0.0284363</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0275627</v>
+        <v>0.0279736</v>
       </c>
       <c r="C62" t="n">
-        <v>0.030271</v>
+        <v>0.0297707</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0296892</v>
+        <v>0.0299291</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0294403</v>
+        <v>0.0305003</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0319908</v>
+        <v>0.0308369</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0322187</v>
+        <v>0.0323891</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0317035</v>
+        <v>0.0330003</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0345792</v>
+        <v>0.0329976</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0363556</v>
+        <v>0.0363504</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0361199</v>
+        <v>0.036597</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0379921</v>
+        <v>0.0366214</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0427193</v>
+        <v>0.0428102</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0413087</v>
+        <v>0.0418144</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0432708</v>
+        <v>0.0421052</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0266808</v>
+        <v>0.0263316</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0282354</v>
+        <v>0.0291608</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0280591</v>
+        <v>0.0272998</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0269802</v>
+        <v>0.0270794</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0282522</v>
+        <v>0.0293035</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0284149</v>
+        <v>0.0277838</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0271166</v>
+        <v>0.0273011</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0283191</v>
+        <v>0.0294192</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0285883</v>
+        <v>0.0280194</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0278895</v>
+        <v>0.027915</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0285546</v>
+        <v>0.0296505</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0286761</v>
+        <v>0.0290135</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0280048</v>
+        <v>0.0282882</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0289942</v>
+        <v>0.030045</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0296003</v>
+        <v>0.02932</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0281799</v>
+        <v>0.0283811</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0292263</v>
+        <v>0.0302585</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0294933</v>
+        <v>0.0291906</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0286527</v>
+        <v>0.0284189</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0295783</v>
+        <v>0.0306331</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0303506</v>
+        <v>0.0297545</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0295356</v>
+        <v>0.0291724</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.03032</v>
+        <v>0.0312468</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0306634</v>
+        <v>0.0305198</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0302033</v>
+        <v>0.030293</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.031063</v>
+        <v>0.0321135</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0321726</v>
+        <v>0.0312511</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0312881</v>
+        <v>0.0315169</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0321691</v>
+        <v>0.0334307</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0332029</v>
+        <v>0.0327875</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0326039</v>
+        <v>0.0327621</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0339485</v>
+        <v>0.035131</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0349039</v>
+        <v>0.0339479</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0354891</v>
+        <v>0.0350304</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0366832</v>
+        <v>0.0376786</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0371456</v>
+        <v>0.0360872</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0390029</v>
+        <v>0.0390111</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0400637</v>
+        <v>0.0411061</v>
       </c>
       <c r="C79" t="n">
-        <v>0.040284</v>
+        <v>0.0393014</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0446565</v>
+        <v>0.0448809</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0449246</v>
+        <v>0.0457488</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0448858</v>
+        <v>0.0439843</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0405519</v>
+        <v>0.0406224</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0558755</v>
+        <v>0.0558706</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0383392</v>
+        <v>0.0383206</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0412314</v>
+        <v>0.0413528</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0562936</v>
+        <v>0.0560217</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0393913</v>
+        <v>0.0387129</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0421393</v>
+        <v>0.0420422</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0564775</v>
+        <v>0.0561843</v>
       </c>
       <c r="C83" t="n">
-        <v>0.040058</v>
+        <v>0.0398579</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0440264</v>
+        <v>0.0431693</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.056908</v>
+        <v>0.0564288</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0413493</v>
+        <v>0.0404639</v>
       </c>
       <c r="D84" t="n">
-        <v>0.043395</v>
+        <v>0.0439279</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0568101</v>
+        <v>0.0566054</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0422323</v>
+        <v>0.0421791</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0439426</v>
+        <v>0.0447027</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0568269</v>
+        <v>0.0568306</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0436344</v>
+        <v>0.043024</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0450344</v>
+        <v>0.0455721</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0570183</v>
+        <v>0.0570655</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0450368</v>
+        <v>0.0453259</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0458601</v>
+        <v>0.0459794</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0573847</v>
+        <v>0.0574837</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0467496</v>
+        <v>0.0467587</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0464235</v>
+        <v>0.047323</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0584644</v>
+        <v>0.0580252</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0489206</v>
+        <v>0.0487234</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0486432</v>
+        <v>0.0483172</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0599565</v>
+        <v>0.0591472</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0499483</v>
+        <v>0.049605</v>
       </c>
       <c r="D90" t="n">
-        <v>0.049116</v>
+        <v>0.0504836</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0595069</v>
+        <v>0.0604559</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0519582</v>
+        <v>0.052336</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0506618</v>
+        <v>0.0516922</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0609703</v>
+        <v>0.0618013</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0541171</v>
+        <v>0.0539033</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0542076</v>
+        <v>0.0541084</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0635481</v>
+        <v>0.0640674</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0569726</v>
+        <v>0.0571698</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0585801</v>
+        <v>0.0589681</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0673059</v>
+        <v>0.0677758</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0612913</v>
+        <v>0.0610853</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0807332</v>
+        <v>0.0807346</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.08559849999999999</v>
+        <v>0.08585909999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.07666290000000001</v>
+        <v>0.07588499999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0811529</v>
+        <v>0.0812705</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0856809</v>
+        <v>0.0861142</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0764705</v>
+        <v>0.07646840000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0815067</v>
+        <v>0.0817399</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0855572</v>
+        <v>0.085975</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0770281</v>
+        <v>0.07704519999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0826083</v>
+        <v>0.0822526</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0859304</v>
+        <v>0.08606809999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07752729999999999</v>
+        <v>0.07748529999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>0.08281090000000001</v>
+        <v>0.0827924</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0858293</v>
+        <v>0.08628810000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0783254</v>
+        <v>0.0782692</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0831879</v>
+        <v>0.08322350000000001</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.09061180000000001</v>
+        <v>0.0863072</v>
       </c>
       <c r="C100" t="n">
-        <v>0.07894180000000001</v>
+        <v>0.0788664</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0838827</v>
+        <v>0.08400349999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0862692</v>
+        <v>0.0863732</v>
       </c>
       <c r="C101" t="n">
-        <v>0.07949929999999999</v>
+        <v>0.07974779999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0847344</v>
+        <v>0.08460620000000001</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.08655839999999999</v>
+        <v>0.0867768</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0807167</v>
+        <v>0.080653</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0855122</v>
+        <v>0.0855218</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0868762</v>
+        <v>0.08717510000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.08162220000000001</v>
+        <v>0.0816156</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0864814</v>
+        <v>0.0864105</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0875233</v>
+        <v>0.0879264</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0826394</v>
+        <v>0.0834612</v>
       </c>
       <c r="D104" t="n">
-        <v>0.08775330000000001</v>
+        <v>0.0887197</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0883649</v>
+        <v>0.0895629</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0843081</v>
+        <v>0.0843175</v>
       </c>
       <c r="D105" t="n">
-        <v>0.08938160000000001</v>
+        <v>0.0894181</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.08959</v>
+        <v>0.08994240000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.08615780000000001</v>
+        <v>0.0859795</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0918313</v>
+        <v>0.0917139</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.09353740000000001</v>
+        <v>0.0917989</v>
       </c>
       <c r="C107" t="n">
-        <v>0.08866830000000001</v>
+        <v>0.08848010000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0955868</v>
+        <v>0.0956856</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.09485159999999999</v>
+        <v>0.09497510000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>0.09222470000000001</v>
+        <v>0.10039</v>
       </c>
       <c r="D108" t="n">
-        <v>0.09963329999999999</v>
+        <v>0.100963</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0998634</v>
+        <v>0.100082</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0984438</v>
+        <v>0.0985391</v>
       </c>
       <c r="D109" t="n">
-        <v>0.100431</v>
+        <v>0.0986775</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.107476</v>
+        <v>0.107826</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0917727</v>
+        <v>0.0904269</v>
       </c>
       <c r="D110" t="n">
-        <v>0.101322</v>
+        <v>0.0995801</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.107384</v>
+        <v>0.107837</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0924609</v>
+        <v>0.09156110000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.102288</v>
+        <v>0.100017</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.107516</v>
+        <v>0.107895</v>
       </c>
       <c r="C112" t="n">
-        <v>0.09350749999999999</v>
+        <v>0.0920716</v>
       </c>
       <c r="D112" t="n">
-        <v>0.106001</v>
+        <v>0.100739</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.107802</v>
+        <v>0.108112</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0945621</v>
+        <v>0.09333180000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.104339</v>
+        <v>0.102235</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.107676</v>
+        <v>0.108189</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0959314</v>
+        <v>0.0941058</v>
       </c>
       <c r="D114" t="n">
-        <v>0.105517</v>
+        <v>0.103137</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.108012</v>
+        <v>0.108429</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0970944</v>
+        <v>0.09559529999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.106781</v>
+        <v>0.103963</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108141</v>
+        <v>0.108643</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0984973</v>
+        <v>0.0968461</v>
       </c>
       <c r="D116" t="n">
-        <v>0.108153</v>
+        <v>0.106048</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.108665</v>
+        <v>0.10903</v>
       </c>
       <c r="C117" t="n">
-        <v>0.100321</v>
+        <v>0.098033</v>
       </c>
       <c r="D117" t="n">
-        <v>0.109677</v>
+        <v>0.107095</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121504</v>
+        <v>0.109472</v>
       </c>
       <c r="C118" t="n">
-        <v>0.101622</v>
+        <v>0.0999396</v>
       </c>
       <c r="D118" t="n">
-        <v>0.111379</v>
+        <v>0.108624</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.109973</v>
+        <v>0.11006</v>
       </c>
       <c r="C119" t="n">
-        <v>0.103511</v>
+        <v>0.10412</v>
       </c>
       <c r="D119" t="n">
-        <v>0.113476</v>
+        <v>0.110526</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111127</v>
+        <v>0.111854</v>
       </c>
       <c r="C120" t="n">
-        <v>0.105799</v>
+        <v>0.103956</v>
       </c>
       <c r="D120" t="n">
-        <v>0.116263</v>
+        <v>0.113505</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.112923</v>
+        <v>0.113325</v>
       </c>
       <c r="C121" t="n">
-        <v>0.108403</v>
+        <v>0.106713</v>
       </c>
       <c r="D121" t="n">
-        <v>0.120226</v>
+        <v>0.117155</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.115917</v>
+        <v>0.116298</v>
       </c>
       <c r="C122" t="n">
-        <v>0.112411</v>
+        <v>0.110618</v>
       </c>
       <c r="D122" t="n">
-        <v>0.126409</v>
+        <v>0.123872</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.120761</v>
+        <v>0.121115</v>
       </c>
       <c r="C123" t="n">
-        <v>0.118524</v>
+        <v>0.11634</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1214</v>
+        <v>0.115789</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.135423</v>
+        <v>0.140011</v>
       </c>
       <c r="C124" t="n">
-        <v>0.102704</v>
+        <v>0.104964</v>
       </c>
       <c r="D124" t="n">
-        <v>0.11857</v>
+        <v>0.116789</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.135613</v>
+        <v>0.134829</v>
       </c>
       <c r="C125" t="n">
-        <v>0.10407</v>
+        <v>0.106078</v>
       </c>
       <c r="D125" t="n">
-        <v>0.119681</v>
+        <v>0.117895</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.135644</v>
+        <v>0.134816</v>
       </c>
       <c r="C126" t="n">
-        <v>0.107364</v>
+        <v>0.108088</v>
       </c>
       <c r="D126" t="n">
-        <v>0.12248</v>
+        <v>0.126987</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.135816</v>
+        <v>0.135441</v>
       </c>
       <c r="C127" t="n">
-        <v>0.107005</v>
+        <v>0.109386</v>
       </c>
       <c r="D127" t="n">
-        <v>0.122568</v>
+        <v>0.120822</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.136809</v>
+        <v>0.135075</v>
       </c>
       <c r="C128" t="n">
-        <v>0.108675</v>
+        <v>0.111035</v>
       </c>
       <c r="D128" t="n">
-        <v>0.123848</v>
+        <v>0.121922</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.152115</v>
+        <v>0.135308</v>
       </c>
       <c r="C129" t="n">
-        <v>0.110489</v>
+        <v>0.112768</v>
       </c>
       <c r="D129" t="n">
-        <v>0.125299</v>
+        <v>0.123614</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.137903</v>
+        <v>0.135496</v>
       </c>
       <c r="C130" t="n">
-        <v>0.112312</v>
+        <v>0.1144</v>
       </c>
       <c r="D130" t="n">
-        <v>0.127013</v>
+        <v>0.125388</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.136784</v>
+        <v>0.135761</v>
       </c>
       <c r="C131" t="n">
-        <v>0.114003</v>
+        <v>0.116351</v>
       </c>
       <c r="D131" t="n">
-        <v>0.128839</v>
+        <v>0.127147</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.136824</v>
+        <v>0.136189</v>
       </c>
       <c r="C132" t="n">
-        <v>0.116012</v>
+        <v>0.118145</v>
       </c>
       <c r="D132" t="n">
-        <v>0.131006</v>
+        <v>0.128996</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.137968</v>
+        <v>0.136752</v>
       </c>
       <c r="C133" t="n">
-        <v>0.118235</v>
+        <v>0.120446</v>
       </c>
       <c r="D133" t="n">
-        <v>0.136461</v>
+        <v>0.131573</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.139127</v>
+        <v>0.137976</v>
       </c>
       <c r="C134" t="n">
-        <v>0.121404</v>
+        <v>0.123039</v>
       </c>
       <c r="D134" t="n">
-        <v>0.136673</v>
+        <v>0.134855</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.140493</v>
+        <v>0.139484</v>
       </c>
       <c r="C135" t="n">
-        <v>0.124733</v>
+        <v>0.126101</v>
       </c>
       <c r="D135" t="n">
-        <v>0.140903</v>
+        <v>0.138939</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1431</v>
+        <v>0.142434</v>
       </c>
       <c r="C136" t="n">
-        <v>0.128152</v>
+        <v>0.131373</v>
       </c>
       <c r="D136" t="n">
-        <v>0.147446</v>
+        <v>0.145612</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.147237</v>
+        <v>0.146554</v>
       </c>
       <c r="C137" t="n">
-        <v>0.134241</v>
+        <v>0.136365</v>
       </c>
       <c r="D137" t="n">
-        <v>0.127578</v>
+        <v>0.128993</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.157704</v>
+        <v>0.158468</v>
       </c>
       <c r="C138" t="n">
-        <v>0.11586</v>
+        <v>0.116601</v>
       </c>
       <c r="D138" t="n">
-        <v>0.128836</v>
+        <v>0.130327</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.157879</v>
+        <v>0.158139</v>
       </c>
       <c r="C139" t="n">
-        <v>0.11724</v>
+        <v>0.118191</v>
       </c>
       <c r="D139" t="n">
-        <v>0.130233</v>
+        <v>0.131685</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.157875</v>
+        <v>0.158049</v>
       </c>
       <c r="C140" t="n">
-        <v>0.118927</v>
+        <v>0.119731</v>
       </c>
       <c r="D140" t="n">
-        <v>0.1315</v>
+        <v>0.133136</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158035</v>
+        <v>0.158111</v>
       </c>
       <c r="C141" t="n">
-        <v>0.120657</v>
+        <v>0.121478</v>
       </c>
       <c r="D141" t="n">
-        <v>0.132886</v>
+        <v>0.134581</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158137</v>
+        <v>0.15821</v>
       </c>
       <c r="C142" t="n">
-        <v>0.122067</v>
+        <v>0.122994</v>
       </c>
       <c r="D142" t="n">
-        <v>0.13432</v>
+        <v>0.136126</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158258</v>
+        <v>0.158579</v>
       </c>
       <c r="C143" t="n">
-        <v>0.123648</v>
+        <v>0.124775</v>
       </c>
       <c r="D143" t="n">
-        <v>0.136008</v>
+        <v>0.137405</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0197178</v>
+        <v>0.0195926</v>
       </c>
       <c r="C2" t="n">
-        <v>0.020348</v>
+        <v>0.0203687</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0212558</v>
+        <v>0.0211402</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0197636</v>
+        <v>0.0196565</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0200618</v>
+        <v>0.0201963</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0212152</v>
+        <v>0.0211427</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0197601</v>
+        <v>0.0197182</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0201359</v>
+        <v>0.0202574</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0213284</v>
+        <v>0.0211583</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0198946</v>
+        <v>0.0196906</v>
       </c>
       <c r="C5" t="n">
-        <v>0.020143</v>
+        <v>0.0201645</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0212642</v>
+        <v>0.0211796</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0199103</v>
+        <v>0.0197741</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0200029</v>
+        <v>0.020276</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0212343</v>
+        <v>0.0211502</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.020017</v>
+        <v>0.0199849</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0201968</v>
+        <v>0.0206699</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0216938</v>
+        <v>0.0215696</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0203626</v>
+        <v>0.0201223</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0201264</v>
+        <v>0.0208992</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0218262</v>
+        <v>0.0216887</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0209136</v>
+        <v>0.0206347</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0203667</v>
+        <v>0.0215748</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0209274</v>
+        <v>0.0209296</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0193291</v>
+        <v>0.0194887</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0208736</v>
+        <v>0.021069</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0211749</v>
+        <v>0.0211446</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0193976</v>
+        <v>0.0195136</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0211295</v>
+        <v>0.0210575</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0213942</v>
+        <v>0.0214714</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0196229</v>
+        <v>0.019788</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0212435</v>
+        <v>0.0212457</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0218363</v>
+        <v>0.0216137</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0198703</v>
+        <v>0.0198799</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0214788</v>
+        <v>0.0214196</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0217603</v>
+        <v>0.0217641</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0199371</v>
+        <v>0.020038</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0213753</v>
+        <v>0.0214879</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0221237</v>
+        <v>0.0224323</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0201807</v>
+        <v>0.0201568</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0215876</v>
+        <v>0.0217036</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0223815</v>
+        <v>0.0224446</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0200644</v>
+        <v>0.0202012</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0218431</v>
+        <v>0.021808</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0224326</v>
+        <v>0.0224964</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0202701</v>
+        <v>0.020465</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0217685</v>
+        <v>0.0220083</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0227701</v>
+        <v>0.0225379</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0204725</v>
+        <v>0.0204968</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0218348</v>
+        <v>0.0222778</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0227404</v>
+        <v>0.0226086</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0206493</v>
+        <v>0.0206652</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0221495</v>
+        <v>0.0224421</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0232496</v>
+        <v>0.0228962</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0209242</v>
+        <v>0.020657</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0221981</v>
+        <v>0.0229237</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0231</v>
+        <v>0.0228222</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0211953</v>
+        <v>0.0208938</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0223556</v>
+        <v>0.0233846</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0232989</v>
+        <v>0.0233023</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.022055</v>
+        <v>0.0216553</v>
       </c>
       <c r="C22" t="n">
-        <v>0.022609</v>
+        <v>0.0239497</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0239237</v>
+        <v>0.023597</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0263901</v>
+        <v>0.0241861</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0230618</v>
+        <v>0.0260327</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0222726</v>
+        <v>0.0222549</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0206947</v>
+        <v>0.0201876</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0218975</v>
+        <v>0.0219951</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0224363</v>
+        <v>0.0225006</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.020733</v>
+        <v>0.0202652</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0221743</v>
+        <v>0.0222306</v>
       </c>
       <c r="D25" t="n">
-        <v>0.022736</v>
+        <v>0.0226863</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0208332</v>
+        <v>0.0205257</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0222982</v>
+        <v>0.0225165</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0229316</v>
+        <v>0.0228424</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0210493</v>
+        <v>0.0206693</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0226583</v>
+        <v>0.0226778</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0232975</v>
+        <v>0.0231584</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0210593</v>
+        <v>0.0210239</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0229567</v>
+        <v>0.0229991</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0235969</v>
+        <v>0.023406</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0214453</v>
+        <v>0.0210588</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0231751</v>
+        <v>0.0233168</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0239158</v>
+        <v>0.0237316</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0216168</v>
+        <v>0.0213312</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0233913</v>
+        <v>0.023644</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0242201</v>
+        <v>0.0239451</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0219522</v>
+        <v>0.0214381</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0236959</v>
+        <v>0.0238884</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0243325</v>
+        <v>0.0241835</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.022052</v>
+        <v>0.0216935</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0239263</v>
+        <v>0.0243489</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0246646</v>
+        <v>0.0243836</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0224556</v>
+        <v>0.0218703</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0243132</v>
+        <v>0.0247909</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0249221</v>
+        <v>0.0249208</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0228168</v>
+        <v>0.0226093</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0249628</v>
+        <v>0.026025</v>
       </c>
       <c r="D34" t="n">
-        <v>0.025787</v>
+        <v>0.025635</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0265014</v>
+        <v>0.0237933</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0255313</v>
+        <v>0.0272419</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0270193</v>
+        <v>0.0263454</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.027747</v>
+        <v>0.0273617</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0264392</v>
+        <v>0.0297704</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0340751</v>
+        <v>0.0308038</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0320852</v>
+        <v>0.0305912</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0319962</v>
+        <v>0.0330555</v>
       </c>
       <c r="D37" t="n">
-        <v>0.023531</v>
+        <v>0.0233583</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0215508</v>
+        <v>0.0216011</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0233684</v>
+        <v>0.0233493</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0236046</v>
+        <v>0.0236723</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0217573</v>
+        <v>0.0216204</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0236507</v>
+        <v>0.0235321</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0238536</v>
+        <v>0.0237868</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0219004</v>
+        <v>0.0216547</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0238448</v>
+        <v>0.0238968</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0241112</v>
+        <v>0.0240428</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0221052</v>
+        <v>0.0220809</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0241789</v>
+        <v>0.0243024</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0243659</v>
+        <v>0.0244587</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0223883</v>
+        <v>0.0222385</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0244362</v>
+        <v>0.0244517</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0246695</v>
+        <v>0.0246443</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0225641</v>
+        <v>0.0223534</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0249471</v>
+        <v>0.0248654</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0250211</v>
+        <v>0.0249483</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0228784</v>
+        <v>0.0228382</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0252192</v>
+        <v>0.0253395</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0253666</v>
+        <v>0.0253206</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0232464</v>
+        <v>0.0230526</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0256378</v>
+        <v>0.0258274</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0258798</v>
+        <v>0.0257072</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0237197</v>
+        <v>0.0233719</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0260059</v>
+        <v>0.0264576</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0263774</v>
+        <v>0.0262247</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0246738</v>
+        <v>0.0240672</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0265743</v>
+        <v>0.0273624</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0271913</v>
+        <v>0.0268371</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0257789</v>
+        <v>0.0252667</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0274765</v>
+        <v>0.0283526</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0284064</v>
+        <v>0.0278356</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0278805</v>
+        <v>0.0267127</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0284756</v>
+        <v>0.0299445</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0305268</v>
+        <v>0.0300932</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0311247</v>
+        <v>0.029559</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0300596</v>
+        <v>0.0322556</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0340069</v>
+        <v>0.0338059</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0353928</v>
+        <v>0.0333769</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0345654</v>
+        <v>0.0360625</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0243231</v>
+        <v>0.0242009</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0413931</v>
+        <v>0.0381623</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0408994</v>
+        <v>0.0420099</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0244548</v>
+        <v>0.0243524</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.023117</v>
+        <v>0.0229457</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0250592</v>
+        <v>0.0250314</v>
       </c>
       <c r="D53" t="n">
-        <v>0.024666</v>
+        <v>0.0247496</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0237019</v>
+        <v>0.0231311</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0254013</v>
+        <v>0.0254349</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0249557</v>
+        <v>0.0249328</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0235158</v>
+        <v>0.0232915</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0256899</v>
+        <v>0.0257886</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0252241</v>
+        <v>0.0251957</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0240819</v>
+        <v>0.0237943</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0260159</v>
+        <v>0.0260608</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0255649</v>
+        <v>0.0254863</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0240491</v>
+        <v>0.0237362</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0263266</v>
+        <v>0.0264526</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0258675</v>
+        <v>0.0259647</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0248264</v>
+        <v>0.0243812</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0267886</v>
+        <v>0.0270059</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0262788</v>
+        <v>0.0263882</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0252257</v>
+        <v>0.0246076</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0274655</v>
+        <v>0.0275516</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0269319</v>
+        <v>0.0267808</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0255101</v>
+        <v>0.0252915</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0280752</v>
+        <v>0.0281721</v>
       </c>
       <c r="D60" t="n">
-        <v>0.027517</v>
+        <v>0.0274514</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.026877</v>
+        <v>0.0260103</v>
       </c>
       <c r="C61" t="n">
-        <v>0.02857</v>
+        <v>0.0290479</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0284363</v>
+        <v>0.0283733</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0279736</v>
+        <v>0.0271216</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0297707</v>
+        <v>0.0303794</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0299291</v>
+        <v>0.0295846</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0305003</v>
+        <v>0.0287943</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0308369</v>
+        <v>0.031911</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0323891</v>
+        <v>0.0322515</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0330003</v>
+        <v>0.0314659</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0329976</v>
+        <v>0.0342534</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0363504</v>
+        <v>0.0363018</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.036597</v>
+        <v>0.0352725</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0366214</v>
+        <v>0.0375493</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0428102</v>
+        <v>0.0425987</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0418144</v>
+        <v>0.0406422</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0421052</v>
+        <v>0.0429753</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0263316</v>
+        <v>0.0262346</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0291608</v>
+        <v>0.027751</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0272998</v>
+        <v>0.0274241</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0270794</v>
+        <v>0.0278095</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0293035</v>
+        <v>0.0279818</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0277838</v>
+        <v>0.0275827</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0273011</v>
+        <v>0.0267349</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0294192</v>
+        <v>0.0281699</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0280194</v>
+        <v>0.0285662</v>
       </c>
       <c r="D69" t="n">
-        <v>0.027915</v>
+        <v>0.0278604</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0296505</v>
+        <v>0.0283589</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0290135</v>
+        <v>0.0282361</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0282882</v>
+        <v>0.0278063</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.030045</v>
+        <v>0.0284662</v>
       </c>
       <c r="C71" t="n">
-        <v>0.02932</v>
+        <v>0.0292785</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0283811</v>
+        <v>0.0282352</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0302585</v>
+        <v>0.0286675</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0291906</v>
+        <v>0.0297468</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0284189</v>
+        <v>0.0286195</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0306331</v>
+        <v>0.0291702</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0297545</v>
+        <v>0.0297746</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0291724</v>
+        <v>0.0293488</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0312468</v>
+        <v>0.0297334</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0305198</v>
+        <v>0.0311609</v>
       </c>
       <c r="D74" t="n">
-        <v>0.030293</v>
+        <v>0.0309039</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0321135</v>
+        <v>0.0305689</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0312511</v>
+        <v>0.0319888</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0315169</v>
+        <v>0.0319861</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0334307</v>
+        <v>0.0318159</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0327875</v>
+        <v>0.0325941</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0327621</v>
+        <v>0.0335057</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.035131</v>
+        <v>0.0334458</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0339479</v>
+        <v>0.0347522</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0350304</v>
+        <v>0.0348816</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0376786</v>
+        <v>0.035945</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0360872</v>
+        <v>0.0369338</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0390111</v>
+        <v>0.0387214</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0411061</v>
+        <v>0.0392418</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0393014</v>
+        <v>0.0395319</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0448809</v>
+        <v>0.0453199</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0457488</v>
+        <v>0.0443087</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0439843</v>
+        <v>0.0445785</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0406224</v>
+        <v>0.0407318</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0558706</v>
+        <v>0.0547714</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0383206</v>
+        <v>0.0385965</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0413528</v>
+        <v>0.0414517</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0560217</v>
+        <v>0.0547465</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0387129</v>
+        <v>0.0391738</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0420422</v>
+        <v>0.0426216</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0561843</v>
+        <v>0.0548729</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0398579</v>
+        <v>0.0404605</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0431693</v>
+        <v>0.0438297</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0564288</v>
+        <v>0.0550811</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0404639</v>
+        <v>0.0412384</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0439279</v>
+        <v>0.0445992</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0566054</v>
+        <v>0.0553561</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0421791</v>
+        <v>0.0423574</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0447027</v>
+        <v>0.0445233</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0568306</v>
+        <v>0.0559235</v>
       </c>
       <c r="C86" t="n">
-        <v>0.043024</v>
+        <v>0.0440109</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0455721</v>
+        <v>0.0453958</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0570655</v>
+        <v>0.0558605</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0453259</v>
+        <v>0.0455111</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0459794</v>
+        <v>0.0470397</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0574837</v>
+        <v>0.0561526</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0467587</v>
+        <v>0.0469909</v>
       </c>
       <c r="D88" t="n">
-        <v>0.047323</v>
+        <v>0.0470448</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0580252</v>
+        <v>0.0565156</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0487234</v>
+        <v>0.0495019</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0483172</v>
+        <v>0.0490326</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0591472</v>
+        <v>0.0573164</v>
       </c>
       <c r="C90" t="n">
-        <v>0.049605</v>
+        <v>0.0504124</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0504836</v>
+        <v>0.0494654</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0604559</v>
+        <v>0.0583101</v>
       </c>
       <c r="C91" t="n">
-        <v>0.052336</v>
+        <v>0.0520144</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0516922</v>
+        <v>0.051531</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0618013</v>
+        <v>0.0599454</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0539033</v>
+        <v>0.0543212</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0541084</v>
+        <v>0.0542884</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0640674</v>
+        <v>0.0625134</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0571698</v>
+        <v>0.0573723</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0589681</v>
+        <v>0.0599492</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0677758</v>
+        <v>0.0664305</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0610853</v>
+        <v>0.0613063</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0807346</v>
+        <v>0.08073379999999999</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.08585909999999999</v>
+        <v>0.0856334</v>
       </c>
       <c r="C95" t="n">
-        <v>0.07588499999999999</v>
+        <v>0.0760262</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0812705</v>
+        <v>0.0810693</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0861142</v>
+        <v>0.08569060000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.07646840000000001</v>
+        <v>0.07657319999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0817399</v>
+        <v>0.0815491</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.085975</v>
+        <v>0.08574569999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.07704519999999999</v>
+        <v>0.0769855</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0822526</v>
+        <v>0.082105</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.08606809999999999</v>
+        <v>0.0857425</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07748529999999999</v>
+        <v>0.0775561</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0827924</v>
+        <v>0.08281810000000001</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.08628810000000001</v>
+        <v>0.08597779999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0782692</v>
+        <v>0.0782354</v>
       </c>
       <c r="D99" t="n">
-        <v>0.08322350000000001</v>
+        <v>0.08310869999999999</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0863072</v>
+        <v>0.0860407</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0788664</v>
+        <v>0.0789435</v>
       </c>
       <c r="D100" t="n">
-        <v>0.08400349999999999</v>
+        <v>0.0839172</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0863732</v>
+        <v>0.0861875</v>
       </c>
       <c r="C101" t="n">
-        <v>0.07974779999999999</v>
+        <v>0.07968409999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.08460620000000001</v>
+        <v>0.0847155</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0867768</v>
+        <v>0.0866518</v>
       </c>
       <c r="C102" t="n">
-        <v>0.080653</v>
+        <v>0.0805159</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0855218</v>
+        <v>0.0853878</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.08717510000000001</v>
+        <v>0.08694830000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0816156</v>
+        <v>0.0848346</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0864105</v>
+        <v>0.08635859999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0879264</v>
+        <v>0.0873471</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0834612</v>
+        <v>0.0828675</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0887197</v>
+        <v>0.08757139999999999</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0895629</v>
+        <v>0.0882719</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0843175</v>
+        <v>0.08427419999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0894181</v>
+        <v>0.08931649999999999</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.08994240000000001</v>
+        <v>0.08954040000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0859795</v>
+        <v>0.0859241</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0917139</v>
+        <v>0.0918915</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0917989</v>
+        <v>0.0915265</v>
       </c>
       <c r="C107" t="n">
-        <v>0.08848010000000001</v>
+        <v>0.08843959999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0956856</v>
+        <v>0.0962602</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.09497510000000001</v>
+        <v>0.0949429</v>
       </c>
       <c r="C108" t="n">
-        <v>0.10039</v>
+        <v>0.09223870000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.100963</v>
+        <v>0.0991784</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100082</v>
+        <v>0.0997132</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0985391</v>
+        <v>0.09853290000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0986775</v>
+        <v>0.0997705</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.107826</v>
+        <v>0.109636</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0904269</v>
+        <v>0.0915559</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0995801</v>
+        <v>0.100426</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.107837</v>
+        <v>0.110085</v>
       </c>
       <c r="C111" t="n">
-        <v>0.09156110000000001</v>
+        <v>0.0924591</v>
       </c>
       <c r="D111" t="n">
-        <v>0.100017</v>
+        <v>0.100912</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.107895</v>
+        <v>0.110175</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0920716</v>
+        <v>0.0932206</v>
       </c>
       <c r="D112" t="n">
-        <v>0.100739</v>
+        <v>0.101904</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.108112</v>
+        <v>0.110592</v>
       </c>
       <c r="C113" t="n">
-        <v>0.09333180000000001</v>
+        <v>0.0955001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.102235</v>
+        <v>0.102949</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.108189</v>
+        <v>0.110936</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0941058</v>
+        <v>0.0952368</v>
       </c>
       <c r="D114" t="n">
-        <v>0.103137</v>
+        <v>0.103779</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.108429</v>
+        <v>0.111252</v>
       </c>
       <c r="C115" t="n">
-        <v>0.09559529999999999</v>
+        <v>0.0963207</v>
       </c>
       <c r="D115" t="n">
-        <v>0.103963</v>
+        <v>0.10547</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108643</v>
+        <v>0.111718</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0968461</v>
+        <v>0.0975776</v>
       </c>
       <c r="D116" t="n">
-        <v>0.106048</v>
+        <v>0.106066</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.10903</v>
+        <v>0.112279</v>
       </c>
       <c r="C117" t="n">
-        <v>0.098033</v>
+        <v>0.104666</v>
       </c>
       <c r="D117" t="n">
-        <v>0.107095</v>
+        <v>0.107426</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.109472</v>
+        <v>0.112917</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0999396</v>
+        <v>0.100517</v>
       </c>
       <c r="D118" t="n">
-        <v>0.108624</v>
+        <v>0.109417</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.11006</v>
+        <v>0.113888</v>
       </c>
       <c r="C119" t="n">
-        <v>0.10412</v>
+        <v>0.102908</v>
       </c>
       <c r="D119" t="n">
-        <v>0.110526</v>
+        <v>0.111187</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111854</v>
+        <v>0.11497</v>
       </c>
       <c r="C120" t="n">
-        <v>0.103956</v>
+        <v>0.104437</v>
       </c>
       <c r="D120" t="n">
-        <v>0.113505</v>
+        <v>0.114047</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.113325</v>
+        <v>0.117149</v>
       </c>
       <c r="C121" t="n">
-        <v>0.106713</v>
+        <v>0.107174</v>
       </c>
       <c r="D121" t="n">
-        <v>0.117155</v>
+        <v>0.117967</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.116298</v>
+        <v>0.120162</v>
       </c>
       <c r="C122" t="n">
-        <v>0.110618</v>
+        <v>0.111058</v>
       </c>
       <c r="D122" t="n">
-        <v>0.123872</v>
+        <v>0.125087</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.121115</v>
+        <v>0.12516</v>
       </c>
       <c r="C123" t="n">
-        <v>0.11634</v>
+        <v>0.117304</v>
       </c>
       <c r="D123" t="n">
-        <v>0.115789</v>
+        <v>0.11761</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.140011</v>
+        <v>0.135213</v>
       </c>
       <c r="C124" t="n">
-        <v>0.104964</v>
+        <v>0.102703</v>
       </c>
       <c r="D124" t="n">
-        <v>0.116789</v>
+        <v>0.118691</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.134829</v>
+        <v>0.137331</v>
       </c>
       <c r="C125" t="n">
-        <v>0.106078</v>
+        <v>0.104147</v>
       </c>
       <c r="D125" t="n">
-        <v>0.117895</v>
+        <v>0.119803</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.134816</v>
+        <v>0.13761</v>
       </c>
       <c r="C126" t="n">
-        <v>0.108088</v>
+        <v>0.105551</v>
       </c>
       <c r="D126" t="n">
-        <v>0.126987</v>
+        <v>0.121041</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.135441</v>
+        <v>0.137824</v>
       </c>
       <c r="C127" t="n">
-        <v>0.109386</v>
+        <v>0.107259</v>
       </c>
       <c r="D127" t="n">
-        <v>0.120822</v>
+        <v>0.122472</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.135075</v>
+        <v>0.137969</v>
       </c>
       <c r="C128" t="n">
-        <v>0.111035</v>
+        <v>0.108827</v>
       </c>
       <c r="D128" t="n">
-        <v>0.121922</v>
+        <v>0.123992</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.135308</v>
+        <v>0.138587</v>
       </c>
       <c r="C129" t="n">
-        <v>0.112768</v>
+        <v>0.110531</v>
       </c>
       <c r="D129" t="n">
-        <v>0.123614</v>
+        <v>0.125547</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.135496</v>
+        <v>0.138418</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1144</v>
+        <v>0.112119</v>
       </c>
       <c r="D130" t="n">
-        <v>0.125388</v>
+        <v>0.127083</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.135761</v>
+        <v>0.139075</v>
       </c>
       <c r="C131" t="n">
-        <v>0.116351</v>
+        <v>0.11409</v>
       </c>
       <c r="D131" t="n">
-        <v>0.127147</v>
+        <v>0.129012</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.136189</v>
+        <v>0.139357</v>
       </c>
       <c r="C132" t="n">
-        <v>0.118145</v>
+        <v>0.116169</v>
       </c>
       <c r="D132" t="n">
-        <v>0.128996</v>
+        <v>0.134582</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.136752</v>
+        <v>0.140214</v>
       </c>
       <c r="C133" t="n">
-        <v>0.120446</v>
+        <v>0.11847</v>
       </c>
       <c r="D133" t="n">
-        <v>0.131573</v>
+        <v>0.133626</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.137976</v>
+        <v>0.14173</v>
       </c>
       <c r="C134" t="n">
-        <v>0.123039</v>
+        <v>0.121012</v>
       </c>
       <c r="D134" t="n">
-        <v>0.134855</v>
+        <v>0.136729</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.139484</v>
+        <v>0.143342</v>
       </c>
       <c r="C135" t="n">
-        <v>0.126101</v>
+        <v>0.124157</v>
       </c>
       <c r="D135" t="n">
-        <v>0.138939</v>
+        <v>0.140768</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.142434</v>
+        <v>0.145878</v>
       </c>
       <c r="C136" t="n">
-        <v>0.131373</v>
+        <v>0.128464</v>
       </c>
       <c r="D136" t="n">
-        <v>0.145612</v>
+        <v>0.147808</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.146554</v>
+        <v>0.150681</v>
       </c>
       <c r="C137" t="n">
-        <v>0.136365</v>
+        <v>0.135041</v>
       </c>
       <c r="D137" t="n">
-        <v>0.128993</v>
+        <v>0.130967</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.158468</v>
+        <v>0.158836</v>
       </c>
       <c r="C138" t="n">
-        <v>0.116601</v>
+        <v>0.117174</v>
       </c>
       <c r="D138" t="n">
-        <v>0.130327</v>
+        <v>0.131116</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.158139</v>
+        <v>0.158064</v>
       </c>
       <c r="C139" t="n">
-        <v>0.118191</v>
+        <v>0.117981</v>
       </c>
       <c r="D139" t="n">
-        <v>0.131685</v>
+        <v>0.131613</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.158049</v>
+        <v>0.157952</v>
       </c>
       <c r="C140" t="n">
-        <v>0.119731</v>
+        <v>0.119335</v>
       </c>
       <c r="D140" t="n">
-        <v>0.133136</v>
+        <v>0.132917</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158111</v>
+        <v>0.158387</v>
       </c>
       <c r="C141" t="n">
-        <v>0.121478</v>
+        <v>0.121033</v>
       </c>
       <c r="D141" t="n">
-        <v>0.134581</v>
+        <v>0.134386</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.15821</v>
+        <v>0.158418</v>
       </c>
       <c r="C142" t="n">
-        <v>0.122994</v>
+        <v>0.122813</v>
       </c>
       <c r="D142" t="n">
-        <v>0.136126</v>
+        <v>0.136888</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158579</v>
+        <v>0.16006</v>
       </c>
       <c r="C143" t="n">
-        <v>0.124775</v>
+        <v>0.125062</v>
       </c>
       <c r="D143" t="n">
-        <v>0.137405</v>
+        <v>0.137124</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0195926</v>
+        <v>0.0195573</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0203687</v>
+        <v>0.0210579</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0211402</v>
+        <v>0.0213781</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0196565</v>
+        <v>0.0196024</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0201963</v>
+        <v>0.0210654</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0211427</v>
+        <v>0.0212405</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0197182</v>
+        <v>0.0196585</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0202574</v>
+        <v>0.0210717</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0211583</v>
+        <v>0.0212739</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0196906</v>
+        <v>0.0196138</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0201645</v>
+        <v>0.0209249</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0211796</v>
+        <v>0.0213163</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0197741</v>
+        <v>0.0198495</v>
       </c>
       <c r="C6" t="n">
-        <v>0.020276</v>
+        <v>0.0210021</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0211502</v>
+        <v>0.0214053</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0199849</v>
+        <v>0.0198635</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0206699</v>
+        <v>0.021432</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0215696</v>
+        <v>0.0216499</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0201223</v>
+        <v>0.0200199</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0208992</v>
+        <v>0.0213844</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0216887</v>
+        <v>0.0218885</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0206347</v>
+        <v>0.0202947</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0215748</v>
+        <v>0.0221166</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0209296</v>
+        <v>0.0206984</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0194887</v>
+        <v>0.0195022</v>
       </c>
       <c r="C10" t="n">
-        <v>0.021069</v>
+        <v>0.0206767</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0211446</v>
+        <v>0.0209369</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0195136</v>
+        <v>0.0197386</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0210575</v>
+        <v>0.0209956</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0214714</v>
+        <v>0.0211428</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.019788</v>
+        <v>0.0198184</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0212457</v>
+        <v>0.0211655</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0216137</v>
+        <v>0.0213379</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0198799</v>
+        <v>0.0199036</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0214196</v>
+        <v>0.0212447</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0217641</v>
+        <v>0.0214887</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.020038</v>
+        <v>0.0200425</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0214879</v>
+        <v>0.0215969</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0224323</v>
+        <v>0.0219087</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0201568</v>
+        <v>0.0201976</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0217036</v>
+        <v>0.0218899</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0224446</v>
+        <v>0.0221878</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0202012</v>
+        <v>0.0201793</v>
       </c>
       <c r="C16" t="n">
-        <v>0.021808</v>
+        <v>0.0218997</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0224964</v>
+        <v>0.022487</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.020465</v>
+        <v>0.0202945</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0220083</v>
+        <v>0.0222667</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0225379</v>
+        <v>0.0225165</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0204968</v>
+        <v>0.0203638</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0222778</v>
+        <v>0.0224056</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0226086</v>
+        <v>0.0225921</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0206652</v>
+        <v>0.0204441</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0224421</v>
+        <v>0.0229517</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0228962</v>
+        <v>0.0225156</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.020657</v>
+        <v>0.0204956</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0229237</v>
+        <v>0.0231675</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0228222</v>
+        <v>0.0226783</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0208938</v>
+        <v>0.0206672</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0233846</v>
+        <v>0.0238117</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0233023</v>
+        <v>0.0231481</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0216553</v>
+        <v>0.0211929</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0239497</v>
+        <v>0.0251692</v>
       </c>
       <c r="D22" t="n">
-        <v>0.023597</v>
+        <v>0.0239505</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0241861</v>
+        <v>0.0227933</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0260327</v>
+        <v>0.0273364</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0222549</v>
+        <v>0.0219065</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0201876</v>
+        <v>0.0207262</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0219951</v>
+        <v>0.0218208</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0225006</v>
+        <v>0.0221687</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0202652</v>
+        <v>0.0207364</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0222306</v>
+        <v>0.0221195</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0226863</v>
+        <v>0.0224334</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0205257</v>
+        <v>0.0210629</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0225165</v>
+        <v>0.0223352</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0228424</v>
+        <v>0.0225916</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0206693</v>
+        <v>0.0211709</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0226778</v>
+        <v>0.0226329</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0231584</v>
+        <v>0.0229572</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0210239</v>
+        <v>0.0213625</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0229991</v>
+        <v>0.0228654</v>
       </c>
       <c r="D28" t="n">
-        <v>0.023406</v>
+        <v>0.0232377</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0210588</v>
+        <v>0.0212592</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0233168</v>
+        <v>0.0232489</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0237316</v>
+        <v>0.0235875</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0213312</v>
+        <v>0.0215282</v>
       </c>
       <c r="C30" t="n">
-        <v>0.023644</v>
+        <v>0.0236079</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0239451</v>
+        <v>0.0238879</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0214381</v>
+        <v>0.0215329</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0238884</v>
+        <v>0.0239658</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0241835</v>
+        <v>0.0240902</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0216935</v>
+        <v>0.0218678</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0243489</v>
+        <v>0.0243965</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0243836</v>
+        <v>0.0242618</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0218703</v>
+        <v>0.021846</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0247909</v>
+        <v>0.0251184</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0249208</v>
+        <v>0.0248538</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0226093</v>
+        <v>0.0229663</v>
       </c>
       <c r="C34" t="n">
-        <v>0.026025</v>
+        <v>0.0260728</v>
       </c>
       <c r="D34" t="n">
-        <v>0.025635</v>
+        <v>0.0256254</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0237933</v>
+        <v>0.0258538</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0272419</v>
+        <v>0.0279637</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0263454</v>
+        <v>0.0282743</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0273617</v>
+        <v>0.027219</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0297704</v>
+        <v>0.0300865</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0308038</v>
+        <v>0.03264</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0305912</v>
+        <v>0.0306225</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0330555</v>
+        <v>0.0340053</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0233583</v>
+        <v>0.0231121</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0216011</v>
+        <v>0.0217189</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0233493</v>
+        <v>0.0231279</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0236723</v>
+        <v>0.0233196</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0216204</v>
+        <v>0.0217601</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0235321</v>
+        <v>0.023363</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0237868</v>
+        <v>0.0234505</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0216547</v>
+        <v>0.0217765</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0238968</v>
+        <v>0.0236661</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0240428</v>
+        <v>0.0237103</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0220809</v>
+        <v>0.0219635</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0243024</v>
+        <v>0.0239824</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0244587</v>
+        <v>0.0240519</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0222385</v>
+        <v>0.0223007</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0244517</v>
+        <v>0.0243096</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0246443</v>
+        <v>0.0244074</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0223534</v>
+        <v>0.0223337</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0248654</v>
+        <v>0.0248165</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0249483</v>
+        <v>0.024652</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0228382</v>
+        <v>0.0227141</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0253395</v>
+        <v>0.0252446</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0253206</v>
+        <v>0.0249876</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0230526</v>
+        <v>0.0229077</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0258274</v>
+        <v>0.0256671</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0257072</v>
+        <v>0.0253866</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0233719</v>
+        <v>0.0232043</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0264576</v>
+        <v>0.0264118</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0262247</v>
+        <v>0.0259842</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0240672</v>
+        <v>0.0239939</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0273624</v>
+        <v>0.0272724</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0268371</v>
+        <v>0.0267923</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0252667</v>
+        <v>0.0252875</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0283526</v>
+        <v>0.0282755</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0278356</v>
+        <v>0.0284919</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0267127</v>
+        <v>0.0273085</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0299445</v>
+        <v>0.0301641</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0300932</v>
+        <v>0.0308298</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.029559</v>
+        <v>0.0305912</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0322556</v>
+        <v>0.0323632</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0338059</v>
+        <v>0.0351446</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0333769</v>
+        <v>0.0328876</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0360625</v>
+        <v>0.035846</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0242009</v>
+        <v>0.0237157</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0381623</v>
+        <v>0.0384423</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0420099</v>
+        <v>0.0413357</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0243524</v>
+        <v>0.0240406</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0229457</v>
+        <v>0.0232142</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0250314</v>
+        <v>0.0247368</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0247496</v>
+        <v>0.0242822</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0231311</v>
+        <v>0.0233043</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0254349</v>
+        <v>0.0249934</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0249328</v>
+        <v>0.024568</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0232915</v>
+        <v>0.0234338</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0257886</v>
+        <v>0.0253318</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0251957</v>
+        <v>0.0248245</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0237943</v>
+        <v>0.0238512</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0260608</v>
+        <v>0.0257788</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0254863</v>
+        <v>0.0251885</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0237362</v>
+        <v>0.023944</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0264526</v>
+        <v>0.0261203</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0259647</v>
+        <v>0.0255161</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0243812</v>
+        <v>0.0240753</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0270059</v>
+        <v>0.0265594</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0263882</v>
+        <v>0.0258947</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0246076</v>
+        <v>0.0246348</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0275516</v>
+        <v>0.0271615</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0267808</v>
+        <v>0.0264293</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0252915</v>
+        <v>0.0252475</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0281721</v>
+        <v>0.0279076</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0274514</v>
+        <v>0.0271971</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0260103</v>
+        <v>0.0261247</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0290479</v>
+        <v>0.0288666</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0283733</v>
+        <v>0.0283302</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0271216</v>
+        <v>0.0272718</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0303794</v>
+        <v>0.0299679</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0295846</v>
+        <v>0.0300761</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0287943</v>
+        <v>0.0293681</v>
       </c>
       <c r="C63" t="n">
-        <v>0.031911</v>
+        <v>0.0315985</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0322515</v>
+        <v>0.0323287</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0314659</v>
+        <v>0.0323245</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0342534</v>
+        <v>0.0338399</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0363018</v>
+        <v>0.0362684</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0352725</v>
+        <v>0.0353548</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0375493</v>
+        <v>0.0369245</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0425987</v>
+        <v>0.0419968</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0406422</v>
+        <v>0.0412925</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0429753</v>
+        <v>0.0417786</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0262346</v>
+        <v>0.0255116</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.027751</v>
+        <v>0.0283862</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0274241</v>
+        <v>0.0268517</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0278095</v>
+        <v>0.0261657</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0279818</v>
+        <v>0.0284896</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0275827</v>
+        <v>0.027128</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0267349</v>
+        <v>0.0264181</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0281699</v>
+        <v>0.0284855</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0285662</v>
+        <v>0.027394</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0278604</v>
+        <v>0.027202</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0283589</v>
+        <v>0.0286694</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0282361</v>
+        <v>0.0276907</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0278063</v>
+        <v>0.0270156</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0284662</v>
+        <v>0.0289065</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0292785</v>
+        <v>0.0281646</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0282352</v>
+        <v>0.0273816</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0286675</v>
+        <v>0.0291699</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0297468</v>
+        <v>0.0286281</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0286195</v>
+        <v>0.0278626</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0291702</v>
+        <v>0.02956</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0297746</v>
+        <v>0.0290091</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0293488</v>
+        <v>0.0290087</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0297334</v>
+        <v>0.0302572</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0311609</v>
+        <v>0.0300555</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0309039</v>
+        <v>0.0299227</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0305689</v>
+        <v>0.0312024</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0319888</v>
+        <v>0.0309909</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0319861</v>
+        <v>0.0305651</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0318159</v>
+        <v>0.0322202</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0325941</v>
+        <v>0.0321845</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0335057</v>
+        <v>0.0326274</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0334458</v>
+        <v>0.0340864</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0347522</v>
+        <v>0.0336774</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0348816</v>
+        <v>0.0346516</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.035945</v>
+        <v>0.0362868</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0369338</v>
+        <v>0.0358184</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0387214</v>
+        <v>0.0382183</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0392418</v>
+        <v>0.0397923</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0395319</v>
+        <v>0.03875</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0453199</v>
+        <v>0.0436075</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0443087</v>
+        <v>0.0445316</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0445785</v>
+        <v>0.042998</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0407318</v>
+        <v>0.0399738</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0547714</v>
+        <v>0.0558824</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0385965</v>
+        <v>0.0362509</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0414517</v>
+        <v>0.0408774</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0547465</v>
+        <v>0.0566294</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0391738</v>
+        <v>0.0368703</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0426216</v>
+        <v>0.041224</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0548729</v>
+        <v>0.0563176</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0404605</v>
+        <v>0.0378075</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0438297</v>
+        <v>0.0421912</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0550811</v>
+        <v>0.0563435</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0412384</v>
+        <v>0.0387014</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0445992</v>
+        <v>0.0429272</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0553561</v>
+        <v>0.0566188</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0423574</v>
+        <v>0.0401048</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0445233</v>
+        <v>0.0434836</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0559235</v>
+        <v>0.0568309</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0440109</v>
+        <v>0.0412144</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0453958</v>
+        <v>0.0446018</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0558605</v>
+        <v>0.0570734</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0455111</v>
+        <v>0.0429106</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0470397</v>
+        <v>0.0448619</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0561526</v>
+        <v>0.0573966</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0469909</v>
+        <v>0.043893</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0470448</v>
+        <v>0.0462234</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0565156</v>
+        <v>0.0580201</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0495019</v>
+        <v>0.0458116</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0490326</v>
+        <v>0.0469054</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0573164</v>
+        <v>0.0585683</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0504124</v>
+        <v>0.0468033</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0494654</v>
+        <v>0.0484222</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0583101</v>
+        <v>0.0596069</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0520144</v>
+        <v>0.0491443</v>
       </c>
       <c r="D91" t="n">
-        <v>0.051531</v>
+        <v>0.0501137</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0599454</v>
+        <v>0.0612008</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0543212</v>
+        <v>0.0506259</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0542884</v>
+        <v>0.0526288</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0625134</v>
+        <v>0.06360680000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0573723</v>
+        <v>0.0539369</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0599492</v>
+        <v>0.0570036</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0664305</v>
+        <v>0.0674138</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0613063</v>
+        <v>0.0573898</v>
       </c>
       <c r="D94" t="n">
-        <v>0.08073379999999999</v>
+        <v>0.0779038</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0856334</v>
+        <v>0.0860108</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0760262</v>
+        <v>0.0689467</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0810693</v>
+        <v>0.0784055</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.08569060000000001</v>
+        <v>0.0860641</v>
       </c>
       <c r="C96" t="n">
-        <v>0.07657319999999999</v>
+        <v>0.0695144</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0815491</v>
+        <v>0.0788276</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.08574569999999999</v>
+        <v>0.0860847</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0769855</v>
+        <v>0.0700875</v>
       </c>
       <c r="D97" t="n">
-        <v>0.082105</v>
+        <v>0.079332</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0857425</v>
+        <v>0.08630110000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0775561</v>
+        <v>0.0705413</v>
       </c>
       <c r="D98" t="n">
-        <v>0.08281810000000001</v>
+        <v>0.0799376</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.08597779999999999</v>
+        <v>0.0861739</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0782354</v>
+        <v>0.0710433</v>
       </c>
       <c r="D99" t="n">
-        <v>0.08310869999999999</v>
+        <v>0.0804945</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0860407</v>
+        <v>0.0863391</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0789435</v>
+        <v>0.0718377</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0839172</v>
+        <v>0.08352569999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0861875</v>
+        <v>0.08666889999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.07968409999999999</v>
+        <v>0.0727255</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0847155</v>
+        <v>0.0819178</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0866518</v>
+        <v>0.08728959999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0805159</v>
+        <v>0.0735276</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0853878</v>
+        <v>0.082604</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.08694830000000001</v>
+        <v>0.08735950000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0848346</v>
+        <v>0.07464899999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.08635859999999999</v>
+        <v>0.0836001</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0873471</v>
+        <v>0.0878285</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0828675</v>
+        <v>0.07565570000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.08757139999999999</v>
+        <v>0.0848966</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0882719</v>
+        <v>0.0887225</v>
       </c>
       <c r="C105" t="n">
-        <v>0.08427419999999999</v>
+        <v>0.0771792</v>
       </c>
       <c r="D105" t="n">
-        <v>0.08931649999999999</v>
+        <v>0.0865002</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.08954040000000001</v>
+        <v>0.0897467</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0859241</v>
+        <v>0.0790395</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0918915</v>
+        <v>0.0887524</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0915265</v>
+        <v>0.0919164</v>
       </c>
       <c r="C107" t="n">
-        <v>0.08843959999999999</v>
+        <v>0.0811708</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0962602</v>
+        <v>0.09246</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0949429</v>
+        <v>0.095264</v>
       </c>
       <c r="C108" t="n">
-        <v>0.09223870000000001</v>
+        <v>0.0850706</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0991784</v>
+        <v>0.0963499</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0997132</v>
+        <v>0.100177</v>
       </c>
       <c r="C109" t="n">
-        <v>0.09853290000000001</v>
+        <v>0.09109979999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0997705</v>
+        <v>0.09687659999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.109636</v>
+        <v>0.109731</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0915559</v>
+        <v>0.0838358</v>
       </c>
       <c r="D110" t="n">
-        <v>0.100426</v>
+        <v>0.09755229999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.110085</v>
+        <v>0.110159</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0924591</v>
+        <v>0.084687</v>
       </c>
       <c r="D111" t="n">
-        <v>0.100912</v>
+        <v>0.09822350000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.110175</v>
+        <v>0.110416</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0932206</v>
+        <v>0.0853404</v>
       </c>
       <c r="D112" t="n">
-        <v>0.101904</v>
+        <v>0.09925680000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.110592</v>
+        <v>0.110815</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0955001</v>
+        <v>0.0864506</v>
       </c>
       <c r="D113" t="n">
-        <v>0.102949</v>
+        <v>0.0999882</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.110936</v>
+        <v>0.110987</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0952368</v>
+        <v>0.0874132</v>
       </c>
       <c r="D114" t="n">
-        <v>0.103779</v>
+        <v>0.10087</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.111252</v>
+        <v>0.111438</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0963207</v>
+        <v>0.0886392</v>
       </c>
       <c r="D115" t="n">
-        <v>0.10547</v>
+        <v>0.102165</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.111718</v>
+        <v>0.111623</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0975776</v>
+        <v>0.0897167</v>
       </c>
       <c r="D116" t="n">
-        <v>0.106066</v>
+        <v>0.103046</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.112279</v>
+        <v>0.112439</v>
       </c>
       <c r="C117" t="n">
-        <v>0.104666</v>
+        <v>0.0910931</v>
       </c>
       <c r="D117" t="n">
-        <v>0.107426</v>
+        <v>0.104522</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.112917</v>
+        <v>0.113125</v>
       </c>
       <c r="C118" t="n">
-        <v>0.100517</v>
+        <v>0.09282600000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.109417</v>
+        <v>0.106335</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.113888</v>
+        <v>0.114083</v>
       </c>
       <c r="C119" t="n">
-        <v>0.102908</v>
+        <v>0.0943092</v>
       </c>
       <c r="D119" t="n">
-        <v>0.111187</v>
+        <v>0.108081</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.11497</v>
+        <v>0.115242</v>
       </c>
       <c r="C120" t="n">
-        <v>0.104437</v>
+        <v>0.0966987</v>
       </c>
       <c r="D120" t="n">
-        <v>0.114047</v>
+        <v>0.110746</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.117149</v>
+        <v>0.117273</v>
       </c>
       <c r="C121" t="n">
-        <v>0.107174</v>
+        <v>0.09923750000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.117967</v>
+        <v>0.114674</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.120162</v>
+        <v>0.120351</v>
       </c>
       <c r="C122" t="n">
-        <v>0.111058</v>
+        <v>0.103078</v>
       </c>
       <c r="D122" t="n">
-        <v>0.125087</v>
+        <v>0.120479</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.12516</v>
+        <v>0.12503</v>
       </c>
       <c r="C123" t="n">
-        <v>0.117304</v>
+        <v>0.108934</v>
       </c>
       <c r="D123" t="n">
-        <v>0.11761</v>
+        <v>0.112722</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.135213</v>
+        <v>0.140567</v>
       </c>
       <c r="C124" t="n">
-        <v>0.102703</v>
+        <v>0.0975444</v>
       </c>
       <c r="D124" t="n">
-        <v>0.118691</v>
+        <v>0.113928</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.137331</v>
+        <v>0.134648</v>
       </c>
       <c r="C125" t="n">
-        <v>0.104147</v>
+        <v>0.0986692</v>
       </c>
       <c r="D125" t="n">
-        <v>0.119803</v>
+        <v>0.115105</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.13761</v>
+        <v>0.134689</v>
       </c>
       <c r="C126" t="n">
-        <v>0.105551</v>
+        <v>0.09994069999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.121041</v>
+        <v>0.116286</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.137824</v>
+        <v>0.134842</v>
       </c>
       <c r="C127" t="n">
-        <v>0.107259</v>
+        <v>0.101306</v>
       </c>
       <c r="D127" t="n">
-        <v>0.122472</v>
+        <v>0.117797</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.137969</v>
+        <v>0.135168</v>
       </c>
       <c r="C128" t="n">
-        <v>0.108827</v>
+        <v>0.103057</v>
       </c>
       <c r="D128" t="n">
-        <v>0.123992</v>
+        <v>0.119008</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.138587</v>
+        <v>0.134784</v>
       </c>
       <c r="C129" t="n">
-        <v>0.110531</v>
+        <v>0.104398</v>
       </c>
       <c r="D129" t="n">
-        <v>0.125547</v>
+        <v>0.120289</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.138418</v>
+        <v>0.135299</v>
       </c>
       <c r="C130" t="n">
-        <v>0.112119</v>
+        <v>0.106035</v>
       </c>
       <c r="D130" t="n">
-        <v>0.127083</v>
+        <v>0.122088</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.139075</v>
+        <v>0.151423</v>
       </c>
       <c r="C131" t="n">
-        <v>0.11409</v>
+        <v>0.108032</v>
       </c>
       <c r="D131" t="n">
-        <v>0.129012</v>
+        <v>0.123714</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.139357</v>
+        <v>0.13621</v>
       </c>
       <c r="C132" t="n">
-        <v>0.116169</v>
+        <v>0.110064</v>
       </c>
       <c r="D132" t="n">
-        <v>0.134582</v>
+        <v>0.125813</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.140214</v>
+        <v>0.136931</v>
       </c>
       <c r="C133" t="n">
-        <v>0.11847</v>
+        <v>0.112122</v>
       </c>
       <c r="D133" t="n">
-        <v>0.133626</v>
+        <v>0.127957</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.14173</v>
+        <v>0.137982</v>
       </c>
       <c r="C134" t="n">
-        <v>0.121012</v>
+        <v>0.114491</v>
       </c>
       <c r="D134" t="n">
-        <v>0.136729</v>
+        <v>0.130927</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.143342</v>
+        <v>0.139621</v>
       </c>
       <c r="C135" t="n">
-        <v>0.124157</v>
+        <v>0.117559</v>
       </c>
       <c r="D135" t="n">
-        <v>0.140768</v>
+        <v>0.135254</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.145878</v>
+        <v>0.142225</v>
       </c>
       <c r="C136" t="n">
-        <v>0.128464</v>
+        <v>0.121446</v>
       </c>
       <c r="D136" t="n">
-        <v>0.147808</v>
+        <v>0.141525</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.150681</v>
+        <v>0.146379</v>
       </c>
       <c r="C137" t="n">
-        <v>0.135041</v>
+        <v>0.127317</v>
       </c>
       <c r="D137" t="n">
-        <v>0.130967</v>
+        <v>0.126908</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.158836</v>
+        <v>0.158161</v>
       </c>
       <c r="C138" t="n">
-        <v>0.117174</v>
+        <v>0.109236</v>
       </c>
       <c r="D138" t="n">
-        <v>0.131116</v>
+        <v>0.127693</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.158064</v>
+        <v>0.157955</v>
       </c>
       <c r="C139" t="n">
-        <v>0.117981</v>
+        <v>0.112988</v>
       </c>
       <c r="D139" t="n">
-        <v>0.131613</v>
+        <v>0.128688</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.157952</v>
+        <v>0.158011</v>
       </c>
       <c r="C140" t="n">
-        <v>0.119335</v>
+        <v>0.11187</v>
       </c>
       <c r="D140" t="n">
-        <v>0.132917</v>
+        <v>0.129947</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158387</v>
+        <v>0.158257</v>
       </c>
       <c r="C141" t="n">
-        <v>0.121033</v>
+        <v>0.129983</v>
       </c>
       <c r="D141" t="n">
-        <v>0.134386</v>
+        <v>0.131122</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158418</v>
+        <v>0.158188</v>
       </c>
       <c r="C142" t="n">
-        <v>0.122813</v>
+        <v>0.114755</v>
       </c>
       <c r="D142" t="n">
-        <v>0.136888</v>
+        <v>0.132622</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.16006</v>
+        <v>0.158547</v>
       </c>
       <c r="C143" t="n">
-        <v>0.125062</v>
+        <v>0.116279</v>
       </c>
       <c r="D143" t="n">
-        <v>0.137124</v>
+        <v>0.133948</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0195573</v>
+        <v>0.0194153</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0210579</v>
+        <v>0.0216239</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0213781</v>
+        <v>0.0213691</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0196024</v>
+        <v>0.0195374</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0210654</v>
+        <v>0.0216454</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0212405</v>
+        <v>0.0213998</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0196585</v>
+        <v>0.0195099</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0210717</v>
+        <v>0.021702</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0212739</v>
+        <v>0.0213302</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0196138</v>
+        <v>0.0196159</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0209249</v>
+        <v>0.0216348</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0213163</v>
+        <v>0.0214157</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0198495</v>
+        <v>0.0196721</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0210021</v>
+        <v>0.0216047</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0214053</v>
+        <v>0.0214411</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0198635</v>
+        <v>0.019936</v>
       </c>
       <c r="C7" t="n">
-        <v>0.021432</v>
+        <v>0.0218027</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0216499</v>
+        <v>0.0215652</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0200199</v>
+        <v>0.020053</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0213844</v>
+        <v>0.0217076</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0218885</v>
+        <v>0.0219328</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0202947</v>
+        <v>0.0205732</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0221166</v>
+        <v>0.0220492</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0206984</v>
+        <v>0.0208326</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0195022</v>
+        <v>0.0195057</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0206767</v>
+        <v>0.0211134</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0209369</v>
+        <v>0.0210429</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0197386</v>
+        <v>0.0195359</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0209956</v>
+        <v>0.0213479</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0211428</v>
+        <v>0.0212355</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0198184</v>
+        <v>0.0196547</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0211655</v>
+        <v>0.021469</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0213379</v>
+        <v>0.0213717</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0199036</v>
+        <v>0.0196779</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0212447</v>
+        <v>0.0216625</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0214887</v>
+        <v>0.0216438</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0200425</v>
+        <v>0.0198289</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0215969</v>
+        <v>0.0221184</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0219087</v>
+        <v>0.0220465</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0201976</v>
+        <v>0.0200262</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0218899</v>
+        <v>0.0223489</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0221878</v>
+        <v>0.0222701</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0201793</v>
+        <v>0.0201187</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0218997</v>
+        <v>0.0226644</v>
       </c>
       <c r="D16" t="n">
-        <v>0.022487</v>
+        <v>0.0224636</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0202945</v>
+        <v>0.0203428</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0222667</v>
+        <v>0.0228301</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0225165</v>
+        <v>0.0225357</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0203638</v>
+        <v>0.0203121</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0224056</v>
+        <v>0.0229613</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0225921</v>
+        <v>0.0226698</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0204441</v>
+        <v>0.0203633</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0229517</v>
+        <v>0.0232357</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0225156</v>
+        <v>0.0226577</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0204956</v>
+        <v>0.0205736</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0231675</v>
+        <v>0.0234648</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0226783</v>
+        <v>0.0228705</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0206672</v>
+        <v>0.020757</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0238117</v>
+        <v>0.0236208</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0231481</v>
+        <v>0.0231643</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0211929</v>
+        <v>0.0218686</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0251692</v>
+        <v>0.0237974</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0239505</v>
+        <v>0.0238218</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0227933</v>
+        <v>0.0246712</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0273364</v>
+        <v>0.0243982</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0219065</v>
+        <v>0.0219548</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0207262</v>
+        <v>0.0205425</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0218208</v>
+        <v>0.0220591</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0221687</v>
+        <v>0.0222198</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0207364</v>
+        <v>0.020479</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0221195</v>
+        <v>0.0223089</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0224334</v>
+        <v>0.0224446</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0210629</v>
+        <v>0.0208477</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0223352</v>
+        <v>0.022642</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0225916</v>
+        <v>0.0226814</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0211709</v>
+        <v>0.020737</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0226329</v>
+        <v>0.0229178</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0229572</v>
+        <v>0.0229599</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0213625</v>
+        <v>0.0211137</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0228654</v>
+        <v>0.0233171</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0232377</v>
+        <v>0.023218</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0212592</v>
+        <v>0.0212632</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0232489</v>
+        <v>0.0235483</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0235875</v>
+        <v>0.0235821</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0215282</v>
+        <v>0.0215058</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0236079</v>
+        <v>0.0240582</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0238879</v>
+        <v>0.0239844</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0215329</v>
+        <v>0.0216391</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0239658</v>
+        <v>0.0243991</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0240902</v>
+        <v>0.024223</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0218678</v>
+        <v>0.0217892</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0243965</v>
+        <v>0.0247556</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0242618</v>
+        <v>0.0243028</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.021846</v>
+        <v>0.0220323</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0251184</v>
+        <v>0.0250999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0248538</v>
+        <v>0.0247875</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0229663</v>
+        <v>0.0235264</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0260728</v>
+        <v>0.025729</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0256254</v>
+        <v>0.0255737</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0258538</v>
+        <v>0.0248101</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0279637</v>
+        <v>0.0263997</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0282743</v>
+        <v>0.0269609</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.027219</v>
+        <v>0.0283369</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0300865</v>
+        <v>0.0273788</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03264</v>
+        <v>0.0306652</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0306225</v>
+        <v>0.0330228</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0340053</v>
+        <v>0.0296814</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0231121</v>
+        <v>0.0229868</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0217189</v>
+        <v>0.021443</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0231279</v>
+        <v>0.0231451</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0233196</v>
+        <v>0.0231975</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0217601</v>
+        <v>0.0216247</v>
       </c>
       <c r="C39" t="n">
-        <v>0.023363</v>
+        <v>0.0234074</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0234505</v>
+        <v>0.023578</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0217765</v>
+        <v>0.0217207</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0236661</v>
+        <v>0.0237303</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0237103</v>
+        <v>0.0238034</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0219635</v>
+        <v>0.0218359</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0239824</v>
+        <v>0.0241258</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0240519</v>
+        <v>0.0241476</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0223007</v>
+        <v>0.0220014</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0243096</v>
+        <v>0.0246142</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0244074</v>
+        <v>0.0244585</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0223337</v>
+        <v>0.0222703</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0248165</v>
+        <v>0.0249368</v>
       </c>
       <c r="D43" t="n">
-        <v>0.024652</v>
+        <v>0.0248184</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0227141</v>
+        <v>0.0225098</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0252446</v>
+        <v>0.0254869</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0249876</v>
+        <v>0.0249919</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0229077</v>
+        <v>0.0228188</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0256671</v>
+        <v>0.025803</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0253866</v>
+        <v>0.0253486</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0232043</v>
+        <v>0.0233381</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0264118</v>
+        <v>0.0264864</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0259842</v>
+        <v>0.0258325</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0239939</v>
+        <v>0.0239794</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0272724</v>
+        <v>0.027045</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0267923</v>
+        <v>0.026834</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0252875</v>
+        <v>0.0253768</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0282755</v>
+        <v>0.027718</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0284919</v>
+        <v>0.0280441</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0273085</v>
+        <v>0.0278493</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0301641</v>
+        <v>0.028867</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0308298</v>
+        <v>0.0302709</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0305912</v>
+        <v>0.0307099</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0323632</v>
+        <v>0.0306649</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0351446</v>
+        <v>0.0343465</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0328876</v>
+        <v>0.0351755</v>
       </c>
       <c r="C51" t="n">
-        <v>0.035846</v>
+        <v>0.0336473</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0237157</v>
+        <v>0.0237661</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0384423</v>
+        <v>0.0412116</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0413357</v>
+        <v>0.0390031</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0240406</v>
+        <v>0.023982</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0232142</v>
+        <v>0.0229682</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0247368</v>
+        <v>0.0246872</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0242822</v>
+        <v>0.024279</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0233043</v>
+        <v>0.0232097</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0249934</v>
+        <v>0.0251282</v>
       </c>
       <c r="D54" t="n">
-        <v>0.024568</v>
+        <v>0.0244585</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0234338</v>
+        <v>0.0235115</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0253318</v>
+        <v>0.0254442</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0248245</v>
+        <v>0.0248733</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0238512</v>
+        <v>0.0235161</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0257788</v>
+        <v>0.0257455</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0251885</v>
+        <v>0.0251518</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.023944</v>
+        <v>0.0239066</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0261203</v>
+        <v>0.0261672</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0255161</v>
+        <v>0.0254793</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0240753</v>
+        <v>0.024243</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0265594</v>
+        <v>0.026588</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0258947</v>
+        <v>0.0259207</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0246348</v>
+        <v>0.0247914</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0271615</v>
+        <v>0.0271725</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0264293</v>
+        <v>0.0264931</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0252475</v>
+        <v>0.0255176</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0279076</v>
+        <v>0.0277483</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0271971</v>
+        <v>0.027099</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0261247</v>
+        <v>0.026534</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0288666</v>
+        <v>0.028494</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0283302</v>
+        <v>0.0280724</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0272718</v>
+        <v>0.0280627</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0299679</v>
+        <v>0.0294231</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0300761</v>
+        <v>0.0297869</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0293681</v>
+        <v>0.0299045</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0315985</v>
+        <v>0.0308058</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0323287</v>
+        <v>0.0324028</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0323245</v>
+        <v>0.032948</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0338399</v>
+        <v>0.0329246</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0362684</v>
+        <v>0.0366578</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0353548</v>
+        <v>0.0367262</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0369245</v>
+        <v>0.0362371</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0419968</v>
+        <v>0.0425531</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0412925</v>
+        <v>0.0419874</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0417786</v>
+        <v>0.0415188</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0255116</v>
+        <v>0.0261618</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0283862</v>
+        <v>0.0271796</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0268517</v>
+        <v>0.0271385</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0261657</v>
+        <v>0.0261423</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0284896</v>
+        <v>0.0274936</v>
       </c>
       <c r="C68" t="n">
-        <v>0.027128</v>
+        <v>0.0275206</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0264181</v>
+        <v>0.0267481</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0284855</v>
+        <v>0.0275939</v>
       </c>
       <c r="C69" t="n">
-        <v>0.027394</v>
+        <v>0.0274474</v>
       </c>
       <c r="D69" t="n">
-        <v>0.027202</v>
+        <v>0.0271621</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0286694</v>
+        <v>0.0278968</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0276907</v>
+        <v>0.0280971</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0270156</v>
+        <v>0.0271824</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0289065</v>
+        <v>0.0283107</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0281646</v>
+        <v>0.0284556</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0273816</v>
+        <v>0.027856</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0291699</v>
+        <v>0.0288352</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0286281</v>
+        <v>0.0285774</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0278626</v>
+        <v>0.0283167</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.02956</v>
+        <v>0.0292852</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0290091</v>
+        <v>0.0291334</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0290087</v>
+        <v>0.0286846</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0302572</v>
+        <v>0.0300118</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0300555</v>
+        <v>0.0302271</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0299227</v>
+        <v>0.029732</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0312024</v>
+        <v>0.0309126</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0309909</v>
+        <v>0.0310089</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0305651</v>
+        <v>0.0309111</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0322202</v>
+        <v>0.0322144</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0321845</v>
+        <v>0.0320291</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0326274</v>
+        <v>0.0323416</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0340864</v>
+        <v>0.0340831</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0336774</v>
+        <v>0.0335265</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0346516</v>
+        <v>0.034909</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0362868</v>
+        <v>0.0363267</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0358184</v>
+        <v>0.0349901</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0382183</v>
+        <v>0.0384363</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0397923</v>
+        <v>0.0399878</v>
       </c>
       <c r="C79" t="n">
-        <v>0.03875</v>
+        <v>0.0386246</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0436075</v>
+        <v>0.0434615</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0445316</v>
+        <v>0.0445954</v>
       </c>
       <c r="C80" t="n">
-        <v>0.042998</v>
+        <v>0.042655</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0399738</v>
+        <v>0.0395219</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0558824</v>
+        <v>0.0549282</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0362509</v>
+        <v>0.0360976</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0408774</v>
+        <v>0.0406228</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0566294</v>
+        <v>0.0552393</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0368703</v>
+        <v>0.0368049</v>
       </c>
       <c r="D82" t="n">
-        <v>0.041224</v>
+        <v>0.0413897</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0563176</v>
+        <v>0.0552295</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0378075</v>
+        <v>0.0374727</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0421912</v>
+        <v>0.0420138</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0563435</v>
+        <v>0.0554961</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0387014</v>
+        <v>0.0384703</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0429272</v>
+        <v>0.0429424</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0566188</v>
+        <v>0.0557156</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0401048</v>
+        <v>0.0398851</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0434836</v>
+        <v>0.0439217</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0568309</v>
+        <v>0.0559025</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0412144</v>
+        <v>0.041212</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0446018</v>
+        <v>0.0446402</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0570734</v>
+        <v>0.0561817</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0429106</v>
+        <v>0.0426956</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0448619</v>
+        <v>0.0450756</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0573966</v>
+        <v>0.0566051</v>
       </c>
       <c r="C88" t="n">
-        <v>0.043893</v>
+        <v>0.0440868</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0462234</v>
+        <v>0.0462171</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0580201</v>
+        <v>0.0570507</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0458116</v>
+        <v>0.0469162</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0469054</v>
+        <v>0.0470852</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0585683</v>
+        <v>0.0578279</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0468033</v>
+        <v>0.0469989</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0484222</v>
+        <v>0.0486602</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0596069</v>
+        <v>0.0587764</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0491443</v>
+        <v>0.0487615</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0501137</v>
+        <v>0.0506263</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0612008</v>
+        <v>0.0607556</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0506259</v>
+        <v>0.0511153</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0526288</v>
+        <v>0.0527525</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.06360680000000001</v>
+        <v>0.06326270000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0539369</v>
+        <v>0.0539851</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0570036</v>
+        <v>0.0575589</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0674138</v>
+        <v>0.0670076</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0573898</v>
+        <v>0.057763</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0779038</v>
+        <v>0.0780261</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0860108</v>
+        <v>0.0857054</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0689467</v>
+        <v>0.0689588</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0784055</v>
+        <v>0.0783375</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0860641</v>
+        <v>0.0858095</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0695144</v>
+        <v>0.0693893</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0788276</v>
+        <v>0.07880520000000001</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0860847</v>
+        <v>0.0859026</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0700875</v>
+        <v>0.0698607</v>
       </c>
       <c r="D97" t="n">
-        <v>0.079332</v>
+        <v>0.0840094</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.08630110000000001</v>
+        <v>0.08584120000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0705413</v>
+        <v>0.0704883</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0799376</v>
+        <v>0.0799682</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0861739</v>
+        <v>0.0860358</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0710433</v>
+        <v>0.0710867</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0804945</v>
+        <v>0.0805249</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0863391</v>
+        <v>0.08613220000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0718377</v>
+        <v>0.07167949999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.08352569999999999</v>
+        <v>0.08110009999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08666889999999999</v>
+        <v>0.0863662</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0727255</v>
+        <v>0.0724897</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0819178</v>
+        <v>0.08169940000000001</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.08728959999999999</v>
+        <v>0.0866415</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0735276</v>
+        <v>0.0733698</v>
       </c>
       <c r="D102" t="n">
-        <v>0.082604</v>
+        <v>0.0827919</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.08735950000000001</v>
+        <v>0.0870681</v>
       </c>
       <c r="C103" t="n">
-        <v>0.07464899999999999</v>
+        <v>0.07428369999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0836001</v>
+        <v>0.08383400000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0878285</v>
+        <v>0.08774650000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.07565570000000001</v>
+        <v>0.075404</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0848966</v>
+        <v>0.0848448</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0887225</v>
+        <v>0.088522</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0771792</v>
+        <v>0.0770057</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0865002</v>
+        <v>0.08641409999999999</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0897467</v>
+        <v>0.0897331</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0790395</v>
+        <v>0.0787163</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0887524</v>
+        <v>0.08930979999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0919164</v>
+        <v>0.0917357</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0811708</v>
+        <v>0.0812311</v>
       </c>
       <c r="D107" t="n">
-        <v>0.09246</v>
+        <v>0.0923945</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.095264</v>
+        <v>0.09504369999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0850706</v>
+        <v>0.08483590000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0963499</v>
+        <v>0.0966943</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100177</v>
+        <v>0.0998652</v>
       </c>
       <c r="C109" t="n">
-        <v>0.09109979999999999</v>
+        <v>0.0912485</v>
       </c>
       <c r="D109" t="n">
-        <v>0.09687659999999999</v>
+        <v>0.0971948</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.109731</v>
+        <v>0.107502</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0838358</v>
+        <v>0.08374280000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.09755229999999999</v>
+        <v>0.0975129</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.110159</v>
+        <v>0.107718</v>
       </c>
       <c r="C111" t="n">
-        <v>0.084687</v>
+        <v>0.0843222</v>
       </c>
       <c r="D111" t="n">
-        <v>0.09822350000000001</v>
+        <v>0.0989887</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.110416</v>
+        <v>0.107589</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0853404</v>
+        <v>0.08553180000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.09925680000000001</v>
+        <v>0.09941469999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.110815</v>
+        <v>0.107676</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0864506</v>
+        <v>0.0875951</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0999882</v>
+        <v>0.101059</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.110987</v>
+        <v>0.107784</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0874132</v>
+        <v>0.0876169</v>
       </c>
       <c r="D114" t="n">
-        <v>0.10087</v>
+        <v>0.102087</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.111438</v>
+        <v>0.108132</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0886392</v>
+        <v>0.08918860000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.102165</v>
+        <v>0.103078</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.111623</v>
+        <v>0.108296</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0897167</v>
+        <v>0.09008869999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.103046</v>
+        <v>0.103808</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.112439</v>
+        <v>0.108749</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0910931</v>
+        <v>0.0914533</v>
       </c>
       <c r="D117" t="n">
-        <v>0.104522</v>
+        <v>0.104958</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.113125</v>
+        <v>0.109138</v>
       </c>
       <c r="C118" t="n">
-        <v>0.09282600000000001</v>
+        <v>0.09316389999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.106335</v>
+        <v>0.107701</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.114083</v>
+        <v>0.10989</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0943092</v>
+        <v>0.09521490000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.108081</v>
+        <v>0.109719</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.115242</v>
+        <v>0.1113</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0966987</v>
+        <v>0.0968738</v>
       </c>
       <c r="D120" t="n">
-        <v>0.110746</v>
+        <v>0.112774</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.117273</v>
+        <v>0.112938</v>
       </c>
       <c r="C121" t="n">
-        <v>0.09923750000000001</v>
+        <v>0.100238</v>
       </c>
       <c r="D121" t="n">
-        <v>0.114674</v>
+        <v>0.116771</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.120351</v>
+        <v>0.116105</v>
       </c>
       <c r="C122" t="n">
-        <v>0.103078</v>
+        <v>0.103278</v>
       </c>
       <c r="D122" t="n">
-        <v>0.120479</v>
+        <v>0.122632</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.12503</v>
+        <v>0.120694</v>
       </c>
       <c r="C123" t="n">
-        <v>0.108934</v>
+        <v>0.110098</v>
       </c>
       <c r="D123" t="n">
-        <v>0.112722</v>
+        <v>0.114485</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.140567</v>
+        <v>0.138645</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0975444</v>
+        <v>0.09713919999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>0.113928</v>
+        <v>0.114047</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.134648</v>
+        <v>0.141863</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0986692</v>
+        <v>0.0984283</v>
       </c>
       <c r="D125" t="n">
-        <v>0.115105</v>
+        <v>0.115268</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.134689</v>
+        <v>0.14135</v>
       </c>
       <c r="C126" t="n">
-        <v>0.09994069999999999</v>
+        <v>0.099921</v>
       </c>
       <c r="D126" t="n">
-        <v>0.116286</v>
+        <v>0.116517</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.134842</v>
+        <v>0.141633</v>
       </c>
       <c r="C127" t="n">
-        <v>0.101306</v>
+        <v>0.100909</v>
       </c>
       <c r="D127" t="n">
-        <v>0.117797</v>
+        <v>0.117734</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.135168</v>
+        <v>0.141851</v>
       </c>
       <c r="C128" t="n">
-        <v>0.103057</v>
+        <v>0.102671</v>
       </c>
       <c r="D128" t="n">
-        <v>0.119008</v>
+        <v>0.119115</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.134784</v>
+        <v>0.141969</v>
       </c>
       <c r="C129" t="n">
-        <v>0.104398</v>
+        <v>0.104162</v>
       </c>
       <c r="D129" t="n">
-        <v>0.120289</v>
+        <v>0.12097</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.135299</v>
+        <v>0.142016</v>
       </c>
       <c r="C130" t="n">
-        <v>0.106035</v>
+        <v>0.111036</v>
       </c>
       <c r="D130" t="n">
-        <v>0.122088</v>
+        <v>0.122032</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.151423</v>
+        <v>0.142939</v>
       </c>
       <c r="C131" t="n">
-        <v>0.108032</v>
+        <v>0.108279</v>
       </c>
       <c r="D131" t="n">
-        <v>0.123714</v>
+        <v>0.124538</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.13621</v>
+        <v>0.143359</v>
       </c>
       <c r="C132" t="n">
-        <v>0.110064</v>
+        <v>0.111497</v>
       </c>
       <c r="D132" t="n">
-        <v>0.125813</v>
+        <v>0.126538</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.136931</v>
+        <v>0.144303</v>
       </c>
       <c r="C133" t="n">
-        <v>0.112122</v>
+        <v>0.112151</v>
       </c>
       <c r="D133" t="n">
-        <v>0.127957</v>
+        <v>0.128264</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.137982</v>
+        <v>0.144732</v>
       </c>
       <c r="C134" t="n">
-        <v>0.114491</v>
+        <v>0.114162</v>
       </c>
       <c r="D134" t="n">
-        <v>0.130927</v>
+        <v>0.131186</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.139621</v>
+        <v>0.14612</v>
       </c>
       <c r="C135" t="n">
-        <v>0.117559</v>
+        <v>0.117577</v>
       </c>
       <c r="D135" t="n">
-        <v>0.135254</v>
+        <v>0.135474</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.142225</v>
+        <v>0.148798</v>
       </c>
       <c r="C136" t="n">
-        <v>0.121446</v>
+        <v>0.121375</v>
       </c>
       <c r="D136" t="n">
-        <v>0.141525</v>
+        <v>0.141695</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.146379</v>
+        <v>0.153035</v>
       </c>
       <c r="C137" t="n">
-        <v>0.127317</v>
+        <v>0.127358</v>
       </c>
       <c r="D137" t="n">
-        <v>0.126908</v>
+        <v>0.125329</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.158161</v>
+        <v>0.157999</v>
       </c>
       <c r="C138" t="n">
-        <v>0.109236</v>
+        <v>0.109073</v>
       </c>
       <c r="D138" t="n">
-        <v>0.127693</v>
+        <v>0.127634</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.157955</v>
+        <v>0.159519</v>
       </c>
       <c r="C139" t="n">
-        <v>0.112988</v>
+        <v>0.112822</v>
       </c>
       <c r="D139" t="n">
-        <v>0.128688</v>
+        <v>0.127609</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.158011</v>
+        <v>0.158242</v>
       </c>
       <c r="C140" t="n">
-        <v>0.11187</v>
+        <v>0.121896</v>
       </c>
       <c r="D140" t="n">
-        <v>0.129947</v>
+        <v>0.128871</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158257</v>
+        <v>0.158282</v>
       </c>
       <c r="C141" t="n">
-        <v>0.129983</v>
+        <v>0.112717</v>
       </c>
       <c r="D141" t="n">
-        <v>0.131122</v>
+        <v>0.130128</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158188</v>
+        <v>0.158287</v>
       </c>
       <c r="C142" t="n">
-        <v>0.114755</v>
+        <v>0.114199</v>
       </c>
       <c r="D142" t="n">
-        <v>0.132622</v>
+        <v>0.131577</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158547</v>
+        <v>0.158463</v>
       </c>
       <c r="C143" t="n">
-        <v>0.116279</v>
+        <v>0.115987</v>
       </c>
       <c r="D143" t="n">
-        <v>0.133948</v>
+        <v>0.133012</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0194153</v>
+        <v>0.0196963</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0216239</v>
+        <v>0.0370058</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0213691</v>
+        <v>0.0228125</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0195374</v>
+        <v>0.0197664</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0216454</v>
+        <v>0.0418052</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0213998</v>
+        <v>0.0226735</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0195099</v>
+        <v>0.0200026</v>
       </c>
       <c r="C4" t="n">
-        <v>0.021702</v>
+        <v>0.0487309</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0213302</v>
+        <v>0.022881</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0196159</v>
+        <v>0.0201517</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0216348</v>
+        <v>0.057161</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0214157</v>
+        <v>0.0228038</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0196721</v>
+        <v>0.0201028</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0216047</v>
+        <v>0.0638789</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0214411</v>
+        <v>0.0230981</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.019936</v>
+        <v>0.0204562</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0218027</v>
+        <v>0.07558529999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0215652</v>
+        <v>0.0232579</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.020053</v>
+        <v>0.0206393</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0217076</v>
+        <v>0.0263746</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0219328</v>
+        <v>0.0235219</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0205732</v>
+        <v>0.0210339</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0220492</v>
+        <v>0.0290195</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0208326</v>
+        <v>0.0223514</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0195057</v>
+        <v>0.0194206</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0211134</v>
+        <v>0.0319614</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0210429</v>
+        <v>0.0232438</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0195359</v>
+        <v>0.0195253</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0213479</v>
+        <v>0.0351258</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0212355</v>
+        <v>0.0227364</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0196547</v>
+        <v>0.0197643</v>
       </c>
       <c r="C12" t="n">
-        <v>0.021469</v>
+        <v>0.0398863</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0213717</v>
+        <v>0.0231432</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0196779</v>
+        <v>0.019862</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0216625</v>
+        <v>0.0439152</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0216438</v>
+        <v>0.0234719</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0198289</v>
+        <v>0.0200936</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0221184</v>
+        <v>0.0487144</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0220465</v>
+        <v>0.0235736</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0200262</v>
+        <v>0.0201485</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0223489</v>
+        <v>0.0551437</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0222701</v>
+        <v>0.0239307</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0201187</v>
+        <v>0.0204092</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0226644</v>
+        <v>0.0637769</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0224636</v>
+        <v>0.0240582</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0203428</v>
+        <v>0.0204507</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0228301</v>
+        <v>0.0718377</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0225357</v>
+        <v>0.0241979</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0203121</v>
+        <v>0.0206229</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0229613</v>
+        <v>0.081882</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0226698</v>
+        <v>0.0242753</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0203633</v>
+        <v>0.0210343</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0232357</v>
+        <v>0.09108090000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0226577</v>
+        <v>0.0244821</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0205736</v>
+        <v>0.0211918</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0234648</v>
+        <v>0.0974773</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0228705</v>
+        <v>0.0247755</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.020757</v>
+        <v>0.0215584</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0236208</v>
+        <v>0.106323</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0231643</v>
+        <v>0.0250051</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0218686</v>
+        <v>0.0226513</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0237974</v>
+        <v>0.0397852</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0238218</v>
+        <v>0.0262359</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0246712</v>
+        <v>0.0258862</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0243982</v>
+        <v>0.0423426</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0219548</v>
+        <v>0.0230816</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0205425</v>
+        <v>0.020452</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0220591</v>
+        <v>0.0452109</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0222198</v>
+        <v>0.0233082</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.020479</v>
+        <v>0.0206124</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0223089</v>
+        <v>0.0487996</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0224446</v>
+        <v>0.0236264</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0208477</v>
+        <v>0.0207985</v>
       </c>
       <c r="C26" t="n">
-        <v>0.022642</v>
+        <v>0.0527075</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0226814</v>
+        <v>0.0238223</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.020737</v>
+        <v>0.0209652</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0229178</v>
+        <v>0.0566831</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0229599</v>
+        <v>0.0242118</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0211137</v>
+        <v>0.0211055</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0233171</v>
+        <v>0.06295779999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.023218</v>
+        <v>0.0245034</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0212632</v>
+        <v>0.0213203</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0235483</v>
+        <v>0.0682238</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0235821</v>
+        <v>0.0247956</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0215058</v>
+        <v>0.0217535</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0240582</v>
+        <v>0.0771483</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0239844</v>
+        <v>0.0251358</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0216391</v>
+        <v>0.0218513</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0243991</v>
+        <v>0.08561050000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.024223</v>
+        <v>0.0254192</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0217892</v>
+        <v>0.0222928</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0247556</v>
+        <v>0.0935257</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0243028</v>
+        <v>0.025719</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0220323</v>
+        <v>0.0226911</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0250999</v>
+        <v>0.103656</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0247875</v>
+        <v>0.0260563</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0235264</v>
+        <v>0.0235535</v>
       </c>
       <c r="C34" t="n">
-        <v>0.025729</v>
+        <v>0.113227</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0255737</v>
+        <v>0.0271309</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0248101</v>
+        <v>0.0253242</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0263997</v>
+        <v>0.123492</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0269609</v>
+        <v>0.0289687</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0283369</v>
+        <v>0.0277768</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0273788</v>
+        <v>0.13034</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0306652</v>
+        <v>0.0327012</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0330228</v>
+        <v>0.0318669</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0296814</v>
+        <v>0.0509253</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0229868</v>
+        <v>0.0240634</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.021443</v>
+        <v>0.0214937</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0231451</v>
+        <v>0.0528575</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0231975</v>
+        <v>0.0243796</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0216247</v>
+        <v>0.0216708</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0234074</v>
+        <v>0.0577256</v>
       </c>
       <c r="D39" t="n">
-        <v>0.023578</v>
+        <v>0.0245387</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0217207</v>
+        <v>0.0218145</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0237303</v>
+        <v>0.0607325</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0238034</v>
+        <v>0.0247873</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0218359</v>
+        <v>0.0221247</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0241258</v>
+        <v>0.0659752</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0241476</v>
+        <v>0.0250755</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0220014</v>
+        <v>0.0222181</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0246142</v>
+        <v>0.0703324</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0244585</v>
+        <v>0.0252754</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0222703</v>
+        <v>0.0224512</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0249368</v>
+        <v>0.0767769</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0248184</v>
+        <v>0.0257843</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0225098</v>
+        <v>0.022927</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0254869</v>
+        <v>0.08390450000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0249919</v>
+        <v>0.0261995</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0228188</v>
+        <v>0.0232657</v>
       </c>
       <c r="C45" t="n">
-        <v>0.025803</v>
+        <v>0.0925863</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0253486</v>
+        <v>0.0266811</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0233381</v>
+        <v>0.0238669</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0264864</v>
+        <v>0.101274</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0258325</v>
+        <v>0.0271738</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0239794</v>
+        <v>0.0247955</v>
       </c>
       <c r="C47" t="n">
-        <v>0.027045</v>
+        <v>0.11083</v>
       </c>
       <c r="D47" t="n">
-        <v>0.026834</v>
+        <v>0.0278438</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0253768</v>
+        <v>0.0260839</v>
       </c>
       <c r="C48" t="n">
-        <v>0.027718</v>
+        <v>0.118478</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0280441</v>
+        <v>0.0291553</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0278493</v>
+        <v>0.0280282</v>
       </c>
       <c r="C49" t="n">
-        <v>0.028867</v>
+        <v>0.125043</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0302709</v>
+        <v>0.0325561</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0307099</v>
+        <v>0.0309436</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0306649</v>
+        <v>0.133906</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0343465</v>
+        <v>0.0358238</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0351755</v>
+        <v>0.0352915</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0336473</v>
+        <v>0.0529698</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0237661</v>
+        <v>0.0243208</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0412116</v>
+        <v>0.0413191</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0390031</v>
+        <v>0.0564495</v>
       </c>
       <c r="D52" t="n">
-        <v>0.023982</v>
+        <v>0.0245637</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0229682</v>
+        <v>0.0232368</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0246872</v>
+        <v>0.0593078</v>
       </c>
       <c r="D53" t="n">
-        <v>0.024279</v>
+        <v>0.0248053</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0232097</v>
+        <v>0.0234077</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0251282</v>
+        <v>0.0635886</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0244585</v>
+        <v>0.0250541</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0235115</v>
+        <v>0.0234742</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0254442</v>
+        <v>0.0686663</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0248733</v>
+        <v>0.0253017</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0235161</v>
+        <v>0.0236931</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0257455</v>
+        <v>0.07259549999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0251518</v>
+        <v>0.0258172</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0239066</v>
+        <v>0.0240065</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0261672</v>
+        <v>0.07936020000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0254793</v>
+        <v>0.0261726</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.024243</v>
+        <v>0.0243635</v>
       </c>
       <c r="C58" t="n">
-        <v>0.026588</v>
+        <v>0.08643149999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0259207</v>
+        <v>0.0266081</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0247914</v>
+        <v>0.024742</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0271725</v>
+        <v>0.09494660000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0264931</v>
+        <v>0.0271423</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0255176</v>
+        <v>0.0254421</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0277483</v>
+        <v>0.104919</v>
       </c>
       <c r="D60" t="n">
-        <v>0.027099</v>
+        <v>0.0280035</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.026534</v>
+        <v>0.0265507</v>
       </c>
       <c r="C61" t="n">
-        <v>0.028494</v>
+        <v>0.114287</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0280724</v>
+        <v>0.02913</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0280627</v>
+        <v>0.0278997</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0294231</v>
+        <v>0.122709</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0297869</v>
+        <v>0.0307407</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0299045</v>
+        <v>0.0300643</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0308058</v>
+        <v>0.129562</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0324028</v>
+        <v>0.0332634</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.032948</v>
+        <v>0.0326618</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0329246</v>
+        <v>0.137533</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0366578</v>
+        <v>0.0376615</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0367262</v>
+        <v>0.0366612</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0362371</v>
+        <v>0.0546936</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0425531</v>
+        <v>0.0436362</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0419874</v>
+        <v>0.0418935</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0415188</v>
+        <v>0.0582601</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0261618</v>
+        <v>0.0266204</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0271796</v>
+        <v>0.0281649</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0271385</v>
+        <v>0.0617354</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0261423</v>
+        <v>0.0269618</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0274936</v>
+        <v>0.0283172</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0275206</v>
+        <v>0.0656432</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0267481</v>
+        <v>0.0273013</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0275939</v>
+        <v>0.028481</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0274474</v>
+        <v>0.07027899999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0271621</v>
+        <v>0.0276864</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0278968</v>
+        <v>0.0286097</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0280971</v>
+        <v>0.07689410000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0271824</v>
+        <v>0.0282598</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0283107</v>
+        <v>0.0290029</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0284556</v>
+        <v>0.0822326</v>
       </c>
       <c r="D71" t="n">
-        <v>0.027856</v>
+        <v>0.0286701</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0288352</v>
+        <v>0.0293089</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0285774</v>
+        <v>0.0895243</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0283167</v>
+        <v>0.0289658</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0292852</v>
+        <v>0.0298234</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0291334</v>
+        <v>0.097702</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0286846</v>
+        <v>0.0296943</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0300118</v>
+        <v>0.0304538</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0302271</v>
+        <v>0.107574</v>
       </c>
       <c r="D74" t="n">
-        <v>0.029732</v>
+        <v>0.0308191</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0309126</v>
+        <v>0.0316262</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0310089</v>
+        <v>0.117728</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0309111</v>
+        <v>0.0320137</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0322144</v>
+        <v>0.0328268</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0320291</v>
+        <v>0.127246</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0323416</v>
+        <v>0.0337115</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0340831</v>
+        <v>0.034701</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0335265</v>
+        <v>0.134567</v>
       </c>
       <c r="D77" t="n">
-        <v>0.034909</v>
+        <v>0.0362699</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0363267</v>
+        <v>0.0373006</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0349901</v>
+        <v>0.142834</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0384363</v>
+        <v>0.0399167</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0399878</v>
+        <v>0.0405111</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0386246</v>
+        <v>0.064026</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0434615</v>
+        <v>0.0449066</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0445954</v>
+        <v>0.0453079</v>
       </c>
       <c r="C80" t="n">
-        <v>0.042655</v>
+        <v>0.0678048</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0395219</v>
+        <v>0.0395087</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0549282</v>
+        <v>0.0556282</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0360976</v>
+        <v>0.0717135</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0406228</v>
+        <v>0.0404645</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0552393</v>
+        <v>0.0556663</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0368049</v>
+        <v>0.0761748</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0413897</v>
+        <v>0.0415858</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0552295</v>
+        <v>0.0556563</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0374727</v>
+        <v>0.0812459</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0420138</v>
+        <v>0.0423343</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0554961</v>
+        <v>0.0557576</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0384703</v>
+        <v>0.0872613</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0429424</v>
+        <v>0.0424792</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0557156</v>
+        <v>0.0561199</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0398851</v>
+        <v>0.0936657</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0439217</v>
+        <v>0.043633</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0559025</v>
+        <v>0.0563284</v>
       </c>
       <c r="C86" t="n">
-        <v>0.041212</v>
+        <v>0.101731</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0446402</v>
+        <v>0.0447561</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0561817</v>
+        <v>0.0566175</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0426956</v>
+        <v>0.111373</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0450756</v>
+        <v>0.0453725</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0566051</v>
+        <v>0.0569801</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0440868</v>
+        <v>0.122588</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0462171</v>
+        <v>0.0460016</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0570507</v>
+        <v>0.0575295</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0469162</v>
+        <v>0.133557</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0470852</v>
+        <v>0.0469517</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0578279</v>
+        <v>0.0584884</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0469989</v>
+        <v>0.145035</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0486602</v>
+        <v>0.0487554</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0587764</v>
+        <v>0.059328</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0487615</v>
+        <v>0.154768</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0506263</v>
+        <v>0.0506627</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0607556</v>
+        <v>0.0609849</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0511153</v>
+        <v>0.165492</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0527525</v>
+        <v>0.0536386</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.06326270000000001</v>
+        <v>0.06332119999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0539851</v>
+        <v>0.17807</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0575589</v>
+        <v>0.058453</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0670076</v>
+        <v>0.06701559999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.057763</v>
+        <v>0.08862009999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0780261</v>
+        <v>0.0785825</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0857054</v>
+        <v>0.08579050000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0689588</v>
+        <v>0.0928022</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0783375</v>
+        <v>0.0789784</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0858095</v>
+        <v>0.085844</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0693893</v>
+        <v>0.0974573</v>
       </c>
       <c r="D96" t="n">
-        <v>0.07880520000000001</v>
+        <v>0.07963629999999999</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0859026</v>
+        <v>0.0859253</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0698607</v>
+        <v>0.102899</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0840094</v>
+        <v>0.0799203</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.08584120000000001</v>
+        <v>0.0859871</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0704883</v>
+        <v>0.109426</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0799682</v>
+        <v>0.0804226</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0860358</v>
+        <v>0.0861041</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0710867</v>
+        <v>0.117126</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0805249</v>
+        <v>0.0810888</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08613220000000001</v>
+        <v>0.08631809999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.07167949999999999</v>
+        <v>0.126086</v>
       </c>
       <c r="D100" t="n">
-        <v>0.08110009999999999</v>
+        <v>0.0818702</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0863662</v>
+        <v>0.0864688</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0724897</v>
+        <v>0.137067</v>
       </c>
       <c r="D101" t="n">
-        <v>0.08169940000000001</v>
+        <v>0.0822594</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0866415</v>
+        <v>0.087584</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0733698</v>
+        <v>0.149677</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0827919</v>
+        <v>0.0861224</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0870681</v>
+        <v>0.0871972</v>
       </c>
       <c r="C103" t="n">
-        <v>0.07428369999999999</v>
+        <v>0.163346</v>
       </c>
       <c r="D103" t="n">
-        <v>0.08383400000000001</v>
+        <v>0.08439530000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.08774650000000001</v>
+        <v>0.08776539999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.075404</v>
+        <v>0.177727</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0848448</v>
+        <v>0.0860368</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.088522</v>
+        <v>0.0885425</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0770057</v>
+        <v>0.192176</v>
       </c>
       <c r="D105" t="n">
-        <v>0.08641409999999999</v>
+        <v>0.0872131</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0897331</v>
+        <v>0.0897765</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0787163</v>
+        <v>0.209788</v>
       </c>
       <c r="D106" t="n">
-        <v>0.08930979999999999</v>
+        <v>0.0897109</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0917357</v>
+        <v>0.0918954</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0812311</v>
+        <v>0.241063</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0923945</v>
+        <v>0.0933244</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.09504369999999999</v>
+        <v>0.0951462</v>
       </c>
       <c r="C108" t="n">
-        <v>0.08483590000000001</v>
+        <v>0.111904</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0966943</v>
+        <v>0.09642630000000001</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0998652</v>
+        <v>0.100134</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0912485</v>
+        <v>0.106764</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0971948</v>
+        <v>0.0977301</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.107502</v>
+        <v>0.107276</v>
       </c>
       <c r="C110" t="n">
-        <v>0.08374280000000001</v>
+        <v>0.110996</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0975129</v>
+        <v>0.0987176</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.107718</v>
+        <v>0.107381</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0843222</v>
+        <v>0.116155</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0989887</v>
+        <v>0.0995547</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.107589</v>
+        <v>0.10763</v>
       </c>
       <c r="C112" t="n">
-        <v>0.08553180000000001</v>
+        <v>0.123372</v>
       </c>
       <c r="D112" t="n">
-        <v>0.09941469999999999</v>
+        <v>0.100355</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.107676</v>
+        <v>0.10747</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0875951</v>
+        <v>0.12867</v>
       </c>
       <c r="D113" t="n">
-        <v>0.101059</v>
+        <v>0.101544</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.107784</v>
+        <v>0.107654</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0876169</v>
+        <v>0.138409</v>
       </c>
       <c r="D114" t="n">
-        <v>0.102087</v>
+        <v>0.102478</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.108132</v>
+        <v>0.108084</v>
       </c>
       <c r="C115" t="n">
-        <v>0.08918860000000001</v>
+        <v>0.146729</v>
       </c>
       <c r="D115" t="n">
-        <v>0.103078</v>
+        <v>0.103852</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108296</v>
+        <v>0.108774</v>
       </c>
       <c r="C116" t="n">
-        <v>0.09008869999999999</v>
+        <v>0.159703</v>
       </c>
       <c r="D116" t="n">
-        <v>0.103808</v>
+        <v>0.10514</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.108749</v>
+        <v>0.109483</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0914533</v>
+        <v>0.171725</v>
       </c>
       <c r="D117" t="n">
-        <v>0.104958</v>
+        <v>0.106707</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.109138</v>
+        <v>0.110216</v>
       </c>
       <c r="C118" t="n">
-        <v>0.09316389999999999</v>
+        <v>0.189215</v>
       </c>
       <c r="D118" t="n">
-        <v>0.107701</v>
+        <v>0.107111</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.10989</v>
+        <v>0.111529</v>
       </c>
       <c r="C119" t="n">
-        <v>0.09521490000000001</v>
+        <v>0.206254</v>
       </c>
       <c r="D119" t="n">
-        <v>0.109719</v>
+        <v>0.110501</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.1113</v>
+        <v>0.123333</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0968738</v>
+        <v>0.232862</v>
       </c>
       <c r="D120" t="n">
-        <v>0.112774</v>
+        <v>0.113388</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.112938</v>
+        <v>0.114818</v>
       </c>
       <c r="C121" t="n">
-        <v>0.100238</v>
+        <v>0.300725</v>
       </c>
       <c r="D121" t="n">
-        <v>0.116771</v>
+        <v>0.117326</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.116105</v>
+        <v>0.117767</v>
       </c>
       <c r="C122" t="n">
-        <v>0.103278</v>
+        <v>0.111313</v>
       </c>
       <c r="D122" t="n">
-        <v>0.122632</v>
+        <v>0.123656</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.120694</v>
+        <v>0.122643</v>
       </c>
       <c r="C123" t="n">
-        <v>0.110098</v>
+        <v>0.114762</v>
       </c>
       <c r="D123" t="n">
-        <v>0.114485</v>
+        <v>0.113449</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.138645</v>
+        <v>0.140956</v>
       </c>
       <c r="C124" t="n">
-        <v>0.09713919999999999</v>
+        <v>0.118709</v>
       </c>
       <c r="D124" t="n">
-        <v>0.114047</v>
+        <v>0.114553</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.141863</v>
+        <v>0.141254</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0984283</v>
+        <v>0.123239</v>
       </c>
       <c r="D125" t="n">
-        <v>0.115268</v>
+        <v>0.115303</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.14135</v>
+        <v>0.141098</v>
       </c>
       <c r="C126" t="n">
-        <v>0.099921</v>
+        <v>0.128603</v>
       </c>
       <c r="D126" t="n">
-        <v>0.116517</v>
+        <v>0.116783</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.141633</v>
+        <v>0.141288</v>
       </c>
       <c r="C127" t="n">
-        <v>0.100909</v>
+        <v>0.134652</v>
       </c>
       <c r="D127" t="n">
-        <v>0.117734</v>
+        <v>0.11776</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.141851</v>
+        <v>0.136251</v>
       </c>
       <c r="C128" t="n">
-        <v>0.102671</v>
+        <v>0.144169</v>
       </c>
       <c r="D128" t="n">
-        <v>0.119115</v>
+        <v>0.11949</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.141969</v>
+        <v>0.1347</v>
       </c>
       <c r="C129" t="n">
-        <v>0.104162</v>
+        <v>0.150707</v>
       </c>
       <c r="D129" t="n">
-        <v>0.12097</v>
+        <v>0.120603</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.142016</v>
+        <v>0.134998</v>
       </c>
       <c r="C130" t="n">
-        <v>0.111036</v>
+        <v>0.163675</v>
       </c>
       <c r="D130" t="n">
-        <v>0.122032</v>
+        <v>0.122672</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.142939</v>
+        <v>0.135211</v>
       </c>
       <c r="C131" t="n">
-        <v>0.108279</v>
+        <v>0.174482</v>
       </c>
       <c r="D131" t="n">
-        <v>0.124538</v>
+        <v>0.124019</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.143359</v>
+        <v>0.135722</v>
       </c>
       <c r="C132" t="n">
-        <v>0.111497</v>
+        <v>0.19273</v>
       </c>
       <c r="D132" t="n">
-        <v>0.126538</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.144303</v>
+        <v>0.136719</v>
       </c>
       <c r="C133" t="n">
-        <v>0.112151</v>
+        <v>0.211146</v>
       </c>
       <c r="D133" t="n">
-        <v>0.128264</v>
+        <v>0.128612</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.144732</v>
+        <v>0.138058</v>
       </c>
       <c r="C134" t="n">
-        <v>0.114162</v>
+        <v>0.248366</v>
       </c>
       <c r="D134" t="n">
-        <v>0.131186</v>
+        <v>0.131664</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.14612</v>
+        <v>0.138669</v>
       </c>
       <c r="C135" t="n">
-        <v>0.117577</v>
+        <v>0.325236</v>
       </c>
       <c r="D135" t="n">
-        <v>0.135474</v>
+        <v>0.135936</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.148798</v>
+        <v>0.146036</v>
       </c>
       <c r="C136" t="n">
-        <v>0.121375</v>
+        <v>0.115816</v>
       </c>
       <c r="D136" t="n">
-        <v>0.141695</v>
+        <v>0.14231</v>
       </c>
     </row>
     <row r="137">
@@ -5138,10 +5138,10 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.153035</v>
+        <v>0.147156</v>
       </c>
       <c r="C137" t="n">
-        <v>0.127358</v>
+        <v>0.119248</v>
       </c>
       <c r="D137" t="n">
         <v>0.125329</v>
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.157999</v>
+        <v>0.159468</v>
       </c>
       <c r="C138" t="n">
-        <v>0.109073</v>
+        <v>0.123083</v>
       </c>
       <c r="D138" t="n">
-        <v>0.127634</v>
+        <v>0.126594</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.159519</v>
+        <v>0.157919</v>
       </c>
       <c r="C139" t="n">
-        <v>0.112822</v>
+        <v>0.127447</v>
       </c>
       <c r="D139" t="n">
-        <v>0.127609</v>
+        <v>0.127683</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.158242</v>
+        <v>0.157814</v>
       </c>
       <c r="C140" t="n">
-        <v>0.121896</v>
+        <v>0.132918</v>
       </c>
       <c r="D140" t="n">
-        <v>0.128871</v>
+        <v>0.128925</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158282</v>
+        <v>0.158306</v>
       </c>
       <c r="C141" t="n">
-        <v>0.112717</v>
+        <v>0.139793</v>
       </c>
       <c r="D141" t="n">
-        <v>0.130128</v>
+        <v>0.130349</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158287</v>
+        <v>0.158314</v>
       </c>
       <c r="C142" t="n">
-        <v>0.114199</v>
+        <v>0.146881</v>
       </c>
       <c r="D142" t="n">
-        <v>0.131577</v>
+        <v>0.131775</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158463</v>
+        <v>0.158718</v>
       </c>
       <c r="C143" t="n">
-        <v>0.115987</v>
+        <v>0.154942</v>
       </c>
       <c r="D143" t="n">
-        <v>0.133012</v>
+        <v>0.133565</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -93,7 +93,15 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +561,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0198274</v>
+                  <v>0.0196963</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0198243</v>
+                  <v>0.0197664</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0198059</v>
+                  <v>0.0200026</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0199393</v>
+                  <v>0.0201517</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0198465</v>
+                  <v>0.0201028</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0200695</v>
+                  <v>0.0204562</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0203167</v>
+                  <v>0.0206393</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0207984</v>
+                  <v>0.0210339</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.019398</v>
+                  <v>0.0194206</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0196474</v>
+                  <v>0.0195253</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0198002</v>
+                  <v>0.0197643</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0198351</v>
+                  <v>0.019862</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.020005</v>
+                  <v>0.0200936</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201547</v>
+                  <v>0.0201485</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0202387</v>
+                  <v>0.0204092</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0202416</v>
+                  <v>0.0204507</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0205515</v>
+                  <v>0.0206229</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.020734</v>
+                  <v>0.0210343</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0208632</v>
+                  <v>0.0211918</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0212432</v>
+                  <v>0.0215584</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0218651</v>
+                  <v>0.0226513</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0253637</v>
+                  <v>0.0258862</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0203899</v>
+                  <v>0.020452</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0204771</v>
+                  <v>0.0206124</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0206748</v>
+                  <v>0.0207985</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0207843</v>
+                  <v>0.0209652</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0210829</v>
+                  <v>0.0211055</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0211716</v>
+                  <v>0.0213203</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214289</v>
+                  <v>0.0217535</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0215001</v>
+                  <v>0.0218513</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0218002</v>
+                  <v>0.0222928</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0221683</v>
+                  <v>0.0226911</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0231472</v>
+                  <v>0.0235535</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0257742</v>
+                  <v>0.0253242</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0289348</v>
+                  <v>0.0277768</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0322824</v>
+                  <v>0.0318669</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0214691</v>
+                  <v>0.0214937</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0217903</v>
+                  <v>0.0216708</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0219112</v>
+                  <v>0.0218145</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0219809</v>
+                  <v>0.0221247</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0221479</v>
+                  <v>0.0222181</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0224448</v>
+                  <v>0.0224512</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.02262</v>
+                  <v>0.022927</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0231701</v>
+                  <v>0.0232657</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0235929</v>
+                  <v>0.0238669</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.024466</v>
+                  <v>0.0247955</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0257139</v>
+                  <v>0.0260839</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0282271</v>
+                  <v>0.0280282</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0303257</v>
+                  <v>0.0309436</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0351291</v>
+                  <v>0.0352915</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0408898</v>
+                  <v>0.0413191</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0231879</v>
+                  <v>0.0232368</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233257</v>
+                  <v>0.0234077</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0235135</v>
+                  <v>0.0234742</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0237414</v>
+                  <v>0.0236931</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0239179</v>
+                  <v>0.0240065</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0244805</v>
+                  <v>0.0243635</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0248999</v>
+                  <v>0.024742</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0254771</v>
+                  <v>0.0254421</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0265139</v>
+                  <v>0.0265507</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0280363</v>
+                  <v>0.0278997</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0300505</v>
+                  <v>0.0300643</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0328613</v>
+                  <v>0.0326618</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.036562</v>
+                  <v>0.0366612</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0420912</v>
+                  <v>0.0418935</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0291857</v>
+                  <v>0.0281649</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0293683</v>
+                  <v>0.0283172</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0294951</v>
+                  <v>0.028481</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.029813</v>
+                  <v>0.0286097</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0300128</v>
+                  <v>0.0290029</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302796</v>
+                  <v>0.0293089</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030801</v>
+                  <v>0.0298234</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.031446</v>
+                  <v>0.0304538</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0324341</v>
+                  <v>0.0316262</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0335695</v>
+                  <v>0.0328268</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0353551</v>
+                  <v>0.034701</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0378182</v>
+                  <v>0.0373006</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0410501</v>
+                  <v>0.0405111</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0456478</v>
+                  <v>0.0453079</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0552817</v>
+                  <v>0.0556282</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0555326</v>
+                  <v>0.0556663</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0556777</v>
+                  <v>0.0556563</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0557553</v>
+                  <v>0.0557576</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0559421</v>
+                  <v>0.0561199</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0562511</v>
+                  <v>0.0563284</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.056543</v>
+                  <v>0.0566175</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.056954</v>
+                  <v>0.0569801</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0573628</v>
+                  <v>0.0575295</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0581532</v>
+                  <v>0.0584884</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0593444</v>
+                  <v>0.059328</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0607396</v>
+                  <v>0.0609849</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.06325</v>
+                  <v>0.06332119999999999</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0670234</v>
+                  <v>0.06701559999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.086252</v>
+                  <v>0.08579050000000001</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0863121</v>
+                  <v>0.085844</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08631</v>
+                  <v>0.0859253</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08640920000000001</v>
+                  <v>0.0859871</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0864456</v>
+                  <v>0.0861041</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.08653959999999999</v>
+                  <v>0.08631809999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0867363</v>
+                  <v>0.0864688</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0870079</v>
+                  <v>0.087584</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0874346</v>
+                  <v>0.0871972</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0880908</v>
+                  <v>0.08776539999999999</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08892</v>
+                  <v>0.0885425</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0899819</v>
+                  <v>0.0897765</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0920994</v>
+                  <v>0.0918954</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0950337</v>
+                  <v>0.0951462</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.100164</v>
+                  <v>0.100134</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.113889</v>
+                  <v>0.107276</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.114021</v>
+                  <v>0.107381</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.114114</v>
+                  <v>0.10763</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.114157</v>
+                  <v>0.10747</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.114198</v>
+                  <v>0.107654</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.114387</v>
+                  <v>0.108084</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.114667</v>
+                  <v>0.108774</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.115047</v>
+                  <v>0.109483</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.115835</v>
+                  <v>0.110216</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.116215</v>
+                  <v>0.111529</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.117455</v>
+                  <v>0.123333</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.119136</v>
+                  <v>0.114818</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.122216</v>
+                  <v>0.117767</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.130657</v>
+                  <v>0.122643</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.140904</v>
+                  <v>0.140956</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.140713</v>
+                  <v>0.141254</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.140603</v>
+                  <v>0.141098</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.140544</v>
+                  <v>0.141288</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.140461</v>
+                  <v>0.136251</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.140955</v>
+                  <v>0.1347</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.142695</v>
+                  <v>0.134998</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.141111</v>
+                  <v>0.135211</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.141474</v>
+                  <v>0.135722</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.141584</v>
+                  <v>0.136719</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.144383</v>
+                  <v>0.138058</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.144338</v>
+                  <v>0.138669</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.146809</v>
+                  <v>0.146036</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.150574</v>
+                  <v>0.147156</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.157534</v>
+                  <v>0.159468</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.15768</v>
+                  <v>0.157919</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.157841</v>
+                  <v>0.157814</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.170985</v>
+                  <v>0.158306</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158043</v>
+                  <v>0.158314</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.158496</v>
+                  <v>0.158718</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +995,15 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>ankerl::unordered_dense::map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1463,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.01963</v>
+                  <v>0.0370058</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0195504</v>
+                  <v>0.0418052</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0196026</v>
+                  <v>0.0487309</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0196237</v>
+                  <v>0.057161</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0194434</v>
+                  <v>0.0638789</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0196089</v>
+                  <v>0.07558529999999999</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0196438</v>
+                  <v>0.0263746</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.019683</v>
+                  <v>0.0290195</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0206908</v>
+                  <v>0.0319614</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0208145</v>
+                  <v>0.0351258</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0208233</v>
+                  <v>0.0398863</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0208079</v>
+                  <v>0.0439152</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0210678</v>
+                  <v>0.0487144</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0211339</v>
+                  <v>0.0551437</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.021293</v>
+                  <v>0.0637769</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0213755</v>
+                  <v>0.0718377</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0214194</v>
+                  <v>0.081882</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0216061</v>
+                  <v>0.09108090000000001</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0216834</v>
+                  <v>0.0974773</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0216891</v>
+                  <v>0.106323</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.021814</v>
+                  <v>0.0397852</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.02224</v>
+                  <v>0.0423426</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0218223</v>
+                  <v>0.0452109</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.021951</v>
+                  <v>0.0487996</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0222832</v>
+                  <v>0.0527075</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0225478</v>
+                  <v>0.0566831</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0226653</v>
+                  <v>0.06295779999999999</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0228678</v>
+                  <v>0.0682238</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0232795</v>
+                  <v>0.0771483</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0234118</v>
+                  <v>0.08561050000000001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0236239</v>
+                  <v>0.0935257</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0237577</v>
+                  <v>0.103656</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0245297</v>
+                  <v>0.113227</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0248515</v>
+                  <v>0.123492</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0259781</v>
+                  <v>0.13034</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.028096</v>
+                  <v>0.0509253</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0231379</v>
+                  <v>0.0528575</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0235392</v>
+                  <v>0.0577256</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0237383</v>
+                  <v>0.0607325</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0240298</v>
+                  <v>0.0659752</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0242845</v>
+                  <v>0.0703324</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0248099</v>
+                  <v>0.0767769</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0251381</v>
+                  <v>0.08390450000000001</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0255035</v>
+                  <v>0.0925863</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.026017</v>
+                  <v>0.101274</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0265204</v>
+                  <v>0.11083</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0273233</v>
+                  <v>0.118478</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0288886</v>
+                  <v>0.125043</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0309086</v>
+                  <v>0.133906</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.035125</v>
+                  <v>0.0529698</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0395813</v>
+                  <v>0.0564495</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0250602</v>
+                  <v>0.0593078</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0252618</v>
+                  <v>0.0635886</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0256001</v>
+                  <v>0.0686663</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0259637</v>
+                  <v>0.07259549999999999</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0263006</v>
+                  <v>0.07936020000000001</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0266533</v>
+                  <v>0.08643149999999999</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.027142</v>
+                  <v>0.09494660000000001</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0277574</v>
+                  <v>0.104919</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0284471</v>
+                  <v>0.114287</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0293755</v>
+                  <v>0.122709</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0310293</v>
+                  <v>0.129562</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0333401</v>
+                  <v>0.137533</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0369138</v>
+                  <v>0.0546936</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0422301</v>
+                  <v>0.0582601</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.027755</v>
+                  <v>0.0617354</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.028318</v>
+                  <v>0.0656432</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0282048</v>
+                  <v>0.07027899999999999</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0288949</v>
+                  <v>0.07689410000000001</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0291466</v>
+                  <v>0.0822326</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0296631</v>
+                  <v>0.0895243</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0302154</v>
+                  <v>0.097702</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0308858</v>
+                  <v>0.107574</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0317299</v>
+                  <v>0.117728</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0327248</v>
+                  <v>0.127246</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0344036</v>
+                  <v>0.134567</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0365419</v>
+                  <v>0.142834</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0395077</v>
+                  <v>0.064026</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0440142</v>
+                  <v>0.0678048</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0384812</v>
+                  <v>0.0717135</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0393181</v>
+                  <v>0.0761748</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0400471</v>
+                  <v>0.0812459</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0410283</v>
+                  <v>0.0872613</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0422285</v>
+                  <v>0.0936657</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0436636</v>
+                  <v>0.101731</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0450427</v>
+                  <v>0.111373</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0465122</v>
+                  <v>0.122588</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.048317</v>
+                  <v>0.133557</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0499665</v>
+                  <v>0.145035</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0516792</v>
+                  <v>0.154768</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0540677</v>
+                  <v>0.165492</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0567184</v>
+                  <v>0.17807</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0613213</v>
+                  <v>0.08862009999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.07599069999999999</v>
+                  <v>0.0928022</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0765213</v>
+                  <v>0.0974573</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0769676</v>
+                  <v>0.102899</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.07758429999999999</v>
+                  <v>0.109426</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0782827</v>
+                  <v>0.117126</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0789179</v>
+                  <v>0.126086</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.07968980000000001</v>
+                  <v>0.137067</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0805656</v>
+                  <v>0.149677</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0816693</v>
+                  <v>0.163346</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0863792</v>
+                  <v>0.177727</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08411639999999999</v>
+                  <v>0.192176</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0859486</v>
+                  <v>0.209788</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.08840779999999999</v>
+                  <v>0.241063</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0922501</v>
+                  <v>0.111904</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0984163</v>
+                  <v>0.106764</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0907982</v>
+                  <v>0.110996</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0916492</v>
+                  <v>0.116155</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.092555</v>
+                  <v>0.123372</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0937095</v>
+                  <v>0.12867</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09565650000000001</v>
+                  <v>0.138409</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.103513</v>
+                  <v>0.146729</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0973205</v>
+                  <v>0.159703</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0988463</v>
+                  <v>0.171725</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.100303</v>
+                  <v>0.189215</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.102148</v>
+                  <v>0.206254</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.104312</v>
+                  <v>0.232862</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.107029</v>
+                  <v>0.300725</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.111037</v>
+                  <v>0.111313</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.116985</v>
+                  <v>0.114762</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.102804</v>
+                  <v>0.118709</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.108721</v>
+                  <v>0.123239</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.105795</v>
+                  <v>0.128603</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.107499</v>
+                  <v>0.134652</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.109135</v>
+                  <v>0.144169</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.111421</v>
+                  <v>0.150707</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.113514</v>
+                  <v>0.163675</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.114964</v>
+                  <v>0.174482</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.116895</v>
+                  <v>0.19273</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.119313</v>
+                  <v>0.211146</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.121782</v>
+                  <v>0.248366</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.124925</v>
+                  <v>0.325236</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.12911</v>
+                  <v>0.115816</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.135094</v>
+                  <v>0.119248</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.116615</v>
+                  <v>0.123083</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.118091</v>
+                  <v>0.127447</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.119623</v>
+                  <v>0.132918</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.121247</v>
+                  <v>0.139793</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.122801</v>
+                  <v>0.146881</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.12453</v>
+                  <v>0.154942</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1897,15 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>foa_unordered_rc15_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2365,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0210661</v>
+                  <v>0.0228125</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0210821</v>
+                  <v>0.0226735</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0210432</v>
+                  <v>0.022881</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0210228</v>
+                  <v>0.0228038</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0211017</v>
+                  <v>0.0230981</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.021451</v>
+                  <v>0.0232579</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0215967</v>
+                  <v>0.0235219</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.021032</v>
+                  <v>0.0223514</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.021237</v>
+                  <v>0.0232438</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0214398</v>
+                  <v>0.0227364</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0216389</v>
+                  <v>0.0231432</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0217625</v>
+                  <v>0.0234719</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0220811</v>
+                  <v>0.0235736</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0221537</v>
+                  <v>0.0239307</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0222621</v>
+                  <v>0.0240582</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022351</v>
+                  <v>0.0241979</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0223659</v>
+                  <v>0.0242753</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0223994</v>
+                  <v>0.0244821</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0224787</v>
+                  <v>0.0247755</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0225969</v>
+                  <v>0.0250051</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0229866</v>
+                  <v>0.0262359</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0222081</v>
+                  <v>0.0230816</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0224424</v>
+                  <v>0.0233082</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0227148</v>
+                  <v>0.0236264</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0228976</v>
+                  <v>0.0238223</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0231426</v>
+                  <v>0.0242118</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0233641</v>
+                  <v>0.0245034</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0236678</v>
+                  <v>0.0247956</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0238622</v>
+                  <v>0.0251358</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0240883</v>
+                  <v>0.0254192</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0241209</v>
+                  <v>0.025719</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0243341</v>
+                  <v>0.0260563</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0249996</v>
+                  <v>0.0271309</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0258005</v>
+                  <v>0.0289687</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0317443</v>
+                  <v>0.0327012</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0233782</v>
+                  <v>0.0240634</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0235387</v>
+                  <v>0.0243796</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0237574</v>
+                  <v>0.0245387</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0240607</v>
+                  <v>0.0247873</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0243991</v>
+                  <v>0.0250755</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0246515</v>
+                  <v>0.0252754</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0249339</v>
+                  <v>0.0257843</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0252916</v>
+                  <v>0.0261995</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0255331</v>
+                  <v>0.0266811</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0260222</v>
+                  <v>0.0271738</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0266838</v>
+                  <v>0.0278438</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0278203</v>
+                  <v>0.0291553</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0305126</v>
+                  <v>0.0325561</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0344632</v>
+                  <v>0.0358238</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0242031</v>
+                  <v>0.0243208</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0243873</v>
+                  <v>0.0245637</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0246308</v>
+                  <v>0.0248053</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0248962</v>
+                  <v>0.0250541</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0251551</v>
+                  <v>0.0253017</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0255061</v>
+                  <v>0.0258172</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.025758</v>
+                  <v>0.0261726</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0261621</v>
+                  <v>0.0266081</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0266822</v>
+                  <v>0.0271423</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.027176</v>
+                  <v>0.0280035</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0279736</v>
+                  <v>0.02913</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0294383</v>
+                  <v>0.0307407</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0324535</v>
+                  <v>0.0332634</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0364486</v>
+                  <v>0.0376615</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.042747</v>
+                  <v>0.0436362</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0261578</v>
+                  <v>0.0266204</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0266345</v>
+                  <v>0.0269618</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0270048</v>
+                  <v>0.0273013</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0274462</v>
+                  <v>0.0276864</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0276478</v>
+                  <v>0.0282598</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0280925</v>
+                  <v>0.0286701</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0295698</v>
+                  <v>0.0289658</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0301268</v>
+                  <v>0.0296943</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0308125</v>
+                  <v>0.0308191</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0310039</v>
+                  <v>0.0320137</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0325978</v>
+                  <v>0.0337115</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0358014</v>
+                  <v>0.0362699</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0390005</v>
+                  <v>0.0399167</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0449875</v>
+                  <v>0.0449066</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0407134</v>
+                  <v>0.0395087</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0414223</v>
+                  <v>0.0404645</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0420164</v>
+                  <v>0.0415858</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0428758</v>
+                  <v>0.0423343</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0435859</v>
+                  <v>0.0424792</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0441158</v>
+                  <v>0.043633</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0451214</v>
+                  <v>0.0447561</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.045933</v>
+                  <v>0.0453725</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0468684</v>
+                  <v>0.0460016</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0477272</v>
+                  <v>0.0469517</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0490508</v>
+                  <v>0.0487554</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0513003</v>
+                  <v>0.0506627</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0542639</v>
+                  <v>0.0536386</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0587909</v>
+                  <v>0.058453</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.08060109999999999</v>
+                  <v>0.0785825</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.08116420000000001</v>
+                  <v>0.0789784</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0815678</v>
+                  <v>0.07963629999999999</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08204690000000001</v>
+                  <v>0.0799203</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08264589999999999</v>
+                  <v>0.0804226</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0832561</v>
+                  <v>0.0810888</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0837205</v>
+                  <v>0.0818702</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0845051</v>
+                  <v>0.0822594</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.08527559999999999</v>
+                  <v>0.0861224</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0864844</v>
+                  <v>0.08439530000000001</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0876881</v>
+                  <v>0.0860368</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08924799999999999</v>
+                  <v>0.0872131</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.096528</v>
+                  <v>0.0897109</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0955449</v>
+                  <v>0.0933244</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0975452</v>
+                  <v>0.09642630000000001</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0983436</v>
+                  <v>0.0977301</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0990383</v>
+                  <v>0.0987176</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.09986689999999999</v>
+                  <v>0.0995547</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.100985</v>
+                  <v>0.100355</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.101987</v>
+                  <v>0.101544</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.102746</v>
+                  <v>0.102478</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.10438</v>
+                  <v>0.103852</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.105384</v>
+                  <v>0.10514</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.106778</v>
+                  <v>0.106707</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.108591</v>
+                  <v>0.107111</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.110691</v>
+                  <v>0.110501</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.113494</v>
+                  <v>0.113388</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.117535</v>
+                  <v>0.117326</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.123795</v>
+                  <v>0.123656</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.115482</v>
+                  <v>0.113449</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.116645</v>
+                  <v>0.114553</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.1179</v>
+                  <v>0.115303</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.119136</v>
+                  <v>0.116783</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.12028</v>
+                  <v>0.11776</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.121788</v>
+                  <v>0.11949</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.123885</v>
+                  <v>0.120603</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.125833</v>
+                  <v>0.122672</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.1268</v>
+                  <v>0.124019</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.129052</v>
+                  <v>0.126</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.132444</v>
+                  <v>0.128612</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.134565</v>
+                  <v>0.131664</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.138824</v>
+                  <v>0.135936</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.145371</v>
+                  <v>0.14231</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.129339</v>
+                  <v>0.125329</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.130682</v>
+                  <v>0.126594</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.131871</v>
+                  <v>0.127683</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.133153</v>
+                  <v>0.128925</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.134562</v>
+                  <v>0.130349</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.135784</v>
+                  <v>0.131775</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.137311</v>
+                  <v>0.133565</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3216,14 +3240,14 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3234,7 +3258,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>ankerl::unordered_dense::map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0194153</v>
+        <v>0.0197073</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0216239</v>
+        <v>0.0209377</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0213691</v>
+        <v>0.0215026</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0195374</v>
+        <v>0.0197001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0216454</v>
+        <v>0.0209542</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0213998</v>
+        <v>0.0216221</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0195099</v>
+        <v>0.0196973</v>
       </c>
       <c r="C4" t="n">
-        <v>0.021702</v>
+        <v>0.0210428</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0213302</v>
+        <v>0.0216967</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0196159</v>
+        <v>0.0197298</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0216348</v>
+        <v>0.0209765</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0214157</v>
+        <v>0.0217613</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0196721</v>
+        <v>0.0198688</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0216047</v>
+        <v>0.0209416</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0214411</v>
+        <v>0.0218694</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.019936</v>
+        <v>0.0200792</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0218027</v>
+        <v>0.0210965</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0215652</v>
+        <v>0.022304</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.020053</v>
+        <v>0.0200331</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0217076</v>
+        <v>0.0214763</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0219328</v>
+        <v>0.0228841</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0205732</v>
+        <v>0.0204982</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0220492</v>
+        <v>0.0219972</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0208326</v>
+        <v>0.0207154</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0195057</v>
+        <v>0.0195504</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0211134</v>
+        <v>0.0208425</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0210429</v>
+        <v>0.021094</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0195359</v>
+        <v>0.0195376</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0213479</v>
+        <v>0.0210775</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0212355</v>
+        <v>0.0212375</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0196547</v>
+        <v>0.0197859</v>
       </c>
       <c r="C12" t="n">
-        <v>0.021469</v>
+        <v>0.0211288</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0213717</v>
+        <v>0.021364</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0196779</v>
+        <v>0.0197816</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0216625</v>
+        <v>0.0216538</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0216438</v>
+        <v>0.0216672</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0198289</v>
+        <v>0.019853</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0221184</v>
+        <v>0.0218014</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0220465</v>
+        <v>0.0220572</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0200262</v>
+        <v>0.0200213</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0223489</v>
+        <v>0.0217876</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0222701</v>
+        <v>0.02219</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0201187</v>
+        <v>0.0201917</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0226644</v>
+        <v>0.0219619</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0224636</v>
+        <v>0.0229336</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0203428</v>
+        <v>0.0202697</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0228301</v>
+        <v>0.0220922</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0225357</v>
+        <v>0.0228643</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0203121</v>
+        <v>0.0205028</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0229613</v>
+        <v>0.0222888</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0226698</v>
+        <v>0.0229067</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0203633</v>
+        <v>0.0205032</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0232357</v>
+        <v>0.0225977</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0226577</v>
+        <v>0.0233131</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0205736</v>
+        <v>0.020615</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0234648</v>
+        <v>0.0231155</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0228705</v>
+        <v>0.0235737</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.020757</v>
+        <v>0.02089</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0236208</v>
+        <v>0.0231101</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0231643</v>
+        <v>0.0242744</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0218686</v>
+        <v>0.0212872</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0237974</v>
+        <v>0.024059</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0238218</v>
+        <v>0.0264755</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0246712</v>
+        <v>0.0224242</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0243982</v>
+        <v>0.0264322</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0219548</v>
+        <v>0.0220667</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0205425</v>
+        <v>0.0204668</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0220591</v>
+        <v>0.0217443</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0222198</v>
+        <v>0.0223003</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.020479</v>
+        <v>0.0206503</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0223089</v>
+        <v>0.0220424</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0224446</v>
+        <v>0.0223958</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0208477</v>
+        <v>0.0207723</v>
       </c>
       <c r="C26" t="n">
-        <v>0.022642</v>
+        <v>0.0222743</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0226814</v>
+        <v>0.0227259</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.020737</v>
+        <v>0.0208942</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0229178</v>
+        <v>0.0225415</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0229599</v>
+        <v>0.0229093</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0211137</v>
+        <v>0.0211522</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0233171</v>
+        <v>0.0228865</v>
       </c>
       <c r="D28" t="n">
-        <v>0.023218</v>
+        <v>0.0233689</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0212632</v>
+        <v>0.0212941</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0235483</v>
+        <v>0.0231414</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0235821</v>
+        <v>0.023683</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0215058</v>
+        <v>0.0212592</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0240582</v>
+        <v>0.0234982</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0239844</v>
+        <v>0.0241052</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0216391</v>
+        <v>0.0216545</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0243991</v>
+        <v>0.0238198</v>
       </c>
       <c r="D31" t="n">
-        <v>0.024223</v>
+        <v>0.0244646</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0217892</v>
+        <v>0.0215713</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0247556</v>
+        <v>0.0242011</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0243028</v>
+        <v>0.0249198</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0220323</v>
+        <v>0.0219524</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0250999</v>
+        <v>0.0247539</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0247875</v>
+        <v>0.0253953</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0235264</v>
+        <v>0.0221608</v>
       </c>
       <c r="C34" t="n">
-        <v>0.025729</v>
+        <v>0.0254145</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0255737</v>
+        <v>0.0268626</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0248101</v>
+        <v>0.0236093</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0263997</v>
+        <v>0.0271029</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0269609</v>
+        <v>0.0305189</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0283369</v>
+        <v>0.0262236</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0273788</v>
+        <v>0.0295729</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0306652</v>
+        <v>0.0354297</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0330228</v>
+        <v>0.030101</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0296814</v>
+        <v>0.0333307</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0229868</v>
+        <v>0.0231148</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.021443</v>
+        <v>0.0216357</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0231451</v>
+        <v>0.0231189</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0231975</v>
+        <v>0.0233647</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0216247</v>
+        <v>0.0216029</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0234074</v>
+        <v>0.0233639</v>
       </c>
       <c r="D39" t="n">
-        <v>0.023578</v>
+        <v>0.023688</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0217207</v>
+        <v>0.0218461</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0237303</v>
+        <v>0.0236718</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0238034</v>
+        <v>0.0238123</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0218359</v>
+        <v>0.0219633</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0241258</v>
+        <v>0.0240672</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0241476</v>
+        <v>0.0241328</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0220014</v>
+        <v>0.022197</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0246142</v>
+        <v>0.0243553</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0244585</v>
+        <v>0.0244663</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0222703</v>
+        <v>0.0223642</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0249368</v>
+        <v>0.0247444</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0248184</v>
+        <v>0.024814</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0225098</v>
+        <v>0.0226494</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0254869</v>
+        <v>0.0251676</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0249919</v>
+        <v>0.0253131</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0228188</v>
+        <v>0.0230291</v>
       </c>
       <c r="C45" t="n">
-        <v>0.025803</v>
+        <v>0.0256814</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0253486</v>
+        <v>0.0258879</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0233381</v>
+        <v>0.0232904</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0264864</v>
+        <v>0.0262928</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0258325</v>
+        <v>0.0266317</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0239794</v>
+        <v>0.0236873</v>
       </c>
       <c r="C47" t="n">
-        <v>0.027045</v>
+        <v>0.0270702</v>
       </c>
       <c r="D47" t="n">
-        <v>0.026834</v>
+        <v>0.0276581</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0253768</v>
+        <v>0.0249125</v>
       </c>
       <c r="C48" t="n">
-        <v>0.027718</v>
+        <v>0.0283097</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0280441</v>
+        <v>0.0292878</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0278493</v>
+        <v>0.0269013</v>
       </c>
       <c r="C49" t="n">
-        <v>0.028867</v>
+        <v>0.029795</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0302709</v>
+        <v>0.0329279</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0307099</v>
+        <v>0.0295028</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0306649</v>
+        <v>0.0318403</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0343465</v>
+        <v>0.0367257</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0351755</v>
+        <v>0.0345504</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0336473</v>
+        <v>0.0355393</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0237661</v>
+        <v>0.0237806</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0412116</v>
+        <v>0.0396764</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0390031</v>
+        <v>0.0407747</v>
       </c>
       <c r="D52" t="n">
-        <v>0.023982</v>
+        <v>0.0240429</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0229682</v>
+        <v>0.0232309</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0246872</v>
+        <v>0.02474</v>
       </c>
       <c r="D53" t="n">
-        <v>0.024279</v>
+        <v>0.0243527</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0232097</v>
+        <v>0.0232743</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0251282</v>
+        <v>0.0249664</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0244585</v>
+        <v>0.0244799</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0235115</v>
+        <v>0.0234007</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0254442</v>
+        <v>0.0253813</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0248733</v>
+        <v>0.0247896</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0235161</v>
+        <v>0.0238864</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0257455</v>
+        <v>0.0256613</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0251518</v>
+        <v>0.0252847</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0239066</v>
+        <v>0.0241508</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0261672</v>
+        <v>0.026042</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0254793</v>
+        <v>0.0256525</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.024243</v>
+        <v>0.0242914</v>
       </c>
       <c r="C58" t="n">
-        <v>0.026588</v>
+        <v>0.0265094</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0259207</v>
+        <v>0.0260622</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0247914</v>
+        <v>0.0248363</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0271725</v>
+        <v>0.0270872</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0264931</v>
+        <v>0.026695</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0255176</v>
+        <v>0.0251891</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0277483</v>
+        <v>0.0278518</v>
       </c>
       <c r="D60" t="n">
-        <v>0.027099</v>
+        <v>0.0275349</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.026534</v>
+        <v>0.0262257</v>
       </c>
       <c r="C61" t="n">
-        <v>0.028494</v>
+        <v>0.0286598</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0280724</v>
+        <v>0.028729</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0280627</v>
+        <v>0.0273224</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0294231</v>
+        <v>0.0298417</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0297869</v>
+        <v>0.0305201</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0299045</v>
+        <v>0.0293198</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0308058</v>
+        <v>0.0314304</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0324028</v>
+        <v>0.0333882</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.032948</v>
+        <v>0.0320313</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0329246</v>
+        <v>0.0337081</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0366578</v>
+        <v>0.0372594</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0367262</v>
+        <v>0.035932</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0362371</v>
+        <v>0.0367638</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0425531</v>
+        <v>0.0430303</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0419874</v>
+        <v>0.0417077</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0415188</v>
+        <v>0.0414584</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0261618</v>
+        <v>0.0256412</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0271796</v>
+        <v>0.0279689</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0271385</v>
+        <v>0.0267797</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0261423</v>
+        <v>0.0268931</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0274936</v>
+        <v>0.0280762</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0275206</v>
+        <v>0.0272759</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0267481</v>
+        <v>0.0264123</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0275939</v>
+        <v>0.0282775</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0274474</v>
+        <v>0.0274055</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0271621</v>
+        <v>0.0267427</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0278968</v>
+        <v>0.0285752</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0280971</v>
+        <v>0.027896</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0271824</v>
+        <v>0.0271651</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0283107</v>
+        <v>0.0286922</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0284556</v>
+        <v>0.0280535</v>
       </c>
       <c r="D71" t="n">
-        <v>0.027856</v>
+        <v>0.0281491</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0288352</v>
+        <v>0.0289703</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0285774</v>
+        <v>0.028757</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0283167</v>
+        <v>0.028251</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0292852</v>
+        <v>0.0293439</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0291334</v>
+        <v>0.0292927</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0286846</v>
+        <v>0.0291903</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0300118</v>
+        <v>0.0300044</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0302271</v>
+        <v>0.0300888</v>
       </c>
       <c r="D74" t="n">
-        <v>0.029732</v>
+        <v>0.0301441</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0309126</v>
+        <v>0.0308581</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0310089</v>
+        <v>0.030963</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0309111</v>
+        <v>0.0309445</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0322144</v>
+        <v>0.0320427</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0320291</v>
+        <v>0.0316925</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0323416</v>
+        <v>0.0326979</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0340831</v>
+        <v>0.0337024</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0335265</v>
+        <v>0.033743</v>
       </c>
       <c r="D77" t="n">
-        <v>0.034909</v>
+        <v>0.0348793</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0363267</v>
+        <v>0.0364768</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0349901</v>
+        <v>0.035655</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0384363</v>
+        <v>0.0385768</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0399878</v>
+        <v>0.0399744</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0386246</v>
+        <v>0.0384892</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0434615</v>
+        <v>0.0436189</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0445954</v>
+        <v>0.044686</v>
       </c>
       <c r="C80" t="n">
-        <v>0.042655</v>
+        <v>0.0426347</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0395219</v>
+        <v>0.0392578</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0549282</v>
+        <v>0.0551948</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0360976</v>
+        <v>0.0356154</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0406228</v>
+        <v>0.0397527</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0552393</v>
+        <v>0.0556353</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0368049</v>
+        <v>0.0363806</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0413897</v>
+        <v>0.0407293</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0552295</v>
+        <v>0.0558043</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0374727</v>
+        <v>0.0371016</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0420138</v>
+        <v>0.0417117</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0554961</v>
+        <v>0.0558961</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0384703</v>
+        <v>0.038266</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0429424</v>
+        <v>0.0418887</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0557156</v>
+        <v>0.0561572</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0398851</v>
+        <v>0.0392054</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0439217</v>
+        <v>0.0428235</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0559025</v>
+        <v>0.056341</v>
       </c>
       <c r="C86" t="n">
-        <v>0.041212</v>
+        <v>0.0409402</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0446402</v>
+        <v>0.0435847</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0561817</v>
+        <v>0.0566363</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0426956</v>
+        <v>0.0420873</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0450756</v>
+        <v>0.0442763</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0566051</v>
+        <v>0.0569924</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0440868</v>
+        <v>0.0432503</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0462171</v>
+        <v>0.0451926</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0570507</v>
+        <v>0.057448</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0469162</v>
+        <v>0.0451014</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0470852</v>
+        <v>0.046813</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0578279</v>
+        <v>0.058389</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0469989</v>
+        <v>0.046458</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0486602</v>
+        <v>0.047808</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0587764</v>
+        <v>0.0594959</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0487615</v>
+        <v>0.0481495</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0506263</v>
+        <v>0.0501385</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0607556</v>
+        <v>0.0611731</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0511153</v>
+        <v>0.0504466</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0527525</v>
+        <v>0.0530092</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.06326270000000001</v>
+        <v>0.0635279</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0539851</v>
+        <v>0.0532813</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0575589</v>
+        <v>0.056879</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0670076</v>
+        <v>0.0674611</v>
       </c>
       <c r="C94" t="n">
-        <v>0.057763</v>
+        <v>0.057405</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0780261</v>
+        <v>0.0779791</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0857054</v>
+        <v>0.08584890000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0689588</v>
+        <v>0.06894500000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0783375</v>
+        <v>0.07844180000000001</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0858095</v>
+        <v>0.08580210000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0693893</v>
+        <v>0.06947449999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.07880520000000001</v>
+        <v>0.0789337</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0859026</v>
+        <v>0.0860041</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0698607</v>
+        <v>0.07017950000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0840094</v>
+        <v>0.07972799999999999</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.08584120000000001</v>
+        <v>0.0861552</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0704883</v>
+        <v>0.07073450000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0799682</v>
+        <v>0.0817397</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0860358</v>
+        <v>0.0864806</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0710867</v>
+        <v>0.0715549</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0805249</v>
+        <v>0.0809339</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08613220000000001</v>
+        <v>0.0868305</v>
       </c>
       <c r="C100" t="n">
-        <v>0.07167949999999999</v>
+        <v>0.07186380000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.08110009999999999</v>
+        <v>0.0814178</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0863662</v>
+        <v>0.08645650000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0724897</v>
+        <v>0.07264329999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.08169940000000001</v>
+        <v>0.08197450000000001</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0866415</v>
+        <v>0.08685130000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0733698</v>
+        <v>0.07349319999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0827919</v>
+        <v>0.08272019999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0870681</v>
+        <v>0.08722389999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.07428369999999999</v>
+        <v>0.0744962</v>
       </c>
       <c r="D103" t="n">
-        <v>0.08383400000000001</v>
+        <v>0.0838598</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.08774650000000001</v>
+        <v>0.0878772</v>
       </c>
       <c r="C104" t="n">
-        <v>0.075404</v>
+        <v>0.0757273</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0848448</v>
+        <v>0.0851601</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.088522</v>
+        <v>0.08871229999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0770057</v>
+        <v>0.0770632</v>
       </c>
       <c r="D105" t="n">
-        <v>0.08641409999999999</v>
+        <v>0.0865517</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0897331</v>
+        <v>0.089751</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0787163</v>
+        <v>0.078829</v>
       </c>
       <c r="D106" t="n">
-        <v>0.08930979999999999</v>
+        <v>0.0887976</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0917357</v>
+        <v>0.09205099999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0812311</v>
+        <v>0.0819091</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0923945</v>
+        <v>0.0931968</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.09504369999999999</v>
+        <v>0.0960608</v>
       </c>
       <c r="C108" t="n">
-        <v>0.08483590000000001</v>
+        <v>0.0854483</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0966943</v>
+        <v>0.0967744</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0998652</v>
+        <v>0.100103</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0912485</v>
+        <v>0.091076</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0971948</v>
+        <v>0.09746970000000001</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.107502</v>
+        <v>0.109053</v>
       </c>
       <c r="C110" t="n">
-        <v>0.08374280000000001</v>
+        <v>0.0835866</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0975129</v>
+        <v>0.09833069999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.107718</v>
+        <v>0.109347</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0843222</v>
+        <v>0.0844408</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0989887</v>
+        <v>0.099049</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.107589</v>
+        <v>0.109457</v>
       </c>
       <c r="C112" t="n">
-        <v>0.08553180000000001</v>
+        <v>0.0853941</v>
       </c>
       <c r="D112" t="n">
-        <v>0.09941469999999999</v>
+        <v>0.100068</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.107676</v>
+        <v>0.109768</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0875951</v>
+        <v>0.0863066</v>
       </c>
       <c r="D113" t="n">
-        <v>0.101059</v>
+        <v>0.101062</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.107784</v>
+        <v>0.110062</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0876169</v>
+        <v>0.0876794</v>
       </c>
       <c r="D114" t="n">
-        <v>0.102087</v>
+        <v>0.10203</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.108132</v>
+        <v>0.110278</v>
       </c>
       <c r="C115" t="n">
-        <v>0.08918860000000001</v>
+        <v>0.0886542</v>
       </c>
       <c r="D115" t="n">
-        <v>0.103078</v>
+        <v>0.103186</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108296</v>
+        <v>0.110718</v>
       </c>
       <c r="C116" t="n">
-        <v>0.09008869999999999</v>
+        <v>0.0899215</v>
       </c>
       <c r="D116" t="n">
-        <v>0.103808</v>
+        <v>0.103195</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.108749</v>
+        <v>0.111226</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0914533</v>
+        <v>0.0910514</v>
       </c>
       <c r="D117" t="n">
-        <v>0.104958</v>
+        <v>0.106076</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.109138</v>
+        <v>0.118479</v>
       </c>
       <c r="C118" t="n">
-        <v>0.09316389999999999</v>
+        <v>0.09307509999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.107701</v>
+        <v>0.106157</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.10989</v>
+        <v>0.112708</v>
       </c>
       <c r="C119" t="n">
-        <v>0.09521490000000001</v>
+        <v>0.09491339999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.109719</v>
+        <v>0.109883</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.1113</v>
+        <v>0.114006</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0968738</v>
+        <v>0.09649870000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.112774</v>
+        <v>0.110677</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.112938</v>
+        <v>0.124651</v>
       </c>
       <c r="C121" t="n">
-        <v>0.100238</v>
+        <v>0.0998594</v>
       </c>
       <c r="D121" t="n">
-        <v>0.116771</v>
+        <v>0.116441</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.116105</v>
+        <v>0.121138</v>
       </c>
       <c r="C122" t="n">
-        <v>0.103278</v>
+        <v>0.104053</v>
       </c>
       <c r="D122" t="n">
-        <v>0.122632</v>
+        <v>0.122549</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.120694</v>
+        <v>0.123255</v>
       </c>
       <c r="C123" t="n">
-        <v>0.110098</v>
+        <v>0.110772</v>
       </c>
       <c r="D123" t="n">
-        <v>0.114485</v>
+        <v>0.112716</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.138645</v>
+        <v>0.141117</v>
       </c>
       <c r="C124" t="n">
-        <v>0.09713919999999999</v>
+        <v>0.09719469999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>0.114047</v>
+        <v>0.114404</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.141863</v>
+        <v>0.140221</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0984283</v>
+        <v>0.0982785</v>
       </c>
       <c r="D125" t="n">
-        <v>0.115268</v>
+        <v>0.115014</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.14135</v>
+        <v>0.140383</v>
       </c>
       <c r="C126" t="n">
-        <v>0.099921</v>
+        <v>0.0999052</v>
       </c>
       <c r="D126" t="n">
-        <v>0.116517</v>
+        <v>0.117234</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.141633</v>
+        <v>0.142047</v>
       </c>
       <c r="C127" t="n">
-        <v>0.100909</v>
+        <v>0.115861</v>
       </c>
       <c r="D127" t="n">
-        <v>0.117734</v>
+        <v>0.11799</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.141851</v>
+        <v>0.140448</v>
       </c>
       <c r="C128" t="n">
-        <v>0.102671</v>
+        <v>0.102845</v>
       </c>
       <c r="D128" t="n">
-        <v>0.119115</v>
+        <v>0.118888</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.141969</v>
+        <v>0.140913</v>
       </c>
       <c r="C129" t="n">
-        <v>0.104162</v>
+        <v>0.104414</v>
       </c>
       <c r="D129" t="n">
-        <v>0.12097</v>
+        <v>0.120319</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.142016</v>
+        <v>0.141007</v>
       </c>
       <c r="C130" t="n">
-        <v>0.111036</v>
+        <v>0.105931</v>
       </c>
       <c r="D130" t="n">
-        <v>0.122032</v>
+        <v>0.121947</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.142939</v>
+        <v>0.141428</v>
       </c>
       <c r="C131" t="n">
-        <v>0.108279</v>
+        <v>0.10768</v>
       </c>
       <c r="D131" t="n">
-        <v>0.124538</v>
+        <v>0.12406</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.143359</v>
+        <v>0.142017</v>
       </c>
       <c r="C132" t="n">
-        <v>0.111497</v>
+        <v>0.109535</v>
       </c>
       <c r="D132" t="n">
-        <v>0.126538</v>
+        <v>0.125992</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.144303</v>
+        <v>0.141976</v>
       </c>
       <c r="C133" t="n">
-        <v>0.112151</v>
+        <v>0.11161</v>
       </c>
       <c r="D133" t="n">
-        <v>0.128264</v>
+        <v>0.128284</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.144732</v>
+        <v>0.143063</v>
       </c>
       <c r="C134" t="n">
-        <v>0.114162</v>
+        <v>0.114282</v>
       </c>
       <c r="D134" t="n">
-        <v>0.131186</v>
+        <v>0.13129</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.14612</v>
+        <v>0.144389</v>
       </c>
       <c r="C135" t="n">
-        <v>0.117577</v>
+        <v>0.123929</v>
       </c>
       <c r="D135" t="n">
-        <v>0.135474</v>
+        <v>0.135159</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.148798</v>
+        <v>0.167422</v>
       </c>
       <c r="C136" t="n">
-        <v>0.121375</v>
+        <v>0.121119</v>
       </c>
       <c r="D136" t="n">
-        <v>0.141695</v>
+        <v>0.150045</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.153035</v>
+        <v>0.164232</v>
       </c>
       <c r="C137" t="n">
-        <v>0.127358</v>
+        <v>0.127207</v>
       </c>
       <c r="D137" t="n">
-        <v>0.125329</v>
+        <v>0.12518</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.157999</v>
+        <v>0.15787</v>
       </c>
       <c r="C138" t="n">
-        <v>0.109073</v>
+        <v>0.108685</v>
       </c>
       <c r="D138" t="n">
-        <v>0.127634</v>
+        <v>0.126378</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.159519</v>
+        <v>0.158037</v>
       </c>
       <c r="C139" t="n">
-        <v>0.112822</v>
+        <v>0.109895</v>
       </c>
       <c r="D139" t="n">
-        <v>0.127609</v>
+        <v>0.127673</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.158242</v>
+        <v>0.158096</v>
       </c>
       <c r="C140" t="n">
-        <v>0.121896</v>
+        <v>0.111373</v>
       </c>
       <c r="D140" t="n">
-        <v>0.128871</v>
+        <v>0.12881</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158282</v>
+        <v>0.158233</v>
       </c>
       <c r="C141" t="n">
-        <v>0.112717</v>
+        <v>0.112705</v>
       </c>
       <c r="D141" t="n">
-        <v>0.130128</v>
+        <v>0.130109</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158287</v>
+        <v>0.15824</v>
       </c>
       <c r="C142" t="n">
-        <v>0.114199</v>
+        <v>0.114262</v>
       </c>
       <c r="D142" t="n">
-        <v>0.131577</v>
+        <v>0.131617</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158463</v>
+        <v>0.158254</v>
       </c>
       <c r="C143" t="n">
-        <v>0.115987</v>
+        <v>0.115772</v>
       </c>
       <c r="D143" t="n">
-        <v>0.133012</v>
+        <v>0.133082</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0197073</v>
+        <v>0.0196145</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0209377</v>
+        <v>0.0210803</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0215026</v>
+        <v>0.0200835</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0197001</v>
+        <v>0.0197459</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0209542</v>
+        <v>0.0211534</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0216221</v>
+        <v>0.0200245</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0196973</v>
+        <v>0.0199362</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0210428</v>
+        <v>0.0211798</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0216967</v>
+        <v>0.0200389</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0197298</v>
+        <v>0.0199585</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0209765</v>
+        <v>0.0211644</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0217613</v>
+        <v>0.0200471</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0198688</v>
+        <v>0.0199807</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0209416</v>
+        <v>0.021241</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0218694</v>
+        <v>0.0201782</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0200792</v>
+        <v>0.020555</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0210965</v>
+        <v>0.0213946</v>
       </c>
       <c r="D7" t="n">
-        <v>0.022304</v>
+        <v>0.0203768</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0200331</v>
+        <v>0.0204415</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0214763</v>
+        <v>0.0214956</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0228841</v>
+        <v>0.0207161</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0204982</v>
+        <v>0.0208348</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0219972</v>
+        <v>0.0221414</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0207154</v>
+        <v>0.019627</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0195504</v>
+        <v>0.0194303</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0208425</v>
+        <v>0.0208114</v>
       </c>
       <c r="D10" t="n">
-        <v>0.021094</v>
+        <v>0.0199017</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0195376</v>
+        <v>0.0195107</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0210775</v>
+        <v>0.0210323</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0212375</v>
+        <v>0.0201067</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0197859</v>
+        <v>0.0197668</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0211288</v>
+        <v>0.0211179</v>
       </c>
       <c r="D12" t="n">
-        <v>0.021364</v>
+        <v>0.0201965</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0197816</v>
+        <v>0.0197415</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0216538</v>
+        <v>0.0213545</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0216672</v>
+        <v>0.0205491</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.019853</v>
+        <v>0.0199804</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0218014</v>
+        <v>0.0217042</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0220572</v>
+        <v>0.0209226</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0200213</v>
+        <v>0.0199946</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0217876</v>
+        <v>0.022032</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02219</v>
+        <v>0.021157</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0201917</v>
+        <v>0.020561</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0219619</v>
+        <v>0.0221331</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0229336</v>
+        <v>0.021391</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0202697</v>
+        <v>0.0204532</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0220922</v>
+        <v>0.0223004</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0228643</v>
+        <v>0.0215596</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0205028</v>
+        <v>0.0206636</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0222888</v>
+        <v>0.0226073</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0229067</v>
+        <v>0.0216309</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0205032</v>
+        <v>0.0207765</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0225977</v>
+        <v>0.0228937</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0233131</v>
+        <v>0.0217206</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.020615</v>
+        <v>0.0211587</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0231155</v>
+        <v>0.0231484</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0235737</v>
+        <v>0.0221193</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02089</v>
+        <v>0.0214781</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0231101</v>
+        <v>0.0237206</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0242744</v>
+        <v>0.0222264</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0212872</v>
+        <v>0.0220934</v>
       </c>
       <c r="C22" t="n">
-        <v>0.024059</v>
+        <v>0.0242461</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0264755</v>
+        <v>0.0232391</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0224242</v>
+        <v>0.0244436</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0264322</v>
+        <v>0.0263135</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0220667</v>
+        <v>0.0211792</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0204668</v>
+        <v>0.020542</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0217443</v>
+        <v>0.0219561</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0223003</v>
+        <v>0.0214483</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0206503</v>
+        <v>0.0205617</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0220424</v>
+        <v>0.0223095</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0223958</v>
+        <v>0.0217742</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0207723</v>
+        <v>0.0208425</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0222743</v>
+        <v>0.0223961</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0227259</v>
+        <v>0.0218902</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0208942</v>
+        <v>0.0209971</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0225415</v>
+        <v>0.0226033</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0229093</v>
+        <v>0.0223189</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0211522</v>
+        <v>0.0212638</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0228865</v>
+        <v>0.0230551</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0233689</v>
+        <v>0.0226319</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0212941</v>
+        <v>0.0212511</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0231414</v>
+        <v>0.0232686</v>
       </c>
       <c r="D29" t="n">
-        <v>0.023683</v>
+        <v>0.0228884</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0212592</v>
+        <v>0.0216582</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0234982</v>
+        <v>0.02381</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0241052</v>
+        <v>0.0231331</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0216545</v>
+        <v>0.0217991</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0238198</v>
+        <v>0.0241278</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0244646</v>
+        <v>0.0232832</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0215713</v>
+        <v>0.0222727</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0242011</v>
+        <v>0.0244223</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0249198</v>
+        <v>0.0234737</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0219524</v>
+        <v>0.0223083</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0247539</v>
+        <v>0.0251991</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0253953</v>
+        <v>0.0242059</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0221608</v>
+        <v>0.0231583</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0254145</v>
+        <v>0.0259742</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0268626</v>
+        <v>0.0249066</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0236093</v>
+        <v>0.0242593</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0271029</v>
+        <v>0.0275492</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0305189</v>
+        <v>0.0264485</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0262236</v>
+        <v>0.0273437</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0295729</v>
+        <v>0.029495</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0354297</v>
+        <v>0.0301951</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.030101</v>
+        <v>0.0306345</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0333307</v>
+        <v>0.0337997</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0231148</v>
+        <v>0.022425</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0216357</v>
+        <v>0.021515</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0231189</v>
+        <v>0.0231606</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0233647</v>
+        <v>0.0226983</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0216029</v>
+        <v>0.0216319</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0233639</v>
+        <v>0.0233632</v>
       </c>
       <c r="D39" t="n">
-        <v>0.023688</v>
+        <v>0.0228744</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0218461</v>
+        <v>0.0219023</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0236718</v>
+        <v>0.0237318</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0238123</v>
+        <v>0.0231135</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0219633</v>
+        <v>0.0222239</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0240672</v>
+        <v>0.0240691</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0241328</v>
+        <v>0.0234122</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.022197</v>
+        <v>0.0222018</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0243553</v>
+        <v>0.0243658</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0244663</v>
+        <v>0.0236797</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0223642</v>
+        <v>0.0226031</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0247444</v>
+        <v>0.0247619</v>
       </c>
       <c r="D43" t="n">
-        <v>0.024814</v>
+        <v>0.0239935</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0226494</v>
+        <v>0.0229193</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0251676</v>
+        <v>0.0252462</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0253131</v>
+        <v>0.0243751</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0230291</v>
+        <v>0.0233427</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0256814</v>
+        <v>0.0257529</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0258879</v>
+        <v>0.0247918</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0232904</v>
+        <v>0.0238007</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0262928</v>
+        <v>0.0263621</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0266317</v>
+        <v>0.025277</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0236873</v>
+        <v>0.0245544</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0270702</v>
+        <v>0.027084</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0276581</v>
+        <v>0.0262058</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0249125</v>
+        <v>0.0253868</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0283097</v>
+        <v>0.0282268</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0292878</v>
+        <v>0.0278348</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0269013</v>
+        <v>0.0268296</v>
       </c>
       <c r="C49" t="n">
-        <v>0.029795</v>
+        <v>0.0295218</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0329279</v>
+        <v>0.0303573</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0295028</v>
+        <v>0.0293594</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0318403</v>
+        <v>0.031842</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0367257</v>
+        <v>0.0334412</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0345504</v>
+        <v>0.0334984</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0355393</v>
+        <v>0.0347935</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0237806</v>
+        <v>0.023416</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0396764</v>
+        <v>0.0385871</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0407747</v>
+        <v>0.0406625</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0240429</v>
+        <v>0.0234408</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0232309</v>
+        <v>0.0229787</v>
       </c>
       <c r="C53" t="n">
-        <v>0.02474</v>
+        <v>0.0246932</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0243527</v>
+        <v>0.0238882</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0232743</v>
+        <v>0.0233075</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0249664</v>
+        <v>0.0250266</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0244799</v>
+        <v>0.0239868</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0234007</v>
+        <v>0.0237242</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0253813</v>
+        <v>0.02529</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0247896</v>
+        <v>0.0244035</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0238864</v>
+        <v>0.0236695</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0256613</v>
+        <v>0.0256596</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0252847</v>
+        <v>0.0245789</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0241508</v>
+        <v>0.0241098</v>
       </c>
       <c r="C57" t="n">
-        <v>0.026042</v>
+        <v>0.0260159</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0256525</v>
+        <v>0.0250425</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0242914</v>
+        <v>0.0244749</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0265094</v>
+        <v>0.026458</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0260622</v>
+        <v>0.0254687</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0248363</v>
+        <v>0.0252801</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0270872</v>
+        <v>0.0271494</v>
       </c>
       <c r="D59" t="n">
-        <v>0.026695</v>
+        <v>0.025991</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0251891</v>
+        <v>0.0257916</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0278518</v>
+        <v>0.0278688</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0275349</v>
+        <v>0.0266137</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0262257</v>
+        <v>0.0267486</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0286598</v>
+        <v>0.0286091</v>
       </c>
       <c r="D61" t="n">
-        <v>0.028729</v>
+        <v>0.0276911</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0273224</v>
+        <v>0.0277733</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0298417</v>
+        <v>0.0297934</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0305201</v>
+        <v>0.0291237</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0293198</v>
+        <v>0.0293492</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0314304</v>
+        <v>0.0313731</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0333882</v>
+        <v>0.0319059</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0320313</v>
+        <v>0.0320667</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0337081</v>
+        <v>0.0336025</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0372594</v>
+        <v>0.0352147</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.035932</v>
+        <v>0.0355173</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0367638</v>
+        <v>0.0367262</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0430303</v>
+        <v>0.0410242</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0417077</v>
+        <v>0.0411584</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0414584</v>
+        <v>0.0414178</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0256412</v>
+        <v>0.0254187</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0279689</v>
+        <v>0.029712</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0267797</v>
+        <v>0.0266496</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0268931</v>
+        <v>0.0255364</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0280762</v>
+        <v>0.0298106</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0272759</v>
+        <v>0.0268937</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0264123</v>
+        <v>0.0257913</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0282775</v>
+        <v>0.0299327</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0274055</v>
+        <v>0.0273199</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0267427</v>
+        <v>0.0257812</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0285752</v>
+        <v>0.0300636</v>
       </c>
       <c r="C70" t="n">
-        <v>0.027896</v>
+        <v>0.0277316</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0271651</v>
+        <v>0.0264739</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0286922</v>
+        <v>0.0303012</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0280535</v>
+        <v>0.0280729</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0281491</v>
+        <v>0.026811</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0289703</v>
+        <v>0.0307357</v>
       </c>
       <c r="C72" t="n">
-        <v>0.028757</v>
+        <v>0.0286055</v>
       </c>
       <c r="D72" t="n">
-        <v>0.028251</v>
+        <v>0.0270619</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0293439</v>
+        <v>0.0309835</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0292927</v>
+        <v>0.0291104</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0291903</v>
+        <v>0.0278683</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0300044</v>
+        <v>0.0315757</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0300888</v>
+        <v>0.0296969</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0301441</v>
+        <v>0.0287099</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0308581</v>
+        <v>0.0323581</v>
       </c>
       <c r="C75" t="n">
-        <v>0.030963</v>
+        <v>0.0306759</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0309445</v>
+        <v>0.0296107</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0320427</v>
+        <v>0.0335282</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0316925</v>
+        <v>0.0319139</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0326979</v>
+        <v>0.031519</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0337024</v>
+        <v>0.0353641</v>
       </c>
       <c r="C77" t="n">
-        <v>0.033743</v>
+        <v>0.0333936</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0348793</v>
+        <v>0.0336751</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0364768</v>
+        <v>0.0377909</v>
       </c>
       <c r="C78" t="n">
-        <v>0.035655</v>
+        <v>0.0354707</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0385768</v>
+        <v>0.036809</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0399744</v>
+        <v>0.0411747</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0384892</v>
+        <v>0.0384101</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0436189</v>
+        <v>0.0417763</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.044686</v>
+        <v>0.0461386</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0426347</v>
+        <v>0.0425258</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0392578</v>
+        <v>0.0366726</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0551948</v>
+        <v>0.0580733</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0356154</v>
+        <v>0.0353592</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0397527</v>
+        <v>0.0375944</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0556353</v>
+        <v>0.0550056</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0363806</v>
+        <v>0.0360312</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0407293</v>
+        <v>0.0383868</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0558043</v>
+        <v>0.0551761</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0371016</v>
+        <v>0.0368381</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0417117</v>
+        <v>0.0389436</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0558961</v>
+        <v>0.055241</v>
       </c>
       <c r="C84" t="n">
-        <v>0.038266</v>
+        <v>0.0379076</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0418887</v>
+        <v>0.0397244</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0561572</v>
+        <v>0.0554101</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0392054</v>
+        <v>0.0391883</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0428235</v>
+        <v>0.0404541</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.056341</v>
+        <v>0.0557004</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0409402</v>
+        <v>0.040429</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0435847</v>
+        <v>0.0413441</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0566363</v>
+        <v>0.0559217</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0420873</v>
+        <v>0.0419119</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0442763</v>
+        <v>0.0413567</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0569924</v>
+        <v>0.0562358</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0432503</v>
+        <v>0.0434489</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0451926</v>
+        <v>0.0422121</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.057448</v>
+        <v>0.0567523</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0451014</v>
+        <v>0.0448871</v>
       </c>
       <c r="D89" t="n">
-        <v>0.046813</v>
+        <v>0.0438976</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.058389</v>
+        <v>0.0575035</v>
       </c>
       <c r="C90" t="n">
-        <v>0.046458</v>
+        <v>0.0465981</v>
       </c>
       <c r="D90" t="n">
-        <v>0.047808</v>
+        <v>0.0452117</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0594959</v>
+        <v>0.0586199</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0481495</v>
+        <v>0.0484297</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0501385</v>
+        <v>0.0472284</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0611731</v>
+        <v>0.061087</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0504466</v>
+        <v>0.0524248</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0530092</v>
+        <v>0.0503611</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0635279</v>
+        <v>0.06296359999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0532813</v>
+        <v>0.0534017</v>
       </c>
       <c r="D93" t="n">
-        <v>0.056879</v>
+        <v>0.0540175</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0674611</v>
+        <v>0.0667942</v>
       </c>
       <c r="C94" t="n">
-        <v>0.057405</v>
+        <v>0.0575098</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0779791</v>
+        <v>0.0725547</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.08584890000000001</v>
+        <v>0.0863515</v>
       </c>
       <c r="C95" t="n">
-        <v>0.06894500000000001</v>
+        <v>0.0691659</v>
       </c>
       <c r="D95" t="n">
-        <v>0.07844180000000001</v>
+        <v>0.0729897</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.08580210000000001</v>
+        <v>0.0864909</v>
       </c>
       <c r="C96" t="n">
-        <v>0.06947449999999999</v>
+        <v>0.0696215</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0789337</v>
+        <v>0.0734557</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0860041</v>
+        <v>0.0865491</v>
       </c>
       <c r="C97" t="n">
-        <v>0.07017950000000001</v>
+        <v>0.07015929999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.07972799999999999</v>
+        <v>0.07392079999999999</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0861552</v>
+        <v>0.08663510000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07073450000000001</v>
+        <v>0.0707535</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0817397</v>
+        <v>0.0745266</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0864806</v>
+        <v>0.0870147</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0715549</v>
+        <v>0.0712749</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0809339</v>
+        <v>0.0750036</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0868305</v>
+        <v>0.0868753</v>
       </c>
       <c r="C100" t="n">
-        <v>0.07186380000000001</v>
+        <v>0.0719689</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0814178</v>
+        <v>0.07546799999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08645650000000001</v>
+        <v>0.0870927</v>
       </c>
       <c r="C101" t="n">
-        <v>0.07264329999999999</v>
+        <v>0.07276630000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.08197450000000001</v>
+        <v>0.0762413</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.08685130000000001</v>
+        <v>0.087328</v>
       </c>
       <c r="C102" t="n">
-        <v>0.07349319999999999</v>
+        <v>0.07359019999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.08272019999999999</v>
+        <v>0.0888557</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.08722389999999999</v>
+        <v>0.0877477</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0744962</v>
+        <v>0.07466440000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0838598</v>
+        <v>0.0780858</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0878772</v>
+        <v>0.0881207</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0757273</v>
+        <v>0.0773311</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0851601</v>
+        <v>0.07984910000000001</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.08871229999999999</v>
+        <v>0.0890724</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0770632</v>
+        <v>0.0771945</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0865517</v>
+        <v>0.0807131</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.089751</v>
+        <v>0.0903665</v>
       </c>
       <c r="C106" t="n">
-        <v>0.078829</v>
+        <v>0.07901710000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0887976</v>
+        <v>0.0831711</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.09205099999999999</v>
+        <v>0.09235699999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0819091</v>
+        <v>0.0814444</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0931968</v>
+        <v>0.0866257</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0960608</v>
+        <v>0.0956999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0854483</v>
+        <v>0.085082</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0967744</v>
+        <v>0.0906993</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100103</v>
+        <v>0.102627</v>
       </c>
       <c r="C109" t="n">
-        <v>0.091076</v>
+        <v>0.0911802</v>
       </c>
       <c r="D109" t="n">
-        <v>0.09746970000000001</v>
+        <v>0.0938562</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.109053</v>
+        <v>0.107847</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0835866</v>
+        <v>0.0839371</v>
       </c>
       <c r="D110" t="n">
-        <v>0.09833069999999999</v>
+        <v>0.09220009999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.109347</v>
+        <v>0.10763</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0844408</v>
+        <v>0.084811</v>
       </c>
       <c r="D111" t="n">
-        <v>0.099049</v>
+        <v>0.0930139</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.109457</v>
+        <v>0.107823</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0853941</v>
+        <v>0.0855482</v>
       </c>
       <c r="D112" t="n">
-        <v>0.100068</v>
+        <v>0.09397560000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.109768</v>
+        <v>0.107922</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0863066</v>
+        <v>0.0865673</v>
       </c>
       <c r="D113" t="n">
-        <v>0.101062</v>
+        <v>0.0949165</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.110062</v>
+        <v>0.108931</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0876794</v>
+        <v>0.09495290000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.10203</v>
+        <v>0.09592970000000001</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.110278</v>
+        <v>0.108288</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0886542</v>
+        <v>0.0889884</v>
       </c>
       <c r="D115" t="n">
-        <v>0.103186</v>
+        <v>0.09703440000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.110718</v>
+        <v>0.108369</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0899215</v>
+        <v>0.0903582</v>
       </c>
       <c r="D116" t="n">
-        <v>0.103195</v>
+        <v>0.0984323</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.111226</v>
+        <v>0.10877</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0910514</v>
+        <v>0.09179470000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.106076</v>
+        <v>0.0997493</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.118479</v>
+        <v>0.112607</v>
       </c>
       <c r="C118" t="n">
-        <v>0.09307509999999999</v>
+        <v>0.0935013</v>
       </c>
       <c r="D118" t="n">
-        <v>0.106157</v>
+        <v>0.101504</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.112708</v>
+        <v>0.110063</v>
       </c>
       <c r="C119" t="n">
-        <v>0.09491339999999999</v>
+        <v>0.0952677</v>
       </c>
       <c r="D119" t="n">
-        <v>0.109883</v>
+        <v>0.103733</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.114006</v>
+        <v>0.111843</v>
       </c>
       <c r="C120" t="n">
-        <v>0.09649870000000001</v>
+        <v>0.09748279999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.110677</v>
+        <v>0.106232</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.124651</v>
+        <v>0.113321</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0998594</v>
+        <v>0.100219</v>
       </c>
       <c r="D121" t="n">
-        <v>0.116441</v>
+        <v>0.109975</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.121138</v>
+        <v>0.115984</v>
       </c>
       <c r="C122" t="n">
-        <v>0.104053</v>
+        <v>0.104179</v>
       </c>
       <c r="D122" t="n">
-        <v>0.122549</v>
+        <v>0.116037</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.123255</v>
+        <v>0.120741</v>
       </c>
       <c r="C123" t="n">
-        <v>0.110772</v>
+        <v>0.110037</v>
       </c>
       <c r="D123" t="n">
-        <v>0.112716</v>
+        <v>0.108286</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.141117</v>
+        <v>0.140713</v>
       </c>
       <c r="C124" t="n">
-        <v>0.09719469999999999</v>
+        <v>0.0974661</v>
       </c>
       <c r="D124" t="n">
-        <v>0.114404</v>
+        <v>0.109246</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.140221</v>
+        <v>0.140442</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0982785</v>
+        <v>0.0986187</v>
       </c>
       <c r="D125" t="n">
-        <v>0.115014</v>
+        <v>0.110437</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.140383</v>
+        <v>0.140512</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0999052</v>
+        <v>0.100001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.117234</v>
+        <v>0.111633</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.142047</v>
+        <v>0.140786</v>
       </c>
       <c r="C127" t="n">
-        <v>0.115861</v>
+        <v>0.101516</v>
       </c>
       <c r="D127" t="n">
-        <v>0.11799</v>
+        <v>0.112801</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.140448</v>
+        <v>0.140779</v>
       </c>
       <c r="C128" t="n">
-        <v>0.102845</v>
+        <v>0.102977</v>
       </c>
       <c r="D128" t="n">
-        <v>0.118888</v>
+        <v>0.11398</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.140913</v>
+        <v>0.140824</v>
       </c>
       <c r="C129" t="n">
-        <v>0.104414</v>
+        <v>0.104499</v>
       </c>
       <c r="D129" t="n">
-        <v>0.120319</v>
+        <v>0.115318</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.141007</v>
+        <v>0.141357</v>
       </c>
       <c r="C130" t="n">
-        <v>0.105931</v>
+        <v>0.106208</v>
       </c>
       <c r="D130" t="n">
-        <v>0.121947</v>
+        <v>0.116819</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.141428</v>
+        <v>0.141848</v>
       </c>
       <c r="C131" t="n">
-        <v>0.10768</v>
+        <v>0.107981</v>
       </c>
       <c r="D131" t="n">
-        <v>0.12406</v>
+        <v>0.119468</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.142017</v>
+        <v>0.142301</v>
       </c>
       <c r="C132" t="n">
-        <v>0.109535</v>
+        <v>0.109801</v>
       </c>
       <c r="D132" t="n">
-        <v>0.125992</v>
+        <v>0.120389</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.141976</v>
+        <v>0.143089</v>
       </c>
       <c r="C133" t="n">
-        <v>0.11161</v>
+        <v>0.111834</v>
       </c>
       <c r="D133" t="n">
-        <v>0.128284</v>
+        <v>0.1229</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.143063</v>
+        <v>0.143957</v>
       </c>
       <c r="C134" t="n">
-        <v>0.114282</v>
+        <v>0.11449</v>
       </c>
       <c r="D134" t="n">
-        <v>0.13129</v>
+        <v>0.125742</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.144389</v>
+        <v>0.145494</v>
       </c>
       <c r="C135" t="n">
-        <v>0.123929</v>
+        <v>0.117339</v>
       </c>
       <c r="D135" t="n">
-        <v>0.135159</v>
+        <v>0.129905</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.167422</v>
+        <v>0.148257</v>
       </c>
       <c r="C136" t="n">
-        <v>0.121119</v>
+        <v>0.121485</v>
       </c>
       <c r="D136" t="n">
-        <v>0.150045</v>
+        <v>0.136452</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.164232</v>
+        <v>0.152555</v>
       </c>
       <c r="C137" t="n">
-        <v>0.127207</v>
+        <v>0.127455</v>
       </c>
       <c r="D137" t="n">
-        <v>0.12518</v>
+        <v>0.11906</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.15787</v>
+        <v>0.157888</v>
       </c>
       <c r="C138" t="n">
-        <v>0.108685</v>
+        <v>0.108793</v>
       </c>
       <c r="D138" t="n">
-        <v>0.126378</v>
+        <v>0.120192</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.158037</v>
+        <v>0.158018</v>
       </c>
       <c r="C139" t="n">
-        <v>0.109895</v>
+        <v>0.109976</v>
       </c>
       <c r="D139" t="n">
-        <v>0.127673</v>
+        <v>0.121289</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.158096</v>
+        <v>0.158093</v>
       </c>
       <c r="C140" t="n">
-        <v>0.111373</v>
+        <v>0.111535</v>
       </c>
       <c r="D140" t="n">
-        <v>0.12881</v>
+        <v>0.122943</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158233</v>
+        <v>0.158729</v>
       </c>
       <c r="C141" t="n">
-        <v>0.112705</v>
+        <v>0.113321</v>
       </c>
       <c r="D141" t="n">
-        <v>0.130109</v>
+        <v>0.126098</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.15824</v>
+        <v>0.159007</v>
       </c>
       <c r="C142" t="n">
-        <v>0.114262</v>
+        <v>0.115018</v>
       </c>
       <c r="D142" t="n">
-        <v>0.131617</v>
+        <v>0.12571</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158254</v>
+        <v>0.158629</v>
       </c>
       <c r="C143" t="n">
-        <v>0.115772</v>
+        <v>0.115916</v>
       </c>
       <c r="D143" t="n">
-        <v>0.133082</v>
+        <v>0.126308</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0196145</v>
+        <v>0.0198743</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0210803</v>
+        <v>0.0210875</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0200835</v>
+        <v>0.0201757</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0197459</v>
+        <v>0.0199968</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0211534</v>
+        <v>0.0212336</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0200245</v>
+        <v>0.0200322</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0199362</v>
+        <v>0.0201628</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0211798</v>
+        <v>0.021135</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0200389</v>
+        <v>0.0200597</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0199585</v>
+        <v>0.0201541</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0211644</v>
+        <v>0.0212132</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0200471</v>
+        <v>0.0200798</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0199807</v>
+        <v>0.020263</v>
       </c>
       <c r="C6" t="n">
-        <v>0.021241</v>
+        <v>0.0211579</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0201782</v>
+        <v>0.0201751</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.020555</v>
+        <v>0.0204409</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0213946</v>
+        <v>0.0214335</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0203768</v>
+        <v>0.020477</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0204415</v>
+        <v>0.020449</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0214956</v>
+        <v>0.0215241</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0207161</v>
+        <v>0.0208081</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0208348</v>
+        <v>0.0209243</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0221414</v>
+        <v>0.02189</v>
       </c>
       <c r="D9" t="n">
-        <v>0.019627</v>
+        <v>0.0197324</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0194303</v>
+        <v>0.0194003</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0208114</v>
+        <v>0.0208727</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0199017</v>
+        <v>0.0199166</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0195107</v>
+        <v>0.0195837</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0210323</v>
+        <v>0.0210559</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0201067</v>
+        <v>0.0200784</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0197668</v>
+        <v>0.019821</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0211179</v>
+        <v>0.0211967</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0201965</v>
+        <v>0.0202741</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0197415</v>
+        <v>0.0199249</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0213545</v>
+        <v>0.0213645</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0205491</v>
+        <v>0.0204439</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0199804</v>
+        <v>0.0200712</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0217042</v>
+        <v>0.0216444</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0209226</v>
+        <v>0.0209435</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0199946</v>
+        <v>0.0203882</v>
       </c>
       <c r="C15" t="n">
-        <v>0.022032</v>
+        <v>0.0220222</v>
       </c>
       <c r="D15" t="n">
-        <v>0.021157</v>
+        <v>0.0211472</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.020561</v>
+        <v>0.0205409</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0221331</v>
+        <v>0.0222128</v>
       </c>
       <c r="D16" t="n">
-        <v>0.021391</v>
+        <v>0.021566</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0204532</v>
+        <v>0.0207748</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0223004</v>
+        <v>0.0223195</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0215596</v>
+        <v>0.021541</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0206636</v>
+        <v>0.0210515</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0226073</v>
+        <v>0.0225515</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0216309</v>
+        <v>0.0215392</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0207765</v>
+        <v>0.0210631</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0228937</v>
+        <v>0.0227826</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0217206</v>
+        <v>0.021719</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0211587</v>
+        <v>0.0212123</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0231484</v>
+        <v>0.0232451</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0221193</v>
+        <v>0.021991</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0214781</v>
+        <v>0.0215213</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0237206</v>
+        <v>0.0236558</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0222264</v>
+        <v>0.0223108</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0220934</v>
+        <v>0.0221164</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0242461</v>
+        <v>0.0245975</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0232391</v>
+        <v>0.0231828</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0244436</v>
+        <v>0.0234588</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0263135</v>
+        <v>0.0263895</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0211792</v>
+        <v>0.0211901</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.020542</v>
+        <v>0.020549</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0219561</v>
+        <v>0.021909</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0214483</v>
+        <v>0.0214251</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0205617</v>
+        <v>0.0206035</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0223095</v>
+        <v>0.0222024</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0217742</v>
+        <v>0.0216257</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0208425</v>
+        <v>0.0206689</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0223961</v>
+        <v>0.0224459</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0218902</v>
+        <v>0.0219243</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0209971</v>
+        <v>0.0210947</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0226033</v>
+        <v>0.0226451</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0223189</v>
+        <v>0.0222982</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0212638</v>
+        <v>0.0211975</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0230551</v>
+        <v>0.0230475</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0226319</v>
+        <v>0.022515</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0212511</v>
+        <v>0.0214355</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0232686</v>
+        <v>0.0233097</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0228884</v>
+        <v>0.0226781</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0216582</v>
+        <v>0.0217159</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02381</v>
+        <v>0.0237681</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0231331</v>
+        <v>0.0230517</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0217991</v>
+        <v>0.0219793</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0241278</v>
+        <v>0.0239446</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0232832</v>
+        <v>0.0233094</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0222727</v>
+        <v>0.0223819</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0244223</v>
+        <v>0.0244404</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0234737</v>
+        <v>0.0235521</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0223083</v>
+        <v>0.0226684</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0251991</v>
+        <v>0.0249312</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0242059</v>
+        <v>0.0237604</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0231583</v>
+        <v>0.0233671</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0259742</v>
+        <v>0.0259756</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0249066</v>
+        <v>0.0247161</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0242593</v>
+        <v>0.0246178</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0275492</v>
+        <v>0.0269358</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0264485</v>
+        <v>0.0263036</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0273437</v>
+        <v>0.0266042</v>
       </c>
       <c r="C36" t="n">
-        <v>0.029495</v>
+        <v>0.0294786</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0301951</v>
+        <v>0.0317386</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0306345</v>
+        <v>0.0309763</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0337997</v>
+        <v>0.033275</v>
       </c>
       <c r="D37" t="n">
-        <v>0.022425</v>
+        <v>0.0224714</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.021515</v>
+        <v>0.0214531</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0231606</v>
+        <v>0.0230401</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0226983</v>
+        <v>0.0226137</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0216319</v>
+        <v>0.0217111</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0233632</v>
+        <v>0.0232978</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0228744</v>
+        <v>0.0228163</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0219023</v>
+        <v>0.0218706</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0237318</v>
+        <v>0.0236289</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0231135</v>
+        <v>0.0230843</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0222239</v>
+        <v>0.0220304</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0240691</v>
+        <v>0.0240489</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0234122</v>
+        <v>0.023298</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0222018</v>
+        <v>0.0223113</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0243658</v>
+        <v>0.0243691</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0236797</v>
+        <v>0.0236834</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0226031</v>
+        <v>0.0225417</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0247619</v>
+        <v>0.0248116</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0239935</v>
+        <v>0.0240286</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0229193</v>
+        <v>0.0228581</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0252462</v>
+        <v>0.0252406</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0243751</v>
+        <v>0.0243977</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0233427</v>
+        <v>0.0232842</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0257529</v>
+        <v>0.0257183</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0247918</v>
+        <v>0.0247879</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0238007</v>
+        <v>0.0236826</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0263621</v>
+        <v>0.0263094</v>
       </c>
       <c r="D46" t="n">
-        <v>0.025277</v>
+        <v>0.0253105</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0245544</v>
+        <v>0.0243997</v>
       </c>
       <c r="C47" t="n">
-        <v>0.027084</v>
+        <v>0.0270242</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0262058</v>
+        <v>0.0262083</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0253868</v>
+        <v>0.0254681</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0282268</v>
+        <v>0.0281191</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0278348</v>
+        <v>0.0276136</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0268296</v>
+        <v>0.0273496</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0295218</v>
+        <v>0.0296422</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0303573</v>
+        <v>0.0304713</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0293594</v>
+        <v>0.0296714</v>
       </c>
       <c r="C50" t="n">
-        <v>0.031842</v>
+        <v>0.0319562</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0334412</v>
+        <v>0.0349685</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0334984</v>
+        <v>0.0336106</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0347935</v>
+        <v>0.0353058</v>
       </c>
       <c r="D51" t="n">
-        <v>0.023416</v>
+        <v>0.0232478</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0385871</v>
+        <v>0.0393876</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0406625</v>
+        <v>0.0407432</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0234408</v>
+        <v>0.0234805</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0229787</v>
+        <v>0.023296</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0246932</v>
+        <v>0.0247033</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0238882</v>
+        <v>0.023721</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0233075</v>
+        <v>0.0233737</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0250266</v>
+        <v>0.0249985</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0239868</v>
+        <v>0.0239449</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0237242</v>
+        <v>0.0236113</v>
       </c>
       <c r="C55" t="n">
-        <v>0.02529</v>
+        <v>0.0253304</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0244035</v>
+        <v>0.024286</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0236695</v>
+        <v>0.0238425</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0256596</v>
+        <v>0.025685</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0245789</v>
+        <v>0.0245728</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0241098</v>
+        <v>0.0242561</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0260159</v>
+        <v>0.0260813</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0250425</v>
+        <v>0.0249745</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0244749</v>
+        <v>0.0245308</v>
       </c>
       <c r="C58" t="n">
-        <v>0.026458</v>
+        <v>0.0265174</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0254687</v>
+        <v>0.0253266</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0252801</v>
+        <v>0.025017</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0271494</v>
+        <v>0.0271047</v>
       </c>
       <c r="D59" t="n">
-        <v>0.025991</v>
+        <v>0.0258282</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0257916</v>
+        <v>0.0255403</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0278688</v>
+        <v>0.0277943</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0266137</v>
+        <v>0.0265243</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0267486</v>
+        <v>0.0264567</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0286091</v>
+        <v>0.0285918</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0276911</v>
+        <v>0.0275252</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0277733</v>
+        <v>0.0276212</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0297934</v>
+        <v>0.0297414</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0291237</v>
+        <v>0.0290969</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0293492</v>
+        <v>0.0292517</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0313731</v>
+        <v>0.0313659</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0319059</v>
+        <v>0.0318293</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0320667</v>
+        <v>0.0317032</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0336025</v>
+        <v>0.0335882</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0352147</v>
+        <v>0.0356419</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0355173</v>
+        <v>0.0355088</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0367262</v>
+        <v>0.0366872</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0410242</v>
+        <v>0.0413807</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0411584</v>
+        <v>0.0406627</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0414178</v>
+        <v>0.0414733</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0254187</v>
+        <v>0.0253915</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.029712</v>
+        <v>0.0290262</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0266496</v>
+        <v>0.0272187</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0255364</v>
+        <v>0.0258129</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0298106</v>
+        <v>0.0291517</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0268937</v>
+        <v>0.0271128</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0257913</v>
+        <v>0.0260228</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0299327</v>
+        <v>0.0293489</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0273199</v>
+        <v>0.0277667</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0257812</v>
+        <v>0.0265734</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0300636</v>
+        <v>0.0295853</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0277316</v>
+        <v>0.0280813</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0264739</v>
+        <v>0.0266864</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0303012</v>
+        <v>0.0298881</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0280729</v>
+        <v>0.0281337</v>
       </c>
       <c r="D71" t="n">
-        <v>0.026811</v>
+        <v>0.0270798</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0307357</v>
+        <v>0.0302133</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0286055</v>
+        <v>0.0289021</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0270619</v>
+        <v>0.0278268</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0309835</v>
+        <v>0.0306228</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0291104</v>
+        <v>0.0294646</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0278683</v>
+        <v>0.0284088</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0315757</v>
+        <v>0.0312005</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0296969</v>
+        <v>0.0301727</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0287099</v>
+        <v>0.0289783</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0323581</v>
+        <v>0.032006</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0306759</v>
+        <v>0.0311058</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0296107</v>
+        <v>0.0300341</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0335282</v>
+        <v>0.0332192</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0319139</v>
+        <v>0.0319297</v>
       </c>
       <c r="D76" t="n">
-        <v>0.031519</v>
+        <v>0.0316605</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0353641</v>
+        <v>0.034889</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0333936</v>
+        <v>0.0337674</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0336751</v>
+        <v>0.0341485</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0377909</v>
+        <v>0.037235</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0354707</v>
+        <v>0.0356947</v>
       </c>
       <c r="D78" t="n">
-        <v>0.036809</v>
+        <v>0.0369904</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0411747</v>
+        <v>0.0408164</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0384101</v>
+        <v>0.0384642</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0417763</v>
+        <v>0.0424698</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0461386</v>
+        <v>0.0454428</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0425258</v>
+        <v>0.0427</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0366726</v>
+        <v>0.036625</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0580733</v>
+        <v>0.0556207</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0353592</v>
+        <v>0.0351256</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0375944</v>
+        <v>0.0373495</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0550056</v>
+        <v>0.0554185</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0360312</v>
+        <v>0.0356764</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0383868</v>
+        <v>0.0380482</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0551761</v>
+        <v>0.0555064</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0368381</v>
+        <v>0.0367695</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0389436</v>
+        <v>0.0385494</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.055241</v>
+        <v>0.0556802</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0379076</v>
+        <v>0.0376792</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0397244</v>
+        <v>0.0392789</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0554101</v>
+        <v>0.0558299</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0391883</v>
+        <v>0.0388828</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0404541</v>
+        <v>0.0400802</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0557004</v>
+        <v>0.056028</v>
       </c>
       <c r="C86" t="n">
-        <v>0.040429</v>
+        <v>0.0404548</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0413441</v>
+        <v>0.040757</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0559217</v>
+        <v>0.0563593</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0419119</v>
+        <v>0.0411097</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0413567</v>
+        <v>0.0418021</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0562358</v>
+        <v>0.056644</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0434489</v>
+        <v>0.0432846</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0422121</v>
+        <v>0.0426546</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0567523</v>
+        <v>0.0571888</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0448871</v>
+        <v>0.0448349</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0438976</v>
+        <v>0.0435745</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0575035</v>
+        <v>0.0580983</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0465981</v>
+        <v>0.046335</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0452117</v>
+        <v>0.0448173</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0586199</v>
+        <v>0.0589235</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0484297</v>
+        <v>0.0475459</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0472284</v>
+        <v>0.0468761</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.061087</v>
+        <v>0.0605363</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0524248</v>
+        <v>0.0497327</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0503611</v>
+        <v>0.0493134</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.06296359999999999</v>
+        <v>0.0631027</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0534017</v>
+        <v>0.053216</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0540175</v>
+        <v>0.0538616</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0667942</v>
+        <v>0.0669126</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0575098</v>
+        <v>0.0572923</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0725547</v>
+        <v>0.07260220000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0863515</v>
+        <v>0.08606510000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0691659</v>
+        <v>0.0690754</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0729897</v>
+        <v>0.073048</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0864909</v>
+        <v>0.0858773</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0696215</v>
+        <v>0.06970990000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0734557</v>
+        <v>0.0794184</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0865491</v>
+        <v>0.0861087</v>
       </c>
       <c r="C97" t="n">
-        <v>0.07015929999999999</v>
+        <v>0.0700958</v>
       </c>
       <c r="D97" t="n">
-        <v>0.07392079999999999</v>
+        <v>0.0739271</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.08663510000000001</v>
+        <v>0.086225</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0707535</v>
+        <v>0.0705152</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0745266</v>
+        <v>0.0744722</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0870147</v>
+        <v>0.0862668</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0712749</v>
+        <v>0.0711263</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0750036</v>
+        <v>0.07498539999999999</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0868753</v>
+        <v>0.0864651</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0719689</v>
+        <v>0.07179820000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.07546799999999999</v>
+        <v>0.0756257</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0870927</v>
+        <v>0.0865127</v>
       </c>
       <c r="C101" t="n">
-        <v>0.07276630000000001</v>
+        <v>0.072451</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0762413</v>
+        <v>0.07630770000000001</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.087328</v>
+        <v>0.0869366</v>
       </c>
       <c r="C102" t="n">
-        <v>0.07359019999999999</v>
+        <v>0.07367899999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0888557</v>
+        <v>0.0771017</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0877477</v>
+        <v>0.0873269</v>
       </c>
       <c r="C103" t="n">
-        <v>0.07466440000000001</v>
+        <v>0.07427449999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0780858</v>
+        <v>0.07800219999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0881207</v>
+        <v>0.087953</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0773311</v>
+        <v>0.0756318</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07984910000000001</v>
+        <v>0.07920770000000001</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0890724</v>
+        <v>0.0886282</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0771945</v>
+        <v>0.0769678</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0807131</v>
+        <v>0.0809652</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0903665</v>
+        <v>0.0899117</v>
       </c>
       <c r="C106" t="n">
-        <v>0.07901710000000001</v>
+        <v>0.0787928</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0831711</v>
+        <v>0.0831277</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.09235699999999999</v>
+        <v>0.09212819999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0814444</v>
+        <v>0.0812277</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0866257</v>
+        <v>0.08673019999999999</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0956999</v>
+        <v>0.09531389999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.085082</v>
+        <v>0.0850592</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0906993</v>
+        <v>0.08968470000000001</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.102627</v>
+        <v>0.1004</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0911802</v>
+        <v>0.0913303</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0938562</v>
+        <v>0.0918144</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.107847</v>
+        <v>0.114684</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0839371</v>
+        <v>0.0833575</v>
       </c>
       <c r="D110" t="n">
-        <v>0.09220009999999999</v>
+        <v>0.09101860000000001</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.10763</v>
+        <v>0.114527</v>
       </c>
       <c r="C111" t="n">
-        <v>0.084811</v>
+        <v>0.0838248</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0930139</v>
+        <v>0.09182369999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.107823</v>
+        <v>0.1141</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0855482</v>
+        <v>0.0845669</v>
       </c>
       <c r="D112" t="n">
-        <v>0.09397560000000001</v>
+        <v>0.0935185</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.107922</v>
+        <v>0.11513</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0865673</v>
+        <v>0.0863527</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0949165</v>
+        <v>0.0949089</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.108931</v>
+        <v>0.116672</v>
       </c>
       <c r="C114" t="n">
-        <v>0.09495290000000001</v>
+        <v>0.0864176</v>
       </c>
       <c r="D114" t="n">
-        <v>0.09592970000000001</v>
+        <v>0.0941015</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.108288</v>
+        <v>0.114597</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0889884</v>
+        <v>0.0875625</v>
       </c>
       <c r="D115" t="n">
-        <v>0.09703440000000001</v>
+        <v>0.0954739</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108369</v>
+        <v>0.114787</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0903582</v>
+        <v>0.0888414</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0984323</v>
+        <v>0.0968079</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.10877</v>
+        <v>0.115505</v>
       </c>
       <c r="C117" t="n">
-        <v>0.09179470000000001</v>
+        <v>0.0904119</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0997493</v>
+        <v>0.0980866</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.112607</v>
+        <v>0.115816</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0935013</v>
+        <v>0.0921669</v>
       </c>
       <c r="D118" t="n">
-        <v>0.101504</v>
+        <v>0.09963959999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.110063</v>
+        <v>0.11665</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0952677</v>
+        <v>0.0939209</v>
       </c>
       <c r="D119" t="n">
-        <v>0.103733</v>
+        <v>0.101867</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111843</v>
+        <v>0.117754</v>
       </c>
       <c r="C120" t="n">
-        <v>0.09748279999999999</v>
+        <v>0.096097</v>
       </c>
       <c r="D120" t="n">
-        <v>0.106232</v>
+        <v>0.103941</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.113321</v>
+        <v>0.119815</v>
       </c>
       <c r="C121" t="n">
-        <v>0.100219</v>
+        <v>0.0984969</v>
       </c>
       <c r="D121" t="n">
-        <v>0.109975</v>
+        <v>0.108247</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.115984</v>
+        <v>0.122557</v>
       </c>
       <c r="C122" t="n">
-        <v>0.104179</v>
+        <v>0.102665</v>
       </c>
       <c r="D122" t="n">
-        <v>0.116037</v>
+        <v>0.114241</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.120741</v>
+        <v>0.126862</v>
       </c>
       <c r="C123" t="n">
-        <v>0.110037</v>
+        <v>0.108632</v>
       </c>
       <c r="D123" t="n">
-        <v>0.108286</v>
+        <v>0.107091</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.140713</v>
+        <v>0.134707</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0974661</v>
+        <v>0.097278</v>
       </c>
       <c r="D124" t="n">
-        <v>0.109246</v>
+        <v>0.108178</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.140442</v>
+        <v>0.134168</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0986187</v>
+        <v>0.0980466</v>
       </c>
       <c r="D125" t="n">
-        <v>0.110437</v>
+        <v>0.109289</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.140512</v>
+        <v>0.134376</v>
       </c>
       <c r="C126" t="n">
-        <v>0.100001</v>
+        <v>0.09978140000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.111633</v>
+        <v>0.110111</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.140786</v>
+        <v>0.134519</v>
       </c>
       <c r="C127" t="n">
-        <v>0.101516</v>
+        <v>0.100857</v>
       </c>
       <c r="D127" t="n">
-        <v>0.112801</v>
+        <v>0.111598</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.140779</v>
+        <v>0.134502</v>
       </c>
       <c r="C128" t="n">
-        <v>0.102977</v>
+        <v>0.102352</v>
       </c>
       <c r="D128" t="n">
-        <v>0.11398</v>
+        <v>0.113096</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.140824</v>
+        <v>0.134532</v>
       </c>
       <c r="C129" t="n">
-        <v>0.104499</v>
+        <v>0.103831</v>
       </c>
       <c r="D129" t="n">
-        <v>0.115318</v>
+        <v>0.114463</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.141357</v>
+        <v>0.135103</v>
       </c>
       <c r="C130" t="n">
-        <v>0.106208</v>
+        <v>0.105552</v>
       </c>
       <c r="D130" t="n">
-        <v>0.116819</v>
+        <v>0.115959</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.141848</v>
+        <v>0.13508</v>
       </c>
       <c r="C131" t="n">
-        <v>0.107981</v>
+        <v>0.107227</v>
       </c>
       <c r="D131" t="n">
-        <v>0.119468</v>
+        <v>0.117738</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.142301</v>
+        <v>0.136049</v>
       </c>
       <c r="C132" t="n">
-        <v>0.109801</v>
+        <v>0.109091</v>
       </c>
       <c r="D132" t="n">
-        <v>0.120389</v>
+        <v>0.119655</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.143089</v>
+        <v>0.136102</v>
       </c>
       <c r="C133" t="n">
-        <v>0.111834</v>
+        <v>0.111325</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1229</v>
+        <v>0.121935</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.143957</v>
+        <v>0.137675</v>
       </c>
       <c r="C134" t="n">
-        <v>0.11449</v>
+        <v>0.113504</v>
       </c>
       <c r="D134" t="n">
-        <v>0.125742</v>
+        <v>0.125146</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.145494</v>
+        <v>0.139072</v>
       </c>
       <c r="C135" t="n">
-        <v>0.117339</v>
+        <v>0.116416</v>
       </c>
       <c r="D135" t="n">
-        <v>0.129905</v>
+        <v>0.129107</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.148257</v>
+        <v>0.141854</v>
       </c>
       <c r="C136" t="n">
-        <v>0.121485</v>
+        <v>0.120532</v>
       </c>
       <c r="D136" t="n">
-        <v>0.136452</v>
+        <v>0.135535</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.152555</v>
+        <v>0.14554</v>
       </c>
       <c r="C137" t="n">
-        <v>0.127455</v>
+        <v>0.126456</v>
       </c>
       <c r="D137" t="n">
-        <v>0.11906</v>
+        <v>0.120032</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.157888</v>
+        <v>0.158076</v>
       </c>
       <c r="C138" t="n">
-        <v>0.108793</v>
+        <v>0.109395</v>
       </c>
       <c r="D138" t="n">
-        <v>0.120192</v>
+        <v>0.121316</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.158018</v>
+        <v>0.158039</v>
       </c>
       <c r="C139" t="n">
-        <v>0.109976</v>
+        <v>0.110927</v>
       </c>
       <c r="D139" t="n">
-        <v>0.121289</v>
+        <v>0.122497</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.158093</v>
+        <v>0.158122</v>
       </c>
       <c r="C140" t="n">
-        <v>0.111535</v>
+        <v>0.112218</v>
       </c>
       <c r="D140" t="n">
-        <v>0.122943</v>
+        <v>0.123605</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158729</v>
+        <v>0.158178</v>
       </c>
       <c r="C141" t="n">
-        <v>0.113321</v>
+        <v>0.113791</v>
       </c>
       <c r="D141" t="n">
-        <v>0.126098</v>
+        <v>0.125905</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.159007</v>
+        <v>0.159736</v>
       </c>
       <c r="C142" t="n">
-        <v>0.115018</v>
+        <v>0.115203</v>
       </c>
       <c r="D142" t="n">
-        <v>0.12571</v>
+        <v>0.126133</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158629</v>
+        <v>0.158564</v>
       </c>
       <c r="C143" t="n">
-        <v>0.115916</v>
+        <v>0.116715</v>
       </c>
       <c r="D143" t="n">
-        <v>0.126308</v>
+        <v>0.127352</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0198743</v>
+        <v>0.0198722</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0210875</v>
+        <v>0.0210661</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0201757</v>
+        <v>0.0200603</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0199968</v>
+        <v>0.0200533</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0212336</v>
+        <v>0.021101</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0200322</v>
+        <v>0.0200554</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0201628</v>
+        <v>0.0200216</v>
       </c>
       <c r="C4" t="n">
-        <v>0.021135</v>
+        <v>0.0212582</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0200597</v>
+        <v>0.0200271</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0201541</v>
+        <v>0.0202013</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0212132</v>
+        <v>0.0211414</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0200798</v>
+        <v>0.0200289</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.020263</v>
+        <v>0.020315</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0211579</v>
+        <v>0.0210903</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0201751</v>
+        <v>0.0201847</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0204409</v>
+        <v>0.0204812</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0214335</v>
+        <v>0.0213443</v>
       </c>
       <c r="D7" t="n">
-        <v>0.020477</v>
+        <v>0.0205349</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.020449</v>
+        <v>0.0205349</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0215241</v>
+        <v>0.0215692</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0208081</v>
+        <v>0.0208122</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0209243</v>
+        <v>0.0208391</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02189</v>
+        <v>0.0220705</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0197324</v>
+        <v>0.0196533</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0194003</v>
+        <v>0.0196055</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0208727</v>
+        <v>0.0208559</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0199166</v>
+        <v>0.0200074</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0195837</v>
+        <v>0.0195968</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0210559</v>
+        <v>0.021085</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0200784</v>
+        <v>0.0200878</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.019821</v>
+        <v>0.0198022</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0211967</v>
+        <v>0.0211602</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0202741</v>
+        <v>0.0202097</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0199249</v>
+        <v>0.0201072</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0213645</v>
+        <v>0.0213589</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0204439</v>
+        <v>0.0204286</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0200712</v>
+        <v>0.0200307</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0216444</v>
+        <v>0.0216169</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0209435</v>
+        <v>0.020875</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0203882</v>
+        <v>0.0204119</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0220222</v>
+        <v>0.0220186</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0211472</v>
+        <v>0.0211013</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0205409</v>
+        <v>0.0205182</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0222128</v>
+        <v>0.0222435</v>
       </c>
       <c r="D16" t="n">
-        <v>0.021566</v>
+        <v>0.0215684</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0207748</v>
+        <v>0.0207726</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0223195</v>
+        <v>0.0223689</v>
       </c>
       <c r="D17" t="n">
-        <v>0.021541</v>
+        <v>0.0214415</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0210515</v>
+        <v>0.0209141</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0225515</v>
+        <v>0.0225764</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0215392</v>
+        <v>0.0215791</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0210631</v>
+        <v>0.0210338</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0227826</v>
+        <v>0.0227486</v>
       </c>
       <c r="D19" t="n">
-        <v>0.021719</v>
+        <v>0.0216158</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0212123</v>
+        <v>0.0214899</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0232451</v>
+        <v>0.0231281</v>
       </c>
       <c r="D20" t="n">
-        <v>0.021991</v>
+        <v>0.0217458</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0215213</v>
+        <v>0.0217131</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0236558</v>
+        <v>0.0237683</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0223108</v>
+        <v>0.0221479</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0221164</v>
+        <v>0.0222404</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0245975</v>
+        <v>0.0243189</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0231828</v>
+        <v>0.0232391</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0234588</v>
+        <v>0.0242271</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0263895</v>
+        <v>0.0265355</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0211901</v>
+        <v>0.0212097</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.020549</v>
+        <v>0.0204142</v>
       </c>
       <c r="C24" t="n">
-        <v>0.021909</v>
+        <v>0.0218729</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0214251</v>
+        <v>0.0213821</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0206035</v>
+        <v>0.020566</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0222024</v>
+        <v>0.0222187</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0216257</v>
+        <v>0.0215637</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0206689</v>
+        <v>0.0207811</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0224459</v>
+        <v>0.0224413</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0219243</v>
+        <v>0.0218358</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0210947</v>
+        <v>0.0211224</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0226451</v>
+        <v>0.0226523</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0222982</v>
+        <v>0.0220436</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0211975</v>
+        <v>0.0212932</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0230475</v>
+        <v>0.0229947</v>
       </c>
       <c r="D28" t="n">
-        <v>0.022515</v>
+        <v>0.0224924</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0214355</v>
+        <v>0.0215804</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0233097</v>
+        <v>0.0233319</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0226781</v>
+        <v>0.0227552</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0217159</v>
+        <v>0.0216101</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0237681</v>
+        <v>0.023639</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0230517</v>
+        <v>0.0230836</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0219793</v>
+        <v>0.0219472</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0239446</v>
+        <v>0.0240649</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0233094</v>
+        <v>0.0233624</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0223819</v>
+        <v>0.0222795</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0244404</v>
+        <v>0.0243583</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0235521</v>
+        <v>0.0235194</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0226684</v>
+        <v>0.0226611</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0249312</v>
+        <v>0.0248153</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0237604</v>
+        <v>0.0237575</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0233671</v>
+        <v>0.0229582</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0259756</v>
+        <v>0.0260714</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0247161</v>
+        <v>0.0248043</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0246178</v>
+        <v>0.0251319</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0269358</v>
+        <v>0.0273552</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0263036</v>
+        <v>0.0268004</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0266042</v>
+        <v>0.0275782</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0294786</v>
+        <v>0.0293077</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0317386</v>
+        <v>0.0301668</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0309763</v>
+        <v>0.031253</v>
       </c>
       <c r="C37" t="n">
-        <v>0.033275</v>
+        <v>0.0331239</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0224714</v>
+        <v>0.0224888</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0214531</v>
+        <v>0.02171</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0230401</v>
+        <v>0.0231791</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0226137</v>
+        <v>0.0226341</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0217111</v>
+        <v>0.0216572</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0232978</v>
+        <v>0.023445</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0228163</v>
+        <v>0.022943</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0218706</v>
+        <v>0.0218241</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0236289</v>
+        <v>0.0237049</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0230843</v>
+        <v>0.0231478</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0220304</v>
+        <v>0.0219291</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0240489</v>
+        <v>0.024059</v>
       </c>
       <c r="D41" t="n">
-        <v>0.023298</v>
+        <v>0.0233963</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0223113</v>
+        <v>0.0221295</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0243691</v>
+        <v>0.0243801</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0236834</v>
+        <v>0.023728</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0225417</v>
+        <v>0.0223503</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0248116</v>
+        <v>0.0248092</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0240286</v>
+        <v>0.023991</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0228581</v>
+        <v>0.0227721</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0252406</v>
+        <v>0.0252336</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0243977</v>
+        <v>0.0244452</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0232842</v>
+        <v>0.0230677</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0257183</v>
+        <v>0.0257656</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0247879</v>
+        <v>0.0248731</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0236826</v>
+        <v>0.0235162</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0263094</v>
+        <v>0.0263014</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0253105</v>
+        <v>0.0252915</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0243997</v>
+        <v>0.024312</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0270242</v>
+        <v>0.0270723</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0262083</v>
+        <v>0.0261683</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0254681</v>
+        <v>0.0251222</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0281191</v>
+        <v>0.028178</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0276136</v>
+        <v>0.0275659</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0273496</v>
+        <v>0.0267938</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0296422</v>
+        <v>0.029621</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0304713</v>
+        <v>0.0310427</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0296714</v>
+        <v>0.0291694</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0319562</v>
+        <v>0.0321158</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0349685</v>
+        <v>0.0349159</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0336106</v>
+        <v>0.0333584</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0353058</v>
+        <v>0.0353096</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0232478</v>
+        <v>0.0232256</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0393876</v>
+        <v>0.0390158</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0407432</v>
+        <v>0.0409446</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0234805</v>
+        <v>0.0234723</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.023296</v>
+        <v>0.0231028</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0247033</v>
+        <v>0.0246997</v>
       </c>
       <c r="D53" t="n">
-        <v>0.023721</v>
+        <v>0.0237134</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0233737</v>
+        <v>0.0232973</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0249985</v>
+        <v>0.024937</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0239449</v>
+        <v>0.0239115</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0236113</v>
+        <v>0.0234859</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0253304</v>
+        <v>0.0253992</v>
       </c>
       <c r="D55" t="n">
-        <v>0.024286</v>
+        <v>0.0242977</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0238425</v>
+        <v>0.0238069</v>
       </c>
       <c r="C56" t="n">
-        <v>0.025685</v>
+        <v>0.0256696</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0245728</v>
+        <v>0.024561</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0242561</v>
+        <v>0.0241002</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0260813</v>
+        <v>0.0260406</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0249745</v>
+        <v>0.0248717</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0245308</v>
+        <v>0.0243814</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0265174</v>
+        <v>0.0265245</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0253266</v>
+        <v>0.0253182</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.025017</v>
+        <v>0.0248257</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0271047</v>
+        <v>0.0271243</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0258282</v>
+        <v>0.0258675</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0255403</v>
+        <v>0.0254634</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0277943</v>
+        <v>0.0277572</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0265243</v>
+        <v>0.0264961</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0264567</v>
+        <v>0.0263483</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0285918</v>
+        <v>0.0286559</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0275252</v>
+        <v>0.0275048</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0276212</v>
+        <v>0.0275953</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0297414</v>
+        <v>0.029681</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0290969</v>
+        <v>0.0291176</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0292517</v>
+        <v>0.029507</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0313659</v>
+        <v>0.0313698</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0318293</v>
+        <v>0.0315927</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0317032</v>
+        <v>0.0319481</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0335882</v>
+        <v>0.0334725</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0356419</v>
+        <v>0.0354038</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0355088</v>
+        <v>0.0355484</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0366872</v>
+        <v>0.0367414</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0413807</v>
+        <v>0.0413349</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0406627</v>
+        <v>0.0408357</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0414733</v>
+        <v>0.0412443</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0253915</v>
+        <v>0.0252238</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0290262</v>
+        <v>0.0287205</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0272187</v>
+        <v>0.026189</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0258129</v>
+        <v>0.0257371</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0291517</v>
+        <v>0.0287787</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0271128</v>
+        <v>0.0270164</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0260228</v>
+        <v>0.0257146</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0293489</v>
+        <v>0.0289668</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0277667</v>
+        <v>0.0273678</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0265734</v>
+        <v>0.0262987</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0295853</v>
+        <v>0.0291514</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0280813</v>
+        <v>0.0276619</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0266864</v>
+        <v>0.0263823</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0298881</v>
+        <v>0.0293022</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0281337</v>
+        <v>0.0275462</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0270798</v>
+        <v>0.0267208</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0302133</v>
+        <v>0.0294735</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0289021</v>
+        <v>0.0284801</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0278268</v>
+        <v>0.0272152</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0306228</v>
+        <v>0.0301353</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0294646</v>
+        <v>0.0290538</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0284088</v>
+        <v>0.0278239</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0312005</v>
+        <v>0.0306885</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0301727</v>
+        <v>0.0294007</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0289783</v>
+        <v>0.0286783</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.032006</v>
+        <v>0.0314291</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0311058</v>
+        <v>0.0308611</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0300341</v>
+        <v>0.0298918</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0332192</v>
+        <v>0.0326657</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0319297</v>
+        <v>0.0317757</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0316605</v>
+        <v>0.0315025</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.034889</v>
+        <v>0.034439</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0337674</v>
+        <v>0.0333832</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0341485</v>
+        <v>0.0337929</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.037235</v>
+        <v>0.0368189</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0356947</v>
+        <v>0.0354739</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0369904</v>
+        <v>0.0371069</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0408164</v>
+        <v>0.0404369</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0384642</v>
+        <v>0.0385885</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0424698</v>
+        <v>0.0420169</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0454428</v>
+        <v>0.045468</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0427</v>
+        <v>0.0428267</v>
       </c>
       <c r="D80" t="n">
-        <v>0.036625</v>
+        <v>0.0368517</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0556207</v>
+        <v>0.0571923</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0351256</v>
+        <v>0.0352853</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0373495</v>
+        <v>0.0374699</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0554185</v>
+        <v>0.0570363</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0356764</v>
+        <v>0.0359939</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0380482</v>
+        <v>0.0382681</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0555064</v>
+        <v>0.057224</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0367695</v>
+        <v>0.0367965</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0385494</v>
+        <v>0.0390448</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0556802</v>
+        <v>0.0573075</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0376792</v>
+        <v>0.0379589</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0392789</v>
+        <v>0.0395486</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0558299</v>
+        <v>0.0659872</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0388828</v>
+        <v>0.0392023</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0400802</v>
+        <v>0.0408468</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.056028</v>
+        <v>0.0577582</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0404548</v>
+        <v>0.0403264</v>
       </c>
       <c r="D86" t="n">
-        <v>0.040757</v>
+        <v>0.0413203</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0563593</v>
+        <v>0.0579333</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0411097</v>
+        <v>0.0418639</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0418021</v>
+        <v>0.0422689</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.056644</v>
+        <v>0.0583984</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0432846</v>
+        <v>0.043203</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0426546</v>
+        <v>0.0431185</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0571888</v>
+        <v>0.0589955</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0448349</v>
+        <v>0.0447682</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0435745</v>
+        <v>0.0440562</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0580983</v>
+        <v>0.059668</v>
       </c>
       <c r="C90" t="n">
-        <v>0.046335</v>
+        <v>0.0463599</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0448173</v>
+        <v>0.0452771</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0589235</v>
+        <v>0.0607035</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0475459</v>
+        <v>0.048209</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0468761</v>
+        <v>0.0471263</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0605363</v>
+        <v>0.0622332</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0497327</v>
+        <v>0.0506347</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0493134</v>
+        <v>0.049979</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0631027</v>
+        <v>0.0647104</v>
       </c>
       <c r="C93" t="n">
-        <v>0.053216</v>
+        <v>0.0532309</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0538616</v>
+        <v>0.053973</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0669126</v>
+        <v>0.0686162</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0572923</v>
+        <v>0.0574894</v>
       </c>
       <c r="D94" t="n">
-        <v>0.07260220000000001</v>
+        <v>0.0726199</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.08606510000000001</v>
+        <v>0.0859236</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0690754</v>
+        <v>0.0690042</v>
       </c>
       <c r="D95" t="n">
-        <v>0.073048</v>
+        <v>0.0730229</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0858773</v>
+        <v>0.0859071</v>
       </c>
       <c r="C96" t="n">
-        <v>0.06970990000000001</v>
+        <v>0.0696566</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0794184</v>
+        <v>0.0734654</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0861087</v>
+        <v>0.08610370000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0700958</v>
+        <v>0.0702171</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0739271</v>
+        <v>0.073876</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.086225</v>
+        <v>0.08611770000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0705152</v>
+        <v>0.070441</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0744722</v>
+        <v>0.0743709</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0862668</v>
+        <v>0.08615630000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0711263</v>
+        <v>0.07138</v>
       </c>
       <c r="D99" t="n">
-        <v>0.07498539999999999</v>
+        <v>0.07499409999999999</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0864651</v>
+        <v>0.08641649999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.07179820000000001</v>
+        <v>0.0718432</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0756257</v>
+        <v>0.07559340000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0865127</v>
+        <v>0.086605</v>
       </c>
       <c r="C101" t="n">
-        <v>0.072451</v>
+        <v>0.07282470000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.07630770000000001</v>
+        <v>0.07635119999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0869366</v>
+        <v>0.0868607</v>
       </c>
       <c r="C102" t="n">
-        <v>0.07367899999999999</v>
+        <v>0.07347099999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0771017</v>
+        <v>0.0770658</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0873269</v>
+        <v>0.0871498</v>
       </c>
       <c r="C103" t="n">
-        <v>0.07427449999999999</v>
+        <v>0.0747787</v>
       </c>
       <c r="D103" t="n">
-        <v>0.07800219999999999</v>
+        <v>0.0780019</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.087953</v>
+        <v>0.0876363</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0756318</v>
+        <v>0.0759412</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07920770000000001</v>
+        <v>0.0791439</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0886282</v>
+        <v>0.0996194</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0769678</v>
+        <v>0.0769975</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0809652</v>
+        <v>0.0807696</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0899117</v>
+        <v>0.089724</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0787928</v>
+        <v>0.078888</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0831277</v>
+        <v>0.08308309999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.09212819999999999</v>
+        <v>0.0917808</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0812277</v>
+        <v>0.0864714</v>
       </c>
       <c r="D107" t="n">
-        <v>0.08673019999999999</v>
+        <v>0.0867704</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.09531389999999999</v>
+        <v>0.0950564</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0850592</v>
+        <v>0.0850756</v>
       </c>
       <c r="D108" t="n">
-        <v>0.08968470000000001</v>
+        <v>0.0899297</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1004</v>
+        <v>0.100025</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0913303</v>
+        <v>0.0911197</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0918144</v>
+        <v>0.0907293</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.114684</v>
+        <v>0.107751</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0833575</v>
+        <v>0.08396380000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.09101860000000001</v>
+        <v>0.0913947</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.114527</v>
+        <v>0.10779</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0838248</v>
+        <v>0.0846504</v>
       </c>
       <c r="D111" t="n">
-        <v>0.09182369999999999</v>
+        <v>0.09220639999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1141</v>
+        <v>0.107835</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0845669</v>
+        <v>0.08572050000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0935185</v>
+        <v>0.0933384</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.11513</v>
+        <v>0.108026</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0863527</v>
+        <v>0.0866594</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0949089</v>
+        <v>0.094095</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.116672</v>
+        <v>0.108158</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0864176</v>
+        <v>0.08767220000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0941015</v>
+        <v>0.0952664</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.114597</v>
+        <v>0.11865</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0875625</v>
+        <v>0.08907660000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0954739</v>
+        <v>0.09665269999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.114787</v>
+        <v>0.108487</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0888414</v>
+        <v>0.0900294</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0968079</v>
+        <v>0.0974743</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.115505</v>
+        <v>0.109009</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0904119</v>
+        <v>0.09172859999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0980866</v>
+        <v>0.0991097</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.115816</v>
+        <v>0.109592</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0921669</v>
+        <v>0.09344040000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.09963959999999999</v>
+        <v>0.100572</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.11665</v>
+        <v>0.11801</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0939209</v>
+        <v>0.0948623</v>
       </c>
       <c r="D119" t="n">
-        <v>0.101867</v>
+        <v>0.102661</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.117754</v>
+        <v>0.111548</v>
       </c>
       <c r="C120" t="n">
-        <v>0.096097</v>
+        <v>0.09734810000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.103941</v>
+        <v>0.105395</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.119815</v>
+        <v>0.113165</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0984969</v>
+        <v>0.106416</v>
       </c>
       <c r="D121" t="n">
-        <v>0.108247</v>
+        <v>0.108777</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.122557</v>
+        <v>0.116444</v>
       </c>
       <c r="C122" t="n">
-        <v>0.102665</v>
+        <v>0.10316</v>
       </c>
       <c r="D122" t="n">
-        <v>0.114241</v>
+        <v>0.114817</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.126862</v>
+        <v>0.12107</v>
       </c>
       <c r="C123" t="n">
-        <v>0.108632</v>
+        <v>0.109838</v>
       </c>
       <c r="D123" t="n">
-        <v>0.107091</v>
+        <v>0.108416</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.134707</v>
+        <v>0.134468</v>
       </c>
       <c r="C124" t="n">
-        <v>0.097278</v>
+        <v>0.0967838</v>
       </c>
       <c r="D124" t="n">
-        <v>0.108178</v>
+        <v>0.109529</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.134168</v>
+        <v>0.141313</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0980466</v>
+        <v>0.0965144</v>
       </c>
       <c r="D125" t="n">
-        <v>0.109289</v>
+        <v>0.110596</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.134376</v>
+        <v>0.141446</v>
       </c>
       <c r="C126" t="n">
-        <v>0.09978140000000001</v>
+        <v>0.0980408</v>
       </c>
       <c r="D126" t="n">
-        <v>0.110111</v>
+        <v>0.111895</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.134519</v>
+        <v>0.141379</v>
       </c>
       <c r="C127" t="n">
-        <v>0.100857</v>
+        <v>0.0994487</v>
       </c>
       <c r="D127" t="n">
-        <v>0.111598</v>
+        <v>0.112924</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.134502</v>
+        <v>0.141584</v>
       </c>
       <c r="C128" t="n">
-        <v>0.102352</v>
+        <v>0.100921</v>
       </c>
       <c r="D128" t="n">
-        <v>0.113096</v>
+        <v>0.11412</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.134532</v>
+        <v>0.141709</v>
       </c>
       <c r="C129" t="n">
-        <v>0.103831</v>
+        <v>0.102463</v>
       </c>
       <c r="D129" t="n">
-        <v>0.114463</v>
+        <v>0.115667</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.135103</v>
+        <v>0.141731</v>
       </c>
       <c r="C130" t="n">
-        <v>0.105552</v>
+        <v>0.104099</v>
       </c>
       <c r="D130" t="n">
-        <v>0.115959</v>
+        <v>0.117032</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.13508</v>
+        <v>0.159857</v>
       </c>
       <c r="C131" t="n">
-        <v>0.107227</v>
+        <v>0.105941</v>
       </c>
       <c r="D131" t="n">
-        <v>0.117738</v>
+        <v>0.118785</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.136049</v>
+        <v>0.142673</v>
       </c>
       <c r="C132" t="n">
-        <v>0.109091</v>
+        <v>0.107824</v>
       </c>
       <c r="D132" t="n">
-        <v>0.119655</v>
+        <v>0.120576</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.136102</v>
+        <v>0.143771</v>
       </c>
       <c r="C133" t="n">
-        <v>0.111325</v>
+        <v>0.109992</v>
       </c>
       <c r="D133" t="n">
-        <v>0.121935</v>
+        <v>0.123001</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.137675</v>
+        <v>0.144346</v>
       </c>
       <c r="C134" t="n">
-        <v>0.113504</v>
+        <v>0.112504</v>
       </c>
       <c r="D134" t="n">
-        <v>0.125146</v>
+        <v>0.125971</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.139072</v>
+        <v>0.151956</v>
       </c>
       <c r="C135" t="n">
-        <v>0.116416</v>
+        <v>0.115467</v>
       </c>
       <c r="D135" t="n">
-        <v>0.129107</v>
+        <v>0.130105</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.141854</v>
+        <v>0.148429</v>
       </c>
       <c r="C136" t="n">
-        <v>0.120532</v>
+        <v>0.119473</v>
       </c>
       <c r="D136" t="n">
-        <v>0.135535</v>
+        <v>0.136454</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.14554</v>
+        <v>0.154626</v>
       </c>
       <c r="C137" t="n">
-        <v>0.126456</v>
+        <v>0.125547</v>
       </c>
       <c r="D137" t="n">
-        <v>0.120032</v>
+        <v>0.11919</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.158076</v>
+        <v>0.157802</v>
       </c>
       <c r="C138" t="n">
-        <v>0.109395</v>
+        <v>0.108707</v>
       </c>
       <c r="D138" t="n">
-        <v>0.121316</v>
+        <v>0.120201</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.158039</v>
+        <v>0.158092</v>
       </c>
       <c r="C139" t="n">
-        <v>0.110927</v>
+        <v>0.110013</v>
       </c>
       <c r="D139" t="n">
-        <v>0.122497</v>
+        <v>0.121261</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.158122</v>
+        <v>0.162709</v>
       </c>
       <c r="C140" t="n">
-        <v>0.112218</v>
+        <v>0.111287</v>
       </c>
       <c r="D140" t="n">
-        <v>0.123605</v>
+        <v>0.122446</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158178</v>
+        <v>0.158022</v>
       </c>
       <c r="C141" t="n">
-        <v>0.113791</v>
+        <v>0.11281</v>
       </c>
       <c r="D141" t="n">
-        <v>0.125905</v>
+        <v>0.123582</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.159736</v>
+        <v>0.158401</v>
       </c>
       <c r="C142" t="n">
-        <v>0.115203</v>
+        <v>0.114294</v>
       </c>
       <c r="D142" t="n">
-        <v>0.126133</v>
+        <v>0.124885</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158564</v>
+        <v>0.158429</v>
       </c>
       <c r="C143" t="n">
-        <v>0.116715</v>
+        <v>0.115798</v>
       </c>
       <c r="D143" t="n">
-        <v>0.127352</v>
+        <v>0.126252</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0198722</v>
+        <v>0.0192569</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0210661</v>
+        <v>0.0212373</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0200603</v>
+        <v>0.0204782</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0200533</v>
+        <v>0.0193791</v>
       </c>
       <c r="C3" t="n">
-        <v>0.021101</v>
+        <v>0.0212894</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0200554</v>
+        <v>0.0203173</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0200216</v>
+        <v>0.0195413</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0212582</v>
+        <v>0.0213254</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0200271</v>
+        <v>0.0203509</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0202013</v>
+        <v>0.0195495</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0211414</v>
+        <v>0.0213222</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0200289</v>
+        <v>0.0202764</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.020315</v>
+        <v>0.0195798</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0210903</v>
+        <v>0.0213556</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0201847</v>
+        <v>0.0205424</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0204812</v>
+        <v>0.0198399</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0213443</v>
+        <v>0.0213422</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0205349</v>
+        <v>0.0205913</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0205349</v>
+        <v>0.0200005</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0215692</v>
+        <v>0.0217824</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0208122</v>
+        <v>0.020898</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0208391</v>
+        <v>0.0201985</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0220705</v>
+        <v>0.0224264</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0196533</v>
+        <v>0.0220492</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0196055</v>
+        <v>0.0195648</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0208559</v>
+        <v>0.0209397</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0200074</v>
+        <v>0.0203854</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0195968</v>
+        <v>0.0195803</v>
       </c>
       <c r="C11" t="n">
-        <v>0.021085</v>
+        <v>0.0213712</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0200878</v>
+        <v>0.0203142</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0198022</v>
+        <v>0.0199445</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0211602</v>
+        <v>0.0213802</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0202097</v>
+        <v>0.0205903</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0201072</v>
+        <v>0.020044</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0213589</v>
+        <v>0.0214708</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0204286</v>
+        <v>0.0208241</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0200307</v>
+        <v>0.020243</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0216169</v>
+        <v>0.0217509</v>
       </c>
       <c r="D14" t="n">
-        <v>0.020875</v>
+        <v>0.0211377</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0204119</v>
+        <v>0.0203477</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0220186</v>
+        <v>0.0222562</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0211013</v>
+        <v>0.0212164</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0205182</v>
+        <v>0.0205354</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0222435</v>
+        <v>0.0224717</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0215684</v>
+        <v>0.0215069</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0207726</v>
+        <v>0.0204608</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0223689</v>
+        <v>0.0224465</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0214415</v>
+        <v>0.0215854</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0209141</v>
+        <v>0.0206519</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0225764</v>
+        <v>0.0226489</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0215791</v>
+        <v>0.0215732</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0210338</v>
+        <v>0.0208384</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0227486</v>
+        <v>0.0231954</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0216158</v>
+        <v>0.021753</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0214899</v>
+        <v>0.0209197</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0231281</v>
+        <v>0.0234781</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0217458</v>
+        <v>0.0218237</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0217131</v>
+        <v>0.0208019</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0237683</v>
+        <v>0.023792</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0221479</v>
+        <v>0.0221873</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0222404</v>
+        <v>0.0214904</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0243189</v>
+        <v>0.024603</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0232391</v>
+        <v>0.0232073</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0242271</v>
+        <v>0.023715</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0265355</v>
+        <v>0.0268579</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0212097</v>
+        <v>0.0280213</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0204142</v>
+        <v>0.0206606</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0218729</v>
+        <v>0.0219302</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0213821</v>
+        <v>0.0208656</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.020566</v>
+        <v>0.0207724</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0222187</v>
+        <v>0.0221517</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0215637</v>
+        <v>0.0211186</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0207811</v>
+        <v>0.0209278</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0224413</v>
+        <v>0.0224023</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0218358</v>
+        <v>0.0213251</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0211224</v>
+        <v>0.0210188</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0226523</v>
+        <v>0.0227189</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0220436</v>
+        <v>0.0215744</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0212932</v>
+        <v>0.0212458</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0229947</v>
+        <v>0.0230559</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0224924</v>
+        <v>0.0219124</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0215804</v>
+        <v>0.0211719</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0233319</v>
+        <v>0.0233833</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0227552</v>
+        <v>0.0222258</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0216101</v>
+        <v>0.0215843</v>
       </c>
       <c r="C30" t="n">
-        <v>0.023639</v>
+        <v>0.023949</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0230836</v>
+        <v>0.0225277</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0219472</v>
+        <v>0.0215563</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0240649</v>
+        <v>0.0241485</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0233624</v>
+        <v>0.0228459</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0222795</v>
+        <v>0.0219562</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0243583</v>
+        <v>0.0245493</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0235194</v>
+        <v>0.023057</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0226611</v>
+        <v>0.0221169</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0248153</v>
+        <v>0.0249777</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0237575</v>
+        <v>0.0232036</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0229582</v>
+        <v>0.0225808</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0260714</v>
+        <v>0.0257743</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0248043</v>
+        <v>0.023726</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0251319</v>
+        <v>0.0231703</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0273552</v>
+        <v>0.0268395</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0268004</v>
+        <v>0.0251409</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0275782</v>
+        <v>0.026688</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0293077</v>
+        <v>0.029902</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0301668</v>
+        <v>0.0310363</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.031253</v>
+        <v>0.0313183</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0331239</v>
+        <v>0.034707</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0224888</v>
+        <v>0.0375434</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.02171</v>
+        <v>0.0215193</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0231791</v>
+        <v>0.0231592</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0226341</v>
+        <v>0.021799</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0216572</v>
+        <v>0.0216266</v>
       </c>
       <c r="C39" t="n">
-        <v>0.023445</v>
+        <v>0.0234951</v>
       </c>
       <c r="D39" t="n">
-        <v>0.022943</v>
+        <v>0.0221553</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0218241</v>
+        <v>0.0219028</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0237049</v>
+        <v>0.0241677</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0231478</v>
+        <v>0.0225155</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0219291</v>
+        <v>0.0221031</v>
       </c>
       <c r="C41" t="n">
-        <v>0.024059</v>
+        <v>0.0244813</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0233963</v>
+        <v>0.0230926</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0221295</v>
+        <v>0.0223187</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0243801</v>
+        <v>0.0245078</v>
       </c>
       <c r="D42" t="n">
-        <v>0.023728</v>
+        <v>0.0228656</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0223503</v>
+        <v>0.0223721</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0248092</v>
+        <v>0.0248976</v>
       </c>
       <c r="D43" t="n">
-        <v>0.023991</v>
+        <v>0.023224</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0227721</v>
+        <v>0.0226495</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0252336</v>
+        <v>0.0253344</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0244452</v>
+        <v>0.0235935</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0230677</v>
+        <v>0.023108</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0257656</v>
+        <v>0.0258892</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0248731</v>
+        <v>0.0240113</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0235162</v>
+        <v>0.0234908</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0263014</v>
+        <v>0.0264706</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0252915</v>
+        <v>0.0245575</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.024312</v>
+        <v>0.0244704</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0270723</v>
+        <v>0.0271748</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0261683</v>
+        <v>0.0253558</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0251222</v>
+        <v>0.0259842</v>
       </c>
       <c r="C48" t="n">
-        <v>0.028178</v>
+        <v>0.0283761</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0275659</v>
+        <v>0.0266155</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0267938</v>
+        <v>0.0272132</v>
       </c>
       <c r="C49" t="n">
-        <v>0.029621</v>
+        <v>0.0299444</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0310427</v>
+        <v>0.0290815</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0291694</v>
+        <v>0.0309817</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0321158</v>
+        <v>0.0322942</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0349159</v>
+        <v>0.0328003</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0333584</v>
+        <v>0.0332771</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0353096</v>
+        <v>0.0358953</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0232256</v>
+        <v>0.0404082</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0390158</v>
+        <v>0.0387864</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0409446</v>
+        <v>0.0414749</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0234723</v>
+        <v>0.04789</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0231028</v>
+        <v>0.0238091</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0246997</v>
+        <v>0.0248188</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0237134</v>
+        <v>0.0231418</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0232973</v>
+        <v>0.0234257</v>
       </c>
       <c r="C54" t="n">
-        <v>0.024937</v>
+        <v>0.025107</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0239115</v>
+        <v>0.0235021</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0234859</v>
+        <v>0.0235045</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0253992</v>
+        <v>0.0254741</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0242977</v>
+        <v>0.0238517</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0238069</v>
+        <v>0.0237603</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0256696</v>
+        <v>0.02581</v>
       </c>
       <c r="D56" t="n">
-        <v>0.024561</v>
+        <v>0.0240678</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0241002</v>
+        <v>0.023969</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0260406</v>
+        <v>0.0260819</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0248717</v>
+        <v>0.0243354</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0243814</v>
+        <v>0.0247131</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0265245</v>
+        <v>0.0265595</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0253182</v>
+        <v>0.024673</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0248257</v>
+        <v>0.0248211</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0271243</v>
+        <v>0.0271757</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0258675</v>
+        <v>0.0253194</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0254634</v>
+        <v>0.0256417</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0277572</v>
+        <v>0.0278161</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0264961</v>
+        <v>0.0258416</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0263483</v>
+        <v>0.0265283</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0286559</v>
+        <v>0.0287805</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0275048</v>
+        <v>0.0268826</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0275953</v>
+        <v>0.0278648</v>
       </c>
       <c r="C62" t="n">
-        <v>0.029681</v>
+        <v>0.0299324</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0291176</v>
+        <v>0.0285827</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.029507</v>
+        <v>0.0294781</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0313698</v>
+        <v>0.0316064</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0315927</v>
+        <v>0.0312111</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0319481</v>
+        <v>0.0317996</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0334725</v>
+        <v>0.0340557</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0354038</v>
+        <v>0.0349909</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0355484</v>
+        <v>0.035999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0367414</v>
+        <v>0.0373402</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0413349</v>
+        <v>0.0404731</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0408357</v>
+        <v>0.0415171</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0412443</v>
+        <v>0.0424289</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0252238</v>
+        <v>0.0482878</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0287205</v>
+        <v>0.0278882</v>
       </c>
       <c r="C67" t="n">
-        <v>0.026189</v>
+        <v>0.0266367</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0257371</v>
+        <v>0.0249726</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0287787</v>
+        <v>0.0280135</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0270164</v>
+        <v>0.0266776</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0257146</v>
+        <v>0.0259347</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0289668</v>
+        <v>0.0281801</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0273678</v>
+        <v>0.0268393</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0262987</v>
+        <v>0.026103</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0291514</v>
+        <v>0.0284451</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0276619</v>
+        <v>0.02757</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0263823</v>
+        <v>0.0257906</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0293022</v>
+        <v>0.0287136</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0275462</v>
+        <v>0.0279606</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0267208</v>
+        <v>0.0261315</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0294735</v>
+        <v>0.0289981</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0284801</v>
+        <v>0.0284771</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0272152</v>
+        <v>0.0272026</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0301353</v>
+        <v>0.0296276</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0290538</v>
+        <v>0.0287521</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0278239</v>
+        <v>0.0277789</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0306885</v>
+        <v>0.0300623</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0294007</v>
+        <v>0.0298691</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0286783</v>
+        <v>0.0289503</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0314291</v>
+        <v>0.0308296</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0308611</v>
+        <v>0.0305164</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0298918</v>
+        <v>0.0298552</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0326657</v>
+        <v>0.0319116</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0317757</v>
+        <v>0.0319857</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0315025</v>
+        <v>0.0308811</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.034439</v>
+        <v>0.0336897</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0333832</v>
+        <v>0.0335639</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0337929</v>
+        <v>0.0337319</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0368189</v>
+        <v>0.0364354</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0354739</v>
+        <v>0.0359619</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0371069</v>
+        <v>0.0366105</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0404369</v>
+        <v>0.0399222</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0385885</v>
+        <v>0.0385853</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0420169</v>
+        <v>0.0416216</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.045468</v>
+        <v>0.0447759</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0428267</v>
+        <v>0.0429863</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0368517</v>
+        <v>0.049009</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0571923</v>
+        <v>0.0548768</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0352853</v>
+        <v>0.0353495</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0374699</v>
+        <v>0.0358875</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0570363</v>
+        <v>0.0551244</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0359939</v>
+        <v>0.0364053</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0382681</v>
+        <v>0.036333</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.057224</v>
+        <v>0.05536</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0367965</v>
+        <v>0.037255</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0390448</v>
+        <v>0.0372137</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0573075</v>
+        <v>0.0555171</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0379589</v>
+        <v>0.0381788</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0395486</v>
+        <v>0.0381553</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0659872</v>
+        <v>0.0557052</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0392023</v>
+        <v>0.0397492</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0408468</v>
+        <v>0.039067</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0577582</v>
+        <v>0.0559838</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0403264</v>
+        <v>0.0407243</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0413203</v>
+        <v>0.0406909</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0579333</v>
+        <v>0.0561109</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0418639</v>
+        <v>0.0420324</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0422689</v>
+        <v>0.042232</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0583984</v>
+        <v>0.0566632</v>
       </c>
       <c r="C88" t="n">
-        <v>0.043203</v>
+        <v>0.0439671</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0431185</v>
+        <v>0.0438968</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0589955</v>
+        <v>0.057092</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0447682</v>
+        <v>0.0451661</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0440562</v>
+        <v>0.0455189</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.059668</v>
+        <v>0.0577427</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0463599</v>
+        <v>0.0466</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0452771</v>
+        <v>0.0474614</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0607035</v>
+        <v>0.0588734</v>
       </c>
       <c r="C91" t="n">
-        <v>0.048209</v>
+        <v>0.0500182</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0471263</v>
+        <v>0.049769</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0622332</v>
+        <v>0.0604184</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0506347</v>
+        <v>0.0503037</v>
       </c>
       <c r="D92" t="n">
-        <v>0.049979</v>
+        <v>0.0526776</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0647104</v>
+        <v>0.06384869999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0532309</v>
+        <v>0.0534046</v>
       </c>
       <c r="D93" t="n">
-        <v>0.053973</v>
+        <v>0.0576212</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0686162</v>
+        <v>0.07087690000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0574894</v>
+        <v>0.0572646</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0726199</v>
+        <v>0.0639694</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0859236</v>
+        <v>0.0922979</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0690042</v>
+        <v>0.0692403</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0730229</v>
+        <v>0.07008880000000001</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0859071</v>
+        <v>0.0861449</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0696566</v>
+        <v>0.06959600000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0734654</v>
+        <v>0.07045609999999999</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.08610370000000001</v>
+        <v>0.0859347</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0702171</v>
+        <v>0.0702897</v>
       </c>
       <c r="D97" t="n">
-        <v>0.073876</v>
+        <v>0.0710273</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.08611770000000001</v>
+        <v>0.0859804</v>
       </c>
       <c r="C98" t="n">
-        <v>0.070441</v>
+        <v>0.07078280000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0743709</v>
+        <v>0.0713524</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.08615630000000001</v>
+        <v>0.0865147</v>
       </c>
       <c r="C99" t="n">
-        <v>0.07138</v>
+        <v>0.0711869</v>
       </c>
       <c r="D99" t="n">
-        <v>0.07499409999999999</v>
+        <v>0.0721227</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08641649999999999</v>
+        <v>0.08613999999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0718432</v>
+        <v>0.0719827</v>
       </c>
       <c r="D100" t="n">
-        <v>0.07559340000000001</v>
+        <v>0.0747593</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.086605</v>
+        <v>0.0864318</v>
       </c>
       <c r="C101" t="n">
-        <v>0.07282470000000001</v>
+        <v>0.0726305</v>
       </c>
       <c r="D101" t="n">
-        <v>0.07635119999999999</v>
+        <v>0.0731603</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0868607</v>
+        <v>0.0866349</v>
       </c>
       <c r="C102" t="n">
-        <v>0.07347099999999999</v>
+        <v>0.0733598</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0770658</v>
+        <v>0.074405</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0871498</v>
+        <v>0.0870346</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0747787</v>
+        <v>0.07478559999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0780019</v>
+        <v>0.07507129999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0876363</v>
+        <v>0.087647</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0759412</v>
+        <v>0.0756143</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0791439</v>
+        <v>0.0767212</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0996194</v>
+        <v>0.08835949999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0769975</v>
+        <v>0.0770344</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0807696</v>
+        <v>0.0782397</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.089724</v>
+        <v>0.0896735</v>
       </c>
       <c r="C106" t="n">
-        <v>0.078888</v>
+        <v>0.0790006</v>
       </c>
       <c r="D106" t="n">
-        <v>0.08308309999999999</v>
+        <v>0.0806977</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0917808</v>
+        <v>0.0916443</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0864714</v>
+        <v>0.08162469999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0867704</v>
+        <v>0.084082</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0950564</v>
+        <v>0.09486509999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0850756</v>
+        <v>0.0851146</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0899297</v>
+        <v>0.09016979999999999</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100025</v>
+        <v>0.0999352</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0911197</v>
+        <v>0.0913805</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0907293</v>
+        <v>0.0994217</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.107751</v>
+        <v>0.110212</v>
       </c>
       <c r="C110" t="n">
-        <v>0.08396380000000001</v>
+        <v>0.0838961</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0913947</v>
+        <v>0.08437840000000001</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.10779</v>
+        <v>0.110751</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0846504</v>
+        <v>0.0845278</v>
       </c>
       <c r="D111" t="n">
-        <v>0.09220639999999999</v>
+        <v>0.0853067</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.107835</v>
+        <v>0.111217</v>
       </c>
       <c r="C112" t="n">
-        <v>0.08572050000000001</v>
+        <v>0.085481</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0933384</v>
+        <v>0.0861721</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.108026</v>
+        <v>0.114463</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0866594</v>
+        <v>0.0861503</v>
       </c>
       <c r="D113" t="n">
-        <v>0.094095</v>
+        <v>0.0871213</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.108158</v>
+        <v>0.111604</v>
       </c>
       <c r="C114" t="n">
-        <v>0.08767220000000001</v>
+        <v>0.0875927</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0952664</v>
+        <v>0.0880322</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.11865</v>
+        <v>0.11201</v>
       </c>
       <c r="C115" t="n">
-        <v>0.08907660000000001</v>
+        <v>0.0884375</v>
       </c>
       <c r="D115" t="n">
-        <v>0.09665269999999999</v>
+        <v>0.0891779</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108487</v>
+        <v>0.112379</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0900294</v>
+        <v>0.090392</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0974743</v>
+        <v>0.0898467</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.109009</v>
+        <v>0.112913</v>
       </c>
       <c r="C117" t="n">
-        <v>0.09172859999999999</v>
+        <v>0.091823</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0991097</v>
+        <v>0.0921119</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.109592</v>
+        <v>0.114399</v>
       </c>
       <c r="C118" t="n">
-        <v>0.09344040000000001</v>
+        <v>0.0933069</v>
       </c>
       <c r="D118" t="n">
-        <v>0.100572</v>
+        <v>0.0929131</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.11801</v>
+        <v>0.114617</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0948623</v>
+        <v>0.0945705</v>
       </c>
       <c r="D119" t="n">
-        <v>0.102661</v>
+        <v>0.09536070000000001</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111548</v>
+        <v>0.116226</v>
       </c>
       <c r="C120" t="n">
-        <v>0.09734810000000001</v>
+        <v>0.09773660000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.105395</v>
+        <v>0.09909519999999999</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.113165</v>
+        <v>0.121977</v>
       </c>
       <c r="C121" t="n">
-        <v>0.106416</v>
+        <v>0.101071</v>
       </c>
       <c r="D121" t="n">
-        <v>0.108777</v>
+        <v>0.106532</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.116444</v>
+        <v>0.123285</v>
       </c>
       <c r="C122" t="n">
-        <v>0.10316</v>
+        <v>0.106763</v>
       </c>
       <c r="D122" t="n">
-        <v>0.114817</v>
+        <v>0.109531</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.12107</v>
+        <v>0.126488</v>
       </c>
       <c r="C123" t="n">
-        <v>0.109838</v>
+        <v>0.109361</v>
       </c>
       <c r="D123" t="n">
-        <v>0.108416</v>
+        <v>0.117905</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.134468</v>
+        <v>0.142106</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0967838</v>
+        <v>0.0973692</v>
       </c>
       <c r="D124" t="n">
-        <v>0.109529</v>
+        <v>0.0980557</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.141313</v>
+        <v>0.140775</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0965144</v>
+        <v>0.0982478</v>
       </c>
       <c r="D125" t="n">
-        <v>0.110596</v>
+        <v>0.0987359</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.141446</v>
+        <v>0.140572</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0980408</v>
+        <v>0.09959229999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.111895</v>
+        <v>0.100602</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.141379</v>
+        <v>0.140994</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0994487</v>
+        <v>0.11303</v>
       </c>
       <c r="D127" t="n">
-        <v>0.112924</v>
+        <v>0.119638</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.141584</v>
+        <v>0.17725</v>
       </c>
       <c r="C128" t="n">
-        <v>0.100921</v>
+        <v>0.134448</v>
       </c>
       <c r="D128" t="n">
-        <v>0.11412</v>
+        <v>0.138728</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.141709</v>
+        <v>0.197097</v>
       </c>
       <c r="C129" t="n">
-        <v>0.102463</v>
+        <v>0.144835</v>
       </c>
       <c r="D129" t="n">
-        <v>0.115667</v>
+        <v>0.146918</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.141731</v>
+        <v>0.195862</v>
       </c>
       <c r="C130" t="n">
-        <v>0.104099</v>
+        <v>0.112114</v>
       </c>
       <c r="D130" t="n">
-        <v>0.117032</v>
+        <v>0.106792</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.159857</v>
+        <v>0.141742</v>
       </c>
       <c r="C131" t="n">
-        <v>0.105941</v>
+        <v>0.107653</v>
       </c>
       <c r="D131" t="n">
-        <v>0.118785</v>
+        <v>0.108885</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.142673</v>
+        <v>0.142311</v>
       </c>
       <c r="C132" t="n">
-        <v>0.107824</v>
+        <v>0.109754</v>
       </c>
       <c r="D132" t="n">
-        <v>0.120576</v>
+        <v>0.110868</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.143771</v>
+        <v>0.14289</v>
       </c>
       <c r="C133" t="n">
-        <v>0.109992</v>
+        <v>0.112123</v>
       </c>
       <c r="D133" t="n">
-        <v>0.123001</v>
+        <v>0.113405</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.144346</v>
+        <v>0.144317</v>
       </c>
       <c r="C134" t="n">
-        <v>0.112504</v>
+        <v>0.114039</v>
       </c>
       <c r="D134" t="n">
-        <v>0.125971</v>
+        <v>0.116546</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.151956</v>
+        <v>0.145633</v>
       </c>
       <c r="C135" t="n">
-        <v>0.115467</v>
+        <v>0.117306</v>
       </c>
       <c r="D135" t="n">
-        <v>0.130105</v>
+        <v>0.120564</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.148429</v>
+        <v>0.148686</v>
       </c>
       <c r="C136" t="n">
-        <v>0.119473</v>
+        <v>0.12146</v>
       </c>
       <c r="D136" t="n">
-        <v>0.136454</v>
+        <v>0.126933</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.154626</v>
+        <v>0.152981</v>
       </c>
       <c r="C137" t="n">
-        <v>0.125547</v>
+        <v>0.127253</v>
       </c>
       <c r="D137" t="n">
-        <v>0.11919</v>
+        <v>0.13612</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.157802</v>
+        <v>0.158016</v>
       </c>
       <c r="C138" t="n">
-        <v>0.108707</v>
+        <v>0.108651</v>
       </c>
       <c r="D138" t="n">
-        <v>0.120201</v>
+        <v>0.10928</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.158092</v>
+        <v>0.157842</v>
       </c>
       <c r="C139" t="n">
-        <v>0.110013</v>
+        <v>0.110033</v>
       </c>
       <c r="D139" t="n">
-        <v>0.121261</v>
+        <v>0.110537</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.162709</v>
+        <v>0.157982</v>
       </c>
       <c r="C140" t="n">
-        <v>0.111287</v>
+        <v>0.111376</v>
       </c>
       <c r="D140" t="n">
-        <v>0.122446</v>
+        <v>0.111875</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158022</v>
+        <v>0.15817</v>
       </c>
       <c r="C141" t="n">
-        <v>0.11281</v>
+        <v>0.113026</v>
       </c>
       <c r="D141" t="n">
-        <v>0.123582</v>
+        <v>0.11333</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158401</v>
+        <v>0.158208</v>
       </c>
       <c r="C142" t="n">
-        <v>0.114294</v>
+        <v>0.114677</v>
       </c>
       <c r="D142" t="n">
-        <v>0.124885</v>
+        <v>0.114881</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158429</v>
+        <v>0.158222</v>
       </c>
       <c r="C143" t="n">
-        <v>0.115798</v>
+        <v>0.115788</v>
       </c>
       <c r="D143" t="n">
-        <v>0.126252</v>
+        <v>0.116383</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0192569</v>
+        <v>0.0194682</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0212373</v>
+        <v>0.0213795</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0204782</v>
+        <v>0.0204226</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0193791</v>
+        <v>0.0194451</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0212894</v>
+        <v>0.0212488</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0203173</v>
+        <v>0.0205061</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0195413</v>
+        <v>0.0196952</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0213254</v>
+        <v>0.0215296</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0203509</v>
+        <v>0.0202974</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0195495</v>
+        <v>0.0195718</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0213222</v>
+        <v>0.0214017</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0202764</v>
+        <v>0.0203468</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0195798</v>
+        <v>0.019726</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0213556</v>
+        <v>0.0212788</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0205424</v>
+        <v>0.0204365</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0198399</v>
+        <v>0.0198922</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0213422</v>
+        <v>0.02154</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0205913</v>
+        <v>0.0206745</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0200005</v>
+        <v>0.0201423</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0217824</v>
+        <v>0.0217669</v>
       </c>
       <c r="D8" t="n">
-        <v>0.020898</v>
+        <v>0.0210488</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0201985</v>
+        <v>0.0205468</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0224264</v>
+        <v>0.0223485</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0220492</v>
+        <v>0.0221138</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0195648</v>
+        <v>0.0191268</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0209397</v>
+        <v>0.0209586</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0203854</v>
+        <v>0.0202169</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0195803</v>
+        <v>0.019385</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0213712</v>
+        <v>0.0212144</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0203142</v>
+        <v>0.0202874</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0199445</v>
+        <v>0.0195136</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0213802</v>
+        <v>0.0212846</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0205903</v>
+        <v>0.0205245</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.020044</v>
+        <v>0.0195111</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0214708</v>
+        <v>0.0214421</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0208241</v>
+        <v>0.020638</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.020243</v>
+        <v>0.0195862</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0217509</v>
+        <v>0.0216905</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0211377</v>
+        <v>0.0210946</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0203477</v>
+        <v>0.0199266</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0222562</v>
+        <v>0.0219887</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0212164</v>
+        <v>0.0212472</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0205354</v>
+        <v>0.020066</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0224717</v>
+        <v>0.0222971</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0215069</v>
+        <v>0.0214135</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0204608</v>
+        <v>0.020153</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0224465</v>
+        <v>0.022476</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0215854</v>
+        <v>0.0214978</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0206519</v>
+        <v>0.0204748</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0226489</v>
+        <v>0.0226073</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0215732</v>
+        <v>0.0215493</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0208384</v>
+        <v>0.0203861</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0231954</v>
+        <v>0.0228749</v>
       </c>
       <c r="D19" t="n">
-        <v>0.021753</v>
+        <v>0.0217128</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0209197</v>
+        <v>0.0204534</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0234781</v>
+        <v>0.0232538</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0218237</v>
+        <v>0.0219013</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0208019</v>
+        <v>0.0207666</v>
       </c>
       <c r="C21" t="n">
-        <v>0.023792</v>
+        <v>0.0238604</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0221873</v>
+        <v>0.0221926</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0214904</v>
+        <v>0.0211829</v>
       </c>
       <c r="C22" t="n">
-        <v>0.024603</v>
+        <v>0.0245513</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0232073</v>
+        <v>0.0231997</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.023715</v>
+        <v>0.0231374</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0268579</v>
+        <v>0.0270216</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0280213</v>
+        <v>0.0277258</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0206606</v>
+        <v>0.0205085</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0219302</v>
+        <v>0.0218854</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0208656</v>
+        <v>0.0209492</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0207724</v>
+        <v>0.0206181</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0221517</v>
+        <v>0.0221532</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0211186</v>
+        <v>0.0210974</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0209278</v>
+        <v>0.0207525</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0224023</v>
+        <v>0.0224777</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0213251</v>
+        <v>0.0212374</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0210188</v>
+        <v>0.0208402</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0227189</v>
+        <v>0.0226395</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0215744</v>
+        <v>0.0216132</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0212458</v>
+        <v>0.0210983</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0230559</v>
+        <v>0.0231099</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0219124</v>
+        <v>0.02184</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0211719</v>
+        <v>0.0212902</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0233833</v>
+        <v>0.0233495</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0222258</v>
+        <v>0.0221843</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0215843</v>
+        <v>0.0214785</v>
       </c>
       <c r="C30" t="n">
-        <v>0.023949</v>
+        <v>0.0238032</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0225277</v>
+        <v>0.0225131</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0215563</v>
+        <v>0.0216966</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0241485</v>
+        <v>0.0241159</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0228459</v>
+        <v>0.0228179</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0219562</v>
+        <v>0.0218446</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0245493</v>
+        <v>0.0245151</v>
       </c>
       <c r="D32" t="n">
-        <v>0.023057</v>
+        <v>0.0229883</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0221169</v>
+        <v>0.0219816</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0249777</v>
+        <v>0.0250236</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0232036</v>
+        <v>0.0233796</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0225808</v>
+        <v>0.0225068</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0257743</v>
+        <v>0.025847</v>
       </c>
       <c r="D34" t="n">
-        <v>0.023726</v>
+        <v>0.0241563</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0231703</v>
+        <v>0.0239206</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0268395</v>
+        <v>0.0272118</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0251409</v>
+        <v>0.0258005</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.026688</v>
+        <v>0.0250318</v>
       </c>
       <c r="C36" t="n">
-        <v>0.029902</v>
+        <v>0.0294538</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0310363</v>
+        <v>0.0313789</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0313183</v>
+        <v>0.0298287</v>
       </c>
       <c r="C37" t="n">
-        <v>0.034707</v>
+        <v>0.0342256</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0375434</v>
+        <v>0.0385277</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0215193</v>
+        <v>0.021453</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0231592</v>
+        <v>0.0230414</v>
       </c>
       <c r="D38" t="n">
-        <v>0.021799</v>
+        <v>0.0217388</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0216266</v>
+        <v>0.0216011</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0234951</v>
+        <v>0.0233303</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0221553</v>
+        <v>0.0219374</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0219028</v>
+        <v>0.0217264</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0241677</v>
+        <v>0.0236405</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0225155</v>
+        <v>0.0222943</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0221031</v>
+        <v>0.0220282</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0244813</v>
+        <v>0.0240293</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0230926</v>
+        <v>0.0225921</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0223187</v>
+        <v>0.0220855</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0245078</v>
+        <v>0.0244026</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0228656</v>
+        <v>0.0228232</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0223721</v>
+        <v>0.0224345</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0248976</v>
+        <v>0.0248409</v>
       </c>
       <c r="D43" t="n">
-        <v>0.023224</v>
+        <v>0.0231386</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0226495</v>
+        <v>0.0226203</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0253344</v>
+        <v>0.0252835</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0235935</v>
+        <v>0.0235706</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.023108</v>
+        <v>0.0230972</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0258892</v>
+        <v>0.0257125</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0240113</v>
+        <v>0.024016</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0234908</v>
+        <v>0.0233255</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0264706</v>
+        <v>0.026448</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0245575</v>
+        <v>0.0245482</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0244704</v>
+        <v>0.0240405</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0271748</v>
+        <v>0.0271633</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0253558</v>
+        <v>0.0254682</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0259842</v>
+        <v>0.0257947</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0283761</v>
+        <v>0.0284036</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0266155</v>
+        <v>0.0266599</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0272132</v>
+        <v>0.0272235</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0299444</v>
+        <v>0.0298725</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0290815</v>
+        <v>0.0293021</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0309817</v>
+        <v>0.029742</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0322942</v>
+        <v>0.032381</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0328003</v>
+        <v>0.0332091</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0332771</v>
+        <v>0.0338018</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0358953</v>
+        <v>0.035949</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0404082</v>
+        <v>0.0401152</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0387864</v>
+        <v>0.0396983</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0414749</v>
+        <v>0.0413165</v>
       </c>
       <c r="D52" t="n">
-        <v>0.04789</v>
+        <v>0.0476183</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0238091</v>
+        <v>0.023076</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0248188</v>
+        <v>0.0247261</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0231418</v>
+        <v>0.0231441</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0234257</v>
+        <v>0.0234197</v>
       </c>
       <c r="C54" t="n">
-        <v>0.025107</v>
+        <v>0.0251055</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0235021</v>
+        <v>0.023352</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0235045</v>
+        <v>0.0234902</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0254741</v>
+        <v>0.0253948</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0238517</v>
+        <v>0.0237016</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0237603</v>
+        <v>0.0238508</v>
       </c>
       <c r="C56" t="n">
-        <v>0.02581</v>
+        <v>0.0257491</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0240678</v>
+        <v>0.0239407</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.023969</v>
+        <v>0.0238594</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0260819</v>
+        <v>0.0262118</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0243354</v>
+        <v>0.0242245</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0247131</v>
+        <v>0.0241962</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0265595</v>
+        <v>0.026602</v>
       </c>
       <c r="D58" t="n">
-        <v>0.024673</v>
+        <v>0.0246944</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0248211</v>
+        <v>0.0246643</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0271757</v>
+        <v>0.0271488</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0253194</v>
+        <v>0.0252204</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0256417</v>
+        <v>0.0252561</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0278161</v>
+        <v>0.02788</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0258416</v>
+        <v>0.0258933</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0265283</v>
+        <v>0.0262088</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0287805</v>
+        <v>0.0287336</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0268826</v>
+        <v>0.0269741</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0278648</v>
+        <v>0.0278032</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0299324</v>
+        <v>0.0299938</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0285827</v>
+        <v>0.0285929</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0294781</v>
+        <v>0.0291212</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0316064</v>
+        <v>0.0316618</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0312111</v>
+        <v>0.0311421</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0317996</v>
+        <v>0.031966</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0340557</v>
+        <v>0.0340946</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0349909</v>
+        <v>0.0348237</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.035999</v>
+        <v>0.0359842</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0373402</v>
+        <v>0.0373529</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0404731</v>
+        <v>0.040673</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0415171</v>
+        <v>0.0411526</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0424289</v>
+        <v>0.042332</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0482878</v>
+        <v>0.0483652</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0278882</v>
+        <v>0.0297128</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0266367</v>
+        <v>0.0264668</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0249726</v>
+        <v>0.025437</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0280135</v>
+        <v>0.0298966</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0266776</v>
+        <v>0.0268753</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0259347</v>
+        <v>0.0257563</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0281801</v>
+        <v>0.0297805</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0268393</v>
+        <v>0.0271689</v>
       </c>
       <c r="D69" t="n">
-        <v>0.026103</v>
+        <v>0.0259249</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0284451</v>
+        <v>0.029959</v>
       </c>
       <c r="C70" t="n">
-        <v>0.02757</v>
+        <v>0.0278695</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0257906</v>
+        <v>0.0268808</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0287136</v>
+        <v>0.0301082</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0279606</v>
+        <v>0.0277158</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0261315</v>
+        <v>0.0263198</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0289981</v>
+        <v>0.0303841</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0284771</v>
+        <v>0.0283216</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0272026</v>
+        <v>0.0268834</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0296276</v>
+        <v>0.030771</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0287521</v>
+        <v>0.0293456</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0277789</v>
+        <v>0.0276115</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0300623</v>
+        <v>0.0313169</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0298691</v>
+        <v>0.0301799</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0289503</v>
+        <v>0.0284244</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0308296</v>
+        <v>0.0321529</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0305164</v>
+        <v>0.0307109</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0298552</v>
+        <v>0.0301375</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0319116</v>
+        <v>0.0332688</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0319857</v>
+        <v>0.0322946</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0308811</v>
+        <v>0.031194</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0336897</v>
+        <v>0.0348525</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0335639</v>
+        <v>0.0334194</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0337319</v>
+        <v>0.033518</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0364354</v>
+        <v>0.0372442</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0359619</v>
+        <v>0.0356312</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0366105</v>
+        <v>0.0368457</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0399222</v>
+        <v>0.0405321</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0385853</v>
+        <v>0.0384927</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0416216</v>
+        <v>0.0424115</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0447759</v>
+        <v>0.0455019</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0429863</v>
+        <v>0.0430857</v>
       </c>
       <c r="D80" t="n">
-        <v>0.049009</v>
+        <v>0.0493575</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0548768</v>
+        <v>0.055248</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0353495</v>
+        <v>0.035587</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0358875</v>
+        <v>0.0355977</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0551244</v>
+        <v>0.0553503</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0364053</v>
+        <v>0.0362893</v>
       </c>
       <c r="D82" t="n">
-        <v>0.036333</v>
+        <v>0.0362086</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.05536</v>
+        <v>0.0554565</v>
       </c>
       <c r="C83" t="n">
-        <v>0.037255</v>
+        <v>0.0370966</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0372137</v>
+        <v>0.0370595</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0555171</v>
+        <v>0.0557299</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0381788</v>
+        <v>0.0379846</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0381553</v>
+        <v>0.0380393</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0557052</v>
+        <v>0.0558957</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0397492</v>
+        <v>0.0392485</v>
       </c>
       <c r="D85" t="n">
-        <v>0.039067</v>
+        <v>0.0391923</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0559838</v>
+        <v>0.056238</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0407243</v>
+        <v>0.0406829</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0406909</v>
+        <v>0.040921</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0561109</v>
+        <v>0.0563338</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0420324</v>
+        <v>0.0422243</v>
       </c>
       <c r="D87" t="n">
-        <v>0.042232</v>
+        <v>0.0420428</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0566632</v>
+        <v>0.0568124</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0439671</v>
+        <v>0.0436325</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0438968</v>
+        <v>0.0440721</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.057092</v>
+        <v>0.057287</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0451661</v>
+        <v>0.0450221</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0455189</v>
+        <v>0.0457098</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0577427</v>
+        <v>0.0579987</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0466</v>
+        <v>0.0468633</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0474614</v>
+        <v>0.0475547</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0588734</v>
+        <v>0.059121</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0500182</v>
+        <v>0.0485775</v>
       </c>
       <c r="D91" t="n">
-        <v>0.049769</v>
+        <v>0.0500979</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0604184</v>
+        <v>0.0607164</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0503037</v>
+        <v>0.0509482</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0526776</v>
+        <v>0.0529268</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.06384869999999999</v>
+        <v>0.0633918</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0534046</v>
+        <v>0.0537582</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0576212</v>
+        <v>0.0575306</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.07087690000000001</v>
+        <v>0.0672806</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0572646</v>
+        <v>0.0575244</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0639694</v>
+        <v>0.06380130000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0922979</v>
+        <v>0.08606759999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0692403</v>
+        <v>0.0689539</v>
       </c>
       <c r="D95" t="n">
-        <v>0.07008880000000001</v>
+        <v>0.0699215</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0861449</v>
+        <v>0.0859526</v>
       </c>
       <c r="C96" t="n">
-        <v>0.06959600000000001</v>
+        <v>0.0694154</v>
       </c>
       <c r="D96" t="n">
-        <v>0.07045609999999999</v>
+        <v>0.071144</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0859347</v>
+        <v>0.08621089999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0702897</v>
+        <v>0.0699255</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0710273</v>
+        <v>0.070835</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0859804</v>
+        <v>0.08628379999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07078280000000001</v>
+        <v>0.0704475</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0713524</v>
+        <v>0.07124030000000001</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0865147</v>
+        <v>0.0863144</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0711869</v>
+        <v>0.07118770000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0721227</v>
+        <v>0.0718968</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08613999999999999</v>
+        <v>0.086536</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0719827</v>
+        <v>0.07173930000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0747593</v>
+        <v>0.0743171</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0864318</v>
+        <v>0.08664380000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0726305</v>
+        <v>0.0726078</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0731603</v>
+        <v>0.0731392</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0866349</v>
+        <v>0.0869574</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0733598</v>
+        <v>0.0733992</v>
       </c>
       <c r="D102" t="n">
-        <v>0.074405</v>
+        <v>0.0740082</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0870346</v>
+        <v>0.0873892</v>
       </c>
       <c r="C103" t="n">
-        <v>0.07478559999999999</v>
+        <v>0.0744184</v>
       </c>
       <c r="D103" t="n">
-        <v>0.07507129999999999</v>
+        <v>0.0749995</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.087647</v>
+        <v>0.0879062</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0756143</v>
+        <v>0.0757002</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0767212</v>
+        <v>0.07632709999999999</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.08835949999999999</v>
+        <v>0.0887801</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0770344</v>
+        <v>0.0870066</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0782397</v>
+        <v>0.0779777</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0896735</v>
+        <v>0.0900934</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0790006</v>
+        <v>0.0787672</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0806977</v>
+        <v>0.080384</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0916443</v>
+        <v>0.0920836</v>
       </c>
       <c r="C107" t="n">
-        <v>0.08162469999999999</v>
+        <v>0.08134</v>
       </c>
       <c r="D107" t="n">
-        <v>0.084082</v>
+        <v>0.0839738</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.09486509999999999</v>
+        <v>0.0952524</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0851146</v>
+        <v>0.084824</v>
       </c>
       <c r="D108" t="n">
-        <v>0.09016979999999999</v>
+        <v>0.09016059999999999</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0999352</v>
+        <v>0.100269</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0913805</v>
+        <v>0.0911042</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0994217</v>
+        <v>0.0992369</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.110212</v>
+        <v>0.114983</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0838961</v>
+        <v>0.0838544</v>
       </c>
       <c r="D110" t="n">
-        <v>0.08437840000000001</v>
+        <v>0.08438859999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.110751</v>
+        <v>0.114899</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0845278</v>
+        <v>0.0846644</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0853067</v>
+        <v>0.0852272</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.111217</v>
+        <v>0.115013</v>
       </c>
       <c r="C112" t="n">
-        <v>0.085481</v>
+        <v>0.08535139999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0861721</v>
+        <v>0.08577659999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.114463</v>
+        <v>0.11509</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0861503</v>
+        <v>0.08620800000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0871213</v>
+        <v>0.08722009999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.111604</v>
+        <v>0.11531</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0875927</v>
+        <v>0.087448</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0880322</v>
+        <v>0.0876738</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.11201</v>
+        <v>0.115354</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0884375</v>
+        <v>0.0884238</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0891779</v>
+        <v>0.0890618</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.112379</v>
+        <v>0.11545</v>
       </c>
       <c r="C116" t="n">
-        <v>0.090392</v>
+        <v>0.0903796</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0898467</v>
+        <v>0.0900331</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.112913</v>
+        <v>0.115851</v>
       </c>
       <c r="C117" t="n">
-        <v>0.091823</v>
+        <v>0.0912379</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0921119</v>
+        <v>0.0913641</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.114399</v>
+        <v>0.116598</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0933069</v>
+        <v>0.0934741</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0929131</v>
+        <v>0.09303599999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.114617</v>
+        <v>0.11712</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0945705</v>
+        <v>0.09444329999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.09536070000000001</v>
+        <v>0.0957387</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.116226</v>
+        <v>0.11811</v>
       </c>
       <c r="C120" t="n">
-        <v>0.09773660000000001</v>
+        <v>0.0971293</v>
       </c>
       <c r="D120" t="n">
-        <v>0.09909519999999999</v>
+        <v>0.0986306</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.121977</v>
+        <v>0.119921</v>
       </c>
       <c r="C121" t="n">
-        <v>0.101071</v>
+        <v>0.100135</v>
       </c>
       <c r="D121" t="n">
-        <v>0.106532</v>
+        <v>0.107457</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.123285</v>
+        <v>0.122782</v>
       </c>
       <c r="C122" t="n">
-        <v>0.106763</v>
+        <v>0.10308</v>
       </c>
       <c r="D122" t="n">
-        <v>0.109531</v>
+        <v>0.108572</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.126488</v>
+        <v>0.127485</v>
       </c>
       <c r="C123" t="n">
-        <v>0.109361</v>
+        <v>0.109839</v>
       </c>
       <c r="D123" t="n">
-        <v>0.117905</v>
+        <v>0.117686</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.142106</v>
+        <v>0.141503</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0973692</v>
+        <v>0.0974633</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0980557</v>
+        <v>0.0976891</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.140775</v>
+        <v>0.137016</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0982478</v>
+        <v>0.0988632</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0987359</v>
+        <v>0.09925539999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.140572</v>
+        <v>0.137545</v>
       </c>
       <c r="C126" t="n">
-        <v>0.09959229999999999</v>
+        <v>0.101565</v>
       </c>
       <c r="D126" t="n">
-        <v>0.100602</v>
+        <v>0.101283</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.140994</v>
+        <v>0.138116</v>
       </c>
       <c r="C127" t="n">
-        <v>0.11303</v>
+        <v>0.101816</v>
       </c>
       <c r="D127" t="n">
-        <v>0.119638</v>
+        <v>0.102588</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.17725</v>
+        <v>0.13746</v>
       </c>
       <c r="C128" t="n">
-        <v>0.134448</v>
+        <v>0.102813</v>
       </c>
       <c r="D128" t="n">
-        <v>0.138728</v>
+        <v>0.103507</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.197097</v>
+        <v>0.138391</v>
       </c>
       <c r="C129" t="n">
-        <v>0.144835</v>
+        <v>0.105304</v>
       </c>
       <c r="D129" t="n">
-        <v>0.146918</v>
+        <v>0.106314</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.195862</v>
+        <v>0.139226</v>
       </c>
       <c r="C130" t="n">
-        <v>0.112114</v>
+        <v>0.108657</v>
       </c>
       <c r="D130" t="n">
-        <v>0.106792</v>
+        <v>0.1067</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.141742</v>
+        <v>0.137655</v>
       </c>
       <c r="C131" t="n">
-        <v>0.107653</v>
+        <v>0.108097</v>
       </c>
       <c r="D131" t="n">
-        <v>0.108885</v>
+        <v>0.108629</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.142311</v>
+        <v>0.138362</v>
       </c>
       <c r="C132" t="n">
-        <v>0.109754</v>
+        <v>0.109602</v>
       </c>
       <c r="D132" t="n">
-        <v>0.110868</v>
+        <v>0.110767</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.14289</v>
+        <v>0.138967</v>
       </c>
       <c r="C133" t="n">
-        <v>0.112123</v>
+        <v>0.111805</v>
       </c>
       <c r="D133" t="n">
-        <v>0.113405</v>
+        <v>0.113192</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.144317</v>
+        <v>0.140049</v>
       </c>
       <c r="C134" t="n">
-        <v>0.114039</v>
+        <v>0.114153</v>
       </c>
       <c r="D134" t="n">
-        <v>0.116546</v>
+        <v>0.116203</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.145633</v>
+        <v>0.141138</v>
       </c>
       <c r="C135" t="n">
-        <v>0.117306</v>
+        <v>0.117086</v>
       </c>
       <c r="D135" t="n">
-        <v>0.120564</v>
+        <v>0.120449</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.148686</v>
+        <v>0.14389</v>
       </c>
       <c r="C136" t="n">
-        <v>0.12146</v>
+        <v>0.12089</v>
       </c>
       <c r="D136" t="n">
-        <v>0.126933</v>
+        <v>0.126453</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.152981</v>
+        <v>0.147924</v>
       </c>
       <c r="C137" t="n">
-        <v>0.127253</v>
+        <v>0.126935</v>
       </c>
       <c r="D137" t="n">
-        <v>0.13612</v>
+        <v>0.135799</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.158016</v>
+        <v>0.158038</v>
       </c>
       <c r="C138" t="n">
-        <v>0.108651</v>
+        <v>0.108789</v>
       </c>
       <c r="D138" t="n">
-        <v>0.10928</v>
+        <v>0.109314</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.157842</v>
+        <v>0.157806</v>
       </c>
       <c r="C139" t="n">
-        <v>0.110033</v>
+        <v>0.110001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.110537</v>
+        <v>0.110583</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.157982</v>
+        <v>0.15813</v>
       </c>
       <c r="C140" t="n">
-        <v>0.111376</v>
+        <v>0.111383</v>
       </c>
       <c r="D140" t="n">
-        <v>0.111875</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.15817</v>
+        <v>0.157975</v>
       </c>
       <c r="C141" t="n">
-        <v>0.113026</v>
+        <v>0.112873</v>
       </c>
       <c r="D141" t="n">
-        <v>0.11333</v>
+        <v>0.113514</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158208</v>
+        <v>0.158261</v>
       </c>
       <c r="C142" t="n">
-        <v>0.114677</v>
+        <v>0.114236</v>
       </c>
       <c r="D142" t="n">
-        <v>0.114881</v>
+        <v>0.114996</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158222</v>
+        <v>0.158408</v>
       </c>
       <c r="C143" t="n">
-        <v>0.115788</v>
+        <v>0.115883</v>
       </c>
       <c r="D143" t="n">
-        <v>0.116383</v>
+        <v>0.116518</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0194682</v>
+        <v>0.0195847</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0213795</v>
+        <v>0.0212949</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0204226</v>
+        <v>0.020529</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0194451</v>
+        <v>0.0196797</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0212488</v>
+        <v>0.0213428</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0205061</v>
+        <v>0.0203402</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0196952</v>
+        <v>0.0197247</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0215296</v>
+        <v>0.0214054</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0202974</v>
+        <v>0.0203653</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0195718</v>
+        <v>0.0197101</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0214017</v>
+        <v>0.021266</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0203468</v>
+        <v>0.0203834</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.019726</v>
+        <v>0.0196232</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0212788</v>
+        <v>0.0214155</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0204365</v>
+        <v>0.0204445</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0198922</v>
+        <v>0.0199442</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02154</v>
+        <v>0.0215938</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0206745</v>
+        <v>0.0204893</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0201423</v>
+        <v>0.020053</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0217669</v>
+        <v>0.0218018</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0210488</v>
+        <v>0.0208754</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0205468</v>
+        <v>0.0204903</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0223485</v>
+        <v>0.0222821</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0221138</v>
+        <v>0.022055</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0191268</v>
+        <v>0.0193697</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0209586</v>
+        <v>0.0209131</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0202169</v>
+        <v>0.0202776</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.019385</v>
+        <v>0.0195124</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0212144</v>
+        <v>0.0212022</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0202874</v>
+        <v>0.0202557</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0195136</v>
+        <v>0.0195928</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0212846</v>
+        <v>0.0212569</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0205245</v>
+        <v>0.0204535</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0195111</v>
+        <v>0.0196131</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0214421</v>
+        <v>0.0214659</v>
       </c>
       <c r="D13" t="n">
-        <v>0.020638</v>
+        <v>0.0206839</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0195862</v>
+        <v>0.0199027</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0216905</v>
+        <v>0.0219046</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0210946</v>
+        <v>0.0210539</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0199266</v>
+        <v>0.0199843</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0219887</v>
+        <v>0.0220459</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0212472</v>
+        <v>0.0211822</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.020066</v>
+        <v>0.020271</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0222971</v>
+        <v>0.0222583</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0214135</v>
+        <v>0.0215429</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.020153</v>
+        <v>0.0203543</v>
       </c>
       <c r="C17" t="n">
-        <v>0.022476</v>
+        <v>0.0224638</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0214978</v>
+        <v>0.0214818</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0204748</v>
+        <v>0.0204539</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0226073</v>
+        <v>0.0227187</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0215493</v>
+        <v>0.0215732</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0203861</v>
+        <v>0.0204498</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0228749</v>
+        <v>0.022981</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0217128</v>
+        <v>0.0218064</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0204534</v>
+        <v>0.0205576</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0232538</v>
+        <v>0.0233051</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0219013</v>
+        <v>0.0219248</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0207666</v>
+        <v>0.0210559</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0238604</v>
+        <v>0.023723</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0221926</v>
+        <v>0.0223088</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0211829</v>
+        <v>0.0216023</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0245513</v>
+        <v>0.0250144</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0231997</v>
+        <v>0.0235143</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0231374</v>
+        <v>0.0234956</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0270216</v>
+        <v>0.0271318</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0277258</v>
+        <v>0.0277207</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0205085</v>
+        <v>0.0205462</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0218854</v>
+        <v>0.0219646</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0209492</v>
+        <v>0.0209258</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0206181</v>
+        <v>0.0205604</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0221532</v>
+        <v>0.0221984</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0210974</v>
+        <v>0.0210955</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0207525</v>
+        <v>0.0207552</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0224777</v>
+        <v>0.0225021</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0212374</v>
+        <v>0.0213503</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0208402</v>
+        <v>0.0209871</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0226395</v>
+        <v>0.0227259</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0216132</v>
+        <v>0.0215776</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0210983</v>
+        <v>0.0212438</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0231099</v>
+        <v>0.0231463</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02184</v>
+        <v>0.0218795</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0212902</v>
+        <v>0.0213697</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0233495</v>
+        <v>0.0233816</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0221843</v>
+        <v>0.0221134</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0214785</v>
+        <v>0.0217684</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0238032</v>
+        <v>0.0247294</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0225131</v>
+        <v>0.0230771</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0216966</v>
+        <v>0.0224757</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0241159</v>
+        <v>0.0247171</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0228179</v>
+        <v>0.0230655</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0218446</v>
+        <v>0.0221966</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0245151</v>
+        <v>0.0249269</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0229883</v>
+        <v>0.023824</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0219816</v>
+        <v>0.0224457</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0250236</v>
+        <v>0.0260608</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0233796</v>
+        <v>0.0236784</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0225068</v>
+        <v>0.0226208</v>
       </c>
       <c r="C34" t="n">
-        <v>0.025847</v>
+        <v>0.0260864</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0241563</v>
+        <v>0.0244057</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0239206</v>
+        <v>0.0249661</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0272118</v>
+        <v>0.0273241</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0258005</v>
+        <v>0.0269989</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0250318</v>
+        <v>0.0285094</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0294538</v>
+        <v>0.0295659</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0313789</v>
+        <v>0.0313581</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0298287</v>
+        <v>0.0306163</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0342256</v>
+        <v>0.034252</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0385277</v>
+        <v>0.038706</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.021453</v>
+        <v>0.0216244</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0230414</v>
+        <v>0.0231888</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0217388</v>
+        <v>0.0219397</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0216011</v>
+        <v>0.0218435</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0233303</v>
+        <v>0.0234519</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0219374</v>
+        <v>0.0220015</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0217264</v>
+        <v>0.0218048</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0236405</v>
+        <v>0.0238018</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0222943</v>
+        <v>0.0222431</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0220282</v>
+        <v>0.022096</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0240293</v>
+        <v>0.0241408</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0225921</v>
+        <v>0.0226282</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0220855</v>
+        <v>0.0223343</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0244026</v>
+        <v>0.024324</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0228232</v>
+        <v>0.0229055</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0224345</v>
+        <v>0.0224668</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0248409</v>
+        <v>0.0249021</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0231386</v>
+        <v>0.0232279</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0226203</v>
+        <v>0.0227295</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0252835</v>
+        <v>0.0253719</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0235706</v>
+        <v>0.0236338</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0230972</v>
+        <v>0.0230205</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0257125</v>
+        <v>0.0258704</v>
       </c>
       <c r="D45" t="n">
-        <v>0.024016</v>
+        <v>0.0240503</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0233255</v>
+        <v>0.0235825</v>
       </c>
       <c r="C46" t="n">
-        <v>0.026448</v>
+        <v>0.0264834</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0245482</v>
+        <v>0.0245566</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0240405</v>
+        <v>0.0240595</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0271633</v>
+        <v>0.0272259</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0254682</v>
+        <v>0.0253815</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0257947</v>
+        <v>0.02518</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0284036</v>
+        <v>0.0284338</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0266599</v>
+        <v>0.0272315</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0272235</v>
+        <v>0.0276771</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0298725</v>
+        <v>0.0299262</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0293021</v>
+        <v>0.029581</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.029742</v>
+        <v>0.0300307</v>
       </c>
       <c r="C50" t="n">
-        <v>0.032381</v>
+        <v>0.0322231</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0332091</v>
+        <v>0.033501</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0338018</v>
+        <v>0.0336834</v>
       </c>
       <c r="C51" t="n">
-        <v>0.035949</v>
+        <v>0.0359365</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0401152</v>
+        <v>0.0400074</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0396983</v>
+        <v>0.0400281</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0413165</v>
+        <v>0.0415368</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0476183</v>
+        <v>0.0484192</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.023076</v>
+        <v>0.0232391</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0247261</v>
+        <v>0.0247909</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0231441</v>
+        <v>0.0231746</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0234197</v>
+        <v>0.0234796</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0251055</v>
+        <v>0.0250927</v>
       </c>
       <c r="D54" t="n">
-        <v>0.023352</v>
+        <v>0.0234107</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0234902</v>
+        <v>0.0234566</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0253948</v>
+        <v>0.0253917</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0237016</v>
+        <v>0.0236789</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0238508</v>
+        <v>0.0237105</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0257491</v>
+        <v>0.0257264</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0239407</v>
+        <v>0.0239833</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0238594</v>
+        <v>0.024088</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0262118</v>
+        <v>0.0261278</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0242245</v>
+        <v>0.0242989</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0241962</v>
+        <v>0.0242404</v>
       </c>
       <c r="C58" t="n">
-        <v>0.026602</v>
+        <v>0.0266468</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0246944</v>
+        <v>0.0247522</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0246643</v>
+        <v>0.0247439</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0271488</v>
+        <v>0.0271939</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0252204</v>
+        <v>0.0252132</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0252561</v>
+        <v>0.0252584</v>
       </c>
       <c r="C60" t="n">
-        <v>0.02788</v>
+        <v>0.0278934</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0258933</v>
+        <v>0.0259044</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0262088</v>
+        <v>0.0259918</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0287336</v>
+        <v>0.0287218</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0269741</v>
+        <v>0.0269085</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0278032</v>
+        <v>0.0274094</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0299938</v>
+        <v>0.0299949</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0285929</v>
+        <v>0.0284919</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0291212</v>
+        <v>0.0294915</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0316618</v>
+        <v>0.031681</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0311421</v>
+        <v>0.0312388</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.031966</v>
+        <v>0.0322136</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0340946</v>
+        <v>0.034162</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0348237</v>
+        <v>0.0348746</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0359842</v>
+        <v>0.036593</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0373529</v>
+        <v>0.0373915</v>
       </c>
       <c r="D65" t="n">
-        <v>0.040673</v>
+        <v>0.0406276</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0411526</v>
+        <v>0.0410818</v>
       </c>
       <c r="C66" t="n">
-        <v>0.042332</v>
+        <v>0.0422811</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0483652</v>
+        <v>0.0483411</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0297128</v>
+        <v>0.0293158</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0264668</v>
+        <v>0.0277692</v>
       </c>
       <c r="D67" t="n">
-        <v>0.025437</v>
+        <v>0.0255943</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0298966</v>
+        <v>0.0295439</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0268753</v>
+        <v>0.0267205</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0257563</v>
+        <v>0.0271442</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0297805</v>
+        <v>0.0296773</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0271689</v>
+        <v>0.0280553</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0259249</v>
+        <v>0.0274046</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.029959</v>
+        <v>0.0297592</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0278695</v>
+        <v>0.0284331</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0268808</v>
+        <v>0.0275311</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0301082</v>
+        <v>0.030289</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0277158</v>
+        <v>0.028063</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0263198</v>
+        <v>0.0278576</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0303841</v>
+        <v>0.0304961</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0283216</v>
+        <v>0.0282551</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0268834</v>
+        <v>0.0282608</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.030771</v>
+        <v>0.0307589</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0293456</v>
+        <v>0.0291231</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0276115</v>
+        <v>0.0287833</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0313169</v>
+        <v>0.0313834</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0301799</v>
+        <v>0.0298986</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0284244</v>
+        <v>0.0288741</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0321529</v>
+        <v>0.0320359</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0307109</v>
+        <v>0.0314975</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0301375</v>
+        <v>0.0307424</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0332688</v>
+        <v>0.0331845</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0322946</v>
+        <v>0.0320887</v>
       </c>
       <c r="D76" t="n">
-        <v>0.031194</v>
+        <v>0.0316204</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0348525</v>
+        <v>0.0349489</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0334194</v>
+        <v>0.0335678</v>
       </c>
       <c r="D77" t="n">
-        <v>0.033518</v>
+        <v>0.03391</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0372442</v>
+        <v>0.0373784</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0356312</v>
+        <v>0.0354913</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0368457</v>
+        <v>0.0373365</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0405321</v>
+        <v>0.040772</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0384927</v>
+        <v>0.038814</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0424115</v>
+        <v>0.0416575</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0455019</v>
+        <v>0.0456851</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0430857</v>
+        <v>0.0433968</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0493575</v>
+        <v>0.0496515</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.055248</v>
+        <v>0.0551032</v>
       </c>
       <c r="C81" t="n">
-        <v>0.035587</v>
+        <v>0.0353191</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0355977</v>
+        <v>0.0356706</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0553503</v>
+        <v>0.0563398</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0362893</v>
+        <v>0.0360745</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0362086</v>
+        <v>0.0362938</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0554565</v>
+        <v>0.0559014</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0370966</v>
+        <v>0.0370344</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0370595</v>
+        <v>0.0370148</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0557299</v>
+        <v>0.0554129</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0379846</v>
+        <v>0.0380613</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0380393</v>
+        <v>0.0379841</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0558957</v>
+        <v>0.0558484</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0392485</v>
+        <v>0.0393733</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0391923</v>
+        <v>0.0391549</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.056238</v>
+        <v>0.0559137</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0406829</v>
+        <v>0.0409472</v>
       </c>
       <c r="D86" t="n">
-        <v>0.040921</v>
+        <v>0.0409196</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0563338</v>
+        <v>0.0570283</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0422243</v>
+        <v>0.0425417</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0420428</v>
+        <v>0.0436475</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0568124</v>
+        <v>0.0573081</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0436325</v>
+        <v>0.0433284</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0440721</v>
+        <v>0.0436078</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.057287</v>
+        <v>0.0569047</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0450221</v>
+        <v>0.0449873</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0457098</v>
+        <v>0.0453176</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0579987</v>
+        <v>0.0577643</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0468633</v>
+        <v>0.0464582</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0475547</v>
+        <v>0.0473444</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.059121</v>
+        <v>0.0586812</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0485775</v>
+        <v>0.0484364</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0500979</v>
+        <v>0.0495697</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0607164</v>
+        <v>0.0604108</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0509482</v>
+        <v>0.0504899</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0529268</v>
+        <v>0.0525827</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0633918</v>
+        <v>0.062915</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0537582</v>
+        <v>0.0533741</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0575306</v>
+        <v>0.0570983</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0672806</v>
+        <v>0.0669416</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0575244</v>
+        <v>0.0572901</v>
       </c>
       <c r="D94" t="n">
-        <v>0.06380130000000001</v>
+        <v>0.0636258</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.08606759999999999</v>
+        <v>0.0860079</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0689539</v>
+        <v>0.0690706</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0699215</v>
+        <v>0.0700255</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0859526</v>
+        <v>0.08832719999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0694154</v>
+        <v>0.06956809999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.071144</v>
+        <v>0.0703751</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.08621089999999999</v>
+        <v>0.0861615</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0699255</v>
+        <v>0.0699772</v>
       </c>
       <c r="D97" t="n">
-        <v>0.070835</v>
+        <v>0.0708849</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.08628379999999999</v>
+        <v>0.08614810000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0704475</v>
+        <v>0.07055690000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.07124030000000001</v>
+        <v>0.0712945</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0863144</v>
+        <v>0.0862364</v>
       </c>
       <c r="C99" t="n">
-        <v>0.07118770000000001</v>
+        <v>0.0710838</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0718968</v>
+        <v>0.07186869999999999</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.086536</v>
+        <v>0.0863434</v>
       </c>
       <c r="C100" t="n">
-        <v>0.07173930000000001</v>
+        <v>0.0719012</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0743171</v>
+        <v>0.0724191</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08664380000000001</v>
+        <v>0.0866634</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0726078</v>
+        <v>0.0725616</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0731392</v>
+        <v>0.0732521</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0869574</v>
+        <v>0.0869407</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0733992</v>
+        <v>0.073419</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0740082</v>
+        <v>0.07403559999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0873892</v>
+        <v>0.0873485</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0744184</v>
+        <v>0.0743921</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0749995</v>
+        <v>0.0750682</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0879062</v>
+        <v>0.0878284</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0757002</v>
+        <v>0.075603</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07632709999999999</v>
+        <v>0.0763351</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0887801</v>
+        <v>0.08874609999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0870066</v>
+        <v>0.07699019999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0779777</v>
+        <v>0.07792109999999999</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0900934</v>
+        <v>0.0901044</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0787672</v>
+        <v>0.0789221</v>
       </c>
       <c r="D106" t="n">
-        <v>0.080384</v>
+        <v>0.08036119999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0920836</v>
+        <v>0.0920392</v>
       </c>
       <c r="C107" t="n">
-        <v>0.08134</v>
+        <v>0.0812861</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0839738</v>
+        <v>0.08405260000000001</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0952524</v>
+        <v>0.095374</v>
       </c>
       <c r="C108" t="n">
-        <v>0.084824</v>
+        <v>0.0850195</v>
       </c>
       <c r="D108" t="n">
-        <v>0.09016059999999999</v>
+        <v>0.0899636</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100269</v>
+        <v>0.100255</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0911042</v>
+        <v>0.0937062</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0992369</v>
+        <v>0.0992775</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.114983</v>
+        <v>0.113832</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0838544</v>
+        <v>0.08362260000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.08438859999999999</v>
+        <v>0.0843883</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.114899</v>
+        <v>0.113929</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0846644</v>
+        <v>0.0846219</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0852272</v>
+        <v>0.08516070000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.115013</v>
+        <v>0.114057</v>
       </c>
       <c r="C112" t="n">
-        <v>0.08535139999999999</v>
+        <v>0.0854726</v>
       </c>
       <c r="D112" t="n">
-        <v>0.08577659999999999</v>
+        <v>0.0860614</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.11509</v>
+        <v>0.114222</v>
       </c>
       <c r="C113" t="n">
-        <v>0.08620800000000001</v>
+        <v>0.0865715</v>
       </c>
       <c r="D113" t="n">
-        <v>0.08722009999999999</v>
+        <v>0.08716309999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.11531</v>
+        <v>0.114085</v>
       </c>
       <c r="C114" t="n">
-        <v>0.087448</v>
+        <v>0.0877053</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0876738</v>
+        <v>0.0881808</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.115354</v>
+        <v>0.11439</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0884238</v>
+        <v>0.0890137</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0890618</v>
+        <v>0.0895334</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.11545</v>
+        <v>0.114385</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0903796</v>
+        <v>0.090422</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0900331</v>
+        <v>0.0906956</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.115851</v>
+        <v>0.114715</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0912379</v>
+        <v>0.0917481</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0913641</v>
+        <v>0.0923257</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.116598</v>
+        <v>0.115213</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0934741</v>
+        <v>0.0933451</v>
       </c>
       <c r="D118" t="n">
-        <v>0.09303599999999999</v>
+        <v>0.0941726</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.11712</v>
+        <v>0.115961</v>
       </c>
       <c r="C119" t="n">
-        <v>0.09444329999999999</v>
+        <v>0.0951965</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0957387</v>
+        <v>0.0962446</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.11811</v>
+        <v>0.11706</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0971293</v>
+        <v>0.0976172</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0986306</v>
+        <v>0.099108</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.119921</v>
+        <v>0.118894</v>
       </c>
       <c r="C121" t="n">
-        <v>0.100135</v>
+        <v>0.10032</v>
       </c>
       <c r="D121" t="n">
-        <v>0.107457</v>
+        <v>0.103023</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.122782</v>
+        <v>0.121852</v>
       </c>
       <c r="C122" t="n">
-        <v>0.10308</v>
+        <v>0.104237</v>
       </c>
       <c r="D122" t="n">
-        <v>0.108572</v>
+        <v>0.10911</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.127485</v>
+        <v>0.126302</v>
       </c>
       <c r="C123" t="n">
-        <v>0.109839</v>
+        <v>0.110238</v>
       </c>
       <c r="D123" t="n">
-        <v>0.117686</v>
+        <v>0.117998</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.141503</v>
+        <v>0.141066</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0974633</v>
+        <v>0.0970858</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0976891</v>
+        <v>0.0977338</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.137016</v>
+        <v>0.135162</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0988632</v>
+        <v>0.09834950000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.09925539999999999</v>
+        <v>0.0989768</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.137545</v>
+        <v>0.135249</v>
       </c>
       <c r="C126" t="n">
-        <v>0.101565</v>
+        <v>0.09977229999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.101283</v>
+        <v>0.100374</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.138116</v>
+        <v>0.135187</v>
       </c>
       <c r="C127" t="n">
-        <v>0.101816</v>
+        <v>0.101274</v>
       </c>
       <c r="D127" t="n">
-        <v>0.102588</v>
+        <v>0.101969</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.13746</v>
+        <v>0.135127</v>
       </c>
       <c r="C128" t="n">
-        <v>0.102813</v>
+        <v>0.102699</v>
       </c>
       <c r="D128" t="n">
-        <v>0.103507</v>
+        <v>0.10325</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.138391</v>
+        <v>0.135416</v>
       </c>
       <c r="C129" t="n">
-        <v>0.105304</v>
+        <v>0.104289</v>
       </c>
       <c r="D129" t="n">
-        <v>0.106314</v>
+        <v>0.105199</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.139226</v>
+        <v>0.135731</v>
       </c>
       <c r="C130" t="n">
-        <v>0.108657</v>
+        <v>0.105886</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1067</v>
+        <v>0.106667</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.137655</v>
+        <v>0.136101</v>
       </c>
       <c r="C131" t="n">
-        <v>0.108097</v>
+        <v>0.107984</v>
       </c>
       <c r="D131" t="n">
-        <v>0.108629</v>
+        <v>0.108666</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.138362</v>
+        <v>0.136416</v>
       </c>
       <c r="C132" t="n">
-        <v>0.109602</v>
+        <v>0.109597</v>
       </c>
       <c r="D132" t="n">
-        <v>0.110767</v>
+        <v>0.110934</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.138967</v>
+        <v>0.13733</v>
       </c>
       <c r="C133" t="n">
-        <v>0.111805</v>
+        <v>0.111758</v>
       </c>
       <c r="D133" t="n">
-        <v>0.113192</v>
+        <v>0.113218</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.140049</v>
+        <v>0.138343</v>
       </c>
       <c r="C134" t="n">
-        <v>0.114153</v>
+        <v>0.114184</v>
       </c>
       <c r="D134" t="n">
-        <v>0.116203</v>
+        <v>0.116402</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.141138</v>
+        <v>0.139753</v>
       </c>
       <c r="C135" t="n">
-        <v>0.117086</v>
+        <v>0.117398</v>
       </c>
       <c r="D135" t="n">
-        <v>0.120449</v>
+        <v>0.120543</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.14389</v>
+        <v>0.142258</v>
       </c>
       <c r="C136" t="n">
-        <v>0.12089</v>
+        <v>0.12132</v>
       </c>
       <c r="D136" t="n">
-        <v>0.126453</v>
+        <v>0.127035</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.147924</v>
+        <v>0.146109</v>
       </c>
       <c r="C137" t="n">
-        <v>0.126935</v>
+        <v>0.127467</v>
       </c>
       <c r="D137" t="n">
-        <v>0.135799</v>
+        <v>0.136344</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.158038</v>
+        <v>0.157874</v>
       </c>
       <c r="C138" t="n">
-        <v>0.108789</v>
+        <v>0.108819</v>
       </c>
       <c r="D138" t="n">
-        <v>0.109314</v>
+        <v>0.109182</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.157806</v>
+        <v>0.158107</v>
       </c>
       <c r="C139" t="n">
-        <v>0.110001</v>
+        <v>0.109889</v>
       </c>
       <c r="D139" t="n">
-        <v>0.110583</v>
+        <v>0.110473</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.15813</v>
+        <v>0.15795</v>
       </c>
       <c r="C140" t="n">
-        <v>0.111383</v>
+        <v>0.11139</v>
       </c>
       <c r="D140" t="n">
-        <v>0.112</v>
+        <v>0.111924</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.157975</v>
+        <v>0.158339</v>
       </c>
       <c r="C141" t="n">
-        <v>0.112873</v>
+        <v>0.112767</v>
       </c>
       <c r="D141" t="n">
-        <v>0.113514</v>
+        <v>0.113349</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158261</v>
+        <v>0.158171</v>
       </c>
       <c r="C142" t="n">
-        <v>0.114236</v>
+        <v>0.114271</v>
       </c>
       <c r="D142" t="n">
-        <v>0.114996</v>
+        <v>0.114903</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158408</v>
+        <v>0.158575</v>
       </c>
       <c r="C143" t="n">
-        <v>0.115883</v>
+        <v>0.115689</v>
       </c>
       <c r="D143" t="n">
-        <v>0.116518</v>
+        <v>0.116421</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0195847</v>
+        <v>0.0194466</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0212949</v>
+        <v>0.0212465</v>
       </c>
       <c r="D2" t="n">
-        <v>0.020529</v>
+        <v>0.0204597</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0196797</v>
+        <v>0.0195396</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0213428</v>
+        <v>0.0213002</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0203402</v>
+        <v>0.0203006</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0197247</v>
+        <v>0.0197346</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0214054</v>
+        <v>0.0213199</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0203653</v>
+        <v>0.0203396</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0197101</v>
+        <v>0.0197402</v>
       </c>
       <c r="C5" t="n">
-        <v>0.021266</v>
+        <v>0.0213132</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0203834</v>
+        <v>0.0202841</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0196232</v>
+        <v>0.0195948</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0214155</v>
+        <v>0.021429</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0204445</v>
+        <v>0.0204101</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0199442</v>
+        <v>0.0200928</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0215938</v>
+        <v>0.0215467</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0204893</v>
+        <v>0.0204924</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.020053</v>
+        <v>0.0201437</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0218018</v>
+        <v>0.0217424</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0208754</v>
+        <v>0.0209738</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0204903</v>
+        <v>0.0204258</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0222821</v>
+        <v>0.0225046</v>
       </c>
       <c r="D9" t="n">
-        <v>0.022055</v>
+        <v>0.0219399</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0193697</v>
+        <v>0.0193405</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0209131</v>
+        <v>0.0209014</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0202776</v>
+        <v>0.0203294</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0195124</v>
+        <v>0.0193991</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0212022</v>
+        <v>0.0211995</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0202557</v>
+        <v>0.0203093</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0195928</v>
+        <v>0.0195991</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0212569</v>
+        <v>0.0213103</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0204535</v>
+        <v>0.0204124</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0196131</v>
+        <v>0.019624</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0214659</v>
+        <v>0.0214008</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0206839</v>
+        <v>0.0206428</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0199027</v>
+        <v>0.0199218</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0219046</v>
+        <v>0.0217389</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0210539</v>
+        <v>0.020989</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0199843</v>
+        <v>0.0200707</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0220459</v>
+        <v>0.0219657</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0211822</v>
+        <v>0.0211732</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.020271</v>
+        <v>0.0201823</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0222583</v>
+        <v>0.0221926</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0215429</v>
+        <v>0.0213613</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0203543</v>
+        <v>0.0203657</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0224638</v>
+        <v>0.022453</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0214818</v>
+        <v>0.0214708</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0204539</v>
+        <v>0.0204758</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0227187</v>
+        <v>0.0225491</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0215732</v>
+        <v>0.0215603</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0204498</v>
+        <v>0.0205055</v>
       </c>
       <c r="C19" t="n">
-        <v>0.022981</v>
+        <v>0.0229035</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0218064</v>
+        <v>0.0216529</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0205576</v>
+        <v>0.0207467</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0233051</v>
+        <v>0.0233437</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0219248</v>
+        <v>0.0218571</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0210559</v>
+        <v>0.0209323</v>
       </c>
       <c r="C21" t="n">
-        <v>0.023723</v>
+        <v>0.0237144</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0223088</v>
+        <v>0.0221808</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0216023</v>
+        <v>0.0215378</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0250144</v>
+        <v>0.0245844</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0235143</v>
+        <v>0.0233751</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0234956</v>
+        <v>0.0235814</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0271318</v>
+        <v>0.0268671</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0277207</v>
+        <v>0.0281169</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0205462</v>
+        <v>0.0202628</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0219646</v>
+        <v>0.0219125</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0209258</v>
+        <v>0.020915</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0205604</v>
+        <v>0.0202442</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0221984</v>
+        <v>0.0221366</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0210955</v>
+        <v>0.0210853</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0207552</v>
+        <v>0.0205804</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0225021</v>
+        <v>0.0224801</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0213503</v>
+        <v>0.0213328</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0209871</v>
+        <v>0.020535</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0227259</v>
+        <v>0.0227209</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0215776</v>
+        <v>0.0215929</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0212438</v>
+        <v>0.0208526</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0231463</v>
+        <v>0.0231034</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0218795</v>
+        <v>0.0218562</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0213697</v>
+        <v>0.0209989</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0233816</v>
+        <v>0.0233947</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0221134</v>
+        <v>0.02223</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0217684</v>
+        <v>0.0213252</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0247294</v>
+        <v>0.0238326</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0230771</v>
+        <v>0.0223588</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0224757</v>
+        <v>0.021428</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0247171</v>
+        <v>0.0241323</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0230655</v>
+        <v>0.0228199</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0221966</v>
+        <v>0.0216037</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0249269</v>
+        <v>0.0244664</v>
       </c>
       <c r="D32" t="n">
-        <v>0.023824</v>
+        <v>0.0229042</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0224457</v>
+        <v>0.0217209</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0260608</v>
+        <v>0.0251455</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0236784</v>
+        <v>0.0234366</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0226208</v>
+        <v>0.0221917</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0260864</v>
+        <v>0.0259334</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0244057</v>
+        <v>0.0242055</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0249661</v>
+        <v>0.0242508</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0273241</v>
+        <v>0.0273867</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0269989</v>
+        <v>0.0255329</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0285094</v>
+        <v>0.0261003</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0295659</v>
+        <v>0.0294488</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0313581</v>
+        <v>0.028062</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0306163</v>
+        <v>0.0283535</v>
       </c>
       <c r="C37" t="n">
-        <v>0.034252</v>
+        <v>0.0337365</v>
       </c>
       <c r="D37" t="n">
-        <v>0.038706</v>
+        <v>0.0374433</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0216244</v>
+        <v>0.0213809</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0231888</v>
+        <v>0.0230449</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0219397</v>
+        <v>0.0217499</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0218435</v>
+        <v>0.021537</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0234519</v>
+        <v>0.0233199</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0220015</v>
+        <v>0.0219658</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0218048</v>
+        <v>0.0218095</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0238018</v>
+        <v>0.0236702</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0222431</v>
+        <v>0.0222196</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.022096</v>
+        <v>0.0218047</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0241408</v>
+        <v>0.0241702</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0226282</v>
+        <v>0.0225048</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0223343</v>
+        <v>0.0220848</v>
       </c>
       <c r="C42" t="n">
-        <v>0.024324</v>
+        <v>0.0243792</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0229055</v>
+        <v>0.022804</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0224668</v>
+        <v>0.0223173</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0249021</v>
+        <v>0.0249428</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0232279</v>
+        <v>0.0231798</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0227295</v>
+        <v>0.0226701</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0253719</v>
+        <v>0.0253893</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0236338</v>
+        <v>0.0236254</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0230205</v>
+        <v>0.0230714</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0258704</v>
+        <v>0.0259187</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0240503</v>
+        <v>0.0240134</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0235825</v>
+        <v>0.0232109</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0264834</v>
+        <v>0.0264566</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0245566</v>
+        <v>0.0245671</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0240595</v>
+        <v>0.024181</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0272259</v>
+        <v>0.0272351</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0253815</v>
+        <v>0.0253884</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02518</v>
+        <v>0.0255618</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0284338</v>
+        <v>0.0283941</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0272315</v>
+        <v>0.026761</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0276771</v>
+        <v>0.0274018</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0299262</v>
+        <v>0.0300122</v>
       </c>
       <c r="D49" t="n">
-        <v>0.029581</v>
+        <v>0.0301601</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0300307</v>
+        <v>0.0293018</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0322231</v>
+        <v>0.0322051</v>
       </c>
       <c r="D50" t="n">
-        <v>0.033501</v>
+        <v>0.0339114</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0336834</v>
+        <v>0.0345811</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0359365</v>
+        <v>0.0359396</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0400074</v>
+        <v>0.0398853</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0400281</v>
+        <v>0.0398409</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0415368</v>
+        <v>0.0413724</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0484192</v>
+        <v>0.0483837</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0232391</v>
+        <v>0.0230274</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0247909</v>
+        <v>0.0247104</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0231746</v>
+        <v>0.0235377</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0234796</v>
+        <v>0.0232157</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0250927</v>
+        <v>0.0250169</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0234107</v>
+        <v>0.0233759</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0234566</v>
+        <v>0.0234397</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0253917</v>
+        <v>0.0253481</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0236789</v>
+        <v>0.0236361</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0237105</v>
+        <v>0.0236596</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0257264</v>
+        <v>0.0256798</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0239833</v>
+        <v>0.0238912</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.024088</v>
+        <v>0.0239123</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0261278</v>
+        <v>0.026146</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0242989</v>
+        <v>0.024202</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0242404</v>
+        <v>0.0245078</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0266468</v>
+        <v>0.0265966</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0247522</v>
+        <v>0.0246625</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0247439</v>
+        <v>0.0248135</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0271939</v>
+        <v>0.0271523</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0252132</v>
+        <v>0.025244</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0252584</v>
+        <v>0.0253882</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0278934</v>
+        <v>0.0278312</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0259044</v>
+        <v>0.0259097</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0259918</v>
+        <v>0.02619</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0287218</v>
+        <v>0.0286888</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0269085</v>
+        <v>0.0268934</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0274094</v>
+        <v>0.0276987</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0299949</v>
+        <v>0.0299491</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0284919</v>
+        <v>0.0284614</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0294915</v>
+        <v>0.0298331</v>
       </c>
       <c r="C63" t="n">
-        <v>0.031681</v>
+        <v>0.0316614</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0312388</v>
+        <v>0.0311073</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0322136</v>
+        <v>0.0325767</v>
       </c>
       <c r="C64" t="n">
-        <v>0.034162</v>
+        <v>0.0341057</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0348746</v>
+        <v>0.0348803</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.036593</v>
+        <v>0.0359716</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0373915</v>
+        <v>0.0373717</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0406276</v>
+        <v>0.0407272</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0410818</v>
+        <v>0.0415427</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0422811</v>
+        <v>0.0422702</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0483411</v>
+        <v>0.048273</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0293158</v>
+        <v>0.029532</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0277692</v>
+        <v>0.0264701</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0255943</v>
+        <v>0.0270836</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0295439</v>
+        <v>0.029617</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0267205</v>
+        <v>0.0267415</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0271442</v>
+        <v>0.0261896</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0296773</v>
+        <v>0.0298523</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0280553</v>
+        <v>0.0274237</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0274046</v>
+        <v>0.0265656</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0297592</v>
+        <v>0.0301566</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0284331</v>
+        <v>0.0279266</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0275311</v>
+        <v>0.0260731</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.030289</v>
+        <v>0.0302251</v>
       </c>
       <c r="C71" t="n">
-        <v>0.028063</v>
+        <v>0.0283226</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0278576</v>
+        <v>0.0264268</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0304961</v>
+        <v>0.0303565</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0282551</v>
+        <v>0.0287759</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0282608</v>
+        <v>0.0268527</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0307589</v>
+        <v>0.0308224</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0291231</v>
+        <v>0.0294015</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0287833</v>
+        <v>0.0282716</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0313834</v>
+        <v>0.031435</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0298986</v>
+        <v>0.0296794</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0288741</v>
+        <v>0.0284095</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0320359</v>
+        <v>0.0321891</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0314975</v>
+        <v>0.0306342</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0307424</v>
+        <v>0.0295547</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0331845</v>
+        <v>0.0334745</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0320887</v>
+        <v>0.0322627</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0316204</v>
+        <v>0.0311578</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0349489</v>
+        <v>0.0353317</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0335678</v>
+        <v>0.0334112</v>
       </c>
       <c r="D77" t="n">
-        <v>0.03391</v>
+        <v>0.0335022</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0373784</v>
+        <v>0.037733</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0354913</v>
+        <v>0.0356057</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0373365</v>
+        <v>0.036878</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.040772</v>
+        <v>0.041154</v>
       </c>
       <c r="C79" t="n">
-        <v>0.038814</v>
+        <v>0.0389267</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0416575</v>
+        <v>0.0417221</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0456851</v>
+        <v>0.0459663</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0433968</v>
+        <v>0.0427122</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0496515</v>
+        <v>0.0487981</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0551032</v>
+        <v>0.055785</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0353191</v>
+        <v>0.0356748</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0356706</v>
+        <v>0.0356303</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0563398</v>
+        <v>0.055993</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0360745</v>
+        <v>0.0363943</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0362938</v>
+        <v>0.0363399</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0559014</v>
+        <v>0.0560615</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0370344</v>
+        <v>0.0373071</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0370148</v>
+        <v>0.0371989</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0554129</v>
+        <v>0.0562774</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0380613</v>
+        <v>0.038332</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0379841</v>
+        <v>0.0383878</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0558484</v>
+        <v>0.0566234</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0393733</v>
+        <v>0.0397585</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0391549</v>
+        <v>0.0397393</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0559137</v>
+        <v>0.0566888</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0409472</v>
+        <v>0.0409992</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0409196</v>
+        <v>0.0410343</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0570283</v>
+        <v>0.0570206</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0425417</v>
+        <v>0.042514</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0436475</v>
+        <v>0.0426001</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0573081</v>
+        <v>0.0572565</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0433284</v>
+        <v>0.0440915</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0436078</v>
+        <v>0.0443325</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0569047</v>
+        <v>0.0578891</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0449873</v>
+        <v>0.0456976</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0453176</v>
+        <v>0.0461476</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0577643</v>
+        <v>0.0587833</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0464582</v>
+        <v>0.047356</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0473444</v>
+        <v>0.0483325</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0586812</v>
+        <v>0.0595323</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0484364</v>
+        <v>0.0493314</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0495697</v>
+        <v>0.0505796</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0604108</v>
+        <v>0.0614365</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0504899</v>
+        <v>0.051053</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0525827</v>
+        <v>0.0534028</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.062915</v>
+        <v>0.0639436</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0533741</v>
+        <v>0.0543477</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0570983</v>
+        <v>0.0578851</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0669416</v>
+        <v>0.0678766</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0572901</v>
+        <v>0.0582792</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0636258</v>
+        <v>0.06446060000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0860079</v>
+        <v>0.0859181</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0690706</v>
+        <v>0.0691683</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0700255</v>
+        <v>0.0700268</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.08832719999999999</v>
+        <v>0.08606179999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.06956809999999999</v>
+        <v>0.0695045</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0703751</v>
+        <v>0.07039040000000001</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0861615</v>
+        <v>0.085859</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0699772</v>
+        <v>0.0701099</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0708849</v>
+        <v>0.07077079999999999</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.08614810000000001</v>
+        <v>0.0859389</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07055690000000001</v>
+        <v>0.0706551</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0712945</v>
+        <v>0.07140920000000001</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0862364</v>
+        <v>0.097318</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0710838</v>
+        <v>0.071144</v>
       </c>
       <c r="D99" t="n">
-        <v>0.07186869999999999</v>
+        <v>0.0718656</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0863434</v>
+        <v>0.0862709</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0719012</v>
+        <v>0.07174850000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0724191</v>
+        <v>0.0725391</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0866634</v>
+        <v>0.08648989999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0725616</v>
+        <v>0.07273309999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0732521</v>
+        <v>0.0731909</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0869407</v>
+        <v>0.0867873</v>
       </c>
       <c r="C102" t="n">
-        <v>0.073419</v>
+        <v>0.07362100000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.07403559999999999</v>
+        <v>0.07420019999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0873485</v>
+        <v>0.08716500000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0743921</v>
+        <v>0.07430680000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0750682</v>
+        <v>0.0749055</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0878284</v>
+        <v>0.08781079999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.075603</v>
+        <v>0.07586619999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0763351</v>
+        <v>0.07632700000000001</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.08874609999999999</v>
+        <v>0.088759</v>
       </c>
       <c r="C105" t="n">
-        <v>0.07699019999999999</v>
+        <v>0.08121159999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.07792109999999999</v>
+        <v>0.0777687</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0901044</v>
+        <v>0.0898953</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0789221</v>
+        <v>0.0787636</v>
       </c>
       <c r="D106" t="n">
-        <v>0.08036119999999999</v>
+        <v>0.0804121</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0920392</v>
+        <v>0.0921155</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0812861</v>
+        <v>0.08145139999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.08405260000000001</v>
+        <v>0.08417810000000001</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.095374</v>
+        <v>0.0952639</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0850195</v>
+        <v>0.0850886</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0899636</v>
+        <v>0.0899923</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100255</v>
+        <v>0.100347</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0937062</v>
+        <v>0.0909973</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0992775</v>
+        <v>0.09924910000000001</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.113832</v>
+        <v>0.107151</v>
       </c>
       <c r="C110" t="n">
-        <v>0.08362260000000001</v>
+        <v>0.0838512</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0843883</v>
+        <v>0.0843415</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.113929</v>
+        <v>0.10714</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0846219</v>
+        <v>0.0845987</v>
       </c>
       <c r="D111" t="n">
-        <v>0.08516070000000001</v>
+        <v>0.0850945</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.114057</v>
+        <v>0.107319</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0854726</v>
+        <v>0.0855992</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0860614</v>
+        <v>0.0859717</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.114222</v>
+        <v>0.107368</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0865715</v>
+        <v>0.0866783</v>
       </c>
       <c r="D113" t="n">
-        <v>0.08716309999999999</v>
+        <v>0.08699220000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.114085</v>
+        <v>0.10739</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0877053</v>
+        <v>0.0878511</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0881808</v>
+        <v>0.08802459999999999</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.11439</v>
+        <v>0.108007</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0890137</v>
+        <v>0.08891259999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0895334</v>
+        <v>0.0892425</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.114385</v>
+        <v>0.108532</v>
       </c>
       <c r="C116" t="n">
-        <v>0.090422</v>
+        <v>0.0901724</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0906956</v>
+        <v>0.09053559999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.114715</v>
+        <v>0.109434</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0917481</v>
+        <v>0.0949902</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0923257</v>
+        <v>0.0920578</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.115213</v>
+        <v>0.110322</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0933451</v>
+        <v>0.0934178</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0941726</v>
+        <v>0.0937661</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.115961</v>
+        <v>0.111307</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0951965</v>
+        <v>0.09469080000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0962446</v>
+        <v>0.09588770000000001</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.11706</v>
+        <v>0.1126</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0976172</v>
+        <v>0.0973707</v>
       </c>
       <c r="D120" t="n">
-        <v>0.099108</v>
+        <v>0.09861789999999999</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.118894</v>
+        <v>0.114771</v>
       </c>
       <c r="C121" t="n">
-        <v>0.10032</v>
+        <v>0.10009</v>
       </c>
       <c r="D121" t="n">
-        <v>0.103023</v>
+        <v>0.101852</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.121852</v>
+        <v>0.117715</v>
       </c>
       <c r="C122" t="n">
-        <v>0.104237</v>
+        <v>0.103983</v>
       </c>
       <c r="D122" t="n">
-        <v>0.10911</v>
+        <v>0.108536</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.126302</v>
+        <v>0.122368</v>
       </c>
       <c r="C123" t="n">
-        <v>0.110238</v>
+        <v>0.109401</v>
       </c>
       <c r="D123" t="n">
-        <v>0.117998</v>
+        <v>0.11752</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.141066</v>
+        <v>0.155922</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0970858</v>
+        <v>0.09742489999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0977338</v>
+        <v>0.0981472</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.135162</v>
+        <v>0.136435</v>
       </c>
       <c r="C125" t="n">
-        <v>0.09834950000000001</v>
+        <v>0.0986093</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0989768</v>
+        <v>0.0994326</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.135249</v>
+        <v>0.136636</v>
       </c>
       <c r="C126" t="n">
-        <v>0.09977229999999999</v>
+        <v>0.100193</v>
       </c>
       <c r="D126" t="n">
-        <v>0.100374</v>
+        <v>0.100844</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.135187</v>
+        <v>0.136806</v>
       </c>
       <c r="C127" t="n">
-        <v>0.101274</v>
+        <v>0.101505</v>
       </c>
       <c r="D127" t="n">
-        <v>0.101969</v>
+        <v>0.101966</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.135127</v>
+        <v>0.136808</v>
       </c>
       <c r="C128" t="n">
-        <v>0.102699</v>
+        <v>0.103113</v>
       </c>
       <c r="D128" t="n">
-        <v>0.10325</v>
+        <v>0.103639</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.135416</v>
+        <v>0.137345</v>
       </c>
       <c r="C129" t="n">
-        <v>0.104289</v>
+        <v>0.105004</v>
       </c>
       <c r="D129" t="n">
-        <v>0.105199</v>
+        <v>0.105734</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.135731</v>
+        <v>0.137475</v>
       </c>
       <c r="C130" t="n">
-        <v>0.105886</v>
+        <v>0.10759</v>
       </c>
       <c r="D130" t="n">
-        <v>0.106667</v>
+        <v>0.108145</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.136101</v>
+        <v>0.137858</v>
       </c>
       <c r="C131" t="n">
-        <v>0.107984</v>
+        <v>0.108726</v>
       </c>
       <c r="D131" t="n">
-        <v>0.108666</v>
+        <v>0.109612</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.136416</v>
+        <v>0.137864</v>
       </c>
       <c r="C132" t="n">
-        <v>0.109597</v>
+        <v>0.110022</v>
       </c>
       <c r="D132" t="n">
-        <v>0.110934</v>
+        <v>0.11106</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.13733</v>
+        <v>0.138657</v>
       </c>
       <c r="C133" t="n">
-        <v>0.111758</v>
+        <v>0.112213</v>
       </c>
       <c r="D133" t="n">
-        <v>0.113218</v>
+        <v>0.113742</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.138343</v>
+        <v>0.139638</v>
       </c>
       <c r="C134" t="n">
-        <v>0.114184</v>
+        <v>0.114713</v>
       </c>
       <c r="D134" t="n">
-        <v>0.116402</v>
+        <v>0.116705</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.139753</v>
+        <v>0.141892</v>
       </c>
       <c r="C135" t="n">
-        <v>0.117398</v>
+        <v>0.118486</v>
       </c>
       <c r="D135" t="n">
-        <v>0.120543</v>
+        <v>0.122235</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.142258</v>
+        <v>0.145137</v>
       </c>
       <c r="C136" t="n">
-        <v>0.12132</v>
+        <v>0.121529</v>
       </c>
       <c r="D136" t="n">
-        <v>0.127035</v>
+        <v>0.127247</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.146109</v>
+        <v>0.147825</v>
       </c>
       <c r="C137" t="n">
-        <v>0.127467</v>
+        <v>0.127361</v>
       </c>
       <c r="D137" t="n">
-        <v>0.136344</v>
+        <v>0.136235</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.157874</v>
+        <v>0.158036</v>
       </c>
       <c r="C138" t="n">
-        <v>0.108819</v>
+        <v>0.108821</v>
       </c>
       <c r="D138" t="n">
-        <v>0.109182</v>
+        <v>0.109348</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.158107</v>
+        <v>0.157866</v>
       </c>
       <c r="C139" t="n">
-        <v>0.109889</v>
+        <v>0.109973</v>
       </c>
       <c r="D139" t="n">
-        <v>0.110473</v>
+        <v>0.110556</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.15795</v>
+        <v>0.157929</v>
       </c>
       <c r="C140" t="n">
-        <v>0.11139</v>
+        <v>0.111491</v>
       </c>
       <c r="D140" t="n">
-        <v>0.111924</v>
+        <v>0.112014</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158339</v>
+        <v>0.1581</v>
       </c>
       <c r="C141" t="n">
-        <v>0.112767</v>
+        <v>0.11285</v>
       </c>
       <c r="D141" t="n">
-        <v>0.113349</v>
+        <v>0.113681</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158171</v>
+        <v>0.158422</v>
       </c>
       <c r="C142" t="n">
-        <v>0.114271</v>
+        <v>0.114344</v>
       </c>
       <c r="D142" t="n">
-        <v>0.114903</v>
+        <v>0.114991</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158575</v>
+        <v>0.158415</v>
       </c>
       <c r="C143" t="n">
-        <v>0.115689</v>
+        <v>0.115931</v>
       </c>
       <c r="D143" t="n">
-        <v>0.116421</v>
+        <v>0.11666</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0194466</v>
+        <v>0.0195957</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0212465</v>
+        <v>0.0212663</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0204597</v>
+        <v>0.0200641</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0195396</v>
+        <v>0.0196309</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0213002</v>
+        <v>0.0214689</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0203006</v>
+        <v>0.0199186</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0197346</v>
+        <v>0.0197432</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0213199</v>
+        <v>0.0214445</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0203396</v>
+        <v>0.0199887</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0197402</v>
+        <v>0.0197179</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0213132</v>
+        <v>0.0215035</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0202841</v>
+        <v>0.0200354</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0195948</v>
+        <v>0.0197429</v>
       </c>
       <c r="C6" t="n">
-        <v>0.021429</v>
+        <v>0.0215708</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0204101</v>
+        <v>0.0201553</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0200928</v>
+        <v>0.0200875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0215467</v>
+        <v>0.0217393</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0204924</v>
+        <v>0.0201985</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0201437</v>
+        <v>0.0201504</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0217424</v>
+        <v>0.022132</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0209738</v>
+        <v>0.0206897</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0204258</v>
+        <v>0.0203152</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0225046</v>
+        <v>0.0228707</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0219399</v>
+        <v>0.0195975</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0193405</v>
+        <v>0.0195588</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0209014</v>
+        <v>0.0209575</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0203294</v>
+        <v>0.0199575</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0193991</v>
+        <v>0.0197075</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0211995</v>
+        <v>0.0212035</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0203093</v>
+        <v>0.0200678</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0195991</v>
+        <v>0.0198702</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0213103</v>
+        <v>0.0213322</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0204124</v>
+        <v>0.0202752</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.019624</v>
+        <v>0.0199236</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0214008</v>
+        <v>0.0216018</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0206428</v>
+        <v>0.0206109</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0199218</v>
+        <v>0.0202162</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0217389</v>
+        <v>0.0218437</v>
       </c>
       <c r="D14" t="n">
-        <v>0.020989</v>
+        <v>0.0209505</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0200707</v>
+        <v>0.0202043</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0219657</v>
+        <v>0.0222453</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0211732</v>
+        <v>0.0210975</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0201823</v>
+        <v>0.0204462</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0221926</v>
+        <v>0.0225452</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0213613</v>
+        <v>0.0213556</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0203657</v>
+        <v>0.020466</v>
       </c>
       <c r="C17" t="n">
-        <v>0.022453</v>
+        <v>0.0227198</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0214708</v>
+        <v>0.0215586</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0204758</v>
+        <v>0.0205727</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0225491</v>
+        <v>0.0228902</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0215603</v>
+        <v>0.0216198</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0205055</v>
+        <v>0.0205093</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0229035</v>
+        <v>0.0231897</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0216529</v>
+        <v>0.0217288</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0207467</v>
+        <v>0.0205977</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0233437</v>
+        <v>0.0235492</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0218571</v>
+        <v>0.0220125</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0209323</v>
+        <v>0.0208802</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0237144</v>
+        <v>0.0240575</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0221808</v>
+        <v>0.0220028</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0215378</v>
+        <v>0.0216719</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0245844</v>
+        <v>0.0250328</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0233751</v>
+        <v>0.0231735</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0235814</v>
+        <v>0.0241908</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0268671</v>
+        <v>0.0275792</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0281169</v>
+        <v>0.0213066</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0202628</v>
+        <v>0.0206092</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0219125</v>
+        <v>0.0218963</v>
       </c>
       <c r="D24" t="n">
-        <v>0.020915</v>
+        <v>0.0215474</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0202442</v>
+        <v>0.0203945</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0221366</v>
+        <v>0.0222712</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0210853</v>
+        <v>0.0217873</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0205804</v>
+        <v>0.0207725</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0224801</v>
+        <v>0.0226044</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0213328</v>
+        <v>0.021868</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.020535</v>
+        <v>0.020768</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0227209</v>
+        <v>0.0228838</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0215929</v>
+        <v>0.0220877</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0208526</v>
+        <v>0.020901</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0231034</v>
+        <v>0.0232317</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0218562</v>
+        <v>0.0225205</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0209989</v>
+        <v>0.0210489</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0233947</v>
+        <v>0.0236294</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02223</v>
+        <v>0.0228062</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0213252</v>
+        <v>0.0212868</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0238326</v>
+        <v>0.0239809</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0223588</v>
+        <v>0.0231788</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.021428</v>
+        <v>0.0214566</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0241323</v>
+        <v>0.0241468</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0228199</v>
+        <v>0.0235355</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0216037</v>
+        <v>0.0215414</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0244664</v>
+        <v>0.024585</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0229042</v>
+        <v>0.0234716</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0217209</v>
+        <v>0.0221325</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0251455</v>
+        <v>0.0253078</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0234366</v>
+        <v>0.0238587</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0221917</v>
+        <v>0.0223063</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0259334</v>
+        <v>0.0262324</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0242055</v>
+        <v>0.0242472</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0242508</v>
+        <v>0.0230902</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0273867</v>
+        <v>0.0271318</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0255329</v>
+        <v>0.025702</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0261003</v>
+        <v>0.0275285</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0294488</v>
+        <v>0.0293358</v>
       </c>
       <c r="D36" t="n">
-        <v>0.028062</v>
+        <v>0.0298363</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0283535</v>
+        <v>0.0308809</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0337365</v>
+        <v>0.0338223</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0374433</v>
+        <v>0.0222983</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0213809</v>
+        <v>0.0215023</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0230449</v>
+        <v>0.0230986</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0217499</v>
+        <v>0.0226655</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.021537</v>
+        <v>0.0216784</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0233199</v>
+        <v>0.0234104</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0219658</v>
+        <v>0.0228144</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0218095</v>
+        <v>0.0217155</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0236702</v>
+        <v>0.0237234</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0222196</v>
+        <v>0.0230993</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0218047</v>
+        <v>0.0219256</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0241702</v>
+        <v>0.0241119</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0225048</v>
+        <v>0.0233694</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0220848</v>
+        <v>0.0221131</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0243792</v>
+        <v>0.0244295</v>
       </c>
       <c r="D42" t="n">
-        <v>0.022804</v>
+        <v>0.0236472</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0223173</v>
+        <v>0.0224052</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0249428</v>
+        <v>0.0248813</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0231798</v>
+        <v>0.0239951</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0226701</v>
+        <v>0.0226533</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0253893</v>
+        <v>0.0253092</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0236254</v>
+        <v>0.0244205</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0230714</v>
+        <v>0.0229466</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0259187</v>
+        <v>0.0258671</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0240134</v>
+        <v>0.0247782</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0232109</v>
+        <v>0.0234252</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0264566</v>
+        <v>0.0264136</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0245671</v>
+        <v>0.0251803</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.024181</v>
+        <v>0.0237859</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0272351</v>
+        <v>0.0271264</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0253884</v>
+        <v>0.0257834</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0255618</v>
+        <v>0.0248443</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0283941</v>
+        <v>0.0281665</v>
       </c>
       <c r="D48" t="n">
-        <v>0.026761</v>
+        <v>0.027172</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0274018</v>
+        <v>0.0278758</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0300122</v>
+        <v>0.0300064</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0301601</v>
+        <v>0.0296958</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0293018</v>
+        <v>0.0296486</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0322051</v>
+        <v>0.0321867</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0339114</v>
+        <v>0.0341775</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0345811</v>
+        <v>0.0337786</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0359396</v>
+        <v>0.0358612</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0398853</v>
+        <v>0.0232071</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0398409</v>
+        <v>0.0402174</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0413724</v>
+        <v>0.0413559</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0483837</v>
+        <v>0.0234544</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0230274</v>
+        <v>0.0231211</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0247104</v>
+        <v>0.0246906</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0235377</v>
+        <v>0.0237104</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0232157</v>
+        <v>0.0233277</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0250169</v>
+        <v>0.0249862</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0233759</v>
+        <v>0.0239073</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0234397</v>
+        <v>0.0235202</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0253481</v>
+        <v>0.0253563</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0236361</v>
+        <v>0.0242923</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0236596</v>
+        <v>0.0237387</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0256798</v>
+        <v>0.0257484</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0238912</v>
+        <v>0.0245592</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0239123</v>
+        <v>0.0240061</v>
       </c>
       <c r="C57" t="n">
-        <v>0.026146</v>
+        <v>0.0261391</v>
       </c>
       <c r="D57" t="n">
-        <v>0.024202</v>
+        <v>0.0248823</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0245078</v>
+        <v>0.0243161</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0265966</v>
+        <v>0.0266247</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0246625</v>
+        <v>0.0253097</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0248135</v>
+        <v>0.0248011</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0271523</v>
+        <v>0.027228</v>
       </c>
       <c r="D59" t="n">
-        <v>0.025244</v>
+        <v>0.0257811</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0253882</v>
+        <v>0.0253852</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0278312</v>
+        <v>0.0278673</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0259097</v>
+        <v>0.0264948</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.02619</v>
+        <v>0.0262568</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0286888</v>
+        <v>0.0287764</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0268934</v>
+        <v>0.027582</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0276987</v>
+        <v>0.0275282</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0299491</v>
+        <v>0.0299672</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0284614</v>
+        <v>0.0292596</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0298331</v>
+        <v>0.0294526</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0316614</v>
+        <v>0.0316564</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0311073</v>
+        <v>0.0316674</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0325767</v>
+        <v>0.0318659</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0341057</v>
+        <v>0.0339687</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0348803</v>
+        <v>0.0355882</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0359716</v>
+        <v>0.0359353</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0373717</v>
+        <v>0.037181</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0407272</v>
+        <v>0.041365</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0415427</v>
+        <v>0.0412323</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0422702</v>
+        <v>0.042086</v>
       </c>
       <c r="D66" t="n">
-        <v>0.048273</v>
+        <v>0.0252267</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.029532</v>
+        <v>0.0294032</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0264701</v>
+        <v>0.0269383</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0270836</v>
+        <v>0.025397</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.029617</v>
+        <v>0.0293139</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0267415</v>
+        <v>0.0268898</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0261896</v>
+        <v>0.0258465</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0298523</v>
+        <v>0.0293695</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0274237</v>
+        <v>0.0272199</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0265656</v>
+        <v>0.0256839</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0301566</v>
+        <v>0.0297621</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0279266</v>
+        <v>0.0275681</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0260731</v>
+        <v>0.0261472</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0302251</v>
+        <v>0.0297658</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0283226</v>
+        <v>0.0279186</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0264268</v>
+        <v>0.0266777</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0303565</v>
+        <v>0.0300551</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0287759</v>
+        <v>0.0286611</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0268527</v>
+        <v>0.0271408</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0308224</v>
+        <v>0.0305063</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0294015</v>
+        <v>0.0293188</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0282716</v>
+        <v>0.0278239</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.031435</v>
+        <v>0.0309344</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0296794</v>
+        <v>0.029847</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0284095</v>
+        <v>0.0285927</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0321891</v>
+        <v>0.0316781</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0306342</v>
+        <v>0.0309358</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0295547</v>
+        <v>0.0297267</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0334745</v>
+        <v>0.0327917</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0322627</v>
+        <v>0.032104</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0311578</v>
+        <v>0.0313736</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0353317</v>
+        <v>0.0345347</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0334112</v>
+        <v>0.0336783</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0335022</v>
+        <v>0.0338491</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.037733</v>
+        <v>0.0371664</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0356057</v>
+        <v>0.0358219</v>
       </c>
       <c r="D78" t="n">
-        <v>0.036878</v>
+        <v>0.0368945</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.041154</v>
+        <v>0.040443</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0389267</v>
+        <v>0.0386994</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0417221</v>
+        <v>0.0419341</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0459663</v>
+        <v>0.0453125</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0427122</v>
+        <v>0.0427341</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0487981</v>
+        <v>0.0375388</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.055785</v>
+        <v>0.0549182</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0356748</v>
+        <v>0.0360913</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0356303</v>
+        <v>0.0384327</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.055993</v>
+        <v>0.0550731</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0363943</v>
+        <v>0.0368319</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0363399</v>
+        <v>0.0390507</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0560615</v>
+        <v>0.0555607</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0373071</v>
+        <v>0.0372714</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0371989</v>
+        <v>0.0398439</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0562774</v>
+        <v>0.0556907</v>
       </c>
       <c r="C84" t="n">
-        <v>0.038332</v>
+        <v>0.038623</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0383878</v>
+        <v>0.0406384</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0566234</v>
+        <v>0.0557577</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0397585</v>
+        <v>0.039731</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0397393</v>
+        <v>0.0413078</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0566888</v>
+        <v>0.0562046</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0409992</v>
+        <v>0.0410846</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0410343</v>
+        <v>0.0421024</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0570206</v>
+        <v>0.0563126</v>
       </c>
       <c r="C87" t="n">
-        <v>0.042514</v>
+        <v>0.0425773</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0426001</v>
+        <v>0.0429137</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0572565</v>
+        <v>0.0566101</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0440915</v>
+        <v>0.044122</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0443325</v>
+        <v>0.043891</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0578891</v>
+        <v>0.0571346</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0456976</v>
+        <v>0.0456227</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0461476</v>
+        <v>0.0448558</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0587833</v>
+        <v>0.057837</v>
       </c>
       <c r="C90" t="n">
-        <v>0.047356</v>
+        <v>0.0474518</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0483325</v>
+        <v>0.0459431</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0595323</v>
+        <v>0.0589741</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0493314</v>
+        <v>0.0492875</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0505796</v>
+        <v>0.0479968</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0614365</v>
+        <v>0.0606533</v>
       </c>
       <c r="C92" t="n">
-        <v>0.051053</v>
+        <v>0.05121</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0534028</v>
+        <v>0.0503716</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0639436</v>
+        <v>0.0632511</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0543477</v>
+        <v>0.0539891</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0578851</v>
+        <v>0.0549477</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0678766</v>
+        <v>0.06696299999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0582792</v>
+        <v>0.0582061</v>
       </c>
       <c r="D94" t="n">
-        <v>0.06446060000000001</v>
+        <v>0.072558</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0859181</v>
+        <v>0.0860134</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0691683</v>
+        <v>0.0690476</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0700268</v>
+        <v>0.0728808</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.08606179999999999</v>
+        <v>0.0860937</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0695045</v>
+        <v>0.0695431</v>
       </c>
       <c r="D96" t="n">
-        <v>0.07039040000000001</v>
+        <v>0.0734866</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.085859</v>
+        <v>0.08630160000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0701099</v>
+        <v>0.070012</v>
       </c>
       <c r="D97" t="n">
-        <v>0.07077079999999999</v>
+        <v>0.07397910000000001</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0859389</v>
+        <v>0.0861944</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0706551</v>
+        <v>0.0704988</v>
       </c>
       <c r="D98" t="n">
-        <v>0.07140920000000001</v>
+        <v>0.0742936</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.097318</v>
+        <v>0.08625099999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.071144</v>
+        <v>0.0711446</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0718656</v>
+        <v>0.07595490000000001</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0862709</v>
+        <v>0.0865046</v>
       </c>
       <c r="C100" t="n">
-        <v>0.07174850000000001</v>
+        <v>0.0717873</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0725391</v>
+        <v>0.0755159</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08648989999999999</v>
+        <v>0.0864761</v>
       </c>
       <c r="C101" t="n">
-        <v>0.07273309999999999</v>
+        <v>0.07259599999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0731909</v>
+        <v>0.0763398</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0867873</v>
+        <v>0.0868365</v>
       </c>
       <c r="C102" t="n">
-        <v>0.07362100000000001</v>
+        <v>0.07343429999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.07420019999999999</v>
+        <v>0.0771809</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.08716500000000001</v>
+        <v>0.087362</v>
       </c>
       <c r="C103" t="n">
-        <v>0.07430680000000001</v>
+        <v>0.07441780000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0749055</v>
+        <v>0.0780638</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.08781079999999999</v>
+        <v>0.08772870000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.07586619999999999</v>
+        <v>0.0756086</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07632700000000001</v>
+        <v>0.07937429999999999</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.088759</v>
+        <v>0.08873109999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.08121159999999999</v>
+        <v>0.0770995</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0777687</v>
+        <v>0.08097269999999999</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0898953</v>
+        <v>0.0898139</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0787636</v>
+        <v>0.07889450000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0804121</v>
+        <v>0.08316850000000001</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0921155</v>
+        <v>0.0919198</v>
       </c>
       <c r="C107" t="n">
-        <v>0.08145139999999999</v>
+        <v>0.081326</v>
       </c>
       <c r="D107" t="n">
-        <v>0.08417810000000001</v>
+        <v>0.08696039999999999</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0952639</v>
+        <v>0.0953079</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0850886</v>
+        <v>0.0849964</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0899923</v>
+        <v>0.0890653</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100347</v>
+        <v>0.100298</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0909973</v>
+        <v>0.09114609999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>0.09924910000000001</v>
+        <v>0.0896182</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.107151</v>
+        <v>0.107323</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0838512</v>
+        <v>0.0828854</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0843415</v>
+        <v>0.0904447</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.10714</v>
+        <v>0.107233</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0845987</v>
+        <v>0.08376980000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0850945</v>
+        <v>0.09130919999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.107319</v>
+        <v>0.1074</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0855992</v>
+        <v>0.08471529999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0859717</v>
+        <v>0.0943029</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.107368</v>
+        <v>0.107378</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0866783</v>
+        <v>0.0857484</v>
       </c>
       <c r="D113" t="n">
-        <v>0.08699220000000001</v>
+        <v>0.0931621</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.10739</v>
+        <v>0.107647</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0878511</v>
+        <v>0.0868483</v>
       </c>
       <c r="D114" t="n">
-        <v>0.08802459999999999</v>
+        <v>0.0940925</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.108007</v>
+        <v>0.10786</v>
       </c>
       <c r="C115" t="n">
-        <v>0.08891259999999999</v>
+        <v>0.0880566</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0892425</v>
+        <v>0.0952071</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108532</v>
+        <v>0.10804</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0901724</v>
+        <v>0.0893772</v>
       </c>
       <c r="D116" t="n">
-        <v>0.09053559999999999</v>
+        <v>0.0965439</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.109434</v>
+        <v>0.108434</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0949902</v>
+        <v>0.09092020000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0920578</v>
+        <v>0.09786449999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.110322</v>
+        <v>0.108929</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0934178</v>
+        <v>0.092442</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0937661</v>
+        <v>0.0996556</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.111307</v>
+        <v>0.109722</v>
       </c>
       <c r="C119" t="n">
-        <v>0.09469080000000001</v>
+        <v>0.09430769999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.09588770000000001</v>
+        <v>0.101471</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.1126</v>
+        <v>0.110948</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0973707</v>
+        <v>0.0963923</v>
       </c>
       <c r="D120" t="n">
-        <v>0.09861789999999999</v>
+        <v>0.10428</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.114771</v>
+        <v>0.113004</v>
       </c>
       <c r="C121" t="n">
-        <v>0.10009</v>
+        <v>0.107054</v>
       </c>
       <c r="D121" t="n">
-        <v>0.101852</v>
+        <v>0.108158</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.117715</v>
+        <v>0.115806</v>
       </c>
       <c r="C122" t="n">
-        <v>0.103983</v>
+        <v>0.102907</v>
       </c>
       <c r="D122" t="n">
-        <v>0.108536</v>
+        <v>0.114138</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.122368</v>
+        <v>0.120698</v>
       </c>
       <c r="C123" t="n">
-        <v>0.109401</v>
+        <v>0.108915</v>
       </c>
       <c r="D123" t="n">
-        <v>0.11752</v>
+        <v>0.108158</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.155922</v>
+        <v>0.140645</v>
       </c>
       <c r="C124" t="n">
-        <v>0.09742489999999999</v>
+        <v>0.0961518</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0981472</v>
+        <v>0.109718</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.136435</v>
+        <v>0.141211</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0986093</v>
+        <v>0.0976668</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0994326</v>
+        <v>0.110171</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.136636</v>
+        <v>0.141595</v>
       </c>
       <c r="C126" t="n">
-        <v>0.100193</v>
+        <v>0.09924470000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.100844</v>
+        <v>0.111365</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.136806</v>
+        <v>0.142616</v>
       </c>
       <c r="C127" t="n">
-        <v>0.101505</v>
+        <v>0.104038</v>
       </c>
       <c r="D127" t="n">
-        <v>0.101966</v>
+        <v>0.113908</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.136808</v>
+        <v>0.143041</v>
       </c>
       <c r="C128" t="n">
-        <v>0.103113</v>
+        <v>0.10325</v>
       </c>
       <c r="D128" t="n">
-        <v>0.103639</v>
+        <v>0.115158</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.137345</v>
+        <v>0.14475</v>
       </c>
       <c r="C129" t="n">
-        <v>0.105004</v>
+        <v>0.104819</v>
       </c>
       <c r="D129" t="n">
-        <v>0.105734</v>
+        <v>0.11628</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.137475</v>
+        <v>0.145562</v>
       </c>
       <c r="C130" t="n">
-        <v>0.10759</v>
+        <v>0.106267</v>
       </c>
       <c r="D130" t="n">
-        <v>0.108145</v>
+        <v>0.116238</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.137858</v>
+        <v>0.14347</v>
       </c>
       <c r="C131" t="n">
-        <v>0.108726</v>
+        <v>0.107902</v>
       </c>
       <c r="D131" t="n">
-        <v>0.109612</v>
+        <v>0.117854</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.137864</v>
+        <v>0.145088</v>
       </c>
       <c r="C132" t="n">
-        <v>0.110022</v>
+        <v>0.109711</v>
       </c>
       <c r="D132" t="n">
-        <v>0.11106</v>
+        <v>0.119663</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.138657</v>
+        <v>0.145709</v>
       </c>
       <c r="C133" t="n">
-        <v>0.112213</v>
+        <v>0.111645</v>
       </c>
       <c r="D133" t="n">
-        <v>0.113742</v>
+        <v>0.127055</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.139638</v>
+        <v>0.154646</v>
       </c>
       <c r="C134" t="n">
-        <v>0.114713</v>
+        <v>0.121261</v>
       </c>
       <c r="D134" t="n">
-        <v>0.116705</v>
+        <v>0.133173</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.141892</v>
+        <v>0.162525</v>
       </c>
       <c r="C135" t="n">
-        <v>0.118486</v>
+        <v>0.126758</v>
       </c>
       <c r="D135" t="n">
-        <v>0.122235</v>
+        <v>0.139389</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.145137</v>
+        <v>0.159361</v>
       </c>
       <c r="C136" t="n">
-        <v>0.121529</v>
+        <v>0.120791</v>
       </c>
       <c r="D136" t="n">
-        <v>0.127247</v>
+        <v>0.135585</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.147825</v>
+        <v>0.152187</v>
       </c>
       <c r="C137" t="n">
-        <v>0.127361</v>
+        <v>0.126658</v>
       </c>
       <c r="D137" t="n">
-        <v>0.136235</v>
+        <v>0.120433</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.158036</v>
+        <v>0.15756</v>
       </c>
       <c r="C138" t="n">
-        <v>0.108821</v>
+        <v>0.109764</v>
       </c>
       <c r="D138" t="n">
-        <v>0.109348</v>
+        <v>0.121579</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.157866</v>
+        <v>0.15767</v>
       </c>
       <c r="C139" t="n">
-        <v>0.109973</v>
+        <v>0.11089</v>
       </c>
       <c r="D139" t="n">
-        <v>0.110556</v>
+        <v>0.122705</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.157929</v>
+        <v>0.157862</v>
       </c>
       <c r="C140" t="n">
-        <v>0.111491</v>
+        <v>0.112171</v>
       </c>
       <c r="D140" t="n">
-        <v>0.112014</v>
+        <v>0.143072</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1581</v>
+        <v>0.158032</v>
       </c>
       <c r="C141" t="n">
-        <v>0.11285</v>
+        <v>0.113606</v>
       </c>
       <c r="D141" t="n">
-        <v>0.113681</v>
+        <v>0.124806</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158422</v>
+        <v>0.158121</v>
       </c>
       <c r="C142" t="n">
-        <v>0.114344</v>
+        <v>0.115413</v>
       </c>
       <c r="D142" t="n">
-        <v>0.114991</v>
+        <v>0.126033</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158415</v>
+        <v>0.158318</v>
       </c>
       <c r="C143" t="n">
-        <v>0.115931</v>
+        <v>0.116641</v>
       </c>
       <c r="D143" t="n">
-        <v>0.11666</v>
+        <v>0.12744</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0195957</v>
+        <v>0.0195473</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0212663</v>
+        <v>0.0209361</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0200641</v>
+        <v>0.0196998</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0196309</v>
+        <v>0.0195821</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0214689</v>
+        <v>0.0210005</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0199186</v>
+        <v>0.0197571</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0197432</v>
+        <v>0.0197417</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0214445</v>
+        <v>0.0209895</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0199887</v>
+        <v>0.0197536</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0197179</v>
+        <v>0.0198131</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0215035</v>
+        <v>0.0208274</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0200354</v>
+        <v>0.019728</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0197429</v>
+        <v>0.0197909</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0215708</v>
+        <v>0.0207898</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0201553</v>
+        <v>0.0198961</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0200875</v>
+        <v>0.0200583</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0217393</v>
+        <v>0.0209604</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0201985</v>
+        <v>0.0200743</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0201504</v>
+        <v>0.0201702</v>
       </c>
       <c r="C8" t="n">
-        <v>0.022132</v>
+        <v>0.0210052</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0206897</v>
+        <v>0.020576</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0203152</v>
+        <v>0.0206468</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0228707</v>
+        <v>0.0210719</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0195975</v>
+        <v>0.0192641</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0195588</v>
+        <v>0.0197714</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0209575</v>
+        <v>0.0207345</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0199575</v>
+        <v>0.0196782</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0197075</v>
+        <v>0.0196315</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0212035</v>
+        <v>0.0210295</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0200678</v>
+        <v>0.0197467</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0198702</v>
+        <v>0.0197565</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0213322</v>
+        <v>0.0210851</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0202752</v>
+        <v>0.0198597</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0199236</v>
+        <v>0.0197563</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0216018</v>
+        <v>0.0212646</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0206109</v>
+        <v>0.0202408</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0202162</v>
+        <v>0.0200813</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0218437</v>
+        <v>0.0214972</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0209505</v>
+        <v>0.0205524</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0202043</v>
+        <v>0.0201448</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0222453</v>
+        <v>0.0217328</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0210975</v>
+        <v>0.0207444</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0204462</v>
+        <v>0.0203339</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0225452</v>
+        <v>0.0218741</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0213556</v>
+        <v>0.0208727</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.020466</v>
+        <v>0.0203042</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0227198</v>
+        <v>0.0220008</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0215586</v>
+        <v>0.0212224</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0205727</v>
+        <v>0.0204638</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0228902</v>
+        <v>0.0220139</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0216198</v>
+        <v>0.0213668</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0205093</v>
+        <v>0.0207342</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0231897</v>
+        <v>0.0221623</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0217288</v>
+        <v>0.0214811</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0205977</v>
+        <v>0.0209031</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0235492</v>
+        <v>0.0223277</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0220125</v>
+        <v>0.0217845</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0208802</v>
+        <v>0.0212323</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0240575</v>
+        <v>0.0224831</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0220028</v>
+        <v>0.0218641</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0216719</v>
+        <v>0.0221492</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0250328</v>
+        <v>0.0227483</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0231735</v>
+        <v>0.0232837</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0241908</v>
+        <v>0.0257285</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0275792</v>
+        <v>0.0233603</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0213066</v>
+        <v>0.0210028</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0206092</v>
+        <v>0.0206671</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0218963</v>
+        <v>0.0218346</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0215474</v>
+        <v>0.0212271</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0203945</v>
+        <v>0.0209056</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0222712</v>
+        <v>0.0222311</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0217873</v>
+        <v>0.0213338</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0207725</v>
+        <v>0.0208881</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0226044</v>
+        <v>0.0223017</v>
       </c>
       <c r="D26" t="n">
-        <v>0.021868</v>
+        <v>0.0216415</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.020768</v>
+        <v>0.0211031</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0228838</v>
+        <v>0.0225915</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0220877</v>
+        <v>0.0218916</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.020901</v>
+        <v>0.0212484</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0232317</v>
+        <v>0.0229093</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0225205</v>
+        <v>0.0221865</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0210489</v>
+        <v>0.0214268</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0236294</v>
+        <v>0.0232078</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0228062</v>
+        <v>0.0225406</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0212868</v>
+        <v>0.0215513</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0239809</v>
+        <v>0.0235545</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0231788</v>
+        <v>0.02286</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0214566</v>
+        <v>0.0217345</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0241468</v>
+        <v>0.0237992</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0235355</v>
+        <v>0.0231658</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0215414</v>
+        <v>0.0219811</v>
       </c>
       <c r="C32" t="n">
-        <v>0.024585</v>
+        <v>0.0240421</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0234716</v>
+        <v>0.0231701</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0221325</v>
+        <v>0.0223586</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0253078</v>
+        <v>0.0244035</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0238587</v>
+        <v>0.0238299</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0223063</v>
+        <v>0.0235406</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0262324</v>
+        <v>0.0247337</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0242472</v>
+        <v>0.0246649</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0230902</v>
+        <v>0.0260803</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0271318</v>
+        <v>0.0258065</v>
       </c>
       <c r="D35" t="n">
-        <v>0.025702</v>
+        <v>0.0263023</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0275285</v>
+        <v>0.0287629</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0293358</v>
+        <v>0.0272618</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0298363</v>
+        <v>0.02967</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0308809</v>
+        <v>0.0323325</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0338223</v>
+        <v>0.0304045</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0222983</v>
+        <v>0.0221839</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0215023</v>
+        <v>0.0215461</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0230986</v>
+        <v>0.0230433</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0226655</v>
+        <v>0.0224728</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0216784</v>
+        <v>0.02159</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0234104</v>
+        <v>0.0233143</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0228144</v>
+        <v>0.022666</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0217155</v>
+        <v>0.0217393</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0237234</v>
+        <v>0.0236098</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0230993</v>
+        <v>0.0229102</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0219256</v>
+        <v>0.0218844</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0241119</v>
+        <v>0.0239744</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0233694</v>
+        <v>0.0232013</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0221131</v>
+        <v>0.0221726</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0244295</v>
+        <v>0.0242939</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0236472</v>
+        <v>0.0235089</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0224052</v>
+        <v>0.0224246</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0248813</v>
+        <v>0.0247346</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0239951</v>
+        <v>0.0238674</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0226533</v>
+        <v>0.0226906</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0253092</v>
+        <v>0.0251437</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0244205</v>
+        <v>0.0242475</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0229466</v>
+        <v>0.023054</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0258671</v>
+        <v>0.0255525</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0247782</v>
+        <v>0.0246434</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0234252</v>
+        <v>0.0235452</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0264136</v>
+        <v>0.0260629</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0251803</v>
+        <v>0.0251218</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0237859</v>
+        <v>0.0245474</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0271264</v>
+        <v>0.026654</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0257834</v>
+        <v>0.0259981</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0248443</v>
+        <v>0.0262628</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0281665</v>
+        <v>0.0276083</v>
       </c>
       <c r="D48" t="n">
-        <v>0.027172</v>
+        <v>0.0275187</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0278758</v>
+        <v>0.0282841</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0300064</v>
+        <v>0.0289237</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0296958</v>
+        <v>0.0295325</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0296486</v>
+        <v>0.0313988</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0321867</v>
+        <v>0.030894</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0341775</v>
+        <v>0.0328294</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0337786</v>
+        <v>0.0352171</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0358612</v>
+        <v>0.0338208</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0232071</v>
+        <v>0.0230413</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0402174</v>
+        <v>0.0406924</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0413559</v>
+        <v>0.0401467</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0234544</v>
+        <v>0.0232801</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0231211</v>
+        <v>0.0231698</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0246906</v>
+        <v>0.0246344</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0237104</v>
+        <v>0.0235363</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0233277</v>
+        <v>0.0233539</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0249862</v>
+        <v>0.0249334</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0239073</v>
+        <v>0.0237701</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0235202</v>
+        <v>0.0235287</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0253563</v>
+        <v>0.0253103</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0242923</v>
+        <v>0.0241375</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0237387</v>
+        <v>0.0236924</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0257484</v>
+        <v>0.0256387</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0245592</v>
+        <v>0.0244487</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0240061</v>
+        <v>0.0242395</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0261391</v>
+        <v>0.0260192</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0248823</v>
+        <v>0.0247354</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0243161</v>
+        <v>0.0244447</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0266247</v>
+        <v>0.0264718</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0253097</v>
+        <v>0.025235</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0248011</v>
+        <v>0.0248518</v>
       </c>
       <c r="C59" t="n">
-        <v>0.027228</v>
+        <v>0.0269613</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0257811</v>
+        <v>0.0256717</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0253852</v>
+        <v>0.0255958</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0278673</v>
+        <v>0.0275197</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0264948</v>
+        <v>0.0264153</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0262568</v>
+        <v>0.026741</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0287764</v>
+        <v>0.0283006</v>
       </c>
       <c r="D61" t="n">
-        <v>0.027582</v>
+        <v>0.0273252</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0275282</v>
+        <v>0.0280821</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0299672</v>
+        <v>0.0293494</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0292596</v>
+        <v>0.0290117</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0294526</v>
+        <v>0.0304023</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0316564</v>
+        <v>0.0309532</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0316674</v>
+        <v>0.0314142</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0318659</v>
+        <v>0.0331953</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0339687</v>
+        <v>0.0330803</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0355882</v>
+        <v>0.0349167</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0359353</v>
+        <v>0.0369377</v>
       </c>
       <c r="C65" t="n">
-        <v>0.037181</v>
+        <v>0.0362064</v>
       </c>
       <c r="D65" t="n">
-        <v>0.041365</v>
+        <v>0.0405949</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0412323</v>
+        <v>0.0420678</v>
       </c>
       <c r="C66" t="n">
-        <v>0.042086</v>
+        <v>0.0412813</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0252267</v>
+        <v>0.0255686</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0294032</v>
+        <v>0.0279865</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0269383</v>
+        <v>0.0262534</v>
       </c>
       <c r="D67" t="n">
-        <v>0.025397</v>
+        <v>0.0248071</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0293139</v>
+        <v>0.0279936</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0268898</v>
+        <v>0.0273542</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0258465</v>
+        <v>0.0257829</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0293695</v>
+        <v>0.0282537</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0272199</v>
+        <v>0.0275849</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0256839</v>
+        <v>0.0261036</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0297621</v>
+        <v>0.0284747</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0275681</v>
+        <v>0.0276041</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0261472</v>
+        <v>0.0263964</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0297658</v>
+        <v>0.028621</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0279186</v>
+        <v>0.0279078</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0266777</v>
+        <v>0.026728</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0300551</v>
+        <v>0.0290616</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0286611</v>
+        <v>0.0287729</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0271408</v>
+        <v>0.0266263</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0305063</v>
+        <v>0.0295633</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0293188</v>
+        <v>0.0292994</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0278239</v>
+        <v>0.0272349</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0309344</v>
+        <v>0.0301891</v>
       </c>
       <c r="C74" t="n">
-        <v>0.029847</v>
+        <v>0.0299666</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0285927</v>
+        <v>0.0280764</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0316781</v>
+        <v>0.0312287</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0309358</v>
+        <v>0.0308994</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0297267</v>
+        <v>0.0291972</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0327917</v>
+        <v>0.0323713</v>
       </c>
       <c r="C76" t="n">
-        <v>0.032104</v>
+        <v>0.0318665</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0313736</v>
+        <v>0.0308205</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0345347</v>
+        <v>0.0340877</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0336783</v>
+        <v>0.033436</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0338491</v>
+        <v>0.0335281</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0371664</v>
+        <v>0.0364987</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0358219</v>
+        <v>0.0351592</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0368945</v>
+        <v>0.0367303</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.040443</v>
+        <v>0.0400318</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0386994</v>
+        <v>0.0384283</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0419341</v>
+        <v>0.0416036</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0453125</v>
+        <v>0.0447442</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0427341</v>
+        <v>0.0422633</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0375388</v>
+        <v>0.0360979</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0549182</v>
+        <v>0.0597441</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0360913</v>
+        <v>0.0360129</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0384327</v>
+        <v>0.0366444</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0550731</v>
+        <v>0.0579443</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0368319</v>
+        <v>0.0366385</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0390507</v>
+        <v>0.0374053</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0555607</v>
+        <v>0.0578559</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0372714</v>
+        <v>0.0375173</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0398439</v>
+        <v>0.0383041</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0556907</v>
+        <v>0.0579711</v>
       </c>
       <c r="C84" t="n">
-        <v>0.038623</v>
+        <v>0.0387036</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0406384</v>
+        <v>0.03878</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0557577</v>
+        <v>0.0580982</v>
       </c>
       <c r="C85" t="n">
-        <v>0.039731</v>
+        <v>0.0398248</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0413078</v>
+        <v>0.0397286</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0562046</v>
+        <v>0.0583403</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0410846</v>
+        <v>0.0411529</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0421024</v>
+        <v>0.040265</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0563126</v>
+        <v>0.0585574</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0425773</v>
+        <v>0.0425374</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0429137</v>
+        <v>0.041287</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0566101</v>
+        <v>0.0590221</v>
       </c>
       <c r="C88" t="n">
-        <v>0.044122</v>
+        <v>0.0439868</v>
       </c>
       <c r="D88" t="n">
-        <v>0.043891</v>
+        <v>0.0421845</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0571346</v>
+        <v>0.0593882</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0456227</v>
+        <v>0.0453837</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0448558</v>
+        <v>0.0432469</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.057837</v>
+        <v>0.0601573</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0474518</v>
+        <v>0.0472418</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0459431</v>
+        <v>0.0446312</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0589741</v>
+        <v>0.0612158</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0492875</v>
+        <v>0.0490436</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0479968</v>
+        <v>0.0460946</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0606533</v>
+        <v>0.0627381</v>
       </c>
       <c r="C92" t="n">
-        <v>0.05121</v>
+        <v>0.0510734</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0503716</v>
+        <v>0.0487962</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0632511</v>
+        <v>0.0654896</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0539891</v>
+        <v>0.0538208</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0549477</v>
+        <v>0.0530883</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.06696299999999999</v>
+        <v>0.0695317</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0582061</v>
+        <v>0.0577742</v>
       </c>
       <c r="D94" t="n">
-        <v>0.072558</v>
+        <v>0.0734107</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0860134</v>
+        <v>0.0858805</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0690476</v>
+        <v>0.07108200000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0728808</v>
+        <v>0.0739615</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0860937</v>
+        <v>0.0859293</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0695431</v>
+        <v>0.0717593</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0734866</v>
+        <v>0.07432130000000001</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.08630160000000001</v>
+        <v>0.0858952</v>
       </c>
       <c r="C97" t="n">
-        <v>0.070012</v>
+        <v>0.0721731</v>
       </c>
       <c r="D97" t="n">
-        <v>0.07397910000000001</v>
+        <v>0.0747507</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0861944</v>
+        <v>0.0862366</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0704988</v>
+        <v>0.0727956</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0742936</v>
+        <v>0.07553269999999999</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.08625099999999999</v>
+        <v>0.0929347</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0711446</v>
+        <v>0.0734581</v>
       </c>
       <c r="D99" t="n">
-        <v>0.07595490000000001</v>
+        <v>0.07609390000000001</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0865046</v>
+        <v>0.0863357</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0717873</v>
+        <v>0.07406799999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0755159</v>
+        <v>0.0765979</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0864761</v>
+        <v>0.0969882</v>
       </c>
       <c r="C101" t="n">
-        <v>0.07259599999999999</v>
+        <v>0.0748327</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0763398</v>
+        <v>0.077496</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0868365</v>
+        <v>0.08662350000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.07343429999999999</v>
+        <v>0.0757192</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0771809</v>
+        <v>0.0783153</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.087362</v>
+        <v>0.0871557</v>
       </c>
       <c r="C103" t="n">
-        <v>0.07441780000000001</v>
+        <v>0.0766323</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0780638</v>
+        <v>0.0789956</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.08772870000000001</v>
+        <v>0.08757189999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0756086</v>
+        <v>0.0778697</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07937429999999999</v>
+        <v>0.08015899999999999</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.08873109999999999</v>
+        <v>0.0885331</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0770995</v>
+        <v>0.07931050000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.08097269999999999</v>
+        <v>0.082133</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0898139</v>
+        <v>0.08987340000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.07889450000000001</v>
+        <v>0.0812493</v>
       </c>
       <c r="D106" t="n">
-        <v>0.08316850000000001</v>
+        <v>0.08440830000000001</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0919198</v>
+        <v>0.0918861</v>
       </c>
       <c r="C107" t="n">
-        <v>0.081326</v>
+        <v>0.0835137</v>
       </c>
       <c r="D107" t="n">
-        <v>0.08696039999999999</v>
+        <v>0.0880737</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0953079</v>
+        <v>0.0951915</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0849964</v>
+        <v>0.0873403</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0890653</v>
+        <v>0.0876789</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100298</v>
+        <v>0.100132</v>
       </c>
       <c r="C109" t="n">
-        <v>0.09114609999999999</v>
+        <v>0.0932964</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0896182</v>
+        <v>0.08832959999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.107323</v>
+        <v>0.107176</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0828854</v>
+        <v>0.08254930000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0904447</v>
+        <v>0.0891478</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.107233</v>
+        <v>0.10733</v>
       </c>
       <c r="C111" t="n">
-        <v>0.08376980000000001</v>
+        <v>0.0831913</v>
       </c>
       <c r="D111" t="n">
-        <v>0.09130919999999999</v>
+        <v>0.0899519</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1074</v>
+        <v>0.107439</v>
       </c>
       <c r="C112" t="n">
-        <v>0.08471529999999999</v>
+        <v>0.0840373</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0943029</v>
+        <v>0.09077300000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.107378</v>
+        <v>0.10733</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0857484</v>
+        <v>0.08527079999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0931621</v>
+        <v>0.0917707</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.107647</v>
+        <v>0.107704</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0868483</v>
+        <v>0.0865242</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0940925</v>
+        <v>0.0925824</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.10786</v>
+        <v>0.120088</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0880566</v>
+        <v>0.08745</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0952071</v>
+        <v>0.093898</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.10804</v>
+        <v>0.10813</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0893772</v>
+        <v>0.0886628</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0965439</v>
+        <v>0.0950724</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.108434</v>
+        <v>0.108612</v>
       </c>
       <c r="C117" t="n">
-        <v>0.09092020000000001</v>
+        <v>0.09007610000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.09786449999999999</v>
+        <v>0.0965413</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.108929</v>
+        <v>0.109187</v>
       </c>
       <c r="C118" t="n">
-        <v>0.092442</v>
+        <v>0.0922915</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0996556</v>
+        <v>0.0984097</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.109722</v>
+        <v>0.110131</v>
       </c>
       <c r="C119" t="n">
-        <v>0.09430769999999999</v>
+        <v>0.0940214</v>
       </c>
       <c r="D119" t="n">
-        <v>0.101471</v>
+        <v>0.100351</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.110948</v>
+        <v>0.113229</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0963923</v>
+        <v>0.0966663</v>
       </c>
       <c r="D120" t="n">
-        <v>0.10428</v>
+        <v>0.103424</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.113004</v>
+        <v>0.113329</v>
       </c>
       <c r="C121" t="n">
-        <v>0.107054</v>
+        <v>0.0990885</v>
       </c>
       <c r="D121" t="n">
-        <v>0.108158</v>
+        <v>0.1066</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.115806</v>
+        <v>0.11601</v>
       </c>
       <c r="C122" t="n">
-        <v>0.102907</v>
+        <v>0.10246</v>
       </c>
       <c r="D122" t="n">
-        <v>0.114138</v>
+        <v>0.112441</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.120698</v>
+        <v>0.121127</v>
       </c>
       <c r="C123" t="n">
-        <v>0.108915</v>
+        <v>0.108449</v>
       </c>
       <c r="D123" t="n">
-        <v>0.108158</v>
+        <v>0.106459</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.140645</v>
+        <v>0.136701</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0961518</v>
+        <v>0.0975705</v>
       </c>
       <c r="D124" t="n">
-        <v>0.109718</v>
+        <v>0.108177</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.141211</v>
+        <v>0.142064</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0976668</v>
+        <v>0.0999356</v>
       </c>
       <c r="D125" t="n">
-        <v>0.110171</v>
+        <v>0.110408</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.141595</v>
+        <v>0.140662</v>
       </c>
       <c r="C126" t="n">
-        <v>0.09924470000000001</v>
+        <v>0.09884850000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.111365</v>
+        <v>0.109179</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.142616</v>
+        <v>0.14057</v>
       </c>
       <c r="C127" t="n">
-        <v>0.104038</v>
+        <v>0.100464</v>
       </c>
       <c r="D127" t="n">
-        <v>0.113908</v>
+        <v>0.110327</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.143041</v>
+        <v>0.140782</v>
       </c>
       <c r="C128" t="n">
-        <v>0.10325</v>
+        <v>0.101929</v>
       </c>
       <c r="D128" t="n">
-        <v>0.115158</v>
+        <v>0.120494</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.14475</v>
+        <v>0.140421</v>
       </c>
       <c r="C129" t="n">
-        <v>0.104819</v>
+        <v>0.103647</v>
       </c>
       <c r="D129" t="n">
-        <v>0.11628</v>
+        <v>0.112862</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.145562</v>
+        <v>0.140447</v>
       </c>
       <c r="C130" t="n">
-        <v>0.106267</v>
+        <v>0.105297</v>
       </c>
       <c r="D130" t="n">
-        <v>0.116238</v>
+        <v>0.114613</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.14347</v>
+        <v>0.140729</v>
       </c>
       <c r="C131" t="n">
-        <v>0.107902</v>
+        <v>0.10728</v>
       </c>
       <c r="D131" t="n">
-        <v>0.117854</v>
+        <v>0.116455</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.145088</v>
+        <v>0.141075</v>
       </c>
       <c r="C132" t="n">
-        <v>0.109711</v>
+        <v>0.109007</v>
       </c>
       <c r="D132" t="n">
-        <v>0.119663</v>
+        <v>0.11783</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.145709</v>
+        <v>0.141801</v>
       </c>
       <c r="C133" t="n">
-        <v>0.111645</v>
+        <v>0.111276</v>
       </c>
       <c r="D133" t="n">
-        <v>0.127055</v>
+        <v>0.129299</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.154646</v>
+        <v>0.142396</v>
       </c>
       <c r="C134" t="n">
-        <v>0.121261</v>
+        <v>0.113855</v>
       </c>
       <c r="D134" t="n">
-        <v>0.133173</v>
+        <v>0.122924</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.162525</v>
+        <v>0.143652</v>
       </c>
       <c r="C135" t="n">
-        <v>0.126758</v>
+        <v>0.116851</v>
       </c>
       <c r="D135" t="n">
-        <v>0.139389</v>
+        <v>0.127357</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.159361</v>
+        <v>0.146122</v>
       </c>
       <c r="C136" t="n">
-        <v>0.120791</v>
+        <v>0.120968</v>
       </c>
       <c r="D136" t="n">
-        <v>0.135585</v>
+        <v>0.133435</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.152187</v>
+        <v>0.149962</v>
       </c>
       <c r="C137" t="n">
-        <v>0.126658</v>
+        <v>0.129782</v>
       </c>
       <c r="D137" t="n">
-        <v>0.120433</v>
+        <v>0.119234</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.15756</v>
+        <v>0.15803</v>
       </c>
       <c r="C138" t="n">
-        <v>0.109764</v>
+        <v>0.109452</v>
       </c>
       <c r="D138" t="n">
-        <v>0.121579</v>
+        <v>0.120314</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.15767</v>
+        <v>0.15808</v>
       </c>
       <c r="C139" t="n">
-        <v>0.11089</v>
+        <v>0.110689</v>
       </c>
       <c r="D139" t="n">
-        <v>0.122705</v>
+        <v>0.121521</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.157862</v>
+        <v>0.15796</v>
       </c>
       <c r="C140" t="n">
-        <v>0.112171</v>
+        <v>0.112046</v>
       </c>
       <c r="D140" t="n">
-        <v>0.143072</v>
+        <v>0.122408</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158032</v>
+        <v>0.1582</v>
       </c>
       <c r="C141" t="n">
-        <v>0.113606</v>
+        <v>0.113479</v>
       </c>
       <c r="D141" t="n">
-        <v>0.124806</v>
+        <v>0.123868</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158121</v>
+        <v>0.158276</v>
       </c>
       <c r="C142" t="n">
-        <v>0.115413</v>
+        <v>0.131871</v>
       </c>
       <c r="D142" t="n">
-        <v>0.126033</v>
+        <v>0.126984</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158318</v>
+        <v>0.158428</v>
       </c>
       <c r="C143" t="n">
-        <v>0.116641</v>
+        <v>0.116688</v>
       </c>
       <c r="D143" t="n">
-        <v>0.12744</v>
+        <v>0.126205</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0195473</v>
+        <v>0.0196389</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0209361</v>
+        <v>0.02098</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0196998</v>
+        <v>0.0196405</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0195821</v>
+        <v>0.0196066</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0210005</v>
+        <v>0.021019</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0197571</v>
+        <v>0.0197534</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0197417</v>
+        <v>0.0195327</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0209895</v>
+        <v>0.0211721</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0197536</v>
+        <v>0.0197036</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0198131</v>
+        <v>0.0196578</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0208274</v>
+        <v>0.0211626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.019728</v>
+        <v>0.019722</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0197909</v>
+        <v>0.01974</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0207898</v>
+        <v>0.0211027</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0198961</v>
+        <v>0.0198399</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0200583</v>
+        <v>0.0199181</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0209604</v>
+        <v>0.0214886</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0200743</v>
+        <v>0.0201154</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0201702</v>
+        <v>0.0200131</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0210052</v>
+        <v>0.0215995</v>
       </c>
       <c r="D8" t="n">
-        <v>0.020576</v>
+        <v>0.020564</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0206468</v>
+        <v>0.0205113</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0210719</v>
+        <v>0.0222591</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0192641</v>
+        <v>0.0193342</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0197714</v>
+        <v>0.0195682</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0207345</v>
+        <v>0.0209373</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0196782</v>
+        <v>0.0198016</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0196315</v>
+        <v>0.0195684</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0210295</v>
+        <v>0.0211205</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0197467</v>
+        <v>0.019946</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0197565</v>
+        <v>0.0195854</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0210851</v>
+        <v>0.0212922</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0198597</v>
+        <v>0.0200871</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0197563</v>
+        <v>0.0196338</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0212646</v>
+        <v>0.0214924</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0202408</v>
+        <v>0.0202974</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0200813</v>
+        <v>0.0197169</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0214972</v>
+        <v>0.0217799</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0205524</v>
+        <v>0.020528</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0201448</v>
+        <v>0.0199098</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0217328</v>
+        <v>0.0220937</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0207444</v>
+        <v>0.0210051</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0203339</v>
+        <v>0.0200428</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0218741</v>
+        <v>0.0223463</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0208727</v>
+        <v>0.0213178</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0203042</v>
+        <v>0.0200132</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0220008</v>
+        <v>0.0222985</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0212224</v>
+        <v>0.0214198</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0204638</v>
+        <v>0.0200289</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0220139</v>
+        <v>0.0227257</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0213668</v>
+        <v>0.0214191</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0207342</v>
+        <v>0.0203435</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0221623</v>
+        <v>0.0230685</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0214811</v>
+        <v>0.0218409</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0209031</v>
+        <v>0.0203329</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0223277</v>
+        <v>0.0235257</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0217845</v>
+        <v>0.0219077</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0212323</v>
+        <v>0.0206351</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0224831</v>
+        <v>0.0240726</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0218641</v>
+        <v>0.0223081</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0221492</v>
+        <v>0.0213404</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0227483</v>
+        <v>0.0252089</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0232837</v>
+        <v>0.0231846</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0257285</v>
+        <v>0.0233503</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0233603</v>
+        <v>0.0275009</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0210028</v>
+        <v>0.020908</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0206671</v>
+        <v>0.0204006</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0218346</v>
+        <v>0.0217666</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0212271</v>
+        <v>0.0211403</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0209056</v>
+        <v>0.020653</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0222311</v>
+        <v>0.0220993</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0213338</v>
+        <v>0.0213744</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0208881</v>
+        <v>0.0208013</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0223017</v>
+        <v>0.0223921</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0216415</v>
+        <v>0.0216243</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0211031</v>
+        <v>0.020917</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0225915</v>
+        <v>0.0226218</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0218916</v>
+        <v>0.0219406</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0212484</v>
+        <v>0.021091</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0229093</v>
+        <v>0.0229554</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0221865</v>
+        <v>0.0222071</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0214268</v>
+        <v>0.0212779</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0232078</v>
+        <v>0.0233171</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0225406</v>
+        <v>0.0226077</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0215513</v>
+        <v>0.0214187</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0235545</v>
+        <v>0.0237265</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02286</v>
+        <v>0.0228134</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0217345</v>
+        <v>0.0214157</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0237992</v>
+        <v>0.0240732</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0231658</v>
+        <v>0.0231961</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0219811</v>
+        <v>0.0215687</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0240421</v>
+        <v>0.0245749</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0231701</v>
+        <v>0.0232629</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0223586</v>
+        <v>0.0217142</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0244035</v>
+        <v>0.0252718</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0238299</v>
+        <v>0.0237985</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0235406</v>
+        <v>0.0229339</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0247337</v>
+        <v>0.0261175</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0246649</v>
+        <v>0.0244828</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0260803</v>
+        <v>0.025902</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0258065</v>
+        <v>0.0276176</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0263023</v>
+        <v>0.0271976</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0287629</v>
+        <v>0.0286644</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0272618</v>
+        <v>0.0298639</v>
       </c>
       <c r="D36" t="n">
-        <v>0.02967</v>
+        <v>0.0307087</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0323325</v>
+        <v>0.0314431</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0304045</v>
+        <v>0.0347706</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0221839</v>
+        <v>0.0222641</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0215461</v>
+        <v>0.0216308</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0230433</v>
+        <v>0.0230535</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0224728</v>
+        <v>0.0224619</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02159</v>
+        <v>0.02143</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0233143</v>
+        <v>0.0233257</v>
       </c>
       <c r="D39" t="n">
-        <v>0.022666</v>
+        <v>0.0226234</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0217393</v>
+        <v>0.0218153</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0236098</v>
+        <v>0.0236162</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0229102</v>
+        <v>0.0229189</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0218844</v>
+        <v>0.0218998</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0239744</v>
+        <v>0.024005</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0232013</v>
+        <v>0.023271</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0221726</v>
+        <v>0.0220859</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0242939</v>
+        <v>0.0243693</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0235089</v>
+        <v>0.0235073</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0224246</v>
+        <v>0.022222</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0247346</v>
+        <v>0.024958</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0238674</v>
+        <v>0.0238452</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0226906</v>
+        <v>0.0225949</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0251437</v>
+        <v>0.0252373</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0242475</v>
+        <v>0.0242463</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.023054</v>
+        <v>0.0227615</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0255525</v>
+        <v>0.0258292</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0246434</v>
+        <v>0.0247495</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0235452</v>
+        <v>0.0233252</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0260629</v>
+        <v>0.026547</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0251218</v>
+        <v>0.0251817</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0245474</v>
+        <v>0.0241903</v>
       </c>
       <c r="C47" t="n">
-        <v>0.026654</v>
+        <v>0.0271858</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0259981</v>
+        <v>0.0260156</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0262628</v>
+        <v>0.0256826</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0276083</v>
+        <v>0.0283566</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0275187</v>
+        <v>0.0281455</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0282841</v>
+        <v>0.0273672</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0289237</v>
+        <v>0.0301078</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0295325</v>
+        <v>0.0302407</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0313988</v>
+        <v>0.0309361</v>
       </c>
       <c r="C50" t="n">
-        <v>0.030894</v>
+        <v>0.0324754</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0328294</v>
+        <v>0.034134</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0352171</v>
+        <v>0.0341711</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0338208</v>
+        <v>0.0358974</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0230413</v>
+        <v>0.0230897</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0406924</v>
+        <v>0.040345</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0401467</v>
+        <v>0.0416323</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0232801</v>
+        <v>0.0232822</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0231698</v>
+        <v>0.0229992</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0246344</v>
+        <v>0.0247694</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0235363</v>
+        <v>0.0236607</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0233539</v>
+        <v>0.02326</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0249334</v>
+        <v>0.0249918</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0237701</v>
+        <v>0.0237772</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0235287</v>
+        <v>0.0233825</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0253103</v>
+        <v>0.0253214</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0241375</v>
+        <v>0.0241033</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0236924</v>
+        <v>0.0240665</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0256387</v>
+        <v>0.0256988</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0244487</v>
+        <v>0.0244769</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0242395</v>
+        <v>0.0243132</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0260192</v>
+        <v>0.0260877</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0247354</v>
+        <v>0.0247411</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0244447</v>
+        <v>0.0241681</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0264718</v>
+        <v>0.0265037</v>
       </c>
       <c r="D58" t="n">
-        <v>0.025235</v>
+        <v>0.0252161</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0248518</v>
+        <v>0.0248671</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0269613</v>
+        <v>0.0271553</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0256717</v>
+        <v>0.0257636</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0255958</v>
+        <v>0.0252597</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0275197</v>
+        <v>0.0278071</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0264153</v>
+        <v>0.026461</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.026741</v>
+        <v>0.026932</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0283006</v>
+        <v>0.028729</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0273252</v>
+        <v>0.0273822</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0280821</v>
+        <v>0.0278809</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0293494</v>
+        <v>0.0298764</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0290117</v>
+        <v>0.0293467</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0304023</v>
+        <v>0.0293523</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0309532</v>
+        <v>0.0315532</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0314142</v>
+        <v>0.031487</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0331953</v>
+        <v>0.0323367</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0330803</v>
+        <v>0.0337982</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0349167</v>
+        <v>0.0356031</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0369377</v>
+        <v>0.0368461</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0362064</v>
+        <v>0.0371151</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0405949</v>
+        <v>0.0405618</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0420678</v>
+        <v>0.0422044</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0412813</v>
+        <v>0.0418048</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0255686</v>
+        <v>0.0245566</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0279865</v>
+        <v>0.0289853</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0262534</v>
+        <v>0.0265003</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0248071</v>
+        <v>0.0251146</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0279936</v>
+        <v>0.0290838</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0273542</v>
+        <v>0.0272503</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0257829</v>
+        <v>0.0251895</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0282537</v>
+        <v>0.0291142</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0275849</v>
+        <v>0.026935</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0261036</v>
+        <v>0.0263439</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0284747</v>
+        <v>0.0293978</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0276041</v>
+        <v>0.027479</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0263964</v>
+        <v>0.0257101</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.028621</v>
+        <v>0.0294469</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0279078</v>
+        <v>0.0278299</v>
       </c>
       <c r="D71" t="n">
-        <v>0.026728</v>
+        <v>0.0260824</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0290616</v>
+        <v>0.0297862</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0287729</v>
+        <v>0.0289529</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0266263</v>
+        <v>0.0266433</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0295633</v>
+        <v>0.0301009</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0292994</v>
+        <v>0.0288924</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0272349</v>
+        <v>0.0271643</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0301891</v>
+        <v>0.0305488</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0299666</v>
+        <v>0.0297009</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0280764</v>
+        <v>0.0280223</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0312287</v>
+        <v>0.0313491</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0308994</v>
+        <v>0.030598</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0291972</v>
+        <v>0.0293165</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0323713</v>
+        <v>0.0327765</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0318665</v>
+        <v>0.0322755</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0308205</v>
+        <v>0.0307599</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0340877</v>
+        <v>0.0345634</v>
       </c>
       <c r="C77" t="n">
-        <v>0.033436</v>
+        <v>0.0331423</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0335281</v>
+        <v>0.0330028</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0364987</v>
+        <v>0.0368111</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0351592</v>
+        <v>0.0353126</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0367303</v>
+        <v>0.0360578</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0400318</v>
+        <v>0.040276</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0384283</v>
+        <v>0.0381519</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0416036</v>
+        <v>0.0409416</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0447442</v>
+        <v>0.0449309</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0422633</v>
+        <v>0.0423751</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0360979</v>
+        <v>0.0356275</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0597441</v>
+        <v>0.0556442</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0360129</v>
+        <v>0.0353433</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0366444</v>
+        <v>0.0368215</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0579443</v>
+        <v>0.0560133</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0366385</v>
+        <v>0.0360357</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0374053</v>
+        <v>0.0375778</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0578559</v>
+        <v>0.0560151</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0375173</v>
+        <v>0.0369787</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0383041</v>
+        <v>0.0379925</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0579711</v>
+        <v>0.0562881</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0387036</v>
+        <v>0.0379678</v>
       </c>
       <c r="D84" t="n">
-        <v>0.03878</v>
+        <v>0.0390258</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0580982</v>
+        <v>0.0563093</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0398248</v>
+        <v>0.0390111</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0397286</v>
+        <v>0.0398195</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0583403</v>
+        <v>0.0565347</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0411529</v>
+        <v>0.0403182</v>
       </c>
       <c r="D86" t="n">
-        <v>0.040265</v>
+        <v>0.0402142</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0585574</v>
+        <v>0.0568133</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0425374</v>
+        <v>0.0415431</v>
       </c>
       <c r="D87" t="n">
-        <v>0.041287</v>
+        <v>0.0408766</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0590221</v>
+        <v>0.0571675</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0439868</v>
+        <v>0.0432726</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0421845</v>
+        <v>0.0417548</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0593882</v>
+        <v>0.0576891</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0453837</v>
+        <v>0.0446154</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0432469</v>
+        <v>0.0432466</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0601573</v>
+        <v>0.0585908</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0472418</v>
+        <v>0.0462304</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0446312</v>
+        <v>0.0441574</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0612158</v>
+        <v>0.0596083</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0490436</v>
+        <v>0.0483353</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0460946</v>
+        <v>0.0460634</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0627381</v>
+        <v>0.0616902</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0510734</v>
+        <v>0.0507457</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0487962</v>
+        <v>0.049424</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0654896</v>
+        <v>0.0646095</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0538208</v>
+        <v>0.0539583</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0530883</v>
+        <v>0.0533033</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0695317</v>
+        <v>0.06759510000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0577742</v>
+        <v>0.0575127</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0734107</v>
+        <v>0.071128</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0858805</v>
+        <v>0.0856572</v>
       </c>
       <c r="C95" t="n">
-        <v>0.07108200000000001</v>
+        <v>0.0690195</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0739615</v>
+        <v>0.0715142</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0859293</v>
+        <v>0.08607140000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0717593</v>
+        <v>0.0694898</v>
       </c>
       <c r="D96" t="n">
-        <v>0.07432130000000001</v>
+        <v>0.0730552</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0858952</v>
+        <v>0.085948</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0721731</v>
+        <v>0.0703848</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0747507</v>
+        <v>0.0734162</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0862366</v>
+        <v>0.08610810000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0727956</v>
+        <v>0.0706514</v>
       </c>
       <c r="D98" t="n">
-        <v>0.07553269999999999</v>
+        <v>0.073098</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0929347</v>
+        <v>0.0861287</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0734581</v>
+        <v>0.07125629999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.07609390000000001</v>
+        <v>0.0734846</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0863357</v>
+        <v>0.0861963</v>
       </c>
       <c r="C100" t="n">
-        <v>0.07406799999999999</v>
+        <v>0.0719583</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0765979</v>
+        <v>0.07444199999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0969882</v>
+        <v>0.08657239999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0748327</v>
+        <v>0.0726463</v>
       </c>
       <c r="D101" t="n">
-        <v>0.077496</v>
+        <v>0.0748188</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.08662350000000001</v>
+        <v>0.0869495</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0757192</v>
+        <v>0.07372819999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0783153</v>
+        <v>0.0755854</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0871557</v>
+        <v>0.0872851</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0766323</v>
+        <v>0.07462820000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0789956</v>
+        <v>0.0765696</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.08757189999999999</v>
+        <v>0.087732</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0778697</v>
+        <v>0.0756903</v>
       </c>
       <c r="D104" t="n">
-        <v>0.08015899999999999</v>
+        <v>0.0776762</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0885331</v>
+        <v>0.088648</v>
       </c>
       <c r="C105" t="n">
-        <v>0.07931050000000001</v>
+        <v>0.077205</v>
       </c>
       <c r="D105" t="n">
-        <v>0.082133</v>
+        <v>0.0792894</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.08987340000000001</v>
+        <v>0.08992269999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0812493</v>
+        <v>0.07890900000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.08440830000000001</v>
+        <v>0.0816354</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0918861</v>
+        <v>0.0917483</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0835137</v>
+        <v>0.08142870000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0880737</v>
+        <v>0.0852941</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0951915</v>
+        <v>0.09512329999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0873403</v>
+        <v>0.0850002</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0876789</v>
+        <v>0.0884976</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100132</v>
+        <v>0.09999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0932964</v>
+        <v>0.0910116</v>
       </c>
       <c r="D109" t="n">
-        <v>0.08832959999999999</v>
+        <v>0.0891777</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.107176</v>
+        <v>0.10699</v>
       </c>
       <c r="C110" t="n">
-        <v>0.08254930000000001</v>
+        <v>0.0838329</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0891478</v>
+        <v>0.0901824</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.10733</v>
+        <v>0.106936</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0831913</v>
+        <v>0.08465640000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0899519</v>
+        <v>0.09099889999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.107439</v>
+        <v>0.106989</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0840373</v>
+        <v>0.08566029999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.09077300000000001</v>
+        <v>0.0923485</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.10733</v>
+        <v>0.10716</v>
       </c>
       <c r="C113" t="n">
-        <v>0.08527079999999999</v>
+        <v>0.08668289999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0917707</v>
+        <v>0.0931353</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.107704</v>
+        <v>0.107426</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0865242</v>
+        <v>0.08765439999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0925824</v>
+        <v>0.09386559999999999</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.120088</v>
+        <v>0.107305</v>
       </c>
       <c r="C115" t="n">
-        <v>0.08745</v>
+        <v>0.0890282</v>
       </c>
       <c r="D115" t="n">
-        <v>0.093898</v>
+        <v>0.09500690000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.10813</v>
+        <v>0.107764</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0886628</v>
+        <v>0.0902049</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0950724</v>
+        <v>0.0963133</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.108612</v>
+        <v>0.108077</v>
       </c>
       <c r="C117" t="n">
-        <v>0.09007610000000001</v>
+        <v>0.09174209999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0965413</v>
+        <v>0.0975848</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.109187</v>
+        <v>0.108557</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0922915</v>
+        <v>0.09332500000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0984097</v>
+        <v>0.0995509</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.110131</v>
+        <v>0.109636</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0940214</v>
+        <v>0.0948452</v>
       </c>
       <c r="D119" t="n">
-        <v>0.100351</v>
+        <v>0.101384</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.113229</v>
+        <v>0.11059</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0966663</v>
+        <v>0.09715849999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.103424</v>
+        <v>0.103944</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.113329</v>
+        <v>0.112398</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0990885</v>
+        <v>0.100065</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1066</v>
+        <v>0.107157</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.11601</v>
+        <v>0.115393</v>
       </c>
       <c r="C122" t="n">
-        <v>0.10246</v>
+        <v>0.104042</v>
       </c>
       <c r="D122" t="n">
-        <v>0.112441</v>
+        <v>0.113122</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.121127</v>
+        <v>0.120254</v>
       </c>
       <c r="C123" t="n">
-        <v>0.108449</v>
+        <v>0.1092</v>
       </c>
       <c r="D123" t="n">
-        <v>0.106459</v>
+        <v>0.106915</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.136701</v>
+        <v>0.136726</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0975705</v>
+        <v>0.0951989</v>
       </c>
       <c r="D124" t="n">
-        <v>0.108177</v>
+        <v>0.107998</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.142064</v>
+        <v>0.135743</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0999356</v>
+        <v>0.0964888</v>
       </c>
       <c r="D125" t="n">
-        <v>0.110408</v>
+        <v>0.109007</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.140662</v>
+        <v>0.135557</v>
       </c>
       <c r="C126" t="n">
-        <v>0.09884850000000001</v>
+        <v>0.09779210000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.109179</v>
+        <v>0.110402</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.14057</v>
+        <v>0.135628</v>
       </c>
       <c r="C127" t="n">
-        <v>0.100464</v>
+        <v>0.09912550000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>0.110327</v>
+        <v>0.111289</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.140782</v>
+        <v>0.135792</v>
       </c>
       <c r="C128" t="n">
-        <v>0.101929</v>
+        <v>0.100925</v>
       </c>
       <c r="D128" t="n">
-        <v>0.120494</v>
+        <v>0.112503</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.140421</v>
+        <v>0.136007</v>
       </c>
       <c r="C129" t="n">
-        <v>0.103647</v>
+        <v>0.102496</v>
       </c>
       <c r="D129" t="n">
-        <v>0.112862</v>
+        <v>0.113799</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.140447</v>
+        <v>0.136261</v>
       </c>
       <c r="C130" t="n">
-        <v>0.105297</v>
+        <v>0.104091</v>
       </c>
       <c r="D130" t="n">
-        <v>0.114613</v>
+        <v>0.115225</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.140729</v>
+        <v>0.136722</v>
       </c>
       <c r="C131" t="n">
-        <v>0.10728</v>
+        <v>0.105941</v>
       </c>
       <c r="D131" t="n">
-        <v>0.116455</v>
+        <v>0.116711</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.141075</v>
+        <v>0.13674</v>
       </c>
       <c r="C132" t="n">
-        <v>0.109007</v>
+        <v>0.107862</v>
       </c>
       <c r="D132" t="n">
-        <v>0.11783</v>
+        <v>0.134555</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.141801</v>
+        <v>0.137815</v>
       </c>
       <c r="C133" t="n">
-        <v>0.111276</v>
+        <v>0.109916</v>
       </c>
       <c r="D133" t="n">
-        <v>0.129299</v>
+        <v>0.120636</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.142396</v>
+        <v>0.138755</v>
       </c>
       <c r="C134" t="n">
-        <v>0.113855</v>
+        <v>0.112389</v>
       </c>
       <c r="D134" t="n">
-        <v>0.122924</v>
+        <v>0.123706</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.143652</v>
+        <v>0.140422</v>
       </c>
       <c r="C135" t="n">
-        <v>0.116851</v>
+        <v>0.115369</v>
       </c>
       <c r="D135" t="n">
-        <v>0.127357</v>
+        <v>0.127591</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.146122</v>
+        <v>0.142821</v>
       </c>
       <c r="C136" t="n">
-        <v>0.120968</v>
+        <v>0.119555</v>
       </c>
       <c r="D136" t="n">
-        <v>0.133435</v>
+        <v>0.136896</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.149962</v>
+        <v>0.147449</v>
       </c>
       <c r="C137" t="n">
-        <v>0.129782</v>
+        <v>0.125288</v>
       </c>
       <c r="D137" t="n">
-        <v>0.119234</v>
+        <v>0.118133</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.15803</v>
+        <v>0.157974</v>
       </c>
       <c r="C138" t="n">
-        <v>0.109452</v>
+        <v>0.108742</v>
       </c>
       <c r="D138" t="n">
-        <v>0.120314</v>
+        <v>0.119252</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.15808</v>
+        <v>0.158142</v>
       </c>
       <c r="C139" t="n">
-        <v>0.110689</v>
+        <v>0.1101</v>
       </c>
       <c r="D139" t="n">
-        <v>0.121521</v>
+        <v>0.120612</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.15796</v>
+        <v>0.158039</v>
       </c>
       <c r="C140" t="n">
-        <v>0.112046</v>
+        <v>0.111494</v>
       </c>
       <c r="D140" t="n">
-        <v>0.122408</v>
+        <v>0.121392</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1582</v>
+        <v>0.162333</v>
       </c>
       <c r="C141" t="n">
-        <v>0.113479</v>
+        <v>0.112753</v>
       </c>
       <c r="D141" t="n">
-        <v>0.123868</v>
+        <v>0.122594</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158276</v>
+        <v>0.158069</v>
       </c>
       <c r="C142" t="n">
-        <v>0.131871</v>
+        <v>0.114283</v>
       </c>
       <c r="D142" t="n">
-        <v>0.126984</v>
+        <v>0.123775</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158428</v>
+        <v>0.158446</v>
       </c>
       <c r="C143" t="n">
-        <v>0.116688</v>
+        <v>0.11795</v>
       </c>
       <c r="D143" t="n">
-        <v>0.126205</v>
+        <v>0.125034</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3272,13 +3272,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0196963</v>
+        <v>0.0196909</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0370058</v>
+        <v>0.0369018</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0228125</v>
+        <v>0.0206874</v>
       </c>
     </row>
     <row r="3">
@@ -3286,13 +3286,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0197664</v>
+        <v>0.0199916</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0418052</v>
+        <v>0.0424382</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0226735</v>
+        <v>0.0206578</v>
       </c>
     </row>
     <row r="4">
@@ -3300,13 +3300,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0200026</v>
+        <v>0.0198957</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0487309</v>
+        <v>0.0480181</v>
       </c>
       <c r="D4" t="n">
-        <v>0.022881</v>
+        <v>0.0207443</v>
       </c>
     </row>
     <row r="5">
@@ -3314,13 +3314,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0201517</v>
+        <v>0.020031</v>
       </c>
       <c r="C5" t="n">
-        <v>0.057161</v>
+        <v>0.0551808</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0228038</v>
+        <v>0.0208443</v>
       </c>
     </row>
     <row r="6">
@@ -3328,13 +3328,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0201028</v>
+        <v>0.0203013</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0638789</v>
+        <v>0.06578390000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0230981</v>
+        <v>0.0209584</v>
       </c>
     </row>
     <row r="7">
@@ -3342,13 +3342,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0204562</v>
+        <v>0.0203832</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07558529999999999</v>
+        <v>0.0734722</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0232579</v>
+        <v>0.0212297</v>
       </c>
     </row>
     <row r="8">
@@ -3356,13 +3356,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0206393</v>
+        <v>0.0206071</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0263746</v>
+        <v>0.0262823</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0235219</v>
+        <v>0.0217289</v>
       </c>
     </row>
     <row r="9">
@@ -3370,13 +3370,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0210339</v>
+        <v>0.0211229</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0290195</v>
+        <v>0.0290439</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0223514</v>
+        <v>0.0203144</v>
       </c>
     </row>
     <row r="10">
@@ -3384,13 +3384,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0194206</v>
+        <v>0.0193699</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0319614</v>
+        <v>0.0320224</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0232438</v>
+        <v>0.0205777</v>
       </c>
     </row>
     <row r="11">
@@ -3398,13 +3398,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0195253</v>
+        <v>0.0194125</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0351258</v>
+        <v>0.0348021</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0227364</v>
+        <v>0.0211648</v>
       </c>
     </row>
     <row r="12">
@@ -3412,13 +3412,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0197643</v>
+        <v>0.0197801</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0398863</v>
+        <v>0.0389248</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0231432</v>
+        <v>0.0211901</v>
       </c>
     </row>
     <row r="13">
@@ -3426,13 +3426,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.019862</v>
+        <v>0.0197573</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0439152</v>
+        <v>0.0439105</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0234719</v>
+        <v>0.0212959</v>
       </c>
     </row>
     <row r="14">
@@ -3440,13 +3440,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0200936</v>
+        <v>0.0200716</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0487144</v>
+        <v>0.0486999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0235736</v>
+        <v>0.0218635</v>
       </c>
     </row>
     <row r="15">
@@ -3454,13 +3454,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0201485</v>
+        <v>0.0203259</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0551437</v>
+        <v>0.0574258</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0239307</v>
+        <v>0.0219495</v>
       </c>
     </row>
     <row r="16">
@@ -3468,13 +3468,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0204092</v>
+        <v>0.0204146</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0637769</v>
+        <v>0.0626324</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0240582</v>
+        <v>0.0220871</v>
       </c>
     </row>
     <row r="17">
@@ -3482,13 +3482,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0204507</v>
+        <v>0.0203963</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0718377</v>
+        <v>0.07107330000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0241979</v>
+        <v>0.0223397</v>
       </c>
     </row>
     <row r="18">
@@ -3496,13 +3496,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0206229</v>
+        <v>0.0206216</v>
       </c>
       <c r="C18" t="n">
-        <v>0.081882</v>
+        <v>0.0798242</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0242753</v>
+        <v>0.0223911</v>
       </c>
     </row>
     <row r="19">
@@ -3510,13 +3510,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0210343</v>
+        <v>0.0209683</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09108090000000001</v>
+        <v>0.0914454</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0244821</v>
+        <v>0.0226887</v>
       </c>
     </row>
     <row r="20">
@@ -3524,13 +3524,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0211918</v>
+        <v>0.021274</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0974773</v>
+        <v>0.101993</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0247755</v>
+        <v>0.0230113</v>
       </c>
     </row>
     <row r="21">
@@ -3538,13 +3538,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0215584</v>
+        <v>0.0217478</v>
       </c>
       <c r="C21" t="n">
-        <v>0.106323</v>
+        <v>0.106931</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0250051</v>
+        <v>0.0230822</v>
       </c>
     </row>
     <row r="22">
@@ -3552,13 +3552,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0226513</v>
+        <v>0.0224121</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0397852</v>
+        <v>0.0396912</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0262359</v>
+        <v>0.0242724</v>
       </c>
     </row>
     <row r="23">
@@ -3566,13 +3566,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0258862</v>
+        <v>0.0258558</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0423426</v>
+        <v>0.0423065</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0230816</v>
+        <v>0.0217185</v>
       </c>
     </row>
     <row r="24">
@@ -3580,13 +3580,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.020452</v>
+        <v>0.0206492</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0452109</v>
+        <v>0.0455917</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0233082</v>
+        <v>0.021947</v>
       </c>
     </row>
     <row r="25">
@@ -3594,13 +3594,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0206124</v>
+        <v>0.0208142</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0487996</v>
+        <v>0.0488643</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0236264</v>
+        <v>0.0220889</v>
       </c>
     </row>
     <row r="26">
@@ -3608,13 +3608,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0207985</v>
+        <v>0.0208886</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0527075</v>
+        <v>0.0522394</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0238223</v>
+        <v>0.0224013</v>
       </c>
     </row>
     <row r="27">
@@ -3622,13 +3622,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0209652</v>
+        <v>0.0212531</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0566831</v>
+        <v>0.056869</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0242118</v>
+        <v>0.0227077</v>
       </c>
     </row>
     <row r="28">
@@ -3636,13 +3636,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0211055</v>
+        <v>0.0213486</v>
       </c>
       <c r="C28" t="n">
-        <v>0.06295779999999999</v>
+        <v>0.0622621</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0245034</v>
+        <v>0.0230684</v>
       </c>
     </row>
     <row r="29">
@@ -3650,13 +3650,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0213203</v>
+        <v>0.0214985</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0682238</v>
+        <v>0.06845130000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0247956</v>
+        <v>0.0232969</v>
       </c>
     </row>
     <row r="30">
@@ -3664,13 +3664,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0217535</v>
+        <v>0.0217008</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0771483</v>
+        <v>0.07639029999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0251358</v>
+        <v>0.0236233</v>
       </c>
     </row>
     <row r="31">
@@ -3678,13 +3678,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0218513</v>
+        <v>0.022075</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08561050000000001</v>
+        <v>0.0861817</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0254192</v>
+        <v>0.0239129</v>
       </c>
     </row>
     <row r="32">
@@ -3692,13 +3692,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0222928</v>
+        <v>0.0222638</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0935257</v>
+        <v>0.09499630000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.025719</v>
+        <v>0.0242332</v>
       </c>
     </row>
     <row r="33">
@@ -3706,13 +3706,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0226911</v>
+        <v>0.0227763</v>
       </c>
       <c r="C33" t="n">
-        <v>0.103656</v>
+        <v>0.102757</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0260563</v>
+        <v>0.0245855</v>
       </c>
     </row>
     <row r="34">
@@ -3720,13 +3720,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0235535</v>
+        <v>0.0234641</v>
       </c>
       <c r="C34" t="n">
-        <v>0.113227</v>
+        <v>0.111963</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0271309</v>
+        <v>0.025478</v>
       </c>
     </row>
     <row r="35">
@@ -3734,13 +3734,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0253242</v>
+        <v>0.0264576</v>
       </c>
       <c r="C35" t="n">
-        <v>0.123492</v>
+        <v>0.12103</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0289687</v>
+        <v>0.0269662</v>
       </c>
     </row>
     <row r="36">
@@ -3748,13 +3748,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0277768</v>
+        <v>0.0280621</v>
       </c>
       <c r="C36" t="n">
-        <v>0.13034</v>
+        <v>0.129966</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0327012</v>
+        <v>0.030932</v>
       </c>
     </row>
     <row r="37">
@@ -3762,13 +3762,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0318669</v>
+        <v>0.0340173</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0509253</v>
+        <v>0.0502134</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0240634</v>
+        <v>0.0229197</v>
       </c>
     </row>
     <row r="38">
@@ -3776,13 +3776,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0214937</v>
+        <v>0.0215681</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0528575</v>
+        <v>0.0525724</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0243796</v>
+        <v>0.0231717</v>
       </c>
     </row>
     <row r="39">
@@ -3790,13 +3790,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0216708</v>
+        <v>0.0216607</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0577256</v>
+        <v>0.0564168</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0245387</v>
+        <v>0.0233891</v>
       </c>
     </row>
     <row r="40">
@@ -3804,13 +3804,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0218145</v>
+        <v>0.0219509</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0607325</v>
+        <v>0.0607428</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0247873</v>
+        <v>0.0235586</v>
       </c>
     </row>
     <row r="41">
@@ -3818,13 +3818,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0221247</v>
+        <v>0.0220777</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0659752</v>
+        <v>0.06440269999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0250755</v>
+        <v>0.0239168</v>
       </c>
     </row>
     <row r="42">
@@ -3832,13 +3832,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0222181</v>
+        <v>0.0221664</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0703324</v>
+        <v>0.0701727</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0252754</v>
+        <v>0.0242602</v>
       </c>
     </row>
     <row r="43">
@@ -3846,13 +3846,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0224512</v>
+        <v>0.0224195</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0767769</v>
+        <v>0.07838249999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0257843</v>
+        <v>0.0245988</v>
       </c>
     </row>
     <row r="44">
@@ -3860,13 +3860,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.022927</v>
+        <v>0.0227595</v>
       </c>
       <c r="C44" t="n">
-        <v>0.08390450000000001</v>
+        <v>0.0833142</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0261995</v>
+        <v>0.0249808</v>
       </c>
     </row>
     <row r="45">
@@ -3874,13 +3874,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0232657</v>
+        <v>0.0230789</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0925863</v>
+        <v>0.0921708</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0266811</v>
+        <v>0.025387</v>
       </c>
     </row>
     <row r="46">
@@ -3888,13 +3888,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0238669</v>
+        <v>0.023631</v>
       </c>
       <c r="C46" t="n">
-        <v>0.101274</v>
+        <v>0.101145</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0271738</v>
+        <v>0.0258226</v>
       </c>
     </row>
     <row r="47">
@@ -3902,13 +3902,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0247955</v>
+        <v>0.0243792</v>
       </c>
       <c r="C47" t="n">
-        <v>0.11083</v>
+        <v>0.110535</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0278438</v>
+        <v>0.0264156</v>
       </c>
     </row>
     <row r="48">
@@ -3916,13 +3916,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0260839</v>
+        <v>0.0260423</v>
       </c>
       <c r="C48" t="n">
-        <v>0.118478</v>
+        <v>0.119425</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0291553</v>
+        <v>0.028398</v>
       </c>
     </row>
     <row r="49">
@@ -3930,13 +3930,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0280282</v>
+        <v>0.0275244</v>
       </c>
       <c r="C49" t="n">
-        <v>0.125043</v>
+        <v>0.127171</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0325561</v>
+        <v>0.0306057</v>
       </c>
     </row>
     <row r="50">
@@ -3944,13 +3944,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0309436</v>
+        <v>0.0309782</v>
       </c>
       <c r="C50" t="n">
-        <v>0.133906</v>
+        <v>0.131352</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0358238</v>
+        <v>0.0341736</v>
       </c>
     </row>
     <row r="51">
@@ -3958,13 +3958,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0352915</v>
+        <v>0.0346316</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0529698</v>
+        <v>0.0525118</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0243208</v>
+        <v>0.023401</v>
       </c>
     </row>
     <row r="52">
@@ -3972,13 +3972,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0413191</v>
+        <v>0.0405772</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0564495</v>
+        <v>0.0559007</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0245637</v>
+        <v>0.023717</v>
       </c>
     </row>
     <row r="53">
@@ -3986,13 +3986,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0232368</v>
+        <v>0.0231164</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0593078</v>
+        <v>0.0594086</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0248053</v>
+        <v>0.0238908</v>
       </c>
     </row>
     <row r="54">
@@ -4000,13 +4000,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0234077</v>
+        <v>0.0233519</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0635886</v>
+        <v>0.06345439999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0250541</v>
+        <v>0.0241733</v>
       </c>
     </row>
     <row r="55">
@@ -4014,13 +4014,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0234742</v>
+        <v>0.0234671</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0686663</v>
+        <v>0.0684525</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0253017</v>
+        <v>0.0244347</v>
       </c>
     </row>
     <row r="56">
@@ -4028,13 +4028,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0236931</v>
+        <v>0.0238987</v>
       </c>
       <c r="C56" t="n">
-        <v>0.07259549999999999</v>
+        <v>0.0735396</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0258172</v>
+        <v>0.0248059</v>
       </c>
     </row>
     <row r="57">
@@ -4042,13 +4042,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0240065</v>
+        <v>0.0240445</v>
       </c>
       <c r="C57" t="n">
-        <v>0.07936020000000001</v>
+        <v>0.0793089</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0261726</v>
+        <v>0.0251669</v>
       </c>
     </row>
     <row r="58">
@@ -4056,13 +4056,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0243635</v>
+        <v>0.0242643</v>
       </c>
       <c r="C58" t="n">
-        <v>0.08643149999999999</v>
+        <v>0.0868097</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0266081</v>
+        <v>0.0256564</v>
       </c>
     </row>
     <row r="59">
@@ -4070,13 +4070,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.024742</v>
+        <v>0.0248296</v>
       </c>
       <c r="C59" t="n">
-        <v>0.09494660000000001</v>
+        <v>0.09515079999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0271423</v>
+        <v>0.0262227</v>
       </c>
     </row>
     <row r="60">
@@ -4084,13 +4084,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0254421</v>
+        <v>0.0255118</v>
       </c>
       <c r="C60" t="n">
-        <v>0.104919</v>
+        <v>0.104606</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0280035</v>
+        <v>0.0269726</v>
       </c>
     </row>
     <row r="61">
@@ -4098,13 +4098,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0265507</v>
+        <v>0.026601</v>
       </c>
       <c r="C61" t="n">
-        <v>0.114287</v>
+        <v>0.113908</v>
       </c>
       <c r="D61" t="n">
-        <v>0.02913</v>
+        <v>0.0282798</v>
       </c>
     </row>
     <row r="62">
@@ -4112,13 +4112,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0278997</v>
+        <v>0.0279045</v>
       </c>
       <c r="C62" t="n">
-        <v>0.122709</v>
+        <v>0.121976</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0307407</v>
+        <v>0.0297851</v>
       </c>
     </row>
     <row r="63">
@@ -4126,13 +4126,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0300643</v>
+        <v>0.0300373</v>
       </c>
       <c r="C63" t="n">
-        <v>0.129562</v>
+        <v>0.129795</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0332634</v>
+        <v>0.0326858</v>
       </c>
     </row>
     <row r="64">
@@ -4140,13 +4140,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0326618</v>
+        <v>0.0328322</v>
       </c>
       <c r="C64" t="n">
-        <v>0.137533</v>
+        <v>0.138522</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0376615</v>
+        <v>0.0360575</v>
       </c>
     </row>
     <row r="65">
@@ -4154,13 +4154,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0366612</v>
+        <v>0.0366025</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0546936</v>
+        <v>0.0552208</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0436362</v>
+        <v>0.0422279</v>
       </c>
     </row>
     <row r="66">
@@ -4168,13 +4168,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0418935</v>
+        <v>0.0417936</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0582601</v>
+        <v>0.058344</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0266204</v>
+        <v>0.0249813</v>
       </c>
     </row>
     <row r="67">
@@ -4182,13 +4182,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0281649</v>
+        <v>0.0294774</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0617354</v>
+        <v>0.0615921</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0269618</v>
+        <v>0.0252942</v>
       </c>
     </row>
     <row r="68">
@@ -4196,13 +4196,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0283172</v>
+        <v>0.0297897</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0656432</v>
+        <v>0.0660618</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0273013</v>
+        <v>0.0264857</v>
       </c>
     </row>
     <row r="69">
@@ -4210,13 +4210,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.028481</v>
+        <v>0.029886</v>
       </c>
       <c r="C69" t="n">
-        <v>0.07027899999999999</v>
+        <v>0.0700002</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0276864</v>
+        <v>0.0260383</v>
       </c>
     </row>
     <row r="70">
@@ -4224,13 +4224,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0286097</v>
+        <v>0.0299573</v>
       </c>
       <c r="C70" t="n">
-        <v>0.07689410000000001</v>
+        <v>0.07526579999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0282598</v>
+        <v>0.0271019</v>
       </c>
     </row>
     <row r="71">
@@ -4238,13 +4238,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0290029</v>
+        <v>0.030179</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0822326</v>
+        <v>0.0825307</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0286701</v>
+        <v>0.0277825</v>
       </c>
     </row>
     <row r="72">
@@ -4252,13 +4252,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0293089</v>
+        <v>0.0304667</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0895243</v>
+        <v>0.09013549999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0289658</v>
+        <v>0.027221</v>
       </c>
     </row>
     <row r="73">
@@ -4266,13 +4266,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0298234</v>
+        <v>0.0310139</v>
       </c>
       <c r="C73" t="n">
-        <v>0.097702</v>
+        <v>0.0977046</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0296943</v>
+        <v>0.0284611</v>
       </c>
     </row>
     <row r="74">
@@ -4280,13 +4280,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0304538</v>
+        <v>0.0314037</v>
       </c>
       <c r="C74" t="n">
-        <v>0.107574</v>
+        <v>0.107458</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0308191</v>
+        <v>0.0287453</v>
       </c>
     </row>
     <row r="75">
@@ -4294,13 +4294,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0316262</v>
+        <v>0.0322131</v>
       </c>
       <c r="C75" t="n">
-        <v>0.117728</v>
+        <v>0.117836</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0320137</v>
+        <v>0.0302454</v>
       </c>
     </row>
     <row r="76">
@@ -4308,13 +4308,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0328268</v>
+        <v>0.0335726</v>
       </c>
       <c r="C76" t="n">
-        <v>0.127246</v>
+        <v>0.128331</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0337115</v>
+        <v>0.0316599</v>
       </c>
     </row>
     <row r="77">
@@ -4322,13 +4322,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.034701</v>
+        <v>0.0353412</v>
       </c>
       <c r="C77" t="n">
-        <v>0.134567</v>
+        <v>0.134763</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0362699</v>
+        <v>0.0341371</v>
       </c>
     </row>
     <row r="78">
@@ -4336,13 +4336,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0373006</v>
+        <v>0.0380344</v>
       </c>
       <c r="C78" t="n">
-        <v>0.142834</v>
+        <v>0.142749</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0399167</v>
+        <v>0.03784</v>
       </c>
     </row>
     <row r="79">
@@ -4350,13 +4350,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0405111</v>
+        <v>0.0411395</v>
       </c>
       <c r="C79" t="n">
-        <v>0.064026</v>
+        <v>0.064124</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0449066</v>
+        <v>0.0432308</v>
       </c>
     </row>
     <row r="80">
@@ -4364,13 +4364,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0453079</v>
+        <v>0.045934</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0678048</v>
+        <v>0.0675489</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0395087</v>
+        <v>0.036435</v>
       </c>
     </row>
     <row r="81">
@@ -4378,13 +4378,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0556282</v>
+        <v>0.0550703</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0717135</v>
+        <v>0.0714053</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0404645</v>
+        <v>0.0370272</v>
       </c>
     </row>
     <row r="82">
@@ -4392,13 +4392,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0556663</v>
+        <v>0.0553295</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0761748</v>
+        <v>0.0757434</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0415858</v>
+        <v>0.0377073</v>
       </c>
     </row>
     <row r="83">
@@ -4406,13 +4406,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0556563</v>
+        <v>0.0555108</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0812459</v>
+        <v>0.0810294</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0423343</v>
+        <v>0.0383392</v>
       </c>
     </row>
     <row r="84">
@@ -4420,13 +4420,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0557576</v>
+        <v>0.0557425</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0872613</v>
+        <v>0.0870582</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0424792</v>
+        <v>0.0392847</v>
       </c>
     </row>
     <row r="85">
@@ -4434,13 +4434,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0561199</v>
+        <v>0.0561549</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0936657</v>
+        <v>0.09397709999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.043633</v>
+        <v>0.0399853</v>
       </c>
     </row>
     <row r="86">
@@ -4448,13 +4448,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0563284</v>
+        <v>0.0563937</v>
       </c>
       <c r="C86" t="n">
-        <v>0.101731</v>
+        <v>0.101953</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0447561</v>
+        <v>0.0413877</v>
       </c>
     </row>
     <row r="87">
@@ -4462,13 +4462,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0566175</v>
+        <v>0.056959</v>
       </c>
       <c r="C87" t="n">
-        <v>0.111373</v>
+        <v>0.111043</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0453725</v>
+        <v>0.0421025</v>
       </c>
     </row>
     <row r="88">
@@ -4476,13 +4476,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0569801</v>
+        <v>0.0572251</v>
       </c>
       <c r="C88" t="n">
-        <v>0.122588</v>
+        <v>0.12242</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0460016</v>
+        <v>0.0427691</v>
       </c>
     </row>
     <row r="89">
@@ -4490,13 +4490,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0575295</v>
+        <v>0.0571634</v>
       </c>
       <c r="C89" t="n">
-        <v>0.133557</v>
+        <v>0.133138</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0469517</v>
+        <v>0.0437191</v>
       </c>
     </row>
     <row r="90">
@@ -4504,13 +4504,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0584884</v>
+        <v>0.0581108</v>
       </c>
       <c r="C90" t="n">
-        <v>0.145035</v>
+        <v>0.144131</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0487554</v>
+        <v>0.0450636</v>
       </c>
     </row>
     <row r="91">
@@ -4518,13 +4518,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.059328</v>
+        <v>0.0590344</v>
       </c>
       <c r="C91" t="n">
-        <v>0.154768</v>
+        <v>0.154722</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0506627</v>
+        <v>0.047116</v>
       </c>
     </row>
     <row r="92">
@@ -4532,13 +4532,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0609849</v>
+        <v>0.0606591</v>
       </c>
       <c r="C92" t="n">
-        <v>0.165492</v>
+        <v>0.16579</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0536386</v>
+        <v>0.0496691</v>
       </c>
     </row>
     <row r="93">
@@ -4546,13 +4546,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.06332119999999999</v>
+        <v>0.063176</v>
       </c>
       <c r="C93" t="n">
-        <v>0.17807</v>
+        <v>0.182267</v>
       </c>
       <c r="D93" t="n">
-        <v>0.058453</v>
+        <v>0.053901</v>
       </c>
     </row>
     <row r="94">
@@ -4560,13 +4560,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.06701559999999999</v>
+        <v>0.0669288</v>
       </c>
       <c r="C94" t="n">
-        <v>0.08862009999999999</v>
+        <v>0.08853709999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0785825</v>
+        <v>0.0717603</v>
       </c>
     </row>
     <row r="95">
@@ -4574,13 +4574,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.08579050000000001</v>
+        <v>0.0859915</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0928022</v>
+        <v>0.0925521</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0789784</v>
+        <v>0.072059</v>
       </c>
     </row>
     <row r="96">
@@ -4588,13 +4588,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.085844</v>
+        <v>0.0858657</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0974573</v>
+        <v>0.09738860000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.07963629999999999</v>
+        <v>0.0725851</v>
       </c>
     </row>
     <row r="97">
@@ -4602,13 +4602,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0859253</v>
+        <v>0.0859052</v>
       </c>
       <c r="C97" t="n">
-        <v>0.102899</v>
+        <v>0.102652</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0799203</v>
+        <v>0.0731681</v>
       </c>
     </row>
     <row r="98">
@@ -4616,13 +4616,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0859871</v>
+        <v>0.0861029</v>
       </c>
       <c r="C98" t="n">
-        <v>0.109426</v>
+        <v>0.109225</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0804226</v>
+        <v>0.0735248</v>
       </c>
     </row>
     <row r="99">
@@ -4630,13 +4630,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0861041</v>
+        <v>0.0862277</v>
       </c>
       <c r="C99" t="n">
-        <v>0.117126</v>
+        <v>0.117149</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0810888</v>
+        <v>0.0742505</v>
       </c>
     </row>
     <row r="100">
@@ -4644,13 +4644,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08631809999999999</v>
+        <v>0.08633059999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.126086</v>
+        <v>0.125917</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0818702</v>
+        <v>0.0746773</v>
       </c>
     </row>
     <row r="101">
@@ -4658,13 +4658,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0864688</v>
+        <v>0.0865334</v>
       </c>
       <c r="C101" t="n">
-        <v>0.137067</v>
+        <v>0.136952</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0822594</v>
+        <v>0.07547139999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4672,13 +4672,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.087584</v>
+        <v>0.0868848</v>
       </c>
       <c r="C102" t="n">
-        <v>0.149677</v>
+        <v>0.149661</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0861224</v>
+        <v>0.076489</v>
       </c>
     </row>
     <row r="103">
@@ -4686,13 +4686,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0871972</v>
+        <v>0.08726879999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.163346</v>
+        <v>0.16384</v>
       </c>
       <c r="D103" t="n">
-        <v>0.08439530000000001</v>
+        <v>0.07789989999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4700,13 +4700,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.08776539999999999</v>
+        <v>0.0884552</v>
       </c>
       <c r="C104" t="n">
-        <v>0.177727</v>
+        <v>0.178046</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0860368</v>
+        <v>0.0795462</v>
       </c>
     </row>
     <row r="105">
@@ -4714,13 +4714,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0885425</v>
+        <v>0.0888036</v>
       </c>
       <c r="C105" t="n">
-        <v>0.192176</v>
+        <v>0.192463</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0872131</v>
+        <v>0.0800164</v>
       </c>
     </row>
     <row r="106">
@@ -4728,13 +4728,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0897765</v>
+        <v>0.08978360000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.209788</v>
+        <v>0.210294</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0897109</v>
+        <v>0.0823821</v>
       </c>
     </row>
     <row r="107">
@@ -4742,13 +4742,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0918954</v>
+        <v>0.09185790000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.241063</v>
+        <v>0.240468</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0933244</v>
+        <v>0.0862315</v>
       </c>
     </row>
     <row r="108">
@@ -4756,13 +4756,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0951462</v>
+        <v>0.0950042</v>
       </c>
       <c r="C108" t="n">
-        <v>0.111904</v>
+        <v>0.103032</v>
       </c>
       <c r="D108" t="n">
-        <v>0.09642630000000001</v>
+        <v>0.0893361</v>
       </c>
     </row>
     <row r="109">
@@ -4770,13 +4770,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100134</v>
+        <v>0.100148</v>
       </c>
       <c r="C109" t="n">
-        <v>0.106764</v>
+        <v>0.106653</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0977301</v>
+        <v>0.0897792</v>
       </c>
     </row>
     <row r="110">
@@ -4784,13 +4784,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.107276</v>
+        <v>0.107029</v>
       </c>
       <c r="C110" t="n">
-        <v>0.110996</v>
+        <v>0.110948</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0987176</v>
+        <v>0.0911802</v>
       </c>
     </row>
     <row r="111">
@@ -4798,13 +4798,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.107381</v>
+        <v>0.107402</v>
       </c>
       <c r="C111" t="n">
-        <v>0.116155</v>
+        <v>0.116083</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0995547</v>
+        <v>0.0921699</v>
       </c>
     </row>
     <row r="112">
@@ -4812,13 +4812,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.10763</v>
+        <v>0.107426</v>
       </c>
       <c r="C112" t="n">
-        <v>0.123372</v>
+        <v>0.123221</v>
       </c>
       <c r="D112" t="n">
-        <v>0.100355</v>
+        <v>0.0923712</v>
       </c>
     </row>
     <row r="113">
@@ -4826,13 +4826,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.10747</v>
+        <v>0.107422</v>
       </c>
       <c r="C113" t="n">
-        <v>0.12867</v>
+        <v>0.128636</v>
       </c>
       <c r="D113" t="n">
-        <v>0.101544</v>
+        <v>0.09382699999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4840,13 +4840,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.107654</v>
+        <v>0.107531</v>
       </c>
       <c r="C114" t="n">
-        <v>0.138409</v>
+        <v>0.138365</v>
       </c>
       <c r="D114" t="n">
-        <v>0.102478</v>
+        <v>0.095093</v>
       </c>
     </row>
     <row r="115">
@@ -4854,13 +4854,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.108084</v>
+        <v>0.108092</v>
       </c>
       <c r="C115" t="n">
-        <v>0.146729</v>
+        <v>0.146667</v>
       </c>
       <c r="D115" t="n">
-        <v>0.103852</v>
+        <v>0.09621589999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4868,13 +4868,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108774</v>
+        <v>0.108723</v>
       </c>
       <c r="C116" t="n">
-        <v>0.159703</v>
+        <v>0.159736</v>
       </c>
       <c r="D116" t="n">
-        <v>0.10514</v>
+        <v>0.09669220000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4882,13 +4882,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.109483</v>
+        <v>0.109197</v>
       </c>
       <c r="C117" t="n">
-        <v>0.171725</v>
+        <v>0.171766</v>
       </c>
       <c r="D117" t="n">
-        <v>0.106707</v>
+        <v>0.09917289999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4896,13 +4896,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.110216</v>
+        <v>0.110028</v>
       </c>
       <c r="C118" t="n">
-        <v>0.189215</v>
+        <v>0.188825</v>
       </c>
       <c r="D118" t="n">
-        <v>0.107111</v>
+        <v>0.0996819</v>
       </c>
     </row>
     <row r="119">
@@ -4910,13 +4910,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.111529</v>
+        <v>0.1113</v>
       </c>
       <c r="C119" t="n">
-        <v>0.206254</v>
+        <v>0.205564</v>
       </c>
       <c r="D119" t="n">
-        <v>0.110501</v>
+        <v>0.102803</v>
       </c>
     </row>
     <row r="120">
@@ -4924,13 +4924,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.123333</v>
+        <v>0.112767</v>
       </c>
       <c r="C120" t="n">
-        <v>0.232862</v>
+        <v>0.236325</v>
       </c>
       <c r="D120" t="n">
-        <v>0.113388</v>
+        <v>0.105699</v>
       </c>
     </row>
     <row r="121">
@@ -4938,13 +4938,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.114818</v>
+        <v>0.114734</v>
       </c>
       <c r="C121" t="n">
-        <v>0.300725</v>
+        <v>0.305357</v>
       </c>
       <c r="D121" t="n">
-        <v>0.117326</v>
+        <v>0.112457</v>
       </c>
     </row>
     <row r="122">
@@ -4952,13 +4952,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.117767</v>
+        <v>0.117713</v>
       </c>
       <c r="C122" t="n">
-        <v>0.111313</v>
+        <v>0.111361</v>
       </c>
       <c r="D122" t="n">
-        <v>0.123656</v>
+        <v>0.116071</v>
       </c>
     </row>
     <row r="123">
@@ -4966,13 +4966,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.122643</v>
+        <v>0.122342</v>
       </c>
       <c r="C123" t="n">
-        <v>0.114762</v>
+        <v>0.114806</v>
       </c>
       <c r="D123" t="n">
-        <v>0.113449</v>
+        <v>0.106634</v>
       </c>
     </row>
     <row r="124">
@@ -4980,13 +4980,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.140956</v>
+        <v>0.141268</v>
       </c>
       <c r="C124" t="n">
-        <v>0.118709</v>
+        <v>0.118667</v>
       </c>
       <c r="D124" t="n">
-        <v>0.114553</v>
+        <v>0.107552</v>
       </c>
     </row>
     <row r="125">
@@ -4994,13 +4994,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.141254</v>
+        <v>0.141547</v>
       </c>
       <c r="C125" t="n">
-        <v>0.123239</v>
+        <v>0.123014</v>
       </c>
       <c r="D125" t="n">
-        <v>0.115303</v>
+        <v>0.108614</v>
       </c>
     </row>
     <row r="126">
@@ -5008,13 +5008,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.141098</v>
+        <v>0.144565</v>
       </c>
       <c r="C126" t="n">
-        <v>0.128603</v>
+        <v>0.128273</v>
       </c>
       <c r="D126" t="n">
-        <v>0.116783</v>
+        <v>0.109727</v>
       </c>
     </row>
     <row r="127">
@@ -5022,13 +5022,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.141288</v>
+        <v>0.141775</v>
       </c>
       <c r="C127" t="n">
-        <v>0.134652</v>
+        <v>0.134507</v>
       </c>
       <c r="D127" t="n">
-        <v>0.11776</v>
+        <v>0.111061</v>
       </c>
     </row>
     <row r="128">
@@ -5036,13 +5036,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.136251</v>
+        <v>0.141383</v>
       </c>
       <c r="C128" t="n">
-        <v>0.144169</v>
+        <v>0.144094</v>
       </c>
       <c r="D128" t="n">
-        <v>0.11949</v>
+        <v>0.112121</v>
       </c>
     </row>
     <row r="129">
@@ -5050,13 +5050,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.1347</v>
+        <v>0.141748</v>
       </c>
       <c r="C129" t="n">
-        <v>0.150707</v>
+        <v>0.1506</v>
       </c>
       <c r="D129" t="n">
-        <v>0.120603</v>
+        <v>0.113592</v>
       </c>
     </row>
     <row r="130">
@@ -5064,13 +5064,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.134998</v>
+        <v>0.142004</v>
       </c>
       <c r="C130" t="n">
-        <v>0.163675</v>
+        <v>0.163579</v>
       </c>
       <c r="D130" t="n">
-        <v>0.122672</v>
+        <v>0.114665</v>
       </c>
     </row>
     <row r="131">
@@ -5078,13 +5078,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.135211</v>
+        <v>0.142044</v>
       </c>
       <c r="C131" t="n">
-        <v>0.174482</v>
+        <v>0.175032</v>
       </c>
       <c r="D131" t="n">
-        <v>0.124019</v>
+        <v>0.116678</v>
       </c>
     </row>
     <row r="132">
@@ -5092,13 +5092,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.135722</v>
+        <v>0.142714</v>
       </c>
       <c r="C132" t="n">
-        <v>0.19273</v>
+        <v>0.19243</v>
       </c>
       <c r="D132" t="n">
-        <v>0.126</v>
+        <v>0.118667</v>
       </c>
     </row>
     <row r="133">
@@ -5106,13 +5106,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.136719</v>
+        <v>0.143002</v>
       </c>
       <c r="C133" t="n">
-        <v>0.211146</v>
+        <v>0.209837</v>
       </c>
       <c r="D133" t="n">
-        <v>0.128612</v>
+        <v>0.120652</v>
       </c>
     </row>
     <row r="134">
@@ -5120,13 +5120,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.138058</v>
+        <v>0.144446</v>
       </c>
       <c r="C134" t="n">
-        <v>0.248366</v>
+        <v>0.246912</v>
       </c>
       <c r="D134" t="n">
-        <v>0.131664</v>
+        <v>0.128327</v>
       </c>
     </row>
     <row r="135">
@@ -5134,13 +5134,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.138669</v>
+        <v>0.145856</v>
       </c>
       <c r="C135" t="n">
-        <v>0.325236</v>
+        <v>0.323091</v>
       </c>
       <c r="D135" t="n">
-        <v>0.135936</v>
+        <v>0.127924</v>
       </c>
     </row>
     <row r="136">
@@ -5148,13 +5148,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.146036</v>
+        <v>0.148465</v>
       </c>
       <c r="C136" t="n">
-        <v>0.115816</v>
+        <v>0.11831</v>
       </c>
       <c r="D136" t="n">
-        <v>0.14231</v>
+        <v>0.134207</v>
       </c>
     </row>
     <row r="137">
@@ -5162,13 +5162,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.147156</v>
+        <v>0.145854</v>
       </c>
       <c r="C137" t="n">
-        <v>0.119248</v>
+        <v>0.1215</v>
       </c>
       <c r="D137" t="n">
-        <v>0.125329</v>
+        <v>0.118364</v>
       </c>
     </row>
     <row r="138">
@@ -5176,13 +5176,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.159468</v>
+        <v>0.157779</v>
       </c>
       <c r="C138" t="n">
-        <v>0.123083</v>
+        <v>0.125067</v>
       </c>
       <c r="D138" t="n">
-        <v>0.126594</v>
+        <v>0.119485</v>
       </c>
     </row>
     <row r="139">
@@ -5190,13 +5190,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.157919</v>
+        <v>0.158063</v>
       </c>
       <c r="C139" t="n">
-        <v>0.127447</v>
+        <v>0.129115</v>
       </c>
       <c r="D139" t="n">
-        <v>0.127683</v>
+        <v>0.120618</v>
       </c>
     </row>
     <row r="140">
@@ -5204,13 +5204,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.157814</v>
+        <v>0.158141</v>
       </c>
       <c r="C140" t="n">
-        <v>0.132918</v>
+        <v>0.134184</v>
       </c>
       <c r="D140" t="n">
-        <v>0.128925</v>
+        <v>0.121702</v>
       </c>
     </row>
     <row r="141">
@@ -5218,13 +5218,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158306</v>
+        <v>0.158012</v>
       </c>
       <c r="C141" t="n">
-        <v>0.139793</v>
+        <v>0.139865</v>
       </c>
       <c r="D141" t="n">
-        <v>0.130349</v>
+        <v>0.122856</v>
       </c>
     </row>
     <row r="142">
@@ -5232,13 +5232,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158314</v>
+        <v>0.158427</v>
       </c>
       <c r="C142" t="n">
-        <v>0.146881</v>
+        <v>0.147226</v>
       </c>
       <c r="D142" t="n">
-        <v>0.131775</v>
+        <v>0.124121</v>
       </c>
     </row>
     <row r="143">
@@ -5246,13 +5246,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158718</v>
+        <v>0.158593</v>
       </c>
       <c r="C143" t="n">
-        <v>0.154942</v>
+        <v>0.155079</v>
       </c>
       <c r="D143" t="n">
-        <v>0.133565</v>
+        <v>0.125495</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0196389</v>
+        <v>0.0196058</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02098</v>
+        <v>0.0209806</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0196405</v>
+        <v>0.0196967</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0196066</v>
+        <v>0.0196141</v>
       </c>
       <c r="C3" t="n">
-        <v>0.021019</v>
+        <v>0.0209985</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0197534</v>
+        <v>0.0197366</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0195327</v>
+        <v>0.01972</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0211721</v>
+        <v>0.0209805</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0197036</v>
+        <v>0.0197533</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0196578</v>
+        <v>0.0198523</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0211626</v>
+        <v>0.0208521</v>
       </c>
       <c r="D5" t="n">
-        <v>0.019722</v>
+        <v>0.0197207</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01974</v>
+        <v>0.0197362</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0211027</v>
+        <v>0.0208013</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0198399</v>
+        <v>0.019969</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0199181</v>
+        <v>0.0201219</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0214886</v>
+        <v>0.0210608</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0201154</v>
+        <v>0.020092</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0200131</v>
+        <v>0.0201707</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0215995</v>
+        <v>0.0209727</v>
       </c>
       <c r="D8" t="n">
-        <v>0.020564</v>
+        <v>0.0205352</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0205113</v>
+        <v>0.0205671</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0222591</v>
+        <v>0.0211624</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0193342</v>
+        <v>0.0193506</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0195682</v>
+        <v>0.0195111</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0209373</v>
+        <v>0.0208677</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0198016</v>
+        <v>0.019698</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0195684</v>
+        <v>0.0196768</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0211205</v>
+        <v>0.0211317</v>
       </c>
       <c r="D11" t="n">
-        <v>0.019946</v>
+        <v>0.0199994</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0195854</v>
+        <v>0.0197401</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0212922</v>
+        <v>0.0211104</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0200871</v>
+        <v>0.0199623</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0196338</v>
+        <v>0.0197455</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0214924</v>
+        <v>0.0214743</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0202974</v>
+        <v>0.0202574</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0197169</v>
+        <v>0.0200053</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0217799</v>
+        <v>0.0216899</v>
       </c>
       <c r="D14" t="n">
-        <v>0.020528</v>
+        <v>0.0206409</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0199098</v>
+        <v>0.0202916</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0220937</v>
+        <v>0.0217668</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0210051</v>
+        <v>0.0208183</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0200428</v>
+        <v>0.0203974</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0223463</v>
+        <v>0.0221245</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0213178</v>
+        <v>0.0212084</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0200132</v>
+        <v>0.0205162</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0222985</v>
+        <v>0.0220801</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0214198</v>
+        <v>0.0212817</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0200289</v>
+        <v>0.0204327</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0227257</v>
+        <v>0.0220289</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0214191</v>
+        <v>0.0214742</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0203435</v>
+        <v>0.0208638</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0230685</v>
+        <v>0.0222732</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0218409</v>
+        <v>0.0216742</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0203329</v>
+        <v>0.0210386</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0235257</v>
+        <v>0.022384</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0219077</v>
+        <v>0.0216947</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0206351</v>
+        <v>0.0213326</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0240726</v>
+        <v>0.0225625</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0223081</v>
+        <v>0.0220916</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0213404</v>
+        <v>0.0218935</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0252089</v>
+        <v>0.0230848</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0231846</v>
+        <v>0.0233451</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0233503</v>
+        <v>0.024792</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0275009</v>
+        <v>0.0238703</v>
       </c>
       <c r="D23" t="n">
-        <v>0.020908</v>
+        <v>0.0209154</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0204006</v>
+        <v>0.0204787</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0217666</v>
+        <v>0.0218133</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0211403</v>
+        <v>0.0210963</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.020653</v>
+        <v>0.0204761</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0220993</v>
+        <v>0.0220968</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0213744</v>
+        <v>0.0213697</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0208013</v>
+        <v>0.0208147</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0223921</v>
+        <v>0.0223283</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0216243</v>
+        <v>0.0216032</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.020917</v>
+        <v>0.0210736</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0226218</v>
+        <v>0.022574</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0219406</v>
+        <v>0.0219576</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.021091</v>
+        <v>0.0210921</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0229554</v>
+        <v>0.0229167</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0222071</v>
+        <v>0.0222478</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0212779</v>
+        <v>0.0212816</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0233171</v>
+        <v>0.02323</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0226077</v>
+        <v>0.0225567</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0214187</v>
+        <v>0.0214782</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0237265</v>
+        <v>0.0235675</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0228134</v>
+        <v>0.0227905</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0214157</v>
+        <v>0.0214899</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0240732</v>
+        <v>0.0239196</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0231961</v>
+        <v>0.0231765</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0215687</v>
+        <v>0.0219521</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0245749</v>
+        <v>0.024117</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0232629</v>
+        <v>0.0233031</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0217142</v>
+        <v>0.0222811</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0252718</v>
+        <v>0.0243577</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0237985</v>
+        <v>0.0237556</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0229339</v>
+        <v>0.0233614</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0261175</v>
+        <v>0.0248927</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0244828</v>
+        <v>0.0246585</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.025902</v>
+        <v>0.0257553</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0276176</v>
+        <v>0.0258775</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0271976</v>
+        <v>0.0262912</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0286644</v>
+        <v>0.0283346</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0298639</v>
+        <v>0.0269493</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0307087</v>
+        <v>0.0294394</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0314431</v>
+        <v>0.0332965</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0347706</v>
+        <v>0.0301487</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0222641</v>
+        <v>0.022179</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0216308</v>
+        <v>0.0216018</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0230535</v>
+        <v>0.0229979</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0224619</v>
+        <v>0.0224013</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02143</v>
+        <v>0.0217111</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0233257</v>
+        <v>0.0232221</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0226234</v>
+        <v>0.022606</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0218153</v>
+        <v>0.0218738</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0236162</v>
+        <v>0.0235424</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0229189</v>
+        <v>0.0228654</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0218998</v>
+        <v>0.0220702</v>
       </c>
       <c r="C41" t="n">
-        <v>0.024005</v>
+        <v>0.0239063</v>
       </c>
       <c r="D41" t="n">
-        <v>0.023271</v>
+        <v>0.0231624</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0220859</v>
+        <v>0.022338</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0243693</v>
+        <v>0.024236</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0235073</v>
+        <v>0.0234658</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.022222</v>
+        <v>0.022531</v>
       </c>
       <c r="C43" t="n">
-        <v>0.024958</v>
+        <v>0.0247462</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0238452</v>
+        <v>0.0238601</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0225949</v>
+        <v>0.0228188</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0252373</v>
+        <v>0.0251075</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0242463</v>
+        <v>0.0242308</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0227615</v>
+        <v>0.0234172</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0258292</v>
+        <v>0.0255453</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0247495</v>
+        <v>0.0246194</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0233252</v>
+        <v>0.0238639</v>
       </c>
       <c r="C46" t="n">
-        <v>0.026547</v>
+        <v>0.0260441</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0251817</v>
+        <v>0.025135</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0241903</v>
+        <v>0.0248275</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0271858</v>
+        <v>0.0266704</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0260156</v>
+        <v>0.0260235</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0256826</v>
+        <v>0.0266886</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0283566</v>
+        <v>0.0274755</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0281455</v>
+        <v>0.0272798</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0273672</v>
+        <v>0.0287727</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0301078</v>
+        <v>0.0288294</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0302407</v>
+        <v>0.0296663</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0309361</v>
+        <v>0.0313801</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0324754</v>
+        <v>0.0308101</v>
       </c>
       <c r="D50" t="n">
-        <v>0.034134</v>
+        <v>0.0330291</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0341711</v>
+        <v>0.0359659</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0358974</v>
+        <v>0.034362</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0230897</v>
+        <v>0.0230591</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.040345</v>
+        <v>0.0408527</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0416323</v>
+        <v>0.0393474</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0232822</v>
+        <v>0.0233127</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0229992</v>
+        <v>0.0231485</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0247694</v>
+        <v>0.0246135</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0236607</v>
+        <v>0.0235623</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.02326</v>
+        <v>0.0233523</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0249918</v>
+        <v>0.0249101</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0237772</v>
+        <v>0.0242213</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0233825</v>
+        <v>0.0234835</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0253214</v>
+        <v>0.0252743</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0241033</v>
+        <v>0.0240722</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0240665</v>
+        <v>0.0236986</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0256988</v>
+        <v>0.0256381</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0244769</v>
+        <v>0.0244966</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0243132</v>
+        <v>0.0239719</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0260877</v>
+        <v>0.0259762</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0247411</v>
+        <v>0.0247618</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0241681</v>
+        <v>0.024349</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0265037</v>
+        <v>0.0263916</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0252161</v>
+        <v>0.0251763</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0248671</v>
+        <v>0.0248764</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0271553</v>
+        <v>0.0269658</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0257636</v>
+        <v>0.0257108</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0252597</v>
+        <v>0.0255894</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0278071</v>
+        <v>0.0275366</v>
       </c>
       <c r="D60" t="n">
-        <v>0.026461</v>
+        <v>0.0263529</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.026932</v>
+        <v>0.0267691</v>
       </c>
       <c r="C61" t="n">
-        <v>0.028729</v>
+        <v>0.0282707</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0273822</v>
+        <v>0.0272909</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0278809</v>
+        <v>0.0281541</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0298764</v>
+        <v>0.0293528</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0293467</v>
+        <v>0.0289989</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0293523</v>
+        <v>0.0303655</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0315532</v>
+        <v>0.0309468</v>
       </c>
       <c r="D63" t="n">
-        <v>0.031487</v>
+        <v>0.0314782</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0323367</v>
+        <v>0.0330089</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0337982</v>
+        <v>0.0329072</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0356031</v>
+        <v>0.034999</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0368461</v>
+        <v>0.0367801</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0371151</v>
+        <v>0.0365758</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0405618</v>
+        <v>0.0403451</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0422044</v>
+        <v>0.0420639</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0418048</v>
+        <v>0.0410581</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0245566</v>
+        <v>0.0254092</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0289853</v>
+        <v>0.028385</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0265003</v>
+        <v>0.0265393</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0251146</v>
+        <v>0.0249819</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0290838</v>
+        <v>0.0284714</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0272503</v>
+        <v>0.0265597</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0251895</v>
+        <v>0.0253215</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0291142</v>
+        <v>0.0286939</v>
       </c>
       <c r="C69" t="n">
-        <v>0.026935</v>
+        <v>0.0271938</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0263439</v>
+        <v>0.0256685</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0293978</v>
+        <v>0.0289325</v>
       </c>
       <c r="C70" t="n">
-        <v>0.027479</v>
+        <v>0.0272609</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0257101</v>
+        <v>0.0259669</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0294469</v>
+        <v>0.029224</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0278299</v>
+        <v>0.0283033</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0260824</v>
+        <v>0.0261628</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0297862</v>
+        <v>0.0295156</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0289529</v>
+        <v>0.0281581</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0266433</v>
+        <v>0.0268256</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0301009</v>
+        <v>0.0298669</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0288924</v>
+        <v>0.0286765</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0271643</v>
+        <v>0.0274559</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0305488</v>
+        <v>0.0304992</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0297009</v>
+        <v>0.0293781</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0280223</v>
+        <v>0.0281141</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0313491</v>
+        <v>0.0313426</v>
       </c>
       <c r="C75" t="n">
-        <v>0.030598</v>
+        <v>0.0304509</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0293165</v>
+        <v>0.0292734</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0327765</v>
+        <v>0.0326897</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0322755</v>
+        <v>0.031299</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0307599</v>
+        <v>0.0309474</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0345634</v>
+        <v>0.0344036</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0331423</v>
+        <v>0.0331102</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0330028</v>
+        <v>0.0331571</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0368111</v>
+        <v>0.0369576</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0353126</v>
+        <v>0.0355059</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0360578</v>
+        <v>0.0364384</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.040276</v>
+        <v>0.0401476</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0381519</v>
+        <v>0.037889</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0409416</v>
+        <v>0.0411204</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0449309</v>
+        <v>0.0449753</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0423751</v>
+        <v>0.0423109</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0356275</v>
+        <v>0.0359286</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0556442</v>
+        <v>0.0583038</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0353433</v>
+        <v>0.035474</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0368215</v>
+        <v>0.0368997</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0560133</v>
+        <v>0.0565836</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0360357</v>
+        <v>0.03624</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0375778</v>
+        <v>0.0376885</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0560151</v>
+        <v>0.0567759</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0369787</v>
+        <v>0.0372115</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0379925</v>
+        <v>0.0382764</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0562881</v>
+        <v>0.0566853</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0379678</v>
+        <v>0.0379672</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0390258</v>
+        <v>0.039313</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0563093</v>
+        <v>0.0571356</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0390111</v>
+        <v>0.0392776</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0398195</v>
+        <v>0.0396695</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0565347</v>
+        <v>0.0572577</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0403182</v>
+        <v>0.0406381</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0402142</v>
+        <v>0.0403702</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0568133</v>
+        <v>0.0574252</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0415431</v>
+        <v>0.0419694</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0408766</v>
+        <v>0.0412483</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0571675</v>
+        <v>0.0579152</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0432726</v>
+        <v>0.043543</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0417548</v>
+        <v>0.0419128</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0576891</v>
+        <v>0.0585095</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0446154</v>
+        <v>0.0451626</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0432466</v>
+        <v>0.0428764</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0585908</v>
+        <v>0.059386</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0462304</v>
+        <v>0.0465088</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0441574</v>
+        <v>0.0446362</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0596083</v>
+        <v>0.0603142</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0483353</v>
+        <v>0.0483077</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0460634</v>
+        <v>0.0461892</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0616902</v>
+        <v>0.0621197</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0507457</v>
+        <v>0.0505323</v>
       </c>
       <c r="D92" t="n">
-        <v>0.049424</v>
+        <v>0.0490639</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0646095</v>
+        <v>0.0644884</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0539583</v>
+        <v>0.0535531</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0533033</v>
+        <v>0.0533584</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.06759510000000001</v>
+        <v>0.06847540000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0575127</v>
+        <v>0.0576183</v>
       </c>
       <c r="D94" t="n">
-        <v>0.071128</v>
+        <v>0.0712542</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0856572</v>
+        <v>0.0857614</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0690195</v>
+        <v>0.0717614</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0715142</v>
+        <v>0.07156650000000001</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.08607140000000001</v>
+        <v>0.0856295</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0694898</v>
+        <v>0.0695751</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0730552</v>
+        <v>0.0720243</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.085948</v>
+        <v>0.0858148</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0703848</v>
+        <v>0.07013900000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0734162</v>
+        <v>0.0724747</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.08610810000000001</v>
+        <v>0.08596230000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0706514</v>
+        <v>0.0706871</v>
       </c>
       <c r="D98" t="n">
-        <v>0.073098</v>
+        <v>0.07307669999999999</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0861287</v>
+        <v>0.086116</v>
       </c>
       <c r="C99" t="n">
-        <v>0.07125629999999999</v>
+        <v>0.0714998</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0734846</v>
+        <v>0.07361470000000001</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0861963</v>
+        <v>0.08614810000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0719583</v>
+        <v>0.07197050000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.07444199999999999</v>
+        <v>0.0742901</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08657239999999999</v>
+        <v>0.08638949999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0726463</v>
+        <v>0.0728039</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0748188</v>
+        <v>0.07492</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0869495</v>
+        <v>0.08660370000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.07372819999999999</v>
+        <v>0.0734895</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0755854</v>
+        <v>0.0757668</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0872851</v>
+        <v>0.08714280000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.07462820000000001</v>
+        <v>0.0745671</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0765696</v>
+        <v>0.0766761</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.087732</v>
+        <v>0.08765390000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0756903</v>
+        <v>0.0758141</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0776762</v>
+        <v>0.07789500000000001</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.088648</v>
+        <v>0.0884928</v>
       </c>
       <c r="C105" t="n">
-        <v>0.077205</v>
+        <v>0.0770593</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0792894</v>
+        <v>0.0794414</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.08992269999999999</v>
+        <v>0.0897719</v>
       </c>
       <c r="C106" t="n">
-        <v>0.07890900000000001</v>
+        <v>0.0795824</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0816354</v>
+        <v>0.08153580000000001</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0917483</v>
+        <v>0.0917616</v>
       </c>
       <c r="C107" t="n">
-        <v>0.08142870000000001</v>
+        <v>0.08162270000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0852941</v>
+        <v>0.0853064</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.09512329999999999</v>
+        <v>0.0950969</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0850002</v>
+        <v>0.0915815</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0884976</v>
+        <v>0.0884412</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.09999</v>
+        <v>0.101317</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0910116</v>
+        <v>0.091146</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0891777</v>
+        <v>0.0891904</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.10699</v>
+        <v>0.107881</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0838329</v>
+        <v>0.0837422</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0901824</v>
+        <v>0.0902703</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.106936</v>
+        <v>0.108103</v>
       </c>
       <c r="C111" t="n">
-        <v>0.08465640000000001</v>
+        <v>0.08466509999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.09099889999999999</v>
+        <v>0.090972</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.106989</v>
+        <v>0.108264</v>
       </c>
       <c r="C112" t="n">
-        <v>0.08566029999999999</v>
+        <v>0.0855062</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0923485</v>
+        <v>0.0919341</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.10716</v>
+        <v>0.108228</v>
       </c>
       <c r="C113" t="n">
-        <v>0.08668289999999999</v>
+        <v>0.0866566</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0931353</v>
+        <v>0.0929422</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.107426</v>
+        <v>0.108466</v>
       </c>
       <c r="C114" t="n">
-        <v>0.08765439999999999</v>
+        <v>0.0877551</v>
       </c>
       <c r="D114" t="n">
-        <v>0.09386559999999999</v>
+        <v>0.09385350000000001</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.107305</v>
+        <v>0.108496</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0890282</v>
+        <v>0.08895989999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.09500690000000001</v>
+        <v>0.09513480000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.107764</v>
+        <v>0.108769</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0902049</v>
+        <v>0.0903901</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0963133</v>
+        <v>0.09606430000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.108077</v>
+        <v>0.109182</v>
       </c>
       <c r="C117" t="n">
-        <v>0.09174209999999999</v>
+        <v>0.0918344</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0975848</v>
+        <v>0.0975775</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.108557</v>
+        <v>0.109716</v>
       </c>
       <c r="C118" t="n">
-        <v>0.09332500000000001</v>
+        <v>0.100714</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0995509</v>
+        <v>0.09928720000000001</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.109636</v>
+        <v>0.110515</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0948452</v>
+        <v>0.0951906</v>
       </c>
       <c r="D119" t="n">
-        <v>0.101384</v>
+        <v>0.101044</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.11059</v>
+        <v>0.123717</v>
       </c>
       <c r="C120" t="n">
-        <v>0.09715849999999999</v>
+        <v>0.09727189999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.103944</v>
+        <v>0.103743</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.112398</v>
+        <v>0.113718</v>
       </c>
       <c r="C121" t="n">
-        <v>0.100065</v>
+        <v>0.100132</v>
       </c>
       <c r="D121" t="n">
-        <v>0.107157</v>
+        <v>0.107407</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.115393</v>
+        <v>0.116763</v>
       </c>
       <c r="C122" t="n">
-        <v>0.104042</v>
+        <v>0.103974</v>
       </c>
       <c r="D122" t="n">
-        <v>0.113122</v>
+        <v>0.113679</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.120254</v>
+        <v>0.121188</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1092</v>
+        <v>0.109817</v>
       </c>
       <c r="D123" t="n">
-        <v>0.106915</v>
+        <v>0.107054</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.136726</v>
+        <v>0.142103</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0951989</v>
+        <v>0.09734279999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>0.107998</v>
+        <v>0.108186</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.135743</v>
+        <v>0.134834</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0964888</v>
+        <v>0.09865699999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.109007</v>
+        <v>0.109216</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.135557</v>
+        <v>0.135473</v>
       </c>
       <c r="C126" t="n">
-        <v>0.09779210000000001</v>
+        <v>0.100037</v>
       </c>
       <c r="D126" t="n">
-        <v>0.110402</v>
+        <v>0.110312</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.135628</v>
+        <v>0.13519</v>
       </c>
       <c r="C127" t="n">
-        <v>0.09912550000000001</v>
+        <v>0.102164</v>
       </c>
       <c r="D127" t="n">
-        <v>0.111289</v>
+        <v>0.11152</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.135792</v>
+        <v>0.13551</v>
       </c>
       <c r="C128" t="n">
-        <v>0.100925</v>
+        <v>0.103151</v>
       </c>
       <c r="D128" t="n">
-        <v>0.112503</v>
+        <v>0.112848</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.136007</v>
+        <v>0.13535</v>
       </c>
       <c r="C129" t="n">
-        <v>0.102496</v>
+        <v>0.104566</v>
       </c>
       <c r="D129" t="n">
-        <v>0.113799</v>
+        <v>0.114061</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.136261</v>
+        <v>0.13612</v>
       </c>
       <c r="C130" t="n">
-        <v>0.104091</v>
+        <v>0.106407</v>
       </c>
       <c r="D130" t="n">
-        <v>0.115225</v>
+        <v>0.115964</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.136722</v>
+        <v>0.136738</v>
       </c>
       <c r="C131" t="n">
-        <v>0.105941</v>
+        <v>0.108277</v>
       </c>
       <c r="D131" t="n">
-        <v>0.116711</v>
+        <v>0.120039</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.13674</v>
+        <v>0.137338</v>
       </c>
       <c r="C132" t="n">
-        <v>0.107862</v>
+        <v>0.1103</v>
       </c>
       <c r="D132" t="n">
-        <v>0.134555</v>
+        <v>0.119829</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.137815</v>
+        <v>0.13811</v>
       </c>
       <c r="C133" t="n">
-        <v>0.109916</v>
+        <v>0.111999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.120636</v>
+        <v>0.121492</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.138755</v>
+        <v>0.138573</v>
       </c>
       <c r="C134" t="n">
-        <v>0.112389</v>
+        <v>0.114394</v>
       </c>
       <c r="D134" t="n">
-        <v>0.123706</v>
+        <v>0.124403</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.140422</v>
+        <v>0.140437</v>
       </c>
       <c r="C135" t="n">
-        <v>0.115369</v>
+        <v>0.117534</v>
       </c>
       <c r="D135" t="n">
-        <v>0.127591</v>
+        <v>0.128597</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.142821</v>
+        <v>0.142639</v>
       </c>
       <c r="C136" t="n">
-        <v>0.119555</v>
+        <v>0.121553</v>
       </c>
       <c r="D136" t="n">
-        <v>0.136896</v>
+        <v>0.134792</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.147449</v>
+        <v>0.146398</v>
       </c>
       <c r="C137" t="n">
-        <v>0.125288</v>
+        <v>0.127507</v>
       </c>
       <c r="D137" t="n">
-        <v>0.118133</v>
+        <v>0.118166</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.157974</v>
+        <v>0.158188</v>
       </c>
       <c r="C138" t="n">
-        <v>0.108742</v>
+        <v>0.108629</v>
       </c>
       <c r="D138" t="n">
-        <v>0.119252</v>
+        <v>0.120291</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.158142</v>
+        <v>0.159012</v>
       </c>
       <c r="C139" t="n">
-        <v>0.1101</v>
+        <v>0.111258</v>
       </c>
       <c r="D139" t="n">
-        <v>0.120612</v>
+        <v>0.121896</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.158039</v>
+        <v>0.157979</v>
       </c>
       <c r="C140" t="n">
-        <v>0.111494</v>
+        <v>0.111236</v>
       </c>
       <c r="D140" t="n">
-        <v>0.121392</v>
+        <v>0.121276</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.162333</v>
+        <v>0.158071</v>
       </c>
       <c r="C141" t="n">
-        <v>0.112753</v>
+        <v>0.112691</v>
       </c>
       <c r="D141" t="n">
-        <v>0.122594</v>
+        <v>0.122517</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158069</v>
+        <v>0.158271</v>
       </c>
       <c r="C142" t="n">
-        <v>0.114283</v>
+        <v>0.114169</v>
       </c>
       <c r="D142" t="n">
-        <v>0.123775</v>
+        <v>0.123839</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158446</v>
+        <v>0.158336</v>
       </c>
       <c r="C143" t="n">
-        <v>0.11795</v>
+        <v>0.115826</v>
       </c>
       <c r="D143" t="n">
-        <v>0.125034</v>
+        <v>0.125136</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0196058</v>
+        <v>0.0196787</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0209806</v>
+        <v>0.0211134</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0196967</v>
+        <v>0.0197685</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0196141</v>
+        <v>0.0198532</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0209985</v>
+        <v>0.0210985</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0197366</v>
+        <v>0.0197599</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01972</v>
+        <v>0.0199522</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0209805</v>
+        <v>0.0209683</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0197533</v>
+        <v>0.0197447</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0198523</v>
+        <v>0.0198756</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0208521</v>
+        <v>0.0208033</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0197207</v>
+        <v>0.0197696</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0197362</v>
+        <v>0.0199561</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0208013</v>
+        <v>0.0207671</v>
       </c>
       <c r="D6" t="n">
-        <v>0.019969</v>
+        <v>0.0198918</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0201219</v>
+        <v>0.0201717</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0210608</v>
+        <v>0.0209942</v>
       </c>
       <c r="D7" t="n">
-        <v>0.020092</v>
+        <v>0.0199984</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0201707</v>
+        <v>0.0202188</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0209727</v>
+        <v>0.0208751</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0205352</v>
+        <v>0.020518</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0205671</v>
+        <v>0.0207662</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0211624</v>
+        <v>0.021043</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0193506</v>
+        <v>0.0195524</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0195111</v>
+        <v>0.0195754</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0208677</v>
+        <v>0.0207508</v>
       </c>
       <c r="D10" t="n">
-        <v>0.019698</v>
+        <v>0.0196468</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0196768</v>
+        <v>0.0196908</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0211317</v>
+        <v>0.0209433</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0199994</v>
+        <v>0.0197657</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0197401</v>
+        <v>0.0197244</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0211104</v>
+        <v>0.0210849</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0199623</v>
+        <v>0.0199764</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0197455</v>
+        <v>0.0197558</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0214743</v>
+        <v>0.0212355</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0202574</v>
+        <v>0.020313</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0200053</v>
+        <v>0.0201542</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0216899</v>
+        <v>0.0215666</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0206409</v>
+        <v>0.0207414</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0202916</v>
+        <v>0.0201725</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0217668</v>
+        <v>0.021775</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0208183</v>
+        <v>0.0209855</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0203974</v>
+        <v>0.0203496</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0221245</v>
+        <v>0.0219462</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0212084</v>
+        <v>0.0210852</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0205162</v>
+        <v>0.0205827</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0220801</v>
+        <v>0.0220431</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0212817</v>
+        <v>0.0211844</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0204327</v>
+        <v>0.020649</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0220289</v>
+        <v>0.0220946</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0214742</v>
+        <v>0.0214024</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0208638</v>
+        <v>0.0207885</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0222732</v>
+        <v>0.022377</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0216742</v>
+        <v>0.021613</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0210386</v>
+        <v>0.0209201</v>
       </c>
       <c r="C20" t="n">
-        <v>0.022384</v>
+        <v>0.022366</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0216947</v>
+        <v>0.0218195</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0213326</v>
+        <v>0.021126</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0225625</v>
+        <v>0.0225799</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0220916</v>
+        <v>0.0221495</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0218935</v>
+        <v>0.0220544</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0230848</v>
+        <v>0.0228531</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0233451</v>
+        <v>0.0234981</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.024792</v>
+        <v>0.02533</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0238703</v>
+        <v>0.0236678</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0209154</v>
+        <v>0.0209484</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0204787</v>
+        <v>0.0204231</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0218133</v>
+        <v>0.022009</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0210963</v>
+        <v>0.0213047</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0204761</v>
+        <v>0.0203553</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0220968</v>
+        <v>0.022109</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0213697</v>
+        <v>0.0214672</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0208147</v>
+        <v>0.020894</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0223283</v>
+        <v>0.0224418</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0216032</v>
+        <v>0.0217334</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0210736</v>
+        <v>0.020919</v>
       </c>
       <c r="C27" t="n">
-        <v>0.022574</v>
+        <v>0.022734</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0219576</v>
+        <v>0.0220621</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0210921</v>
+        <v>0.0210273</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0229167</v>
+        <v>0.0230674</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0222478</v>
+        <v>0.0222854</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0212816</v>
+        <v>0.0213144</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02323</v>
+        <v>0.0233392</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0225567</v>
+        <v>0.0226869</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0214782</v>
+        <v>0.021598</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0235675</v>
+        <v>0.0235791</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0227905</v>
+        <v>0.0229864</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0214899</v>
+        <v>0.0217708</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0239196</v>
+        <v>0.0239631</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0231765</v>
+        <v>0.0231938</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0219521</v>
+        <v>0.0218152</v>
       </c>
       <c r="C32" t="n">
-        <v>0.024117</v>
+        <v>0.0242857</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0233031</v>
+        <v>0.0234838</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0222811</v>
+        <v>0.0221408</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0243577</v>
+        <v>0.0244322</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0237556</v>
+        <v>0.0239921</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0233614</v>
+        <v>0.023286</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0248927</v>
+        <v>0.0251248</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0246585</v>
+        <v>0.024816</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0257553</v>
+        <v>0.0260176</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0258775</v>
+        <v>0.0259988</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0262912</v>
+        <v>0.0270555</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0283346</v>
+        <v>0.0297889</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0269493</v>
+        <v>0.0279511</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0294394</v>
+        <v>0.0313619</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0332965</v>
+        <v>0.0326764</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0301487</v>
+        <v>0.0306144</v>
       </c>
       <c r="D37" t="n">
-        <v>0.022179</v>
+        <v>0.0223293</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0216018</v>
+        <v>0.0214401</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0229979</v>
+        <v>0.0231542</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0224013</v>
+        <v>0.0225557</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0217111</v>
+        <v>0.0215889</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0232221</v>
+        <v>0.0234369</v>
       </c>
       <c r="D39" t="n">
-        <v>0.022606</v>
+        <v>0.0227873</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0218738</v>
+        <v>0.0219141</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0235424</v>
+        <v>0.0238442</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0228654</v>
+        <v>0.0230884</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0220702</v>
+        <v>0.0219532</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0239063</v>
+        <v>0.0241627</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0231624</v>
+        <v>0.0232443</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.022338</v>
+        <v>0.0222604</v>
       </c>
       <c r="C42" t="n">
-        <v>0.024236</v>
+        <v>0.0243689</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0234658</v>
+        <v>0.0236112</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.022531</v>
+        <v>0.0223224</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0247462</v>
+        <v>0.0247645</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0238601</v>
+        <v>0.0240735</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0228188</v>
+        <v>0.0226611</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0251075</v>
+        <v>0.0252023</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0242308</v>
+        <v>0.0243155</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0234172</v>
+        <v>0.0230937</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0255453</v>
+        <v>0.0256841</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0246194</v>
+        <v>0.0247358</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0238639</v>
+        <v>0.0235504</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0260441</v>
+        <v>0.0261049</v>
       </c>
       <c r="D46" t="n">
-        <v>0.025135</v>
+        <v>0.025267</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0248275</v>
+        <v>0.0244868</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0266704</v>
+        <v>0.0268483</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0260235</v>
+        <v>0.0261022</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0266886</v>
+        <v>0.0262409</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0274755</v>
+        <v>0.0275667</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0272798</v>
+        <v>0.0276072</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0287727</v>
+        <v>0.0277278</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0288294</v>
+        <v>0.0286701</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0296663</v>
+        <v>0.0295462</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0313801</v>
+        <v>0.0307067</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0308101</v>
+        <v>0.0308865</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0330291</v>
+        <v>0.0334435</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0359659</v>
+        <v>0.0346717</v>
       </c>
       <c r="C51" t="n">
-        <v>0.034362</v>
+        <v>0.0346025</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0230591</v>
+        <v>0.0231941</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0408527</v>
+        <v>0.0404408</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0393474</v>
+        <v>0.0407617</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0233127</v>
+        <v>0.0234115</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0231485</v>
+        <v>0.023092</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0246135</v>
+        <v>0.0246558</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0235623</v>
+        <v>0.0236763</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0233523</v>
+        <v>0.0233438</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0249101</v>
+        <v>0.025033</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0242213</v>
+        <v>0.0238456</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0234835</v>
+        <v>0.0234509</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0252743</v>
+        <v>0.025346</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0240722</v>
+        <v>0.0243339</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0236986</v>
+        <v>0.0237578</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0256381</v>
+        <v>0.0257162</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0244966</v>
+        <v>0.02458</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0239719</v>
+        <v>0.023998</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0259762</v>
+        <v>0.0260687</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0247618</v>
+        <v>0.0247728</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.024349</v>
+        <v>0.0243695</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0263916</v>
+        <v>0.0264428</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0251763</v>
+        <v>0.0253255</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0248764</v>
+        <v>0.0247522</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0269658</v>
+        <v>0.0269709</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0257108</v>
+        <v>0.0256788</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0255894</v>
+        <v>0.0261547</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0275366</v>
+        <v>0.0275035</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0263529</v>
+        <v>0.0264414</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0267691</v>
+        <v>0.0265748</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0282707</v>
+        <v>0.0282917</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0272909</v>
+        <v>0.0274419</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0281541</v>
+        <v>0.0279869</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0293528</v>
+        <v>0.0293409</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0289989</v>
+        <v>0.0288848</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0303655</v>
+        <v>0.0300948</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0309468</v>
+        <v>0.0308265</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0314782</v>
+        <v>0.0311487</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0330089</v>
+        <v>0.0327227</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0329072</v>
+        <v>0.0330157</v>
       </c>
       <c r="D64" t="n">
-        <v>0.034999</v>
+        <v>0.0350361</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0367801</v>
+        <v>0.0366462</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0365758</v>
+        <v>0.0363389</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0403451</v>
+        <v>0.0405134</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0420639</v>
+        <v>0.0421284</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0410581</v>
+        <v>0.0412037</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0254092</v>
+        <v>0.0251494</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.028385</v>
+        <v>0.0280623</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0265393</v>
+        <v>0.0267702</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0249819</v>
+        <v>0.0253506</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0284714</v>
+        <v>0.0281535</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0265597</v>
+        <v>0.0269894</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0253215</v>
+        <v>0.0256349</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0286939</v>
+        <v>0.0285761</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0271938</v>
+        <v>0.0273326</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0256685</v>
+        <v>0.0258342</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0289325</v>
+        <v>0.0286404</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0272609</v>
+        <v>0.0273954</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0259669</v>
+        <v>0.0260447</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.029224</v>
+        <v>0.0290065</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0283033</v>
+        <v>0.0277838</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0261628</v>
+        <v>0.0264888</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0295156</v>
+        <v>0.0295007</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0281581</v>
+        <v>0.0285278</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0268256</v>
+        <v>0.0265436</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0298669</v>
+        <v>0.0296888</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0286765</v>
+        <v>0.0291126</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0274559</v>
+        <v>0.0276093</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0304992</v>
+        <v>0.0302909</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0293781</v>
+        <v>0.0292774</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0281141</v>
+        <v>0.0283097</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0313426</v>
+        <v>0.0312675</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0304509</v>
+        <v>0.0305387</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0292734</v>
+        <v>0.0291709</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0326897</v>
+        <v>0.0326041</v>
       </c>
       <c r="C76" t="n">
-        <v>0.031299</v>
+        <v>0.0317611</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0309474</v>
+        <v>0.0310881</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0344036</v>
+        <v>0.0342427</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0331102</v>
+        <v>0.0330231</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0331571</v>
+        <v>0.0333266</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0369576</v>
+        <v>0.0366205</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0355059</v>
+        <v>0.0353067</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0364384</v>
+        <v>0.0364797</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0401476</v>
+        <v>0.0400299</v>
       </c>
       <c r="C79" t="n">
-        <v>0.037889</v>
+        <v>0.0381746</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0411204</v>
+        <v>0.0415034</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0449753</v>
+        <v>0.044912</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0423109</v>
+        <v>0.0422026</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0359286</v>
+        <v>0.0361094</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0583038</v>
+        <v>0.0547861</v>
       </c>
       <c r="C81" t="n">
-        <v>0.035474</v>
+        <v>0.0356944</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0368997</v>
+        <v>0.037265</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0565836</v>
+        <v>0.0551107</v>
       </c>
       <c r="C82" t="n">
-        <v>0.03624</v>
+        <v>0.0363443</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0376885</v>
+        <v>0.0379826</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0567759</v>
+        <v>0.0551194</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0372115</v>
+        <v>0.037172</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0382764</v>
+        <v>0.0380604</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0566853</v>
+        <v>0.0552646</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0379672</v>
+        <v>0.0381124</v>
       </c>
       <c r="D84" t="n">
-        <v>0.039313</v>
+        <v>0.0389161</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0571356</v>
+        <v>0.0557649</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0392776</v>
+        <v>0.0392634</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0396695</v>
+        <v>0.0397632</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0572577</v>
+        <v>0.0558021</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0406381</v>
+        <v>0.0404487</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0403702</v>
+        <v>0.0407204</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0574252</v>
+        <v>0.0559941</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0419694</v>
+        <v>0.0418971</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0412483</v>
+        <v>0.0414106</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0579152</v>
+        <v>0.0565456</v>
       </c>
       <c r="C88" t="n">
-        <v>0.043543</v>
+        <v>0.0434485</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0419128</v>
+        <v>0.0425001</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0585095</v>
+        <v>0.0568685</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0451626</v>
+        <v>0.0451457</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0428764</v>
+        <v>0.0428327</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.059386</v>
+        <v>0.0582462</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0465088</v>
+        <v>0.046553</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0446362</v>
+        <v>0.0448904</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0603142</v>
+        <v>0.0589798</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0483077</v>
+        <v>0.0485221</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0461892</v>
+        <v>0.0463478</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0621197</v>
+        <v>0.0606525</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0505323</v>
+        <v>0.0507181</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0490639</v>
+        <v>0.0487294</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0644884</v>
+        <v>0.0629514</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0535531</v>
+        <v>0.0534058</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0533584</v>
+        <v>0.054706</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.06847540000000001</v>
+        <v>0.0667546</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0576183</v>
+        <v>0.0578977</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0712542</v>
+        <v>0.0714114</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0857614</v>
+        <v>0.0859989</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0717614</v>
+        <v>0.0691259</v>
       </c>
       <c r="D95" t="n">
-        <v>0.07156650000000001</v>
+        <v>0.0716031</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0856295</v>
+        <v>0.0859008</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0695751</v>
+        <v>0.0696214</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0720243</v>
+        <v>0.0720272</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0858148</v>
+        <v>0.0859799</v>
       </c>
       <c r="C97" t="n">
-        <v>0.07013900000000001</v>
+        <v>0.069992</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0724747</v>
+        <v>0.07253999999999999</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.08596230000000001</v>
+        <v>0.0859892</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0706871</v>
+        <v>0.07108730000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.07307669999999999</v>
+        <v>0.07306989999999999</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.086116</v>
+        <v>0.0861087</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0714998</v>
+        <v>0.0711664</v>
       </c>
       <c r="D99" t="n">
-        <v>0.07361470000000001</v>
+        <v>0.073578</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08614810000000001</v>
+        <v>0.0863067</v>
       </c>
       <c r="C100" t="n">
-        <v>0.07197050000000001</v>
+        <v>0.0718438</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0742901</v>
+        <v>0.07415720000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08638949999999999</v>
+        <v>0.0863213</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0728039</v>
+        <v>0.07251580000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.07492</v>
+        <v>0.07500560000000001</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.08660370000000001</v>
+        <v>0.08679099999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0734895</v>
+        <v>0.07336570000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0757668</v>
+        <v>0.0757448</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.08714280000000001</v>
+        <v>0.09044770000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0745671</v>
+        <v>0.0744389</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0766761</v>
+        <v>0.07646550000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.08765390000000001</v>
+        <v>0.08971419999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0758141</v>
+        <v>0.0756706</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07789500000000001</v>
+        <v>0.07784770000000001</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0884928</v>
+        <v>0.088571</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0770593</v>
+        <v>0.0769688</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0794414</v>
+        <v>0.0792287</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0897719</v>
+        <v>0.0898468</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0795824</v>
+        <v>0.0788774</v>
       </c>
       <c r="D106" t="n">
-        <v>0.08153580000000001</v>
+        <v>0.0815867</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0917616</v>
+        <v>0.0918436</v>
       </c>
       <c r="C107" t="n">
-        <v>0.08162270000000001</v>
+        <v>0.0814018</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0853064</v>
+        <v>0.0851591</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0950969</v>
+        <v>0.0951042</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0915815</v>
+        <v>0.0849849</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0884412</v>
+        <v>0.0876628</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.101317</v>
+        <v>0.100073</v>
       </c>
       <c r="C109" t="n">
-        <v>0.091146</v>
+        <v>0.0909619</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0891904</v>
+        <v>0.08835999999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.107881</v>
+        <v>0.106979</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0837422</v>
+        <v>0.0831083</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0902703</v>
+        <v>0.0901762</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.108103</v>
+        <v>0.107008</v>
       </c>
       <c r="C111" t="n">
-        <v>0.08466509999999999</v>
+        <v>0.08390930000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.090972</v>
+        <v>0.0909071</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.108264</v>
+        <v>0.107514</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0855062</v>
+        <v>0.0849477</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0919341</v>
+        <v>0.091722</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.108228</v>
+        <v>0.107262</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0866566</v>
+        <v>0.0857808</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0929422</v>
+        <v>0.09302009999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.108466</v>
+        <v>0.107354</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0877551</v>
+        <v>0.0868577</v>
       </c>
       <c r="D114" t="n">
-        <v>0.09385350000000001</v>
+        <v>0.0940646</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.108496</v>
+        <v>0.107643</v>
       </c>
       <c r="C115" t="n">
-        <v>0.08895989999999999</v>
+        <v>0.08814130000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.09513480000000001</v>
+        <v>0.09528059999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108769</v>
+        <v>0.107849</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0903901</v>
+        <v>0.08993080000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.09606430000000001</v>
+        <v>0.102983</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.109182</v>
+        <v>0.108178</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0918344</v>
+        <v>0.0913408</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0975775</v>
+        <v>0.0979859</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.109716</v>
+        <v>0.10875</v>
       </c>
       <c r="C118" t="n">
-        <v>0.100714</v>
+        <v>0.0930324</v>
       </c>
       <c r="D118" t="n">
-        <v>0.09928720000000001</v>
+        <v>0.0997719</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.110515</v>
+        <v>0.109544</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0951906</v>
+        <v>0.09485499999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.101044</v>
+        <v>0.100082</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.123717</v>
+        <v>0.110739</v>
       </c>
       <c r="C120" t="n">
-        <v>0.09727189999999999</v>
+        <v>0.0972517</v>
       </c>
       <c r="D120" t="n">
-        <v>0.103743</v>
+        <v>0.104404</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.113718</v>
+        <v>0.112469</v>
       </c>
       <c r="C121" t="n">
-        <v>0.100132</v>
+        <v>0.0990909</v>
       </c>
       <c r="D121" t="n">
-        <v>0.107407</v>
+        <v>0.108365</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.116763</v>
+        <v>0.115561</v>
       </c>
       <c r="C122" t="n">
-        <v>0.103974</v>
+        <v>0.104056</v>
       </c>
       <c r="D122" t="n">
-        <v>0.113679</v>
+        <v>0.118684</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.121188</v>
+        <v>0.12031</v>
       </c>
       <c r="C123" t="n">
-        <v>0.109817</v>
+        <v>0.109892</v>
       </c>
       <c r="D123" t="n">
-        <v>0.107054</v>
+        <v>0.106002</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.142103</v>
+        <v>0.148488</v>
       </c>
       <c r="C124" t="n">
-        <v>0.09734279999999999</v>
+        <v>0.0972874</v>
       </c>
       <c r="D124" t="n">
-        <v>0.108186</v>
+        <v>0.107315</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.134834</v>
+        <v>0.135051</v>
       </c>
       <c r="C125" t="n">
-        <v>0.09865699999999999</v>
+        <v>0.0984495</v>
       </c>
       <c r="D125" t="n">
-        <v>0.109216</v>
+        <v>0.108908</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.135473</v>
+        <v>0.135094</v>
       </c>
       <c r="C126" t="n">
-        <v>0.100037</v>
+        <v>0.09990980000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.110312</v>
+        <v>0.109012</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.13519</v>
+        <v>0.134826</v>
       </c>
       <c r="C127" t="n">
-        <v>0.102164</v>
+        <v>0.100921</v>
       </c>
       <c r="D127" t="n">
-        <v>0.11152</v>
+        <v>0.11027</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.13551</v>
+        <v>0.137105</v>
       </c>
       <c r="C128" t="n">
-        <v>0.103151</v>
+        <v>0.102891</v>
       </c>
       <c r="D128" t="n">
-        <v>0.112848</v>
+        <v>0.111548</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.13535</v>
+        <v>0.135381</v>
       </c>
       <c r="C129" t="n">
-        <v>0.104566</v>
+        <v>0.104335</v>
       </c>
       <c r="D129" t="n">
-        <v>0.114061</v>
+        <v>0.113361</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.13612</v>
+        <v>0.135555</v>
       </c>
       <c r="C130" t="n">
-        <v>0.106407</v>
+        <v>0.106028</v>
       </c>
       <c r="D130" t="n">
-        <v>0.115964</v>
+        <v>0.114285</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.136738</v>
+        <v>0.135771</v>
       </c>
       <c r="C131" t="n">
-        <v>0.108277</v>
+        <v>0.107503</v>
       </c>
       <c r="D131" t="n">
-        <v>0.120039</v>
+        <v>0.116272</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.137338</v>
+        <v>0.13615</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1103</v>
+        <v>0.109553</v>
       </c>
       <c r="D132" t="n">
-        <v>0.119829</v>
+        <v>0.118323</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.13811</v>
+        <v>0.137049</v>
       </c>
       <c r="C133" t="n">
-        <v>0.111999</v>
+        <v>0.11155</v>
       </c>
       <c r="D133" t="n">
-        <v>0.121492</v>
+        <v>0.120409</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.138573</v>
+        <v>0.137918</v>
       </c>
       <c r="C134" t="n">
-        <v>0.114394</v>
+        <v>0.114107</v>
       </c>
       <c r="D134" t="n">
-        <v>0.124403</v>
+        <v>0.12295</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.140437</v>
+        <v>0.139599</v>
       </c>
       <c r="C135" t="n">
-        <v>0.117534</v>
+        <v>0.117168</v>
       </c>
       <c r="D135" t="n">
-        <v>0.128597</v>
+        <v>0.127002</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.142639</v>
+        <v>0.142052</v>
       </c>
       <c r="C136" t="n">
-        <v>0.121553</v>
+        <v>0.121356</v>
       </c>
       <c r="D136" t="n">
-        <v>0.134792</v>
+        <v>0.133445</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.146398</v>
+        <v>0.14661</v>
       </c>
       <c r="C137" t="n">
-        <v>0.127507</v>
+        <v>0.127229</v>
       </c>
       <c r="D137" t="n">
-        <v>0.118166</v>
+        <v>0.118219</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.158188</v>
+        <v>0.157942</v>
       </c>
       <c r="C138" t="n">
-        <v>0.108629</v>
+        <v>0.108608</v>
       </c>
       <c r="D138" t="n">
-        <v>0.120291</v>
+        <v>0.11952</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.159012</v>
+        <v>0.158074</v>
       </c>
       <c r="C139" t="n">
-        <v>0.111258</v>
+        <v>0.110109</v>
       </c>
       <c r="D139" t="n">
-        <v>0.121896</v>
+        <v>0.120366</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.157979</v>
+        <v>0.157926</v>
       </c>
       <c r="C140" t="n">
-        <v>0.111236</v>
+        <v>0.111367</v>
       </c>
       <c r="D140" t="n">
-        <v>0.121276</v>
+        <v>0.121422</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158071</v>
+        <v>0.158208</v>
       </c>
       <c r="C141" t="n">
-        <v>0.112691</v>
+        <v>0.112901</v>
       </c>
       <c r="D141" t="n">
-        <v>0.122517</v>
+        <v>0.122666</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158271</v>
+        <v>0.158103</v>
       </c>
       <c r="C142" t="n">
-        <v>0.114169</v>
+        <v>0.114499</v>
       </c>
       <c r="D142" t="n">
-        <v>0.123839</v>
+        <v>0.123948</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158336</v>
+        <v>0.158343</v>
       </c>
       <c r="C143" t="n">
-        <v>0.115826</v>
+        <v>0.115859</v>
       </c>
       <c r="D143" t="n">
-        <v>0.125136</v>
+        <v>0.125288</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0196787</v>
+        <v>0.019845</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0211134</v>
+        <v>0.0207816</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0197685</v>
+        <v>0.0197621</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0198532</v>
+        <v>0.0198904</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0210985</v>
+        <v>0.0208667</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0197599</v>
+        <v>0.0199124</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0199522</v>
+        <v>0.0199411</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0209683</v>
+        <v>0.0208241</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0197447</v>
+        <v>0.0199636</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0198756</v>
+        <v>0.0199892</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0208033</v>
+        <v>0.0207476</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0197696</v>
+        <v>0.0200411</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0199561</v>
+        <v>0.0201312</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0207671</v>
+        <v>0.020652</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0198918</v>
+        <v>0.0201853</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0201717</v>
+        <v>0.0202981</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0209942</v>
+        <v>0.0209277</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0199984</v>
+        <v>0.0205493</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0202188</v>
+        <v>0.0205168</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0208751</v>
+        <v>0.0208354</v>
       </c>
       <c r="D8" t="n">
-        <v>0.020518</v>
+        <v>0.0212255</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0207662</v>
+        <v>0.0208663</v>
       </c>
       <c r="C9" t="n">
-        <v>0.021043</v>
+        <v>0.021057</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0195524</v>
+        <v>0.0196114</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0195754</v>
+        <v>0.0194247</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0207508</v>
+        <v>0.0207722</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0196468</v>
+        <v>0.0196542</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0196908</v>
+        <v>0.0196249</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0209433</v>
+        <v>0.0211993</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0197657</v>
+        <v>0.0197311</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0197244</v>
+        <v>0.0198597</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0210849</v>
+        <v>0.021061</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0199764</v>
+        <v>0.0200198</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0197558</v>
+        <v>0.019879</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0212355</v>
+        <v>0.0212452</v>
       </c>
       <c r="D13" t="n">
-        <v>0.020313</v>
+        <v>0.0202983</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0201542</v>
+        <v>0.0201309</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0215666</v>
+        <v>0.0215641</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0207414</v>
+        <v>0.0206514</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0201725</v>
+        <v>0.0201944</v>
       </c>
       <c r="C15" t="n">
-        <v>0.021775</v>
+        <v>0.0219941</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0209855</v>
+        <v>0.0208261</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0203496</v>
+        <v>0.0204396</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0219462</v>
+        <v>0.0221573</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0210852</v>
+        <v>0.0213814</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0205827</v>
+        <v>0.0204292</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0220431</v>
+        <v>0.022048</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0211844</v>
+        <v>0.021683</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.020649</v>
+        <v>0.0206016</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0220946</v>
+        <v>0.022091</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0214024</v>
+        <v>0.0218647</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0207885</v>
+        <v>0.0208694</v>
       </c>
       <c r="C19" t="n">
-        <v>0.022377</v>
+        <v>0.0223514</v>
       </c>
       <c r="D19" t="n">
-        <v>0.021613</v>
+        <v>0.0217385</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0209201</v>
+        <v>0.0208716</v>
       </c>
       <c r="C20" t="n">
-        <v>0.022366</v>
+        <v>0.0224619</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0218195</v>
+        <v>0.0221793</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.021126</v>
+        <v>0.021266</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0225799</v>
+        <v>0.0226031</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0221495</v>
+        <v>0.0234999</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0220544</v>
+        <v>0.0221654</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0228531</v>
+        <v>0.0229443</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0234981</v>
+        <v>0.025596</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.02533</v>
+        <v>0.0254766</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0236678</v>
+        <v>0.0236086</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0209484</v>
+        <v>0.0208572</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0204231</v>
+        <v>0.0204662</v>
       </c>
       <c r="C24" t="n">
-        <v>0.022009</v>
+        <v>0.0218909</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0213047</v>
+        <v>0.0211474</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0203553</v>
+        <v>0.0205747</v>
       </c>
       <c r="C25" t="n">
-        <v>0.022109</v>
+        <v>0.0220636</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0214672</v>
+        <v>0.0213952</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.020894</v>
+        <v>0.0207285</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0224418</v>
+        <v>0.0222406</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0217334</v>
+        <v>0.0216285</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.020919</v>
+        <v>0.0208946</v>
       </c>
       <c r="C27" t="n">
-        <v>0.022734</v>
+        <v>0.0225907</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0220621</v>
+        <v>0.0219129</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0210273</v>
+        <v>0.0211401</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0230674</v>
+        <v>0.022887</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0222854</v>
+        <v>0.0221909</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0213144</v>
+        <v>0.0213119</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0233392</v>
+        <v>0.0230842</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0226869</v>
+        <v>0.0226314</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.021598</v>
+        <v>0.0214143</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0235791</v>
+        <v>0.0234928</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0229864</v>
+        <v>0.02287</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0217708</v>
+        <v>0.0217806</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0239631</v>
+        <v>0.0237357</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0231938</v>
+        <v>0.0232938</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0218152</v>
+        <v>0.0218731</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0242857</v>
+        <v>0.0239547</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0234838</v>
+        <v>0.0236459</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0221408</v>
+        <v>0.0220813</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0244322</v>
+        <v>0.0241213</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0239921</v>
+        <v>0.0243776</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.023286</v>
+        <v>0.022994</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0251248</v>
+        <v>0.0246092</v>
       </c>
       <c r="D34" t="n">
-        <v>0.024816</v>
+        <v>0.0256094</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0260176</v>
+        <v>0.0248609</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0259988</v>
+        <v>0.0256069</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0270555</v>
+        <v>0.0280099</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0297889</v>
+        <v>0.0303561</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0279511</v>
+        <v>0.0258742</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0313619</v>
+        <v>0.0318825</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0326764</v>
+        <v>0.0334795</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0306144</v>
+        <v>0.0314078</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0223293</v>
+        <v>0.0222322</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0214401</v>
+        <v>0.0213853</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0231542</v>
+        <v>0.0231422</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0225557</v>
+        <v>0.0224761</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0215889</v>
+        <v>0.0215081</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0234369</v>
+        <v>0.0232697</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0227873</v>
+        <v>0.0226406</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0219141</v>
+        <v>0.0216916</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0238442</v>
+        <v>0.0236008</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0230884</v>
+        <v>0.0229219</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0219532</v>
+        <v>0.0218279</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0241627</v>
+        <v>0.0239637</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0232443</v>
+        <v>0.0232372</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0222604</v>
+        <v>0.0219942</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0243689</v>
+        <v>0.0241731</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0236112</v>
+        <v>0.0235604</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0223224</v>
+        <v>0.0223725</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0247645</v>
+        <v>0.024655</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0240735</v>
+        <v>0.0239217</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0226611</v>
+        <v>0.0226982</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0252023</v>
+        <v>0.0250199</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0243155</v>
+        <v>0.0243675</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0230937</v>
+        <v>0.0230858</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0256841</v>
+        <v>0.0254471</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0247358</v>
+        <v>0.0249258</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0235504</v>
+        <v>0.0235639</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0261049</v>
+        <v>0.0257887</v>
       </c>
       <c r="D46" t="n">
-        <v>0.025267</v>
+        <v>0.0256372</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0244868</v>
+        <v>0.0246222</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0268483</v>
+        <v>0.026411</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0261022</v>
+        <v>0.0267547</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0262409</v>
+        <v>0.0261523</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0275667</v>
+        <v>0.0273266</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0276072</v>
+        <v>0.0285161</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0277278</v>
+        <v>0.028148</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0286701</v>
+        <v>0.0288305</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0295462</v>
+        <v>0.0309254</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0307067</v>
+        <v>0.0310283</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0308865</v>
+        <v>0.0310001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0334435</v>
+        <v>0.03463</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0346717</v>
+        <v>0.0349552</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0346025</v>
+        <v>0.0354398</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0231941</v>
+        <v>0.0230982</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0404408</v>
+        <v>0.0411047</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0407617</v>
+        <v>0.0403807</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0234115</v>
+        <v>0.0233375</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.023092</v>
+        <v>0.0235334</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0246558</v>
+        <v>0.0246173</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0236763</v>
+        <v>0.023593</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0233438</v>
+        <v>0.0233996</v>
       </c>
       <c r="C54" t="n">
-        <v>0.025033</v>
+        <v>0.0249205</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0238456</v>
+        <v>0.0238201</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0234509</v>
+        <v>0.0240147</v>
       </c>
       <c r="C55" t="n">
-        <v>0.025346</v>
+        <v>0.0252809</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0243339</v>
+        <v>0.0241227</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0237578</v>
+        <v>0.0237518</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0257162</v>
+        <v>0.0256266</v>
       </c>
       <c r="D56" t="n">
-        <v>0.02458</v>
+        <v>0.0244723</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.023998</v>
+        <v>0.0243179</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0260687</v>
+        <v>0.0260148</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0247728</v>
+        <v>0.024922</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0243695</v>
+        <v>0.0246823</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0264428</v>
+        <v>0.0264257</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0253255</v>
+        <v>0.0253022</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0247522</v>
+        <v>0.0250545</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0269709</v>
+        <v>0.0269137</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0256788</v>
+        <v>0.0259853</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0261547</v>
+        <v>0.0256238</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0275035</v>
+        <v>0.0274746</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0264414</v>
+        <v>0.0267356</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0265748</v>
+        <v>0.0266776</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0282917</v>
+        <v>0.0282353</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0274419</v>
+        <v>0.0278598</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0279869</v>
+        <v>0.0281548</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0293409</v>
+        <v>0.0295079</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0288848</v>
+        <v>0.0296228</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0300948</v>
+        <v>0.0303362</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0308265</v>
+        <v>0.0309257</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0311487</v>
+        <v>0.0320613</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0327227</v>
+        <v>0.0330569</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0330157</v>
+        <v>0.0332921</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0350361</v>
+        <v>0.0356651</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0366462</v>
+        <v>0.0370665</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0363389</v>
+        <v>0.0365299</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0405134</v>
+        <v>0.0410615</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0421284</v>
+        <v>0.0420454</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0412037</v>
+        <v>0.0415142</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0251494</v>
+        <v>0.0247871</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0280623</v>
+        <v>0.0292569</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0267702</v>
+        <v>0.0269617</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0253506</v>
+        <v>0.0249031</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0281535</v>
+        <v>0.0293821</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0269894</v>
+        <v>0.0268134</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0256349</v>
+        <v>0.0256338</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0285761</v>
+        <v>0.0294515</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0273326</v>
+        <v>0.0271091</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0258342</v>
+        <v>0.0258881</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0286404</v>
+        <v>0.0297582</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0273954</v>
+        <v>0.028098</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0260447</v>
+        <v>0.0259173</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0290065</v>
+        <v>0.0298101</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0277838</v>
+        <v>0.028241</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0264888</v>
+        <v>0.0262823</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0295007</v>
+        <v>0.0302477</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0285278</v>
+        <v>0.0283238</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0265436</v>
+        <v>0.0271444</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0296888</v>
+        <v>0.0307674</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0291126</v>
+        <v>0.0289933</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0276093</v>
+        <v>0.0274852</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0302909</v>
+        <v>0.0314948</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0292774</v>
+        <v>0.0297943</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0283097</v>
+        <v>0.0283927</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0312675</v>
+        <v>0.0322669</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0305387</v>
+        <v>0.0305728</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0291709</v>
+        <v>0.0298077</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0326041</v>
+        <v>0.0336498</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0317611</v>
+        <v>0.0318959</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0310881</v>
+        <v>0.0311471</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0342427</v>
+        <v>0.0353674</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0330231</v>
+        <v>0.0330477</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0333266</v>
+        <v>0.0336077</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0366205</v>
+        <v>0.0379218</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0353067</v>
+        <v>0.0355949</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0364797</v>
+        <v>0.0368424</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0400299</v>
+        <v>0.0413547</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0381746</v>
+        <v>0.0380312</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0415034</v>
+        <v>0.0414916</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.044912</v>
+        <v>0.045947</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0422026</v>
+        <v>0.0422199</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0361094</v>
+        <v>0.0365337</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0547861</v>
+        <v>0.0557759</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0356944</v>
+        <v>0.0358291</v>
       </c>
       <c r="D81" t="n">
-        <v>0.037265</v>
+        <v>0.037033</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0551107</v>
+        <v>0.0559223</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0363443</v>
+        <v>0.0366934</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0379826</v>
+        <v>0.0385276</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0551194</v>
+        <v>0.0561782</v>
       </c>
       <c r="C83" t="n">
-        <v>0.037172</v>
+        <v>0.0371542</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0380604</v>
+        <v>0.0385709</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0552646</v>
+        <v>0.0562248</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0381124</v>
+        <v>0.0385504</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0389161</v>
+        <v>0.0392564</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0557649</v>
+        <v>0.0564335</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0392634</v>
+        <v>0.0397275</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0397632</v>
+        <v>0.0399463</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0558021</v>
+        <v>0.0568433</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0404487</v>
+        <v>0.0406958</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0407204</v>
+        <v>0.040702</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0559941</v>
+        <v>0.0571164</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0418971</v>
+        <v>0.0420235</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0414106</v>
+        <v>0.041626</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0565456</v>
+        <v>0.0573685</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0434485</v>
+        <v>0.043628</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0425001</v>
+        <v>0.0423938</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0568685</v>
+        <v>0.0579423</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0451457</v>
+        <v>0.0448497</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0428327</v>
+        <v>0.0433475</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0582462</v>
+        <v>0.0585424</v>
       </c>
       <c r="C90" t="n">
-        <v>0.046553</v>
+        <v>0.0467952</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0448904</v>
+        <v>0.0447666</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0589798</v>
+        <v>0.0597217</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0485221</v>
+        <v>0.0485398</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0463478</v>
+        <v>0.0465736</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0606525</v>
+        <v>0.0613516</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0507181</v>
+        <v>0.050625</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0487294</v>
+        <v>0.0493242</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0629514</v>
+        <v>0.0637716</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0534058</v>
+        <v>0.0531723</v>
       </c>
       <c r="D93" t="n">
-        <v>0.054706</v>
+        <v>0.0542457</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0667546</v>
+        <v>0.0674956</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0578977</v>
+        <v>0.0575467</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0714114</v>
+        <v>0.07123119999999999</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0859989</v>
+        <v>0.0857108</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0691259</v>
+        <v>0.0690796</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0716031</v>
+        <v>0.071656</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0859008</v>
+        <v>0.085729</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0696214</v>
+        <v>0.0695586</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0720272</v>
+        <v>0.0721349</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0859799</v>
+        <v>0.08582099999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.069992</v>
+        <v>0.07006270000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.07253999999999999</v>
+        <v>0.07265770000000001</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0859892</v>
+        <v>0.085891</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07108730000000001</v>
+        <v>0.0706492</v>
       </c>
       <c r="D98" t="n">
-        <v>0.07306989999999999</v>
+        <v>0.0729856</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0861087</v>
+        <v>0.08591310000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0711664</v>
+        <v>0.0712165</v>
       </c>
       <c r="D99" t="n">
-        <v>0.073578</v>
+        <v>0.0736991</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0863067</v>
+        <v>0.0952533</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0718438</v>
+        <v>0.0719084</v>
       </c>
       <c r="D100" t="n">
-        <v>0.07415720000000001</v>
+        <v>0.0742898</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0863213</v>
+        <v>0.0900392</v>
       </c>
       <c r="C101" t="n">
-        <v>0.07251580000000001</v>
+        <v>0.0726926</v>
       </c>
       <c r="D101" t="n">
-        <v>0.07500560000000001</v>
+        <v>0.07498199999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.08679099999999999</v>
+        <v>0.0865544</v>
       </c>
       <c r="C102" t="n">
-        <v>0.07336570000000001</v>
+        <v>0.073481</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0757448</v>
+        <v>0.07573630000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.09044770000000001</v>
+        <v>0.08702120000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0744389</v>
+        <v>0.0744592</v>
       </c>
       <c r="D103" t="n">
-        <v>0.07646550000000001</v>
+        <v>0.0766086</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.08971419999999999</v>
+        <v>0.08758929999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0756706</v>
+        <v>0.0757119</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07784770000000001</v>
+        <v>0.077876</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.088571</v>
+        <v>0.0884514</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0769688</v>
+        <v>0.0771091</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0792287</v>
+        <v>0.07924580000000001</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0898468</v>
+        <v>0.08982080000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0788774</v>
+        <v>0.0789149</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0815867</v>
+        <v>0.08156239999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0918436</v>
+        <v>0.0916886</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0814018</v>
+        <v>0.08129740000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0851591</v>
+        <v>0.0852509</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0951042</v>
+        <v>0.0949089</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0849849</v>
+        <v>0.085034</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0876628</v>
+        <v>0.08773590000000001</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100073</v>
+        <v>0.09997010000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0909619</v>
+        <v>0.0910459</v>
       </c>
       <c r="D109" t="n">
-        <v>0.08835999999999999</v>
+        <v>0.0884414</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.106979</v>
+        <v>0.107963</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0831083</v>
+        <v>0.08287219999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0901762</v>
+        <v>0.0892877</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.107008</v>
+        <v>0.108243</v>
       </c>
       <c r="C111" t="n">
-        <v>0.08390930000000001</v>
+        <v>0.08375249999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0909071</v>
+        <v>0.0899992</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.107514</v>
+        <v>0.108225</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0849477</v>
+        <v>0.0846664</v>
       </c>
       <c r="D112" t="n">
-        <v>0.091722</v>
+        <v>0.0907741</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.107262</v>
+        <v>0.10822</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0857808</v>
+        <v>0.0856579</v>
       </c>
       <c r="D113" t="n">
-        <v>0.09302009999999999</v>
+        <v>0.0918117</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.107354</v>
+        <v>0.108618</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0868577</v>
+        <v>0.08681120000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0940646</v>
+        <v>0.092913</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.107643</v>
+        <v>0.108608</v>
       </c>
       <c r="C115" t="n">
-        <v>0.08814130000000001</v>
+        <v>0.08786919999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.09528059999999999</v>
+        <v>0.09400500000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.107849</v>
+        <v>0.109047</v>
       </c>
       <c r="C116" t="n">
-        <v>0.08993080000000001</v>
+        <v>0.0892593</v>
       </c>
       <c r="D116" t="n">
-        <v>0.102983</v>
+        <v>0.100748</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.108178</v>
+        <v>0.109454</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0913408</v>
+        <v>0.0907998</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0979859</v>
+        <v>0.09656720000000001</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.10875</v>
+        <v>0.110007</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0930324</v>
+        <v>0.0923614</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0997719</v>
+        <v>0.0981248</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.109544</v>
+        <v>0.110855</v>
       </c>
       <c r="C119" t="n">
-        <v>0.09485499999999999</v>
+        <v>0.0942355</v>
       </c>
       <c r="D119" t="n">
-        <v>0.100082</v>
+        <v>0.100153</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.110739</v>
+        <v>0.112081</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0972517</v>
+        <v>0.096293</v>
       </c>
       <c r="D120" t="n">
-        <v>0.104404</v>
+        <v>0.10274</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.112469</v>
+        <v>0.113914</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0990909</v>
+        <v>0.0990901</v>
       </c>
       <c r="D121" t="n">
-        <v>0.108365</v>
+        <v>0.106587</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.115561</v>
+        <v>0.116949</v>
       </c>
       <c r="C122" t="n">
-        <v>0.104056</v>
+        <v>0.102927</v>
       </c>
       <c r="D122" t="n">
-        <v>0.118684</v>
+        <v>0.112472</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.12031</v>
+        <v>0.121459</v>
       </c>
       <c r="C123" t="n">
-        <v>0.109892</v>
+        <v>0.108871</v>
       </c>
       <c r="D123" t="n">
-        <v>0.106002</v>
+        <v>0.106248</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.148488</v>
+        <v>0.134045</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0972874</v>
+        <v>0.0958808</v>
       </c>
       <c r="D124" t="n">
-        <v>0.107315</v>
+        <v>0.107515</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.135051</v>
+        <v>0.141735</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0984495</v>
+        <v>0.09704169999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.108908</v>
+        <v>0.108771</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.135094</v>
+        <v>0.14386</v>
       </c>
       <c r="C126" t="n">
-        <v>0.09990980000000001</v>
+        <v>0.0989488</v>
       </c>
       <c r="D126" t="n">
-        <v>0.109012</v>
+        <v>0.110258</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.134826</v>
+        <v>0.141993</v>
       </c>
       <c r="C127" t="n">
-        <v>0.100921</v>
+        <v>0.100162</v>
       </c>
       <c r="D127" t="n">
-        <v>0.11027</v>
+        <v>0.111363</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.137105</v>
+        <v>0.141564</v>
       </c>
       <c r="C128" t="n">
-        <v>0.102891</v>
+        <v>0.101129</v>
       </c>
       <c r="D128" t="n">
-        <v>0.111548</v>
+        <v>0.112139</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.135381</v>
+        <v>0.141767</v>
       </c>
       <c r="C129" t="n">
-        <v>0.104335</v>
+        <v>0.102743</v>
       </c>
       <c r="D129" t="n">
-        <v>0.113361</v>
+        <v>0.113529</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.135555</v>
+        <v>0.142252</v>
       </c>
       <c r="C130" t="n">
-        <v>0.106028</v>
+        <v>0.10443</v>
       </c>
       <c r="D130" t="n">
-        <v>0.114285</v>
+        <v>0.114912</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.135771</v>
+        <v>0.142466</v>
       </c>
       <c r="C131" t="n">
-        <v>0.107503</v>
+        <v>0.106431</v>
       </c>
       <c r="D131" t="n">
-        <v>0.116272</v>
+        <v>0.116482</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.13615</v>
+        <v>0.143005</v>
       </c>
       <c r="C132" t="n">
-        <v>0.109553</v>
+        <v>0.108216</v>
       </c>
       <c r="D132" t="n">
-        <v>0.118323</v>
+        <v>0.118414</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.137049</v>
+        <v>0.143627</v>
       </c>
       <c r="C133" t="n">
-        <v>0.11155</v>
+        <v>0.110255</v>
       </c>
       <c r="D133" t="n">
-        <v>0.120409</v>
+        <v>0.120533</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.137918</v>
+        <v>0.144639</v>
       </c>
       <c r="C134" t="n">
-        <v>0.114107</v>
+        <v>0.112815</v>
       </c>
       <c r="D134" t="n">
-        <v>0.12295</v>
+        <v>0.123365</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.139599</v>
+        <v>0.146121</v>
       </c>
       <c r="C135" t="n">
-        <v>0.117168</v>
+        <v>0.11575</v>
       </c>
       <c r="D135" t="n">
-        <v>0.127002</v>
+        <v>0.127277</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.142052</v>
+        <v>0.148787</v>
       </c>
       <c r="C136" t="n">
-        <v>0.121356</v>
+        <v>0.119701</v>
       </c>
       <c r="D136" t="n">
-        <v>0.133445</v>
+        <v>0.133589</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.14661</v>
+        <v>0.153145</v>
       </c>
       <c r="C137" t="n">
-        <v>0.127229</v>
+        <v>0.126693</v>
       </c>
       <c r="D137" t="n">
-        <v>0.118219</v>
+        <v>0.119571</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.157942</v>
+        <v>0.160222</v>
       </c>
       <c r="C138" t="n">
-        <v>0.108608</v>
+        <v>0.108481</v>
       </c>
       <c r="D138" t="n">
-        <v>0.11952</v>
+        <v>0.123522</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.158074</v>
+        <v>0.15805</v>
       </c>
       <c r="C139" t="n">
-        <v>0.110109</v>
+        <v>0.109886</v>
       </c>
       <c r="D139" t="n">
-        <v>0.120366</v>
+        <v>0.120321</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.157926</v>
+        <v>0.158093</v>
       </c>
       <c r="C140" t="n">
-        <v>0.111367</v>
+        <v>0.111216</v>
       </c>
       <c r="D140" t="n">
-        <v>0.121422</v>
+        <v>0.121365</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158208</v>
+        <v>0.158066</v>
       </c>
       <c r="C141" t="n">
-        <v>0.112901</v>
+        <v>0.112687</v>
       </c>
       <c r="D141" t="n">
-        <v>0.122666</v>
+        <v>0.122535</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158103</v>
+        <v>0.158317</v>
       </c>
       <c r="C142" t="n">
-        <v>0.114499</v>
+        <v>0.114154</v>
       </c>
       <c r="D142" t="n">
-        <v>0.123948</v>
+        <v>0.123827</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158343</v>
+        <v>0.158434</v>
       </c>
       <c r="C143" t="n">
-        <v>0.115859</v>
+        <v>0.115713</v>
       </c>
       <c r="D143" t="n">
-        <v>0.125288</v>
+        <v>0.125232</v>
       </c>
     </row>
   </sheetData>
